--- a/AAII_Financials/Quarterly/LITE_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/LITE_QTR_FIN.xlsx
@@ -5,7 +5,7 @@
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\sundeep\Stocks_Automation\Financials\Quarterly\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\sundeep\Stocks_Automation\AAII_Financials\Quarterly\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="123" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="124" uniqueCount="92">
   <si>
     <t>LITE</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:Q102"/>
+  <dimension ref="A5:R102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,218 +665,231 @@
     <col min="1" max="1" width="6.42578125" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="5" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="9" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="13" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="15" width="13" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="12.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="6" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="10" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="14" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="16" width="13" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="12.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:18" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>43918</v>
+      </c>
+      <c r="E7" s="2">
         <v>43827</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>43736</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>43645</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>43554</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>43463</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>43372</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>43281</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>43190</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>43099</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>43008</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>42917</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>42826</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>42735</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>42644</v>
       </c>
     </row>
-    <row r="8" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
+        <v>402800</v>
+      </c>
+      <c r="E8" s="3">
         <v>457800</v>
       </c>
-      <c r="E8" s="3">
+      <c r="F8" s="3">
         <v>449900</v>
       </c>
-      <c r="F8" s="3">
+      <c r="G8" s="3">
         <v>404600</v>
       </c>
-      <c r="G8" s="3">
+      <c r="H8" s="3">
         <v>432900</v>
       </c>
-      <c r="H8" s="3">
+      <c r="I8" s="3">
         <v>373700</v>
       </c>
-      <c r="I8" s="3">
+      <c r="J8" s="3">
         <v>354100</v>
       </c>
-      <c r="J8" s="3">
+      <c r="K8" s="3">
         <v>301100</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>298800</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>404600</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>243200</v>
       </c>
-      <c r="N8" s="3">
+      <c r="O8" s="3">
         <v>222700</v>
       </c>
-      <c r="O8" s="3">
+      <c r="P8" s="3">
         <v>255800</v>
       </c>
-      <c r="P8" s="3">
+      <c r="Q8" s="3">
         <v>265000</v>
       </c>
-      <c r="Q8" s="3">
+      <c r="R8" s="3">
         <v>258100</v>
       </c>
     </row>
-    <row r="9" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
+        <v>245100</v>
+      </c>
+      <c r="E9" s="3">
         <v>268700</v>
       </c>
-      <c r="E9" s="3">
+      <c r="F9" s="3">
         <v>282200</v>
       </c>
-      <c r="F9" s="3">
+      <c r="G9" s="3">
         <v>317800</v>
       </c>
-      <c r="G9" s="3">
+      <c r="H9" s="3">
         <v>344600</v>
       </c>
-      <c r="H9" s="3">
+      <c r="I9" s="3">
         <v>248900</v>
       </c>
-      <c r="I9" s="3">
+      <c r="J9" s="3">
         <v>228100</v>
       </c>
-      <c r="J9" s="3">
+      <c r="K9" s="3">
         <v>205600</v>
       </c>
-      <c r="K9" s="3">
+      <c r="L9" s="3">
         <v>201800</v>
       </c>
-      <c r="L9" s="3">
+      <c r="M9" s="3">
         <v>233500</v>
       </c>
-      <c r="M9" s="3">
+      <c r="N9" s="3">
         <v>174700</v>
       </c>
-      <c r="N9" s="3">
+      <c r="O9" s="3">
         <v>155400</v>
       </c>
-      <c r="O9" s="3">
+      <c r="P9" s="3">
         <v>173700</v>
       </c>
-      <c r="P9" s="3">
+      <c r="Q9" s="3">
         <v>178000</v>
       </c>
-      <c r="Q9" s="3">
+      <c r="R9" s="3">
         <v>176400</v>
       </c>
     </row>
-    <row r="10" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
+        <v>157700</v>
+      </c>
+      <c r="E10" s="3">
         <v>189100</v>
       </c>
-      <c r="E10" s="3">
+      <c r="F10" s="3">
         <v>167700</v>
       </c>
-      <c r="F10" s="3">
+      <c r="G10" s="3">
         <v>86800</v>
       </c>
-      <c r="G10" s="3">
+      <c r="H10" s="3">
         <v>88300</v>
       </c>
-      <c r="H10" s="3">
+      <c r="I10" s="3">
         <v>124800</v>
       </c>
-      <c r="I10" s="3">
+      <c r="J10" s="3">
         <v>126000</v>
       </c>
-      <c r="J10" s="3">
+      <c r="K10" s="3">
         <v>95500</v>
       </c>
-      <c r="K10" s="3">
+      <c r="L10" s="3">
         <v>97000</v>
       </c>
-      <c r="L10" s="3">
+      <c r="M10" s="3">
         <v>171100</v>
       </c>
-      <c r="M10" s="3">
+      <c r="N10" s="3">
         <v>68500</v>
       </c>
-      <c r="N10" s="3">
+      <c r="O10" s="3">
         <v>67300</v>
       </c>
-      <c r="O10" s="3">
+      <c r="P10" s="3">
         <v>82100</v>
       </c>
-      <c r="P10" s="3">
+      <c r="Q10" s="3">
         <v>87000</v>
       </c>
-      <c r="Q10" s="3">
+      <c r="R10" s="3">
         <v>81700</v>
       </c>
     </row>
-    <row r="11" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -894,55 +907,59 @@
       <c r="O11" s="3"/>
       <c r="P11" s="3"/>
       <c r="Q11" s="3"/>
-    </row>
-    <row r="12" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R11" s="3"/>
+    </row>
+    <row r="12" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
       <c r="D12" s="3">
+        <v>48700</v>
+      </c>
+      <c r="E12" s="3">
         <v>51000</v>
       </c>
-      <c r="E12" s="3">
+      <c r="F12" s="3">
         <v>49900</v>
       </c>
-      <c r="F12" s="3">
+      <c r="G12" s="3">
         <v>49500</v>
       </c>
-      <c r="G12" s="3">
+      <c r="H12" s="3">
         <v>57700</v>
       </c>
-      <c r="H12" s="3">
+      <c r="I12" s="3">
         <v>42800</v>
       </c>
-      <c r="I12" s="3">
+      <c r="J12" s="3">
         <v>34600</v>
       </c>
-      <c r="J12" s="3">
+      <c r="K12" s="3">
         <v>38500</v>
       </c>
-      <c r="K12" s="3">
+      <c r="L12" s="3">
         <v>38200</v>
       </c>
-      <c r="L12" s="3">
+      <c r="M12" s="3">
         <v>43800</v>
       </c>
-      <c r="M12" s="3">
+      <c r="N12" s="3">
         <v>36300</v>
       </c>
-      <c r="N12" s="3">
+      <c r="O12" s="3">
         <v>35400</v>
       </c>
-      <c r="O12" s="3">
+      <c r="P12" s="3">
         <v>37300</v>
       </c>
-      <c r="P12" s="3">
+      <c r="Q12" s="3">
         <v>38700</v>
       </c>
-      <c r="Q12" s="3">
+      <c r="R12" s="3">
         <v>36900</v>
       </c>
     </row>
-    <row r="13" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>8</v>
       </c>
@@ -988,75 +1005,81 @@
       <c r="Q13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>9</v>
       </c>
       <c r="D14" s="3">
+        <v>5200</v>
+      </c>
+      <c r="E14" s="3">
         <v>900</v>
       </c>
-      <c r="E14" s="3">
+      <c r="F14" s="3">
         <v>1300</v>
       </c>
-      <c r="F14" s="3">
+      <c r="G14" s="3">
         <v>1700</v>
       </c>
-      <c r="G14" s="3">
+      <c r="H14" s="3">
         <v>51800</v>
       </c>
-      <c r="H14" s="3">
+      <c r="I14" s="3">
         <v>7800</v>
       </c>
-      <c r="I14" s="3">
+      <c r="J14" s="3">
         <v>1300</v>
       </c>
-      <c r="J14" s="3">
+      <c r="K14" s="3">
         <v>3400</v>
       </c>
-      <c r="K14" s="3">
+      <c r="L14" s="3">
         <v>100</v>
       </c>
-      <c r="L14" s="3">
+      <c r="M14" s="3">
         <v>4500</v>
       </c>
-      <c r="M14" s="3">
+      <c r="N14" s="3">
         <v>2900</v>
       </c>
-      <c r="N14" s="3">
+      <c r="O14" s="3">
         <v>2000</v>
       </c>
-      <c r="O14" s="3">
+      <c r="P14" s="3">
         <v>3100</v>
       </c>
-      <c r="P14" s="3">
+      <c r="Q14" s="3">
         <v>4000</v>
       </c>
-      <c r="Q14" s="3">
+      <c r="R14" s="3">
         <v>2900</v>
       </c>
     </row>
-    <row r="15" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D15" s="3">
+        <v>6100</v>
+      </c>
+      <c r="E15" s="3">
         <v>6200</v>
       </c>
-      <c r="E15" s="3">
+      <c r="F15" s="3">
         <v>6300</v>
-      </c>
-      <c r="F15" s="3">
-        <v>3600</v>
       </c>
       <c r="G15" s="3">
         <v>3600</v>
       </c>
       <c r="H15" s="3">
+        <v>3600</v>
+      </c>
+      <c r="I15" s="3">
         <v>800</v>
-      </c>
-      <c r="I15" s="3" t="s">
-        <v>17</v>
       </c>
       <c r="J15" s="3" t="s">
         <v>17</v>
@@ -1064,17 +1087,17 @@
       <c r="K15" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="L15" s="3">
-        <v>0</v>
-      </c>
-      <c r="M15" s="3" t="s">
+      <c r="L15" s="3" t="s">
         <v>17</v>
+      </c>
+      <c r="M15" s="3">
+        <v>0</v>
       </c>
       <c r="N15" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="O15" s="3">
-        <v>0</v>
+      <c r="O15" s="3" t="s">
+        <v>17</v>
       </c>
       <c r="P15" s="3">
         <v>0</v>
@@ -1082,8 +1105,11 @@
       <c r="Q15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:18" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1098,102 +1124,109 @@
       <c r="O16" s="3"/>
       <c r="P16" s="3"/>
       <c r="Q16" s="3"/>
-    </row>
-    <row r="17" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R16" s="3"/>
+    </row>
+    <row r="17" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>11</v>
       </c>
       <c r="D17" s="3">
+        <v>360300</v>
+      </c>
+      <c r="E17" s="3">
         <v>383000</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="3">
         <v>390100</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>418400</v>
       </c>
-      <c r="G17" s="3">
+      <c r="H17" s="3">
         <v>509300</v>
       </c>
-      <c r="H17" s="3">
+      <c r="I17" s="3">
         <v>362200</v>
       </c>
-      <c r="I17" s="3">
+      <c r="J17" s="3">
         <v>297000</v>
       </c>
-      <c r="J17" s="3">
+      <c r="K17" s="3">
         <v>280200</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>273300</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>313800</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>240500</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>218800</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>242200</v>
       </c>
-      <c r="P17" s="3">
+      <c r="Q17" s="3">
         <v>251700</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="R17" s="3">
         <v>241300</v>
       </c>
     </row>
-    <row r="18" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D18" s="3">
+        <v>42500</v>
+      </c>
+      <c r="E18" s="3">
         <v>74800</v>
       </c>
-      <c r="E18" s="3">
+      <c r="F18" s="3">
         <v>59800</v>
       </c>
-      <c r="F18" s="3">
+      <c r="G18" s="3">
         <v>-13800</v>
       </c>
-      <c r="G18" s="3">
+      <c r="H18" s="3">
         <v>-76400</v>
       </c>
-      <c r="H18" s="3">
+      <c r="I18" s="3">
         <v>11500</v>
       </c>
-      <c r="I18" s="3">
+      <c r="J18" s="3">
         <v>57100</v>
       </c>
-      <c r="J18" s="3">
+      <c r="K18" s="3">
         <v>20900</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>25500</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>90800</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>2700</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>3900</v>
       </c>
-      <c r="O18" s="3">
+      <c r="P18" s="3">
         <v>13600</v>
       </c>
-      <c r="P18" s="3">
+      <c r="Q18" s="3">
         <v>13300</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="R18" s="3">
         <v>16800</v>
       </c>
     </row>
-    <row r="19" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>13</v>
       </c>
@@ -1211,125 +1244,132 @@
       <c r="O19" s="3"/>
       <c r="P19" s="3"/>
       <c r="Q19" s="3"/>
-    </row>
-    <row r="20" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R19" s="3"/>
+    </row>
+    <row r="20" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>14</v>
       </c>
       <c r="D20" s="3">
+        <v>21700</v>
+      </c>
+      <c r="E20" s="3">
         <v>1200</v>
       </c>
-      <c r="E20" s="3">
+      <c r="F20" s="3">
         <v>5000</v>
       </c>
-      <c r="F20" s="3">
+      <c r="G20" s="3">
         <v>4100</v>
       </c>
-      <c r="G20" s="3">
+      <c r="H20" s="3">
         <v>5200</v>
       </c>
-      <c r="H20" s="3">
+      <c r="I20" s="3">
         <v>14700</v>
       </c>
-      <c r="I20" s="3">
+      <c r="J20" s="3">
         <v>600</v>
       </c>
-      <c r="J20" s="3">
+      <c r="K20" s="3">
         <v>11400</v>
       </c>
-      <c r="K20" s="3">
+      <c r="L20" s="3">
         <v>-18200</v>
       </c>
-      <c r="L20" s="3">
+      <c r="M20" s="3">
         <v>9300</v>
       </c>
-      <c r="M20" s="3">
+      <c r="N20" s="3">
         <v>5200</v>
       </c>
-      <c r="N20" s="3">
+      <c r="O20" s="3">
         <v>-31500</v>
       </c>
-      <c r="O20" s="3">
+      <c r="P20" s="3">
         <v>-58000</v>
       </c>
-      <c r="P20" s="3">
+      <c r="Q20" s="3">
         <v>4600</v>
       </c>
-      <c r="Q20" s="3">
+      <c r="R20" s="3">
         <v>-22500</v>
       </c>
     </row>
-    <row r="21" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D21" s="3">
+        <v>111700</v>
+      </c>
+      <c r="E21" s="3">
         <v>123300</v>
       </c>
-      <c r="E21" s="3">
+      <c r="F21" s="3">
         <v>115200</v>
       </c>
-      <c r="F21" s="3">
+      <c r="G21" s="3">
         <v>35400</v>
       </c>
-      <c r="G21" s="3">
+      <c r="H21" s="3">
         <v>-10500</v>
       </c>
-      <c r="H21" s="3">
+      <c r="I21" s="3">
         <v>57400</v>
       </c>
-      <c r="I21" s="3">
+      <c r="J21" s="3">
         <v>78200</v>
       </c>
-      <c r="J21" s="3">
+      <c r="K21" s="3">
         <v>53800</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>26500</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>119100</v>
       </c>
-      <c r="M21" s="3">
+      <c r="N21" s="3">
         <v>25400</v>
       </c>
-      <c r="N21" s="3">
+      <c r="O21" s="3">
         <v>-11100</v>
       </c>
-      <c r="O21" s="3">
+      <c r="P21" s="3">
         <v>-28500</v>
       </c>
-      <c r="P21" s="3">
+      <c r="Q21" s="3">
         <v>32800</v>
       </c>
-      <c r="Q21" s="3">
+      <c r="R21" s="3">
         <v>8000</v>
       </c>
     </row>
-    <row r="22" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D22" s="3">
+        <v>15600</v>
+      </c>
+      <c r="E22" s="3">
         <v>18300</v>
-      </c>
-      <c r="E22" s="3">
-        <v>11400</v>
       </c>
       <c r="F22" s="3">
         <v>11400</v>
       </c>
       <c r="G22" s="3">
+        <v>11400</v>
+      </c>
+      <c r="H22" s="3">
         <v>11300</v>
       </c>
-      <c r="H22" s="3">
+      <c r="I22" s="3">
         <v>8500</v>
       </c>
-      <c r="I22" s="3">
+      <c r="J22" s="3">
         <v>5100</v>
-      </c>
-      <c r="J22" s="3">
-        <v>4600</v>
       </c>
       <c r="K22" s="3">
         <v>4600</v>
@@ -1338,10 +1378,10 @@
         <v>4600</v>
       </c>
       <c r="M22" s="3">
+        <v>4600</v>
+      </c>
+      <c r="N22" s="3">
         <v>4400</v>
-      </c>
-      <c r="N22" s="3" t="s">
-        <v>17</v>
       </c>
       <c r="O22" s="3" t="s">
         <v>17</v>
@@ -1352,102 +1392,111 @@
       <c r="Q22" s="3" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="23" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R22" s="3" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="23" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>48600</v>
+      </c>
+      <c r="E23" s="3">
         <v>57700</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>53400</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>-21100</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
         <v>-82500</v>
       </c>
-      <c r="H23" s="3">
+      <c r="I23" s="3">
         <v>17700</v>
       </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
         <v>52600</v>
       </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
         <v>27700</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>2700</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>95500</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>3500</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>-27600</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>-44400</v>
       </c>
-      <c r="P23" s="3">
+      <c r="Q23" s="3">
         <v>17900</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="R23" s="3">
         <v>-5700</v>
       </c>
     </row>
-    <row r="24" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
+        <v>5200</v>
+      </c>
+      <c r="E24" s="3">
         <v>8600</v>
       </c>
-      <c r="E24" s="3">
+      <c r="F24" s="3">
         <v>5800</v>
       </c>
-      <c r="F24" s="3">
+      <c r="G24" s="3">
         <v>4700</v>
       </c>
-      <c r="G24" s="3">
+      <c r="H24" s="3">
         <v>-8200</v>
       </c>
-      <c r="H24" s="3">
+      <c r="I24" s="3">
         <v>1400</v>
       </c>
-      <c r="I24" s="3">
+      <c r="J24" s="3">
         <v>5200</v>
       </c>
-      <c r="J24" s="3">
+      <c r="K24" s="3">
         <v>-3300</v>
       </c>
-      <c r="K24" s="3">
-        <v>0</v>
-      </c>
       <c r="L24" s="3">
+        <v>0</v>
+      </c>
+      <c r="M24" s="3">
         <v>-109300</v>
       </c>
-      <c r="M24" s="3">
+      <c r="N24" s="3">
         <v>-3600</v>
       </c>
-      <c r="N24" s="3">
+      <c r="O24" s="3">
         <v>27300</v>
       </c>
-      <c r="O24" s="3">
+      <c r="P24" s="3">
         <v>11600</v>
       </c>
-      <c r="P24" s="3">
+      <c r="Q24" s="3">
         <v>6100</v>
       </c>
-      <c r="Q24" s="3">
+      <c r="R24" s="3">
         <v>-2300</v>
       </c>
     </row>
-    <row r="25" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="25" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1493,102 +1542,111 @@
       <c r="Q25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>43400</v>
+      </c>
+      <c r="E26" s="3">
         <v>49100</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
         <v>47600</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>-25800</v>
       </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
         <v>-74300</v>
       </c>
-      <c r="H26" s="3">
+      <c r="I26" s="3">
         <v>16300</v>
       </c>
-      <c r="I26" s="3">
+      <c r="J26" s="3">
         <v>47400</v>
       </c>
-      <c r="J26" s="3">
+      <c r="K26" s="3">
         <v>31000</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>2700</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>204800</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>7100</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>-54900</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>-56000</v>
       </c>
-      <c r="P26" s="3">
+      <c r="Q26" s="3">
         <v>11800</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="R26" s="3">
         <v>-3400</v>
       </c>
     </row>
-    <row r="27" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>43400</v>
+      </c>
+      <c r="E27" s="3">
         <v>49100</v>
       </c>
-      <c r="E27" s="3">
+      <c r="F27" s="3">
         <v>47600</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>-25800</v>
       </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
         <v>-74300</v>
       </c>
-      <c r="H27" s="3">
+      <c r="I27" s="3">
         <v>16200</v>
       </c>
-      <c r="I27" s="3">
+      <c r="J27" s="3">
         <v>46100</v>
       </c>
-      <c r="J27" s="3">
+      <c r="K27" s="3">
         <v>30000</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>2400</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>199800</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>6900</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>-55200</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>-56200</v>
       </c>
-      <c r="P27" s="3">
+      <c r="Q27" s="3">
         <v>11600</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="R27" s="3">
         <v>-3600</v>
       </c>
     </row>
-    <row r="28" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1634,8 +1692,11 @@
       <c r="Q28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1645,11 +1706,11 @@
       <c r="E29" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="F29" s="3">
-        <v>0</v>
-      </c>
-      <c r="G29" s="3" t="s">
+      <c r="F29" s="3" t="s">
         <v>17</v>
+      </c>
+      <c r="G29" s="3">
+        <v>0</v>
       </c>
       <c r="H29" s="3" t="s">
         <v>17</v>
@@ -1657,17 +1718,17 @@
       <c r="I29" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="J29" s="3">
+      <c r="J29" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="K29" s="3">
         <v>2500</v>
       </c>
-      <c r="K29" s="3">
-        <v>0</v>
-      </c>
       <c r="L29" s="3">
+        <v>0</v>
+      </c>
+      <c r="M29" s="3">
         <v>-83000</v>
-      </c>
-      <c r="M29" s="3" t="s">
-        <v>17</v>
       </c>
       <c r="N29" s="3" t="s">
         <v>17</v>
@@ -1681,8 +1742,11 @@
       <c r="Q29" s="3" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="30" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R29" s="3" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="30" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1728,8 +1792,11 @@
       <c r="Q30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1775,102 +1842,111 @@
       <c r="Q31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
+        <v>-21700</v>
+      </c>
+      <c r="E32" s="3">
         <v>-1200</v>
       </c>
-      <c r="E32" s="3">
+      <c r="F32" s="3">
         <v>-5000</v>
       </c>
-      <c r="F32" s="3">
+      <c r="G32" s="3">
         <v>-4100</v>
       </c>
-      <c r="G32" s="3">
+      <c r="H32" s="3">
         <v>-5200</v>
       </c>
-      <c r="H32" s="3">
+      <c r="I32" s="3">
         <v>-14700</v>
       </c>
-      <c r="I32" s="3">
+      <c r="J32" s="3">
         <v>-600</v>
       </c>
-      <c r="J32" s="3">
+      <c r="K32" s="3">
         <v>-11400</v>
       </c>
-      <c r="K32" s="3">
+      <c r="L32" s="3">
         <v>18200</v>
       </c>
-      <c r="L32" s="3">
+      <c r="M32" s="3">
         <v>-9300</v>
       </c>
-      <c r="M32" s="3">
+      <c r="N32" s="3">
         <v>-5200</v>
       </c>
-      <c r="N32" s="3">
+      <c r="O32" s="3">
         <v>31500</v>
       </c>
-      <c r="O32" s="3">
+      <c r="P32" s="3">
         <v>58000</v>
       </c>
-      <c r="P32" s="3">
+      <c r="Q32" s="3">
         <v>-4600</v>
       </c>
-      <c r="Q32" s="3">
+      <c r="R32" s="3">
         <v>22500</v>
       </c>
     </row>
-    <row r="33" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>43400</v>
+      </c>
+      <c r="E33" s="3">
         <v>49100</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
         <v>47600</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>-25800</v>
       </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
         <v>-74300</v>
       </c>
-      <c r="H33" s="3">
+      <c r="I33" s="3">
         <v>16200</v>
       </c>
-      <c r="I33" s="3">
+      <c r="J33" s="3">
         <v>46100</v>
       </c>
-      <c r="J33" s="3">
+      <c r="K33" s="3">
         <v>32500</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>2400</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>116800</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>6900</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>-55200</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>-56200</v>
       </c>
-      <c r="P33" s="3">
+      <c r="Q33" s="3">
         <v>11600</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="R33" s="3">
         <v>-3600</v>
       </c>
     </row>
-    <row r="34" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1916,107 +1992,116 @@
       <c r="Q34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>43400</v>
+      </c>
+      <c r="E35" s="3">
         <v>49100</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
         <v>47600</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>-25800</v>
       </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
         <v>-74300</v>
       </c>
-      <c r="H35" s="3">
+      <c r="I35" s="3">
         <v>16200</v>
       </c>
-      <c r="I35" s="3">
+      <c r="J35" s="3">
         <v>46100</v>
       </c>
-      <c r="J35" s="3">
+      <c r="K35" s="3">
         <v>32500</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>2400</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>116800</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>6900</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>-55200</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>-56200</v>
       </c>
-      <c r="P35" s="3">
+      <c r="Q35" s="3">
         <v>11600</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="R35" s="3">
         <v>-3600</v>
       </c>
     </row>
-    <row r="37" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:18" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>43918</v>
+      </c>
+      <c r="E38" s="2">
         <v>43827</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>43736</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>43645</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>43554</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>43463</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>43372</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>43281</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>43190</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>43099</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>43008</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>42917</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>42826</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>42735</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>42644</v>
       </c>
     </row>
-    <row r="39" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2034,8 +2119,9 @@
       <c r="O39" s="3"/>
       <c r="P39" s="3"/>
       <c r="Q39" s="3"/>
-    </row>
-    <row r="40" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R39" s="3"/>
+    </row>
+    <row r="40" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2053,93 +2139,97 @@
       <c r="O40" s="3"/>
       <c r="P40" s="3"/>
       <c r="Q40" s="3"/>
-    </row>
-    <row r="41" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R40" s="3"/>
+    </row>
+    <row r="41" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>688300</v>
+      </c>
+      <c r="E41" s="3">
         <v>1085000</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>539000</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>432600</v>
       </c>
-      <c r="G41" s="3">
+      <c r="H41" s="3">
         <v>357300</v>
       </c>
-      <c r="H41" s="3">
+      <c r="I41" s="3">
         <v>371300</v>
       </c>
-      <c r="I41" s="3">
+      <c r="J41" s="3">
         <v>459400</v>
       </c>
-      <c r="J41" s="3">
+      <c r="K41" s="3">
         <v>397300</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>176800</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>202100</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>150800</v>
       </c>
-      <c r="N41" s="3">
+      <c r="O41" s="3">
         <v>272900</v>
       </c>
-      <c r="O41" s="3">
+      <c r="P41" s="3">
         <v>577900</v>
       </c>
-      <c r="P41" s="3">
+      <c r="Q41" s="3">
         <v>155900</v>
       </c>
-      <c r="Q41" s="3">
+      <c r="R41" s="3">
         <v>166800</v>
       </c>
     </row>
-    <row r="42" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
       <c r="D42" s="3">
+        <v>763100</v>
+      </c>
+      <c r="E42" s="3">
         <v>230600</v>
       </c>
-      <c r="E42" s="3">
+      <c r="F42" s="3">
         <v>291900</v>
       </c>
-      <c r="F42" s="3">
+      <c r="G42" s="3">
         <v>335900</v>
       </c>
-      <c r="G42" s="3">
+      <c r="H42" s="3">
         <v>340200</v>
       </c>
-      <c r="H42" s="3">
+      <c r="I42" s="3">
         <v>312800</v>
       </c>
-      <c r="I42" s="3">
+      <c r="J42" s="3">
         <v>274900</v>
       </c>
-      <c r="J42" s="3">
+      <c r="K42" s="3">
         <v>314200</v>
       </c>
-      <c r="K42" s="3">
+      <c r="L42" s="3">
         <v>516000</v>
       </c>
-      <c r="L42" s="3">
+      <c r="M42" s="3">
         <v>422400</v>
       </c>
-      <c r="M42" s="3">
+      <c r="N42" s="3">
         <v>381700</v>
       </c>
-      <c r="N42" s="3">
+      <c r="O42" s="3">
         <v>282400</v>
-      </c>
-      <c r="O42" s="3" t="s">
-        <v>17</v>
       </c>
       <c r="P42" s="3" t="s">
         <v>17</v>
@@ -2147,196 +2237,211 @@
       <c r="Q42" s="3" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="43" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R42" s="3" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="43" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
+        <v>303100</v>
+      </c>
+      <c r="E43" s="3">
         <v>343600</v>
       </c>
-      <c r="E43" s="3">
+      <c r="F43" s="3">
         <v>339600</v>
       </c>
-      <c r="F43" s="3">
+      <c r="G43" s="3">
         <v>286200</v>
       </c>
-      <c r="G43" s="3">
+      <c r="H43" s="3">
         <v>329700</v>
       </c>
-      <c r="H43" s="3">
+      <c r="I43" s="3">
         <v>266500</v>
       </c>
-      <c r="I43" s="3">
+      <c r="J43" s="3">
         <v>239600</v>
       </c>
-      <c r="J43" s="3">
+      <c r="K43" s="3">
         <v>197100</v>
       </c>
-      <c r="K43" s="3">
+      <c r="L43" s="3">
         <v>164700</v>
       </c>
-      <c r="L43" s="3">
+      <c r="M43" s="3">
         <v>222100</v>
       </c>
-      <c r="M43" s="3">
+      <c r="N43" s="3">
         <v>173800</v>
       </c>
-      <c r="N43" s="3">
+      <c r="O43" s="3">
         <v>166300</v>
       </c>
-      <c r="O43" s="3">
+      <c r="P43" s="3">
         <v>185400</v>
       </c>
-      <c r="P43" s="3">
+      <c r="Q43" s="3">
         <v>192500</v>
       </c>
-      <c r="Q43" s="3">
+      <c r="R43" s="3">
         <v>156500</v>
       </c>
     </row>
-    <row r="44" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
+        <v>172700</v>
+      </c>
+      <c r="E44" s="3">
         <v>179600</v>
       </c>
-      <c r="E44" s="3">
+      <c r="F44" s="3">
         <v>202200</v>
       </c>
-      <c r="F44" s="3">
+      <c r="G44" s="3">
         <v>228800</v>
       </c>
-      <c r="G44" s="3">
+      <c r="H44" s="3">
         <v>272200</v>
       </c>
-      <c r="H44" s="3">
+      <c r="I44" s="3">
         <v>303200</v>
       </c>
-      <c r="I44" s="3">
+      <c r="J44" s="3">
         <v>136600</v>
       </c>
-      <c r="J44" s="3">
+      <c r="K44" s="3">
         <v>153600</v>
       </c>
-      <c r="K44" s="3">
+      <c r="L44" s="3">
         <v>144200</v>
       </c>
-      <c r="L44" s="3">
+      <c r="M44" s="3">
         <v>147300</v>
       </c>
-      <c r="M44" s="3">
+      <c r="N44" s="3">
         <v>147200</v>
       </c>
-      <c r="N44" s="3">
+      <c r="O44" s="3">
         <v>145200</v>
       </c>
-      <c r="O44" s="3">
+      <c r="P44" s="3">
         <v>116900</v>
       </c>
-      <c r="P44" s="3">
+      <c r="Q44" s="3">
         <v>121000</v>
       </c>
-      <c r="Q44" s="3">
+      <c r="R44" s="3">
         <v>103700</v>
       </c>
     </row>
-    <row r="45" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="45" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
+        <v>35800</v>
+      </c>
+      <c r="E45" s="3">
         <v>44200</v>
       </c>
-      <c r="E45" s="3">
+      <c r="F45" s="3">
         <v>50500</v>
       </c>
-      <c r="F45" s="3">
+      <c r="G45" s="3">
         <v>49300</v>
       </c>
-      <c r="G45" s="3">
+      <c r="H45" s="3">
         <v>118700</v>
       </c>
-      <c r="H45" s="3">
+      <c r="I45" s="3">
         <v>103100</v>
       </c>
-      <c r="I45" s="3">
+      <c r="J45" s="3">
         <v>70600</v>
       </c>
-      <c r="J45" s="3">
+      <c r="K45" s="3">
         <v>65000</v>
       </c>
-      <c r="K45" s="3">
+      <c r="L45" s="3">
         <v>63000</v>
       </c>
-      <c r="L45" s="3">
+      <c r="M45" s="3">
         <v>59900</v>
       </c>
-      <c r="M45" s="3">
+      <c r="N45" s="3">
         <v>69000</v>
       </c>
-      <c r="N45" s="3">
+      <c r="O45" s="3">
         <v>63500</v>
       </c>
-      <c r="O45" s="3">
+      <c r="P45" s="3">
         <v>61400</v>
       </c>
-      <c r="P45" s="3">
+      <c r="Q45" s="3">
         <v>58200</v>
       </c>
-      <c r="Q45" s="3">
+      <c r="R45" s="3">
         <v>62300</v>
       </c>
     </row>
-    <row r="46" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="46" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>1963000</v>
+      </c>
+      <c r="E46" s="3">
         <v>1883000</v>
       </c>
-      <c r="E46" s="3">
+      <c r="F46" s="3">
         <v>1423200</v>
       </c>
-      <c r="F46" s="3">
+      <c r="G46" s="3">
         <v>1332800</v>
       </c>
-      <c r="G46" s="3">
+      <c r="H46" s="3">
         <v>1418100</v>
       </c>
-      <c r="H46" s="3">
+      <c r="I46" s="3">
         <v>1356900</v>
       </c>
-      <c r="I46" s="3">
+      <c r="J46" s="3">
         <v>1181100</v>
       </c>
-      <c r="J46" s="3">
+      <c r="K46" s="3">
         <v>1127200</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>1064700</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>1053800</v>
       </c>
-      <c r="M46" s="3">
+      <c r="N46" s="3">
         <v>922500</v>
       </c>
-      <c r="N46" s="3">
+      <c r="O46" s="3">
         <v>930300</v>
       </c>
-      <c r="O46" s="3">
+      <c r="P46" s="3">
         <v>941600</v>
       </c>
-      <c r="P46" s="3">
+      <c r="Q46" s="3">
         <v>527600</v>
       </c>
-      <c r="Q46" s="3">
+      <c r="R46" s="3">
         <v>489300</v>
       </c>
     </row>
-    <row r="47" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -2382,102 +2487,111 @@
       <c r="Q47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>482100</v>
+        <v>491800</v>
       </c>
       <c r="E48" s="3">
-        <v>499600</v>
+        <v>505700</v>
       </c>
       <c r="F48" s="3">
-        <v>407900</v>
+        <v>524900</v>
       </c>
       <c r="G48" s="3">
-        <v>358100</v>
+        <v>433300</v>
       </c>
       <c r="H48" s="3">
-        <v>403300</v>
+        <v>390600</v>
       </c>
       <c r="I48" s="3">
-        <v>292100</v>
+        <v>444700</v>
       </c>
       <c r="J48" s="3">
+        <v>318600</v>
+      </c>
+      <c r="K48" s="3">
         <v>280600</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>264500</v>
       </c>
-      <c r="L48" s="3">
+      <c r="M48" s="3">
         <v>301300</v>
       </c>
-      <c r="M48" s="3">
+      <c r="N48" s="3">
         <v>293700</v>
       </c>
-      <c r="N48" s="3">
+      <c r="O48" s="3">
         <v>273500</v>
       </c>
-      <c r="O48" s="3">
+      <c r="P48" s="3">
         <v>246600</v>
       </c>
-      <c r="P48" s="3">
+      <c r="Q48" s="3">
         <v>219600</v>
       </c>
-      <c r="Q48" s="3">
+      <c r="R48" s="3">
         <v>196000</v>
       </c>
     </row>
-    <row r="49" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="49" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
-        <v>750500</v>
+        <v>706900</v>
       </c>
       <c r="E49" s="3">
-        <v>770800</v>
+        <v>726900</v>
       </c>
       <c r="F49" s="3">
+        <v>745500</v>
+      </c>
+      <c r="G49" s="3">
+        <v>764300</v>
+      </c>
+      <c r="H49" s="3">
+        <v>772100</v>
+      </c>
+      <c r="I49" s="3">
         <v>789700</v>
       </c>
-      <c r="G49" s="3">
-        <v>804600</v>
-      </c>
-      <c r="H49" s="3">
-        <v>831100</v>
-      </c>
-      <c r="I49" s="3">
-        <v>44100</v>
-      </c>
       <c r="J49" s="3">
+        <v>17600</v>
+      </c>
+      <c r="K49" s="3">
         <v>44600</v>
       </c>
-      <c r="K49" s="3">
+      <c r="L49" s="3">
         <v>57200</v>
       </c>
-      <c r="L49" s="3">
+      <c r="M49" s="3">
         <v>20400</v>
       </c>
-      <c r="M49" s="3">
+      <c r="N49" s="3">
         <v>21000</v>
       </c>
-      <c r="N49" s="3">
+      <c r="O49" s="3">
         <v>21500</v>
       </c>
-      <c r="O49" s="3">
+      <c r="P49" s="3">
         <v>22300</v>
       </c>
-      <c r="P49" s="3">
+      <c r="Q49" s="3">
         <v>16000</v>
       </c>
-      <c r="Q49" s="3">
+      <c r="R49" s="3">
         <v>18100</v>
       </c>
     </row>
-    <row r="50" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="50" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2523,8 +2637,11 @@
       <c r="Q50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2570,55 +2687,61 @@
       <c r="Q51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
+        <v>107000</v>
+      </c>
+      <c r="E52" s="3">
         <v>105600</v>
       </c>
-      <c r="E52" s="3">
+      <c r="F52" s="3">
         <v>174200</v>
       </c>
-      <c r="F52" s="3">
+      <c r="G52" s="3">
         <v>186200</v>
       </c>
-      <c r="G52" s="3">
+      <c r="H52" s="3">
         <v>190600</v>
       </c>
-      <c r="H52" s="3">
+      <c r="I52" s="3">
         <v>205300</v>
       </c>
-      <c r="I52" s="3">
+      <c r="J52" s="3">
         <v>127700</v>
       </c>
-      <c r="J52" s="3">
+      <c r="K52" s="3">
         <v>129100</v>
       </c>
-      <c r="K52" s="3">
+      <c r="L52" s="3">
         <v>131800</v>
       </c>
-      <c r="L52" s="3">
+      <c r="M52" s="3">
         <v>131900</v>
       </c>
-      <c r="M52" s="3">
+      <c r="N52" s="3">
         <v>11200</v>
       </c>
-      <c r="N52" s="3">
+      <c r="O52" s="3">
         <v>7600</v>
       </c>
-      <c r="O52" s="3">
+      <c r="P52" s="3">
         <v>34000</v>
       </c>
-      <c r="P52" s="3">
+      <c r="Q52" s="3">
         <v>33500</v>
       </c>
-      <c r="Q52" s="3">
+      <c r="R52" s="3">
         <v>34100</v>
       </c>
     </row>
-    <row r="53" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="53" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -2664,55 +2787,61 @@
       <c r="Q53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>3268700</v>
+      </c>
+      <c r="E54" s="3">
         <v>3221200</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>2867800</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>2716600</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>2771400</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>2796600</v>
       </c>
-      <c r="I54" s="3">
+      <c r="J54" s="3">
         <v>1645000</v>
       </c>
-      <c r="J54" s="3">
+      <c r="K54" s="3">
         <v>1581500</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>1518200</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>1507400</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>1248400</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>1232900</v>
       </c>
-      <c r="O54" s="3">
+      <c r="P54" s="3">
         <v>1244500</v>
       </c>
-      <c r="P54" s="3">
+      <c r="Q54" s="3">
         <v>796700</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="R54" s="3">
         <v>737500</v>
       </c>
     </row>
-    <row r="55" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2730,8 +2859,9 @@
       <c r="O55" s="3"/>
       <c r="P55" s="3"/>
       <c r="Q55" s="3"/>
-    </row>
-    <row r="56" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R55" s="3"/>
+    </row>
+    <row r="56" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -2749,90 +2879,94 @@
       <c r="O56" s="3"/>
       <c r="P56" s="3"/>
       <c r="Q56" s="3"/>
-    </row>
-    <row r="57" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R56" s="3"/>
+    </row>
+    <row r="57" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>144600</v>
+      </c>
+      <c r="E57" s="3">
         <v>143700</v>
       </c>
-      <c r="E57" s="3">
+      <c r="F57" s="3">
         <v>152200</v>
       </c>
-      <c r="F57" s="3">
+      <c r="G57" s="3">
         <v>160800</v>
       </c>
-      <c r="G57" s="3">
+      <c r="H57" s="3">
         <v>204100</v>
       </c>
-      <c r="H57" s="3">
+      <c r="I57" s="3">
         <v>199200</v>
       </c>
-      <c r="I57" s="3">
+      <c r="J57" s="3">
         <v>127600</v>
       </c>
-      <c r="J57" s="3">
+      <c r="K57" s="3">
         <v>126500</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>100900</v>
       </c>
-      <c r="L57" s="3">
+      <c r="M57" s="3">
         <v>113000</v>
       </c>
-      <c r="M57" s="3">
+      <c r="N57" s="3">
         <v>111600</v>
       </c>
-      <c r="N57" s="3">
+      <c r="O57" s="3">
         <v>114800</v>
       </c>
-      <c r="O57" s="3">
+      <c r="P57" s="3">
         <v>118400</v>
       </c>
-      <c r="P57" s="3">
+      <c r="Q57" s="3">
         <v>127800</v>
       </c>
-      <c r="Q57" s="3">
+      <c r="R57" s="3">
         <v>108300</v>
       </c>
     </row>
-    <row r="58" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
+        <v>3900</v>
+      </c>
+      <c r="E58" s="3">
         <v>7100</v>
       </c>
-      <c r="E58" s="3">
+      <c r="F58" s="3">
         <v>15900</v>
       </c>
-      <c r="F58" s="3">
+      <c r="G58" s="3">
         <v>5400</v>
       </c>
-      <c r="G58" s="3">
+      <c r="H58" s="3">
         <v>5800</v>
       </c>
-      <c r="H58" s="3">
+      <c r="I58" s="3">
         <v>8700</v>
       </c>
-      <c r="I58" s="3">
+      <c r="J58" s="3">
         <v>5400</v>
       </c>
-      <c r="J58" s="3">
+      <c r="K58" s="3">
         <v>7300</v>
       </c>
-      <c r="K58" s="3">
+      <c r="L58" s="3">
         <v>9200</v>
       </c>
-      <c r="L58" s="3">
+      <c r="M58" s="3">
         <v>9100</v>
       </c>
-      <c r="M58" s="3">
+      <c r="N58" s="3">
         <v>4900</v>
-      </c>
-      <c r="N58" s="3" t="s">
-        <v>17</v>
       </c>
       <c r="O58" s="3" t="s">
         <v>17</v>
@@ -2843,196 +2977,211 @@
       <c r="Q58" s="3" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="59" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R58" s="3" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="59" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>138200</v>
+      </c>
+      <c r="E59" s="3">
         <v>153400</v>
       </c>
-      <c r="E59" s="3">
+      <c r="F59" s="3">
         <v>148700</v>
       </c>
-      <c r="F59" s="3">
+      <c r="G59" s="3">
         <v>127800</v>
       </c>
-      <c r="G59" s="3">
+      <c r="H59" s="3">
         <v>148100</v>
       </c>
-      <c r="H59" s="3">
+      <c r="I59" s="3">
         <v>117600</v>
       </c>
-      <c r="I59" s="3">
+      <c r="J59" s="3">
         <v>80900</v>
       </c>
-      <c r="J59" s="3">
+      <c r="K59" s="3">
         <v>80200</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>81400</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>95600</v>
       </c>
-      <c r="M59" s="3">
+      <c r="N59" s="3">
         <v>60700</v>
       </c>
-      <c r="N59" s="3">
+      <c r="O59" s="3">
         <v>69400</v>
       </c>
-      <c r="O59" s="3">
+      <c r="P59" s="3">
         <v>73700</v>
       </c>
-      <c r="P59" s="3">
+      <c r="Q59" s="3">
         <v>74200</v>
       </c>
-      <c r="Q59" s="3">
+      <c r="R59" s="3">
         <v>55200</v>
       </c>
     </row>
-    <row r="60" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>286700</v>
+      </c>
+      <c r="E60" s="3">
         <v>304200</v>
       </c>
-      <c r="E60" s="3">
+      <c r="F60" s="3">
         <v>316800</v>
       </c>
-      <c r="F60" s="3">
+      <c r="G60" s="3">
         <v>294000</v>
       </c>
-      <c r="G60" s="3">
+      <c r="H60" s="3">
         <v>358000</v>
       </c>
-      <c r="H60" s="3">
+      <c r="I60" s="3">
         <v>325500</v>
       </c>
-      <c r="I60" s="3">
+      <c r="J60" s="3">
         <v>213900</v>
       </c>
-      <c r="J60" s="3">
+      <c r="K60" s="3">
         <v>214000</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>191500</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>217700</v>
       </c>
-      <c r="M60" s="3">
+      <c r="N60" s="3">
         <v>177200</v>
       </c>
-      <c r="N60" s="3">
+      <c r="O60" s="3">
         <v>184200</v>
       </c>
-      <c r="O60" s="3">
+      <c r="P60" s="3">
         <v>192100</v>
       </c>
-      <c r="P60" s="3">
+      <c r="Q60" s="3">
         <v>202000</v>
       </c>
-      <c r="Q60" s="3">
+      <c r="R60" s="3">
         <v>163500</v>
       </c>
     </row>
-    <row r="61" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
+        <v>1106100</v>
+      </c>
+      <c r="E61" s="3">
         <v>1092200</v>
       </c>
-      <c r="E61" s="3">
+      <c r="F61" s="3">
         <v>840000</v>
       </c>
-      <c r="F61" s="3">
+      <c r="G61" s="3">
         <v>835900</v>
       </c>
-      <c r="G61" s="3">
+      <c r="H61" s="3">
         <v>832400</v>
       </c>
-      <c r="H61" s="3">
+      <c r="I61" s="3">
         <v>829200</v>
       </c>
-      <c r="I61" s="3">
+      <c r="J61" s="3">
         <v>338500</v>
       </c>
-      <c r="J61" s="3">
+      <c r="K61" s="3">
         <v>334600</v>
       </c>
-      <c r="K61" s="3">
+      <c r="L61" s="3">
         <v>330700</v>
       </c>
-      <c r="L61" s="3">
+      <c r="M61" s="3">
         <v>328800</v>
       </c>
-      <c r="M61" s="3">
+      <c r="N61" s="3">
         <v>324000</v>
       </c>
-      <c r="N61" s="3">
+      <c r="O61" s="3">
         <v>317500</v>
       </c>
-      <c r="O61" s="3">
+      <c r="P61" s="3">
         <v>313400</v>
       </c>
-      <c r="P61" s="3">
-        <v>0</v>
-      </c>
       <c r="Q61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
+        <v>141700</v>
+      </c>
+      <c r="E62" s="3">
         <v>143200</v>
       </c>
-      <c r="E62" s="3">
+      <c r="F62" s="3">
         <v>149700</v>
       </c>
-      <c r="F62" s="3">
+      <c r="G62" s="3">
         <v>89600</v>
       </c>
-      <c r="G62" s="3">
+      <c r="H62" s="3">
         <v>77100</v>
       </c>
-      <c r="H62" s="3">
+      <c r="I62" s="3">
         <v>82200</v>
       </c>
-      <c r="I62" s="3">
+      <c r="J62" s="3">
         <v>73300</v>
       </c>
-      <c r="J62" s="3">
+      <c r="K62" s="3">
         <v>71000</v>
       </c>
-      <c r="K62" s="3">
+      <c r="L62" s="3">
         <v>83600</v>
       </c>
-      <c r="L62" s="3">
+      <c r="M62" s="3">
         <v>60800</v>
       </c>
-      <c r="M62" s="3">
+      <c r="N62" s="3">
         <v>70300</v>
       </c>
-      <c r="N62" s="3">
+      <c r="O62" s="3">
         <v>76600</v>
       </c>
-      <c r="O62" s="3">
+      <c r="P62" s="3">
         <v>234600</v>
-      </c>
-      <c r="P62" s="3">
-        <v>42500</v>
       </c>
       <c r="Q62" s="3">
         <v>42500</v>
       </c>
-    </row>
-    <row r="63" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R62" s="3">
+        <v>42500</v>
+      </c>
+    </row>
+    <row r="63" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -3078,8 +3227,11 @@
       <c r="Q63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -3125,8 +3277,11 @@
       <c r="Q64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -3172,55 +3327,61 @@
       <c r="Q65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>1534500</v>
+      </c>
+      <c r="E66" s="3">
         <v>1539600</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>1306500</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>1219500</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>1267500</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>1236900</v>
       </c>
-      <c r="I66" s="3">
+      <c r="J66" s="3">
         <v>661500</v>
       </c>
-      <c r="J66" s="3">
+      <c r="K66" s="3">
         <v>655400</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>641600</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>643100</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>607300</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>614100</v>
       </c>
-      <c r="O66" s="3">
+      <c r="P66" s="3">
         <v>775900</v>
       </c>
-      <c r="P66" s="3">
+      <c r="Q66" s="3">
         <v>280300</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="R66" s="3">
         <v>241800</v>
       </c>
     </row>
-    <row r="67" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -3238,8 +3399,9 @@
       <c r="O67" s="3"/>
       <c r="P67" s="3"/>
       <c r="Q67" s="3"/>
-    </row>
-    <row r="68" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R67" s="3"/>
+    </row>
+    <row r="68" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -3285,8 +3447,11 @@
       <c r="Q68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -3332,8 +3497,11 @@
       <c r="Q69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -3379,8 +3547,11 @@
       <c r="Q70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -3426,55 +3597,61 @@
       <c r="Q71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>69200</v>
+      </c>
+      <c r="E72" s="3">
         <v>25800</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>176700</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>129100</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>154900</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>229200</v>
       </c>
-      <c r="I72" s="3">
+      <c r="J72" s="3">
         <v>213000</v>
       </c>
-      <c r="J72" s="3">
+      <c r="K72" s="3">
         <v>166400</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>133200</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>130700</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>-73900</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>-83200</v>
       </c>
-      <c r="O72" s="3">
+      <c r="P72" s="3">
         <v>-28000</v>
       </c>
-      <c r="P72" s="3">
+      <c r="Q72" s="3">
         <v>28200</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="R72" s="3">
         <v>16600</v>
       </c>
     </row>
-    <row r="73" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -3520,8 +3697,11 @@
       <c r="Q73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -3567,8 +3747,11 @@
       <c r="Q74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -3614,55 +3797,61 @@
       <c r="Q75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>1734200</v>
+      </c>
+      <c r="E76" s="3">
         <v>1681600</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>1561300</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>1497100</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>1503900</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>1559700</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>983500</v>
       </c>
-      <c r="J76" s="3">
+      <c r="K76" s="3">
         <v>926100</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>876600</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>864300</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>641100</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>618800</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>468600</v>
       </c>
-      <c r="P76" s="3">
+      <c r="Q76" s="3">
         <v>516400</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="R76" s="3">
         <v>495700</v>
       </c>
     </row>
-    <row r="77" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -3708,107 +3897,116 @@
       <c r="Q77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:18" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>43918</v>
+      </c>
+      <c r="E80" s="2">
         <v>43827</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>43736</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>43645</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>43554</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>43463</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>43372</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>43281</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>43190</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>43099</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>43008</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>42917</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>42826</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>42735</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>42644</v>
       </c>
     </row>
-    <row r="81" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>43400</v>
+      </c>
+      <c r="E81" s="3">
         <v>49100</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="3">
         <v>47600</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>-25800</v>
       </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
         <v>-74300</v>
       </c>
-      <c r="H81" s="3">
+      <c r="I81" s="3">
         <v>16200</v>
       </c>
-      <c r="I81" s="3">
+      <c r="J81" s="3">
         <v>46100</v>
       </c>
-      <c r="J81" s="3">
+      <c r="K81" s="3">
         <v>32500</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>2400</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>116800</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>6900</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>-55200</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>-56200</v>
       </c>
-      <c r="P81" s="3">
+      <c r="Q81" s="3">
         <v>11600</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="R81" s="3">
         <v>-3600</v>
       </c>
     </row>
-    <row r="82" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -3826,55 +4024,59 @@
       <c r="O82" s="3"/>
       <c r="P82" s="3"/>
       <c r="Q82" s="3"/>
-    </row>
-    <row r="83" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R82" s="3"/>
+    </row>
+    <row r="83" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
+        <v>47500</v>
+      </c>
+      <c r="E83" s="3">
         <v>47300</v>
       </c>
-      <c r="E83" s="3">
+      <c r="F83" s="3">
         <v>50400</v>
       </c>
-      <c r="F83" s="3">
+      <c r="G83" s="3">
         <v>45100</v>
       </c>
-      <c r="G83" s="3">
+      <c r="H83" s="3">
         <v>60700</v>
       </c>
-      <c r="H83" s="3">
+      <c r="I83" s="3">
         <v>31200</v>
       </c>
-      <c r="I83" s="3">
+      <c r="J83" s="3">
         <v>20500</v>
       </c>
-      <c r="J83" s="3">
+      <c r="K83" s="3">
         <v>21500</v>
       </c>
-      <c r="K83" s="3">
+      <c r="L83" s="3">
         <v>19200</v>
       </c>
-      <c r="L83" s="3">
+      <c r="M83" s="3">
         <v>19000</v>
       </c>
-      <c r="M83" s="3">
+      <c r="N83" s="3">
         <v>17500</v>
       </c>
-      <c r="N83" s="3">
+      <c r="O83" s="3">
         <v>16500</v>
       </c>
-      <c r="O83" s="3">
+      <c r="P83" s="3">
         <v>15900</v>
       </c>
-      <c r="P83" s="3">
+      <c r="Q83" s="3">
         <v>14900</v>
       </c>
-      <c r="Q83" s="3">
+      <c r="R83" s="3">
         <v>13700</v>
       </c>
     </row>
-    <row r="84" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="84" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -3920,8 +4122,11 @@
       <c r="Q84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -3967,8 +4172,11 @@
       <c r="Q85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -4014,8 +4222,11 @@
       <c r="Q86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -4061,8 +4272,11 @@
       <c r="Q87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -4108,55 +4322,61 @@
       <c r="Q88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>151800</v>
+      </c>
+      <c r="E89" s="3">
         <v>162300</v>
       </c>
-      <c r="E89" s="3">
+      <c r="F89" s="3">
         <v>87500</v>
       </c>
-      <c r="F89" s="3">
+      <c r="G89" s="3">
         <v>127700</v>
       </c>
-      <c r="G89" s="3">
+      <c r="H89" s="3">
         <v>42800</v>
       </c>
-      <c r="H89" s="3">
+      <c r="I89" s="3">
         <v>102400</v>
       </c>
-      <c r="I89" s="3">
+      <c r="J89" s="3">
         <v>57200</v>
       </c>
-      <c r="J89" s="3">
+      <c r="K89" s="3">
         <v>37600</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>95100</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>105100</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>9700</v>
       </c>
-      <c r="N89" s="3">
+      <c r="O89" s="3">
         <v>13100</v>
       </c>
-      <c r="O89" s="3">
+      <c r="P89" s="3">
         <v>16400</v>
       </c>
-      <c r="P89" s="3">
+      <c r="Q89" s="3">
         <v>19200</v>
       </c>
-      <c r="Q89" s="3">
+      <c r="R89" s="3">
         <v>36300</v>
       </c>
     </row>
-    <row r="90" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -4174,55 +4394,59 @@
       <c r="O90" s="3"/>
       <c r="P90" s="3"/>
       <c r="Q90" s="3"/>
-    </row>
-    <row r="91" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R90" s="3"/>
+    </row>
+    <row r="91" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
+        <v>-1000</v>
+      </c>
+      <c r="E91" s="3">
         <v>-2000</v>
       </c>
-      <c r="E91" s="3">
+      <c r="F91" s="3">
         <v>-1000</v>
       </c>
-      <c r="F91" s="3">
-        <v>0</v>
-      </c>
       <c r="G91" s="3">
+        <v>0</v>
+      </c>
+      <c r="H91" s="3">
         <v>-600</v>
       </c>
-      <c r="H91" s="3">
-        <v>0</v>
-      </c>
       <c r="I91" s="3">
+        <v>0</v>
+      </c>
+      <c r="J91" s="3">
         <v>-700</v>
       </c>
-      <c r="J91" s="3">
+      <c r="K91" s="3">
         <v>-20300</v>
       </c>
-      <c r="K91" s="3">
+      <c r="L91" s="3">
         <v>-22700</v>
       </c>
-      <c r="L91" s="3">
+      <c r="M91" s="3">
         <v>-17200</v>
       </c>
-      <c r="M91" s="3">
+      <c r="N91" s="3">
         <v>-33000</v>
       </c>
-      <c r="N91" s="3">
+      <c r="O91" s="3">
         <v>-38100</v>
       </c>
-      <c r="O91" s="3">
+      <c r="P91" s="3">
         <v>-35700</v>
       </c>
-      <c r="P91" s="3">
+      <c r="Q91" s="3">
         <v>-35400</v>
       </c>
-      <c r="Q91" s="3">
+      <c r="R91" s="3">
         <v>-28900</v>
       </c>
     </row>
-    <row r="92" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="92" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -4268,8 +4492,11 @@
       <c r="Q92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -4315,55 +4542,61 @@
       <c r="Q93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
+        <v>-535700</v>
+      </c>
+      <c r="E94" s="3">
         <v>36100</v>
       </c>
-      <c r="E94" s="3">
+      <c r="F94" s="3">
         <v>21700</v>
       </c>
-      <c r="F94" s="3">
+      <c r="G94" s="3">
         <v>-54400</v>
       </c>
-      <c r="G94" s="3">
+      <c r="H94" s="3">
         <v>-52900</v>
       </c>
-      <c r="H94" s="3">
+      <c r="I94" s="3">
         <v>-681900</v>
       </c>
-      <c r="I94" s="3">
+      <c r="J94" s="3">
         <v>9500</v>
       </c>
-      <c r="J94" s="3">
+      <c r="K94" s="3">
         <v>181700</v>
       </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3">
         <v>-117600</v>
       </c>
-      <c r="L94" s="3">
+      <c r="M94" s="3">
         <v>-58600</v>
       </c>
-      <c r="M94" s="3">
+      <c r="N94" s="3">
         <v>-132500</v>
       </c>
-      <c r="N94" s="3">
+      <c r="O94" s="3">
         <v>-320600</v>
       </c>
-      <c r="O94" s="3">
+      <c r="P94" s="3">
         <v>-40800</v>
       </c>
-      <c r="P94" s="3">
+      <c r="Q94" s="3">
         <v>-35400</v>
       </c>
-      <c r="Q94" s="3">
+      <c r="R94" s="3">
         <v>-28900</v>
       </c>
     </row>
-    <row r="95" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="95" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -4381,8 +4614,9 @@
       <c r="O95" s="3"/>
       <c r="P95" s="3"/>
       <c r="Q95" s="3"/>
-    </row>
-    <row r="96" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R95" s="3"/>
+    </row>
+    <row r="96" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -4428,8 +4662,11 @@
       <c r="Q96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -4475,8 +4712,11 @@
       <c r="Q97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -4522,8 +4762,11 @@
       <c r="Q98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -4569,145 +4812,157 @@
       <c r="Q99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>-12300</v>
+      </c>
+      <c r="E100" s="3">
         <v>347600</v>
       </c>
-      <c r="E100" s="3">
+      <c r="F100" s="3">
         <v>-2800</v>
       </c>
-      <c r="F100" s="3">
+      <c r="G100" s="3">
         <v>1000</v>
       </c>
-      <c r="G100" s="3">
+      <c r="H100" s="3">
         <v>-2900</v>
       </c>
-      <c r="H100" s="3">
+      <c r="I100" s="3">
         <v>491600</v>
       </c>
-      <c r="I100" s="3">
+      <c r="J100" s="3">
         <v>-4600</v>
       </c>
-      <c r="J100" s="3">
+      <c r="K100" s="3">
         <v>1900</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>-2800</v>
       </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
         <v>4400</v>
       </c>
-      <c r="M100" s="3">
+      <c r="N100" s="3">
         <v>300</v>
       </c>
-      <c r="N100" s="3">
+      <c r="O100" s="3">
         <v>2000</v>
       </c>
-      <c r="O100" s="3">
+      <c r="P100" s="3">
         <v>445700</v>
       </c>
-      <c r="P100" s="3">
+      <c r="Q100" s="3">
         <v>6700</v>
       </c>
-      <c r="Q100" s="3">
+      <c r="R100" s="3">
         <v>2300</v>
       </c>
     </row>
-    <row r="101" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
-      <c r="D101" s="3" t="s">
-        <v>17</v>
+      <c r="D101" s="3">
+        <v>0</v>
       </c>
       <c r="E101" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="F101" s="3">
-        <v>0</v>
+      <c r="F101" s="3" t="s">
+        <v>17</v>
       </c>
       <c r="G101" s="3">
         <v>0</v>
       </c>
       <c r="H101" s="3">
+        <v>0</v>
+      </c>
+      <c r="I101" s="3">
         <v>-200</v>
       </c>
-      <c r="I101" s="3">
-        <v>0</v>
-      </c>
       <c r="J101" s="3">
+        <v>0</v>
+      </c>
+      <c r="K101" s="3">
         <v>-700</v>
       </c>
-      <c r="K101" s="3">
-        <v>0</v>
-      </c>
       <c r="L101" s="3">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="M101" s="3">
         <v>400</v>
       </c>
       <c r="N101" s="3">
+        <v>400</v>
+      </c>
+      <c r="O101" s="3">
         <v>500</v>
       </c>
-      <c r="O101" s="3">
+      <c r="P101" s="3">
         <v>700</v>
       </c>
-      <c r="P101" s="3">
+      <c r="Q101" s="3">
         <v>-1400</v>
       </c>
-      <c r="Q101" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="102" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>-396200</v>
+      </c>
+      <c r="E102" s="3">
         <v>546000</v>
       </c>
-      <c r="E102" s="3">
+      <c r="F102" s="3">
         <v>106400</v>
       </c>
-      <c r="F102" s="3">
+      <c r="G102" s="3">
         <v>74300</v>
       </c>
-      <c r="G102" s="3">
+      <c r="H102" s="3">
         <v>-13000</v>
       </c>
-      <c r="H102" s="3">
+      <c r="I102" s="3">
         <v>-88100</v>
       </c>
-      <c r="I102" s="3">
+      <c r="J102" s="3">
         <v>62100</v>
       </c>
-      <c r="J102" s="3">
+      <c r="K102" s="3">
         <v>220500</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>-25300</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>51300</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>-122100</v>
       </c>
-      <c r="N102" s="3">
+      <c r="O102" s="3">
         <v>-305000</v>
       </c>
-      <c r="O102" s="3">
+      <c r="P102" s="3">
         <v>422000</v>
       </c>
-      <c r="P102" s="3">
+      <c r="Q102" s="3">
         <v>-10900</v>
       </c>
-      <c r="Q102" s="3">
+      <c r="R102" s="3">
         <v>9700</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/LITE_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/LITE_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="124" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="125" uniqueCount="92">
   <si>
     <t>LITE</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:R102"/>
+  <dimension ref="A5:S102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,231 +665,244 @@
     <col min="1" max="1" width="6.42578125" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="6" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="10" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="14" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="16" width="13" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="12.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="7" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="11" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="15" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="17" width="13" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="12.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:19" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44009</v>
+      </c>
+      <c r="E7" s="2">
         <v>43918</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>43827</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>43736</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>43645</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>43554</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>43463</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>43372</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>43281</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>43190</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>43099</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>43008</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>42917</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>42826</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>42735</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>42644</v>
       </c>
     </row>
-    <row r="8" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
+        <v>368100</v>
+      </c>
+      <c r="E8" s="3">
         <v>402800</v>
       </c>
-      <c r="E8" s="3">
+      <c r="F8" s="3">
         <v>457800</v>
       </c>
-      <c r="F8" s="3">
+      <c r="G8" s="3">
         <v>449900</v>
       </c>
-      <c r="G8" s="3">
+      <c r="H8" s="3">
         <v>404600</v>
       </c>
-      <c r="H8" s="3">
+      <c r="I8" s="3">
         <v>432900</v>
       </c>
-      <c r="I8" s="3">
+      <c r="J8" s="3">
         <v>373700</v>
       </c>
-      <c r="J8" s="3">
+      <c r="K8" s="3">
         <v>354100</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>301100</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>298800</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>404600</v>
       </c>
-      <c r="N8" s="3">
+      <c r="O8" s="3">
         <v>243200</v>
       </c>
-      <c r="O8" s="3">
+      <c r="P8" s="3">
         <v>222700</v>
       </c>
-      <c r="P8" s="3">
+      <c r="Q8" s="3">
         <v>255800</v>
       </c>
-      <c r="Q8" s="3">
+      <c r="R8" s="3">
         <v>265000</v>
       </c>
-      <c r="R8" s="3">
+      <c r="S8" s="3">
         <v>258100</v>
       </c>
     </row>
-    <row r="9" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
+        <v>232400</v>
+      </c>
+      <c r="E9" s="3">
         <v>245100</v>
       </c>
-      <c r="E9" s="3">
+      <c r="F9" s="3">
         <v>268700</v>
       </c>
-      <c r="F9" s="3">
+      <c r="G9" s="3">
         <v>282200</v>
       </c>
-      <c r="G9" s="3">
+      <c r="H9" s="3">
         <v>317800</v>
       </c>
-      <c r="H9" s="3">
+      <c r="I9" s="3">
         <v>344600</v>
       </c>
-      <c r="I9" s="3">
+      <c r="J9" s="3">
         <v>248900</v>
       </c>
-      <c r="J9" s="3">
+      <c r="K9" s="3">
         <v>228100</v>
       </c>
-      <c r="K9" s="3">
+      <c r="L9" s="3">
         <v>205600</v>
       </c>
-      <c r="L9" s="3">
+      <c r="M9" s="3">
         <v>201800</v>
       </c>
-      <c r="M9" s="3">
+      <c r="N9" s="3">
         <v>233500</v>
       </c>
-      <c r="N9" s="3">
+      <c r="O9" s="3">
         <v>174700</v>
       </c>
-      <c r="O9" s="3">
+      <c r="P9" s="3">
         <v>155400</v>
       </c>
-      <c r="P9" s="3">
+      <c r="Q9" s="3">
         <v>173700</v>
       </c>
-      <c r="Q9" s="3">
+      <c r="R9" s="3">
         <v>178000</v>
       </c>
-      <c r="R9" s="3">
+      <c r="S9" s="3">
         <v>176400</v>
       </c>
     </row>
-    <row r="10" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
+        <v>135700</v>
+      </c>
+      <c r="E10" s="3">
         <v>157700</v>
       </c>
-      <c r="E10" s="3">
+      <c r="F10" s="3">
         <v>189100</v>
       </c>
-      <c r="F10" s="3">
+      <c r="G10" s="3">
         <v>167700</v>
       </c>
-      <c r="G10" s="3">
+      <c r="H10" s="3">
         <v>86800</v>
       </c>
-      <c r="H10" s="3">
+      <c r="I10" s="3">
         <v>88300</v>
       </c>
-      <c r="I10" s="3">
+      <c r="J10" s="3">
         <v>124800</v>
       </c>
-      <c r="J10" s="3">
+      <c r="K10" s="3">
         <v>126000</v>
       </c>
-      <c r="K10" s="3">
+      <c r="L10" s="3">
         <v>95500</v>
       </c>
-      <c r="L10" s="3">
+      <c r="M10" s="3">
         <v>97000</v>
       </c>
-      <c r="M10" s="3">
+      <c r="N10" s="3">
         <v>171100</v>
       </c>
-      <c r="N10" s="3">
+      <c r="O10" s="3">
         <v>68500</v>
       </c>
-      <c r="O10" s="3">
+      <c r="P10" s="3">
         <v>67300</v>
       </c>
-      <c r="P10" s="3">
+      <c r="Q10" s="3">
         <v>82100</v>
       </c>
-      <c r="Q10" s="3">
+      <c r="R10" s="3">
         <v>87000</v>
       </c>
-      <c r="R10" s="3">
+      <c r="S10" s="3">
         <v>81700</v>
       </c>
     </row>
-    <row r="11" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -908,58 +921,62 @@
       <c r="P11" s="3"/>
       <c r="Q11" s="3"/>
       <c r="R11" s="3"/>
-    </row>
-    <row r="12" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S11" s="3"/>
+    </row>
+    <row r="12" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
       <c r="D12" s="3">
+        <v>49000</v>
+      </c>
+      <c r="E12" s="3">
         <v>48700</v>
       </c>
-      <c r="E12" s="3">
+      <c r="F12" s="3">
         <v>51000</v>
       </c>
-      <c r="F12" s="3">
+      <c r="G12" s="3">
         <v>49900</v>
       </c>
-      <c r="G12" s="3">
+      <c r="H12" s="3">
         <v>49500</v>
       </c>
-      <c r="H12" s="3">
+      <c r="I12" s="3">
         <v>57700</v>
       </c>
-      <c r="I12" s="3">
+      <c r="J12" s="3">
         <v>42800</v>
       </c>
-      <c r="J12" s="3">
+      <c r="K12" s="3">
         <v>34600</v>
       </c>
-      <c r="K12" s="3">
+      <c r="L12" s="3">
         <v>38500</v>
       </c>
-      <c r="L12" s="3">
+      <c r="M12" s="3">
         <v>38200</v>
       </c>
-      <c r="M12" s="3">
+      <c r="N12" s="3">
         <v>43800</v>
       </c>
-      <c r="N12" s="3">
+      <c r="O12" s="3">
         <v>36300</v>
       </c>
-      <c r="O12" s="3">
+      <c r="P12" s="3">
         <v>35400</v>
       </c>
-      <c r="P12" s="3">
+      <c r="Q12" s="3">
         <v>37300</v>
       </c>
-      <c r="Q12" s="3">
+      <c r="R12" s="3">
         <v>38700</v>
       </c>
-      <c r="R12" s="3">
+      <c r="S12" s="3">
         <v>36900</v>
       </c>
     </row>
-    <row r="13" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>8</v>
       </c>
@@ -1008,81 +1025,87 @@
       <c r="R13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>9</v>
       </c>
       <c r="D14" s="3">
+        <v>4900</v>
+      </c>
+      <c r="E14" s="3">
         <v>5200</v>
       </c>
-      <c r="E14" s="3">
+      <c r="F14" s="3">
         <v>900</v>
       </c>
-      <c r="F14" s="3">
+      <c r="G14" s="3">
         <v>1300</v>
       </c>
-      <c r="G14" s="3">
+      <c r="H14" s="3">
         <v>1700</v>
       </c>
-      <c r="H14" s="3">
+      <c r="I14" s="3">
         <v>51800</v>
       </c>
-      <c r="I14" s="3">
+      <c r="J14" s="3">
         <v>7800</v>
       </c>
-      <c r="J14" s="3">
+      <c r="K14" s="3">
         <v>1300</v>
       </c>
-      <c r="K14" s="3">
+      <c r="L14" s="3">
         <v>3400</v>
       </c>
-      <c r="L14" s="3">
+      <c r="M14" s="3">
         <v>100</v>
       </c>
-      <c r="M14" s="3">
+      <c r="N14" s="3">
         <v>4500</v>
       </c>
-      <c r="N14" s="3">
+      <c r="O14" s="3">
         <v>2900</v>
       </c>
-      <c r="O14" s="3">
+      <c r="P14" s="3">
         <v>2000</v>
       </c>
-      <c r="P14" s="3">
+      <c r="Q14" s="3">
         <v>3100</v>
       </c>
-      <c r="Q14" s="3">
+      <c r="R14" s="3">
         <v>4000</v>
       </c>
-      <c r="R14" s="3">
+      <c r="S14" s="3">
         <v>2900</v>
       </c>
     </row>
-    <row r="15" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D15" s="3">
+        <v>6200</v>
+      </c>
+      <c r="E15" s="3">
         <v>6100</v>
       </c>
-      <c r="E15" s="3">
+      <c r="F15" s="3">
         <v>6200</v>
       </c>
-      <c r="F15" s="3">
+      <c r="G15" s="3">
         <v>6300</v>
-      </c>
-      <c r="G15" s="3">
-        <v>3600</v>
       </c>
       <c r="H15" s="3">
         <v>3600</v>
       </c>
       <c r="I15" s="3">
+        <v>3600</v>
+      </c>
+      <c r="J15" s="3">
         <v>800</v>
-      </c>
-      <c r="J15" s="3" t="s">
-        <v>17</v>
       </c>
       <c r="K15" s="3" t="s">
         <v>17</v>
@@ -1090,17 +1113,17 @@
       <c r="L15" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="M15" s="3">
-        <v>0</v>
-      </c>
-      <c r="N15" s="3" t="s">
+      <c r="M15" s="3" t="s">
         <v>17</v>
+      </c>
+      <c r="N15" s="3">
+        <v>0</v>
       </c>
       <c r="O15" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="P15" s="3">
-        <v>0</v>
+      <c r="P15" s="3" t="s">
+        <v>17</v>
       </c>
       <c r="Q15" s="3">
         <v>0</v>
@@ -1108,8 +1131,11 @@
       <c r="R15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:19" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1125,108 +1151,115 @@
       <c r="P16" s="3"/>
       <c r="Q16" s="3"/>
       <c r="R16" s="3"/>
-    </row>
-    <row r="17" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S16" s="3"/>
+    </row>
+    <row r="17" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>11</v>
       </c>
       <c r="D17" s="3">
+        <v>341100</v>
+      </c>
+      <c r="E17" s="3">
         <v>360300</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="3">
         <v>383000</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>390100</v>
       </c>
-      <c r="G17" s="3">
+      <c r="H17" s="3">
         <v>418400</v>
       </c>
-      <c r="H17" s="3">
+      <c r="I17" s="3">
         <v>509300</v>
       </c>
-      <c r="I17" s="3">
+      <c r="J17" s="3">
         <v>362200</v>
       </c>
-      <c r="J17" s="3">
+      <c r="K17" s="3">
         <v>297000</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>280200</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>273300</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>313800</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>240500</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>218800</v>
       </c>
-      <c r="P17" s="3">
+      <c r="Q17" s="3">
         <v>242200</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="R17" s="3">
         <v>251700</v>
       </c>
-      <c r="R17" s="3">
+      <c r="S17" s="3">
         <v>241300</v>
       </c>
     </row>
-    <row r="18" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D18" s="3">
+        <v>27000</v>
+      </c>
+      <c r="E18" s="3">
         <v>42500</v>
       </c>
-      <c r="E18" s="3">
+      <c r="F18" s="3">
         <v>74800</v>
       </c>
-      <c r="F18" s="3">
+      <c r="G18" s="3">
         <v>59800</v>
       </c>
-      <c r="G18" s="3">
+      <c r="H18" s="3">
         <v>-13800</v>
       </c>
-      <c r="H18" s="3">
+      <c r="I18" s="3">
         <v>-76400</v>
       </c>
-      <c r="I18" s="3">
+      <c r="J18" s="3">
         <v>11500</v>
       </c>
-      <c r="J18" s="3">
+      <c r="K18" s="3">
         <v>57100</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>20900</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>25500</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>90800</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>2700</v>
       </c>
-      <c r="O18" s="3">
+      <c r="P18" s="3">
         <v>3900</v>
       </c>
-      <c r="P18" s="3">
+      <c r="Q18" s="3">
         <v>13600</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="R18" s="3">
         <v>13300</v>
       </c>
-      <c r="R18" s="3">
+      <c r="S18" s="3">
         <v>16800</v>
       </c>
     </row>
-    <row r="19" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>13</v>
       </c>
@@ -1245,134 +1278,141 @@
       <c r="P19" s="3"/>
       <c r="Q19" s="3"/>
       <c r="R19" s="3"/>
-    </row>
-    <row r="20" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S19" s="3"/>
+    </row>
+    <row r="20" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>14</v>
       </c>
       <c r="D20" s="3">
+        <v>3500</v>
+      </c>
+      <c r="E20" s="3">
         <v>21700</v>
       </c>
-      <c r="E20" s="3">
+      <c r="F20" s="3">
         <v>1200</v>
       </c>
-      <c r="F20" s="3">
+      <c r="G20" s="3">
         <v>5000</v>
       </c>
-      <c r="G20" s="3">
+      <c r="H20" s="3">
         <v>4100</v>
       </c>
-      <c r="H20" s="3">
+      <c r="I20" s="3">
         <v>5200</v>
       </c>
-      <c r="I20" s="3">
+      <c r="J20" s="3">
         <v>14700</v>
       </c>
-      <c r="J20" s="3">
+      <c r="K20" s="3">
         <v>600</v>
       </c>
-      <c r="K20" s="3">
+      <c r="L20" s="3">
         <v>11400</v>
       </c>
-      <c r="L20" s="3">
+      <c r="M20" s="3">
         <v>-18200</v>
       </c>
-      <c r="M20" s="3">
+      <c r="N20" s="3">
         <v>9300</v>
       </c>
-      <c r="N20" s="3">
+      <c r="O20" s="3">
         <v>5200</v>
       </c>
-      <c r="O20" s="3">
+      <c r="P20" s="3">
         <v>-31500</v>
       </c>
-      <c r="P20" s="3">
+      <c r="Q20" s="3">
         <v>-58000</v>
       </c>
-      <c r="Q20" s="3">
+      <c r="R20" s="3">
         <v>4600</v>
       </c>
-      <c r="R20" s="3">
+      <c r="S20" s="3">
         <v>-22500</v>
       </c>
     </row>
-    <row r="21" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D21" s="3">
+        <v>77200</v>
+      </c>
+      <c r="E21" s="3">
         <v>111700</v>
       </c>
-      <c r="E21" s="3">
+      <c r="F21" s="3">
         <v>123300</v>
       </c>
-      <c r="F21" s="3">
+      <c r="G21" s="3">
         <v>115200</v>
       </c>
-      <c r="G21" s="3">
+      <c r="H21" s="3">
         <v>35400</v>
       </c>
-      <c r="H21" s="3">
+      <c r="I21" s="3">
         <v>-10500</v>
       </c>
-      <c r="I21" s="3">
+      <c r="J21" s="3">
         <v>57400</v>
       </c>
-      <c r="J21" s="3">
+      <c r="K21" s="3">
         <v>78200</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>53800</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>26500</v>
       </c>
-      <c r="M21" s="3">
+      <c r="N21" s="3">
         <v>119100</v>
       </c>
-      <c r="N21" s="3">
+      <c r="O21" s="3">
         <v>25400</v>
       </c>
-      <c r="O21" s="3">
+      <c r="P21" s="3">
         <v>-11100</v>
       </c>
-      <c r="P21" s="3">
+      <c r="Q21" s="3">
         <v>-28500</v>
       </c>
-      <c r="Q21" s="3">
+      <c r="R21" s="3">
         <v>32800</v>
       </c>
-      <c r="R21" s="3">
+      <c r="S21" s="3">
         <v>8000</v>
       </c>
     </row>
-    <row r="22" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D22" s="3">
+        <v>15900</v>
+      </c>
+      <c r="E22" s="3">
         <v>15600</v>
       </c>
-      <c r="E22" s="3">
+      <c r="F22" s="3">
         <v>18300</v>
-      </c>
-      <c r="F22" s="3">
-        <v>11400</v>
       </c>
       <c r="G22" s="3">
         <v>11400</v>
       </c>
       <c r="H22" s="3">
+        <v>11400</v>
+      </c>
+      <c r="I22" s="3">
         <v>11300</v>
       </c>
-      <c r="I22" s="3">
+      <c r="J22" s="3">
         <v>8500</v>
       </c>
-      <c r="J22" s="3">
+      <c r="K22" s="3">
         <v>5100</v>
-      </c>
-      <c r="K22" s="3">
-        <v>4600</v>
       </c>
       <c r="L22" s="3">
         <v>4600</v>
@@ -1381,10 +1421,10 @@
         <v>4600</v>
       </c>
       <c r="N22" s="3">
+        <v>4600</v>
+      </c>
+      <c r="O22" s="3">
         <v>4400</v>
-      </c>
-      <c r="O22" s="3" t="s">
-        <v>17</v>
       </c>
       <c r="P22" s="3" t="s">
         <v>17</v>
@@ -1395,108 +1435,117 @@
       <c r="R22" s="3" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="23" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S22" s="3" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="23" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>14600</v>
+      </c>
+      <c r="E23" s="3">
         <v>48600</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>57700</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>53400</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
         <v>-21100</v>
       </c>
-      <c r="H23" s="3">
+      <c r="I23" s="3">
         <v>-82500</v>
       </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
         <v>17700</v>
       </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
         <v>52600</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>27700</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>2700</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>95500</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>3500</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>-27600</v>
       </c>
-      <c r="P23" s="3">
+      <c r="Q23" s="3">
         <v>-44400</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="R23" s="3">
         <v>17900</v>
       </c>
-      <c r="R23" s="3">
+      <c r="S23" s="3">
         <v>-5700</v>
       </c>
     </row>
-    <row r="24" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
+        <v>19200</v>
+      </c>
+      <c r="E24" s="3">
         <v>5200</v>
       </c>
-      <c r="E24" s="3">
+      <c r="F24" s="3">
         <v>8600</v>
       </c>
-      <c r="F24" s="3">
+      <c r="G24" s="3">
         <v>5800</v>
       </c>
-      <c r="G24" s="3">
+      <c r="H24" s="3">
         <v>4700</v>
       </c>
-      <c r="H24" s="3">
+      <c r="I24" s="3">
         <v>-8200</v>
       </c>
-      <c r="I24" s="3">
+      <c r="J24" s="3">
         <v>1400</v>
       </c>
-      <c r="J24" s="3">
+      <c r="K24" s="3">
         <v>5200</v>
       </c>
-      <c r="K24" s="3">
+      <c r="L24" s="3">
         <v>-3300</v>
       </c>
-      <c r="L24" s="3">
-        <v>0</v>
-      </c>
       <c r="M24" s="3">
+        <v>0</v>
+      </c>
+      <c r="N24" s="3">
         <v>-109300</v>
       </c>
-      <c r="N24" s="3">
+      <c r="O24" s="3">
         <v>-3600</v>
       </c>
-      <c r="O24" s="3">
+      <c r="P24" s="3">
         <v>27300</v>
       </c>
-      <c r="P24" s="3">
+      <c r="Q24" s="3">
         <v>11600</v>
       </c>
-      <c r="Q24" s="3">
+      <c r="R24" s="3">
         <v>6100</v>
       </c>
-      <c r="R24" s="3">
+      <c r="S24" s="3">
         <v>-2300</v>
       </c>
     </row>
-    <row r="25" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="25" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1545,108 +1594,117 @@
       <c r="R25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>-4600</v>
+      </c>
+      <c r="E26" s="3">
         <v>43400</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
         <v>49100</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>47600</v>
       </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
         <v>-25800</v>
       </c>
-      <c r="H26" s="3">
+      <c r="I26" s="3">
         <v>-74300</v>
       </c>
-      <c r="I26" s="3">
+      <c r="J26" s="3">
         <v>16300</v>
       </c>
-      <c r="J26" s="3">
+      <c r="K26" s="3">
         <v>47400</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>31000</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>2700</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>204800</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>7100</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>-54900</v>
       </c>
-      <c r="P26" s="3">
+      <c r="Q26" s="3">
         <v>-56000</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="R26" s="3">
         <v>11800</v>
       </c>
-      <c r="R26" s="3">
+      <c r="S26" s="3">
         <v>-3400</v>
       </c>
     </row>
-    <row r="27" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>-4600</v>
+      </c>
+      <c r="E27" s="3">
         <v>43400</v>
       </c>
-      <c r="E27" s="3">
+      <c r="F27" s="3">
         <v>49100</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>47600</v>
       </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
         <v>-25800</v>
       </c>
-      <c r="H27" s="3">
+      <c r="I27" s="3">
         <v>-74300</v>
       </c>
-      <c r="I27" s="3">
+      <c r="J27" s="3">
         <v>16200</v>
       </c>
-      <c r="J27" s="3">
+      <c r="K27" s="3">
         <v>46100</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>30000</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>2400</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>199800</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>6900</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>-55200</v>
       </c>
-      <c r="P27" s="3">
+      <c r="Q27" s="3">
         <v>-56200</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="R27" s="3">
         <v>11600</v>
       </c>
-      <c r="R27" s="3">
+      <c r="S27" s="3">
         <v>-3600</v>
       </c>
     </row>
-    <row r="28" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1695,8 +1753,11 @@
       <c r="R28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1709,11 +1770,11 @@
       <c r="F29" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="G29" s="3">
-        <v>0</v>
-      </c>
-      <c r="H29" s="3" t="s">
+      <c r="G29" s="3" t="s">
         <v>17</v>
+      </c>
+      <c r="H29" s="3">
+        <v>0</v>
       </c>
       <c r="I29" s="3" t="s">
         <v>17</v>
@@ -1721,17 +1782,17 @@
       <c r="J29" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="K29" s="3">
+      <c r="K29" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="L29" s="3">
         <v>2500</v>
       </c>
-      <c r="L29" s="3">
-        <v>0</v>
-      </c>
       <c r="M29" s="3">
+        <v>0</v>
+      </c>
+      <c r="N29" s="3">
         <v>-83000</v>
-      </c>
-      <c r="N29" s="3" t="s">
-        <v>17</v>
       </c>
       <c r="O29" s="3" t="s">
         <v>17</v>
@@ -1745,8 +1806,11 @@
       <c r="R29" s="3" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="30" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S29" s="3" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="30" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1795,8 +1859,11 @@
       <c r="R30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1845,108 +1912,117 @@
       <c r="R31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
+        <v>-3500</v>
+      </c>
+      <c r="E32" s="3">
         <v>-21700</v>
       </c>
-      <c r="E32" s="3">
+      <c r="F32" s="3">
         <v>-1200</v>
       </c>
-      <c r="F32" s="3">
+      <c r="G32" s="3">
         <v>-5000</v>
       </c>
-      <c r="G32" s="3">
+      <c r="H32" s="3">
         <v>-4100</v>
       </c>
-      <c r="H32" s="3">
+      <c r="I32" s="3">
         <v>-5200</v>
       </c>
-      <c r="I32" s="3">
+      <c r="J32" s="3">
         <v>-14700</v>
       </c>
-      <c r="J32" s="3">
+      <c r="K32" s="3">
         <v>-600</v>
       </c>
-      <c r="K32" s="3">
+      <c r="L32" s="3">
         <v>-11400</v>
       </c>
-      <c r="L32" s="3">
+      <c r="M32" s="3">
         <v>18200</v>
       </c>
-      <c r="M32" s="3">
+      <c r="N32" s="3">
         <v>-9300</v>
       </c>
-      <c r="N32" s="3">
+      <c r="O32" s="3">
         <v>-5200</v>
       </c>
-      <c r="O32" s="3">
+      <c r="P32" s="3">
         <v>31500</v>
       </c>
-      <c r="P32" s="3">
+      <c r="Q32" s="3">
         <v>58000</v>
       </c>
-      <c r="Q32" s="3">
+      <c r="R32" s="3">
         <v>-4600</v>
       </c>
-      <c r="R32" s="3">
+      <c r="S32" s="3">
         <v>22500</v>
       </c>
     </row>
-    <row r="33" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>-4600</v>
+      </c>
+      <c r="E33" s="3">
         <v>43400</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
         <v>49100</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>47600</v>
       </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
         <v>-25800</v>
       </c>
-      <c r="H33" s="3">
+      <c r="I33" s="3">
         <v>-74300</v>
       </c>
-      <c r="I33" s="3">
+      <c r="J33" s="3">
         <v>16200</v>
       </c>
-      <c r="J33" s="3">
+      <c r="K33" s="3">
         <v>46100</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>32500</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>2400</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>116800</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>6900</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>-55200</v>
       </c>
-      <c r="P33" s="3">
+      <c r="Q33" s="3">
         <v>-56200</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="R33" s="3">
         <v>11600</v>
       </c>
-      <c r="R33" s="3">
+      <c r="S33" s="3">
         <v>-3600</v>
       </c>
     </row>
-    <row r="34" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1995,113 +2071,122 @@
       <c r="R34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>-4600</v>
+      </c>
+      <c r="E35" s="3">
         <v>43400</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
         <v>49100</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>47600</v>
       </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
         <v>-25800</v>
       </c>
-      <c r="H35" s="3">
+      <c r="I35" s="3">
         <v>-74300</v>
       </c>
-      <c r="I35" s="3">
+      <c r="J35" s="3">
         <v>16200</v>
       </c>
-      <c r="J35" s="3">
+      <c r="K35" s="3">
         <v>46100</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>32500</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>2400</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>116800</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>6900</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>-55200</v>
       </c>
-      <c r="P35" s="3">
+      <c r="Q35" s="3">
         <v>-56200</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="R35" s="3">
         <v>11600</v>
       </c>
-      <c r="R35" s="3">
+      <c r="S35" s="3">
         <v>-3600</v>
       </c>
     </row>
-    <row r="37" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:19" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44009</v>
+      </c>
+      <c r="E38" s="2">
         <v>43918</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>43827</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>43736</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>43645</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>43554</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>43463</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>43372</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>43281</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>43190</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>43099</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>43008</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>42917</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>42826</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>42735</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>42644</v>
       </c>
     </row>
-    <row r="39" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2120,8 +2205,9 @@
       <c r="P39" s="3"/>
       <c r="Q39" s="3"/>
       <c r="R39" s="3"/>
-    </row>
-    <row r="40" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S39" s="3"/>
+    </row>
+    <row r="40" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2140,99 +2226,103 @@
       <c r="P40" s="3"/>
       <c r="Q40" s="3"/>
       <c r="R40" s="3"/>
-    </row>
-    <row r="41" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S40" s="3"/>
+    </row>
+    <row r="41" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>298000</v>
+      </c>
+      <c r="E41" s="3">
         <v>688300</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>1085000</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>539000</v>
       </c>
-      <c r="G41" s="3">
+      <c r="H41" s="3">
         <v>432600</v>
       </c>
-      <c r="H41" s="3">
+      <c r="I41" s="3">
         <v>357300</v>
       </c>
-      <c r="I41" s="3">
+      <c r="J41" s="3">
         <v>371300</v>
       </c>
-      <c r="J41" s="3">
+      <c r="K41" s="3">
         <v>459400</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>397300</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>176800</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>202100</v>
       </c>
-      <c r="N41" s="3">
+      <c r="O41" s="3">
         <v>150800</v>
       </c>
-      <c r="O41" s="3">
+      <c r="P41" s="3">
         <v>272900</v>
       </c>
-      <c r="P41" s="3">
+      <c r="Q41" s="3">
         <v>577900</v>
       </c>
-      <c r="Q41" s="3">
+      <c r="R41" s="3">
         <v>155900</v>
       </c>
-      <c r="R41" s="3">
+      <c r="S41" s="3">
         <v>166800</v>
       </c>
     </row>
-    <row r="42" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
       <c r="D42" s="3">
+        <v>1255800</v>
+      </c>
+      <c r="E42" s="3">
         <v>763100</v>
       </c>
-      <c r="E42" s="3">
+      <c r="F42" s="3">
         <v>230600</v>
       </c>
-      <c r="F42" s="3">
+      <c r="G42" s="3">
         <v>291900</v>
       </c>
-      <c r="G42" s="3">
+      <c r="H42" s="3">
         <v>335900</v>
       </c>
-      <c r="H42" s="3">
+      <c r="I42" s="3">
         <v>340200</v>
       </c>
-      <c r="I42" s="3">
+      <c r="J42" s="3">
         <v>312800</v>
       </c>
-      <c r="J42" s="3">
+      <c r="K42" s="3">
         <v>274900</v>
       </c>
-      <c r="K42" s="3">
+      <c r="L42" s="3">
         <v>314200</v>
       </c>
-      <c r="L42" s="3">
+      <c r="M42" s="3">
         <v>516000</v>
       </c>
-      <c r="M42" s="3">
+      <c r="N42" s="3">
         <v>422400</v>
       </c>
-      <c r="N42" s="3">
+      <c r="O42" s="3">
         <v>381700</v>
       </c>
-      <c r="O42" s="3">
+      <c r="P42" s="3">
         <v>282400</v>
-      </c>
-      <c r="P42" s="3" t="s">
-        <v>17</v>
       </c>
       <c r="Q42" s="3" t="s">
         <v>17</v>
@@ -2240,208 +2330,223 @@
       <c r="R42" s="3" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="43" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S42" s="3" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="43" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
+        <v>233500</v>
+      </c>
+      <c r="E43" s="3">
         <v>303100</v>
       </c>
-      <c r="E43" s="3">
+      <c r="F43" s="3">
         <v>343600</v>
       </c>
-      <c r="F43" s="3">
+      <c r="G43" s="3">
         <v>339600</v>
       </c>
-      <c r="G43" s="3">
+      <c r="H43" s="3">
         <v>286200</v>
       </c>
-      <c r="H43" s="3">
+      <c r="I43" s="3">
         <v>329700</v>
       </c>
-      <c r="I43" s="3">
+      <c r="J43" s="3">
         <v>266500</v>
       </c>
-      <c r="J43" s="3">
+      <c r="K43" s="3">
         <v>239600</v>
       </c>
-      <c r="K43" s="3">
+      <c r="L43" s="3">
         <v>197100</v>
       </c>
-      <c r="L43" s="3">
+      <c r="M43" s="3">
         <v>164700</v>
       </c>
-      <c r="M43" s="3">
+      <c r="N43" s="3">
         <v>222100</v>
       </c>
-      <c r="N43" s="3">
+      <c r="O43" s="3">
         <v>173800</v>
       </c>
-      <c r="O43" s="3">
+      <c r="P43" s="3">
         <v>166300</v>
       </c>
-      <c r="P43" s="3">
+      <c r="Q43" s="3">
         <v>185400</v>
       </c>
-      <c r="Q43" s="3">
+      <c r="R43" s="3">
         <v>192500</v>
       </c>
-      <c r="R43" s="3">
+      <c r="S43" s="3">
         <v>156500</v>
       </c>
     </row>
-    <row r="44" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
+        <v>188900</v>
+      </c>
+      <c r="E44" s="3">
         <v>172700</v>
       </c>
-      <c r="E44" s="3">
+      <c r="F44" s="3">
         <v>179600</v>
       </c>
-      <c r="F44" s="3">
+      <c r="G44" s="3">
         <v>202200</v>
       </c>
-      <c r="G44" s="3">
+      <c r="H44" s="3">
         <v>228800</v>
       </c>
-      <c r="H44" s="3">
+      <c r="I44" s="3">
         <v>272200</v>
       </c>
-      <c r="I44" s="3">
+      <c r="J44" s="3">
         <v>303200</v>
       </c>
-      <c r="J44" s="3">
+      <c r="K44" s="3">
         <v>136600</v>
       </c>
-      <c r="K44" s="3">
+      <c r="L44" s="3">
         <v>153600</v>
       </c>
-      <c r="L44" s="3">
+      <c r="M44" s="3">
         <v>144200</v>
       </c>
-      <c r="M44" s="3">
+      <c r="N44" s="3">
         <v>147300</v>
       </c>
-      <c r="N44" s="3">
+      <c r="O44" s="3">
         <v>147200</v>
       </c>
-      <c r="O44" s="3">
+      <c r="P44" s="3">
         <v>145200</v>
       </c>
-      <c r="P44" s="3">
+      <c r="Q44" s="3">
         <v>116900</v>
       </c>
-      <c r="Q44" s="3">
+      <c r="R44" s="3">
         <v>121000</v>
       </c>
-      <c r="R44" s="3">
+      <c r="S44" s="3">
         <v>103700</v>
       </c>
     </row>
-    <row r="45" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="45" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
+        <v>73800</v>
+      </c>
+      <c r="E45" s="3">
         <v>35800</v>
       </c>
-      <c r="E45" s="3">
+      <c r="F45" s="3">
         <v>44200</v>
       </c>
-      <c r="F45" s="3">
+      <c r="G45" s="3">
         <v>50500</v>
       </c>
-      <c r="G45" s="3">
+      <c r="H45" s="3">
         <v>49300</v>
       </c>
-      <c r="H45" s="3">
+      <c r="I45" s="3">
         <v>118700</v>
       </c>
-      <c r="I45" s="3">
+      <c r="J45" s="3">
         <v>103100</v>
       </c>
-      <c r="J45" s="3">
+      <c r="K45" s="3">
         <v>70600</v>
       </c>
-      <c r="K45" s="3">
+      <c r="L45" s="3">
         <v>65000</v>
       </c>
-      <c r="L45" s="3">
+      <c r="M45" s="3">
         <v>63000</v>
       </c>
-      <c r="M45" s="3">
+      <c r="N45" s="3">
         <v>59900</v>
       </c>
-      <c r="N45" s="3">
+      <c r="O45" s="3">
         <v>69000</v>
       </c>
-      <c r="O45" s="3">
+      <c r="P45" s="3">
         <v>63500</v>
       </c>
-      <c r="P45" s="3">
+      <c r="Q45" s="3">
         <v>61400</v>
       </c>
-      <c r="Q45" s="3">
+      <c r="R45" s="3">
         <v>58200</v>
       </c>
-      <c r="R45" s="3">
+      <c r="S45" s="3">
         <v>62300</v>
       </c>
     </row>
-    <row r="46" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="46" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>2050000</v>
+      </c>
+      <c r="E46" s="3">
         <v>1963000</v>
       </c>
-      <c r="E46" s="3">
+      <c r="F46" s="3">
         <v>1883000</v>
       </c>
-      <c r="F46" s="3">
+      <c r="G46" s="3">
         <v>1423200</v>
       </c>
-      <c r="G46" s="3">
+      <c r="H46" s="3">
         <v>1332800</v>
       </c>
-      <c r="H46" s="3">
+      <c r="I46" s="3">
         <v>1418100</v>
       </c>
-      <c r="I46" s="3">
+      <c r="J46" s="3">
         <v>1356900</v>
       </c>
-      <c r="J46" s="3">
+      <c r="K46" s="3">
         <v>1181100</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>1127200</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>1064700</v>
       </c>
-      <c r="M46" s="3">
+      <c r="N46" s="3">
         <v>1053800</v>
       </c>
-      <c r="N46" s="3">
+      <c r="O46" s="3">
         <v>922500</v>
       </c>
-      <c r="O46" s="3">
+      <c r="P46" s="3">
         <v>930300</v>
       </c>
-      <c r="P46" s="3">
+      <c r="Q46" s="3">
         <v>941600</v>
       </c>
-      <c r="Q46" s="3">
+      <c r="R46" s="3">
         <v>527600</v>
       </c>
-      <c r="R46" s="3">
+      <c r="S46" s="3">
         <v>489300</v>
       </c>
     </row>
-    <row r="47" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -2490,108 +2595,117 @@
       <c r="R47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>471700</v>
+      </c>
+      <c r="E48" s="3">
         <v>491800</v>
       </c>
-      <c r="E48" s="3">
+      <c r="F48" s="3">
         <v>505700</v>
       </c>
-      <c r="F48" s="3">
+      <c r="G48" s="3">
         <v>524900</v>
       </c>
-      <c r="G48" s="3">
+      <c r="H48" s="3">
         <v>433300</v>
       </c>
-      <c r="H48" s="3">
+      <c r="I48" s="3">
         <v>390600</v>
       </c>
-      <c r="I48" s="3">
+      <c r="J48" s="3">
         <v>444700</v>
       </c>
-      <c r="J48" s="3">
+      <c r="K48" s="3">
         <v>318600</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>280600</v>
       </c>
-      <c r="L48" s="3">
+      <c r="M48" s="3">
         <v>264500</v>
       </c>
-      <c r="M48" s="3">
+      <c r="N48" s="3">
         <v>301300</v>
       </c>
-      <c r="N48" s="3">
+      <c r="O48" s="3">
         <v>293700</v>
       </c>
-      <c r="O48" s="3">
+      <c r="P48" s="3">
         <v>273500</v>
       </c>
-      <c r="P48" s="3">
+      <c r="Q48" s="3">
         <v>246600</v>
       </c>
-      <c r="Q48" s="3">
+      <c r="R48" s="3">
         <v>219600</v>
       </c>
-      <c r="R48" s="3">
+      <c r="S48" s="3">
         <v>196000</v>
       </c>
     </row>
-    <row r="49" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="49" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
+        <v>685700</v>
+      </c>
+      <c r="E49" s="3">
         <v>706900</v>
       </c>
-      <c r="E49" s="3">
+      <c r="F49" s="3">
         <v>726900</v>
       </c>
-      <c r="F49" s="3">
+      <c r="G49" s="3">
         <v>745500</v>
       </c>
-      <c r="G49" s="3">
+      <c r="H49" s="3">
         <v>764300</v>
       </c>
-      <c r="H49" s="3">
+      <c r="I49" s="3">
         <v>772100</v>
       </c>
-      <c r="I49" s="3">
+      <c r="J49" s="3">
         <v>789700</v>
       </c>
-      <c r="J49" s="3">
+      <c r="K49" s="3">
         <v>17600</v>
       </c>
-      <c r="K49" s="3">
+      <c r="L49" s="3">
         <v>44600</v>
       </c>
-      <c r="L49" s="3">
+      <c r="M49" s="3">
         <v>57200</v>
       </c>
-      <c r="M49" s="3">
+      <c r="N49" s="3">
         <v>20400</v>
       </c>
-      <c r="N49" s="3">
+      <c r="O49" s="3">
         <v>21000</v>
       </c>
-      <c r="O49" s="3">
+      <c r="P49" s="3">
         <v>21500</v>
       </c>
-      <c r="P49" s="3">
+      <c r="Q49" s="3">
         <v>22300</v>
       </c>
-      <c r="Q49" s="3">
+      <c r="R49" s="3">
         <v>16000</v>
       </c>
-      <c r="R49" s="3">
+      <c r="S49" s="3">
         <v>18100</v>
       </c>
     </row>
-    <row r="50" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="50" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2640,8 +2754,11 @@
       <c r="R50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2690,58 +2807,64 @@
       <c r="R51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
+        <v>85200</v>
+      </c>
+      <c r="E52" s="3">
         <v>107000</v>
       </c>
-      <c r="E52" s="3">
+      <c r="F52" s="3">
         <v>105600</v>
       </c>
-      <c r="F52" s="3">
+      <c r="G52" s="3">
         <v>174200</v>
       </c>
-      <c r="G52" s="3">
+      <c r="H52" s="3">
         <v>186200</v>
       </c>
-      <c r="H52" s="3">
+      <c r="I52" s="3">
         <v>190600</v>
       </c>
-      <c r="I52" s="3">
+      <c r="J52" s="3">
         <v>205300</v>
       </c>
-      <c r="J52" s="3">
+      <c r="K52" s="3">
         <v>127700</v>
       </c>
-      <c r="K52" s="3">
+      <c r="L52" s="3">
         <v>129100</v>
       </c>
-      <c r="L52" s="3">
+      <c r="M52" s="3">
         <v>131800</v>
       </c>
-      <c r="M52" s="3">
+      <c r="N52" s="3">
         <v>131900</v>
       </c>
-      <c r="N52" s="3">
+      <c r="O52" s="3">
         <v>11200</v>
       </c>
-      <c r="O52" s="3">
+      <c r="P52" s="3">
         <v>7600</v>
       </c>
-      <c r="P52" s="3">
+      <c r="Q52" s="3">
         <v>34000</v>
       </c>
-      <c r="Q52" s="3">
+      <c r="R52" s="3">
         <v>33500</v>
       </c>
-      <c r="R52" s="3">
+      <c r="S52" s="3">
         <v>34100</v>
       </c>
     </row>
-    <row r="53" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="53" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -2790,58 +2913,64 @@
       <c r="R53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>3292600</v>
+      </c>
+      <c r="E54" s="3">
         <v>3268700</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>3221200</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>2867800</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>2716600</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>2771400</v>
       </c>
-      <c r="I54" s="3">
+      <c r="J54" s="3">
         <v>2796600</v>
       </c>
-      <c r="J54" s="3">
+      <c r="K54" s="3">
         <v>1645000</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>1581500</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>1518200</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>1507400</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>1248400</v>
       </c>
-      <c r="O54" s="3">
+      <c r="P54" s="3">
         <v>1232900</v>
       </c>
-      <c r="P54" s="3">
+      <c r="Q54" s="3">
         <v>1244500</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="R54" s="3">
         <v>796700</v>
       </c>
-      <c r="R54" s="3">
+      <c r="S54" s="3">
         <v>737500</v>
       </c>
     </row>
-    <row r="55" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2860,8 +2989,9 @@
       <c r="P55" s="3"/>
       <c r="Q55" s="3"/>
       <c r="R55" s="3"/>
-    </row>
-    <row r="56" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S55" s="3"/>
+    </row>
+    <row r="56" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -2880,96 +3010,100 @@
       <c r="P56" s="3"/>
       <c r="Q56" s="3"/>
       <c r="R56" s="3"/>
-    </row>
-    <row r="57" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S56" s="3"/>
+    </row>
+    <row r="57" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>150800</v>
+      </c>
+      <c r="E57" s="3">
         <v>144600</v>
       </c>
-      <c r="E57" s="3">
+      <c r="F57" s="3">
         <v>143700</v>
       </c>
-      <c r="F57" s="3">
+      <c r="G57" s="3">
         <v>152200</v>
       </c>
-      <c r="G57" s="3">
+      <c r="H57" s="3">
         <v>160800</v>
       </c>
-      <c r="H57" s="3">
+      <c r="I57" s="3">
         <v>204100</v>
       </c>
-      <c r="I57" s="3">
+      <c r="J57" s="3">
         <v>199200</v>
       </c>
-      <c r="J57" s="3">
+      <c r="K57" s="3">
         <v>127600</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>126500</v>
       </c>
-      <c r="L57" s="3">
+      <c r="M57" s="3">
         <v>100900</v>
       </c>
-      <c r="M57" s="3">
+      <c r="N57" s="3">
         <v>113000</v>
       </c>
-      <c r="N57" s="3">
+      <c r="O57" s="3">
         <v>111600</v>
       </c>
-      <c r="O57" s="3">
+      <c r="P57" s="3">
         <v>114800</v>
       </c>
-      <c r="P57" s="3">
+      <c r="Q57" s="3">
         <v>118400</v>
       </c>
-      <c r="Q57" s="3">
+      <c r="R57" s="3">
         <v>127800</v>
       </c>
-      <c r="R57" s="3">
+      <c r="S57" s="3">
         <v>108300</v>
       </c>
     </row>
-    <row r="58" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
+        <v>600</v>
+      </c>
+      <c r="E58" s="3">
         <v>3900</v>
       </c>
-      <c r="E58" s="3">
+      <c r="F58" s="3">
         <v>7100</v>
       </c>
-      <c r="F58" s="3">
+      <c r="G58" s="3">
         <v>15900</v>
       </c>
-      <c r="G58" s="3">
+      <c r="H58" s="3">
         <v>5400</v>
       </c>
-      <c r="H58" s="3">
+      <c r="I58" s="3">
         <v>5800</v>
       </c>
-      <c r="I58" s="3">
+      <c r="J58" s="3">
         <v>8700</v>
       </c>
-      <c r="J58" s="3">
+      <c r="K58" s="3">
         <v>5400</v>
       </c>
-      <c r="K58" s="3">
+      <c r="L58" s="3">
         <v>7300</v>
       </c>
-      <c r="L58" s="3">
+      <c r="M58" s="3">
         <v>9200</v>
       </c>
-      <c r="M58" s="3">
+      <c r="N58" s="3">
         <v>9100</v>
       </c>
-      <c r="N58" s="3">
+      <c r="O58" s="3">
         <v>4900</v>
-      </c>
-      <c r="O58" s="3" t="s">
-        <v>17</v>
       </c>
       <c r="P58" s="3" t="s">
         <v>17</v>
@@ -2980,208 +3114,223 @@
       <c r="R58" s="3" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="59" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S58" s="3" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="59" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>131600</v>
+      </c>
+      <c r="E59" s="3">
         <v>138200</v>
       </c>
-      <c r="E59" s="3">
+      <c r="F59" s="3">
         <v>153400</v>
       </c>
-      <c r="F59" s="3">
+      <c r="G59" s="3">
         <v>148700</v>
       </c>
-      <c r="G59" s="3">
+      <c r="H59" s="3">
         <v>127800</v>
       </c>
-      <c r="H59" s="3">
+      <c r="I59" s="3">
         <v>148100</v>
       </c>
-      <c r="I59" s="3">
+      <c r="J59" s="3">
         <v>117600</v>
       </c>
-      <c r="J59" s="3">
+      <c r="K59" s="3">
         <v>80900</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>80200</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>81400</v>
       </c>
-      <c r="M59" s="3">
+      <c r="N59" s="3">
         <v>95600</v>
       </c>
-      <c r="N59" s="3">
+      <c r="O59" s="3">
         <v>60700</v>
       </c>
-      <c r="O59" s="3">
+      <c r="P59" s="3">
         <v>69400</v>
       </c>
-      <c r="P59" s="3">
+      <c r="Q59" s="3">
         <v>73700</v>
       </c>
-      <c r="Q59" s="3">
+      <c r="R59" s="3">
         <v>74200</v>
       </c>
-      <c r="R59" s="3">
+      <c r="S59" s="3">
         <v>55200</v>
       </c>
     </row>
-    <row r="60" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>283000</v>
+      </c>
+      <c r="E60" s="3">
         <v>286700</v>
       </c>
-      <c r="E60" s="3">
+      <c r="F60" s="3">
         <v>304200</v>
       </c>
-      <c r="F60" s="3">
+      <c r="G60" s="3">
         <v>316800</v>
       </c>
-      <c r="G60" s="3">
+      <c r="H60" s="3">
         <v>294000</v>
       </c>
-      <c r="H60" s="3">
+      <c r="I60" s="3">
         <v>358000</v>
       </c>
-      <c r="I60" s="3">
+      <c r="J60" s="3">
         <v>325500</v>
       </c>
-      <c r="J60" s="3">
+      <c r="K60" s="3">
         <v>213900</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>214000</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>191500</v>
       </c>
-      <c r="M60" s="3">
+      <c r="N60" s="3">
         <v>217700</v>
       </c>
-      <c r="N60" s="3">
+      <c r="O60" s="3">
         <v>177200</v>
       </c>
-      <c r="O60" s="3">
+      <c r="P60" s="3">
         <v>184200</v>
       </c>
-      <c r="P60" s="3">
+      <c r="Q60" s="3">
         <v>192100</v>
       </c>
-      <c r="Q60" s="3">
+      <c r="R60" s="3">
         <v>202000</v>
       </c>
-      <c r="R60" s="3">
+      <c r="S60" s="3">
         <v>163500</v>
       </c>
     </row>
-    <row r="61" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
+        <v>1120300</v>
+      </c>
+      <c r="E61" s="3">
         <v>1106100</v>
       </c>
-      <c r="E61" s="3">
+      <c r="F61" s="3">
         <v>1092200</v>
       </c>
-      <c r="F61" s="3">
+      <c r="G61" s="3">
         <v>840000</v>
       </c>
-      <c r="G61" s="3">
+      <c r="H61" s="3">
         <v>835900</v>
       </c>
-      <c r="H61" s="3">
+      <c r="I61" s="3">
         <v>832400</v>
       </c>
-      <c r="I61" s="3">
+      <c r="J61" s="3">
         <v>829200</v>
       </c>
-      <c r="J61" s="3">
+      <c r="K61" s="3">
         <v>338500</v>
       </c>
-      <c r="K61" s="3">
+      <c r="L61" s="3">
         <v>334600</v>
       </c>
-      <c r="L61" s="3">
+      <c r="M61" s="3">
         <v>330700</v>
       </c>
-      <c r="M61" s="3">
+      <c r="N61" s="3">
         <v>328800</v>
       </c>
-      <c r="N61" s="3">
+      <c r="O61" s="3">
         <v>324000</v>
       </c>
-      <c r="O61" s="3">
+      <c r="P61" s="3">
         <v>317500</v>
       </c>
-      <c r="P61" s="3">
+      <c r="Q61" s="3">
         <v>313400</v>
       </c>
-      <c r="Q61" s="3">
-        <v>0</v>
-      </c>
       <c r="R61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
+        <v>140100</v>
+      </c>
+      <c r="E62" s="3">
         <v>141700</v>
       </c>
-      <c r="E62" s="3">
+      <c r="F62" s="3">
         <v>143200</v>
       </c>
-      <c r="F62" s="3">
+      <c r="G62" s="3">
         <v>149700</v>
       </c>
-      <c r="G62" s="3">
+      <c r="H62" s="3">
         <v>89600</v>
       </c>
-      <c r="H62" s="3">
+      <c r="I62" s="3">
         <v>77100</v>
       </c>
-      <c r="I62" s="3">
+      <c r="J62" s="3">
         <v>82200</v>
       </c>
-      <c r="J62" s="3">
+      <c r="K62" s="3">
         <v>73300</v>
       </c>
-      <c r="K62" s="3">
+      <c r="L62" s="3">
         <v>71000</v>
       </c>
-      <c r="L62" s="3">
+      <c r="M62" s="3">
         <v>83600</v>
       </c>
-      <c r="M62" s="3">
+      <c r="N62" s="3">
         <v>60800</v>
       </c>
-      <c r="N62" s="3">
+      <c r="O62" s="3">
         <v>70300</v>
       </c>
-      <c r="O62" s="3">
+      <c r="P62" s="3">
         <v>76600</v>
       </c>
-      <c r="P62" s="3">
+      <c r="Q62" s="3">
         <v>234600</v>
-      </c>
-      <c r="Q62" s="3">
-        <v>42500</v>
       </c>
       <c r="R62" s="3">
         <v>42500</v>
       </c>
-    </row>
-    <row r="63" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S62" s="3">
+        <v>42500</v>
+      </c>
+    </row>
+    <row r="63" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -3230,8 +3379,11 @@
       <c r="R63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -3280,8 +3432,11 @@
       <c r="R64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -3330,58 +3485,64 @@
       <c r="R65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>1543400</v>
+      </c>
+      <c r="E66" s="3">
         <v>1534500</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>1539600</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>1306500</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>1219500</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>1267500</v>
       </c>
-      <c r="I66" s="3">
+      <c r="J66" s="3">
         <v>1236900</v>
       </c>
-      <c r="J66" s="3">
+      <c r="K66" s="3">
         <v>661500</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>655400</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>641600</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>643100</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>607300</v>
       </c>
-      <c r="O66" s="3">
+      <c r="P66" s="3">
         <v>614100</v>
       </c>
-      <c r="P66" s="3">
+      <c r="Q66" s="3">
         <v>775900</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="R66" s="3">
         <v>280300</v>
       </c>
-      <c r="R66" s="3">
+      <c r="S66" s="3">
         <v>241800</v>
       </c>
     </row>
-    <row r="67" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -3400,8 +3561,9 @@
       <c r="P67" s="3"/>
       <c r="Q67" s="3"/>
       <c r="R67" s="3"/>
-    </row>
-    <row r="68" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S67" s="3"/>
+    </row>
+    <row r="68" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -3450,8 +3612,11 @@
       <c r="R68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -3500,8 +3665,11 @@
       <c r="R69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -3550,8 +3718,11 @@
       <c r="R70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -3600,58 +3771,64 @@
       <c r="R71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>64600</v>
+      </c>
+      <c r="E72" s="3">
         <v>69200</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>25800</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>176700</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>129100</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>154900</v>
       </c>
-      <c r="I72" s="3">
+      <c r="J72" s="3">
         <v>229200</v>
       </c>
-      <c r="J72" s="3">
+      <c r="K72" s="3">
         <v>213000</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>166400</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>133200</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>130700</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>-73900</v>
       </c>
-      <c r="O72" s="3">
+      <c r="P72" s="3">
         <v>-83200</v>
       </c>
-      <c r="P72" s="3">
+      <c r="Q72" s="3">
         <v>-28000</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="R72" s="3">
         <v>28200</v>
       </c>
-      <c r="R72" s="3">
+      <c r="S72" s="3">
         <v>16600</v>
       </c>
     </row>
-    <row r="73" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -3700,8 +3877,11 @@
       <c r="R73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -3750,8 +3930,11 @@
       <c r="R74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -3800,58 +3983,64 @@
       <c r="R75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>1749200</v>
+      </c>
+      <c r="E76" s="3">
         <v>1734200</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>1681600</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>1561300</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>1497100</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>1503900</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>1559700</v>
       </c>
-      <c r="J76" s="3">
+      <c r="K76" s="3">
         <v>983500</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>926100</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>876600</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>864300</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>641100</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>618800</v>
       </c>
-      <c r="P76" s="3">
+      <c r="Q76" s="3">
         <v>468600</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="R76" s="3">
         <v>516400</v>
       </c>
-      <c r="R76" s="3">
+      <c r="S76" s="3">
         <v>495700</v>
       </c>
     </row>
-    <row r="77" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -3900,113 +4089,122 @@
       <c r="R77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:19" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44009</v>
+      </c>
+      <c r="E80" s="2">
         <v>43918</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>43827</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>43736</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>43645</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>43554</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>43463</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>43372</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>43281</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>43190</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>43099</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>43008</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>42917</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>42826</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>42735</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>42644</v>
       </c>
     </row>
-    <row r="81" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>-4600</v>
+      </c>
+      <c r="E81" s="3">
         <v>43400</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="3">
         <v>49100</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>47600</v>
       </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
         <v>-25800</v>
       </c>
-      <c r="H81" s="3">
+      <c r="I81" s="3">
         <v>-74300</v>
       </c>
-      <c r="I81" s="3">
+      <c r="J81" s="3">
         <v>16200</v>
       </c>
-      <c r="J81" s="3">
+      <c r="K81" s="3">
         <v>46100</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>32500</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>2400</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>116800</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>6900</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>-55200</v>
       </c>
-      <c r="P81" s="3">
+      <c r="Q81" s="3">
         <v>-56200</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="R81" s="3">
         <v>11600</v>
       </c>
-      <c r="R81" s="3">
+      <c r="S81" s="3">
         <v>-3600</v>
       </c>
     </row>
-    <row r="82" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -4025,58 +4223,62 @@
       <c r="P82" s="3"/>
       <c r="Q82" s="3"/>
       <c r="R82" s="3"/>
-    </row>
-    <row r="83" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S82" s="3"/>
+    </row>
+    <row r="83" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
+        <v>46700</v>
+      </c>
+      <c r="E83" s="3">
         <v>47500</v>
       </c>
-      <c r="E83" s="3">
+      <c r="F83" s="3">
         <v>47300</v>
       </c>
-      <c r="F83" s="3">
+      <c r="G83" s="3">
         <v>50400</v>
       </c>
-      <c r="G83" s="3">
+      <c r="H83" s="3">
         <v>45100</v>
       </c>
-      <c r="H83" s="3">
+      <c r="I83" s="3">
         <v>60700</v>
       </c>
-      <c r="I83" s="3">
+      <c r="J83" s="3">
         <v>31200</v>
       </c>
-      <c r="J83" s="3">
+      <c r="K83" s="3">
         <v>20500</v>
       </c>
-      <c r="K83" s="3">
+      <c r="L83" s="3">
         <v>21500</v>
       </c>
-      <c r="L83" s="3">
+      <c r="M83" s="3">
         <v>19200</v>
       </c>
-      <c r="M83" s="3">
+      <c r="N83" s="3">
         <v>19000</v>
       </c>
-      <c r="N83" s="3">
+      <c r="O83" s="3">
         <v>17500</v>
       </c>
-      <c r="O83" s="3">
+      <c r="P83" s="3">
         <v>16500</v>
       </c>
-      <c r="P83" s="3">
+      <c r="Q83" s="3">
         <v>15900</v>
       </c>
-      <c r="Q83" s="3">
+      <c r="R83" s="3">
         <v>14900</v>
       </c>
-      <c r="R83" s="3">
+      <c r="S83" s="3">
         <v>13700</v>
       </c>
     </row>
-    <row r="84" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="84" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -4125,8 +4327,11 @@
       <c r="R84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -4175,8 +4380,11 @@
       <c r="R85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -4225,8 +4433,11 @@
       <c r="R86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -4275,8 +4486,11 @@
       <c r="R87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -4325,58 +4539,64 @@
       <c r="R88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>122700</v>
+      </c>
+      <c r="E89" s="3">
         <v>151800</v>
       </c>
-      <c r="E89" s="3">
+      <c r="F89" s="3">
         <v>162300</v>
       </c>
-      <c r="F89" s="3">
+      <c r="G89" s="3">
         <v>87500</v>
       </c>
-      <c r="G89" s="3">
+      <c r="H89" s="3">
         <v>127700</v>
       </c>
-      <c r="H89" s="3">
+      <c r="I89" s="3">
         <v>42800</v>
       </c>
-      <c r="I89" s="3">
+      <c r="J89" s="3">
         <v>102400</v>
       </c>
-      <c r="J89" s="3">
+      <c r="K89" s="3">
         <v>57200</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>37600</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>95100</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>105100</v>
       </c>
-      <c r="N89" s="3">
+      <c r="O89" s="3">
         <v>9700</v>
       </c>
-      <c r="O89" s="3">
+      <c r="P89" s="3">
         <v>13100</v>
       </c>
-      <c r="P89" s="3">
+      <c r="Q89" s="3">
         <v>16400</v>
       </c>
-      <c r="Q89" s="3">
+      <c r="R89" s="3">
         <v>19200</v>
       </c>
-      <c r="R89" s="3">
+      <c r="S89" s="3">
         <v>36300</v>
       </c>
     </row>
-    <row r="90" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -4395,58 +4615,62 @@
       <c r="P90" s="3"/>
       <c r="Q90" s="3"/>
       <c r="R90" s="3"/>
-    </row>
-    <row r="91" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S90" s="3"/>
+    </row>
+    <row r="91" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
+        <v>0</v>
+      </c>
+      <c r="E91" s="3">
         <v>-1000</v>
       </c>
-      <c r="E91" s="3">
+      <c r="F91" s="3">
         <v>-2000</v>
       </c>
-      <c r="F91" s="3">
+      <c r="G91" s="3">
         <v>-1000</v>
       </c>
-      <c r="G91" s="3">
-        <v>0</v>
-      </c>
       <c r="H91" s="3">
+        <v>0</v>
+      </c>
+      <c r="I91" s="3">
         <v>-600</v>
       </c>
-      <c r="I91" s="3">
-        <v>0</v>
-      </c>
       <c r="J91" s="3">
+        <v>0</v>
+      </c>
+      <c r="K91" s="3">
         <v>-700</v>
       </c>
-      <c r="K91" s="3">
+      <c r="L91" s="3">
         <v>-20300</v>
       </c>
-      <c r="L91" s="3">
+      <c r="M91" s="3">
         <v>-22700</v>
       </c>
-      <c r="M91" s="3">
+      <c r="N91" s="3">
         <v>-17200</v>
       </c>
-      <c r="N91" s="3">
+      <c r="O91" s="3">
         <v>-33000</v>
       </c>
-      <c r="O91" s="3">
+      <c r="P91" s="3">
         <v>-38100</v>
       </c>
-      <c r="P91" s="3">
+      <c r="Q91" s="3">
         <v>-35700</v>
       </c>
-      <c r="Q91" s="3">
+      <c r="R91" s="3">
         <v>-35400</v>
       </c>
-      <c r="R91" s="3">
+      <c r="S91" s="3">
         <v>-28900</v>
       </c>
     </row>
-    <row r="92" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="92" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -4495,8 +4719,11 @@
       <c r="R92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -4545,58 +4772,64 @@
       <c r="R93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
+        <v>-509800</v>
+      </c>
+      <c r="E94" s="3">
         <v>-535700</v>
       </c>
-      <c r="E94" s="3">
+      <c r="F94" s="3">
         <v>36100</v>
       </c>
-      <c r="F94" s="3">
+      <c r="G94" s="3">
         <v>21700</v>
       </c>
-      <c r="G94" s="3">
+      <c r="H94" s="3">
         <v>-54400</v>
       </c>
-      <c r="H94" s="3">
+      <c r="I94" s="3">
         <v>-52900</v>
       </c>
-      <c r="I94" s="3">
+      <c r="J94" s="3">
         <v>-681900</v>
       </c>
-      <c r="J94" s="3">
+      <c r="K94" s="3">
         <v>9500</v>
       </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3">
         <v>181700</v>
       </c>
-      <c r="L94" s="3">
+      <c r="M94" s="3">
         <v>-117600</v>
       </c>
-      <c r="M94" s="3">
+      <c r="N94" s="3">
         <v>-58600</v>
       </c>
-      <c r="N94" s="3">
+      <c r="O94" s="3">
         <v>-132500</v>
       </c>
-      <c r="O94" s="3">
+      <c r="P94" s="3">
         <v>-320600</v>
       </c>
-      <c r="P94" s="3">
+      <c r="Q94" s="3">
         <v>-40800</v>
       </c>
-      <c r="Q94" s="3">
+      <c r="R94" s="3">
         <v>-35400</v>
       </c>
-      <c r="R94" s="3">
+      <c r="S94" s="3">
         <v>-28900</v>
       </c>
     </row>
-    <row r="95" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="95" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -4615,8 +4848,9 @@
       <c r="P95" s="3"/>
       <c r="Q95" s="3"/>
       <c r="R95" s="3"/>
-    </row>
-    <row r="96" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S95" s="3"/>
+    </row>
+    <row r="96" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -4665,8 +4899,11 @@
       <c r="R96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -4715,8 +4952,11 @@
       <c r="R97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -4765,8 +5005,11 @@
       <c r="R98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -4815,154 +5058,166 @@
       <c r="R99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>-3700</v>
+      </c>
+      <c r="E100" s="3">
         <v>-12300</v>
       </c>
-      <c r="E100" s="3">
+      <c r="F100" s="3">
         <v>347600</v>
       </c>
-      <c r="F100" s="3">
+      <c r="G100" s="3">
         <v>-2800</v>
       </c>
-      <c r="G100" s="3">
+      <c r="H100" s="3">
         <v>1000</v>
       </c>
-      <c r="H100" s="3">
+      <c r="I100" s="3">
         <v>-2900</v>
       </c>
-      <c r="I100" s="3">
+      <c r="J100" s="3">
         <v>491600</v>
       </c>
-      <c r="J100" s="3">
+      <c r="K100" s="3">
         <v>-4600</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>1900</v>
       </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
         <v>-2800</v>
       </c>
-      <c r="M100" s="3">
+      <c r="N100" s="3">
         <v>4400</v>
       </c>
-      <c r="N100" s="3">
+      <c r="O100" s="3">
         <v>300</v>
       </c>
-      <c r="O100" s="3">
+      <c r="P100" s="3">
         <v>2000</v>
       </c>
-      <c r="P100" s="3">
+      <c r="Q100" s="3">
         <v>445700</v>
       </c>
-      <c r="Q100" s="3">
+      <c r="R100" s="3">
         <v>6700</v>
       </c>
-      <c r="R100" s="3">
+      <c r="S100" s="3">
         <v>2300</v>
       </c>
     </row>
-    <row r="101" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D101" s="3">
         <v>0</v>
       </c>
-      <c r="E101" s="3" t="s">
-        <v>17</v>
+      <c r="E101" s="3">
+        <v>0</v>
       </c>
       <c r="F101" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="G101" s="3">
-        <v>0</v>
+      <c r="G101" s="3" t="s">
+        <v>17</v>
       </c>
       <c r="H101" s="3">
         <v>0</v>
       </c>
       <c r="I101" s="3">
+        <v>0</v>
+      </c>
+      <c r="J101" s="3">
         <v>-200</v>
       </c>
-      <c r="J101" s="3">
-        <v>0</v>
-      </c>
       <c r="K101" s="3">
+        <v>0</v>
+      </c>
+      <c r="L101" s="3">
         <v>-700</v>
       </c>
-      <c r="L101" s="3">
-        <v>0</v>
-      </c>
       <c r="M101" s="3">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="N101" s="3">
         <v>400</v>
       </c>
       <c r="O101" s="3">
+        <v>400</v>
+      </c>
+      <c r="P101" s="3">
         <v>500</v>
       </c>
-      <c r="P101" s="3">
+      <c r="Q101" s="3">
         <v>700</v>
       </c>
-      <c r="Q101" s="3">
+      <c r="R101" s="3">
         <v>-1400</v>
       </c>
-      <c r="R101" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="102" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>-390800</v>
+      </c>
+      <c r="E102" s="3">
         <v>-396200</v>
       </c>
-      <c r="E102" s="3">
+      <c r="F102" s="3">
         <v>546000</v>
       </c>
-      <c r="F102" s="3">
+      <c r="G102" s="3">
         <v>106400</v>
       </c>
-      <c r="G102" s="3">
+      <c r="H102" s="3">
         <v>74300</v>
       </c>
-      <c r="H102" s="3">
+      <c r="I102" s="3">
         <v>-13000</v>
       </c>
-      <c r="I102" s="3">
+      <c r="J102" s="3">
         <v>-88100</v>
       </c>
-      <c r="J102" s="3">
+      <c r="K102" s="3">
         <v>62100</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>220500</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>-25300</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>51300</v>
       </c>
-      <c r="N102" s="3">
+      <c r="O102" s="3">
         <v>-122100</v>
       </c>
-      <c r="O102" s="3">
+      <c r="P102" s="3">
         <v>-305000</v>
       </c>
-      <c r="P102" s="3">
+      <c r="Q102" s="3">
         <v>422000</v>
       </c>
-      <c r="Q102" s="3">
+      <c r="R102" s="3">
         <v>-10900</v>
       </c>
-      <c r="R102" s="3">
+      <c r="S102" s="3">
         <v>9700</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/LITE_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/LITE_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="125" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="127" uniqueCount="92">
   <si>
     <t>LITE</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:S102"/>
+  <dimension ref="A5:T102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,244 +665,257 @@
     <col min="1" max="1" width="6.42578125" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="7" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="11" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="15" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="17" width="13" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="12.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="8" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="12" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="16" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="18" width="13" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="12.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:20" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44100</v>
+      </c>
+      <c r="E7" s="2">
         <v>44009</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>43918</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>43827</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>43736</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>43645</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>43554</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>43463</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>43372</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>43281</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>43190</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>43099</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>43008</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>42917</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>42826</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>42735</v>
       </c>
-      <c r="S7" s="2">
+      <c r="T7" s="2">
         <v>42644</v>
       </c>
     </row>
-    <row r="8" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
+        <v>452400</v>
+      </c>
+      <c r="E8" s="3">
         <v>368100</v>
       </c>
-      <c r="E8" s="3">
+      <c r="F8" s="3">
         <v>402800</v>
       </c>
-      <c r="F8" s="3">
+      <c r="G8" s="3">
         <v>457800</v>
       </c>
-      <c r="G8" s="3">
+      <c r="H8" s="3">
         <v>449900</v>
       </c>
-      <c r="H8" s="3">
+      <c r="I8" s="3">
         <v>404600</v>
       </c>
-      <c r="I8" s="3">
+      <c r="J8" s="3">
         <v>432900</v>
       </c>
-      <c r="J8" s="3">
+      <c r="K8" s="3">
         <v>373700</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>354100</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>301100</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>298800</v>
       </c>
-      <c r="N8" s="3">
+      <c r="O8" s="3">
         <v>404600</v>
       </c>
-      <c r="O8" s="3">
+      <c r="P8" s="3">
         <v>243200</v>
       </c>
-      <c r="P8" s="3">
+      <c r="Q8" s="3">
         <v>222700</v>
       </c>
-      <c r="Q8" s="3">
+      <c r="R8" s="3">
         <v>255800</v>
       </c>
-      <c r="R8" s="3">
+      <c r="S8" s="3">
         <v>265000</v>
       </c>
-      <c r="S8" s="3">
+      <c r="T8" s="3">
         <v>258100</v>
       </c>
     </row>
-    <row r="9" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
+        <v>246700</v>
+      </c>
+      <c r="E9" s="3">
         <v>232400</v>
       </c>
-      <c r="E9" s="3">
+      <c r="F9" s="3">
         <v>245100</v>
       </c>
-      <c r="F9" s="3">
+      <c r="G9" s="3">
         <v>268700</v>
       </c>
-      <c r="G9" s="3">
+      <c r="H9" s="3">
         <v>282200</v>
       </c>
-      <c r="H9" s="3">
+      <c r="I9" s="3">
         <v>317800</v>
       </c>
-      <c r="I9" s="3">
+      <c r="J9" s="3">
         <v>344600</v>
       </c>
-      <c r="J9" s="3">
+      <c r="K9" s="3">
         <v>248900</v>
       </c>
-      <c r="K9" s="3">
+      <c r="L9" s="3">
         <v>228100</v>
       </c>
-      <c r="L9" s="3">
+      <c r="M9" s="3">
         <v>205600</v>
       </c>
-      <c r="M9" s="3">
+      <c r="N9" s="3">
         <v>201800</v>
       </c>
-      <c r="N9" s="3">
+      <c r="O9" s="3">
         <v>233500</v>
       </c>
-      <c r="O9" s="3">
+      <c r="P9" s="3">
         <v>174700</v>
       </c>
-      <c r="P9" s="3">
+      <c r="Q9" s="3">
         <v>155400</v>
       </c>
-      <c r="Q9" s="3">
+      <c r="R9" s="3">
         <v>173700</v>
       </c>
-      <c r="R9" s="3">
+      <c r="S9" s="3">
         <v>178000</v>
       </c>
-      <c r="S9" s="3">
+      <c r="T9" s="3">
         <v>176400</v>
       </c>
     </row>
-    <row r="10" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
+        <v>205700</v>
+      </c>
+      <c r="E10" s="3">
         <v>135700</v>
       </c>
-      <c r="E10" s="3">
+      <c r="F10" s="3">
         <v>157700</v>
       </c>
-      <c r="F10" s="3">
+      <c r="G10" s="3">
         <v>189100</v>
       </c>
-      <c r="G10" s="3">
+      <c r="H10" s="3">
         <v>167700</v>
       </c>
-      <c r="H10" s="3">
+      <c r="I10" s="3">
         <v>86800</v>
       </c>
-      <c r="I10" s="3">
+      <c r="J10" s="3">
         <v>88300</v>
       </c>
-      <c r="J10" s="3">
+      <c r="K10" s="3">
         <v>124800</v>
       </c>
-      <c r="K10" s="3">
+      <c r="L10" s="3">
         <v>126000</v>
       </c>
-      <c r="L10" s="3">
+      <c r="M10" s="3">
         <v>95500</v>
       </c>
-      <c r="M10" s="3">
+      <c r="N10" s="3">
         <v>97000</v>
       </c>
-      <c r="N10" s="3">
+      <c r="O10" s="3">
         <v>171100</v>
       </c>
-      <c r="O10" s="3">
+      <c r="P10" s="3">
         <v>68500</v>
       </c>
-      <c r="P10" s="3">
+      <c r="Q10" s="3">
         <v>67300</v>
       </c>
-      <c r="Q10" s="3">
+      <c r="R10" s="3">
         <v>82100</v>
       </c>
-      <c r="R10" s="3">
+      <c r="S10" s="3">
         <v>87000</v>
       </c>
-      <c r="S10" s="3">
+      <c r="T10" s="3">
         <v>81700</v>
       </c>
     </row>
-    <row r="11" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -922,61 +935,65 @@
       <c r="Q11" s="3"/>
       <c r="R11" s="3"/>
       <c r="S11" s="3"/>
-    </row>
-    <row r="12" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T11" s="3"/>
+    </row>
+    <row r="12" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
       <c r="D12" s="3">
+        <v>50400</v>
+      </c>
+      <c r="E12" s="3">
         <v>49000</v>
       </c>
-      <c r="E12" s="3">
+      <c r="F12" s="3">
         <v>48700</v>
       </c>
-      <c r="F12" s="3">
+      <c r="G12" s="3">
         <v>51000</v>
       </c>
-      <c r="G12" s="3">
+      <c r="H12" s="3">
         <v>49900</v>
       </c>
-      <c r="H12" s="3">
+      <c r="I12" s="3">
         <v>49500</v>
       </c>
-      <c r="I12" s="3">
+      <c r="J12" s="3">
         <v>57700</v>
       </c>
-      <c r="J12" s="3">
+      <c r="K12" s="3">
         <v>42800</v>
       </c>
-      <c r="K12" s="3">
+      <c r="L12" s="3">
         <v>34600</v>
       </c>
-      <c r="L12" s="3">
+      <c r="M12" s="3">
         <v>38500</v>
       </c>
-      <c r="M12" s="3">
+      <c r="N12" s="3">
         <v>38200</v>
       </c>
-      <c r="N12" s="3">
+      <c r="O12" s="3">
         <v>43800</v>
       </c>
-      <c r="O12" s="3">
+      <c r="P12" s="3">
         <v>36300</v>
       </c>
-      <c r="P12" s="3">
+      <c r="Q12" s="3">
         <v>35400</v>
       </c>
-      <c r="Q12" s="3">
+      <c r="R12" s="3">
         <v>37300</v>
       </c>
-      <c r="R12" s="3">
+      <c r="S12" s="3">
         <v>38700</v>
       </c>
-      <c r="S12" s="3">
+      <c r="T12" s="3">
         <v>36900</v>
       </c>
     </row>
-    <row r="13" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>8</v>
       </c>
@@ -1028,87 +1045,93 @@
       <c r="S13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>9</v>
       </c>
       <c r="D14" s="3">
+        <v>0</v>
+      </c>
+      <c r="E14" s="3">
         <v>4900</v>
       </c>
-      <c r="E14" s="3">
+      <c r="F14" s="3">
         <v>5200</v>
       </c>
-      <c r="F14" s="3">
+      <c r="G14" s="3">
         <v>900</v>
       </c>
-      <c r="G14" s="3">
+      <c r="H14" s="3">
         <v>1300</v>
       </c>
-      <c r="H14" s="3">
+      <c r="I14" s="3">
         <v>1700</v>
       </c>
-      <c r="I14" s="3">
+      <c r="J14" s="3">
         <v>51800</v>
       </c>
-      <c r="J14" s="3">
+      <c r="K14" s="3">
         <v>7800</v>
       </c>
-      <c r="K14" s="3">
+      <c r="L14" s="3">
         <v>1300</v>
       </c>
-      <c r="L14" s="3">
+      <c r="M14" s="3">
         <v>3400</v>
       </c>
-      <c r="M14" s="3">
+      <c r="N14" s="3">
         <v>100</v>
       </c>
-      <c r="N14" s="3">
+      <c r="O14" s="3">
         <v>4500</v>
       </c>
-      <c r="O14" s="3">
+      <c r="P14" s="3">
         <v>2900</v>
       </c>
-      <c r="P14" s="3">
+      <c r="Q14" s="3">
         <v>2000</v>
       </c>
-      <c r="Q14" s="3">
+      <c r="R14" s="3">
         <v>3100</v>
       </c>
-      <c r="R14" s="3">
+      <c r="S14" s="3">
         <v>4000</v>
       </c>
-      <c r="S14" s="3">
+      <c r="T14" s="3">
         <v>2900</v>
       </c>
     </row>
-    <row r="15" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D15" s="3">
+        <v>5700</v>
+      </c>
+      <c r="E15" s="3">
         <v>6200</v>
       </c>
-      <c r="E15" s="3">
+      <c r="F15" s="3">
         <v>6100</v>
       </c>
-      <c r="F15" s="3">
+      <c r="G15" s="3">
         <v>6200</v>
       </c>
-      <c r="G15" s="3">
+      <c r="H15" s="3">
         <v>6300</v>
-      </c>
-      <c r="H15" s="3">
-        <v>3600</v>
       </c>
       <c r="I15" s="3">
         <v>3600</v>
       </c>
       <c r="J15" s="3">
+        <v>3600</v>
+      </c>
+      <c r="K15" s="3">
         <v>800</v>
-      </c>
-      <c r="K15" s="3" t="s">
-        <v>17</v>
       </c>
       <c r="L15" s="3" t="s">
         <v>17</v>
@@ -1116,17 +1139,17 @@
       <c r="M15" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="N15" s="3">
-        <v>0</v>
-      </c>
-      <c r="O15" s="3" t="s">
+      <c r="N15" s="3" t="s">
         <v>17</v>
+      </c>
+      <c r="O15" s="3">
+        <v>0</v>
       </c>
       <c r="P15" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="Q15" s="3">
-        <v>0</v>
+      <c r="Q15" s="3" t="s">
+        <v>17</v>
       </c>
       <c r="R15" s="3">
         <v>0</v>
@@ -1134,8 +1157,11 @@
       <c r="S15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:20" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1152,114 +1178,121 @@
       <c r="Q16" s="3"/>
       <c r="R16" s="3"/>
       <c r="S16" s="3"/>
-    </row>
-    <row r="17" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T16" s="3"/>
+    </row>
+    <row r="17" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>11</v>
       </c>
       <c r="D17" s="3">
+        <v>353400</v>
+      </c>
+      <c r="E17" s="3">
         <v>341100</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="3">
         <v>360300</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>383000</v>
       </c>
-      <c r="G17" s="3">
+      <c r="H17" s="3">
         <v>390100</v>
       </c>
-      <c r="H17" s="3">
+      <c r="I17" s="3">
         <v>418400</v>
       </c>
-      <c r="I17" s="3">
+      <c r="J17" s="3">
         <v>509300</v>
       </c>
-      <c r="J17" s="3">
+      <c r="K17" s="3">
         <v>362200</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>297000</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>280200</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>273300</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>313800</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>240500</v>
       </c>
-      <c r="P17" s="3">
+      <c r="Q17" s="3">
         <v>218800</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="R17" s="3">
         <v>242200</v>
       </c>
-      <c r="R17" s="3">
+      <c r="S17" s="3">
         <v>251700</v>
       </c>
-      <c r="S17" s="3">
+      <c r="T17" s="3">
         <v>241300</v>
       </c>
     </row>
-    <row r="18" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D18" s="3">
+        <v>99000</v>
+      </c>
+      <c r="E18" s="3">
         <v>27000</v>
       </c>
-      <c r="E18" s="3">
+      <c r="F18" s="3">
         <v>42500</v>
       </c>
-      <c r="F18" s="3">
+      <c r="G18" s="3">
         <v>74800</v>
       </c>
-      <c r="G18" s="3">
+      <c r="H18" s="3">
         <v>59800</v>
       </c>
-      <c r="H18" s="3">
+      <c r="I18" s="3">
         <v>-13800</v>
       </c>
-      <c r="I18" s="3">
+      <c r="J18" s="3">
         <v>-76400</v>
       </c>
-      <c r="J18" s="3">
+      <c r="K18" s="3">
         <v>11500</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>57100</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>20900</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>25500</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>90800</v>
       </c>
-      <c r="O18" s="3">
+      <c r="P18" s="3">
         <v>2700</v>
       </c>
-      <c r="P18" s="3">
+      <c r="Q18" s="3">
         <v>3900</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="R18" s="3">
         <v>13600</v>
       </c>
-      <c r="R18" s="3">
+      <c r="S18" s="3">
         <v>13300</v>
       </c>
-      <c r="S18" s="3">
+      <c r="T18" s="3">
         <v>16800</v>
       </c>
     </row>
-    <row r="19" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>13</v>
       </c>
@@ -1279,143 +1312,150 @@
       <c r="Q19" s="3"/>
       <c r="R19" s="3"/>
       <c r="S19" s="3"/>
-    </row>
-    <row r="20" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T19" s="3"/>
+    </row>
+    <row r="20" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>14</v>
       </c>
       <c r="D20" s="3">
+        <v>600</v>
+      </c>
+      <c r="E20" s="3">
         <v>3500</v>
       </c>
-      <c r="E20" s="3">
+      <c r="F20" s="3">
         <v>21700</v>
       </c>
-      <c r="F20" s="3">
+      <c r="G20" s="3">
         <v>1200</v>
       </c>
-      <c r="G20" s="3">
+      <c r="H20" s="3">
         <v>5000</v>
       </c>
-      <c r="H20" s="3">
+      <c r="I20" s="3">
         <v>4100</v>
       </c>
-      <c r="I20" s="3">
+      <c r="J20" s="3">
         <v>5200</v>
       </c>
-      <c r="J20" s="3">
+      <c r="K20" s="3">
         <v>14700</v>
       </c>
-      <c r="K20" s="3">
+      <c r="L20" s="3">
         <v>600</v>
       </c>
-      <c r="L20" s="3">
+      <c r="M20" s="3">
         <v>11400</v>
       </c>
-      <c r="M20" s="3">
+      <c r="N20" s="3">
         <v>-18200</v>
       </c>
-      <c r="N20" s="3">
+      <c r="O20" s="3">
         <v>9300</v>
       </c>
-      <c r="O20" s="3">
+      <c r="P20" s="3">
         <v>5200</v>
       </c>
-      <c r="P20" s="3">
+      <c r="Q20" s="3">
         <v>-31500</v>
       </c>
-      <c r="Q20" s="3">
+      <c r="R20" s="3">
         <v>-58000</v>
       </c>
-      <c r="R20" s="3">
+      <c r="S20" s="3">
         <v>4600</v>
       </c>
-      <c r="S20" s="3">
+      <c r="T20" s="3">
         <v>-22500</v>
       </c>
     </row>
-    <row r="21" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D21" s="3">
+        <v>144100</v>
+      </c>
+      <c r="E21" s="3">
         <v>77200</v>
       </c>
-      <c r="E21" s="3">
+      <c r="F21" s="3">
         <v>111700</v>
       </c>
-      <c r="F21" s="3">
+      <c r="G21" s="3">
         <v>123300</v>
       </c>
-      <c r="G21" s="3">
+      <c r="H21" s="3">
         <v>115200</v>
       </c>
-      <c r="H21" s="3">
+      <c r="I21" s="3">
         <v>35400</v>
       </c>
-      <c r="I21" s="3">
+      <c r="J21" s="3">
         <v>-10500</v>
       </c>
-      <c r="J21" s="3">
+      <c r="K21" s="3">
         <v>57400</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>78200</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>53800</v>
       </c>
-      <c r="M21" s="3">
+      <c r="N21" s="3">
         <v>26500</v>
       </c>
-      <c r="N21" s="3">
+      <c r="O21" s="3">
         <v>119100</v>
       </c>
-      <c r="O21" s="3">
+      <c r="P21" s="3">
         <v>25400</v>
       </c>
-      <c r="P21" s="3">
+      <c r="Q21" s="3">
         <v>-11100</v>
       </c>
-      <c r="Q21" s="3">
+      <c r="R21" s="3">
         <v>-28500</v>
       </c>
-      <c r="R21" s="3">
+      <c r="S21" s="3">
         <v>32800</v>
       </c>
-      <c r="S21" s="3">
+      <c r="T21" s="3">
         <v>8000</v>
       </c>
     </row>
-    <row r="22" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D22" s="3">
+        <v>16000</v>
+      </c>
+      <c r="E22" s="3">
         <v>15900</v>
       </c>
-      <c r="E22" s="3">
+      <c r="F22" s="3">
         <v>15600</v>
       </c>
-      <c r="F22" s="3">
+      <c r="G22" s="3">
         <v>18300</v>
-      </c>
-      <c r="G22" s="3">
-        <v>11400</v>
       </c>
       <c r="H22" s="3">
         <v>11400</v>
       </c>
       <c r="I22" s="3">
+        <v>11400</v>
+      </c>
+      <c r="J22" s="3">
         <v>11300</v>
       </c>
-      <c r="J22" s="3">
+      <c r="K22" s="3">
         <v>8500</v>
       </c>
-      <c r="K22" s="3">
+      <c r="L22" s="3">
         <v>5100</v>
-      </c>
-      <c r="L22" s="3">
-        <v>4600</v>
       </c>
       <c r="M22" s="3">
         <v>4600</v>
@@ -1424,10 +1464,10 @@
         <v>4600</v>
       </c>
       <c r="O22" s="3">
+        <v>4600</v>
+      </c>
+      <c r="P22" s="3">
         <v>4400</v>
-      </c>
-      <c r="P22" s="3" t="s">
-        <v>17</v>
       </c>
       <c r="Q22" s="3" t="s">
         <v>17</v>
@@ -1438,114 +1478,123 @@
       <c r="S22" s="3" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="23" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T22" s="3" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="23" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>83600</v>
+      </c>
+      <c r="E23" s="3">
         <v>14600</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>48600</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>57700</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
         <v>53400</v>
       </c>
-      <c r="H23" s="3">
+      <c r="I23" s="3">
         <v>-21100</v>
       </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
         <v>-82500</v>
       </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
         <v>17700</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>52600</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>27700</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>2700</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>95500</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>3500</v>
       </c>
-      <c r="P23" s="3">
+      <c r="Q23" s="3">
         <v>-27600</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="R23" s="3">
         <v>-44400</v>
       </c>
-      <c r="R23" s="3">
+      <c r="S23" s="3">
         <v>17900</v>
       </c>
-      <c r="S23" s="3">
+      <c r="T23" s="3">
         <v>-5700</v>
       </c>
     </row>
-    <row r="24" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
+        <v>16500</v>
+      </c>
+      <c r="E24" s="3">
         <v>19200</v>
       </c>
-      <c r="E24" s="3">
+      <c r="F24" s="3">
         <v>5200</v>
       </c>
-      <c r="F24" s="3">
+      <c r="G24" s="3">
         <v>8600</v>
       </c>
-      <c r="G24" s="3">
+      <c r="H24" s="3">
         <v>5800</v>
       </c>
-      <c r="H24" s="3">
+      <c r="I24" s="3">
         <v>4700</v>
       </c>
-      <c r="I24" s="3">
+      <c r="J24" s="3">
         <v>-8200</v>
       </c>
-      <c r="J24" s="3">
+      <c r="K24" s="3">
         <v>1400</v>
       </c>
-      <c r="K24" s="3">
+      <c r="L24" s="3">
         <v>5200</v>
       </c>
-      <c r="L24" s="3">
+      <c r="M24" s="3">
         <v>-3300</v>
       </c>
-      <c r="M24" s="3">
-        <v>0</v>
-      </c>
       <c r="N24" s="3">
+        <v>0</v>
+      </c>
+      <c r="O24" s="3">
         <v>-109300</v>
       </c>
-      <c r="O24" s="3">
+      <c r="P24" s="3">
         <v>-3600</v>
       </c>
-      <c r="P24" s="3">
+      <c r="Q24" s="3">
         <v>27300</v>
       </c>
-      <c r="Q24" s="3">
+      <c r="R24" s="3">
         <v>11600</v>
       </c>
-      <c r="R24" s="3">
+      <c r="S24" s="3">
         <v>6100</v>
       </c>
-      <c r="S24" s="3">
+      <c r="T24" s="3">
         <v>-2300</v>
       </c>
     </row>
-    <row r="25" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="25" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1597,114 +1646,123 @@
       <c r="S25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>67100</v>
+      </c>
+      <c r="E26" s="3">
         <v>-4600</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
         <v>43400</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>49100</v>
       </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
         <v>47600</v>
       </c>
-      <c r="H26" s="3">
+      <c r="I26" s="3">
         <v>-25800</v>
       </c>
-      <c r="I26" s="3">
+      <c r="J26" s="3">
         <v>-74300</v>
       </c>
-      <c r="J26" s="3">
+      <c r="K26" s="3">
         <v>16300</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>47400</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>31000</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>2700</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>204800</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>7100</v>
       </c>
-      <c r="P26" s="3">
+      <c r="Q26" s="3">
         <v>-54900</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="R26" s="3">
         <v>-56000</v>
       </c>
-      <c r="R26" s="3">
+      <c r="S26" s="3">
         <v>11800</v>
       </c>
-      <c r="S26" s="3">
+      <c r="T26" s="3">
         <v>-3400</v>
       </c>
     </row>
-    <row r="27" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>67100</v>
+      </c>
+      <c r="E27" s="3">
         <v>-4600</v>
       </c>
-      <c r="E27" s="3">
+      <c r="F27" s="3">
         <v>43400</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>49100</v>
       </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
         <v>47600</v>
       </c>
-      <c r="H27" s="3">
+      <c r="I27" s="3">
         <v>-25800</v>
       </c>
-      <c r="I27" s="3">
+      <c r="J27" s="3">
         <v>-74300</v>
       </c>
-      <c r="J27" s="3">
+      <c r="K27" s="3">
         <v>16200</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>46100</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>30000</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>2400</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>199800</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>6900</v>
       </c>
-      <c r="P27" s="3">
+      <c r="Q27" s="3">
         <v>-55200</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="R27" s="3">
         <v>-56200</v>
       </c>
-      <c r="R27" s="3">
+      <c r="S27" s="3">
         <v>11600</v>
       </c>
-      <c r="S27" s="3">
+      <c r="T27" s="3">
         <v>-3600</v>
       </c>
     </row>
-    <row r="28" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1756,8 +1814,11 @@
       <c r="S28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1773,11 +1834,11 @@
       <c r="G29" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="H29" s="3">
-        <v>0</v>
-      </c>
-      <c r="I29" s="3" t="s">
+      <c r="H29" s="3" t="s">
         <v>17</v>
+      </c>
+      <c r="I29" s="3">
+        <v>0</v>
       </c>
       <c r="J29" s="3" t="s">
         <v>17</v>
@@ -1785,17 +1846,17 @@
       <c r="K29" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="L29" s="3">
+      <c r="L29" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="M29" s="3">
         <v>2500</v>
       </c>
-      <c r="M29" s="3">
-        <v>0</v>
-      </c>
       <c r="N29" s="3">
+        <v>0</v>
+      </c>
+      <c r="O29" s="3">
         <v>-83000</v>
-      </c>
-      <c r="O29" s="3" t="s">
-        <v>17</v>
       </c>
       <c r="P29" s="3" t="s">
         <v>17</v>
@@ -1809,8 +1870,11 @@
       <c r="S29" s="3" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="30" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T29" s="3" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="30" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1862,8 +1926,11 @@
       <c r="S30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1915,114 +1982,123 @@
       <c r="S31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
+        <v>-600</v>
+      </c>
+      <c r="E32" s="3">
         <v>-3500</v>
       </c>
-      <c r="E32" s="3">
+      <c r="F32" s="3">
         <v>-21700</v>
       </c>
-      <c r="F32" s="3">
+      <c r="G32" s="3">
         <v>-1200</v>
       </c>
-      <c r="G32" s="3">
+      <c r="H32" s="3">
         <v>-5000</v>
       </c>
-      <c r="H32" s="3">
+      <c r="I32" s="3">
         <v>-4100</v>
       </c>
-      <c r="I32" s="3">
+      <c r="J32" s="3">
         <v>-5200</v>
       </c>
-      <c r="J32" s="3">
+      <c r="K32" s="3">
         <v>-14700</v>
       </c>
-      <c r="K32" s="3">
+      <c r="L32" s="3">
         <v>-600</v>
       </c>
-      <c r="L32" s="3">
+      <c r="M32" s="3">
         <v>-11400</v>
       </c>
-      <c r="M32" s="3">
+      <c r="N32" s="3">
         <v>18200</v>
       </c>
-      <c r="N32" s="3">
+      <c r="O32" s="3">
         <v>-9300</v>
       </c>
-      <c r="O32" s="3">
+      <c r="P32" s="3">
         <v>-5200</v>
       </c>
-      <c r="P32" s="3">
+      <c r="Q32" s="3">
         <v>31500</v>
       </c>
-      <c r="Q32" s="3">
+      <c r="R32" s="3">
         <v>58000</v>
       </c>
-      <c r="R32" s="3">
+      <c r="S32" s="3">
         <v>-4600</v>
       </c>
-      <c r="S32" s="3">
+      <c r="T32" s="3">
         <v>22500</v>
       </c>
     </row>
-    <row r="33" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>67100</v>
+      </c>
+      <c r="E33" s="3">
         <v>-4600</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
         <v>43400</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>49100</v>
       </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
         <v>47600</v>
       </c>
-      <c r="H33" s="3">
+      <c r="I33" s="3">
         <v>-25800</v>
       </c>
-      <c r="I33" s="3">
+      <c r="J33" s="3">
         <v>-74300</v>
       </c>
-      <c r="J33" s="3">
+      <c r="K33" s="3">
         <v>16200</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>46100</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>32500</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>2400</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>116800</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>6900</v>
       </c>
-      <c r="P33" s="3">
+      <c r="Q33" s="3">
         <v>-55200</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="R33" s="3">
         <v>-56200</v>
       </c>
-      <c r="R33" s="3">
+      <c r="S33" s="3">
         <v>11600</v>
       </c>
-      <c r="S33" s="3">
+      <c r="T33" s="3">
         <v>-3600</v>
       </c>
     </row>
-    <row r="34" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2074,119 +2150,128 @@
       <c r="S34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>67100</v>
+      </c>
+      <c r="E35" s="3">
         <v>-4600</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
         <v>43400</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>49100</v>
       </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
         <v>47600</v>
       </c>
-      <c r="H35" s="3">
+      <c r="I35" s="3">
         <v>-25800</v>
       </c>
-      <c r="I35" s="3">
+      <c r="J35" s="3">
         <v>-74300</v>
       </c>
-      <c r="J35" s="3">
+      <c r="K35" s="3">
         <v>16200</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>46100</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>32500</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>2400</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>116800</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>6900</v>
       </c>
-      <c r="P35" s="3">
+      <c r="Q35" s="3">
         <v>-55200</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="R35" s="3">
         <v>-56200</v>
       </c>
-      <c r="R35" s="3">
+      <c r="S35" s="3">
         <v>11600</v>
       </c>
-      <c r="S35" s="3">
+      <c r="T35" s="3">
         <v>-3600</v>
       </c>
     </row>
-    <row r="37" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:20" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44100</v>
+      </c>
+      <c r="E38" s="2">
         <v>44009</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>43918</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>43827</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>43736</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>43645</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>43554</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>43463</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>43372</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>43281</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>43190</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>43099</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>43008</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>42917</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>42826</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>42735</v>
       </c>
-      <c r="S38" s="2">
+      <c r="T38" s="2">
         <v>42644</v>
       </c>
     </row>
-    <row r="39" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2206,8 +2291,9 @@
       <c r="Q39" s="3"/>
       <c r="R39" s="3"/>
       <c r="S39" s="3"/>
-    </row>
-    <row r="40" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T39" s="3"/>
+    </row>
+    <row r="40" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2227,105 +2313,109 @@
       <c r="Q40" s="3"/>
       <c r="R40" s="3"/>
       <c r="S40" s="3"/>
-    </row>
-    <row r="41" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T40" s="3"/>
+    </row>
+    <row r="41" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>269500</v>
+      </c>
+      <c r="E41" s="3">
         <v>298000</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>688300</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>1085000</v>
       </c>
-      <c r="G41" s="3">
+      <c r="H41" s="3">
         <v>539000</v>
       </c>
-      <c r="H41" s="3">
+      <c r="I41" s="3">
         <v>432600</v>
       </c>
-      <c r="I41" s="3">
+      <c r="J41" s="3">
         <v>357300</v>
       </c>
-      <c r="J41" s="3">
+      <c r="K41" s="3">
         <v>371300</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>459400</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>397300</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>176800</v>
       </c>
-      <c r="N41" s="3">
+      <c r="O41" s="3">
         <v>202100</v>
       </c>
-      <c r="O41" s="3">
+      <c r="P41" s="3">
         <v>150800</v>
       </c>
-      <c r="P41" s="3">
+      <c r="Q41" s="3">
         <v>272900</v>
       </c>
-      <c r="Q41" s="3">
+      <c r="R41" s="3">
         <v>577900</v>
       </c>
-      <c r="R41" s="3">
+      <c r="S41" s="3">
         <v>155900</v>
       </c>
-      <c r="S41" s="3">
+      <c r="T41" s="3">
         <v>166800</v>
       </c>
     </row>
-    <row r="42" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
       <c r="D42" s="3">
+        <v>1341200</v>
+      </c>
+      <c r="E42" s="3">
         <v>1255800</v>
       </c>
-      <c r="E42" s="3">
+      <c r="F42" s="3">
         <v>763100</v>
       </c>
-      <c r="F42" s="3">
+      <c r="G42" s="3">
         <v>230600</v>
       </c>
-      <c r="G42" s="3">
+      <c r="H42" s="3">
         <v>291900</v>
       </c>
-      <c r="H42" s="3">
+      <c r="I42" s="3">
         <v>335900</v>
       </c>
-      <c r="I42" s="3">
+      <c r="J42" s="3">
         <v>340200</v>
       </c>
-      <c r="J42" s="3">
+      <c r="K42" s="3">
         <v>312800</v>
       </c>
-      <c r="K42" s="3">
+      <c r="L42" s="3">
         <v>274900</v>
       </c>
-      <c r="L42" s="3">
+      <c r="M42" s="3">
         <v>314200</v>
       </c>
-      <c r="M42" s="3">
+      <c r="N42" s="3">
         <v>516000</v>
       </c>
-      <c r="N42" s="3">
+      <c r="O42" s="3">
         <v>422400</v>
       </c>
-      <c r="O42" s="3">
+      <c r="P42" s="3">
         <v>381700</v>
       </c>
-      <c r="P42" s="3">
+      <c r="Q42" s="3">
         <v>282400</v>
-      </c>
-      <c r="Q42" s="3" t="s">
-        <v>17</v>
       </c>
       <c r="R42" s="3" t="s">
         <v>17</v>
@@ -2333,220 +2423,235 @@
       <c r="S42" s="3" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="43" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T42" s="3" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="43" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
+        <v>263600</v>
+      </c>
+      <c r="E43" s="3">
         <v>233500</v>
       </c>
-      <c r="E43" s="3">
+      <c r="F43" s="3">
         <v>303100</v>
       </c>
-      <c r="F43" s="3">
+      <c r="G43" s="3">
         <v>343600</v>
       </c>
-      <c r="G43" s="3">
+      <c r="H43" s="3">
         <v>339600</v>
       </c>
-      <c r="H43" s="3">
+      <c r="I43" s="3">
         <v>286200</v>
       </c>
-      <c r="I43" s="3">
+      <c r="J43" s="3">
         <v>329700</v>
       </c>
-      <c r="J43" s="3">
+      <c r="K43" s="3">
         <v>266500</v>
       </c>
-      <c r="K43" s="3">
+      <c r="L43" s="3">
         <v>239600</v>
       </c>
-      <c r="L43" s="3">
+      <c r="M43" s="3">
         <v>197100</v>
       </c>
-      <c r="M43" s="3">
+      <c r="N43" s="3">
         <v>164700</v>
       </c>
-      <c r="N43" s="3">
+      <c r="O43" s="3">
         <v>222100</v>
       </c>
-      <c r="O43" s="3">
+      <c r="P43" s="3">
         <v>173800</v>
       </c>
-      <c r="P43" s="3">
+      <c r="Q43" s="3">
         <v>166300</v>
       </c>
-      <c r="Q43" s="3">
+      <c r="R43" s="3">
         <v>185400</v>
       </c>
-      <c r="R43" s="3">
+      <c r="S43" s="3">
         <v>192500</v>
       </c>
-      <c r="S43" s="3">
+      <c r="T43" s="3">
         <v>156500</v>
       </c>
     </row>
-    <row r="44" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
+        <v>212600</v>
+      </c>
+      <c r="E44" s="3">
         <v>188900</v>
       </c>
-      <c r="E44" s="3">
+      <c r="F44" s="3">
         <v>172700</v>
       </c>
-      <c r="F44" s="3">
+      <c r="G44" s="3">
         <v>179600</v>
       </c>
-      <c r="G44" s="3">
+      <c r="H44" s="3">
         <v>202200</v>
       </c>
-      <c r="H44" s="3">
+      <c r="I44" s="3">
         <v>228800</v>
       </c>
-      <c r="I44" s="3">
+      <c r="J44" s="3">
         <v>272200</v>
       </c>
-      <c r="J44" s="3">
+      <c r="K44" s="3">
         <v>303200</v>
       </c>
-      <c r="K44" s="3">
+      <c r="L44" s="3">
         <v>136600</v>
       </c>
-      <c r="L44" s="3">
+      <c r="M44" s="3">
         <v>153600</v>
       </c>
-      <c r="M44" s="3">
+      <c r="N44" s="3">
         <v>144200</v>
       </c>
-      <c r="N44" s="3">
+      <c r="O44" s="3">
         <v>147300</v>
       </c>
-      <c r="O44" s="3">
+      <c r="P44" s="3">
         <v>147200</v>
       </c>
-      <c r="P44" s="3">
+      <c r="Q44" s="3">
         <v>145200</v>
       </c>
-      <c r="Q44" s="3">
+      <c r="R44" s="3">
         <v>116900</v>
       </c>
-      <c r="R44" s="3">
+      <c r="S44" s="3">
         <v>121000</v>
       </c>
-      <c r="S44" s="3">
+      <c r="T44" s="3">
         <v>103700</v>
       </c>
     </row>
-    <row r="45" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="45" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
+        <v>79800</v>
+      </c>
+      <c r="E45" s="3">
         <v>73800</v>
       </c>
-      <c r="E45" s="3">
+      <c r="F45" s="3">
         <v>35800</v>
       </c>
-      <c r="F45" s="3">
+      <c r="G45" s="3">
         <v>44200</v>
       </c>
-      <c r="G45" s="3">
+      <c r="H45" s="3">
         <v>50500</v>
       </c>
-      <c r="H45" s="3">
+      <c r="I45" s="3">
         <v>49300</v>
       </c>
-      <c r="I45" s="3">
+      <c r="J45" s="3">
         <v>118700</v>
       </c>
-      <c r="J45" s="3">
+      <c r="K45" s="3">
         <v>103100</v>
       </c>
-      <c r="K45" s="3">
+      <c r="L45" s="3">
         <v>70600</v>
       </c>
-      <c r="L45" s="3">
+      <c r="M45" s="3">
         <v>65000</v>
       </c>
-      <c r="M45" s="3">
+      <c r="N45" s="3">
         <v>63000</v>
       </c>
-      <c r="N45" s="3">
+      <c r="O45" s="3">
         <v>59900</v>
       </c>
-      <c r="O45" s="3">
+      <c r="P45" s="3">
         <v>69000</v>
       </c>
-      <c r="P45" s="3">
+      <c r="Q45" s="3">
         <v>63500</v>
       </c>
-      <c r="Q45" s="3">
+      <c r="R45" s="3">
         <v>61400</v>
       </c>
-      <c r="R45" s="3">
+      <c r="S45" s="3">
         <v>58200</v>
       </c>
-      <c r="S45" s="3">
+      <c r="T45" s="3">
         <v>62300</v>
       </c>
     </row>
-    <row r="46" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="46" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>2166700</v>
+      </c>
+      <c r="E46" s="3">
         <v>2050000</v>
       </c>
-      <c r="E46" s="3">
+      <c r="F46" s="3">
         <v>1963000</v>
       </c>
-      <c r="F46" s="3">
+      <c r="G46" s="3">
         <v>1883000</v>
       </c>
-      <c r="G46" s="3">
+      <c r="H46" s="3">
         <v>1423200</v>
       </c>
-      <c r="H46" s="3">
+      <c r="I46" s="3">
         <v>1332800</v>
       </c>
-      <c r="I46" s="3">
+      <c r="J46" s="3">
         <v>1418100</v>
       </c>
-      <c r="J46" s="3">
+      <c r="K46" s="3">
         <v>1356900</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>1181100</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>1127200</v>
       </c>
-      <c r="M46" s="3">
+      <c r="N46" s="3">
         <v>1064700</v>
       </c>
-      <c r="N46" s="3">
+      <c r="O46" s="3">
         <v>1053800</v>
       </c>
-      <c r="O46" s="3">
+      <c r="P46" s="3">
         <v>922500</v>
       </c>
-      <c r="P46" s="3">
+      <c r="Q46" s="3">
         <v>930300</v>
       </c>
-      <c r="Q46" s="3">
+      <c r="R46" s="3">
         <v>941600</v>
       </c>
-      <c r="R46" s="3">
+      <c r="S46" s="3">
         <v>527600</v>
       </c>
-      <c r="S46" s="3">
+      <c r="T46" s="3">
         <v>489300</v>
       </c>
     </row>
-    <row r="47" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -2598,114 +2703,123 @@
       <c r="S47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>468100</v>
+      </c>
+      <c r="E48" s="3">
         <v>471700</v>
       </c>
-      <c r="E48" s="3">
+      <c r="F48" s="3">
         <v>491800</v>
       </c>
-      <c r="F48" s="3">
+      <c r="G48" s="3">
         <v>505700</v>
       </c>
-      <c r="G48" s="3">
+      <c r="H48" s="3">
         <v>524900</v>
       </c>
-      <c r="H48" s="3">
+      <c r="I48" s="3">
         <v>433300</v>
       </c>
-      <c r="I48" s="3">
+      <c r="J48" s="3">
         <v>390600</v>
       </c>
-      <c r="J48" s="3">
+      <c r="K48" s="3">
         <v>444700</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>318600</v>
       </c>
-      <c r="L48" s="3">
+      <c r="M48" s="3">
         <v>280600</v>
       </c>
-      <c r="M48" s="3">
+      <c r="N48" s="3">
         <v>264500</v>
       </c>
-      <c r="N48" s="3">
+      <c r="O48" s="3">
         <v>301300</v>
       </c>
-      <c r="O48" s="3">
+      <c r="P48" s="3">
         <v>293700</v>
       </c>
-      <c r="P48" s="3">
+      <c r="Q48" s="3">
         <v>273500</v>
       </c>
-      <c r="Q48" s="3">
+      <c r="R48" s="3">
         <v>246600</v>
       </c>
-      <c r="R48" s="3">
+      <c r="S48" s="3">
         <v>219600</v>
       </c>
-      <c r="S48" s="3">
+      <c r="T48" s="3">
         <v>196000</v>
       </c>
     </row>
-    <row r="49" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="49" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
+        <v>665000</v>
+      </c>
+      <c r="E49" s="3">
         <v>685700</v>
       </c>
-      <c r="E49" s="3">
+      <c r="F49" s="3">
         <v>706900</v>
       </c>
-      <c r="F49" s="3">
+      <c r="G49" s="3">
         <v>726900</v>
       </c>
-      <c r="G49" s="3">
+      <c r="H49" s="3">
         <v>745500</v>
       </c>
-      <c r="H49" s="3">
+      <c r="I49" s="3">
         <v>764300</v>
       </c>
-      <c r="I49" s="3">
+      <c r="J49" s="3">
         <v>772100</v>
       </c>
-      <c r="J49" s="3">
+      <c r="K49" s="3">
         <v>789700</v>
       </c>
-      <c r="K49" s="3">
+      <c r="L49" s="3">
         <v>17600</v>
       </c>
-      <c r="L49" s="3">
+      <c r="M49" s="3">
         <v>44600</v>
       </c>
-      <c r="M49" s="3">
+      <c r="N49" s="3">
         <v>57200</v>
       </c>
-      <c r="N49" s="3">
+      <c r="O49" s="3">
         <v>20400</v>
       </c>
-      <c r="O49" s="3">
+      <c r="P49" s="3">
         <v>21000</v>
       </c>
-      <c r="P49" s="3">
+      <c r="Q49" s="3">
         <v>21500</v>
       </c>
-      <c r="Q49" s="3">
+      <c r="R49" s="3">
         <v>22300</v>
       </c>
-      <c r="R49" s="3">
+      <c r="S49" s="3">
         <v>16000</v>
       </c>
-      <c r="S49" s="3">
+      <c r="T49" s="3">
         <v>18100</v>
       </c>
     </row>
-    <row r="50" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="50" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2757,8 +2871,11 @@
       <c r="S50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2810,61 +2927,67 @@
       <c r="S51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
+        <v>87600</v>
+      </c>
+      <c r="E52" s="3">
         <v>85200</v>
       </c>
-      <c r="E52" s="3">
+      <c r="F52" s="3">
         <v>107000</v>
       </c>
-      <c r="F52" s="3">
+      <c r="G52" s="3">
         <v>105600</v>
       </c>
-      <c r="G52" s="3">
+      <c r="H52" s="3">
         <v>174200</v>
       </c>
-      <c r="H52" s="3">
+      <c r="I52" s="3">
         <v>186200</v>
       </c>
-      <c r="I52" s="3">
+      <c r="J52" s="3">
         <v>190600</v>
       </c>
-      <c r="J52" s="3">
+      <c r="K52" s="3">
         <v>205300</v>
       </c>
-      <c r="K52" s="3">
+      <c r="L52" s="3">
         <v>127700</v>
       </c>
-      <c r="L52" s="3">
+      <c r="M52" s="3">
         <v>129100</v>
       </c>
-      <c r="M52" s="3">
+      <c r="N52" s="3">
         <v>131800</v>
       </c>
-      <c r="N52" s="3">
+      <c r="O52" s="3">
         <v>131900</v>
       </c>
-      <c r="O52" s="3">
+      <c r="P52" s="3">
         <v>11200</v>
       </c>
-      <c r="P52" s="3">
+      <c r="Q52" s="3">
         <v>7600</v>
       </c>
-      <c r="Q52" s="3">
+      <c r="R52" s="3">
         <v>34000</v>
       </c>
-      <c r="R52" s="3">
+      <c r="S52" s="3">
         <v>33500</v>
       </c>
-      <c r="S52" s="3">
+      <c r="T52" s="3">
         <v>34100</v>
       </c>
     </row>
-    <row r="53" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="53" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -2916,61 +3039,67 @@
       <c r="S53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>3387400</v>
+      </c>
+      <c r="E54" s="3">
         <v>3292600</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>3268700</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>3221200</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>2867800</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>2716600</v>
       </c>
-      <c r="I54" s="3">
+      <c r="J54" s="3">
         <v>2771400</v>
       </c>
-      <c r="J54" s="3">
+      <c r="K54" s="3">
         <v>2796600</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>1645000</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>1581500</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>1518200</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>1507400</v>
       </c>
-      <c r="O54" s="3">
+      <c r="P54" s="3">
         <v>1248400</v>
       </c>
-      <c r="P54" s="3">
+      <c r="Q54" s="3">
         <v>1232900</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="R54" s="3">
         <v>1244500</v>
       </c>
-      <c r="R54" s="3">
+      <c r="S54" s="3">
         <v>796700</v>
       </c>
-      <c r="S54" s="3">
+      <c r="T54" s="3">
         <v>737500</v>
       </c>
     </row>
-    <row r="55" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2990,8 +3119,9 @@
       <c r="Q55" s="3"/>
       <c r="R55" s="3"/>
       <c r="S55" s="3"/>
-    </row>
-    <row r="56" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T55" s="3"/>
+    </row>
+    <row r="56" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -3011,102 +3141,106 @@
       <c r="Q56" s="3"/>
       <c r="R56" s="3"/>
       <c r="S56" s="3"/>
-    </row>
-    <row r="57" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T56" s="3"/>
+    </row>
+    <row r="57" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>146000</v>
+      </c>
+      <c r="E57" s="3">
         <v>150800</v>
       </c>
-      <c r="E57" s="3">
+      <c r="F57" s="3">
         <v>144600</v>
       </c>
-      <c r="F57" s="3">
+      <c r="G57" s="3">
         <v>143700</v>
       </c>
-      <c r="G57" s="3">
+      <c r="H57" s="3">
         <v>152200</v>
       </c>
-      <c r="H57" s="3">
+      <c r="I57" s="3">
         <v>160800</v>
       </c>
-      <c r="I57" s="3">
+      <c r="J57" s="3">
         <v>204100</v>
       </c>
-      <c r="J57" s="3">
+      <c r="K57" s="3">
         <v>199200</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>127600</v>
       </c>
-      <c r="L57" s="3">
+      <c r="M57" s="3">
         <v>126500</v>
       </c>
-      <c r="M57" s="3">
+      <c r="N57" s="3">
         <v>100900</v>
       </c>
-      <c r="N57" s="3">
+      <c r="O57" s="3">
         <v>113000</v>
       </c>
-      <c r="O57" s="3">
+      <c r="P57" s="3">
         <v>111600</v>
       </c>
-      <c r="P57" s="3">
+      <c r="Q57" s="3">
         <v>114800</v>
       </c>
-      <c r="Q57" s="3">
+      <c r="R57" s="3">
         <v>118400</v>
       </c>
-      <c r="R57" s="3">
+      <c r="S57" s="3">
         <v>127800</v>
       </c>
-      <c r="S57" s="3">
+      <c r="T57" s="3">
         <v>108300</v>
       </c>
     </row>
-    <row r="58" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
+        <v>400</v>
+      </c>
+      <c r="E58" s="3">
         <v>600</v>
       </c>
-      <c r="E58" s="3">
+      <c r="F58" s="3">
         <v>3900</v>
       </c>
-      <c r="F58" s="3">
+      <c r="G58" s="3">
         <v>7100</v>
       </c>
-      <c r="G58" s="3">
+      <c r="H58" s="3">
         <v>15900</v>
       </c>
-      <c r="H58" s="3">
+      <c r="I58" s="3">
         <v>5400</v>
       </c>
-      <c r="I58" s="3">
+      <c r="J58" s="3">
         <v>5800</v>
       </c>
-      <c r="J58" s="3">
+      <c r="K58" s="3">
         <v>8700</v>
       </c>
-      <c r="K58" s="3">
+      <c r="L58" s="3">
         <v>5400</v>
       </c>
-      <c r="L58" s="3">
+      <c r="M58" s="3">
         <v>7300</v>
       </c>
-      <c r="M58" s="3">
+      <c r="N58" s="3">
         <v>9200</v>
       </c>
-      <c r="N58" s="3">
+      <c r="O58" s="3">
         <v>9100</v>
       </c>
-      <c r="O58" s="3">
+      <c r="P58" s="3">
         <v>4900</v>
-      </c>
-      <c r="P58" s="3" t="s">
-        <v>17</v>
       </c>
       <c r="Q58" s="3" t="s">
         <v>17</v>
@@ -3117,220 +3251,235 @@
       <c r="S58" s="3" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="59" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T58" s="3" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="59" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>147000</v>
+      </c>
+      <c r="E59" s="3">
         <v>131600</v>
       </c>
-      <c r="E59" s="3">
+      <c r="F59" s="3">
         <v>138200</v>
       </c>
-      <c r="F59" s="3">
+      <c r="G59" s="3">
         <v>153400</v>
       </c>
-      <c r="G59" s="3">
+      <c r="H59" s="3">
         <v>148700</v>
       </c>
-      <c r="H59" s="3">
+      <c r="I59" s="3">
         <v>127800</v>
       </c>
-      <c r="I59" s="3">
+      <c r="J59" s="3">
         <v>148100</v>
       </c>
-      <c r="J59" s="3">
+      <c r="K59" s="3">
         <v>117600</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>80900</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>80200</v>
       </c>
-      <c r="M59" s="3">
+      <c r="N59" s="3">
         <v>81400</v>
       </c>
-      <c r="N59" s="3">
+      <c r="O59" s="3">
         <v>95600</v>
       </c>
-      <c r="O59" s="3">
+      <c r="P59" s="3">
         <v>60700</v>
       </c>
-      <c r="P59" s="3">
+      <c r="Q59" s="3">
         <v>69400</v>
       </c>
-      <c r="Q59" s="3">
+      <c r="R59" s="3">
         <v>73700</v>
       </c>
-      <c r="R59" s="3">
+      <c r="S59" s="3">
         <v>74200</v>
       </c>
-      <c r="S59" s="3">
+      <c r="T59" s="3">
         <v>55200</v>
       </c>
     </row>
-    <row r="60" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>293400</v>
+      </c>
+      <c r="E60" s="3">
         <v>283000</v>
       </c>
-      <c r="E60" s="3">
+      <c r="F60" s="3">
         <v>286700</v>
       </c>
-      <c r="F60" s="3">
+      <c r="G60" s="3">
         <v>304200</v>
       </c>
-      <c r="G60" s="3">
+      <c r="H60" s="3">
         <v>316800</v>
       </c>
-      <c r="H60" s="3">
+      <c r="I60" s="3">
         <v>294000</v>
       </c>
-      <c r="I60" s="3">
+      <c r="J60" s="3">
         <v>358000</v>
       </c>
-      <c r="J60" s="3">
+      <c r="K60" s="3">
         <v>325500</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>213900</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>214000</v>
       </c>
-      <c r="M60" s="3">
+      <c r="N60" s="3">
         <v>191500</v>
       </c>
-      <c r="N60" s="3">
+      <c r="O60" s="3">
         <v>217700</v>
       </c>
-      <c r="O60" s="3">
+      <c r="P60" s="3">
         <v>177200</v>
       </c>
-      <c r="P60" s="3">
+      <c r="Q60" s="3">
         <v>184200</v>
       </c>
-      <c r="Q60" s="3">
+      <c r="R60" s="3">
         <v>192100</v>
       </c>
-      <c r="R60" s="3">
+      <c r="S60" s="3">
         <v>202000</v>
       </c>
-      <c r="S60" s="3">
+      <c r="T60" s="3">
         <v>163500</v>
       </c>
     </row>
-    <row r="61" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
+        <v>1134700</v>
+      </c>
+      <c r="E61" s="3">
         <v>1120300</v>
       </c>
-      <c r="E61" s="3">
+      <c r="F61" s="3">
         <v>1106100</v>
       </c>
-      <c r="F61" s="3">
+      <c r="G61" s="3">
         <v>1092200</v>
       </c>
-      <c r="G61" s="3">
+      <c r="H61" s="3">
         <v>840000</v>
       </c>
-      <c r="H61" s="3">
+      <c r="I61" s="3">
         <v>835900</v>
       </c>
-      <c r="I61" s="3">
+      <c r="J61" s="3">
         <v>832400</v>
       </c>
-      <c r="J61" s="3">
+      <c r="K61" s="3">
         <v>829200</v>
       </c>
-      <c r="K61" s="3">
+      <c r="L61" s="3">
         <v>338500</v>
       </c>
-      <c r="L61" s="3">
+      <c r="M61" s="3">
         <v>334600</v>
       </c>
-      <c r="M61" s="3">
+      <c r="N61" s="3">
         <v>330700</v>
       </c>
-      <c r="N61" s="3">
+      <c r="O61" s="3">
         <v>328800</v>
       </c>
-      <c r="O61" s="3">
+      <c r="P61" s="3">
         <v>324000</v>
       </c>
-      <c r="P61" s="3">
+      <c r="Q61" s="3">
         <v>317500</v>
       </c>
-      <c r="Q61" s="3">
+      <c r="R61" s="3">
         <v>313400</v>
       </c>
-      <c r="R61" s="3">
-        <v>0</v>
-      </c>
       <c r="S61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
+        <v>143200</v>
+      </c>
+      <c r="E62" s="3">
         <v>140100</v>
       </c>
-      <c r="E62" s="3">
+      <c r="F62" s="3">
         <v>141700</v>
       </c>
-      <c r="F62" s="3">
+      <c r="G62" s="3">
         <v>143200</v>
       </c>
-      <c r="G62" s="3">
+      <c r="H62" s="3">
         <v>149700</v>
       </c>
-      <c r="H62" s="3">
+      <c r="I62" s="3">
         <v>89600</v>
       </c>
-      <c r="I62" s="3">
+      <c r="J62" s="3">
         <v>77100</v>
       </c>
-      <c r="J62" s="3">
+      <c r="K62" s="3">
         <v>82200</v>
       </c>
-      <c r="K62" s="3">
+      <c r="L62" s="3">
         <v>73300</v>
       </c>
-      <c r="L62" s="3">
+      <c r="M62" s="3">
         <v>71000</v>
       </c>
-      <c r="M62" s="3">
+      <c r="N62" s="3">
         <v>83600</v>
       </c>
-      <c r="N62" s="3">
+      <c r="O62" s="3">
         <v>60800</v>
       </c>
-      <c r="O62" s="3">
+      <c r="P62" s="3">
         <v>70300</v>
       </c>
-      <c r="P62" s="3">
+      <c r="Q62" s="3">
         <v>76600</v>
       </c>
-      <c r="Q62" s="3">
+      <c r="R62" s="3">
         <v>234600</v>
-      </c>
-      <c r="R62" s="3">
-        <v>42500</v>
       </c>
       <c r="S62" s="3">
         <v>42500</v>
       </c>
-    </row>
-    <row r="63" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T62" s="3">
+        <v>42500</v>
+      </c>
+    </row>
+    <row r="63" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -3382,8 +3531,11 @@
       <c r="S63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -3435,8 +3587,11 @@
       <c r="S64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -3488,61 +3643,67 @@
       <c r="S65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>1571300</v>
+      </c>
+      <c r="E66" s="3">
         <v>1543400</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>1534500</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>1539600</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>1306500</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>1219500</v>
       </c>
-      <c r="I66" s="3">
+      <c r="J66" s="3">
         <v>1267500</v>
       </c>
-      <c r="J66" s="3">
+      <c r="K66" s="3">
         <v>1236900</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>661500</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>655400</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>641600</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>643100</v>
       </c>
-      <c r="O66" s="3">
+      <c r="P66" s="3">
         <v>607300</v>
       </c>
-      <c r="P66" s="3">
+      <c r="Q66" s="3">
         <v>614100</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="R66" s="3">
         <v>775900</v>
       </c>
-      <c r="R66" s="3">
+      <c r="S66" s="3">
         <v>280300</v>
       </c>
-      <c r="S66" s="3">
+      <c r="T66" s="3">
         <v>241800</v>
       </c>
     </row>
-    <row r="67" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -3562,8 +3723,9 @@
       <c r="Q67" s="3"/>
       <c r="R67" s="3"/>
       <c r="S67" s="3"/>
-    </row>
-    <row r="68" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T67" s="3"/>
+    </row>
+    <row r="68" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -3615,8 +3777,11 @@
       <c r="S68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -3668,8 +3833,11 @@
       <c r="S69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -3721,8 +3889,11 @@
       <c r="S70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -3774,61 +3945,67 @@
       <c r="S71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>131700</v>
+      </c>
+      <c r="E72" s="3">
         <v>64600</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>69200</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>25800</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>176700</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>129100</v>
       </c>
-      <c r="I72" s="3">
+      <c r="J72" s="3">
         <v>154900</v>
       </c>
-      <c r="J72" s="3">
+      <c r="K72" s="3">
         <v>229200</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>213000</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>166400</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>133200</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>130700</v>
       </c>
-      <c r="O72" s="3">
+      <c r="P72" s="3">
         <v>-73900</v>
       </c>
-      <c r="P72" s="3">
+      <c r="Q72" s="3">
         <v>-83200</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="R72" s="3">
         <v>-28000</v>
       </c>
-      <c r="R72" s="3">
+      <c r="S72" s="3">
         <v>28200</v>
       </c>
-      <c r="S72" s="3">
+      <c r="T72" s="3">
         <v>16600</v>
       </c>
     </row>
-    <row r="73" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -3880,8 +4057,11 @@
       <c r="S73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -3933,8 +4113,11 @@
       <c r="S74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -3986,61 +4169,67 @@
       <c r="S75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>1816100</v>
+      </c>
+      <c r="E76" s="3">
         <v>1749200</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>1734200</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>1681600</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>1561300</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>1497100</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>1503900</v>
       </c>
-      <c r="J76" s="3">
+      <c r="K76" s="3">
         <v>1559700</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>983500</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>926100</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>876600</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>864300</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>641100</v>
       </c>
-      <c r="P76" s="3">
+      <c r="Q76" s="3">
         <v>618800</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="R76" s="3">
         <v>468600</v>
       </c>
-      <c r="R76" s="3">
+      <c r="S76" s="3">
         <v>516400</v>
       </c>
-      <c r="S76" s="3">
+      <c r="T76" s="3">
         <v>495700</v>
       </c>
     </row>
-    <row r="77" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -4092,119 +4281,128 @@
       <c r="S77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:20" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44100</v>
+      </c>
+      <c r="E80" s="2">
         <v>44009</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>43918</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>43827</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>43736</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>43645</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>43554</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>43463</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>43372</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>43281</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>43190</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>43099</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>43008</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>42917</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>42826</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>42735</v>
       </c>
-      <c r="S80" s="2">
+      <c r="T80" s="2">
         <v>42644</v>
       </c>
     </row>
-    <row r="81" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>67100</v>
+      </c>
+      <c r="E81" s="3">
         <v>-4600</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="3">
         <v>43400</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>49100</v>
       </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
         <v>47600</v>
       </c>
-      <c r="H81" s="3">
+      <c r="I81" s="3">
         <v>-25800</v>
       </c>
-      <c r="I81" s="3">
+      <c r="J81" s="3">
         <v>-74300</v>
       </c>
-      <c r="J81" s="3">
+      <c r="K81" s="3">
         <v>16200</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>46100</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>32500</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>2400</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>116800</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>6900</v>
       </c>
-      <c r="P81" s="3">
+      <c r="Q81" s="3">
         <v>-55200</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="R81" s="3">
         <v>-56200</v>
       </c>
-      <c r="R81" s="3">
+      <c r="S81" s="3">
         <v>11600</v>
       </c>
-      <c r="S81" s="3">
+      <c r="T81" s="3">
         <v>-3600</v>
       </c>
     </row>
-    <row r="82" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -4224,61 +4422,65 @@
       <c r="Q82" s="3"/>
       <c r="R82" s="3"/>
       <c r="S82" s="3"/>
-    </row>
-    <row r="83" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T82" s="3"/>
+    </row>
+    <row r="83" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
+        <v>44500</v>
+      </c>
+      <c r="E83" s="3">
         <v>46700</v>
       </c>
-      <c r="E83" s="3">
+      <c r="F83" s="3">
         <v>47500</v>
       </c>
-      <c r="F83" s="3">
+      <c r="G83" s="3">
         <v>47300</v>
       </c>
-      <c r="G83" s="3">
+      <c r="H83" s="3">
         <v>50400</v>
       </c>
-      <c r="H83" s="3">
+      <c r="I83" s="3">
         <v>45100</v>
       </c>
-      <c r="I83" s="3">
+      <c r="J83" s="3">
         <v>60700</v>
       </c>
-      <c r="J83" s="3">
+      <c r="K83" s="3">
         <v>31200</v>
       </c>
-      <c r="K83" s="3">
+      <c r="L83" s="3">
         <v>20500</v>
       </c>
-      <c r="L83" s="3">
+      <c r="M83" s="3">
         <v>21500</v>
       </c>
-      <c r="M83" s="3">
+      <c r="N83" s="3">
         <v>19200</v>
       </c>
-      <c r="N83" s="3">
+      <c r="O83" s="3">
         <v>19000</v>
       </c>
-      <c r="O83" s="3">
+      <c r="P83" s="3">
         <v>17500</v>
       </c>
-      <c r="P83" s="3">
+      <c r="Q83" s="3">
         <v>16500</v>
       </c>
-      <c r="Q83" s="3">
+      <c r="R83" s="3">
         <v>15900</v>
       </c>
-      <c r="R83" s="3">
+      <c r="S83" s="3">
         <v>14900</v>
       </c>
-      <c r="S83" s="3">
+      <c r="T83" s="3">
         <v>13700</v>
       </c>
     </row>
-    <row r="84" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="84" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -4330,8 +4532,11 @@
       <c r="S84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -4383,8 +4588,11 @@
       <c r="S85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -4436,8 +4644,11 @@
       <c r="S86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -4489,8 +4700,11 @@
       <c r="S87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -4542,61 +4756,67 @@
       <c r="S88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>104700</v>
+      </c>
+      <c r="E89" s="3">
         <v>122700</v>
       </c>
-      <c r="E89" s="3">
+      <c r="F89" s="3">
         <v>151800</v>
       </c>
-      <c r="F89" s="3">
+      <c r="G89" s="3">
         <v>162300</v>
       </c>
-      <c r="G89" s="3">
+      <c r="H89" s="3">
         <v>87500</v>
       </c>
-      <c r="H89" s="3">
+      <c r="I89" s="3">
         <v>127700</v>
       </c>
-      <c r="I89" s="3">
+      <c r="J89" s="3">
         <v>42800</v>
       </c>
-      <c r="J89" s="3">
+      <c r="K89" s="3">
         <v>102400</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>57200</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>37600</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>95100</v>
       </c>
-      <c r="N89" s="3">
+      <c r="O89" s="3">
         <v>105100</v>
       </c>
-      <c r="O89" s="3">
+      <c r="P89" s="3">
         <v>9700</v>
       </c>
-      <c r="P89" s="3">
+      <c r="Q89" s="3">
         <v>13100</v>
       </c>
-      <c r="Q89" s="3">
+      <c r="R89" s="3">
         <v>16400</v>
       </c>
-      <c r="R89" s="3">
+      <c r="S89" s="3">
         <v>19200</v>
       </c>
-      <c r="S89" s="3">
+      <c r="T89" s="3">
         <v>36300</v>
       </c>
     </row>
-    <row r="90" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -4616,61 +4836,65 @@
       <c r="Q90" s="3"/>
       <c r="R90" s="3"/>
       <c r="S90" s="3"/>
-    </row>
-    <row r="91" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T90" s="3"/>
+    </row>
+    <row r="91" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
-        <v>0</v>
+        <v>-26300</v>
       </c>
       <c r="E91" s="3">
+        <v>0</v>
+      </c>
+      <c r="F91" s="3">
         <v>-1000</v>
       </c>
-      <c r="F91" s="3">
+      <c r="G91" s="3">
         <v>-2000</v>
       </c>
-      <c r="G91" s="3">
+      <c r="H91" s="3">
         <v>-1000</v>
       </c>
-      <c r="H91" s="3">
-        <v>0</v>
-      </c>
       <c r="I91" s="3">
+        <v>0</v>
+      </c>
+      <c r="J91" s="3">
         <v>-600</v>
       </c>
-      <c r="J91" s="3">
-        <v>0</v>
-      </c>
       <c r="K91" s="3">
+        <v>0</v>
+      </c>
+      <c r="L91" s="3">
         <v>-700</v>
       </c>
-      <c r="L91" s="3">
+      <c r="M91" s="3">
         <v>-20300</v>
       </c>
-      <c r="M91" s="3">
+      <c r="N91" s="3">
         <v>-22700</v>
       </c>
-      <c r="N91" s="3">
+      <c r="O91" s="3">
         <v>-17200</v>
       </c>
-      <c r="O91" s="3">
+      <c r="P91" s="3">
         <v>-33000</v>
       </c>
-      <c r="P91" s="3">
+      <c r="Q91" s="3">
         <v>-38100</v>
       </c>
-      <c r="Q91" s="3">
+      <c r="R91" s="3">
         <v>-35700</v>
       </c>
-      <c r="R91" s="3">
+      <c r="S91" s="3">
         <v>-35400</v>
       </c>
-      <c r="S91" s="3">
+      <c r="T91" s="3">
         <v>-28900</v>
       </c>
     </row>
-    <row r="92" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="92" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -4722,8 +4946,11 @@
       <c r="S92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -4775,61 +5002,67 @@
       <c r="S93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
+        <v>-114000</v>
+      </c>
+      <c r="E94" s="3">
         <v>-509800</v>
       </c>
-      <c r="E94" s="3">
+      <c r="F94" s="3">
         <v>-535700</v>
       </c>
-      <c r="F94" s="3">
+      <c r="G94" s="3">
         <v>36100</v>
       </c>
-      <c r="G94" s="3">
+      <c r="H94" s="3">
         <v>21700</v>
       </c>
-      <c r="H94" s="3">
+      <c r="I94" s="3">
         <v>-54400</v>
       </c>
-      <c r="I94" s="3">
+      <c r="J94" s="3">
         <v>-52900</v>
       </c>
-      <c r="J94" s="3">
+      <c r="K94" s="3">
         <v>-681900</v>
       </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3">
         <v>9500</v>
       </c>
-      <c r="L94" s="3">
+      <c r="M94" s="3">
         <v>181700</v>
       </c>
-      <c r="M94" s="3">
+      <c r="N94" s="3">
         <v>-117600</v>
       </c>
-      <c r="N94" s="3">
+      <c r="O94" s="3">
         <v>-58600</v>
       </c>
-      <c r="O94" s="3">
+      <c r="P94" s="3">
         <v>-132500</v>
       </c>
-      <c r="P94" s="3">
+      <c r="Q94" s="3">
         <v>-320600</v>
       </c>
-      <c r="Q94" s="3">
+      <c r="R94" s="3">
         <v>-40800</v>
       </c>
-      <c r="R94" s="3">
+      <c r="S94" s="3">
         <v>-35400</v>
       </c>
-      <c r="S94" s="3">
+      <c r="T94" s="3">
         <v>-28900</v>
       </c>
     </row>
-    <row r="95" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="95" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -4849,8 +5082,9 @@
       <c r="Q95" s="3"/>
       <c r="R95" s="3"/>
       <c r="S95" s="3"/>
-    </row>
-    <row r="96" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T95" s="3"/>
+    </row>
+    <row r="96" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -4902,8 +5136,11 @@
       <c r="S96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -4955,8 +5192,11 @@
       <c r="S97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -5008,8 +5248,11 @@
       <c r="S98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -5061,163 +5304,175 @@
       <c r="S99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>-19200</v>
+      </c>
+      <c r="E100" s="3">
         <v>-3700</v>
       </c>
-      <c r="E100" s="3">
+      <c r="F100" s="3">
         <v>-12300</v>
       </c>
-      <c r="F100" s="3">
+      <c r="G100" s="3">
         <v>347600</v>
       </c>
-      <c r="G100" s="3">
+      <c r="H100" s="3">
         <v>-2800</v>
       </c>
-      <c r="H100" s="3">
+      <c r="I100" s="3">
         <v>1000</v>
       </c>
-      <c r="I100" s="3">
+      <c r="J100" s="3">
         <v>-2900</v>
       </c>
-      <c r="J100" s="3">
+      <c r="K100" s="3">
         <v>491600</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>-4600</v>
       </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
         <v>1900</v>
       </c>
-      <c r="M100" s="3">
+      <c r="N100" s="3">
         <v>-2800</v>
       </c>
-      <c r="N100" s="3">
+      <c r="O100" s="3">
         <v>4400</v>
       </c>
-      <c r="O100" s="3">
+      <c r="P100" s="3">
         <v>300</v>
       </c>
-      <c r="P100" s="3">
+      <c r="Q100" s="3">
         <v>2000</v>
       </c>
-      <c r="Q100" s="3">
+      <c r="R100" s="3">
         <v>445700</v>
       </c>
-      <c r="R100" s="3">
+      <c r="S100" s="3">
         <v>6700</v>
       </c>
-      <c r="S100" s="3">
+      <c r="T100" s="3">
         <v>2300</v>
       </c>
     </row>
-    <row r="101" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
-      <c r="D101" s="3">
-        <v>0</v>
+      <c r="D101" s="3" t="s">
+        <v>17</v>
       </c>
       <c r="E101" s="3">
         <v>0</v>
       </c>
-      <c r="F101" s="3" t="s">
-        <v>17</v>
+      <c r="F101" s="3">
+        <v>0</v>
       </c>
       <c r="G101" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="H101" s="3">
-        <v>0</v>
+      <c r="H101" s="3" t="s">
+        <v>17</v>
       </c>
       <c r="I101" s="3">
         <v>0</v>
       </c>
       <c r="J101" s="3">
+        <v>0</v>
+      </c>
+      <c r="K101" s="3">
         <v>-200</v>
       </c>
-      <c r="K101" s="3">
-        <v>0</v>
-      </c>
       <c r="L101" s="3">
+        <v>0</v>
+      </c>
+      <c r="M101" s="3">
         <v>-700</v>
       </c>
-      <c r="M101" s="3">
-        <v>0</v>
-      </c>
       <c r="N101" s="3">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="O101" s="3">
         <v>400</v>
       </c>
       <c r="P101" s="3">
+        <v>400</v>
+      </c>
+      <c r="Q101" s="3">
         <v>500</v>
       </c>
-      <c r="Q101" s="3">
+      <c r="R101" s="3">
         <v>700</v>
       </c>
-      <c r="R101" s="3">
+      <c r="S101" s="3">
         <v>-1400</v>
       </c>
-      <c r="S101" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="102" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>-28500</v>
+      </c>
+      <c r="E102" s="3">
         <v>-390800</v>
       </c>
-      <c r="E102" s="3">
+      <c r="F102" s="3">
         <v>-396200</v>
       </c>
-      <c r="F102" s="3">
+      <c r="G102" s="3">
         <v>546000</v>
       </c>
-      <c r="G102" s="3">
+      <c r="H102" s="3">
         <v>106400</v>
       </c>
-      <c r="H102" s="3">
+      <c r="I102" s="3">
         <v>74300</v>
       </c>
-      <c r="I102" s="3">
+      <c r="J102" s="3">
         <v>-13000</v>
       </c>
-      <c r="J102" s="3">
+      <c r="K102" s="3">
         <v>-88100</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>62100</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>220500</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>-25300</v>
       </c>
-      <c r="N102" s="3">
+      <c r="O102" s="3">
         <v>51300</v>
       </c>
-      <c r="O102" s="3">
+      <c r="P102" s="3">
         <v>-122100</v>
       </c>
-      <c r="P102" s="3">
+      <c r="Q102" s="3">
         <v>-305000</v>
       </c>
-      <c r="Q102" s="3">
+      <c r="R102" s="3">
         <v>422000</v>
       </c>
-      <c r="R102" s="3">
+      <c r="S102" s="3">
         <v>-10900</v>
       </c>
-      <c r="S102" s="3">
+      <c r="T102" s="3">
         <v>9700</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/LITE_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/LITE_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="127" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="125" uniqueCount="92">
   <si>
     <t>LITE</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:T102"/>
+  <dimension ref="A5:U102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,257 +665,269 @@
     <col min="1" max="1" width="6.42578125" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="8" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="12" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="16" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="18" width="13" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="12.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="21" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="5" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="9" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="13" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="17" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="19" width="13" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="12.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="22" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:21" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44191</v>
+      </c>
+      <c r="E7" s="2">
         <v>44100</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44009</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>43918</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>43827</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>43736</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>43645</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>43554</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>43463</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>43372</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>43281</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>43190</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>43099</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>43008</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>42917</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>42826</v>
       </c>
-      <c r="S7" s="2">
+      <c r="T7" s="2">
         <v>42735</v>
       </c>
-      <c r="T7" s="2">
+      <c r="U7" s="2">
         <v>42644</v>
       </c>
     </row>
-    <row r="8" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
+        <v>478800</v>
+      </c>
+      <c r="E8" s="3">
         <v>452400</v>
       </c>
-      <c r="E8" s="3">
+      <c r="F8" s="3">
         <v>368100</v>
       </c>
-      <c r="F8" s="3">
+      <c r="G8" s="3">
         <v>402800</v>
       </c>
-      <c r="G8" s="3">
+      <c r="H8" s="3">
         <v>457800</v>
       </c>
-      <c r="H8" s="3">
+      <c r="I8" s="3">
         <v>449900</v>
       </c>
-      <c r="I8" s="3">
+      <c r="J8" s="3">
         <v>404600</v>
       </c>
-      <c r="J8" s="3">
+      <c r="K8" s="3">
         <v>432900</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>373700</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>354100</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>301100</v>
       </c>
-      <c r="N8" s="3">
+      <c r="O8" s="3">
         <v>298800</v>
       </c>
-      <c r="O8" s="3">
+      <c r="P8" s="3">
         <v>404600</v>
       </c>
-      <c r="P8" s="3">
+      <c r="Q8" s="3">
         <v>243200</v>
       </c>
-      <c r="Q8" s="3">
+      <c r="R8" s="3">
         <v>222700</v>
       </c>
-      <c r="R8" s="3">
+      <c r="S8" s="3">
         <v>255800</v>
       </c>
-      <c r="S8" s="3">
+      <c r="T8" s="3">
         <v>265000</v>
       </c>
-      <c r="T8" s="3">
+      <c r="U8" s="3">
         <v>258100</v>
       </c>
     </row>
-    <row r="9" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
+        <v>249200</v>
+      </c>
+      <c r="E9" s="3">
         <v>246700</v>
       </c>
-      <c r="E9" s="3">
+      <c r="F9" s="3">
         <v>232400</v>
       </c>
-      <c r="F9" s="3">
+      <c r="G9" s="3">
         <v>245100</v>
       </c>
-      <c r="G9" s="3">
+      <c r="H9" s="3">
         <v>268700</v>
       </c>
-      <c r="H9" s="3">
+      <c r="I9" s="3">
         <v>282200</v>
       </c>
-      <c r="I9" s="3">
+      <c r="J9" s="3">
         <v>317800</v>
       </c>
-      <c r="J9" s="3">
+      <c r="K9" s="3">
         <v>344600</v>
       </c>
-      <c r="K9" s="3">
+      <c r="L9" s="3">
         <v>248900</v>
       </c>
-      <c r="L9" s="3">
+      <c r="M9" s="3">
         <v>228100</v>
       </c>
-      <c r="M9" s="3">
+      <c r="N9" s="3">
         <v>205600</v>
       </c>
-      <c r="N9" s="3">
+      <c r="O9" s="3">
         <v>201800</v>
       </c>
-      <c r="O9" s="3">
+      <c r="P9" s="3">
         <v>233500</v>
       </c>
-      <c r="P9" s="3">
+      <c r="Q9" s="3">
         <v>174700</v>
       </c>
-      <c r="Q9" s="3">
+      <c r="R9" s="3">
         <v>155400</v>
       </c>
-      <c r="R9" s="3">
+      <c r="S9" s="3">
         <v>173700</v>
       </c>
-      <c r="S9" s="3">
+      <c r="T9" s="3">
         <v>178000</v>
       </c>
-      <c r="T9" s="3">
+      <c r="U9" s="3">
         <v>176400</v>
       </c>
     </row>
-    <row r="10" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
+        <v>229600</v>
+      </c>
+      <c r="E10" s="3">
         <v>205700</v>
       </c>
-      <c r="E10" s="3">
+      <c r="F10" s="3">
         <v>135700</v>
       </c>
-      <c r="F10" s="3">
+      <c r="G10" s="3">
         <v>157700</v>
       </c>
-      <c r="G10" s="3">
+      <c r="H10" s="3">
         <v>189100</v>
       </c>
-      <c r="H10" s="3">
+      <c r="I10" s="3">
         <v>167700</v>
       </c>
-      <c r="I10" s="3">
+      <c r="J10" s="3">
         <v>86800</v>
       </c>
-      <c r="J10" s="3">
+      <c r="K10" s="3">
         <v>88300</v>
       </c>
-      <c r="K10" s="3">
+      <c r="L10" s="3">
         <v>124800</v>
       </c>
-      <c r="L10" s="3">
+      <c r="M10" s="3">
         <v>126000</v>
       </c>
-      <c r="M10" s="3">
+      <c r="N10" s="3">
         <v>95500</v>
       </c>
-      <c r="N10" s="3">
+      <c r="O10" s="3">
         <v>97000</v>
       </c>
-      <c r="O10" s="3">
+      <c r="P10" s="3">
         <v>171100</v>
       </c>
-      <c r="P10" s="3">
+      <c r="Q10" s="3">
         <v>68500</v>
       </c>
-      <c r="Q10" s="3">
+      <c r="R10" s="3">
         <v>67300</v>
       </c>
-      <c r="R10" s="3">
+      <c r="S10" s="3">
         <v>82100</v>
       </c>
-      <c r="S10" s="3">
+      <c r="T10" s="3">
         <v>87000</v>
       </c>
-      <c r="T10" s="3">
+      <c r="U10" s="3">
         <v>81700</v>
       </c>
     </row>
-    <row r="11" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -936,64 +948,68 @@
       <c r="R11" s="3"/>
       <c r="S11" s="3"/>
       <c r="T11" s="3"/>
-    </row>
-    <row r="12" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U11" s="3"/>
+    </row>
+    <row r="12" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
       <c r="D12" s="3">
+        <v>52800</v>
+      </c>
+      <c r="E12" s="3">
         <v>50400</v>
       </c>
-      <c r="E12" s="3">
+      <c r="F12" s="3">
         <v>49000</v>
       </c>
-      <c r="F12" s="3">
+      <c r="G12" s="3">
         <v>48700</v>
       </c>
-      <c r="G12" s="3">
+      <c r="H12" s="3">
         <v>51000</v>
       </c>
-      <c r="H12" s="3">
+      <c r="I12" s="3">
         <v>49900</v>
       </c>
-      <c r="I12" s="3">
+      <c r="J12" s="3">
         <v>49500</v>
       </c>
-      <c r="J12" s="3">
+      <c r="K12" s="3">
         <v>57700</v>
       </c>
-      <c r="K12" s="3">
+      <c r="L12" s="3">
         <v>42800</v>
       </c>
-      <c r="L12" s="3">
+      <c r="M12" s="3">
         <v>34600</v>
       </c>
-      <c r="M12" s="3">
+      <c r="N12" s="3">
         <v>38500</v>
       </c>
-      <c r="N12" s="3">
+      <c r="O12" s="3">
         <v>38200</v>
       </c>
-      <c r="O12" s="3">
+      <c r="P12" s="3">
         <v>43800</v>
       </c>
-      <c r="P12" s="3">
+      <c r="Q12" s="3">
         <v>36300</v>
       </c>
-      <c r="Q12" s="3">
+      <c r="R12" s="3">
         <v>35400</v>
       </c>
-      <c r="R12" s="3">
+      <c r="S12" s="3">
         <v>37300</v>
       </c>
-      <c r="S12" s="3">
+      <c r="T12" s="3">
         <v>38700</v>
       </c>
-      <c r="T12" s="3">
+      <c r="U12" s="3">
         <v>36900</v>
       </c>
     </row>
-    <row r="13" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>8</v>
       </c>
@@ -1048,93 +1064,99 @@
       <c r="T13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>9</v>
       </c>
       <c r="D14" s="3">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="E14" s="3">
+        <v>0</v>
+      </c>
+      <c r="F14" s="3">
         <v>4900</v>
       </c>
-      <c r="F14" s="3">
+      <c r="G14" s="3">
         <v>5200</v>
       </c>
-      <c r="G14" s="3">
+      <c r="H14" s="3">
         <v>900</v>
       </c>
-      <c r="H14" s="3">
+      <c r="I14" s="3">
         <v>1300</v>
       </c>
-      <c r="I14" s="3">
+      <c r="J14" s="3">
         <v>1700</v>
       </c>
-      <c r="J14" s="3">
+      <c r="K14" s="3">
         <v>51800</v>
       </c>
-      <c r="K14" s="3">
+      <c r="L14" s="3">
         <v>7800</v>
       </c>
-      <c r="L14" s="3">
+      <c r="M14" s="3">
         <v>1300</v>
       </c>
-      <c r="M14" s="3">
+      <c r="N14" s="3">
         <v>3400</v>
       </c>
-      <c r="N14" s="3">
+      <c r="O14" s="3">
         <v>100</v>
       </c>
-      <c r="O14" s="3">
+      <c r="P14" s="3">
         <v>4500</v>
       </c>
-      <c r="P14" s="3">
+      <c r="Q14" s="3">
         <v>2900</v>
       </c>
-      <c r="Q14" s="3">
+      <c r="R14" s="3">
         <v>2000</v>
       </c>
-      <c r="R14" s="3">
+      <c r="S14" s="3">
         <v>3100</v>
       </c>
-      <c r="S14" s="3">
+      <c r="T14" s="3">
         <v>4000</v>
       </c>
-      <c r="T14" s="3">
+      <c r="U14" s="3">
         <v>2900</v>
       </c>
     </row>
-    <row r="15" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D15" s="3">
+        <v>5900</v>
+      </c>
+      <c r="E15" s="3">
         <v>5700</v>
       </c>
-      <c r="E15" s="3">
+      <c r="F15" s="3">
         <v>6200</v>
       </c>
-      <c r="F15" s="3">
+      <c r="G15" s="3">
         <v>6100</v>
       </c>
-      <c r="G15" s="3">
+      <c r="H15" s="3">
         <v>6200</v>
       </c>
-      <c r="H15" s="3">
+      <c r="I15" s="3">
         <v>6300</v>
-      </c>
-      <c r="I15" s="3">
-        <v>3600</v>
       </c>
       <c r="J15" s="3">
         <v>3600</v>
       </c>
       <c r="K15" s="3">
+        <v>3600</v>
+      </c>
+      <c r="L15" s="3">
         <v>800</v>
-      </c>
-      <c r="L15" s="3" t="s">
-        <v>17</v>
       </c>
       <c r="M15" s="3" t="s">
         <v>17</v>
@@ -1142,17 +1164,17 @@
       <c r="N15" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="O15" s="3">
-        <v>0</v>
-      </c>
-      <c r="P15" s="3" t="s">
+      <c r="O15" s="3" t="s">
         <v>17</v>
+      </c>
+      <c r="P15" s="3">
+        <v>0</v>
       </c>
       <c r="Q15" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="R15" s="3">
-        <v>0</v>
+      <c r="R15" s="3" t="s">
+        <v>17</v>
       </c>
       <c r="S15" s="3">
         <v>0</v>
@@ -1160,8 +1182,11 @@
       <c r="T15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:21" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1179,120 +1204,127 @@
       <c r="R16" s="3"/>
       <c r="S16" s="3"/>
       <c r="T16" s="3"/>
-    </row>
-    <row r="17" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U16" s="3"/>
+    </row>
+    <row r="17" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>11</v>
       </c>
       <c r="D17" s="3">
+        <v>363500</v>
+      </c>
+      <c r="E17" s="3">
         <v>353400</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="3">
         <v>341100</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>360300</v>
       </c>
-      <c r="G17" s="3">
+      <c r="H17" s="3">
         <v>383000</v>
       </c>
-      <c r="H17" s="3">
+      <c r="I17" s="3">
         <v>390100</v>
       </c>
-      <c r="I17" s="3">
+      <c r="J17" s="3">
         <v>418400</v>
       </c>
-      <c r="J17" s="3">
+      <c r="K17" s="3">
         <v>509300</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>362200</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>297000</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>280200</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>273300</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>313800</v>
       </c>
-      <c r="P17" s="3">
+      <c r="Q17" s="3">
         <v>240500</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="R17" s="3">
         <v>218800</v>
       </c>
-      <c r="R17" s="3">
+      <c r="S17" s="3">
         <v>242200</v>
       </c>
-      <c r="S17" s="3">
+      <c r="T17" s="3">
         <v>251700</v>
       </c>
-      <c r="T17" s="3">
+      <c r="U17" s="3">
         <v>241300</v>
       </c>
     </row>
-    <row r="18" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D18" s="3">
+        <v>115300</v>
+      </c>
+      <c r="E18" s="3">
         <v>99000</v>
       </c>
-      <c r="E18" s="3">
+      <c r="F18" s="3">
         <v>27000</v>
       </c>
-      <c r="F18" s="3">
+      <c r="G18" s="3">
         <v>42500</v>
       </c>
-      <c r="G18" s="3">
+      <c r="H18" s="3">
         <v>74800</v>
       </c>
-      <c r="H18" s="3">
+      <c r="I18" s="3">
         <v>59800</v>
       </c>
-      <c r="I18" s="3">
+      <c r="J18" s="3">
         <v>-13800</v>
       </c>
-      <c r="J18" s="3">
+      <c r="K18" s="3">
         <v>-76400</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>11500</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>57100</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>20900</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>25500</v>
       </c>
-      <c r="O18" s="3">
+      <c r="P18" s="3">
         <v>90800</v>
       </c>
-      <c r="P18" s="3">
+      <c r="Q18" s="3">
         <v>2700</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="R18" s="3">
         <v>3900</v>
       </c>
-      <c r="R18" s="3">
+      <c r="S18" s="3">
         <v>13600</v>
       </c>
-      <c r="S18" s="3">
+      <c r="T18" s="3">
         <v>13300</v>
       </c>
-      <c r="T18" s="3">
+      <c r="U18" s="3">
         <v>16800</v>
       </c>
     </row>
-    <row r="19" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>13</v>
       </c>
@@ -1313,152 +1345,159 @@
       <c r="R19" s="3"/>
       <c r="S19" s="3"/>
       <c r="T19" s="3"/>
-    </row>
-    <row r="20" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U19" s="3"/>
+    </row>
+    <row r="20" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>14</v>
       </c>
       <c r="D20" s="3">
+        <v>-900</v>
+      </c>
+      <c r="E20" s="3">
         <v>600</v>
       </c>
-      <c r="E20" s="3">
+      <c r="F20" s="3">
         <v>3500</v>
       </c>
-      <c r="F20" s="3">
+      <c r="G20" s="3">
         <v>21700</v>
       </c>
-      <c r="G20" s="3">
+      <c r="H20" s="3">
         <v>1200</v>
       </c>
-      <c r="H20" s="3">
+      <c r="I20" s="3">
         <v>5000</v>
       </c>
-      <c r="I20" s="3">
+      <c r="J20" s="3">
         <v>4100</v>
       </c>
-      <c r="J20" s="3">
+      <c r="K20" s="3">
         <v>5200</v>
       </c>
-      <c r="K20" s="3">
+      <c r="L20" s="3">
         <v>14700</v>
       </c>
-      <c r="L20" s="3">
+      <c r="M20" s="3">
         <v>600</v>
       </c>
-      <c r="M20" s="3">
+      <c r="N20" s="3">
         <v>11400</v>
       </c>
-      <c r="N20" s="3">
+      <c r="O20" s="3">
         <v>-18200</v>
       </c>
-      <c r="O20" s="3">
+      <c r="P20" s="3">
         <v>9300</v>
       </c>
-      <c r="P20" s="3">
+      <c r="Q20" s="3">
         <v>5200</v>
       </c>
-      <c r="Q20" s="3">
+      <c r="R20" s="3">
         <v>-31500</v>
       </c>
-      <c r="R20" s="3">
+      <c r="S20" s="3">
         <v>-58000</v>
       </c>
-      <c r="S20" s="3">
+      <c r="T20" s="3">
         <v>4600</v>
       </c>
-      <c r="T20" s="3">
+      <c r="U20" s="3">
         <v>-22500</v>
       </c>
     </row>
-    <row r="21" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D21" s="3">
+        <v>159100</v>
+      </c>
+      <c r="E21" s="3">
         <v>144100</v>
       </c>
-      <c r="E21" s="3">
+      <c r="F21" s="3">
         <v>77200</v>
       </c>
-      <c r="F21" s="3">
+      <c r="G21" s="3">
         <v>111700</v>
       </c>
-      <c r="G21" s="3">
+      <c r="H21" s="3">
         <v>123300</v>
       </c>
-      <c r="H21" s="3">
+      <c r="I21" s="3">
         <v>115200</v>
       </c>
-      <c r="I21" s="3">
+      <c r="J21" s="3">
         <v>35400</v>
       </c>
-      <c r="J21" s="3">
+      <c r="K21" s="3">
         <v>-10500</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>57400</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>78200</v>
       </c>
-      <c r="M21" s="3">
+      <c r="N21" s="3">
         <v>53800</v>
       </c>
-      <c r="N21" s="3">
+      <c r="O21" s="3">
         <v>26500</v>
       </c>
-      <c r="O21" s="3">
+      <c r="P21" s="3">
         <v>119100</v>
       </c>
-      <c r="P21" s="3">
+      <c r="Q21" s="3">
         <v>25400</v>
       </c>
-      <c r="Q21" s="3">
+      <c r="R21" s="3">
         <v>-11100</v>
       </c>
-      <c r="R21" s="3">
+      <c r="S21" s="3">
         <v>-28500</v>
       </c>
-      <c r="S21" s="3">
+      <c r="T21" s="3">
         <v>32800</v>
       </c>
-      <c r="T21" s="3">
+      <c r="U21" s="3">
         <v>8000</v>
       </c>
     </row>
-    <row r="22" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D22" s="3">
+        <v>16300</v>
+      </c>
+      <c r="E22" s="3">
         <v>16000</v>
       </c>
-      <c r="E22" s="3">
+      <c r="F22" s="3">
         <v>15900</v>
       </c>
-      <c r="F22" s="3">
+      <c r="G22" s="3">
         <v>15600</v>
       </c>
-      <c r="G22" s="3">
+      <c r="H22" s="3">
         <v>18300</v>
-      </c>
-      <c r="H22" s="3">
-        <v>11400</v>
       </c>
       <c r="I22" s="3">
         <v>11400</v>
       </c>
       <c r="J22" s="3">
+        <v>11400</v>
+      </c>
+      <c r="K22" s="3">
         <v>11300</v>
       </c>
-      <c r="K22" s="3">
+      <c r="L22" s="3">
         <v>8500</v>
       </c>
-      <c r="L22" s="3">
+      <c r="M22" s="3">
         <v>5100</v>
-      </c>
-      <c r="M22" s="3">
-        <v>4600</v>
       </c>
       <c r="N22" s="3">
         <v>4600</v>
@@ -1467,10 +1506,10 @@
         <v>4600</v>
       </c>
       <c r="P22" s="3">
+        <v>4600</v>
+      </c>
+      <c r="Q22" s="3">
         <v>4400</v>
-      </c>
-      <c r="Q22" s="3" t="s">
-        <v>17</v>
       </c>
       <c r="R22" s="3" t="s">
         <v>17</v>
@@ -1481,120 +1520,129 @@
       <c r="T22" s="3" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="23" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U22" s="3" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="23" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>98100</v>
+      </c>
+      <c r="E23" s="3">
         <v>83600</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>14600</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>48600</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
         <v>57700</v>
       </c>
-      <c r="H23" s="3">
+      <c r="I23" s="3">
         <v>53400</v>
       </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
         <v>-21100</v>
       </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
         <v>-82500</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>17700</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>52600</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>27700</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>2700</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>95500</v>
       </c>
-      <c r="P23" s="3">
+      <c r="Q23" s="3">
         <v>3500</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="R23" s="3">
         <v>-27600</v>
       </c>
-      <c r="R23" s="3">
+      <c r="S23" s="3">
         <v>-44400</v>
       </c>
-      <c r="S23" s="3">
+      <c r="T23" s="3">
         <v>17900</v>
       </c>
-      <c r="T23" s="3">
+      <c r="U23" s="3">
         <v>-5700</v>
       </c>
     </row>
-    <row r="24" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
+        <v>14900</v>
+      </c>
+      <c r="E24" s="3">
         <v>16500</v>
       </c>
-      <c r="E24" s="3">
+      <c r="F24" s="3">
         <v>19200</v>
       </c>
-      <c r="F24" s="3">
+      <c r="G24" s="3">
         <v>5200</v>
       </c>
-      <c r="G24" s="3">
+      <c r="H24" s="3">
         <v>8600</v>
       </c>
-      <c r="H24" s="3">
+      <c r="I24" s="3">
         <v>5800</v>
       </c>
-      <c r="I24" s="3">
+      <c r="J24" s="3">
         <v>4700</v>
       </c>
-      <c r="J24" s="3">
+      <c r="K24" s="3">
         <v>-8200</v>
       </c>
-      <c r="K24" s="3">
+      <c r="L24" s="3">
         <v>1400</v>
       </c>
-      <c r="L24" s="3">
+      <c r="M24" s="3">
         <v>5200</v>
       </c>
-      <c r="M24" s="3">
+      <c r="N24" s="3">
         <v>-3300</v>
       </c>
-      <c r="N24" s="3">
-        <v>0</v>
-      </c>
       <c r="O24" s="3">
+        <v>0</v>
+      </c>
+      <c r="P24" s="3">
         <v>-109300</v>
       </c>
-      <c r="P24" s="3">
+      <c r="Q24" s="3">
         <v>-3600</v>
       </c>
-      <c r="Q24" s="3">
+      <c r="R24" s="3">
         <v>27300</v>
       </c>
-      <c r="R24" s="3">
+      <c r="S24" s="3">
         <v>11600</v>
       </c>
-      <c r="S24" s="3">
+      <c r="T24" s="3">
         <v>6100</v>
       </c>
-      <c r="T24" s="3">
+      <c r="U24" s="3">
         <v>-2300</v>
       </c>
     </row>
-    <row r="25" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="25" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1649,120 +1697,129 @@
       <c r="T25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>83200</v>
+      </c>
+      <c r="E26" s="3">
         <v>67100</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
         <v>-4600</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>43400</v>
       </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
         <v>49100</v>
       </c>
-      <c r="H26" s="3">
+      <c r="I26" s="3">
         <v>47600</v>
       </c>
-      <c r="I26" s="3">
+      <c r="J26" s="3">
         <v>-25800</v>
       </c>
-      <c r="J26" s="3">
+      <c r="K26" s="3">
         <v>-74300</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>16300</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>47400</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>31000</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>2700</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>204800</v>
       </c>
-      <c r="P26" s="3">
+      <c r="Q26" s="3">
         <v>7100</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="R26" s="3">
         <v>-54900</v>
       </c>
-      <c r="R26" s="3">
+      <c r="S26" s="3">
         <v>-56000</v>
       </c>
-      <c r="S26" s="3">
+      <c r="T26" s="3">
         <v>11800</v>
       </c>
-      <c r="T26" s="3">
+      <c r="U26" s="3">
         <v>-3400</v>
       </c>
     </row>
-    <row r="27" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>83200</v>
+      </c>
+      <c r="E27" s="3">
         <v>67100</v>
       </c>
-      <c r="E27" s="3">
+      <c r="F27" s="3">
         <v>-4600</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>43400</v>
       </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
         <v>49100</v>
       </c>
-      <c r="H27" s="3">
+      <c r="I27" s="3">
         <v>47600</v>
       </c>
-      <c r="I27" s="3">
+      <c r="J27" s="3">
         <v>-25800</v>
       </c>
-      <c r="J27" s="3">
+      <c r="K27" s="3">
         <v>-74300</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>16200</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>46100</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>30000</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>2400</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>199800</v>
       </c>
-      <c r="P27" s="3">
+      <c r="Q27" s="3">
         <v>6900</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="R27" s="3">
         <v>-55200</v>
       </c>
-      <c r="R27" s="3">
+      <c r="S27" s="3">
         <v>-56200</v>
       </c>
-      <c r="S27" s="3">
+      <c r="T27" s="3">
         <v>11600</v>
       </c>
-      <c r="T27" s="3">
+      <c r="U27" s="3">
         <v>-3600</v>
       </c>
     </row>
-    <row r="28" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1817,8 +1874,11 @@
       <c r="T28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1837,11 +1897,11 @@
       <c r="H29" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="I29" s="3">
-        <v>0</v>
-      </c>
-      <c r="J29" s="3" t="s">
+      <c r="I29" s="3" t="s">
         <v>17</v>
+      </c>
+      <c r="J29" s="3">
+        <v>0</v>
       </c>
       <c r="K29" s="3" t="s">
         <v>17</v>
@@ -1849,17 +1909,17 @@
       <c r="L29" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="M29" s="3">
+      <c r="M29" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="N29" s="3">
         <v>2500</v>
       </c>
-      <c r="N29" s="3">
-        <v>0</v>
-      </c>
       <c r="O29" s="3">
+        <v>0</v>
+      </c>
+      <c r="P29" s="3">
         <v>-83000</v>
-      </c>
-      <c r="P29" s="3" t="s">
-        <v>17</v>
       </c>
       <c r="Q29" s="3" t="s">
         <v>17</v>
@@ -1873,8 +1933,11 @@
       <c r="T29" s="3" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="30" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U29" s="3" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="30" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1929,8 +1992,11 @@
       <c r="T30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1985,120 +2051,129 @@
       <c r="T31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
+        <v>900</v>
+      </c>
+      <c r="E32" s="3">
         <v>-600</v>
       </c>
-      <c r="E32" s="3">
+      <c r="F32" s="3">
         <v>-3500</v>
       </c>
-      <c r="F32" s="3">
+      <c r="G32" s="3">
         <v>-21700</v>
       </c>
-      <c r="G32" s="3">
+      <c r="H32" s="3">
         <v>-1200</v>
       </c>
-      <c r="H32" s="3">
+      <c r="I32" s="3">
         <v>-5000</v>
       </c>
-      <c r="I32" s="3">
+      <c r="J32" s="3">
         <v>-4100</v>
       </c>
-      <c r="J32" s="3">
+      <c r="K32" s="3">
         <v>-5200</v>
       </c>
-      <c r="K32" s="3">
+      <c r="L32" s="3">
         <v>-14700</v>
       </c>
-      <c r="L32" s="3">
+      <c r="M32" s="3">
         <v>-600</v>
       </c>
-      <c r="M32" s="3">
+      <c r="N32" s="3">
         <v>-11400</v>
       </c>
-      <c r="N32" s="3">
+      <c r="O32" s="3">
         <v>18200</v>
       </c>
-      <c r="O32" s="3">
+      <c r="P32" s="3">
         <v>-9300</v>
       </c>
-      <c r="P32" s="3">
+      <c r="Q32" s="3">
         <v>-5200</v>
       </c>
-      <c r="Q32" s="3">
+      <c r="R32" s="3">
         <v>31500</v>
       </c>
-      <c r="R32" s="3">
+      <c r="S32" s="3">
         <v>58000</v>
       </c>
-      <c r="S32" s="3">
+      <c r="T32" s="3">
         <v>-4600</v>
       </c>
-      <c r="T32" s="3">
+      <c r="U32" s="3">
         <v>22500</v>
       </c>
     </row>
-    <row r="33" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>83200</v>
+      </c>
+      <c r="E33" s="3">
         <v>67100</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
         <v>-4600</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>43400</v>
       </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
         <v>49100</v>
       </c>
-      <c r="H33" s="3">
+      <c r="I33" s="3">
         <v>47600</v>
       </c>
-      <c r="I33" s="3">
+      <c r="J33" s="3">
         <v>-25800</v>
       </c>
-      <c r="J33" s="3">
+      <c r="K33" s="3">
         <v>-74300</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>16200</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>46100</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>32500</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>2400</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>116800</v>
       </c>
-      <c r="P33" s="3">
+      <c r="Q33" s="3">
         <v>6900</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="R33" s="3">
         <v>-55200</v>
       </c>
-      <c r="R33" s="3">
+      <c r="S33" s="3">
         <v>-56200</v>
       </c>
-      <c r="S33" s="3">
+      <c r="T33" s="3">
         <v>11600</v>
       </c>
-      <c r="T33" s="3">
+      <c r="U33" s="3">
         <v>-3600</v>
       </c>
     </row>
-    <row r="34" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2153,125 +2228,134 @@
       <c r="T34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>83200</v>
+      </c>
+      <c r="E35" s="3">
         <v>67100</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
         <v>-4600</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>43400</v>
       </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
         <v>49100</v>
       </c>
-      <c r="H35" s="3">
+      <c r="I35" s="3">
         <v>47600</v>
       </c>
-      <c r="I35" s="3">
+      <c r="J35" s="3">
         <v>-25800</v>
       </c>
-      <c r="J35" s="3">
+      <c r="K35" s="3">
         <v>-74300</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>16200</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>46100</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>32500</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>2400</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>116800</v>
       </c>
-      <c r="P35" s="3">
+      <c r="Q35" s="3">
         <v>6900</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="R35" s="3">
         <v>-55200</v>
       </c>
-      <c r="R35" s="3">
+      <c r="S35" s="3">
         <v>-56200</v>
       </c>
-      <c r="S35" s="3">
+      <c r="T35" s="3">
         <v>11600</v>
       </c>
-      <c r="T35" s="3">
+      <c r="U35" s="3">
         <v>-3600</v>
       </c>
     </row>
-    <row r="37" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:21" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44191</v>
+      </c>
+      <c r="E38" s="2">
         <v>44100</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44009</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>43918</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>43827</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>43736</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>43645</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>43554</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>43463</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>43372</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>43281</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>43190</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>43099</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>43008</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>42917</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>42826</v>
       </c>
-      <c r="S38" s="2">
+      <c r="T38" s="2">
         <v>42735</v>
       </c>
-      <c r="T38" s="2">
+      <c r="U38" s="2">
         <v>42644</v>
       </c>
     </row>
-    <row r="39" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2292,8 +2376,9 @@
       <c r="R39" s="3"/>
       <c r="S39" s="3"/>
       <c r="T39" s="3"/>
-    </row>
-    <row r="40" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U39" s="3"/>
+    </row>
+    <row r="40" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2314,111 +2399,115 @@
       <c r="R40" s="3"/>
       <c r="S40" s="3"/>
       <c r="T40" s="3"/>
-    </row>
-    <row r="41" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U40" s="3"/>
+    </row>
+    <row r="41" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>321300</v>
+      </c>
+      <c r="E41" s="3">
         <v>269500</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>298000</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>688300</v>
       </c>
-      <c r="G41" s="3">
+      <c r="H41" s="3">
         <v>1085000</v>
       </c>
-      <c r="H41" s="3">
+      <c r="I41" s="3">
         <v>539000</v>
       </c>
-      <c r="I41" s="3">
+      <c r="J41" s="3">
         <v>432600</v>
       </c>
-      <c r="J41" s="3">
+      <c r="K41" s="3">
         <v>357300</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>371300</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>459400</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>397300</v>
       </c>
-      <c r="N41" s="3">
+      <c r="O41" s="3">
         <v>176800</v>
       </c>
-      <c r="O41" s="3">
+      <c r="P41" s="3">
         <v>202100</v>
       </c>
-      <c r="P41" s="3">
+      <c r="Q41" s="3">
         <v>150800</v>
       </c>
-      <c r="Q41" s="3">
+      <c r="R41" s="3">
         <v>272900</v>
       </c>
-      <c r="R41" s="3">
+      <c r="S41" s="3">
         <v>577900</v>
       </c>
-      <c r="S41" s="3">
+      <c r="T41" s="3">
         <v>155900</v>
       </c>
-      <c r="T41" s="3">
+      <c r="U41" s="3">
         <v>166800</v>
       </c>
     </row>
-    <row r="42" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
       <c r="D42" s="3">
+        <v>1379000</v>
+      </c>
+      <c r="E42" s="3">
         <v>1341200</v>
       </c>
-      <c r="E42" s="3">
+      <c r="F42" s="3">
         <v>1255800</v>
       </c>
-      <c r="F42" s="3">
+      <c r="G42" s="3">
         <v>763100</v>
       </c>
-      <c r="G42" s="3">
+      <c r="H42" s="3">
         <v>230600</v>
       </c>
-      <c r="H42" s="3">
+      <c r="I42" s="3">
         <v>291900</v>
       </c>
-      <c r="I42" s="3">
+      <c r="J42" s="3">
         <v>335900</v>
       </c>
-      <c r="J42" s="3">
+      <c r="K42" s="3">
         <v>340200</v>
       </c>
-      <c r="K42" s="3">
+      <c r="L42" s="3">
         <v>312800</v>
       </c>
-      <c r="L42" s="3">
+      <c r="M42" s="3">
         <v>274900</v>
       </c>
-      <c r="M42" s="3">
+      <c r="N42" s="3">
         <v>314200</v>
       </c>
-      <c r="N42" s="3">
+      <c r="O42" s="3">
         <v>516000</v>
       </c>
-      <c r="O42" s="3">
+      <c r="P42" s="3">
         <v>422400</v>
       </c>
-      <c r="P42" s="3">
+      <c r="Q42" s="3">
         <v>381700</v>
       </c>
-      <c r="Q42" s="3">
+      <c r="R42" s="3">
         <v>282400</v>
-      </c>
-      <c r="R42" s="3" t="s">
-        <v>17</v>
       </c>
       <c r="S42" s="3" t="s">
         <v>17</v>
@@ -2426,232 +2515,247 @@
       <c r="T42" s="3" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="43" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U42" s="3" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="43" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
+        <v>276700</v>
+      </c>
+      <c r="E43" s="3">
         <v>263600</v>
       </c>
-      <c r="E43" s="3">
+      <c r="F43" s="3">
         <v>233500</v>
       </c>
-      <c r="F43" s="3">
+      <c r="G43" s="3">
         <v>303100</v>
       </c>
-      <c r="G43" s="3">
+      <c r="H43" s="3">
         <v>343600</v>
       </c>
-      <c r="H43" s="3">
+      <c r="I43" s="3">
         <v>339600</v>
       </c>
-      <c r="I43" s="3">
+      <c r="J43" s="3">
         <v>286200</v>
       </c>
-      <c r="J43" s="3">
+      <c r="K43" s="3">
         <v>329700</v>
       </c>
-      <c r="K43" s="3">
+      <c r="L43" s="3">
         <v>266500</v>
       </c>
-      <c r="L43" s="3">
+      <c r="M43" s="3">
         <v>239600</v>
       </c>
-      <c r="M43" s="3">
+      <c r="N43" s="3">
         <v>197100</v>
       </c>
-      <c r="N43" s="3">
+      <c r="O43" s="3">
         <v>164700</v>
       </c>
-      <c r="O43" s="3">
+      <c r="P43" s="3">
         <v>222100</v>
       </c>
-      <c r="P43" s="3">
+      <c r="Q43" s="3">
         <v>173800</v>
       </c>
-      <c r="Q43" s="3">
+      <c r="R43" s="3">
         <v>166300</v>
       </c>
-      <c r="R43" s="3">
+      <c r="S43" s="3">
         <v>185400</v>
       </c>
-      <c r="S43" s="3">
+      <c r="T43" s="3">
         <v>192500</v>
       </c>
-      <c r="T43" s="3">
+      <c r="U43" s="3">
         <v>156500</v>
       </c>
     </row>
-    <row r="44" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
+        <v>207100</v>
+      </c>
+      <c r="E44" s="3">
         <v>212600</v>
       </c>
-      <c r="E44" s="3">
+      <c r="F44" s="3">
         <v>188900</v>
       </c>
-      <c r="F44" s="3">
+      <c r="G44" s="3">
         <v>172700</v>
       </c>
-      <c r="G44" s="3">
+      <c r="H44" s="3">
         <v>179600</v>
       </c>
-      <c r="H44" s="3">
+      <c r="I44" s="3">
         <v>202200</v>
       </c>
-      <c r="I44" s="3">
+      <c r="J44" s="3">
         <v>228800</v>
       </c>
-      <c r="J44" s="3">
+      <c r="K44" s="3">
         <v>272200</v>
       </c>
-      <c r="K44" s="3">
+      <c r="L44" s="3">
         <v>303200</v>
       </c>
-      <c r="L44" s="3">
+      <c r="M44" s="3">
         <v>136600</v>
       </c>
-      <c r="M44" s="3">
+      <c r="N44" s="3">
         <v>153600</v>
       </c>
-      <c r="N44" s="3">
+      <c r="O44" s="3">
         <v>144200</v>
       </c>
-      <c r="O44" s="3">
+      <c r="P44" s="3">
         <v>147300</v>
       </c>
-      <c r="P44" s="3">
+      <c r="Q44" s="3">
         <v>147200</v>
       </c>
-      <c r="Q44" s="3">
+      <c r="R44" s="3">
         <v>145200</v>
       </c>
-      <c r="R44" s="3">
+      <c r="S44" s="3">
         <v>116900</v>
       </c>
-      <c r="S44" s="3">
+      <c r="T44" s="3">
         <v>121000</v>
       </c>
-      <c r="T44" s="3">
+      <c r="U44" s="3">
         <v>103700</v>
       </c>
     </row>
-    <row r="45" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="45" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
+        <v>82100</v>
+      </c>
+      <c r="E45" s="3">
         <v>79800</v>
       </c>
-      <c r="E45" s="3">
+      <c r="F45" s="3">
         <v>73800</v>
       </c>
-      <c r="F45" s="3">
+      <c r="G45" s="3">
         <v>35800</v>
       </c>
-      <c r="G45" s="3">
+      <c r="H45" s="3">
         <v>44200</v>
       </c>
-      <c r="H45" s="3">
+      <c r="I45" s="3">
         <v>50500</v>
       </c>
-      <c r="I45" s="3">
+      <c r="J45" s="3">
         <v>49300</v>
       </c>
-      <c r="J45" s="3">
+      <c r="K45" s="3">
         <v>118700</v>
       </c>
-      <c r="K45" s="3">
+      <c r="L45" s="3">
         <v>103100</v>
       </c>
-      <c r="L45" s="3">
+      <c r="M45" s="3">
         <v>70600</v>
       </c>
-      <c r="M45" s="3">
+      <c r="N45" s="3">
         <v>65000</v>
       </c>
-      <c r="N45" s="3">
+      <c r="O45" s="3">
         <v>63000</v>
       </c>
-      <c r="O45" s="3">
+      <c r="P45" s="3">
         <v>59900</v>
       </c>
-      <c r="P45" s="3">
+      <c r="Q45" s="3">
         <v>69000</v>
       </c>
-      <c r="Q45" s="3">
+      <c r="R45" s="3">
         <v>63500</v>
       </c>
-      <c r="R45" s="3">
+      <c r="S45" s="3">
         <v>61400</v>
       </c>
-      <c r="S45" s="3">
+      <c r="T45" s="3">
         <v>58200</v>
       </c>
-      <c r="T45" s="3">
+      <c r="U45" s="3">
         <v>62300</v>
       </c>
     </row>
-    <row r="46" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="46" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>2266200</v>
+      </c>
+      <c r="E46" s="3">
         <v>2166700</v>
       </c>
-      <c r="E46" s="3">
+      <c r="F46" s="3">
         <v>2050000</v>
       </c>
-      <c r="F46" s="3">
+      <c r="G46" s="3">
         <v>1963000</v>
       </c>
-      <c r="G46" s="3">
+      <c r="H46" s="3">
         <v>1883000</v>
       </c>
-      <c r="H46" s="3">
+      <c r="I46" s="3">
         <v>1423200</v>
       </c>
-      <c r="I46" s="3">
+      <c r="J46" s="3">
         <v>1332800</v>
       </c>
-      <c r="J46" s="3">
+      <c r="K46" s="3">
         <v>1418100</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>1356900</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>1181100</v>
       </c>
-      <c r="M46" s="3">
+      <c r="N46" s="3">
         <v>1127200</v>
       </c>
-      <c r="N46" s="3">
+      <c r="O46" s="3">
         <v>1064700</v>
       </c>
-      <c r="O46" s="3">
+      <c r="P46" s="3">
         <v>1053800</v>
       </c>
-      <c r="P46" s="3">
+      <c r="Q46" s="3">
         <v>922500</v>
       </c>
-      <c r="Q46" s="3">
+      <c r="R46" s="3">
         <v>930300</v>
       </c>
-      <c r="R46" s="3">
+      <c r="S46" s="3">
         <v>941600</v>
       </c>
-      <c r="S46" s="3">
+      <c r="T46" s="3">
         <v>527600</v>
       </c>
-      <c r="T46" s="3">
+      <c r="U46" s="3">
         <v>489300</v>
       </c>
     </row>
-    <row r="47" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -2706,120 +2810,129 @@
       <c r="T47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>457600</v>
+      </c>
+      <c r="E48" s="3">
         <v>468100</v>
       </c>
-      <c r="E48" s="3">
+      <c r="F48" s="3">
         <v>471700</v>
       </c>
-      <c r="F48" s="3">
+      <c r="G48" s="3">
         <v>491800</v>
       </c>
-      <c r="G48" s="3">
+      <c r="H48" s="3">
         <v>505700</v>
       </c>
-      <c r="H48" s="3">
+      <c r="I48" s="3">
         <v>524900</v>
       </c>
-      <c r="I48" s="3">
+      <c r="J48" s="3">
         <v>433300</v>
       </c>
-      <c r="J48" s="3">
+      <c r="K48" s="3">
         <v>390600</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>444700</v>
       </c>
-      <c r="L48" s="3">
+      <c r="M48" s="3">
         <v>318600</v>
       </c>
-      <c r="M48" s="3">
+      <c r="N48" s="3">
         <v>280600</v>
       </c>
-      <c r="N48" s="3">
+      <c r="O48" s="3">
         <v>264500</v>
       </c>
-      <c r="O48" s="3">
+      <c r="P48" s="3">
         <v>301300</v>
       </c>
-      <c r="P48" s="3">
+      <c r="Q48" s="3">
         <v>293700</v>
       </c>
-      <c r="Q48" s="3">
+      <c r="R48" s="3">
         <v>273500</v>
       </c>
-      <c r="R48" s="3">
+      <c r="S48" s="3">
         <v>246600</v>
       </c>
-      <c r="S48" s="3">
+      <c r="T48" s="3">
         <v>219600</v>
       </c>
-      <c r="T48" s="3">
+      <c r="U48" s="3">
         <v>196000</v>
       </c>
     </row>
-    <row r="49" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="49" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
+        <v>654100</v>
+      </c>
+      <c r="E49" s="3">
         <v>665000</v>
       </c>
-      <c r="E49" s="3">
+      <c r="F49" s="3">
         <v>685700</v>
       </c>
-      <c r="F49" s="3">
+      <c r="G49" s="3">
         <v>706900</v>
       </c>
-      <c r="G49" s="3">
+      <c r="H49" s="3">
         <v>726900</v>
       </c>
-      <c r="H49" s="3">
+      <c r="I49" s="3">
         <v>745500</v>
       </c>
-      <c r="I49" s="3">
+      <c r="J49" s="3">
         <v>764300</v>
       </c>
-      <c r="J49" s="3">
+      <c r="K49" s="3">
         <v>772100</v>
       </c>
-      <c r="K49" s="3">
+      <c r="L49" s="3">
         <v>789700</v>
       </c>
-      <c r="L49" s="3">
+      <c r="M49" s="3">
         <v>17600</v>
       </c>
-      <c r="M49" s="3">
+      <c r="N49" s="3">
         <v>44600</v>
       </c>
-      <c r="N49" s="3">
+      <c r="O49" s="3">
         <v>57200</v>
       </c>
-      <c r="O49" s="3">
+      <c r="P49" s="3">
         <v>20400</v>
       </c>
-      <c r="P49" s="3">
+      <c r="Q49" s="3">
         <v>21000</v>
       </c>
-      <c r="Q49" s="3">
+      <c r="R49" s="3">
         <v>21500</v>
       </c>
-      <c r="R49" s="3">
+      <c r="S49" s="3">
         <v>22300</v>
       </c>
-      <c r="S49" s="3">
+      <c r="T49" s="3">
         <v>16000</v>
       </c>
-      <c r="T49" s="3">
+      <c r="U49" s="3">
         <v>18100</v>
       </c>
     </row>
-    <row r="50" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="50" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2874,8 +2987,11 @@
       <c r="T50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2930,64 +3046,70 @@
       <c r="T51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
+        <v>90300</v>
+      </c>
+      <c r="E52" s="3">
         <v>87600</v>
       </c>
-      <c r="E52" s="3">
+      <c r="F52" s="3">
         <v>85200</v>
       </c>
-      <c r="F52" s="3">
+      <c r="G52" s="3">
         <v>107000</v>
       </c>
-      <c r="G52" s="3">
+      <c r="H52" s="3">
         <v>105600</v>
       </c>
-      <c r="H52" s="3">
+      <c r="I52" s="3">
         <v>174200</v>
       </c>
-      <c r="I52" s="3">
+      <c r="J52" s="3">
         <v>186200</v>
       </c>
-      <c r="J52" s="3">
+      <c r="K52" s="3">
         <v>190600</v>
       </c>
-      <c r="K52" s="3">
+      <c r="L52" s="3">
         <v>205300</v>
       </c>
-      <c r="L52" s="3">
+      <c r="M52" s="3">
         <v>127700</v>
       </c>
-      <c r="M52" s="3">
+      <c r="N52" s="3">
         <v>129100</v>
       </c>
-      <c r="N52" s="3">
+      <c r="O52" s="3">
         <v>131800</v>
       </c>
-      <c r="O52" s="3">
+      <c r="P52" s="3">
         <v>131900</v>
       </c>
-      <c r="P52" s="3">
+      <c r="Q52" s="3">
         <v>11200</v>
       </c>
-      <c r="Q52" s="3">
+      <c r="R52" s="3">
         <v>7600</v>
       </c>
-      <c r="R52" s="3">
+      <c r="S52" s="3">
         <v>34000</v>
       </c>
-      <c r="S52" s="3">
+      <c r="T52" s="3">
         <v>33500</v>
       </c>
-      <c r="T52" s="3">
+      <c r="U52" s="3">
         <v>34100</v>
       </c>
     </row>
-    <row r="53" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="53" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -3042,64 +3164,70 @@
       <c r="T53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>3468200</v>
+      </c>
+      <c r="E54" s="3">
         <v>3387400</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>3292600</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>3268700</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>3221200</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>2867800</v>
       </c>
-      <c r="I54" s="3">
+      <c r="J54" s="3">
         <v>2716600</v>
       </c>
-      <c r="J54" s="3">
+      <c r="K54" s="3">
         <v>2771400</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>2796600</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>1645000</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>1581500</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>1518200</v>
       </c>
-      <c r="O54" s="3">
+      <c r="P54" s="3">
         <v>1507400</v>
       </c>
-      <c r="P54" s="3">
+      <c r="Q54" s="3">
         <v>1248400</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="R54" s="3">
         <v>1232900</v>
       </c>
-      <c r="R54" s="3">
+      <c r="S54" s="3">
         <v>1244500</v>
       </c>
-      <c r="S54" s="3">
+      <c r="T54" s="3">
         <v>796700</v>
       </c>
-      <c r="T54" s="3">
+      <c r="U54" s="3">
         <v>737500</v>
       </c>
     </row>
-    <row r="55" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -3120,8 +3248,9 @@
       <c r="R55" s="3"/>
       <c r="S55" s="3"/>
       <c r="T55" s="3"/>
-    </row>
-    <row r="56" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U55" s="3"/>
+    </row>
+    <row r="56" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -3142,108 +3271,112 @@
       <c r="R56" s="3"/>
       <c r="S56" s="3"/>
       <c r="T56" s="3"/>
-    </row>
-    <row r="57" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U56" s="3"/>
+    </row>
+    <row r="57" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>111300</v>
+      </c>
+      <c r="E57" s="3">
         <v>146000</v>
       </c>
-      <c r="E57" s="3">
+      <c r="F57" s="3">
         <v>150800</v>
       </c>
-      <c r="F57" s="3">
+      <c r="G57" s="3">
         <v>144600</v>
       </c>
-      <c r="G57" s="3">
+      <c r="H57" s="3">
         <v>143700</v>
       </c>
-      <c r="H57" s="3">
+      <c r="I57" s="3">
         <v>152200</v>
       </c>
-      <c r="I57" s="3">
+      <c r="J57" s="3">
         <v>160800</v>
       </c>
-      <c r="J57" s="3">
+      <c r="K57" s="3">
         <v>204100</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>199200</v>
       </c>
-      <c r="L57" s="3">
+      <c r="M57" s="3">
         <v>127600</v>
       </c>
-      <c r="M57" s="3">
+      <c r="N57" s="3">
         <v>126500</v>
       </c>
-      <c r="N57" s="3">
+      <c r="O57" s="3">
         <v>100900</v>
       </c>
-      <c r="O57" s="3">
+      <c r="P57" s="3">
         <v>113000</v>
       </c>
-      <c r="P57" s="3">
+      <c r="Q57" s="3">
         <v>111600</v>
       </c>
-      <c r="Q57" s="3">
+      <c r="R57" s="3">
         <v>114800</v>
       </c>
-      <c r="R57" s="3">
+      <c r="S57" s="3">
         <v>118400</v>
       </c>
-      <c r="S57" s="3">
+      <c r="T57" s="3">
         <v>127800</v>
       </c>
-      <c r="T57" s="3">
+      <c r="U57" s="3">
         <v>108300</v>
       </c>
     </row>
-    <row r="58" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
+        <v>380600</v>
+      </c>
+      <c r="E58" s="3">
         <v>400</v>
       </c>
-      <c r="E58" s="3">
+      <c r="F58" s="3">
         <v>600</v>
       </c>
-      <c r="F58" s="3">
+      <c r="G58" s="3">
         <v>3900</v>
       </c>
-      <c r="G58" s="3">
+      <c r="H58" s="3">
         <v>7100</v>
       </c>
-      <c r="H58" s="3">
+      <c r="I58" s="3">
         <v>15900</v>
       </c>
-      <c r="I58" s="3">
+      <c r="J58" s="3">
         <v>5400</v>
       </c>
-      <c r="J58" s="3">
+      <c r="K58" s="3">
         <v>5800</v>
       </c>
-      <c r="K58" s="3">
+      <c r="L58" s="3">
         <v>8700</v>
       </c>
-      <c r="L58" s="3">
+      <c r="M58" s="3">
         <v>5400</v>
       </c>
-      <c r="M58" s="3">
+      <c r="N58" s="3">
         <v>7300</v>
       </c>
-      <c r="N58" s="3">
+      <c r="O58" s="3">
         <v>9200</v>
       </c>
-      <c r="O58" s="3">
+      <c r="P58" s="3">
         <v>9100</v>
       </c>
-      <c r="P58" s="3">
+      <c r="Q58" s="3">
         <v>4900</v>
-      </c>
-      <c r="Q58" s="3" t="s">
-        <v>17</v>
       </c>
       <c r="R58" s="3" t="s">
         <v>17</v>
@@ -3254,232 +3387,247 @@
       <c r="T58" s="3" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="59" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U58" s="3" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="59" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>155400</v>
+      </c>
+      <c r="E59" s="3">
         <v>147000</v>
       </c>
-      <c r="E59" s="3">
+      <c r="F59" s="3">
         <v>131600</v>
       </c>
-      <c r="F59" s="3">
+      <c r="G59" s="3">
         <v>138200</v>
       </c>
-      <c r="G59" s="3">
+      <c r="H59" s="3">
         <v>153400</v>
       </c>
-      <c r="H59" s="3">
+      <c r="I59" s="3">
         <v>148700</v>
       </c>
-      <c r="I59" s="3">
+      <c r="J59" s="3">
         <v>127800</v>
       </c>
-      <c r="J59" s="3">
+      <c r="K59" s="3">
         <v>148100</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>117600</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>80900</v>
       </c>
-      <c r="M59" s="3">
+      <c r="N59" s="3">
         <v>80200</v>
       </c>
-      <c r="N59" s="3">
+      <c r="O59" s="3">
         <v>81400</v>
       </c>
-      <c r="O59" s="3">
+      <c r="P59" s="3">
         <v>95600</v>
       </c>
-      <c r="P59" s="3">
+      <c r="Q59" s="3">
         <v>60700</v>
       </c>
-      <c r="Q59" s="3">
+      <c r="R59" s="3">
         <v>69400</v>
       </c>
-      <c r="R59" s="3">
+      <c r="S59" s="3">
         <v>73700</v>
       </c>
-      <c r="S59" s="3">
+      <c r="T59" s="3">
         <v>74200</v>
       </c>
-      <c r="T59" s="3">
+      <c r="U59" s="3">
         <v>55200</v>
       </c>
     </row>
-    <row r="60" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>647300</v>
+      </c>
+      <c r="E60" s="3">
         <v>293400</v>
       </c>
-      <c r="E60" s="3">
+      <c r="F60" s="3">
         <v>283000</v>
       </c>
-      <c r="F60" s="3">
+      <c r="G60" s="3">
         <v>286700</v>
       </c>
-      <c r="G60" s="3">
+      <c r="H60" s="3">
         <v>304200</v>
       </c>
-      <c r="H60" s="3">
+      <c r="I60" s="3">
         <v>316800</v>
       </c>
-      <c r="I60" s="3">
+      <c r="J60" s="3">
         <v>294000</v>
       </c>
-      <c r="J60" s="3">
+      <c r="K60" s="3">
         <v>358000</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>325500</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>213900</v>
       </c>
-      <c r="M60" s="3">
+      <c r="N60" s="3">
         <v>214000</v>
       </c>
-      <c r="N60" s="3">
+      <c r="O60" s="3">
         <v>191500</v>
       </c>
-      <c r="O60" s="3">
+      <c r="P60" s="3">
         <v>217700</v>
       </c>
-      <c r="P60" s="3">
+      <c r="Q60" s="3">
         <v>177200</v>
       </c>
-      <c r="Q60" s="3">
+      <c r="R60" s="3">
         <v>184200</v>
       </c>
-      <c r="R60" s="3">
+      <c r="S60" s="3">
         <v>192100</v>
       </c>
-      <c r="S60" s="3">
+      <c r="T60" s="3">
         <v>202000</v>
       </c>
-      <c r="T60" s="3">
+      <c r="U60" s="3">
         <v>163500</v>
       </c>
     </row>
-    <row r="61" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
+        <v>769100</v>
+      </c>
+      <c r="E61" s="3">
         <v>1134700</v>
       </c>
-      <c r="E61" s="3">
+      <c r="F61" s="3">
         <v>1120300</v>
       </c>
-      <c r="F61" s="3">
+      <c r="G61" s="3">
         <v>1106100</v>
       </c>
-      <c r="G61" s="3">
+      <c r="H61" s="3">
         <v>1092200</v>
       </c>
-      <c r="H61" s="3">
+      <c r="I61" s="3">
         <v>840000</v>
       </c>
-      <c r="I61" s="3">
+      <c r="J61" s="3">
         <v>835900</v>
       </c>
-      <c r="J61" s="3">
+      <c r="K61" s="3">
         <v>832400</v>
       </c>
-      <c r="K61" s="3">
+      <c r="L61" s="3">
         <v>829200</v>
       </c>
-      <c r="L61" s="3">
+      <c r="M61" s="3">
         <v>338500</v>
       </c>
-      <c r="M61" s="3">
+      <c r="N61" s="3">
         <v>334600</v>
       </c>
-      <c r="N61" s="3">
+      <c r="O61" s="3">
         <v>330700</v>
       </c>
-      <c r="O61" s="3">
+      <c r="P61" s="3">
         <v>328800</v>
       </c>
-      <c r="P61" s="3">
+      <c r="Q61" s="3">
         <v>324000</v>
       </c>
-      <c r="Q61" s="3">
+      <c r="R61" s="3">
         <v>317500</v>
       </c>
-      <c r="R61" s="3">
+      <c r="S61" s="3">
         <v>313400</v>
       </c>
-      <c r="S61" s="3">
-        <v>0</v>
-      </c>
       <c r="T61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
+        <v>129900</v>
+      </c>
+      <c r="E62" s="3">
         <v>143200</v>
       </c>
-      <c r="E62" s="3">
+      <c r="F62" s="3">
         <v>140100</v>
       </c>
-      <c r="F62" s="3">
+      <c r="G62" s="3">
         <v>141700</v>
       </c>
-      <c r="G62" s="3">
+      <c r="H62" s="3">
         <v>143200</v>
       </c>
-      <c r="H62" s="3">
+      <c r="I62" s="3">
         <v>149700</v>
       </c>
-      <c r="I62" s="3">
+      <c r="J62" s="3">
         <v>89600</v>
       </c>
-      <c r="J62" s="3">
+      <c r="K62" s="3">
         <v>77100</v>
       </c>
-      <c r="K62" s="3">
+      <c r="L62" s="3">
         <v>82200</v>
       </c>
-      <c r="L62" s="3">
+      <c r="M62" s="3">
         <v>73300</v>
       </c>
-      <c r="M62" s="3">
+      <c r="N62" s="3">
         <v>71000</v>
       </c>
-      <c r="N62" s="3">
+      <c r="O62" s="3">
         <v>83600</v>
       </c>
-      <c r="O62" s="3">
+      <c r="P62" s="3">
         <v>60800</v>
       </c>
-      <c r="P62" s="3">
+      <c r="Q62" s="3">
         <v>70300</v>
       </c>
-      <c r="Q62" s="3">
+      <c r="R62" s="3">
         <v>76600</v>
       </c>
-      <c r="R62" s="3">
+      <c r="S62" s="3">
         <v>234600</v>
-      </c>
-      <c r="S62" s="3">
-        <v>42500</v>
       </c>
       <c r="T62" s="3">
         <v>42500</v>
       </c>
-    </row>
-    <row r="63" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U62" s="3">
+        <v>42500</v>
+      </c>
+    </row>
+    <row r="63" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -3534,8 +3682,11 @@
       <c r="T63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -3590,8 +3741,11 @@
       <c r="T64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -3646,64 +3800,70 @@
       <c r="T65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>1546300</v>
+      </c>
+      <c r="E66" s="3">
         <v>1571300</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>1543400</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>1534500</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>1539600</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>1306500</v>
       </c>
-      <c r="I66" s="3">
+      <c r="J66" s="3">
         <v>1219500</v>
       </c>
-      <c r="J66" s="3">
+      <c r="K66" s="3">
         <v>1267500</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>1236900</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>661500</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>655400</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>641600</v>
       </c>
-      <c r="O66" s="3">
+      <c r="P66" s="3">
         <v>643100</v>
       </c>
-      <c r="P66" s="3">
+      <c r="Q66" s="3">
         <v>607300</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="R66" s="3">
         <v>614100</v>
       </c>
-      <c r="R66" s="3">
+      <c r="S66" s="3">
         <v>775900</v>
       </c>
-      <c r="S66" s="3">
+      <c r="T66" s="3">
         <v>280300</v>
       </c>
-      <c r="T66" s="3">
+      <c r="U66" s="3">
         <v>241800</v>
       </c>
     </row>
-    <row r="67" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -3724,8 +3884,9 @@
       <c r="R67" s="3"/>
       <c r="S67" s="3"/>
       <c r="T67" s="3"/>
-    </row>
-    <row r="68" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U67" s="3"/>
+    </row>
+    <row r="68" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -3780,8 +3941,11 @@
       <c r="T68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -3836,8 +4000,11 @@
       <c r="T69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -3892,8 +4059,11 @@
       <c r="T70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -3948,64 +4118,70 @@
       <c r="T71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>214900</v>
+      </c>
+      <c r="E72" s="3">
         <v>131700</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>64600</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>69200</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>25800</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>176700</v>
       </c>
-      <c r="I72" s="3">
+      <c r="J72" s="3">
         <v>129100</v>
       </c>
-      <c r="J72" s="3">
+      <c r="K72" s="3">
         <v>154900</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>229200</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>213000</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>166400</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>133200</v>
       </c>
-      <c r="O72" s="3">
+      <c r="P72" s="3">
         <v>130700</v>
       </c>
-      <c r="P72" s="3">
+      <c r="Q72" s="3">
         <v>-73900</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="R72" s="3">
         <v>-83200</v>
       </c>
-      <c r="R72" s="3">
+      <c r="S72" s="3">
         <v>-28000</v>
       </c>
-      <c r="S72" s="3">
+      <c r="T72" s="3">
         <v>28200</v>
       </c>
-      <c r="T72" s="3">
+      <c r="U72" s="3">
         <v>16600</v>
       </c>
     </row>
-    <row r="73" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -4060,8 +4236,11 @@
       <c r="T73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -4116,8 +4295,11 @@
       <c r="T74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -4172,64 +4354,70 @@
       <c r="T75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>1921900</v>
+      </c>
+      <c r="E76" s="3">
         <v>1816100</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>1749200</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>1734200</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>1681600</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>1561300</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>1497100</v>
       </c>
-      <c r="J76" s="3">
+      <c r="K76" s="3">
         <v>1503900</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>1559700</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>983500</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>926100</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>876600</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>864300</v>
       </c>
-      <c r="P76" s="3">
+      <c r="Q76" s="3">
         <v>641100</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="R76" s="3">
         <v>618800</v>
       </c>
-      <c r="R76" s="3">
+      <c r="S76" s="3">
         <v>468600</v>
       </c>
-      <c r="S76" s="3">
+      <c r="T76" s="3">
         <v>516400</v>
       </c>
-      <c r="T76" s="3">
+      <c r="U76" s="3">
         <v>495700</v>
       </c>
     </row>
-    <row r="77" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -4284,125 +4472,134 @@
       <c r="T77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:21" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44191</v>
+      </c>
+      <c r="E80" s="2">
         <v>44100</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44009</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>43918</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>43827</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>43736</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>43645</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>43554</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>43463</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>43372</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>43281</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>43190</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>43099</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>43008</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>42917</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>42826</v>
       </c>
-      <c r="S80" s="2">
+      <c r="T80" s="2">
         <v>42735</v>
       </c>
-      <c r="T80" s="2">
+      <c r="U80" s="2">
         <v>42644</v>
       </c>
     </row>
-    <row r="81" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>83200</v>
+      </c>
+      <c r="E81" s="3">
         <v>67100</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="3">
         <v>-4600</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>43400</v>
       </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
         <v>49100</v>
       </c>
-      <c r="H81" s="3">
+      <c r="I81" s="3">
         <v>47600</v>
       </c>
-      <c r="I81" s="3">
+      <c r="J81" s="3">
         <v>-25800</v>
       </c>
-      <c r="J81" s="3">
+      <c r="K81" s="3">
         <v>-74300</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>16200</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>46100</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>32500</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>2400</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>116800</v>
       </c>
-      <c r="P81" s="3">
+      <c r="Q81" s="3">
         <v>6900</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="R81" s="3">
         <v>-55200</v>
       </c>
-      <c r="R81" s="3">
+      <c r="S81" s="3">
         <v>-56200</v>
       </c>
-      <c r="S81" s="3">
+      <c r="T81" s="3">
         <v>11600</v>
       </c>
-      <c r="T81" s="3">
+      <c r="U81" s="3">
         <v>-3600</v>
       </c>
     </row>
-    <row r="82" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -4423,64 +4620,68 @@
       <c r="R82" s="3"/>
       <c r="S82" s="3"/>
       <c r="T82" s="3"/>
-    </row>
-    <row r="83" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U82" s="3"/>
+    </row>
+    <row r="83" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
+        <v>44700</v>
+      </c>
+      <c r="E83" s="3">
         <v>44500</v>
       </c>
-      <c r="E83" s="3">
+      <c r="F83" s="3">
         <v>46700</v>
       </c>
-      <c r="F83" s="3">
+      <c r="G83" s="3">
         <v>47500</v>
       </c>
-      <c r="G83" s="3">
+      <c r="H83" s="3">
         <v>47300</v>
       </c>
-      <c r="H83" s="3">
+      <c r="I83" s="3">
         <v>50400</v>
       </c>
-      <c r="I83" s="3">
+      <c r="J83" s="3">
         <v>45100</v>
       </c>
-      <c r="J83" s="3">
+      <c r="K83" s="3">
         <v>60700</v>
       </c>
-      <c r="K83" s="3">
+      <c r="L83" s="3">
         <v>31200</v>
       </c>
-      <c r="L83" s="3">
+      <c r="M83" s="3">
         <v>20500</v>
       </c>
-      <c r="M83" s="3">
+      <c r="N83" s="3">
         <v>21500</v>
       </c>
-      <c r="N83" s="3">
+      <c r="O83" s="3">
         <v>19200</v>
       </c>
-      <c r="O83" s="3">
+      <c r="P83" s="3">
         <v>19000</v>
       </c>
-      <c r="P83" s="3">
+      <c r="Q83" s="3">
         <v>17500</v>
       </c>
-      <c r="Q83" s="3">
+      <c r="R83" s="3">
         <v>16500</v>
       </c>
-      <c r="R83" s="3">
+      <c r="S83" s="3">
         <v>15900</v>
       </c>
-      <c r="S83" s="3">
+      <c r="T83" s="3">
         <v>14900</v>
       </c>
-      <c r="T83" s="3">
+      <c r="U83" s="3">
         <v>13700</v>
       </c>
     </row>
-    <row r="84" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="84" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -4535,8 +4736,11 @@
       <c r="T84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -4591,8 +4795,11 @@
       <c r="T85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -4647,8 +4854,11 @@
       <c r="T86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -4703,8 +4913,11 @@
       <c r="T87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -4759,64 +4972,70 @@
       <c r="T88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>128500</v>
+      </c>
+      <c r="E89" s="3">
         <v>104700</v>
       </c>
-      <c r="E89" s="3">
+      <c r="F89" s="3">
         <v>122700</v>
       </c>
-      <c r="F89" s="3">
+      <c r="G89" s="3">
         <v>151800</v>
       </c>
-      <c r="G89" s="3">
+      <c r="H89" s="3">
         <v>162300</v>
       </c>
-      <c r="H89" s="3">
+      <c r="I89" s="3">
         <v>87500</v>
       </c>
-      <c r="I89" s="3">
+      <c r="J89" s="3">
         <v>127700</v>
       </c>
-      <c r="J89" s="3">
+      <c r="K89" s="3">
         <v>42800</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>102400</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>57200</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>37600</v>
       </c>
-      <c r="N89" s="3">
+      <c r="O89" s="3">
         <v>95100</v>
       </c>
-      <c r="O89" s="3">
+      <c r="P89" s="3">
         <v>105100</v>
       </c>
-      <c r="P89" s="3">
+      <c r="Q89" s="3">
         <v>9700</v>
       </c>
-      <c r="Q89" s="3">
+      <c r="R89" s="3">
         <v>13100</v>
       </c>
-      <c r="R89" s="3">
+      <c r="S89" s="3">
         <v>16400</v>
       </c>
-      <c r="S89" s="3">
+      <c r="T89" s="3">
         <v>19200</v>
       </c>
-      <c r="T89" s="3">
+      <c r="U89" s="3">
         <v>36300</v>
       </c>
     </row>
-    <row r="90" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -4837,64 +5056,68 @@
       <c r="R90" s="3"/>
       <c r="S90" s="3"/>
       <c r="T90" s="3"/>
-    </row>
-    <row r="91" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U90" s="3"/>
+    </row>
+    <row r="91" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
+        <v>16300</v>
+      </c>
+      <c r="E91" s="3">
         <v>-26300</v>
       </c>
-      <c r="E91" s="3">
-        <v>0</v>
-      </c>
       <c r="F91" s="3">
+        <v>0</v>
+      </c>
+      <c r="G91" s="3">
         <v>-1000</v>
       </c>
-      <c r="G91" s="3">
+      <c r="H91" s="3">
         <v>-2000</v>
       </c>
-      <c r="H91" s="3">
+      <c r="I91" s="3">
         <v>-1000</v>
       </c>
-      <c r="I91" s="3">
-        <v>0</v>
-      </c>
       <c r="J91" s="3">
+        <v>0</v>
+      </c>
+      <c r="K91" s="3">
         <v>-600</v>
       </c>
-      <c r="K91" s="3">
-        <v>0</v>
-      </c>
       <c r="L91" s="3">
+        <v>0</v>
+      </c>
+      <c r="M91" s="3">
         <v>-700</v>
       </c>
-      <c r="M91" s="3">
+      <c r="N91" s="3">
         <v>-20300</v>
       </c>
-      <c r="N91" s="3">
+      <c r="O91" s="3">
         <v>-22700</v>
       </c>
-      <c r="O91" s="3">
+      <c r="P91" s="3">
         <v>-17200</v>
       </c>
-      <c r="P91" s="3">
+      <c r="Q91" s="3">
         <v>-33000</v>
       </c>
-      <c r="Q91" s="3">
+      <c r="R91" s="3">
         <v>-38100</v>
       </c>
-      <c r="R91" s="3">
+      <c r="S91" s="3">
         <v>-35700</v>
       </c>
-      <c r="S91" s="3">
+      <c r="T91" s="3">
         <v>-35400</v>
       </c>
-      <c r="T91" s="3">
+      <c r="U91" s="3">
         <v>-28900</v>
       </c>
     </row>
-    <row r="92" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="92" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -4949,8 +5172,11 @@
       <c r="T92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -5005,64 +5231,70 @@
       <c r="T93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
+        <v>-75000</v>
+      </c>
+      <c r="E94" s="3">
         <v>-114000</v>
       </c>
-      <c r="E94" s="3">
+      <c r="F94" s="3">
         <v>-509800</v>
       </c>
-      <c r="F94" s="3">
+      <c r="G94" s="3">
         <v>-535700</v>
       </c>
-      <c r="G94" s="3">
+      <c r="H94" s="3">
         <v>36100</v>
       </c>
-      <c r="H94" s="3">
+      <c r="I94" s="3">
         <v>21700</v>
       </c>
-      <c r="I94" s="3">
+      <c r="J94" s="3">
         <v>-54400</v>
       </c>
-      <c r="J94" s="3">
+      <c r="K94" s="3">
         <v>-52900</v>
       </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3">
         <v>-681900</v>
       </c>
-      <c r="L94" s="3">
+      <c r="M94" s="3">
         <v>9500</v>
       </c>
-      <c r="M94" s="3">
+      <c r="N94" s="3">
         <v>181700</v>
       </c>
-      <c r="N94" s="3">
+      <c r="O94" s="3">
         <v>-117600</v>
       </c>
-      <c r="O94" s="3">
+      <c r="P94" s="3">
         <v>-58600</v>
       </c>
-      <c r="P94" s="3">
+      <c r="Q94" s="3">
         <v>-132500</v>
       </c>
-      <c r="Q94" s="3">
+      <c r="R94" s="3">
         <v>-320600</v>
       </c>
-      <c r="R94" s="3">
+      <c r="S94" s="3">
         <v>-40800</v>
       </c>
-      <c r="S94" s="3">
+      <c r="T94" s="3">
         <v>-35400</v>
       </c>
-      <c r="T94" s="3">
+      <c r="U94" s="3">
         <v>-28900</v>
       </c>
     </row>
-    <row r="95" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="95" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -5083,8 +5315,9 @@
       <c r="R95" s="3"/>
       <c r="S95" s="3"/>
       <c r="T95" s="3"/>
-    </row>
-    <row r="96" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U95" s="3"/>
+    </row>
+    <row r="96" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -5139,8 +5372,11 @@
       <c r="T96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -5195,8 +5431,11 @@
       <c r="T97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -5251,8 +5490,11 @@
       <c r="T98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -5307,69 +5549,75 @@
       <c r="T99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>-1700</v>
+      </c>
+      <c r="E100" s="3">
         <v>-19200</v>
       </c>
-      <c r="E100" s="3">
+      <c r="F100" s="3">
         <v>-3700</v>
       </c>
-      <c r="F100" s="3">
+      <c r="G100" s="3">
         <v>-12300</v>
       </c>
-      <c r="G100" s="3">
+      <c r="H100" s="3">
         <v>347600</v>
       </c>
-      <c r="H100" s="3">
+      <c r="I100" s="3">
         <v>-2800</v>
       </c>
-      <c r="I100" s="3">
+      <c r="J100" s="3">
         <v>1000</v>
       </c>
-      <c r="J100" s="3">
+      <c r="K100" s="3">
         <v>-2900</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>491600</v>
       </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
         <v>-4600</v>
       </c>
-      <c r="M100" s="3">
+      <c r="N100" s="3">
         <v>1900</v>
       </c>
-      <c r="N100" s="3">
+      <c r="O100" s="3">
         <v>-2800</v>
       </c>
-      <c r="O100" s="3">
+      <c r="P100" s="3">
         <v>4400</v>
       </c>
-      <c r="P100" s="3">
+      <c r="Q100" s="3">
         <v>300</v>
       </c>
-      <c r="Q100" s="3">
+      <c r="R100" s="3">
         <v>2000</v>
       </c>
-      <c r="R100" s="3">
+      <c r="S100" s="3">
         <v>445700</v>
       </c>
-      <c r="S100" s="3">
+      <c r="T100" s="3">
         <v>6700</v>
       </c>
-      <c r="T100" s="3">
+      <c r="U100" s="3">
         <v>2300</v>
       </c>
     </row>
-    <row r="101" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
-      <c r="D101" s="3" t="s">
-        <v>17</v>
+      <c r="D101" s="3">
+        <v>0</v>
       </c>
       <c r="E101" s="3">
         <v>0</v>
@@ -5377,11 +5625,11 @@
       <c r="F101" s="3">
         <v>0</v>
       </c>
-      <c r="G101" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="H101" s="3" t="s">
-        <v>17</v>
+      <c r="G101" s="3">
+        <v>0</v>
+      </c>
+      <c r="H101" s="3">
+        <v>0</v>
       </c>
       <c r="I101" s="3">
         <v>0</v>
@@ -5390,89 +5638,95 @@
         <v>0</v>
       </c>
       <c r="K101" s="3">
+        <v>0</v>
+      </c>
+      <c r="L101" s="3">
         <v>-200</v>
       </c>
-      <c r="L101" s="3">
-        <v>0</v>
-      </c>
       <c r="M101" s="3">
+        <v>0</v>
+      </c>
+      <c r="N101" s="3">
         <v>-700</v>
       </c>
-      <c r="N101" s="3">
-        <v>0</v>
-      </c>
       <c r="O101" s="3">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="P101" s="3">
         <v>400</v>
       </c>
       <c r="Q101" s="3">
+        <v>400</v>
+      </c>
+      <c r="R101" s="3">
         <v>500</v>
       </c>
-      <c r="R101" s="3">
+      <c r="S101" s="3">
         <v>700</v>
       </c>
-      <c r="S101" s="3">
+      <c r="T101" s="3">
         <v>-1400</v>
       </c>
-      <c r="T101" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="102" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>51800</v>
+      </c>
+      <c r="E102" s="3">
         <v>-28500</v>
       </c>
-      <c r="E102" s="3">
+      <c r="F102" s="3">
         <v>-390800</v>
       </c>
-      <c r="F102" s="3">
+      <c r="G102" s="3">
         <v>-396200</v>
       </c>
-      <c r="G102" s="3">
+      <c r="H102" s="3">
         <v>546000</v>
       </c>
-      <c r="H102" s="3">
+      <c r="I102" s="3">
         <v>106400</v>
       </c>
-      <c r="I102" s="3">
+      <c r="J102" s="3">
         <v>74300</v>
       </c>
-      <c r="J102" s="3">
+      <c r="K102" s="3">
         <v>-13000</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>-88100</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>62100</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>220500</v>
       </c>
-      <c r="N102" s="3">
+      <c r="O102" s="3">
         <v>-25300</v>
       </c>
-      <c r="O102" s="3">
+      <c r="P102" s="3">
         <v>51300</v>
       </c>
-      <c r="P102" s="3">
+      <c r="Q102" s="3">
         <v>-122100</v>
       </c>
-      <c r="Q102" s="3">
+      <c r="R102" s="3">
         <v>-305000</v>
       </c>
-      <c r="R102" s="3">
+      <c r="S102" s="3">
         <v>422000</v>
       </c>
-      <c r="S102" s="3">
+      <c r="T102" s="3">
         <v>-10900</v>
       </c>
-      <c r="T102" s="3">
+      <c r="U102" s="3">
         <v>9700</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/LITE_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/LITE_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="125" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="126" uniqueCount="92">
   <si>
     <t>LITE</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:U102"/>
+  <dimension ref="A5:V102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,269 +665,282 @@
     <col min="1" max="1" width="6.42578125" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="5" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="9" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="13" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="17" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="19" width="13" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="12.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="22" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="13" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="6" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="10" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="14" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="18" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="20" width="13" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="12.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="23" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:22" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44289</v>
+      </c>
+      <c r="E7" s="2">
         <v>44191</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44100</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44009</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>43918</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>43827</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>43736</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>43645</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>43554</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>43463</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>43372</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>43281</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>43190</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>43099</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>43008</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>42917</v>
       </c>
-      <c r="S7" s="2">
+      <c r="T7" s="2">
         <v>42826</v>
       </c>
-      <c r="T7" s="2">
+      <c r="U7" s="2">
         <v>42735</v>
       </c>
-      <c r="U7" s="2">
+      <c r="V7" s="2">
         <v>42644</v>
       </c>
     </row>
-    <row r="8" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
+        <v>419500</v>
+      </c>
+      <c r="E8" s="3">
         <v>478800</v>
       </c>
-      <c r="E8" s="3">
+      <c r="F8" s="3">
         <v>452400</v>
       </c>
-      <c r="F8" s="3">
+      <c r="G8" s="3">
         <v>368100</v>
       </c>
-      <c r="G8" s="3">
+      <c r="H8" s="3">
         <v>402800</v>
       </c>
-      <c r="H8" s="3">
+      <c r="I8" s="3">
         <v>457800</v>
       </c>
-      <c r="I8" s="3">
+      <c r="J8" s="3">
         <v>449900</v>
       </c>
-      <c r="J8" s="3">
+      <c r="K8" s="3">
         <v>404600</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>432900</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>373700</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>354100</v>
       </c>
-      <c r="N8" s="3">
+      <c r="O8" s="3">
         <v>301100</v>
       </c>
-      <c r="O8" s="3">
+      <c r="P8" s="3">
         <v>298800</v>
       </c>
-      <c r="P8" s="3">
+      <c r="Q8" s="3">
         <v>404600</v>
       </c>
-      <c r="Q8" s="3">
+      <c r="R8" s="3">
         <v>243200</v>
       </c>
-      <c r="R8" s="3">
+      <c r="S8" s="3">
         <v>222700</v>
       </c>
-      <c r="S8" s="3">
+      <c r="T8" s="3">
         <v>255800</v>
       </c>
-      <c r="T8" s="3">
+      <c r="U8" s="3">
         <v>265000</v>
       </c>
-      <c r="U8" s="3">
+      <c r="V8" s="3">
         <v>258100</v>
       </c>
     </row>
-    <row r="9" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
+        <v>234500</v>
+      </c>
+      <c r="E9" s="3">
         <v>249200</v>
       </c>
-      <c r="E9" s="3">
+      <c r="F9" s="3">
         <v>246700</v>
       </c>
-      <c r="F9" s="3">
+      <c r="G9" s="3">
         <v>232400</v>
       </c>
-      <c r="G9" s="3">
+      <c r="H9" s="3">
         <v>245100</v>
       </c>
-      <c r="H9" s="3">
+      <c r="I9" s="3">
         <v>268700</v>
       </c>
-      <c r="I9" s="3">
+      <c r="J9" s="3">
         <v>282200</v>
       </c>
-      <c r="J9" s="3">
+      <c r="K9" s="3">
         <v>317800</v>
       </c>
-      <c r="K9" s="3">
+      <c r="L9" s="3">
         <v>344600</v>
       </c>
-      <c r="L9" s="3">
+      <c r="M9" s="3">
         <v>248900</v>
       </c>
-      <c r="M9" s="3">
+      <c r="N9" s="3">
         <v>228100</v>
       </c>
-      <c r="N9" s="3">
+      <c r="O9" s="3">
         <v>205600</v>
       </c>
-      <c r="O9" s="3">
+      <c r="P9" s="3">
         <v>201800</v>
       </c>
-      <c r="P9" s="3">
+      <c r="Q9" s="3">
         <v>233500</v>
       </c>
-      <c r="Q9" s="3">
+      <c r="R9" s="3">
         <v>174700</v>
       </c>
-      <c r="R9" s="3">
+      <c r="S9" s="3">
         <v>155400</v>
       </c>
-      <c r="S9" s="3">
+      <c r="T9" s="3">
         <v>173700</v>
       </c>
-      <c r="T9" s="3">
+      <c r="U9" s="3">
         <v>178000</v>
       </c>
-      <c r="U9" s="3">
+      <c r="V9" s="3">
         <v>176400</v>
       </c>
     </row>
-    <row r="10" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
+        <v>185000</v>
+      </c>
+      <c r="E10" s="3">
         <v>229600</v>
       </c>
-      <c r="E10" s="3">
+      <c r="F10" s="3">
         <v>205700</v>
       </c>
-      <c r="F10" s="3">
+      <c r="G10" s="3">
         <v>135700</v>
       </c>
-      <c r="G10" s="3">
+      <c r="H10" s="3">
         <v>157700</v>
       </c>
-      <c r="H10" s="3">
+      <c r="I10" s="3">
         <v>189100</v>
       </c>
-      <c r="I10" s="3">
+      <c r="J10" s="3">
         <v>167700</v>
       </c>
-      <c r="J10" s="3">
+      <c r="K10" s="3">
         <v>86800</v>
       </c>
-      <c r="K10" s="3">
+      <c r="L10" s="3">
         <v>88300</v>
       </c>
-      <c r="L10" s="3">
+      <c r="M10" s="3">
         <v>124800</v>
       </c>
-      <c r="M10" s="3">
+      <c r="N10" s="3">
         <v>126000</v>
       </c>
-      <c r="N10" s="3">
+      <c r="O10" s="3">
         <v>95500</v>
       </c>
-      <c r="O10" s="3">
+      <c r="P10" s="3">
         <v>97000</v>
       </c>
-      <c r="P10" s="3">
+      <c r="Q10" s="3">
         <v>171100</v>
       </c>
-      <c r="Q10" s="3">
+      <c r="R10" s="3">
         <v>68500</v>
       </c>
-      <c r="R10" s="3">
+      <c r="S10" s="3">
         <v>67300</v>
       </c>
-      <c r="S10" s="3">
+      <c r="T10" s="3">
         <v>82100</v>
       </c>
-      <c r="T10" s="3">
+      <c r="U10" s="3">
         <v>87000</v>
       </c>
-      <c r="U10" s="3">
+      <c r="V10" s="3">
         <v>81700</v>
       </c>
     </row>
-    <row r="11" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -949,67 +962,71 @@
       <c r="S11" s="3"/>
       <c r="T11" s="3"/>
       <c r="U11" s="3"/>
-    </row>
-    <row r="12" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V11" s="3"/>
+    </row>
+    <row r="12" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
       <c r="D12" s="3">
+        <v>57200</v>
+      </c>
+      <c r="E12" s="3">
         <v>52800</v>
       </c>
-      <c r="E12" s="3">
+      <c r="F12" s="3">
         <v>50400</v>
       </c>
-      <c r="F12" s="3">
+      <c r="G12" s="3">
         <v>49000</v>
       </c>
-      <c r="G12" s="3">
+      <c r="H12" s="3">
         <v>48700</v>
       </c>
-      <c r="H12" s="3">
+      <c r="I12" s="3">
         <v>51000</v>
       </c>
-      <c r="I12" s="3">
+      <c r="J12" s="3">
         <v>49900</v>
       </c>
-      <c r="J12" s="3">
+      <c r="K12" s="3">
         <v>49500</v>
       </c>
-      <c r="K12" s="3">
+      <c r="L12" s="3">
         <v>57700</v>
       </c>
-      <c r="L12" s="3">
+      <c r="M12" s="3">
         <v>42800</v>
       </c>
-      <c r="M12" s="3">
+      <c r="N12" s="3">
         <v>34600</v>
       </c>
-      <c r="N12" s="3">
+      <c r="O12" s="3">
         <v>38500</v>
       </c>
-      <c r="O12" s="3">
+      <c r="P12" s="3">
         <v>38200</v>
       </c>
-      <c r="P12" s="3">
+      <c r="Q12" s="3">
         <v>43800</v>
       </c>
-      <c r="Q12" s="3">
+      <c r="R12" s="3">
         <v>36300</v>
       </c>
-      <c r="R12" s="3">
+      <c r="S12" s="3">
         <v>35400</v>
       </c>
-      <c r="S12" s="3">
+      <c r="T12" s="3">
         <v>37300</v>
       </c>
-      <c r="T12" s="3">
+      <c r="U12" s="3">
         <v>38700</v>
       </c>
-      <c r="U12" s="3">
+      <c r="V12" s="3">
         <v>36900</v>
       </c>
     </row>
-    <row r="13" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>8</v>
       </c>
@@ -1067,99 +1084,105 @@
       <c r="U13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>9</v>
       </c>
       <c r="D14" s="3">
+        <v>-204600</v>
+      </c>
+      <c r="E14" s="3">
         <v>200</v>
       </c>
-      <c r="E14" s="3">
-        <v>0</v>
-      </c>
       <c r="F14" s="3">
+        <v>0</v>
+      </c>
+      <c r="G14" s="3">
         <v>4900</v>
       </c>
-      <c r="G14" s="3">
+      <c r="H14" s="3">
         <v>5200</v>
       </c>
-      <c r="H14" s="3">
+      <c r="I14" s="3">
         <v>900</v>
       </c>
-      <c r="I14" s="3">
+      <c r="J14" s="3">
         <v>1300</v>
       </c>
-      <c r="J14" s="3">
+      <c r="K14" s="3">
         <v>1700</v>
       </c>
-      <c r="K14" s="3">
+      <c r="L14" s="3">
         <v>51800</v>
       </c>
-      <c r="L14" s="3">
+      <c r="M14" s="3">
         <v>7800</v>
       </c>
-      <c r="M14" s="3">
+      <c r="N14" s="3">
         <v>1300</v>
       </c>
-      <c r="N14" s="3">
+      <c r="O14" s="3">
         <v>3400</v>
       </c>
-      <c r="O14" s="3">
+      <c r="P14" s="3">
         <v>100</v>
       </c>
-      <c r="P14" s="3">
+      <c r="Q14" s="3">
         <v>4500</v>
       </c>
-      <c r="Q14" s="3">
+      <c r="R14" s="3">
         <v>2900</v>
       </c>
-      <c r="R14" s="3">
+      <c r="S14" s="3">
         <v>2000</v>
       </c>
-      <c r="S14" s="3">
+      <c r="T14" s="3">
         <v>3100</v>
       </c>
-      <c r="T14" s="3">
+      <c r="U14" s="3">
         <v>4000</v>
       </c>
-      <c r="U14" s="3">
+      <c r="V14" s="3">
         <v>2900</v>
       </c>
     </row>
-    <row r="15" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D15" s="3">
+        <v>6200</v>
+      </c>
+      <c r="E15" s="3">
         <v>5900</v>
       </c>
-      <c r="E15" s="3">
+      <c r="F15" s="3">
         <v>5700</v>
       </c>
-      <c r="F15" s="3">
+      <c r="G15" s="3">
         <v>6200</v>
       </c>
-      <c r="G15" s="3">
+      <c r="H15" s="3">
         <v>6100</v>
       </c>
-      <c r="H15" s="3">
+      <c r="I15" s="3">
         <v>6200</v>
       </c>
-      <c r="I15" s="3">
+      <c r="J15" s="3">
         <v>6300</v>
-      </c>
-      <c r="J15" s="3">
-        <v>3600</v>
       </c>
       <c r="K15" s="3">
         <v>3600</v>
       </c>
       <c r="L15" s="3">
+        <v>3600</v>
+      </c>
+      <c r="M15" s="3">
         <v>800</v>
-      </c>
-      <c r="M15" s="3" t="s">
-        <v>17</v>
       </c>
       <c r="N15" s="3" t="s">
         <v>17</v>
@@ -1167,17 +1190,17 @@
       <c r="O15" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="P15" s="3">
-        <v>0</v>
-      </c>
-      <c r="Q15" s="3" t="s">
+      <c r="P15" s="3" t="s">
         <v>17</v>
+      </c>
+      <c r="Q15" s="3">
+        <v>0</v>
       </c>
       <c r="R15" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="S15" s="3">
-        <v>0</v>
+      <c r="S15" s="3" t="s">
+        <v>17</v>
       </c>
       <c r="T15" s="3">
         <v>0</v>
@@ -1185,8 +1208,11 @@
       <c r="U15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:22" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1205,126 +1231,133 @@
       <c r="S16" s="3"/>
       <c r="T16" s="3"/>
       <c r="U16" s="3"/>
-    </row>
-    <row r="17" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V16" s="3"/>
+    </row>
+    <row r="17" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>11</v>
       </c>
       <c r="D17" s="3">
+        <v>152600</v>
+      </c>
+      <c r="E17" s="3">
         <v>363500</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="3">
         <v>353400</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>341100</v>
       </c>
-      <c r="G17" s="3">
+      <c r="H17" s="3">
         <v>360300</v>
       </c>
-      <c r="H17" s="3">
+      <c r="I17" s="3">
         <v>383000</v>
       </c>
-      <c r="I17" s="3">
+      <c r="J17" s="3">
         <v>390100</v>
       </c>
-      <c r="J17" s="3">
+      <c r="K17" s="3">
         <v>418400</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>509300</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>362200</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>297000</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>280200</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>273300</v>
       </c>
-      <c r="P17" s="3">
+      <c r="Q17" s="3">
         <v>313800</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="R17" s="3">
         <v>240500</v>
       </c>
-      <c r="R17" s="3">
+      <c r="S17" s="3">
         <v>218800</v>
       </c>
-      <c r="S17" s="3">
+      <c r="T17" s="3">
         <v>242200</v>
       </c>
-      <c r="T17" s="3">
+      <c r="U17" s="3">
         <v>251700</v>
       </c>
-      <c r="U17" s="3">
+      <c r="V17" s="3">
         <v>241300</v>
       </c>
     </row>
-    <row r="18" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D18" s="3">
+        <v>266900</v>
+      </c>
+      <c r="E18" s="3">
         <v>115300</v>
       </c>
-      <c r="E18" s="3">
+      <c r="F18" s="3">
         <v>99000</v>
       </c>
-      <c r="F18" s="3">
+      <c r="G18" s="3">
         <v>27000</v>
       </c>
-      <c r="G18" s="3">
+      <c r="H18" s="3">
         <v>42500</v>
       </c>
-      <c r="H18" s="3">
+      <c r="I18" s="3">
         <v>74800</v>
       </c>
-      <c r="I18" s="3">
+      <c r="J18" s="3">
         <v>59800</v>
       </c>
-      <c r="J18" s="3">
+      <c r="K18" s="3">
         <v>-13800</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>-76400</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>11500</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>57100</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>20900</v>
       </c>
-      <c r="O18" s="3">
+      <c r="P18" s="3">
         <v>25500</v>
       </c>
-      <c r="P18" s="3">
+      <c r="Q18" s="3">
         <v>90800</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="R18" s="3">
         <v>2700</v>
       </c>
-      <c r="R18" s="3">
+      <c r="S18" s="3">
         <v>3900</v>
       </c>
-      <c r="S18" s="3">
+      <c r="T18" s="3">
         <v>13600</v>
       </c>
-      <c r="T18" s="3">
+      <c r="U18" s="3">
         <v>13300</v>
       </c>
-      <c r="U18" s="3">
+      <c r="V18" s="3">
         <v>16800</v>
       </c>
     </row>
-    <row r="19" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>13</v>
       </c>
@@ -1346,161 +1379,168 @@
       <c r="S19" s="3"/>
       <c r="T19" s="3"/>
       <c r="U19" s="3"/>
-    </row>
-    <row r="20" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V19" s="3"/>
+    </row>
+    <row r="20" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>14</v>
       </c>
       <c r="D20" s="3">
+        <v>2400</v>
+      </c>
+      <c r="E20" s="3">
         <v>-900</v>
       </c>
-      <c r="E20" s="3">
+      <c r="F20" s="3">
         <v>600</v>
       </c>
-      <c r="F20" s="3">
+      <c r="G20" s="3">
         <v>3500</v>
       </c>
-      <c r="G20" s="3">
+      <c r="H20" s="3">
         <v>21700</v>
       </c>
-      <c r="H20" s="3">
+      <c r="I20" s="3">
         <v>1200</v>
       </c>
-      <c r="I20" s="3">
+      <c r="J20" s="3">
         <v>5000</v>
       </c>
-      <c r="J20" s="3">
+      <c r="K20" s="3">
         <v>4100</v>
       </c>
-      <c r="K20" s="3">
+      <c r="L20" s="3">
         <v>5200</v>
       </c>
-      <c r="L20" s="3">
+      <c r="M20" s="3">
         <v>14700</v>
       </c>
-      <c r="M20" s="3">
+      <c r="N20" s="3">
         <v>600</v>
       </c>
-      <c r="N20" s="3">
+      <c r="O20" s="3">
         <v>11400</v>
       </c>
-      <c r="O20" s="3">
+      <c r="P20" s="3">
         <v>-18200</v>
       </c>
-      <c r="P20" s="3">
+      <c r="Q20" s="3">
         <v>9300</v>
       </c>
-      <c r="Q20" s="3">
+      <c r="R20" s="3">
         <v>5200</v>
       </c>
-      <c r="R20" s="3">
+      <c r="S20" s="3">
         <v>-31500</v>
       </c>
-      <c r="S20" s="3">
+      <c r="T20" s="3">
         <v>-58000</v>
       </c>
-      <c r="T20" s="3">
+      <c r="U20" s="3">
         <v>4600</v>
       </c>
-      <c r="U20" s="3">
+      <c r="V20" s="3">
         <v>-22500</v>
       </c>
     </row>
-    <row r="21" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D21" s="3">
+        <v>314100</v>
+      </c>
+      <c r="E21" s="3">
         <v>159100</v>
       </c>
-      <c r="E21" s="3">
+      <c r="F21" s="3">
         <v>144100</v>
       </c>
-      <c r="F21" s="3">
+      <c r="G21" s="3">
         <v>77200</v>
       </c>
-      <c r="G21" s="3">
+      <c r="H21" s="3">
         <v>111700</v>
       </c>
-      <c r="H21" s="3">
+      <c r="I21" s="3">
         <v>123300</v>
       </c>
-      <c r="I21" s="3">
+      <c r="J21" s="3">
         <v>115200</v>
       </c>
-      <c r="J21" s="3">
+      <c r="K21" s="3">
         <v>35400</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>-10500</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>57400</v>
       </c>
-      <c r="M21" s="3">
+      <c r="N21" s="3">
         <v>78200</v>
       </c>
-      <c r="N21" s="3">
+      <c r="O21" s="3">
         <v>53800</v>
       </c>
-      <c r="O21" s="3">
+      <c r="P21" s="3">
         <v>26500</v>
       </c>
-      <c r="P21" s="3">
+      <c r="Q21" s="3">
         <v>119100</v>
       </c>
-      <c r="Q21" s="3">
+      <c r="R21" s="3">
         <v>25400</v>
       </c>
-      <c r="R21" s="3">
+      <c r="S21" s="3">
         <v>-11100</v>
       </c>
-      <c r="S21" s="3">
+      <c r="T21" s="3">
         <v>-28500</v>
       </c>
-      <c r="T21" s="3">
+      <c r="U21" s="3">
         <v>32800</v>
       </c>
-      <c r="U21" s="3">
+      <c r="V21" s="3">
         <v>8000</v>
       </c>
     </row>
-    <row r="22" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D22" s="3">
+        <v>16400</v>
+      </c>
+      <c r="E22" s="3">
         <v>16300</v>
       </c>
-      <c r="E22" s="3">
+      <c r="F22" s="3">
         <v>16000</v>
       </c>
-      <c r="F22" s="3">
+      <c r="G22" s="3">
         <v>15900</v>
       </c>
-      <c r="G22" s="3">
+      <c r="H22" s="3">
         <v>15600</v>
       </c>
-      <c r="H22" s="3">
+      <c r="I22" s="3">
         <v>18300</v>
-      </c>
-      <c r="I22" s="3">
-        <v>11400</v>
       </c>
       <c r="J22" s="3">
         <v>11400</v>
       </c>
       <c r="K22" s="3">
+        <v>11400</v>
+      </c>
+      <c r="L22" s="3">
         <v>11300</v>
       </c>
-      <c r="L22" s="3">
+      <c r="M22" s="3">
         <v>8500</v>
       </c>
-      <c r="M22" s="3">
+      <c r="N22" s="3">
         <v>5100</v>
-      </c>
-      <c r="N22" s="3">
-        <v>4600</v>
       </c>
       <c r="O22" s="3">
         <v>4600</v>
@@ -1509,10 +1549,10 @@
         <v>4600</v>
       </c>
       <c r="Q22" s="3">
+        <v>4600</v>
+      </c>
+      <c r="R22" s="3">
         <v>4400</v>
-      </c>
-      <c r="R22" s="3" t="s">
-        <v>17</v>
       </c>
       <c r="S22" s="3" t="s">
         <v>17</v>
@@ -1523,126 +1563,135 @@
       <c r="U22" s="3" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="23" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V22" s="3" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="23" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>252900</v>
+      </c>
+      <c r="E23" s="3">
         <v>98100</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>83600</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>14600</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
         <v>48600</v>
       </c>
-      <c r="H23" s="3">
+      <c r="I23" s="3">
         <v>57700</v>
       </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
         <v>53400</v>
       </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
         <v>-21100</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>-82500</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>17700</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>52600</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>27700</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>2700</v>
       </c>
-      <c r="P23" s="3">
+      <c r="Q23" s="3">
         <v>95500</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="R23" s="3">
         <v>3500</v>
       </c>
-      <c r="R23" s="3">
+      <c r="S23" s="3">
         <v>-27600</v>
       </c>
-      <c r="S23" s="3">
+      <c r="T23" s="3">
         <v>-44400</v>
       </c>
-      <c r="T23" s="3">
+      <c r="U23" s="3">
         <v>17900</v>
       </c>
-      <c r="U23" s="3">
+      <c r="V23" s="3">
         <v>-5700</v>
       </c>
     </row>
-    <row r="24" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
+        <v>27400</v>
+      </c>
+      <c r="E24" s="3">
         <v>14900</v>
       </c>
-      <c r="E24" s="3">
+      <c r="F24" s="3">
         <v>16500</v>
       </c>
-      <c r="F24" s="3">
+      <c r="G24" s="3">
         <v>19200</v>
       </c>
-      <c r="G24" s="3">
+      <c r="H24" s="3">
         <v>5200</v>
       </c>
-      <c r="H24" s="3">
+      <c r="I24" s="3">
         <v>8600</v>
       </c>
-      <c r="I24" s="3">
+      <c r="J24" s="3">
         <v>5800</v>
       </c>
-      <c r="J24" s="3">
+      <c r="K24" s="3">
         <v>4700</v>
       </c>
-      <c r="K24" s="3">
+      <c r="L24" s="3">
         <v>-8200</v>
       </c>
-      <c r="L24" s="3">
+      <c r="M24" s="3">
         <v>1400</v>
       </c>
-      <c r="M24" s="3">
+      <c r="N24" s="3">
         <v>5200</v>
       </c>
-      <c r="N24" s="3">
+      <c r="O24" s="3">
         <v>-3300</v>
       </c>
-      <c r="O24" s="3">
-        <v>0</v>
-      </c>
       <c r="P24" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q24" s="3">
         <v>-109300</v>
       </c>
-      <c r="Q24" s="3">
+      <c r="R24" s="3">
         <v>-3600</v>
       </c>
-      <c r="R24" s="3">
+      <c r="S24" s="3">
         <v>27300</v>
       </c>
-      <c r="S24" s="3">
+      <c r="T24" s="3">
         <v>11600</v>
       </c>
-      <c r="T24" s="3">
+      <c r="U24" s="3">
         <v>6100</v>
       </c>
-      <c r="U24" s="3">
+      <c r="V24" s="3">
         <v>-2300</v>
       </c>
     </row>
-    <row r="25" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="25" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1700,126 +1749,135 @@
       <c r="U25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>225500</v>
+      </c>
+      <c r="E26" s="3">
         <v>83200</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
         <v>67100</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>-4600</v>
       </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
         <v>43400</v>
       </c>
-      <c r="H26" s="3">
+      <c r="I26" s="3">
         <v>49100</v>
       </c>
-      <c r="I26" s="3">
+      <c r="J26" s="3">
         <v>47600</v>
       </c>
-      <c r="J26" s="3">
+      <c r="K26" s="3">
         <v>-25800</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>-74300</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>16300</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>47400</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>31000</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>2700</v>
       </c>
-      <c r="P26" s="3">
+      <c r="Q26" s="3">
         <v>204800</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="R26" s="3">
         <v>7100</v>
       </c>
-      <c r="R26" s="3">
+      <c r="S26" s="3">
         <v>-54900</v>
       </c>
-      <c r="S26" s="3">
+      <c r="T26" s="3">
         <v>-56000</v>
       </c>
-      <c r="T26" s="3">
+      <c r="U26" s="3">
         <v>11800</v>
       </c>
-      <c r="U26" s="3">
+      <c r="V26" s="3">
         <v>-3400</v>
       </c>
     </row>
-    <row r="27" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>225500</v>
+      </c>
+      <c r="E27" s="3">
         <v>83200</v>
       </c>
-      <c r="E27" s="3">
+      <c r="F27" s="3">
         <v>67100</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>-4600</v>
       </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
         <v>43400</v>
       </c>
-      <c r="H27" s="3">
+      <c r="I27" s="3">
         <v>49100</v>
       </c>
-      <c r="I27" s="3">
+      <c r="J27" s="3">
         <v>47600</v>
       </c>
-      <c r="J27" s="3">
+      <c r="K27" s="3">
         <v>-25800</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>-74300</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>16200</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>46100</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>30000</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>2400</v>
       </c>
-      <c r="P27" s="3">
+      <c r="Q27" s="3">
         <v>199800</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="R27" s="3">
         <v>6900</v>
       </c>
-      <c r="R27" s="3">
+      <c r="S27" s="3">
         <v>-55200</v>
       </c>
-      <c r="S27" s="3">
+      <c r="T27" s="3">
         <v>-56200</v>
       </c>
-      <c r="T27" s="3">
+      <c r="U27" s="3">
         <v>11600</v>
       </c>
-      <c r="U27" s="3">
+      <c r="V27" s="3">
         <v>-3600</v>
       </c>
     </row>
-    <row r="28" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1877,8 +1935,11 @@
       <c r="U28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1900,11 +1961,11 @@
       <c r="I29" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="J29" s="3">
-        <v>0</v>
-      </c>
-      <c r="K29" s="3" t="s">
+      <c r="J29" s="3" t="s">
         <v>17</v>
+      </c>
+      <c r="K29" s="3">
+        <v>0</v>
       </c>
       <c r="L29" s="3" t="s">
         <v>17</v>
@@ -1912,17 +1973,17 @@
       <c r="M29" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="N29" s="3">
+      <c r="N29" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="O29" s="3">
         <v>2500</v>
       </c>
-      <c r="O29" s="3">
-        <v>0</v>
-      </c>
       <c r="P29" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q29" s="3">
         <v>-83000</v>
-      </c>
-      <c r="Q29" s="3" t="s">
-        <v>17</v>
       </c>
       <c r="R29" s="3" t="s">
         <v>17</v>
@@ -1936,8 +1997,11 @@
       <c r="U29" s="3" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="30" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V29" s="3" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="30" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1995,8 +2059,11 @@
       <c r="U30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -2054,126 +2121,135 @@
       <c r="U31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
+        <v>-2400</v>
+      </c>
+      <c r="E32" s="3">
         <v>900</v>
       </c>
-      <c r="E32" s="3">
+      <c r="F32" s="3">
         <v>-600</v>
       </c>
-      <c r="F32" s="3">
+      <c r="G32" s="3">
         <v>-3500</v>
       </c>
-      <c r="G32" s="3">
+      <c r="H32" s="3">
         <v>-21700</v>
       </c>
-      <c r="H32" s="3">
+      <c r="I32" s="3">
         <v>-1200</v>
       </c>
-      <c r="I32" s="3">
+      <c r="J32" s="3">
         <v>-5000</v>
       </c>
-      <c r="J32" s="3">
+      <c r="K32" s="3">
         <v>-4100</v>
       </c>
-      <c r="K32" s="3">
+      <c r="L32" s="3">
         <v>-5200</v>
       </c>
-      <c r="L32" s="3">
+      <c r="M32" s="3">
         <v>-14700</v>
       </c>
-      <c r="M32" s="3">
+      <c r="N32" s="3">
         <v>-600</v>
       </c>
-      <c r="N32" s="3">
+      <c r="O32" s="3">
         <v>-11400</v>
       </c>
-      <c r="O32" s="3">
+      <c r="P32" s="3">
         <v>18200</v>
       </c>
-      <c r="P32" s="3">
+      <c r="Q32" s="3">
         <v>-9300</v>
       </c>
-      <c r="Q32" s="3">
+      <c r="R32" s="3">
         <v>-5200</v>
       </c>
-      <c r="R32" s="3">
+      <c r="S32" s="3">
         <v>31500</v>
       </c>
-      <c r="S32" s="3">
+      <c r="T32" s="3">
         <v>58000</v>
       </c>
-      <c r="T32" s="3">
+      <c r="U32" s="3">
         <v>-4600</v>
       </c>
-      <c r="U32" s="3">
+      <c r="V32" s="3">
         <v>22500</v>
       </c>
     </row>
-    <row r="33" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>225500</v>
+      </c>
+      <c r="E33" s="3">
         <v>83200</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
         <v>67100</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>-4600</v>
       </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
         <v>43400</v>
       </c>
-      <c r="H33" s="3">
+      <c r="I33" s="3">
         <v>49100</v>
       </c>
-      <c r="I33" s="3">
+      <c r="J33" s="3">
         <v>47600</v>
       </c>
-      <c r="J33" s="3">
+      <c r="K33" s="3">
         <v>-25800</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>-74300</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>16200</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>46100</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>32500</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>2400</v>
       </c>
-      <c r="P33" s="3">
+      <c r="Q33" s="3">
         <v>116800</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="R33" s="3">
         <v>6900</v>
       </c>
-      <c r="R33" s="3">
+      <c r="S33" s="3">
         <v>-55200</v>
       </c>
-      <c r="S33" s="3">
+      <c r="T33" s="3">
         <v>-56200</v>
       </c>
-      <c r="T33" s="3">
+      <c r="U33" s="3">
         <v>11600</v>
       </c>
-      <c r="U33" s="3">
+      <c r="V33" s="3">
         <v>-3600</v>
       </c>
     </row>
-    <row r="34" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2231,131 +2307,140 @@
       <c r="U34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>225500</v>
+      </c>
+      <c r="E35" s="3">
         <v>83200</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
         <v>67100</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>-4600</v>
       </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
         <v>43400</v>
       </c>
-      <c r="H35" s="3">
+      <c r="I35" s="3">
         <v>49100</v>
       </c>
-      <c r="I35" s="3">
+      <c r="J35" s="3">
         <v>47600</v>
       </c>
-      <c r="J35" s="3">
+      <c r="K35" s="3">
         <v>-25800</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>-74300</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>16200</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>46100</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>32500</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>2400</v>
       </c>
-      <c r="P35" s="3">
+      <c r="Q35" s="3">
         <v>116800</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="R35" s="3">
         <v>6900</v>
       </c>
-      <c r="R35" s="3">
+      <c r="S35" s="3">
         <v>-55200</v>
       </c>
-      <c r="S35" s="3">
+      <c r="T35" s="3">
         <v>-56200</v>
       </c>
-      <c r="T35" s="3">
+      <c r="U35" s="3">
         <v>11600</v>
       </c>
-      <c r="U35" s="3">
+      <c r="V35" s="3">
         <v>-3600</v>
       </c>
     </row>
-    <row r="37" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:22" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44289</v>
+      </c>
+      <c r="E38" s="2">
         <v>44191</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44100</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44009</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>43918</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>43827</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>43736</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>43645</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>43554</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>43463</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>43372</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>43281</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>43190</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>43099</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>43008</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>42917</v>
       </c>
-      <c r="S38" s="2">
+      <c r="T38" s="2">
         <v>42826</v>
       </c>
-      <c r="T38" s="2">
+      <c r="U38" s="2">
         <v>42735</v>
       </c>
-      <c r="U38" s="2">
+      <c r="V38" s="2">
         <v>42644</v>
       </c>
     </row>
-    <row r="39" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2377,8 +2462,9 @@
       <c r="S39" s="3"/>
       <c r="T39" s="3"/>
       <c r="U39" s="3"/>
-    </row>
-    <row r="40" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V39" s="3"/>
+    </row>
+    <row r="40" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2400,117 +2486,121 @@
       <c r="S40" s="3"/>
       <c r="T40" s="3"/>
       <c r="U40" s="3"/>
-    </row>
-    <row r="41" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V40" s="3"/>
+    </row>
+    <row r="41" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>687700</v>
+      </c>
+      <c r="E41" s="3">
         <v>321300</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>269500</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>298000</v>
       </c>
-      <c r="G41" s="3">
+      <c r="H41" s="3">
         <v>688300</v>
       </c>
-      <c r="H41" s="3">
+      <c r="I41" s="3">
         <v>1085000</v>
       </c>
-      <c r="I41" s="3">
+      <c r="J41" s="3">
         <v>539000</v>
       </c>
-      <c r="J41" s="3">
+      <c r="K41" s="3">
         <v>432600</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>357300</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>371300</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>459400</v>
       </c>
-      <c r="N41" s="3">
+      <c r="O41" s="3">
         <v>397300</v>
       </c>
-      <c r="O41" s="3">
+      <c r="P41" s="3">
         <v>176800</v>
       </c>
-      <c r="P41" s="3">
+      <c r="Q41" s="3">
         <v>202100</v>
       </c>
-      <c r="Q41" s="3">
+      <c r="R41" s="3">
         <v>150800</v>
       </c>
-      <c r="R41" s="3">
+      <c r="S41" s="3">
         <v>272900</v>
       </c>
-      <c r="S41" s="3">
+      <c r="T41" s="3">
         <v>577900</v>
       </c>
-      <c r="T41" s="3">
+      <c r="U41" s="3">
         <v>155900</v>
       </c>
-      <c r="U41" s="3">
+      <c r="V41" s="3">
         <v>166800</v>
       </c>
     </row>
-    <row r="42" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
       <c r="D42" s="3">
+        <v>1366900</v>
+      </c>
+      <c r="E42" s="3">
         <v>1379000</v>
       </c>
-      <c r="E42" s="3">
+      <c r="F42" s="3">
         <v>1341200</v>
       </c>
-      <c r="F42" s="3">
+      <c r="G42" s="3">
         <v>1255800</v>
       </c>
-      <c r="G42" s="3">
+      <c r="H42" s="3">
         <v>763100</v>
       </c>
-      <c r="H42" s="3">
+      <c r="I42" s="3">
         <v>230600</v>
       </c>
-      <c r="I42" s="3">
+      <c r="J42" s="3">
         <v>291900</v>
       </c>
-      <c r="J42" s="3">
+      <c r="K42" s="3">
         <v>335900</v>
       </c>
-      <c r="K42" s="3">
+      <c r="L42" s="3">
         <v>340200</v>
       </c>
-      <c r="L42" s="3">
+      <c r="M42" s="3">
         <v>312800</v>
       </c>
-      <c r="M42" s="3">
+      <c r="N42" s="3">
         <v>274900</v>
       </c>
-      <c r="N42" s="3">
+      <c r="O42" s="3">
         <v>314200</v>
       </c>
-      <c r="O42" s="3">
+      <c r="P42" s="3">
         <v>516000</v>
       </c>
-      <c r="P42" s="3">
+      <c r="Q42" s="3">
         <v>422400</v>
       </c>
-      <c r="Q42" s="3">
+      <c r="R42" s="3">
         <v>381700</v>
       </c>
-      <c r="R42" s="3">
+      <c r="S42" s="3">
         <v>282400</v>
-      </c>
-      <c r="S42" s="3" t="s">
-        <v>17</v>
       </c>
       <c r="T42" s="3" t="s">
         <v>17</v>
@@ -2518,244 +2608,259 @@
       <c r="U42" s="3" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="43" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V42" s="3" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="43" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
+        <v>224800</v>
+      </c>
+      <c r="E43" s="3">
         <v>276700</v>
       </c>
-      <c r="E43" s="3">
+      <c r="F43" s="3">
         <v>263600</v>
       </c>
-      <c r="F43" s="3">
+      <c r="G43" s="3">
         <v>233500</v>
       </c>
-      <c r="G43" s="3">
+      <c r="H43" s="3">
         <v>303100</v>
       </c>
-      <c r="H43" s="3">
+      <c r="I43" s="3">
         <v>343600</v>
       </c>
-      <c r="I43" s="3">
+      <c r="J43" s="3">
         <v>339600</v>
       </c>
-      <c r="J43" s="3">
+      <c r="K43" s="3">
         <v>286200</v>
       </c>
-      <c r="K43" s="3">
+      <c r="L43" s="3">
         <v>329700</v>
       </c>
-      <c r="L43" s="3">
+      <c r="M43" s="3">
         <v>266500</v>
       </c>
-      <c r="M43" s="3">
+      <c r="N43" s="3">
         <v>239600</v>
       </c>
-      <c r="N43" s="3">
+      <c r="O43" s="3">
         <v>197100</v>
       </c>
-      <c r="O43" s="3">
+      <c r="P43" s="3">
         <v>164700</v>
       </c>
-      <c r="P43" s="3">
+      <c r="Q43" s="3">
         <v>222100</v>
       </c>
-      <c r="Q43" s="3">
+      <c r="R43" s="3">
         <v>173800</v>
       </c>
-      <c r="R43" s="3">
+      <c r="S43" s="3">
         <v>166300</v>
       </c>
-      <c r="S43" s="3">
+      <c r="T43" s="3">
         <v>185400</v>
       </c>
-      <c r="T43" s="3">
+      <c r="U43" s="3">
         <v>192500</v>
       </c>
-      <c r="U43" s="3">
+      <c r="V43" s="3">
         <v>156500</v>
       </c>
     </row>
-    <row r="44" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
+        <v>210700</v>
+      </c>
+      <c r="E44" s="3">
         <v>207100</v>
       </c>
-      <c r="E44" s="3">
+      <c r="F44" s="3">
         <v>212600</v>
       </c>
-      <c r="F44" s="3">
+      <c r="G44" s="3">
         <v>188900</v>
       </c>
-      <c r="G44" s="3">
+      <c r="H44" s="3">
         <v>172700</v>
       </c>
-      <c r="H44" s="3">
+      <c r="I44" s="3">
         <v>179600</v>
       </c>
-      <c r="I44" s="3">
+      <c r="J44" s="3">
         <v>202200</v>
       </c>
-      <c r="J44" s="3">
+      <c r="K44" s="3">
         <v>228800</v>
       </c>
-      <c r="K44" s="3">
+      <c r="L44" s="3">
         <v>272200</v>
       </c>
-      <c r="L44" s="3">
+      <c r="M44" s="3">
         <v>303200</v>
       </c>
-      <c r="M44" s="3">
+      <c r="N44" s="3">
         <v>136600</v>
       </c>
-      <c r="N44" s="3">
+      <c r="O44" s="3">
         <v>153600</v>
       </c>
-      <c r="O44" s="3">
+      <c r="P44" s="3">
         <v>144200</v>
       </c>
-      <c r="P44" s="3">
+      <c r="Q44" s="3">
         <v>147300</v>
       </c>
-      <c r="Q44" s="3">
+      <c r="R44" s="3">
         <v>147200</v>
       </c>
-      <c r="R44" s="3">
+      <c r="S44" s="3">
         <v>145200</v>
       </c>
-      <c r="S44" s="3">
+      <c r="T44" s="3">
         <v>116900</v>
       </c>
-      <c r="T44" s="3">
+      <c r="U44" s="3">
         <v>121000</v>
       </c>
-      <c r="U44" s="3">
+      <c r="V44" s="3">
         <v>103700</v>
       </c>
     </row>
-    <row r="45" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="45" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
+        <v>79700</v>
+      </c>
+      <c r="E45" s="3">
         <v>82100</v>
       </c>
-      <c r="E45" s="3">
+      <c r="F45" s="3">
         <v>79800</v>
       </c>
-      <c r="F45" s="3">
+      <c r="G45" s="3">
         <v>73800</v>
       </c>
-      <c r="G45" s="3">
+      <c r="H45" s="3">
         <v>35800</v>
       </c>
-      <c r="H45" s="3">
+      <c r="I45" s="3">
         <v>44200</v>
       </c>
-      <c r="I45" s="3">
+      <c r="J45" s="3">
         <v>50500</v>
       </c>
-      <c r="J45" s="3">
+      <c r="K45" s="3">
         <v>49300</v>
       </c>
-      <c r="K45" s="3">
+      <c r="L45" s="3">
         <v>118700</v>
       </c>
-      <c r="L45" s="3">
+      <c r="M45" s="3">
         <v>103100</v>
       </c>
-      <c r="M45" s="3">
+      <c r="N45" s="3">
         <v>70600</v>
       </c>
-      <c r="N45" s="3">
+      <c r="O45" s="3">
         <v>65000</v>
       </c>
-      <c r="O45" s="3">
+      <c r="P45" s="3">
         <v>63000</v>
       </c>
-      <c r="P45" s="3">
+      <c r="Q45" s="3">
         <v>59900</v>
       </c>
-      <c r="Q45" s="3">
+      <c r="R45" s="3">
         <v>69000</v>
       </c>
-      <c r="R45" s="3">
+      <c r="S45" s="3">
         <v>63500</v>
       </c>
-      <c r="S45" s="3">
+      <c r="T45" s="3">
         <v>61400</v>
       </c>
-      <c r="T45" s="3">
+      <c r="U45" s="3">
         <v>58200</v>
       </c>
-      <c r="U45" s="3">
+      <c r="V45" s="3">
         <v>62300</v>
       </c>
     </row>
-    <row r="46" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="46" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>2569800</v>
+      </c>
+      <c r="E46" s="3">
         <v>2266200</v>
       </c>
-      <c r="E46" s="3">
+      <c r="F46" s="3">
         <v>2166700</v>
       </c>
-      <c r="F46" s="3">
+      <c r="G46" s="3">
         <v>2050000</v>
       </c>
-      <c r="G46" s="3">
+      <c r="H46" s="3">
         <v>1963000</v>
       </c>
-      <c r="H46" s="3">
+      <c r="I46" s="3">
         <v>1883000</v>
       </c>
-      <c r="I46" s="3">
+      <c r="J46" s="3">
         <v>1423200</v>
       </c>
-      <c r="J46" s="3">
+      <c r="K46" s="3">
         <v>1332800</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>1418100</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>1356900</v>
       </c>
-      <c r="M46" s="3">
+      <c r="N46" s="3">
         <v>1181100</v>
       </c>
-      <c r="N46" s="3">
+      <c r="O46" s="3">
         <v>1127200</v>
       </c>
-      <c r="O46" s="3">
+      <c r="P46" s="3">
         <v>1064700</v>
       </c>
-      <c r="P46" s="3">
+      <c r="Q46" s="3">
         <v>1053800</v>
       </c>
-      <c r="Q46" s="3">
+      <c r="R46" s="3">
         <v>922500</v>
       </c>
-      <c r="R46" s="3">
+      <c r="S46" s="3">
         <v>930300</v>
       </c>
-      <c r="S46" s="3">
+      <c r="T46" s="3">
         <v>941600</v>
       </c>
-      <c r="T46" s="3">
+      <c r="U46" s="3">
         <v>527600</v>
       </c>
-      <c r="U46" s="3">
+      <c r="V46" s="3">
         <v>489300</v>
       </c>
     </row>
-    <row r="47" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -2813,126 +2918,135 @@
       <c r="U47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>448300</v>
+      </c>
+      <c r="E48" s="3">
         <v>457600</v>
       </c>
-      <c r="E48" s="3">
+      <c r="F48" s="3">
         <v>468100</v>
       </c>
-      <c r="F48" s="3">
+      <c r="G48" s="3">
         <v>471700</v>
       </c>
-      <c r="G48" s="3">
+      <c r="H48" s="3">
         <v>491800</v>
       </c>
-      <c r="H48" s="3">
+      <c r="I48" s="3">
         <v>505700</v>
       </c>
-      <c r="I48" s="3">
+      <c r="J48" s="3">
         <v>524900</v>
       </c>
-      <c r="J48" s="3">
+      <c r="K48" s="3">
         <v>433300</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>390600</v>
       </c>
-      <c r="L48" s="3">
+      <c r="M48" s="3">
         <v>444700</v>
       </c>
-      <c r="M48" s="3">
+      <c r="N48" s="3">
         <v>318600</v>
       </c>
-      <c r="N48" s="3">
+      <c r="O48" s="3">
         <v>280600</v>
       </c>
-      <c r="O48" s="3">
+      <c r="P48" s="3">
         <v>264500</v>
       </c>
-      <c r="P48" s="3">
+      <c r="Q48" s="3">
         <v>301300</v>
       </c>
-      <c r="Q48" s="3">
+      <c r="R48" s="3">
         <v>293700</v>
       </c>
-      <c r="R48" s="3">
+      <c r="S48" s="3">
         <v>273500</v>
       </c>
-      <c r="S48" s="3">
+      <c r="T48" s="3">
         <v>246600</v>
       </c>
-      <c r="T48" s="3">
+      <c r="U48" s="3">
         <v>219600</v>
       </c>
-      <c r="U48" s="3">
+      <c r="V48" s="3">
         <v>196000</v>
       </c>
     </row>
-    <row r="49" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="49" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
+        <v>632100</v>
+      </c>
+      <c r="E49" s="3">
         <v>654100</v>
       </c>
-      <c r="E49" s="3">
+      <c r="F49" s="3">
         <v>665000</v>
       </c>
-      <c r="F49" s="3">
+      <c r="G49" s="3">
         <v>685700</v>
       </c>
-      <c r="G49" s="3">
+      <c r="H49" s="3">
         <v>706900</v>
       </c>
-      <c r="H49" s="3">
+      <c r="I49" s="3">
         <v>726900</v>
       </c>
-      <c r="I49" s="3">
+      <c r="J49" s="3">
         <v>745500</v>
       </c>
-      <c r="J49" s="3">
+      <c r="K49" s="3">
         <v>764300</v>
       </c>
-      <c r="K49" s="3">
+      <c r="L49" s="3">
         <v>772100</v>
       </c>
-      <c r="L49" s="3">
+      <c r="M49" s="3">
         <v>789700</v>
       </c>
-      <c r="M49" s="3">
+      <c r="N49" s="3">
         <v>17600</v>
       </c>
-      <c r="N49" s="3">
+      <c r="O49" s="3">
         <v>44600</v>
       </c>
-      <c r="O49" s="3">
+      <c r="P49" s="3">
         <v>57200</v>
       </c>
-      <c r="P49" s="3">
+      <c r="Q49" s="3">
         <v>20400</v>
       </c>
-      <c r="Q49" s="3">
+      <c r="R49" s="3">
         <v>21000</v>
       </c>
-      <c r="R49" s="3">
+      <c r="S49" s="3">
         <v>21500</v>
       </c>
-      <c r="S49" s="3">
+      <c r="T49" s="3">
         <v>22300</v>
       </c>
-      <c r="T49" s="3">
+      <c r="U49" s="3">
         <v>16000</v>
       </c>
-      <c r="U49" s="3">
+      <c r="V49" s="3">
         <v>18100</v>
       </c>
     </row>
-    <row r="50" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="50" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2990,8 +3104,11 @@
       <c r="U50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -3049,67 +3166,73 @@
       <c r="U51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
+        <v>95700</v>
+      </c>
+      <c r="E52" s="3">
         <v>90300</v>
       </c>
-      <c r="E52" s="3">
+      <c r="F52" s="3">
         <v>87600</v>
       </c>
-      <c r="F52" s="3">
+      <c r="G52" s="3">
         <v>85200</v>
       </c>
-      <c r="G52" s="3">
+      <c r="H52" s="3">
         <v>107000</v>
       </c>
-      <c r="H52" s="3">
+      <c r="I52" s="3">
         <v>105600</v>
       </c>
-      <c r="I52" s="3">
+      <c r="J52" s="3">
         <v>174200</v>
       </c>
-      <c r="J52" s="3">
+      <c r="K52" s="3">
         <v>186200</v>
       </c>
-      <c r="K52" s="3">
+      <c r="L52" s="3">
         <v>190600</v>
       </c>
-      <c r="L52" s="3">
+      <c r="M52" s="3">
         <v>205300</v>
       </c>
-      <c r="M52" s="3">
+      <c r="N52" s="3">
         <v>127700</v>
       </c>
-      <c r="N52" s="3">
+      <c r="O52" s="3">
         <v>129100</v>
       </c>
-      <c r="O52" s="3">
+      <c r="P52" s="3">
         <v>131800</v>
       </c>
-      <c r="P52" s="3">
+      <c r="Q52" s="3">
         <v>131900</v>
       </c>
-      <c r="Q52" s="3">
+      <c r="R52" s="3">
         <v>11200</v>
       </c>
-      <c r="R52" s="3">
+      <c r="S52" s="3">
         <v>7600</v>
       </c>
-      <c r="S52" s="3">
+      <c r="T52" s="3">
         <v>34000</v>
       </c>
-      <c r="T52" s="3">
+      <c r="U52" s="3">
         <v>33500</v>
       </c>
-      <c r="U52" s="3">
+      <c r="V52" s="3">
         <v>34100</v>
       </c>
     </row>
-    <row r="53" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="53" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -3167,67 +3290,73 @@
       <c r="U53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>3745900</v>
+      </c>
+      <c r="E54" s="3">
         <v>3468200</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>3387400</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>3292600</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>3268700</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>3221200</v>
       </c>
-      <c r="I54" s="3">
+      <c r="J54" s="3">
         <v>2867800</v>
       </c>
-      <c r="J54" s="3">
+      <c r="K54" s="3">
         <v>2716600</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>2771400</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>2796600</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>1645000</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>1581500</v>
       </c>
-      <c r="O54" s="3">
+      <c r="P54" s="3">
         <v>1518200</v>
       </c>
-      <c r="P54" s="3">
+      <c r="Q54" s="3">
         <v>1507400</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="R54" s="3">
         <v>1248400</v>
       </c>
-      <c r="R54" s="3">
+      <c r="S54" s="3">
         <v>1232900</v>
       </c>
-      <c r="S54" s="3">
+      <c r="T54" s="3">
         <v>1244500</v>
       </c>
-      <c r="T54" s="3">
+      <c r="U54" s="3">
         <v>796700</v>
       </c>
-      <c r="U54" s="3">
+      <c r="V54" s="3">
         <v>737500</v>
       </c>
     </row>
-    <row r="55" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -3249,8 +3378,9 @@
       <c r="S55" s="3"/>
       <c r="T55" s="3"/>
       <c r="U55" s="3"/>
-    </row>
-    <row r="56" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V55" s="3"/>
+    </row>
+    <row r="56" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -3272,114 +3402,118 @@
       <c r="S56" s="3"/>
       <c r="T56" s="3"/>
       <c r="U56" s="3"/>
-    </row>
-    <row r="57" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V56" s="3"/>
+    </row>
+    <row r="57" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>104700</v>
+      </c>
+      <c r="E57" s="3">
         <v>111300</v>
       </c>
-      <c r="E57" s="3">
+      <c r="F57" s="3">
         <v>146000</v>
       </c>
-      <c r="F57" s="3">
+      <c r="G57" s="3">
         <v>150800</v>
       </c>
-      <c r="G57" s="3">
+      <c r="H57" s="3">
         <v>144600</v>
       </c>
-      <c r="H57" s="3">
+      <c r="I57" s="3">
         <v>143700</v>
       </c>
-      <c r="I57" s="3">
+      <c r="J57" s="3">
         <v>152200</v>
       </c>
-      <c r="J57" s="3">
+      <c r="K57" s="3">
         <v>160800</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>204100</v>
       </c>
-      <c r="L57" s="3">
+      <c r="M57" s="3">
         <v>199200</v>
       </c>
-      <c r="M57" s="3">
+      <c r="N57" s="3">
         <v>127600</v>
       </c>
-      <c r="N57" s="3">
+      <c r="O57" s="3">
         <v>126500</v>
       </c>
-      <c r="O57" s="3">
+      <c r="P57" s="3">
         <v>100900</v>
       </c>
-      <c r="P57" s="3">
+      <c r="Q57" s="3">
         <v>113000</v>
       </c>
-      <c r="Q57" s="3">
+      <c r="R57" s="3">
         <v>111600</v>
       </c>
-      <c r="R57" s="3">
+      <c r="S57" s="3">
         <v>114800</v>
       </c>
-      <c r="S57" s="3">
+      <c r="T57" s="3">
         <v>118400</v>
       </c>
-      <c r="T57" s="3">
+      <c r="U57" s="3">
         <v>127800</v>
       </c>
-      <c r="U57" s="3">
+      <c r="V57" s="3">
         <v>108300</v>
       </c>
     </row>
-    <row r="58" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
+        <v>385400</v>
+      </c>
+      <c r="E58" s="3">
         <v>380600</v>
       </c>
-      <c r="E58" s="3">
+      <c r="F58" s="3">
         <v>400</v>
       </c>
-      <c r="F58" s="3">
+      <c r="G58" s="3">
         <v>600</v>
       </c>
-      <c r="G58" s="3">
+      <c r="H58" s="3">
         <v>3900</v>
       </c>
-      <c r="H58" s="3">
+      <c r="I58" s="3">
         <v>7100</v>
       </c>
-      <c r="I58" s="3">
+      <c r="J58" s="3">
         <v>15900</v>
       </c>
-      <c r="J58" s="3">
+      <c r="K58" s="3">
         <v>5400</v>
       </c>
-      <c r="K58" s="3">
+      <c r="L58" s="3">
         <v>5800</v>
       </c>
-      <c r="L58" s="3">
+      <c r="M58" s="3">
         <v>8700</v>
       </c>
-      <c r="M58" s="3">
+      <c r="N58" s="3">
         <v>5400</v>
       </c>
-      <c r="N58" s="3">
+      <c r="O58" s="3">
         <v>7300</v>
       </c>
-      <c r="O58" s="3">
+      <c r="P58" s="3">
         <v>9200</v>
       </c>
-      <c r="P58" s="3">
+      <c r="Q58" s="3">
         <v>9100</v>
       </c>
-      <c r="Q58" s="3">
+      <c r="R58" s="3">
         <v>4900</v>
-      </c>
-      <c r="R58" s="3" t="s">
-        <v>17</v>
       </c>
       <c r="S58" s="3" t="s">
         <v>17</v>
@@ -3390,244 +3524,259 @@
       <c r="U58" s="3" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="59" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V58" s="3" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="59" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>184100</v>
+      </c>
+      <c r="E59" s="3">
         <v>155400</v>
       </c>
-      <c r="E59" s="3">
+      <c r="F59" s="3">
         <v>147000</v>
       </c>
-      <c r="F59" s="3">
+      <c r="G59" s="3">
         <v>131600</v>
       </c>
-      <c r="G59" s="3">
+      <c r="H59" s="3">
         <v>138200</v>
       </c>
-      <c r="H59" s="3">
+      <c r="I59" s="3">
         <v>153400</v>
       </c>
-      <c r="I59" s="3">
+      <c r="J59" s="3">
         <v>148700</v>
       </c>
-      <c r="J59" s="3">
+      <c r="K59" s="3">
         <v>127800</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>148100</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>117600</v>
       </c>
-      <c r="M59" s="3">
+      <c r="N59" s="3">
         <v>80900</v>
       </c>
-      <c r="N59" s="3">
+      <c r="O59" s="3">
         <v>80200</v>
       </c>
-      <c r="O59" s="3">
+      <c r="P59" s="3">
         <v>81400</v>
       </c>
-      <c r="P59" s="3">
+      <c r="Q59" s="3">
         <v>95600</v>
       </c>
-      <c r="Q59" s="3">
+      <c r="R59" s="3">
         <v>60700</v>
       </c>
-      <c r="R59" s="3">
+      <c r="S59" s="3">
         <v>69400</v>
       </c>
-      <c r="S59" s="3">
+      <c r="T59" s="3">
         <v>73700</v>
       </c>
-      <c r="T59" s="3">
+      <c r="U59" s="3">
         <v>74200</v>
       </c>
-      <c r="U59" s="3">
+      <c r="V59" s="3">
         <v>55200</v>
       </c>
     </row>
-    <row r="60" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>674200</v>
+      </c>
+      <c r="E60" s="3">
         <v>647300</v>
       </c>
-      <c r="E60" s="3">
+      <c r="F60" s="3">
         <v>293400</v>
       </c>
-      <c r="F60" s="3">
+      <c r="G60" s="3">
         <v>283000</v>
       </c>
-      <c r="G60" s="3">
+      <c r="H60" s="3">
         <v>286700</v>
       </c>
-      <c r="H60" s="3">
+      <c r="I60" s="3">
         <v>304200</v>
       </c>
-      <c r="I60" s="3">
+      <c r="J60" s="3">
         <v>316800</v>
       </c>
-      <c r="J60" s="3">
+      <c r="K60" s="3">
         <v>294000</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>358000</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>325500</v>
       </c>
-      <c r="M60" s="3">
+      <c r="N60" s="3">
         <v>213900</v>
       </c>
-      <c r="N60" s="3">
+      <c r="O60" s="3">
         <v>214000</v>
       </c>
-      <c r="O60" s="3">
+      <c r="P60" s="3">
         <v>191500</v>
       </c>
-      <c r="P60" s="3">
+      <c r="Q60" s="3">
         <v>217700</v>
       </c>
-      <c r="Q60" s="3">
+      <c r="R60" s="3">
         <v>177200</v>
       </c>
-      <c r="R60" s="3">
+      <c r="S60" s="3">
         <v>184200</v>
       </c>
-      <c r="S60" s="3">
+      <c r="T60" s="3">
         <v>192100</v>
       </c>
-      <c r="T60" s="3">
+      <c r="U60" s="3">
         <v>202000</v>
       </c>
-      <c r="U60" s="3">
+      <c r="V60" s="3">
         <v>163500</v>
       </c>
     </row>
-    <row r="61" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
+        <v>778900</v>
+      </c>
+      <c r="E61" s="3">
         <v>769100</v>
       </c>
-      <c r="E61" s="3">
+      <c r="F61" s="3">
         <v>1134700</v>
       </c>
-      <c r="F61" s="3">
+      <c r="G61" s="3">
         <v>1120300</v>
       </c>
-      <c r="G61" s="3">
+      <c r="H61" s="3">
         <v>1106100</v>
       </c>
-      <c r="H61" s="3">
+      <c r="I61" s="3">
         <v>1092200</v>
       </c>
-      <c r="I61" s="3">
+      <c r="J61" s="3">
         <v>840000</v>
       </c>
-      <c r="J61" s="3">
+      <c r="K61" s="3">
         <v>835900</v>
       </c>
-      <c r="K61" s="3">
+      <c r="L61" s="3">
         <v>832400</v>
       </c>
-      <c r="L61" s="3">
+      <c r="M61" s="3">
         <v>829200</v>
       </c>
-      <c r="M61" s="3">
+      <c r="N61" s="3">
         <v>338500</v>
       </c>
-      <c r="N61" s="3">
+      <c r="O61" s="3">
         <v>334600</v>
       </c>
-      <c r="O61" s="3">
+      <c r="P61" s="3">
         <v>330700</v>
       </c>
-      <c r="P61" s="3">
+      <c r="Q61" s="3">
         <v>328800</v>
       </c>
-      <c r="Q61" s="3">
+      <c r="R61" s="3">
         <v>324000</v>
       </c>
-      <c r="R61" s="3">
+      <c r="S61" s="3">
         <v>317500</v>
       </c>
-      <c r="S61" s="3">
+      <c r="T61" s="3">
         <v>313400</v>
       </c>
-      <c r="T61" s="3">
-        <v>0</v>
-      </c>
       <c r="U61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
+        <v>127800</v>
+      </c>
+      <c r="E62" s="3">
         <v>129900</v>
       </c>
-      <c r="E62" s="3">
+      <c r="F62" s="3">
         <v>143200</v>
       </c>
-      <c r="F62" s="3">
+      <c r="G62" s="3">
         <v>140100</v>
       </c>
-      <c r="G62" s="3">
+      <c r="H62" s="3">
         <v>141700</v>
       </c>
-      <c r="H62" s="3">
+      <c r="I62" s="3">
         <v>143200</v>
       </c>
-      <c r="I62" s="3">
+      <c r="J62" s="3">
         <v>149700</v>
       </c>
-      <c r="J62" s="3">
+      <c r="K62" s="3">
         <v>89600</v>
       </c>
-      <c r="K62" s="3">
+      <c r="L62" s="3">
         <v>77100</v>
       </c>
-      <c r="L62" s="3">
+      <c r="M62" s="3">
         <v>82200</v>
       </c>
-      <c r="M62" s="3">
+      <c r="N62" s="3">
         <v>73300</v>
       </c>
-      <c r="N62" s="3">
+      <c r="O62" s="3">
         <v>71000</v>
       </c>
-      <c r="O62" s="3">
+      <c r="P62" s="3">
         <v>83600</v>
       </c>
-      <c r="P62" s="3">
+      <c r="Q62" s="3">
         <v>60800</v>
       </c>
-      <c r="Q62" s="3">
+      <c r="R62" s="3">
         <v>70300</v>
       </c>
-      <c r="R62" s="3">
+      <c r="S62" s="3">
         <v>76600</v>
       </c>
-      <c r="S62" s="3">
+      <c r="T62" s="3">
         <v>234600</v>
-      </c>
-      <c r="T62" s="3">
-        <v>42500</v>
       </c>
       <c r="U62" s="3">
         <v>42500</v>
       </c>
-    </row>
-    <row r="63" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V62" s="3">
+        <v>42500</v>
+      </c>
+    </row>
+    <row r="63" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -3685,8 +3834,11 @@
       <c r="U63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -3744,8 +3896,11 @@
       <c r="U64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -3803,67 +3958,73 @@
       <c r="U65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>1580900</v>
+      </c>
+      <c r="E66" s="3">
         <v>1546300</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>1571300</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>1543400</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>1534500</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>1539600</v>
       </c>
-      <c r="I66" s="3">
+      <c r="J66" s="3">
         <v>1306500</v>
       </c>
-      <c r="J66" s="3">
+      <c r="K66" s="3">
         <v>1219500</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>1267500</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>1236900</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>661500</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>655400</v>
       </c>
-      <c r="O66" s="3">
+      <c r="P66" s="3">
         <v>641600</v>
       </c>
-      <c r="P66" s="3">
+      <c r="Q66" s="3">
         <v>643100</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="R66" s="3">
         <v>607300</v>
       </c>
-      <c r="R66" s="3">
+      <c r="S66" s="3">
         <v>614100</v>
       </c>
-      <c r="S66" s="3">
+      <c r="T66" s="3">
         <v>775900</v>
       </c>
-      <c r="T66" s="3">
+      <c r="U66" s="3">
         <v>280300</v>
       </c>
-      <c r="U66" s="3">
+      <c r="V66" s="3">
         <v>241800</v>
       </c>
     </row>
-    <row r="67" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -3885,8 +4046,9 @@
       <c r="S67" s="3"/>
       <c r="T67" s="3"/>
       <c r="U67" s="3"/>
-    </row>
-    <row r="68" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V67" s="3"/>
+    </row>
+    <row r="68" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -3944,8 +4106,11 @@
       <c r="U68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -4003,8 +4168,11 @@
       <c r="U69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -4062,8 +4230,11 @@
       <c r="U70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -4121,67 +4292,73 @@
       <c r="U71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>440400</v>
+      </c>
+      <c r="E72" s="3">
         <v>214900</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>131700</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>64600</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>69200</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>25800</v>
       </c>
-      <c r="I72" s="3">
+      <c r="J72" s="3">
         <v>176700</v>
       </c>
-      <c r="J72" s="3">
+      <c r="K72" s="3">
         <v>129100</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>154900</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>229200</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>213000</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>166400</v>
       </c>
-      <c r="O72" s="3">
+      <c r="P72" s="3">
         <v>133200</v>
       </c>
-      <c r="P72" s="3">
+      <c r="Q72" s="3">
         <v>130700</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="R72" s="3">
         <v>-73900</v>
       </c>
-      <c r="R72" s="3">
+      <c r="S72" s="3">
         <v>-83200</v>
       </c>
-      <c r="S72" s="3">
+      <c r="T72" s="3">
         <v>-28000</v>
       </c>
-      <c r="T72" s="3">
+      <c r="U72" s="3">
         <v>28200</v>
       </c>
-      <c r="U72" s="3">
+      <c r="V72" s="3">
         <v>16600</v>
       </c>
     </row>
-    <row r="73" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -4239,8 +4416,11 @@
       <c r="U73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -4298,8 +4478,11 @@
       <c r="U74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -4357,67 +4540,73 @@
       <c r="U75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>2165000</v>
+      </c>
+      <c r="E76" s="3">
         <v>1921900</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>1816100</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>1749200</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>1734200</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>1681600</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>1561300</v>
       </c>
-      <c r="J76" s="3">
+      <c r="K76" s="3">
         <v>1497100</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>1503900</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>1559700</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>983500</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>926100</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>876600</v>
       </c>
-      <c r="P76" s="3">
+      <c r="Q76" s="3">
         <v>864300</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="R76" s="3">
         <v>641100</v>
       </c>
-      <c r="R76" s="3">
+      <c r="S76" s="3">
         <v>618800</v>
       </c>
-      <c r="S76" s="3">
+      <c r="T76" s="3">
         <v>468600</v>
       </c>
-      <c r="T76" s="3">
+      <c r="U76" s="3">
         <v>516400</v>
       </c>
-      <c r="U76" s="3">
+      <c r="V76" s="3">
         <v>495700</v>
       </c>
     </row>
-    <row r="77" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -4475,131 +4664,140 @@
       <c r="U77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:22" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44289</v>
+      </c>
+      <c r="E80" s="2">
         <v>44191</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44100</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44009</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>43918</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>43827</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>43736</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>43645</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>43554</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>43463</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>43372</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>43281</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>43190</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>43099</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>43008</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>42917</v>
       </c>
-      <c r="S80" s="2">
+      <c r="T80" s="2">
         <v>42826</v>
       </c>
-      <c r="T80" s="2">
+      <c r="U80" s="2">
         <v>42735</v>
       </c>
-      <c r="U80" s="2">
+      <c r="V80" s="2">
         <v>42644</v>
       </c>
     </row>
-    <row r="81" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>225500</v>
+      </c>
+      <c r="E81" s="3">
         <v>83200</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="3">
         <v>67100</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>-4600</v>
       </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
         <v>43400</v>
       </c>
-      <c r="H81" s="3">
+      <c r="I81" s="3">
         <v>49100</v>
       </c>
-      <c r="I81" s="3">
+      <c r="J81" s="3">
         <v>47600</v>
       </c>
-      <c r="J81" s="3">
+      <c r="K81" s="3">
         <v>-25800</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>-74300</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>16200</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>46100</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>32500</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>2400</v>
       </c>
-      <c r="P81" s="3">
+      <c r="Q81" s="3">
         <v>116800</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="R81" s="3">
         <v>6900</v>
       </c>
-      <c r="R81" s="3">
+      <c r="S81" s="3">
         <v>-55200</v>
       </c>
-      <c r="S81" s="3">
+      <c r="T81" s="3">
         <v>-56200</v>
       </c>
-      <c r="T81" s="3">
+      <c r="U81" s="3">
         <v>11600</v>
       </c>
-      <c r="U81" s="3">
+      <c r="V81" s="3">
         <v>-3600</v>
       </c>
     </row>
-    <row r="82" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -4621,67 +4819,71 @@
       <c r="S82" s="3"/>
       <c r="T82" s="3"/>
       <c r="U82" s="3"/>
-    </row>
-    <row r="83" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V82" s="3"/>
+    </row>
+    <row r="83" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
+        <v>44800</v>
+      </c>
+      <c r="E83" s="3">
         <v>44700</v>
       </c>
-      <c r="E83" s="3">
+      <c r="F83" s="3">
         <v>44500</v>
       </c>
-      <c r="F83" s="3">
+      <c r="G83" s="3">
         <v>46700</v>
       </c>
-      <c r="G83" s="3">
+      <c r="H83" s="3">
         <v>47500</v>
       </c>
-      <c r="H83" s="3">
+      <c r="I83" s="3">
         <v>47300</v>
       </c>
-      <c r="I83" s="3">
+      <c r="J83" s="3">
         <v>50400</v>
       </c>
-      <c r="J83" s="3">
+      <c r="K83" s="3">
         <v>45100</v>
       </c>
-      <c r="K83" s="3">
+      <c r="L83" s="3">
         <v>60700</v>
       </c>
-      <c r="L83" s="3">
+      <c r="M83" s="3">
         <v>31200</v>
       </c>
-      <c r="M83" s="3">
+      <c r="N83" s="3">
         <v>20500</v>
       </c>
-      <c r="N83" s="3">
+      <c r="O83" s="3">
         <v>21500</v>
       </c>
-      <c r="O83" s="3">
+      <c r="P83" s="3">
         <v>19200</v>
       </c>
-      <c r="P83" s="3">
+      <c r="Q83" s="3">
         <v>19000</v>
       </c>
-      <c r="Q83" s="3">
+      <c r="R83" s="3">
         <v>17500</v>
       </c>
-      <c r="R83" s="3">
+      <c r="S83" s="3">
         <v>16500</v>
       </c>
-      <c r="S83" s="3">
+      <c r="T83" s="3">
         <v>15900</v>
       </c>
-      <c r="T83" s="3">
+      <c r="U83" s="3">
         <v>14900</v>
       </c>
-      <c r="U83" s="3">
+      <c r="V83" s="3">
         <v>13700</v>
       </c>
     </row>
-    <row r="84" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="84" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -4739,8 +4941,11 @@
       <c r="U84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -4798,8 +5003,11 @@
       <c r="U85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -4857,8 +5065,11 @@
       <c r="U86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -4916,8 +5127,11 @@
       <c r="U87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -4975,67 +5189,73 @@
       <c r="U88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>381300</v>
+      </c>
+      <c r="E89" s="3">
         <v>128500</v>
       </c>
-      <c r="E89" s="3">
+      <c r="F89" s="3">
         <v>104700</v>
       </c>
-      <c r="F89" s="3">
+      <c r="G89" s="3">
         <v>122700</v>
       </c>
-      <c r="G89" s="3">
+      <c r="H89" s="3">
         <v>151800</v>
       </c>
-      <c r="H89" s="3">
+      <c r="I89" s="3">
         <v>162300</v>
       </c>
-      <c r="I89" s="3">
+      <c r="J89" s="3">
         <v>87500</v>
       </c>
-      <c r="J89" s="3">
+      <c r="K89" s="3">
         <v>127700</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>42800</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>102400</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>57200</v>
       </c>
-      <c r="N89" s="3">
+      <c r="O89" s="3">
         <v>37600</v>
       </c>
-      <c r="O89" s="3">
+      <c r="P89" s="3">
         <v>95100</v>
       </c>
-      <c r="P89" s="3">
+      <c r="Q89" s="3">
         <v>105100</v>
       </c>
-      <c r="Q89" s="3">
+      <c r="R89" s="3">
         <v>9700</v>
       </c>
-      <c r="R89" s="3">
+      <c r="S89" s="3">
         <v>13100</v>
       </c>
-      <c r="S89" s="3">
+      <c r="T89" s="3">
         <v>16400</v>
       </c>
-      <c r="T89" s="3">
+      <c r="U89" s="3">
         <v>19200</v>
       </c>
-      <c r="U89" s="3">
+      <c r="V89" s="3">
         <v>36300</v>
       </c>
     </row>
-    <row r="90" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -5057,67 +5277,71 @@
       <c r="S90" s="3"/>
       <c r="T90" s="3"/>
       <c r="U90" s="3"/>
-    </row>
-    <row r="91" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V90" s="3"/>
+    </row>
+    <row r="91" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
+        <v>0</v>
+      </c>
+      <c r="E91" s="3">
         <v>16300</v>
       </c>
-      <c r="E91" s="3">
+      <c r="F91" s="3">
         <v>-26300</v>
       </c>
-      <c r="F91" s="3">
-        <v>0</v>
-      </c>
       <c r="G91" s="3">
+        <v>0</v>
+      </c>
+      <c r="H91" s="3">
         <v>-1000</v>
       </c>
-      <c r="H91" s="3">
+      <c r="I91" s="3">
         <v>-2000</v>
       </c>
-      <c r="I91" s="3">
+      <c r="J91" s="3">
         <v>-1000</v>
       </c>
-      <c r="J91" s="3">
-        <v>0</v>
-      </c>
       <c r="K91" s="3">
+        <v>0</v>
+      </c>
+      <c r="L91" s="3">
         <v>-600</v>
       </c>
-      <c r="L91" s="3">
-        <v>0</v>
-      </c>
       <c r="M91" s="3">
+        <v>0</v>
+      </c>
+      <c r="N91" s="3">
         <v>-700</v>
       </c>
-      <c r="N91" s="3">
+      <c r="O91" s="3">
         <v>-20300</v>
       </c>
-      <c r="O91" s="3">
+      <c r="P91" s="3">
         <v>-22700</v>
       </c>
-      <c r="P91" s="3">
+      <c r="Q91" s="3">
         <v>-17200</v>
       </c>
-      <c r="Q91" s="3">
+      <c r="R91" s="3">
         <v>-33000</v>
       </c>
-      <c r="R91" s="3">
+      <c r="S91" s="3">
         <v>-38100</v>
       </c>
-      <c r="S91" s="3">
+      <c r="T91" s="3">
         <v>-35700</v>
       </c>
-      <c r="T91" s="3">
+      <c r="U91" s="3">
         <v>-35400</v>
       </c>
-      <c r="U91" s="3">
+      <c r="V91" s="3">
         <v>-28900</v>
       </c>
     </row>
-    <row r="92" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="92" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -5175,8 +5399,11 @@
       <c r="U92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -5234,67 +5461,73 @@
       <c r="U93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
+        <v>-7300</v>
+      </c>
+      <c r="E94" s="3">
         <v>-75000</v>
       </c>
-      <c r="E94" s="3">
+      <c r="F94" s="3">
         <v>-114000</v>
       </c>
-      <c r="F94" s="3">
+      <c r="G94" s="3">
         <v>-509800</v>
       </c>
-      <c r="G94" s="3">
+      <c r="H94" s="3">
         <v>-535700</v>
       </c>
-      <c r="H94" s="3">
+      <c r="I94" s="3">
         <v>36100</v>
       </c>
-      <c r="I94" s="3">
+      <c r="J94" s="3">
         <v>21700</v>
       </c>
-      <c r="J94" s="3">
+      <c r="K94" s="3">
         <v>-54400</v>
       </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3">
         <v>-52900</v>
       </c>
-      <c r="L94" s="3">
+      <c r="M94" s="3">
         <v>-681900</v>
       </c>
-      <c r="M94" s="3">
+      <c r="N94" s="3">
         <v>9500</v>
       </c>
-      <c r="N94" s="3">
+      <c r="O94" s="3">
         <v>181700</v>
       </c>
-      <c r="O94" s="3">
+      <c r="P94" s="3">
         <v>-117600</v>
       </c>
-      <c r="P94" s="3">
+      <c r="Q94" s="3">
         <v>-58600</v>
       </c>
-      <c r="Q94" s="3">
+      <c r="R94" s="3">
         <v>-132500</v>
       </c>
-      <c r="R94" s="3">
+      <c r="S94" s="3">
         <v>-320600</v>
       </c>
-      <c r="S94" s="3">
+      <c r="T94" s="3">
         <v>-40800</v>
       </c>
-      <c r="T94" s="3">
+      <c r="U94" s="3">
         <v>-35400</v>
       </c>
-      <c r="U94" s="3">
+      <c r="V94" s="3">
         <v>-28900</v>
       </c>
     </row>
-    <row r="95" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="95" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -5316,8 +5549,9 @@
       <c r="S95" s="3"/>
       <c r="T95" s="3"/>
       <c r="U95" s="3"/>
-    </row>
-    <row r="96" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V95" s="3"/>
+    </row>
+    <row r="96" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -5375,8 +5609,11 @@
       <c r="U96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -5434,8 +5671,11 @@
       <c r="U97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -5493,8 +5733,11 @@
       <c r="U98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -5552,67 +5795,73 @@
       <c r="U99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>-7600</v>
+      </c>
+      <c r="E100" s="3">
         <v>-1700</v>
       </c>
-      <c r="E100" s="3">
+      <c r="F100" s="3">
         <v>-19200</v>
       </c>
-      <c r="F100" s="3">
+      <c r="G100" s="3">
         <v>-3700</v>
       </c>
-      <c r="G100" s="3">
+      <c r="H100" s="3">
         <v>-12300</v>
       </c>
-      <c r="H100" s="3">
+      <c r="I100" s="3">
         <v>347600</v>
       </c>
-      <c r="I100" s="3">
+      <c r="J100" s="3">
         <v>-2800</v>
       </c>
-      <c r="J100" s="3">
+      <c r="K100" s="3">
         <v>1000</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>-2900</v>
       </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
         <v>491600</v>
       </c>
-      <c r="M100" s="3">
+      <c r="N100" s="3">
         <v>-4600</v>
       </c>
-      <c r="N100" s="3">
+      <c r="O100" s="3">
         <v>1900</v>
       </c>
-      <c r="O100" s="3">
+      <c r="P100" s="3">
         <v>-2800</v>
       </c>
-      <c r="P100" s="3">
+      <c r="Q100" s="3">
         <v>4400</v>
       </c>
-      <c r="Q100" s="3">
+      <c r="R100" s="3">
         <v>300</v>
       </c>
-      <c r="R100" s="3">
+      <c r="S100" s="3">
         <v>2000</v>
       </c>
-      <c r="S100" s="3">
+      <c r="T100" s="3">
         <v>445700</v>
       </c>
-      <c r="T100" s="3">
+      <c r="U100" s="3">
         <v>6700</v>
       </c>
-      <c r="U100" s="3">
+      <c r="V100" s="3">
         <v>2300</v>
       </c>
     </row>
-    <row r="101" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -5641,92 +5890,98 @@
         <v>0</v>
       </c>
       <c r="L101" s="3">
+        <v>0</v>
+      </c>
+      <c r="M101" s="3">
         <v>-200</v>
       </c>
-      <c r="M101" s="3">
-        <v>0</v>
-      </c>
       <c r="N101" s="3">
+        <v>0</v>
+      </c>
+      <c r="O101" s="3">
         <v>-700</v>
       </c>
-      <c r="O101" s="3">
-        <v>0</v>
-      </c>
       <c r="P101" s="3">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="Q101" s="3">
         <v>400</v>
       </c>
       <c r="R101" s="3">
+        <v>400</v>
+      </c>
+      <c r="S101" s="3">
         <v>500</v>
       </c>
-      <c r="S101" s="3">
+      <c r="T101" s="3">
         <v>700</v>
       </c>
-      <c r="T101" s="3">
+      <c r="U101" s="3">
         <v>-1400</v>
       </c>
-      <c r="U101" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="102" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>366400</v>
+      </c>
+      <c r="E102" s="3">
         <v>51800</v>
       </c>
-      <c r="E102" s="3">
+      <c r="F102" s="3">
         <v>-28500</v>
       </c>
-      <c r="F102" s="3">
+      <c r="G102" s="3">
         <v>-390800</v>
       </c>
-      <c r="G102" s="3">
+      <c r="H102" s="3">
         <v>-396200</v>
       </c>
-      <c r="H102" s="3">
+      <c r="I102" s="3">
         <v>546000</v>
       </c>
-      <c r="I102" s="3">
+      <c r="J102" s="3">
         <v>106400</v>
       </c>
-      <c r="J102" s="3">
+      <c r="K102" s="3">
         <v>74300</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>-13000</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>-88100</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>62100</v>
       </c>
-      <c r="N102" s="3">
+      <c r="O102" s="3">
         <v>220500</v>
       </c>
-      <c r="O102" s="3">
+      <c r="P102" s="3">
         <v>-25300</v>
       </c>
-      <c r="P102" s="3">
+      <c r="Q102" s="3">
         <v>51300</v>
       </c>
-      <c r="Q102" s="3">
+      <c r="R102" s="3">
         <v>-122100</v>
       </c>
-      <c r="R102" s="3">
+      <c r="S102" s="3">
         <v>-305000</v>
       </c>
-      <c r="S102" s="3">
+      <c r="T102" s="3">
         <v>422000</v>
       </c>
-      <c r="T102" s="3">
+      <c r="U102" s="3">
         <v>-10900</v>
       </c>
-      <c r="U102" s="3">
+      <c r="V102" s="3">
         <v>9700</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/LITE_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/LITE_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="126" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="121" uniqueCount="92">
   <si>
     <t>LITE</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:V102"/>
+  <dimension ref="A5:X102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,282 +665,306 @@
     <col min="1" max="1" width="6.42578125" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="13" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="6" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="10" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="14" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="18" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="20" width="13" style="1" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="12.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="23" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="6" width="13" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="8" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="12" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="16" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="20" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="22" width="13" style="1" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="12.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="25" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:24" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44471</v>
+      </c>
+      <c r="E7" s="2">
+        <v>44380</v>
+      </c>
+      <c r="F7" s="2">
         <v>44289</v>
       </c>
-      <c r="E7" s="2">
+      <c r="G7" s="2">
         <v>44191</v>
       </c>
-      <c r="F7" s="2">
+      <c r="H7" s="2">
         <v>44100</v>
       </c>
-      <c r="G7" s="2">
+      <c r="I7" s="2">
         <v>44009</v>
       </c>
-      <c r="H7" s="2">
+      <c r="J7" s="2">
         <v>43918</v>
       </c>
-      <c r="I7" s="2">
+      <c r="K7" s="2">
         <v>43827</v>
       </c>
-      <c r="J7" s="2">
+      <c r="L7" s="2">
         <v>43736</v>
       </c>
-      <c r="K7" s="2">
+      <c r="M7" s="2">
         <v>43645</v>
       </c>
-      <c r="L7" s="2">
+      <c r="N7" s="2">
         <v>43554</v>
       </c>
-      <c r="M7" s="2">
+      <c r="O7" s="2">
         <v>43463</v>
       </c>
-      <c r="N7" s="2">
+      <c r="P7" s="2">
         <v>43372</v>
       </c>
-      <c r="O7" s="2">
+      <c r="Q7" s="2">
         <v>43281</v>
       </c>
-      <c r="P7" s="2">
+      <c r="R7" s="2">
         <v>43190</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="S7" s="2">
         <v>43099</v>
       </c>
-      <c r="R7" s="2">
+      <c r="T7" s="2">
         <v>43008</v>
       </c>
-      <c r="S7" s="2">
+      <c r="U7" s="2">
         <v>42917</v>
       </c>
-      <c r="T7" s="2">
+      <c r="V7" s="2">
         <v>42826</v>
       </c>
-      <c r="U7" s="2">
+      <c r="W7" s="2">
         <v>42735</v>
       </c>
-      <c r="V7" s="2">
+      <c r="X7" s="2">
         <v>42644</v>
       </c>
     </row>
-    <row r="8" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
+        <v>448400</v>
+      </c>
+      <c r="E8" s="3">
+        <v>392100</v>
+      </c>
+      <c r="F8" s="3">
         <v>419500</v>
       </c>
-      <c r="E8" s="3">
+      <c r="G8" s="3">
         <v>478800</v>
       </c>
-      <c r="F8" s="3">
+      <c r="H8" s="3">
         <v>452400</v>
       </c>
-      <c r="G8" s="3">
+      <c r="I8" s="3">
         <v>368100</v>
       </c>
-      <c r="H8" s="3">
+      <c r="J8" s="3">
         <v>402800</v>
       </c>
-      <c r="I8" s="3">
+      <c r="K8" s="3">
         <v>457800</v>
       </c>
-      <c r="J8" s="3">
+      <c r="L8" s="3">
         <v>449900</v>
       </c>
-      <c r="K8" s="3">
+      <c r="M8" s="3">
         <v>404600</v>
       </c>
-      <c r="L8" s="3">
+      <c r="N8" s="3">
         <v>432900</v>
       </c>
-      <c r="M8" s="3">
+      <c r="O8" s="3">
         <v>373700</v>
       </c>
-      <c r="N8" s="3">
+      <c r="P8" s="3">
         <v>354100</v>
       </c>
-      <c r="O8" s="3">
+      <c r="Q8" s="3">
         <v>301100</v>
       </c>
-      <c r="P8" s="3">
+      <c r="R8" s="3">
         <v>298800</v>
       </c>
-      <c r="Q8" s="3">
+      <c r="S8" s="3">
         <v>404600</v>
       </c>
-      <c r="R8" s="3">
+      <c r="T8" s="3">
         <v>243200</v>
       </c>
-      <c r="S8" s="3">
+      <c r="U8" s="3">
         <v>222700</v>
       </c>
-      <c r="T8" s="3">
+      <c r="V8" s="3">
         <v>255800</v>
       </c>
-      <c r="U8" s="3">
+      <c r="W8" s="3">
         <v>265000</v>
       </c>
-      <c r="V8" s="3">
+      <c r="X8" s="3">
         <v>258100</v>
       </c>
     </row>
-    <row r="9" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
+        <v>216200</v>
+      </c>
+      <c r="E9" s="3">
+        <v>229300</v>
+      </c>
+      <c r="F9" s="3">
         <v>234500</v>
       </c>
-      <c r="E9" s="3">
+      <c r="G9" s="3">
         <v>249200</v>
       </c>
-      <c r="F9" s="3">
+      <c r="H9" s="3">
         <v>246700</v>
       </c>
-      <c r="G9" s="3">
+      <c r="I9" s="3">
         <v>232400</v>
       </c>
-      <c r="H9" s="3">
+      <c r="J9" s="3">
         <v>245100</v>
       </c>
-      <c r="I9" s="3">
+      <c r="K9" s="3">
         <v>268700</v>
       </c>
-      <c r="J9" s="3">
+      <c r="L9" s="3">
         <v>282200</v>
       </c>
-      <c r="K9" s="3">
+      <c r="M9" s="3">
         <v>317800</v>
       </c>
-      <c r="L9" s="3">
+      <c r="N9" s="3">
         <v>344600</v>
       </c>
-      <c r="M9" s="3">
+      <c r="O9" s="3">
         <v>248900</v>
       </c>
-      <c r="N9" s="3">
+      <c r="P9" s="3">
         <v>228100</v>
       </c>
-      <c r="O9" s="3">
+      <c r="Q9" s="3">
         <v>205600</v>
       </c>
-      <c r="P9" s="3">
+      <c r="R9" s="3">
         <v>201800</v>
       </c>
-      <c r="Q9" s="3">
+      <c r="S9" s="3">
         <v>233500</v>
       </c>
-      <c r="R9" s="3">
+      <c r="T9" s="3">
         <v>174700</v>
       </c>
-      <c r="S9" s="3">
+      <c r="U9" s="3">
         <v>155400</v>
       </c>
-      <c r="T9" s="3">
+      <c r="V9" s="3">
         <v>173700</v>
       </c>
-      <c r="U9" s="3">
+      <c r="W9" s="3">
         <v>178000</v>
       </c>
-      <c r="V9" s="3">
+      <c r="X9" s="3">
         <v>176400</v>
       </c>
     </row>
-    <row r="10" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
+        <v>232200</v>
+      </c>
+      <c r="E10" s="3">
+        <v>162800</v>
+      </c>
+      <c r="F10" s="3">
         <v>185000</v>
       </c>
-      <c r="E10" s="3">
+      <c r="G10" s="3">
         <v>229600</v>
       </c>
-      <c r="F10" s="3">
+      <c r="H10" s="3">
         <v>205700</v>
       </c>
-      <c r="G10" s="3">
+      <c r="I10" s="3">
         <v>135700</v>
       </c>
-      <c r="H10" s="3">
+      <c r="J10" s="3">
         <v>157700</v>
       </c>
-      <c r="I10" s="3">
+      <c r="K10" s="3">
         <v>189100</v>
       </c>
-      <c r="J10" s="3">
+      <c r="L10" s="3">
         <v>167700</v>
       </c>
-      <c r="K10" s="3">
+      <c r="M10" s="3">
         <v>86800</v>
       </c>
-      <c r="L10" s="3">
+      <c r="N10" s="3">
         <v>88300</v>
       </c>
-      <c r="M10" s="3">
+      <c r="O10" s="3">
         <v>124800</v>
       </c>
-      <c r="N10" s="3">
+      <c r="P10" s="3">
         <v>126000</v>
       </c>
-      <c r="O10" s="3">
+      <c r="Q10" s="3">
         <v>95500</v>
       </c>
-      <c r="P10" s="3">
+      <c r="R10" s="3">
         <v>97000</v>
       </c>
-      <c r="Q10" s="3">
+      <c r="S10" s="3">
         <v>171100</v>
       </c>
-      <c r="R10" s="3">
+      <c r="T10" s="3">
         <v>68500</v>
       </c>
-      <c r="S10" s="3">
+      <c r="U10" s="3">
         <v>67300</v>
       </c>
-      <c r="T10" s="3">
+      <c r="V10" s="3">
         <v>82100</v>
       </c>
-      <c r="U10" s="3">
+      <c r="W10" s="3">
         <v>87000</v>
       </c>
-      <c r="V10" s="3">
+      <c r="X10" s="3">
         <v>81700</v>
       </c>
     </row>
-    <row r="11" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -963,70 +987,78 @@
       <c r="T11" s="3"/>
       <c r="U11" s="3"/>
       <c r="V11" s="3"/>
-    </row>
-    <row r="12" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="W11" s="3"/>
+      <c r="X11" s="3"/>
+    </row>
+    <row r="12" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
       <c r="D12" s="3">
+        <v>54100</v>
+      </c>
+      <c r="E12" s="3">
+        <v>54100</v>
+      </c>
+      <c r="F12" s="3">
         <v>57200</v>
       </c>
-      <c r="E12" s="3">
+      <c r="G12" s="3">
         <v>52800</v>
       </c>
-      <c r="F12" s="3">
+      <c r="H12" s="3">
         <v>50400</v>
       </c>
-      <c r="G12" s="3">
+      <c r="I12" s="3">
         <v>49000</v>
       </c>
-      <c r="H12" s="3">
+      <c r="J12" s="3">
         <v>48700</v>
       </c>
-      <c r="I12" s="3">
+      <c r="K12" s="3">
         <v>51000</v>
       </c>
-      <c r="J12" s="3">
+      <c r="L12" s="3">
         <v>49900</v>
       </c>
-      <c r="K12" s="3">
+      <c r="M12" s="3">
         <v>49500</v>
       </c>
-      <c r="L12" s="3">
+      <c r="N12" s="3">
         <v>57700</v>
       </c>
-      <c r="M12" s="3">
+      <c r="O12" s="3">
         <v>42800</v>
       </c>
-      <c r="N12" s="3">
+      <c r="P12" s="3">
         <v>34600</v>
       </c>
-      <c r="O12" s="3">
+      <c r="Q12" s="3">
         <v>38500</v>
       </c>
-      <c r="P12" s="3">
+      <c r="R12" s="3">
         <v>38200</v>
       </c>
-      <c r="Q12" s="3">
+      <c r="S12" s="3">
         <v>43800</v>
       </c>
-      <c r="R12" s="3">
+      <c r="T12" s="3">
         <v>36300</v>
       </c>
-      <c r="S12" s="3">
+      <c r="U12" s="3">
         <v>35400</v>
       </c>
-      <c r="T12" s="3">
+      <c r="V12" s="3">
         <v>37300</v>
       </c>
-      <c r="U12" s="3">
+      <c r="W12" s="3">
         <v>38700</v>
       </c>
-      <c r="V12" s="3">
+      <c r="X12" s="3">
         <v>36900</v>
       </c>
     </row>
-    <row r="13" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>8</v>
       </c>
@@ -1087,132 +1119,150 @@
       <c r="V13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="W13" s="3">
+        <v>0</v>
+      </c>
+      <c r="X13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>9</v>
       </c>
       <c r="D14" s="3">
+        <v>-1100</v>
+      </c>
+      <c r="E14" s="3">
+        <v>4600</v>
+      </c>
+      <c r="F14" s="3">
         <v>-204600</v>
       </c>
-      <c r="E14" s="3">
+      <c r="G14" s="3">
         <v>200</v>
       </c>
-      <c r="F14" s="3">
-        <v>0</v>
-      </c>
-      <c r="G14" s="3">
+      <c r="H14" s="3">
+        <v>0</v>
+      </c>
+      <c r="I14" s="3">
         <v>4900</v>
       </c>
-      <c r="H14" s="3">
+      <c r="J14" s="3">
         <v>5200</v>
       </c>
-      <c r="I14" s="3">
+      <c r="K14" s="3">
         <v>900</v>
       </c>
-      <c r="J14" s="3">
+      <c r="L14" s="3">
         <v>1300</v>
       </c>
-      <c r="K14" s="3">
+      <c r="M14" s="3">
         <v>1700</v>
       </c>
-      <c r="L14" s="3">
+      <c r="N14" s="3">
         <v>51800</v>
       </c>
-      <c r="M14" s="3">
+      <c r="O14" s="3">
         <v>7800</v>
       </c>
-      <c r="N14" s="3">
+      <c r="P14" s="3">
         <v>1300</v>
       </c>
-      <c r="O14" s="3">
+      <c r="Q14" s="3">
         <v>3400</v>
       </c>
-      <c r="P14" s="3">
+      <c r="R14" s="3">
         <v>100</v>
       </c>
-      <c r="Q14" s="3">
+      <c r="S14" s="3">
         <v>4500</v>
       </c>
-      <c r="R14" s="3">
+      <c r="T14" s="3">
         <v>2900</v>
       </c>
-      <c r="S14" s="3">
+      <c r="U14" s="3">
         <v>2000</v>
       </c>
-      <c r="T14" s="3">
+      <c r="V14" s="3">
         <v>3100</v>
       </c>
-      <c r="U14" s="3">
+      <c r="W14" s="3">
         <v>4000</v>
       </c>
-      <c r="V14" s="3">
+      <c r="X14" s="3">
         <v>2900</v>
       </c>
     </row>
-    <row r="15" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D15" s="3">
+        <v>5600</v>
+      </c>
+      <c r="E15" s="3">
         <v>6200</v>
       </c>
-      <c r="E15" s="3">
+      <c r="F15" s="3">
+        <v>6200</v>
+      </c>
+      <c r="G15" s="3">
         <v>5900</v>
       </c>
-      <c r="F15" s="3">
+      <c r="H15" s="3">
         <v>5700</v>
-      </c>
-      <c r="G15" s="3">
-        <v>6200</v>
-      </c>
-      <c r="H15" s="3">
-        <v>6100</v>
       </c>
       <c r="I15" s="3">
         <v>6200</v>
       </c>
       <c r="J15" s="3">
+        <v>6100</v>
+      </c>
+      <c r="K15" s="3">
+        <v>6200</v>
+      </c>
+      <c r="L15" s="3">
         <v>6300</v>
       </c>
-      <c r="K15" s="3">
+      <c r="M15" s="3">
         <v>3600</v>
       </c>
-      <c r="L15" s="3">
+      <c r="N15" s="3">
         <v>3600</v>
       </c>
-      <c r="M15" s="3">
+      <c r="O15" s="3">
         <v>800</v>
-      </c>
-      <c r="N15" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="O15" s="3" t="s">
-        <v>17</v>
       </c>
       <c r="P15" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="Q15" s="3">
-        <v>0</v>
+      <c r="Q15" s="3" t="s">
+        <v>17</v>
       </c>
       <c r="R15" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="S15" s="3" t="s">
+      <c r="S15" s="3">
+        <v>0</v>
+      </c>
+      <c r="T15" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="T15" s="3">
-        <v>0</v>
-      </c>
-      <c r="U15" s="3">
-        <v>0</v>
+      <c r="U15" s="3" t="s">
+        <v>17</v>
       </c>
       <c r="V15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="W15" s="3">
+        <v>0</v>
+      </c>
+      <c r="X15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:24" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1232,132 +1282,146 @@
       <c r="T16" s="3"/>
       <c r="U16" s="3"/>
       <c r="V16" s="3"/>
-    </row>
-    <row r="17" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W16" s="3"/>
+      <c r="X16" s="3"/>
+    </row>
+    <row r="17" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>11</v>
       </c>
       <c r="D17" s="3">
+        <v>332500</v>
+      </c>
+      <c r="E17" s="3">
+        <v>346300</v>
+      </c>
+      <c r="F17" s="3">
         <v>152600</v>
       </c>
-      <c r="E17" s="3">
+      <c r="G17" s="3">
         <v>363500</v>
       </c>
-      <c r="F17" s="3">
+      <c r="H17" s="3">
         <v>353400</v>
       </c>
-      <c r="G17" s="3">
+      <c r="I17" s="3">
         <v>341100</v>
       </c>
-      <c r="H17" s="3">
+      <c r="J17" s="3">
         <v>360300</v>
       </c>
-      <c r="I17" s="3">
+      <c r="K17" s="3">
         <v>383000</v>
       </c>
-      <c r="J17" s="3">
+      <c r="L17" s="3">
         <v>390100</v>
       </c>
-      <c r="K17" s="3">
+      <c r="M17" s="3">
         <v>418400</v>
       </c>
-      <c r="L17" s="3">
+      <c r="N17" s="3">
         <v>509300</v>
       </c>
-      <c r="M17" s="3">
+      <c r="O17" s="3">
         <v>362200</v>
       </c>
-      <c r="N17" s="3">
+      <c r="P17" s="3">
         <v>297000</v>
       </c>
-      <c r="O17" s="3">
+      <c r="Q17" s="3">
         <v>280200</v>
       </c>
-      <c r="P17" s="3">
+      <c r="R17" s="3">
         <v>273300</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="S17" s="3">
         <v>313800</v>
       </c>
-      <c r="R17" s="3">
+      <c r="T17" s="3">
         <v>240500</v>
       </c>
-      <c r="S17" s="3">
+      <c r="U17" s="3">
         <v>218800</v>
       </c>
-      <c r="T17" s="3">
+      <c r="V17" s="3">
         <v>242200</v>
       </c>
-      <c r="U17" s="3">
+      <c r="W17" s="3">
         <v>251700</v>
       </c>
-      <c r="V17" s="3">
+      <c r="X17" s="3">
         <v>241300</v>
       </c>
     </row>
-    <row r="18" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D18" s="3">
+        <v>115900</v>
+      </c>
+      <c r="E18" s="3">
+        <v>45800</v>
+      </c>
+      <c r="F18" s="3">
         <v>266900</v>
       </c>
-      <c r="E18" s="3">
+      <c r="G18" s="3">
         <v>115300</v>
       </c>
-      <c r="F18" s="3">
+      <c r="H18" s="3">
         <v>99000</v>
       </c>
-      <c r="G18" s="3">
+      <c r="I18" s="3">
         <v>27000</v>
       </c>
-      <c r="H18" s="3">
+      <c r="J18" s="3">
         <v>42500</v>
       </c>
-      <c r="I18" s="3">
+      <c r="K18" s="3">
         <v>74800</v>
       </c>
-      <c r="J18" s="3">
+      <c r="L18" s="3">
         <v>59800</v>
       </c>
-      <c r="K18" s="3">
+      <c r="M18" s="3">
         <v>-13800</v>
       </c>
-      <c r="L18" s="3">
+      <c r="N18" s="3">
         <v>-76400</v>
       </c>
-      <c r="M18" s="3">
+      <c r="O18" s="3">
         <v>11500</v>
       </c>
-      <c r="N18" s="3">
+      <c r="P18" s="3">
         <v>57100</v>
       </c>
-      <c r="O18" s="3">
+      <c r="Q18" s="3">
         <v>20900</v>
       </c>
-      <c r="P18" s="3">
+      <c r="R18" s="3">
         <v>25500</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="S18" s="3">
         <v>90800</v>
       </c>
-      <c r="R18" s="3">
+      <c r="T18" s="3">
         <v>2700</v>
       </c>
-      <c r="S18" s="3">
+      <c r="U18" s="3">
         <v>3900</v>
       </c>
-      <c r="T18" s="3">
+      <c r="V18" s="3">
         <v>13600</v>
       </c>
-      <c r="U18" s="3">
+      <c r="W18" s="3">
         <v>13300</v>
       </c>
-      <c r="V18" s="3">
+      <c r="X18" s="3">
         <v>16800</v>
       </c>
     </row>
-    <row r="19" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>13</v>
       </c>
@@ -1380,185 +1444,199 @@
       <c r="T19" s="3"/>
       <c r="U19" s="3"/>
       <c r="V19" s="3"/>
-    </row>
-    <row r="20" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W19" s="3"/>
+      <c r="X19" s="3"/>
+    </row>
+    <row r="20" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>14</v>
       </c>
       <c r="D20" s="3">
+        <v>600</v>
+      </c>
+      <c r="E20" s="3">
+        <v>700</v>
+      </c>
+      <c r="F20" s="3">
         <v>2400</v>
       </c>
-      <c r="E20" s="3">
+      <c r="G20" s="3">
         <v>-900</v>
       </c>
-      <c r="F20" s="3">
+      <c r="H20" s="3">
         <v>600</v>
       </c>
-      <c r="G20" s="3">
+      <c r="I20" s="3">
         <v>3500</v>
       </c>
-      <c r="H20" s="3">
+      <c r="J20" s="3">
         <v>21700</v>
       </c>
-      <c r="I20" s="3">
+      <c r="K20" s="3">
         <v>1200</v>
       </c>
-      <c r="J20" s="3">
+      <c r="L20" s="3">
         <v>5000</v>
       </c>
-      <c r="K20" s="3">
+      <c r="M20" s="3">
         <v>4100</v>
       </c>
-      <c r="L20" s="3">
+      <c r="N20" s="3">
         <v>5200</v>
       </c>
-      <c r="M20" s="3">
+      <c r="O20" s="3">
         <v>14700</v>
       </c>
-      <c r="N20" s="3">
+      <c r="P20" s="3">
         <v>600</v>
       </c>
-      <c r="O20" s="3">
+      <c r="Q20" s="3">
         <v>11400</v>
       </c>
-      <c r="P20" s="3">
+      <c r="R20" s="3">
         <v>-18200</v>
       </c>
-      <c r="Q20" s="3">
+      <c r="S20" s="3">
         <v>9300</v>
       </c>
-      <c r="R20" s="3">
+      <c r="T20" s="3">
         <v>5200</v>
       </c>
-      <c r="S20" s="3">
+      <c r="U20" s="3">
         <v>-31500</v>
       </c>
-      <c r="T20" s="3">
+      <c r="V20" s="3">
         <v>-58000</v>
       </c>
-      <c r="U20" s="3">
+      <c r="W20" s="3">
         <v>4600</v>
       </c>
-      <c r="V20" s="3">
+      <c r="X20" s="3">
         <v>-22500</v>
       </c>
     </row>
-    <row r="21" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D21" s="3">
+        <v>158300</v>
+      </c>
+      <c r="E21" s="3">
+        <v>89600</v>
+      </c>
+      <c r="F21" s="3">
         <v>314100</v>
       </c>
-      <c r="E21" s="3">
+      <c r="G21" s="3">
         <v>159100</v>
       </c>
-      <c r="F21" s="3">
+      <c r="H21" s="3">
         <v>144100</v>
       </c>
-      <c r="G21" s="3">
+      <c r="I21" s="3">
         <v>77200</v>
       </c>
-      <c r="H21" s="3">
+      <c r="J21" s="3">
         <v>111700</v>
       </c>
-      <c r="I21" s="3">
+      <c r="K21" s="3">
         <v>123300</v>
       </c>
-      <c r="J21" s="3">
+      <c r="L21" s="3">
         <v>115200</v>
       </c>
-      <c r="K21" s="3">
+      <c r="M21" s="3">
         <v>35400</v>
       </c>
-      <c r="L21" s="3">
+      <c r="N21" s="3">
         <v>-10500</v>
       </c>
-      <c r="M21" s="3">
+      <c r="O21" s="3">
         <v>57400</v>
       </c>
-      <c r="N21" s="3">
+      <c r="P21" s="3">
         <v>78200</v>
       </c>
-      <c r="O21" s="3">
+      <c r="Q21" s="3">
         <v>53800</v>
       </c>
-      <c r="P21" s="3">
+      <c r="R21" s="3">
         <v>26500</v>
       </c>
-      <c r="Q21" s="3">
+      <c r="S21" s="3">
         <v>119100</v>
       </c>
-      <c r="R21" s="3">
+      <c r="T21" s="3">
         <v>25400</v>
       </c>
-      <c r="S21" s="3">
+      <c r="U21" s="3">
         <v>-11100</v>
       </c>
-      <c r="T21" s="3">
+      <c r="V21" s="3">
         <v>-28500</v>
       </c>
-      <c r="U21" s="3">
+      <c r="W21" s="3">
         <v>32800</v>
       </c>
-      <c r="V21" s="3">
+      <c r="X21" s="3">
         <v>8000</v>
       </c>
     </row>
-    <row r="22" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D22" s="3">
+        <v>16900</v>
+      </c>
+      <c r="E22" s="3">
+        <v>18000</v>
+      </c>
+      <c r="F22" s="3">
         <v>16400</v>
       </c>
-      <c r="E22" s="3">
+      <c r="G22" s="3">
         <v>16300</v>
       </c>
-      <c r="F22" s="3">
+      <c r="H22" s="3">
         <v>16000</v>
       </c>
-      <c r="G22" s="3">
+      <c r="I22" s="3">
         <v>15900</v>
       </c>
-      <c r="H22" s="3">
+      <c r="J22" s="3">
         <v>15600</v>
       </c>
-      <c r="I22" s="3">
+      <c r="K22" s="3">
         <v>18300</v>
       </c>
-      <c r="J22" s="3">
+      <c r="L22" s="3">
         <v>11400</v>
       </c>
-      <c r="K22" s="3">
+      <c r="M22" s="3">
         <v>11400</v>
       </c>
-      <c r="L22" s="3">
+      <c r="N22" s="3">
         <v>11300</v>
       </c>
-      <c r="M22" s="3">
+      <c r="O22" s="3">
         <v>8500</v>
       </c>
-      <c r="N22" s="3">
+      <c r="P22" s="3">
         <v>5100</v>
-      </c>
-      <c r="O22" s="3">
-        <v>4600</v>
-      </c>
-      <c r="P22" s="3">
-        <v>4600</v>
       </c>
       <c r="Q22" s="3">
         <v>4600</v>
       </c>
       <c r="R22" s="3">
+        <v>4600</v>
+      </c>
+      <c r="S22" s="3">
+        <v>4600</v>
+      </c>
+      <c r="T22" s="3">
         <v>4400</v>
-      </c>
-      <c r="S22" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="T22" s="3" t="s">
-        <v>17</v>
       </c>
       <c r="U22" s="3" t="s">
         <v>17</v>
@@ -1566,132 +1644,150 @@
       <c r="V22" s="3" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="23" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W22" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="X22" s="3" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="23" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>99600</v>
+      </c>
+      <c r="E23" s="3">
+        <v>28500</v>
+      </c>
+      <c r="F23" s="3">
         <v>252900</v>
       </c>
-      <c r="E23" s="3">
+      <c r="G23" s="3">
         <v>98100</v>
       </c>
-      <c r="F23" s="3">
+      <c r="H23" s="3">
         <v>83600</v>
       </c>
-      <c r="G23" s="3">
+      <c r="I23" s="3">
         <v>14600</v>
       </c>
-      <c r="H23" s="3">
+      <c r="J23" s="3">
         <v>48600</v>
       </c>
-      <c r="I23" s="3">
+      <c r="K23" s="3">
         <v>57700</v>
       </c>
-      <c r="J23" s="3">
+      <c r="L23" s="3">
         <v>53400</v>
       </c>
-      <c r="K23" s="3">
+      <c r="M23" s="3">
         <v>-21100</v>
       </c>
-      <c r="L23" s="3">
+      <c r="N23" s="3">
         <v>-82500</v>
       </c>
-      <c r="M23" s="3">
+      <c r="O23" s="3">
         <v>17700</v>
       </c>
-      <c r="N23" s="3">
+      <c r="P23" s="3">
         <v>52600</v>
       </c>
-      <c r="O23" s="3">
+      <c r="Q23" s="3">
         <v>27700</v>
       </c>
-      <c r="P23" s="3">
+      <c r="R23" s="3">
         <v>2700</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="S23" s="3">
         <v>95500</v>
       </c>
-      <c r="R23" s="3">
+      <c r="T23" s="3">
         <v>3500</v>
       </c>
-      <c r="S23" s="3">
+      <c r="U23" s="3">
         <v>-27600</v>
       </c>
-      <c r="T23" s="3">
+      <c r="V23" s="3">
         <v>-44400</v>
       </c>
-      <c r="U23" s="3">
+      <c r="W23" s="3">
         <v>17900</v>
       </c>
-      <c r="V23" s="3">
+      <c r="X23" s="3">
         <v>-5700</v>
       </c>
     </row>
-    <row r="24" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
+        <v>18100</v>
+      </c>
+      <c r="E24" s="3">
+        <v>7000</v>
+      </c>
+      <c r="F24" s="3">
         <v>27400</v>
       </c>
-      <c r="E24" s="3">
+      <c r="G24" s="3">
         <v>14900</v>
       </c>
-      <c r="F24" s="3">
+      <c r="H24" s="3">
         <v>16500</v>
       </c>
-      <c r="G24" s="3">
+      <c r="I24" s="3">
         <v>19200</v>
       </c>
-      <c r="H24" s="3">
+      <c r="J24" s="3">
         <v>5200</v>
       </c>
-      <c r="I24" s="3">
+      <c r="K24" s="3">
         <v>8600</v>
       </c>
-      <c r="J24" s="3">
+      <c r="L24" s="3">
         <v>5800</v>
       </c>
-      <c r="K24" s="3">
+      <c r="M24" s="3">
         <v>4700</v>
       </c>
-      <c r="L24" s="3">
+      <c r="N24" s="3">
         <v>-8200</v>
       </c>
-      <c r="M24" s="3">
+      <c r="O24" s="3">
         <v>1400</v>
       </c>
-      <c r="N24" s="3">
+      <c r="P24" s="3">
         <v>5200</v>
       </c>
-      <c r="O24" s="3">
+      <c r="Q24" s="3">
         <v>-3300</v>
       </c>
-      <c r="P24" s="3">
-        <v>0</v>
-      </c>
-      <c r="Q24" s="3">
+      <c r="R24" s="3">
+        <v>0</v>
+      </c>
+      <c r="S24" s="3">
         <v>-109300</v>
       </c>
-      <c r="R24" s="3">
+      <c r="T24" s="3">
         <v>-3600</v>
       </c>
-      <c r="S24" s="3">
+      <c r="U24" s="3">
         <v>27300</v>
       </c>
-      <c r="T24" s="3">
+      <c r="V24" s="3">
         <v>11600</v>
       </c>
-      <c r="U24" s="3">
+      <c r="W24" s="3">
         <v>6100</v>
       </c>
-      <c r="V24" s="3">
+      <c r="X24" s="3">
         <v>-2300</v>
       </c>
     </row>
-    <row r="25" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="25" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1752,132 +1848,150 @@
       <c r="V25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W25" s="3">
+        <v>0</v>
+      </c>
+      <c r="X25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>81500</v>
+      </c>
+      <c r="E26" s="3">
+        <v>21500</v>
+      </c>
+      <c r="F26" s="3">
         <v>225500</v>
       </c>
-      <c r="E26" s="3">
+      <c r="G26" s="3">
         <v>83200</v>
       </c>
-      <c r="F26" s="3">
+      <c r="H26" s="3">
         <v>67100</v>
       </c>
-      <c r="G26" s="3">
+      <c r="I26" s="3">
         <v>-4600</v>
       </c>
-      <c r="H26" s="3">
+      <c r="J26" s="3">
         <v>43400</v>
       </c>
-      <c r="I26" s="3">
+      <c r="K26" s="3">
         <v>49100</v>
       </c>
-      <c r="J26" s="3">
+      <c r="L26" s="3">
         <v>47600</v>
       </c>
-      <c r="K26" s="3">
+      <c r="M26" s="3">
         <v>-25800</v>
       </c>
-      <c r="L26" s="3">
+      <c r="N26" s="3">
         <v>-74300</v>
       </c>
-      <c r="M26" s="3">
+      <c r="O26" s="3">
         <v>16300</v>
       </c>
-      <c r="N26" s="3">
+      <c r="P26" s="3">
         <v>47400</v>
       </c>
-      <c r="O26" s="3">
+      <c r="Q26" s="3">
         <v>31000</v>
       </c>
-      <c r="P26" s="3">
+      <c r="R26" s="3">
         <v>2700</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="S26" s="3">
         <v>204800</v>
       </c>
-      <c r="R26" s="3">
+      <c r="T26" s="3">
         <v>7100</v>
       </c>
-      <c r="S26" s="3">
+      <c r="U26" s="3">
         <v>-54900</v>
       </c>
-      <c r="T26" s="3">
+      <c r="V26" s="3">
         <v>-56000</v>
       </c>
-      <c r="U26" s="3">
+      <c r="W26" s="3">
         <v>11800</v>
       </c>
-      <c r="V26" s="3">
+      <c r="X26" s="3">
         <v>-3400</v>
       </c>
     </row>
-    <row r="27" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>81500</v>
+      </c>
+      <c r="E27" s="3">
+        <v>21500</v>
+      </c>
+      <c r="F27" s="3">
         <v>225500</v>
       </c>
-      <c r="E27" s="3">
+      <c r="G27" s="3">
         <v>83200</v>
       </c>
-      <c r="F27" s="3">
+      <c r="H27" s="3">
         <v>67100</v>
       </c>
-      <c r="G27" s="3">
+      <c r="I27" s="3">
         <v>-4600</v>
       </c>
-      <c r="H27" s="3">
+      <c r="J27" s="3">
         <v>43400</v>
       </c>
-      <c r="I27" s="3">
+      <c r="K27" s="3">
         <v>49100</v>
       </c>
-      <c r="J27" s="3">
+      <c r="L27" s="3">
         <v>47600</v>
       </c>
-      <c r="K27" s="3">
+      <c r="M27" s="3">
         <v>-25800</v>
       </c>
-      <c r="L27" s="3">
+      <c r="N27" s="3">
         <v>-74300</v>
       </c>
-      <c r="M27" s="3">
+      <c r="O27" s="3">
         <v>16200</v>
       </c>
-      <c r="N27" s="3">
+      <c r="P27" s="3">
         <v>46100</v>
       </c>
-      <c r="O27" s="3">
+      <c r="Q27" s="3">
         <v>30000</v>
       </c>
-      <c r="P27" s="3">
+      <c r="R27" s="3">
         <v>2400</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="S27" s="3">
         <v>199800</v>
       </c>
-      <c r="R27" s="3">
+      <c r="T27" s="3">
         <v>6900</v>
       </c>
-      <c r="S27" s="3">
+      <c r="U27" s="3">
         <v>-55200</v>
       </c>
-      <c r="T27" s="3">
+      <c r="V27" s="3">
         <v>-56200</v>
       </c>
-      <c r="U27" s="3">
+      <c r="W27" s="3">
         <v>11600</v>
       </c>
-      <c r="V27" s="3">
+      <c r="X27" s="3">
         <v>-3600</v>
       </c>
     </row>
-    <row r="28" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1938,58 +2052,64 @@
       <c r="V28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W28" s="3">
+        <v>0</v>
+      </c>
+      <c r="X28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="D29" s="3" t="s">
+      <c r="D29" s="3">
+        <v>0</v>
+      </c>
+      <c r="E29" s="3">
+        <v>0</v>
+      </c>
+      <c r="F29" s="3">
+        <v>0</v>
+      </c>
+      <c r="G29" s="3">
+        <v>0</v>
+      </c>
+      <c r="H29" s="3">
+        <v>0</v>
+      </c>
+      <c r="I29" s="3">
+        <v>0</v>
+      </c>
+      <c r="J29" s="3">
+        <v>0</v>
+      </c>
+      <c r="K29" s="3" t="s">
         <v>17</v>
-      </c>
-      <c r="E29" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="F29" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="G29" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="H29" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="I29" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="J29" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="K29" s="3">
-        <v>0</v>
       </c>
       <c r="L29" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="M29" s="3" t="s">
-        <v>17</v>
+      <c r="M29" s="3">
+        <v>0</v>
       </c>
       <c r="N29" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="O29" s="3">
+      <c r="O29" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="P29" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="Q29" s="3">
         <v>2500</v>
       </c>
-      <c r="P29" s="3">
-        <v>0</v>
-      </c>
-      <c r="Q29" s="3">
+      <c r="R29" s="3">
+        <v>0</v>
+      </c>
+      <c r="S29" s="3">
         <v>-83000</v>
-      </c>
-      <c r="R29" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="S29" s="3" t="s">
-        <v>17</v>
       </c>
       <c r="T29" s="3" t="s">
         <v>17</v>
@@ -2000,8 +2120,14 @@
       <c r="V29" s="3" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="30" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W29" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="X29" s="3" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="30" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -2062,8 +2188,14 @@
       <c r="V30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W30" s="3">
+        <v>0</v>
+      </c>
+      <c r="X30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -2124,132 +2256,150 @@
       <c r="V31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W31" s="3">
+        <v>0</v>
+      </c>
+      <c r="X31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
+        <v>-600</v>
+      </c>
+      <c r="E32" s="3">
+        <v>-700</v>
+      </c>
+      <c r="F32" s="3">
         <v>-2400</v>
       </c>
-      <c r="E32" s="3">
+      <c r="G32" s="3">
         <v>900</v>
       </c>
-      <c r="F32" s="3">
+      <c r="H32" s="3">
         <v>-600</v>
       </c>
-      <c r="G32" s="3">
+      <c r="I32" s="3">
         <v>-3500</v>
       </c>
-      <c r="H32" s="3">
+      <c r="J32" s="3">
         <v>-21700</v>
       </c>
-      <c r="I32" s="3">
+      <c r="K32" s="3">
         <v>-1200</v>
       </c>
-      <c r="J32" s="3">
+      <c r="L32" s="3">
         <v>-5000</v>
       </c>
-      <c r="K32" s="3">
+      <c r="M32" s="3">
         <v>-4100</v>
       </c>
-      <c r="L32" s="3">
+      <c r="N32" s="3">
         <v>-5200</v>
       </c>
-      <c r="M32" s="3">
+      <c r="O32" s="3">
         <v>-14700</v>
       </c>
-      <c r="N32" s="3">
+      <c r="P32" s="3">
         <v>-600</v>
       </c>
-      <c r="O32" s="3">
+      <c r="Q32" s="3">
         <v>-11400</v>
       </c>
-      <c r="P32" s="3">
+      <c r="R32" s="3">
         <v>18200</v>
       </c>
-      <c r="Q32" s="3">
+      <c r="S32" s="3">
         <v>-9300</v>
       </c>
-      <c r="R32" s="3">
+      <c r="T32" s="3">
         <v>-5200</v>
       </c>
-      <c r="S32" s="3">
+      <c r="U32" s="3">
         <v>31500</v>
       </c>
-      <c r="T32" s="3">
+      <c r="V32" s="3">
         <v>58000</v>
       </c>
-      <c r="U32" s="3">
+      <c r="W32" s="3">
         <v>-4600</v>
       </c>
-      <c r="V32" s="3">
+      <c r="X32" s="3">
         <v>22500</v>
       </c>
     </row>
-    <row r="33" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>81500</v>
+      </c>
+      <c r="E33" s="3">
+        <v>21500</v>
+      </c>
+      <c r="F33" s="3">
         <v>225500</v>
       </c>
-      <c r="E33" s="3">
+      <c r="G33" s="3">
         <v>83200</v>
       </c>
-      <c r="F33" s="3">
+      <c r="H33" s="3">
         <v>67100</v>
       </c>
-      <c r="G33" s="3">
+      <c r="I33" s="3">
         <v>-4600</v>
       </c>
-      <c r="H33" s="3">
+      <c r="J33" s="3">
         <v>43400</v>
       </c>
-      <c r="I33" s="3">
+      <c r="K33" s="3">
         <v>49100</v>
       </c>
-      <c r="J33" s="3">
+      <c r="L33" s="3">
         <v>47600</v>
       </c>
-      <c r="K33" s="3">
+      <c r="M33" s="3">
         <v>-25800</v>
       </c>
-      <c r="L33" s="3">
+      <c r="N33" s="3">
         <v>-74300</v>
       </c>
-      <c r="M33" s="3">
+      <c r="O33" s="3">
         <v>16200</v>
       </c>
-      <c r="N33" s="3">
+      <c r="P33" s="3">
         <v>46100</v>
       </c>
-      <c r="O33" s="3">
+      <c r="Q33" s="3">
         <v>32500</v>
       </c>
-      <c r="P33" s="3">
+      <c r="R33" s="3">
         <v>2400</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="S33" s="3">
         <v>116800</v>
       </c>
-      <c r="R33" s="3">
+      <c r="T33" s="3">
         <v>6900</v>
       </c>
-      <c r="S33" s="3">
+      <c r="U33" s="3">
         <v>-55200</v>
       </c>
-      <c r="T33" s="3">
+      <c r="V33" s="3">
         <v>-56200</v>
       </c>
-      <c r="U33" s="3">
+      <c r="W33" s="3">
         <v>11600</v>
       </c>
-      <c r="V33" s="3">
+      <c r="X33" s="3">
         <v>-3600</v>
       </c>
     </row>
-    <row r="34" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2310,137 +2460,155 @@
       <c r="V34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W34" s="3">
+        <v>0</v>
+      </c>
+      <c r="X34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>81500</v>
+      </c>
+      <c r="E35" s="3">
+        <v>21500</v>
+      </c>
+      <c r="F35" s="3">
         <v>225500</v>
       </c>
-      <c r="E35" s="3">
+      <c r="G35" s="3">
         <v>83200</v>
       </c>
-      <c r="F35" s="3">
+      <c r="H35" s="3">
         <v>67100</v>
       </c>
-      <c r="G35" s="3">
+      <c r="I35" s="3">
         <v>-4600</v>
       </c>
-      <c r="H35" s="3">
+      <c r="J35" s="3">
         <v>43400</v>
       </c>
-      <c r="I35" s="3">
+      <c r="K35" s="3">
         <v>49100</v>
       </c>
-      <c r="J35" s="3">
+      <c r="L35" s="3">
         <v>47600</v>
       </c>
-      <c r="K35" s="3">
+      <c r="M35" s="3">
         <v>-25800</v>
       </c>
-      <c r="L35" s="3">
+      <c r="N35" s="3">
         <v>-74300</v>
       </c>
-      <c r="M35" s="3">
+      <c r="O35" s="3">
         <v>16200</v>
       </c>
-      <c r="N35" s="3">
+      <c r="P35" s="3">
         <v>46100</v>
       </c>
-      <c r="O35" s="3">
+      <c r="Q35" s="3">
         <v>32500</v>
       </c>
-      <c r="P35" s="3">
+      <c r="R35" s="3">
         <v>2400</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="S35" s="3">
         <v>116800</v>
       </c>
-      <c r="R35" s="3">
+      <c r="T35" s="3">
         <v>6900</v>
       </c>
-      <c r="S35" s="3">
+      <c r="U35" s="3">
         <v>-55200</v>
       </c>
-      <c r="T35" s="3">
+      <c r="V35" s="3">
         <v>-56200</v>
       </c>
-      <c r="U35" s="3">
+      <c r="W35" s="3">
         <v>11600</v>
       </c>
-      <c r="V35" s="3">
+      <c r="X35" s="3">
         <v>-3600</v>
       </c>
     </row>
-    <row r="37" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:24" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44471</v>
+      </c>
+      <c r="E38" s="2">
+        <v>44380</v>
+      </c>
+      <c r="F38" s="2">
         <v>44289</v>
       </c>
-      <c r="E38" s="2">
+      <c r="G38" s="2">
         <v>44191</v>
       </c>
-      <c r="F38" s="2">
+      <c r="H38" s="2">
         <v>44100</v>
       </c>
-      <c r="G38" s="2">
+      <c r="I38" s="2">
         <v>44009</v>
       </c>
-      <c r="H38" s="2">
+      <c r="J38" s="2">
         <v>43918</v>
       </c>
-      <c r="I38" s="2">
+      <c r="K38" s="2">
         <v>43827</v>
       </c>
-      <c r="J38" s="2">
+      <c r="L38" s="2">
         <v>43736</v>
       </c>
-      <c r="K38" s="2">
+      <c r="M38" s="2">
         <v>43645</v>
       </c>
-      <c r="L38" s="2">
+      <c r="N38" s="2">
         <v>43554</v>
       </c>
-      <c r="M38" s="2">
+      <c r="O38" s="2">
         <v>43463</v>
       </c>
-      <c r="N38" s="2">
+      <c r="P38" s="2">
         <v>43372</v>
       </c>
-      <c r="O38" s="2">
+      <c r="Q38" s="2">
         <v>43281</v>
       </c>
-      <c r="P38" s="2">
+      <c r="R38" s="2">
         <v>43190</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="S38" s="2">
         <v>43099</v>
       </c>
-      <c r="R38" s="2">
+      <c r="T38" s="2">
         <v>43008</v>
       </c>
-      <c r="S38" s="2">
+      <c r="U38" s="2">
         <v>42917</v>
       </c>
-      <c r="T38" s="2">
+      <c r="V38" s="2">
         <v>42826</v>
       </c>
-      <c r="U38" s="2">
+      <c r="W38" s="2">
         <v>42735</v>
       </c>
-      <c r="V38" s="2">
+      <c r="X38" s="2">
         <v>42644</v>
       </c>
     </row>
-    <row r="39" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2463,8 +2631,10 @@
       <c r="T39" s="3"/>
       <c r="U39" s="3"/>
       <c r="V39" s="3"/>
-    </row>
-    <row r="40" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W39" s="3"/>
+      <c r="X39" s="3"/>
+    </row>
+    <row r="40" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2487,380 +2657,418 @@
       <c r="T40" s="3"/>
       <c r="U40" s="3"/>
       <c r="V40" s="3"/>
-    </row>
-    <row r="41" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W40" s="3"/>
+      <c r="X40" s="3"/>
+    </row>
+    <row r="41" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>611000</v>
+      </c>
+      <c r="E41" s="3">
+        <v>774300</v>
+      </c>
+      <c r="F41" s="3">
         <v>687700</v>
       </c>
-      <c r="E41" s="3">
+      <c r="G41" s="3">
         <v>321300</v>
       </c>
-      <c r="F41" s="3">
+      <c r="H41" s="3">
         <v>269500</v>
       </c>
-      <c r="G41" s="3">
+      <c r="I41" s="3">
         <v>298000</v>
       </c>
-      <c r="H41" s="3">
+      <c r="J41" s="3">
         <v>688300</v>
       </c>
-      <c r="I41" s="3">
+      <c r="K41" s="3">
         <v>1085000</v>
       </c>
-      <c r="J41" s="3">
+      <c r="L41" s="3">
         <v>539000</v>
       </c>
-      <c r="K41" s="3">
+      <c r="M41" s="3">
         <v>432600</v>
       </c>
-      <c r="L41" s="3">
+      <c r="N41" s="3">
         <v>357300</v>
       </c>
-      <c r="M41" s="3">
+      <c r="O41" s="3">
         <v>371300</v>
       </c>
-      <c r="N41" s="3">
+      <c r="P41" s="3">
         <v>459400</v>
       </c>
-      <c r="O41" s="3">
+      <c r="Q41" s="3">
         <v>397300</v>
       </c>
-      <c r="P41" s="3">
+      <c r="R41" s="3">
         <v>176800</v>
       </c>
-      <c r="Q41" s="3">
+      <c r="S41" s="3">
         <v>202100</v>
       </c>
-      <c r="R41" s="3">
+      <c r="T41" s="3">
         <v>150800</v>
       </c>
-      <c r="S41" s="3">
+      <c r="U41" s="3">
         <v>272900</v>
       </c>
-      <c r="T41" s="3">
+      <c r="V41" s="3">
         <v>577900</v>
       </c>
-      <c r="U41" s="3">
+      <c r="W41" s="3">
         <v>155900</v>
       </c>
-      <c r="V41" s="3">
+      <c r="X41" s="3">
         <v>166800</v>
       </c>
     </row>
-    <row r="42" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
       <c r="D42" s="3">
+        <v>1273600</v>
+      </c>
+      <c r="E42" s="3">
+        <v>1171700</v>
+      </c>
+      <c r="F42" s="3">
         <v>1366900</v>
       </c>
-      <c r="E42" s="3">
+      <c r="G42" s="3">
         <v>1379000</v>
       </c>
-      <c r="F42" s="3">
+      <c r="H42" s="3">
         <v>1341200</v>
       </c>
-      <c r="G42" s="3">
+      <c r="I42" s="3">
         <v>1255800</v>
       </c>
-      <c r="H42" s="3">
+      <c r="J42" s="3">
         <v>763100</v>
       </c>
-      <c r="I42" s="3">
+      <c r="K42" s="3">
         <v>230600</v>
       </c>
-      <c r="J42" s="3">
+      <c r="L42" s="3">
         <v>291900</v>
       </c>
-      <c r="K42" s="3">
+      <c r="M42" s="3">
         <v>335900</v>
       </c>
-      <c r="L42" s="3">
+      <c r="N42" s="3">
         <v>340200</v>
       </c>
-      <c r="M42" s="3">
+      <c r="O42" s="3">
         <v>312800</v>
       </c>
-      <c r="N42" s="3">
+      <c r="P42" s="3">
         <v>274900</v>
       </c>
-      <c r="O42" s="3">
+      <c r="Q42" s="3">
         <v>314200</v>
       </c>
-      <c r="P42" s="3">
+      <c r="R42" s="3">
         <v>516000</v>
       </c>
-      <c r="Q42" s="3">
+      <c r="S42" s="3">
         <v>422400</v>
       </c>
-      <c r="R42" s="3">
+      <c r="T42" s="3">
         <v>381700</v>
       </c>
-      <c r="S42" s="3">
+      <c r="U42" s="3">
         <v>282400</v>
-      </c>
-      <c r="T42" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="U42" s="3" t="s">
-        <v>17</v>
       </c>
       <c r="V42" s="3" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="43" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W42" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="X42" s="3" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="43" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
+        <v>263200</v>
+      </c>
+      <c r="E43" s="3">
+        <v>212800</v>
+      </c>
+      <c r="F43" s="3">
         <v>224800</v>
       </c>
-      <c r="E43" s="3">
+      <c r="G43" s="3">
         <v>276700</v>
       </c>
-      <c r="F43" s="3">
+      <c r="H43" s="3">
         <v>263600</v>
       </c>
-      <c r="G43" s="3">
+      <c r="I43" s="3">
         <v>233500</v>
       </c>
-      <c r="H43" s="3">
+      <c r="J43" s="3">
         <v>303100</v>
       </c>
-      <c r="I43" s="3">
+      <c r="K43" s="3">
         <v>343600</v>
       </c>
-      <c r="J43" s="3">
+      <c r="L43" s="3">
         <v>339600</v>
       </c>
-      <c r="K43" s="3">
+      <c r="M43" s="3">
         <v>286200</v>
       </c>
-      <c r="L43" s="3">
+      <c r="N43" s="3">
         <v>329700</v>
       </c>
-      <c r="M43" s="3">
+      <c r="O43" s="3">
         <v>266500</v>
       </c>
-      <c r="N43" s="3">
+      <c r="P43" s="3">
         <v>239600</v>
       </c>
-      <c r="O43" s="3">
+      <c r="Q43" s="3">
         <v>197100</v>
       </c>
-      <c r="P43" s="3">
+      <c r="R43" s="3">
         <v>164700</v>
       </c>
-      <c r="Q43" s="3">
+      <c r="S43" s="3">
         <v>222100</v>
       </c>
-      <c r="R43" s="3">
+      <c r="T43" s="3">
         <v>173800</v>
       </c>
-      <c r="S43" s="3">
+      <c r="U43" s="3">
         <v>166300</v>
       </c>
-      <c r="T43" s="3">
+      <c r="V43" s="3">
         <v>185400</v>
       </c>
-      <c r="U43" s="3">
+      <c r="W43" s="3">
         <v>192500</v>
       </c>
-      <c r="V43" s="3">
+      <c r="X43" s="3">
         <v>156500</v>
       </c>
     </row>
-    <row r="44" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
+        <v>207000</v>
+      </c>
+      <c r="E44" s="3">
+        <v>196400</v>
+      </c>
+      <c r="F44" s="3">
         <v>210700</v>
       </c>
-      <c r="E44" s="3">
+      <c r="G44" s="3">
         <v>207100</v>
       </c>
-      <c r="F44" s="3">
+      <c r="H44" s="3">
         <v>212600</v>
       </c>
-      <c r="G44" s="3">
+      <c r="I44" s="3">
         <v>188900</v>
       </c>
-      <c r="H44" s="3">
+      <c r="J44" s="3">
         <v>172700</v>
       </c>
-      <c r="I44" s="3">
+      <c r="K44" s="3">
         <v>179600</v>
       </c>
-      <c r="J44" s="3">
+      <c r="L44" s="3">
         <v>202200</v>
       </c>
-      <c r="K44" s="3">
+      <c r="M44" s="3">
         <v>228800</v>
       </c>
-      <c r="L44" s="3">
+      <c r="N44" s="3">
         <v>272200</v>
       </c>
-      <c r="M44" s="3">
+      <c r="O44" s="3">
         <v>303200</v>
       </c>
-      <c r="N44" s="3">
+      <c r="P44" s="3">
         <v>136600</v>
       </c>
-      <c r="O44" s="3">
+      <c r="Q44" s="3">
         <v>153600</v>
       </c>
-      <c r="P44" s="3">
+      <c r="R44" s="3">
         <v>144200</v>
       </c>
-      <c r="Q44" s="3">
+      <c r="S44" s="3">
         <v>147300</v>
       </c>
-      <c r="R44" s="3">
+      <c r="T44" s="3">
         <v>147200</v>
       </c>
-      <c r="S44" s="3">
+      <c r="U44" s="3">
         <v>145200</v>
       </c>
-      <c r="T44" s="3">
+      <c r="V44" s="3">
         <v>116900</v>
       </c>
-      <c r="U44" s="3">
+      <c r="W44" s="3">
         <v>121000</v>
       </c>
-      <c r="V44" s="3">
+      <c r="X44" s="3">
         <v>103700</v>
       </c>
     </row>
-    <row r="45" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="45" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
+        <v>68200</v>
+      </c>
+      <c r="E45" s="3">
+        <v>81600</v>
+      </c>
+      <c r="F45" s="3">
         <v>79700</v>
       </c>
-      <c r="E45" s="3">
+      <c r="G45" s="3">
         <v>82100</v>
       </c>
-      <c r="F45" s="3">
+      <c r="H45" s="3">
         <v>79800</v>
       </c>
-      <c r="G45" s="3">
+      <c r="I45" s="3">
         <v>73800</v>
       </c>
-      <c r="H45" s="3">
+      <c r="J45" s="3">
         <v>35800</v>
       </c>
-      <c r="I45" s="3">
+      <c r="K45" s="3">
         <v>44200</v>
       </c>
-      <c r="J45" s="3">
+      <c r="L45" s="3">
         <v>50500</v>
       </c>
-      <c r="K45" s="3">
+      <c r="M45" s="3">
         <v>49300</v>
       </c>
-      <c r="L45" s="3">
+      <c r="N45" s="3">
         <v>118700</v>
       </c>
-      <c r="M45" s="3">
+      <c r="O45" s="3">
         <v>103100</v>
       </c>
-      <c r="N45" s="3">
+      <c r="P45" s="3">
         <v>70600</v>
       </c>
-      <c r="O45" s="3">
+      <c r="Q45" s="3">
         <v>65000</v>
       </c>
-      <c r="P45" s="3">
+      <c r="R45" s="3">
         <v>63000</v>
       </c>
-      <c r="Q45" s="3">
+      <c r="S45" s="3">
         <v>59900</v>
       </c>
-      <c r="R45" s="3">
+      <c r="T45" s="3">
         <v>69000</v>
       </c>
-      <c r="S45" s="3">
+      <c r="U45" s="3">
         <v>63500</v>
       </c>
-      <c r="T45" s="3">
+      <c r="V45" s="3">
         <v>61400</v>
       </c>
-      <c r="U45" s="3">
+      <c r="W45" s="3">
         <v>58200</v>
       </c>
-      <c r="V45" s="3">
+      <c r="X45" s="3">
         <v>62300</v>
       </c>
     </row>
-    <row r="46" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="46" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>2423000</v>
+      </c>
+      <c r="E46" s="3">
+        <v>2436800</v>
+      </c>
+      <c r="F46" s="3">
         <v>2569800</v>
       </c>
-      <c r="E46" s="3">
+      <c r="G46" s="3">
         <v>2266200</v>
       </c>
-      <c r="F46" s="3">
+      <c r="H46" s="3">
         <v>2166700</v>
       </c>
-      <c r="G46" s="3">
+      <c r="I46" s="3">
         <v>2050000</v>
       </c>
-      <c r="H46" s="3">
+      <c r="J46" s="3">
         <v>1963000</v>
       </c>
-      <c r="I46" s="3">
+      <c r="K46" s="3">
         <v>1883000</v>
       </c>
-      <c r="J46" s="3">
+      <c r="L46" s="3">
         <v>1423200</v>
       </c>
-      <c r="K46" s="3">
+      <c r="M46" s="3">
         <v>1332800</v>
       </c>
-      <c r="L46" s="3">
+      <c r="N46" s="3">
         <v>1418100</v>
       </c>
-      <c r="M46" s="3">
+      <c r="O46" s="3">
         <v>1356900</v>
       </c>
-      <c r="N46" s="3">
+      <c r="P46" s="3">
         <v>1181100</v>
       </c>
-      <c r="O46" s="3">
+      <c r="Q46" s="3">
         <v>1127200</v>
       </c>
-      <c r="P46" s="3">
+      <c r="R46" s="3">
         <v>1064700</v>
       </c>
-      <c r="Q46" s="3">
+      <c r="S46" s="3">
         <v>1053800</v>
       </c>
-      <c r="R46" s="3">
+      <c r="T46" s="3">
         <v>922500</v>
       </c>
-      <c r="S46" s="3">
+      <c r="U46" s="3">
         <v>930300</v>
       </c>
-      <c r="T46" s="3">
+      <c r="V46" s="3">
         <v>941600</v>
       </c>
-      <c r="U46" s="3">
+      <c r="W46" s="3">
         <v>527600</v>
       </c>
-      <c r="V46" s="3">
+      <c r="X46" s="3">
         <v>489300</v>
       </c>
     </row>
-    <row r="47" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -2921,132 +3129,150 @@
       <c r="V47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W47" s="3">
+        <v>0</v>
+      </c>
+      <c r="X47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>428400</v>
+      </c>
+      <c r="E48" s="3">
+        <v>428500</v>
+      </c>
+      <c r="F48" s="3">
         <v>448300</v>
       </c>
-      <c r="E48" s="3">
+      <c r="G48" s="3">
         <v>457600</v>
       </c>
-      <c r="F48" s="3">
+      <c r="H48" s="3">
         <v>468100</v>
       </c>
-      <c r="G48" s="3">
+      <c r="I48" s="3">
         <v>471700</v>
       </c>
-      <c r="H48" s="3">
+      <c r="J48" s="3">
         <v>491800</v>
       </c>
-      <c r="I48" s="3">
+      <c r="K48" s="3">
         <v>505700</v>
       </c>
-      <c r="J48" s="3">
+      <c r="L48" s="3">
         <v>524900</v>
       </c>
-      <c r="K48" s="3">
+      <c r="M48" s="3">
         <v>433300</v>
       </c>
-      <c r="L48" s="3">
+      <c r="N48" s="3">
         <v>390600</v>
       </c>
-      <c r="M48" s="3">
+      <c r="O48" s="3">
         <v>444700</v>
       </c>
-      <c r="N48" s="3">
+      <c r="P48" s="3">
         <v>318600</v>
       </c>
-      <c r="O48" s="3">
+      <c r="Q48" s="3">
         <v>280600</v>
       </c>
-      <c r="P48" s="3">
+      <c r="R48" s="3">
         <v>264500</v>
       </c>
-      <c r="Q48" s="3">
+      <c r="S48" s="3">
         <v>301300</v>
       </c>
-      <c r="R48" s="3">
+      <c r="T48" s="3">
         <v>293700</v>
       </c>
-      <c r="S48" s="3">
+      <c r="U48" s="3">
         <v>273500</v>
       </c>
-      <c r="T48" s="3">
+      <c r="V48" s="3">
         <v>246600</v>
       </c>
-      <c r="U48" s="3">
+      <c r="W48" s="3">
         <v>219600</v>
       </c>
-      <c r="V48" s="3">
+      <c r="X48" s="3">
         <v>196000</v>
       </c>
     </row>
-    <row r="49" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="49" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
+        <v>588700</v>
+      </c>
+      <c r="E49" s="3">
+        <v>610100</v>
+      </c>
+      <c r="F49" s="3">
         <v>632100</v>
       </c>
-      <c r="E49" s="3">
+      <c r="G49" s="3">
         <v>654100</v>
       </c>
-      <c r="F49" s="3">
+      <c r="H49" s="3">
         <v>665000</v>
       </c>
-      <c r="G49" s="3">
+      <c r="I49" s="3">
         <v>685700</v>
       </c>
-      <c r="H49" s="3">
+      <c r="J49" s="3">
         <v>706900</v>
       </c>
-      <c r="I49" s="3">
+      <c r="K49" s="3">
         <v>726900</v>
       </c>
-      <c r="J49" s="3">
+      <c r="L49" s="3">
         <v>745500</v>
       </c>
-      <c r="K49" s="3">
+      <c r="M49" s="3">
         <v>764300</v>
       </c>
-      <c r="L49" s="3">
+      <c r="N49" s="3">
         <v>772100</v>
       </c>
-      <c r="M49" s="3">
+      <c r="O49" s="3">
         <v>789700</v>
       </c>
-      <c r="N49" s="3">
+      <c r="P49" s="3">
         <v>17600</v>
       </c>
-      <c r="O49" s="3">
+      <c r="Q49" s="3">
         <v>44600</v>
       </c>
-      <c r="P49" s="3">
+      <c r="R49" s="3">
         <v>57200</v>
       </c>
-      <c r="Q49" s="3">
+      <c r="S49" s="3">
         <v>20400</v>
       </c>
-      <c r="R49" s="3">
+      <c r="T49" s="3">
         <v>21000</v>
       </c>
-      <c r="S49" s="3">
+      <c r="U49" s="3">
         <v>21500</v>
       </c>
-      <c r="T49" s="3">
+      <c r="V49" s="3">
         <v>22300</v>
       </c>
-      <c r="U49" s="3">
+      <c r="W49" s="3">
         <v>16000</v>
       </c>
-      <c r="V49" s="3">
+      <c r="X49" s="3">
         <v>18100</v>
       </c>
     </row>
-    <row r="50" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="50" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -3107,8 +3333,14 @@
       <c r="V50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W50" s="3">
+        <v>0</v>
+      </c>
+      <c r="X50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -3169,70 +3401,82 @@
       <c r="V51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W51" s="3">
+        <v>0</v>
+      </c>
+      <c r="X51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
+        <v>78900</v>
+      </c>
+      <c r="E52" s="3">
+        <v>76200</v>
+      </c>
+      <c r="F52" s="3">
         <v>95700</v>
       </c>
-      <c r="E52" s="3">
+      <c r="G52" s="3">
         <v>90300</v>
       </c>
-      <c r="F52" s="3">
+      <c r="H52" s="3">
         <v>87600</v>
       </c>
-      <c r="G52" s="3">
+      <c r="I52" s="3">
         <v>85200</v>
       </c>
-      <c r="H52" s="3">
+      <c r="J52" s="3">
         <v>107000</v>
       </c>
-      <c r="I52" s="3">
+      <c r="K52" s="3">
         <v>105600</v>
       </c>
-      <c r="J52" s="3">
+      <c r="L52" s="3">
         <v>174200</v>
       </c>
-      <c r="K52" s="3">
+      <c r="M52" s="3">
         <v>186200</v>
       </c>
-      <c r="L52" s="3">
+      <c r="N52" s="3">
         <v>190600</v>
       </c>
-      <c r="M52" s="3">
+      <c r="O52" s="3">
         <v>205300</v>
       </c>
-      <c r="N52" s="3">
+      <c r="P52" s="3">
         <v>127700</v>
       </c>
-      <c r="O52" s="3">
+      <c r="Q52" s="3">
         <v>129100</v>
       </c>
-      <c r="P52" s="3">
+      <c r="R52" s="3">
         <v>131800</v>
       </c>
-      <c r="Q52" s="3">
+      <c r="S52" s="3">
         <v>131900</v>
       </c>
-      <c r="R52" s="3">
+      <c r="T52" s="3">
         <v>11200</v>
       </c>
-      <c r="S52" s="3">
+      <c r="U52" s="3">
         <v>7600</v>
       </c>
-      <c r="T52" s="3">
+      <c r="V52" s="3">
         <v>34000</v>
       </c>
-      <c r="U52" s="3">
+      <c r="W52" s="3">
         <v>33500</v>
       </c>
-      <c r="V52" s="3">
+      <c r="X52" s="3">
         <v>34100</v>
       </c>
     </row>
-    <row r="53" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="53" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -3293,70 +3537,82 @@
       <c r="V53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W53" s="3">
+        <v>0</v>
+      </c>
+      <c r="X53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>3519000</v>
+      </c>
+      <c r="E54" s="3">
+        <v>3551600</v>
+      </c>
+      <c r="F54" s="3">
         <v>3745900</v>
       </c>
-      <c r="E54" s="3">
+      <c r="G54" s="3">
         <v>3468200</v>
       </c>
-      <c r="F54" s="3">
+      <c r="H54" s="3">
         <v>3387400</v>
       </c>
-      <c r="G54" s="3">
+      <c r="I54" s="3">
         <v>3292600</v>
       </c>
-      <c r="H54" s="3">
+      <c r="J54" s="3">
         <v>3268700</v>
       </c>
-      <c r="I54" s="3">
+      <c r="K54" s="3">
         <v>3221200</v>
       </c>
-      <c r="J54" s="3">
+      <c r="L54" s="3">
         <v>2867800</v>
       </c>
-      <c r="K54" s="3">
+      <c r="M54" s="3">
         <v>2716600</v>
       </c>
-      <c r="L54" s="3">
+      <c r="N54" s="3">
         <v>2771400</v>
       </c>
-      <c r="M54" s="3">
+      <c r="O54" s="3">
         <v>2796600</v>
       </c>
-      <c r="N54" s="3">
+      <c r="P54" s="3">
         <v>1645000</v>
       </c>
-      <c r="O54" s="3">
+      <c r="Q54" s="3">
         <v>1581500</v>
       </c>
-      <c r="P54" s="3">
+      <c r="R54" s="3">
         <v>1518200</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="S54" s="3">
         <v>1507400</v>
       </c>
-      <c r="R54" s="3">
+      <c r="T54" s="3">
         <v>1248400</v>
       </c>
-      <c r="S54" s="3">
+      <c r="U54" s="3">
         <v>1232900</v>
       </c>
-      <c r="T54" s="3">
+      <c r="V54" s="3">
         <v>1244500</v>
       </c>
-      <c r="U54" s="3">
+      <c r="W54" s="3">
         <v>796700</v>
       </c>
-      <c r="V54" s="3">
+      <c r="X54" s="3">
         <v>737500</v>
       </c>
     </row>
-    <row r="55" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -3379,8 +3635,10 @@
       <c r="T55" s="3"/>
       <c r="U55" s="3"/>
       <c r="V55" s="3"/>
-    </row>
-    <row r="56" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W55" s="3"/>
+      <c r="X55" s="3"/>
+    </row>
+    <row r="56" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -3403,123 +3661,131 @@
       <c r="T56" s="3"/>
       <c r="U56" s="3"/>
       <c r="V56" s="3"/>
-    </row>
-    <row r="57" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W56" s="3"/>
+      <c r="X56" s="3"/>
+    </row>
+    <row r="57" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>101600</v>
+      </c>
+      <c r="E57" s="3">
+        <v>116900</v>
+      </c>
+      <c r="F57" s="3">
         <v>104700</v>
       </c>
-      <c r="E57" s="3">
+      <c r="G57" s="3">
         <v>111300</v>
       </c>
-      <c r="F57" s="3">
+      <c r="H57" s="3">
         <v>146000</v>
       </c>
-      <c r="G57" s="3">
+      <c r="I57" s="3">
         <v>150800</v>
       </c>
-      <c r="H57" s="3">
+      <c r="J57" s="3">
         <v>144600</v>
       </c>
-      <c r="I57" s="3">
+      <c r="K57" s="3">
         <v>143700</v>
       </c>
-      <c r="J57" s="3">
+      <c r="L57" s="3">
         <v>152200</v>
       </c>
-      <c r="K57" s="3">
+      <c r="M57" s="3">
         <v>160800</v>
       </c>
-      <c r="L57" s="3">
+      <c r="N57" s="3">
         <v>204100</v>
       </c>
-      <c r="M57" s="3">
+      <c r="O57" s="3">
         <v>199200</v>
       </c>
-      <c r="N57" s="3">
+      <c r="P57" s="3">
         <v>127600</v>
       </c>
-      <c r="O57" s="3">
+      <c r="Q57" s="3">
         <v>126500</v>
       </c>
-      <c r="P57" s="3">
+      <c r="R57" s="3">
         <v>100900</v>
       </c>
-      <c r="Q57" s="3">
+      <c r="S57" s="3">
         <v>113000</v>
       </c>
-      <c r="R57" s="3">
+      <c r="T57" s="3">
         <v>111600</v>
       </c>
-      <c r="S57" s="3">
+      <c r="U57" s="3">
         <v>114800</v>
       </c>
-      <c r="T57" s="3">
+      <c r="V57" s="3">
         <v>118400</v>
       </c>
-      <c r="U57" s="3">
+      <c r="W57" s="3">
         <v>127800</v>
       </c>
-      <c r="V57" s="3">
+      <c r="X57" s="3">
         <v>108300</v>
       </c>
     </row>
-    <row r="58" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
+        <v>395800</v>
+      </c>
+      <c r="E58" s="3">
+        <v>390700</v>
+      </c>
+      <c r="F58" s="3">
         <v>385400</v>
       </c>
-      <c r="E58" s="3">
+      <c r="G58" s="3">
         <v>380600</v>
       </c>
-      <c r="F58" s="3">
+      <c r="H58" s="3">
         <v>400</v>
       </c>
-      <c r="G58" s="3">
+      <c r="I58" s="3">
         <v>600</v>
       </c>
-      <c r="H58" s="3">
+      <c r="J58" s="3">
         <v>3900</v>
       </c>
-      <c r="I58" s="3">
+      <c r="K58" s="3">
         <v>7100</v>
       </c>
-      <c r="J58" s="3">
+      <c r="L58" s="3">
         <v>15900</v>
       </c>
-      <c r="K58" s="3">
+      <c r="M58" s="3">
         <v>5400</v>
       </c>
-      <c r="L58" s="3">
+      <c r="N58" s="3">
         <v>5800</v>
       </c>
-      <c r="M58" s="3">
+      <c r="O58" s="3">
         <v>8700</v>
       </c>
-      <c r="N58" s="3">
+      <c r="P58" s="3">
         <v>5400</v>
       </c>
-      <c r="O58" s="3">
+      <c r="Q58" s="3">
         <v>7300</v>
       </c>
-      <c r="P58" s="3">
+      <c r="R58" s="3">
         <v>9200</v>
       </c>
-      <c r="Q58" s="3">
+      <c r="S58" s="3">
         <v>9100</v>
       </c>
-      <c r="R58" s="3">
+      <c r="T58" s="3">
         <v>4900</v>
-      </c>
-      <c r="S58" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="T58" s="3" t="s">
-        <v>17</v>
       </c>
       <c r="U58" s="3" t="s">
         <v>17</v>
@@ -3527,256 +3793,286 @@
       <c r="V58" s="3" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="59" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W58" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="X58" s="3" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="59" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>114300</v>
+      </c>
+      <c r="E59" s="3">
+        <v>157000</v>
+      </c>
+      <c r="F59" s="3">
         <v>184100</v>
       </c>
-      <c r="E59" s="3">
+      <c r="G59" s="3">
         <v>155400</v>
       </c>
-      <c r="F59" s="3">
+      <c r="H59" s="3">
         <v>147000</v>
       </c>
-      <c r="G59" s="3">
+      <c r="I59" s="3">
         <v>131600</v>
       </c>
-      <c r="H59" s="3">
+      <c r="J59" s="3">
         <v>138200</v>
       </c>
-      <c r="I59" s="3">
+      <c r="K59" s="3">
         <v>153400</v>
       </c>
-      <c r="J59" s="3">
+      <c r="L59" s="3">
         <v>148700</v>
       </c>
-      <c r="K59" s="3">
+      <c r="M59" s="3">
         <v>127800</v>
       </c>
-      <c r="L59" s="3">
+      <c r="N59" s="3">
         <v>148100</v>
       </c>
-      <c r="M59" s="3">
+      <c r="O59" s="3">
         <v>117600</v>
       </c>
-      <c r="N59" s="3">
+      <c r="P59" s="3">
         <v>80900</v>
       </c>
-      <c r="O59" s="3">
+      <c r="Q59" s="3">
         <v>80200</v>
       </c>
-      <c r="P59" s="3">
+      <c r="R59" s="3">
         <v>81400</v>
       </c>
-      <c r="Q59" s="3">
+      <c r="S59" s="3">
         <v>95600</v>
       </c>
-      <c r="R59" s="3">
+      <c r="T59" s="3">
         <v>60700</v>
       </c>
-      <c r="S59" s="3">
+      <c r="U59" s="3">
         <v>69400</v>
       </c>
-      <c r="T59" s="3">
+      <c r="V59" s="3">
         <v>73700</v>
       </c>
-      <c r="U59" s="3">
+      <c r="W59" s="3">
         <v>74200</v>
       </c>
-      <c r="V59" s="3">
+      <c r="X59" s="3">
         <v>55200</v>
       </c>
     </row>
-    <row r="60" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>611700</v>
+      </c>
+      <c r="E60" s="3">
+        <v>664600</v>
+      </c>
+      <c r="F60" s="3">
         <v>674200</v>
       </c>
-      <c r="E60" s="3">
+      <c r="G60" s="3">
         <v>647300</v>
       </c>
-      <c r="F60" s="3">
+      <c r="H60" s="3">
         <v>293400</v>
       </c>
-      <c r="G60" s="3">
+      <c r="I60" s="3">
         <v>283000</v>
       </c>
-      <c r="H60" s="3">
+      <c r="J60" s="3">
         <v>286700</v>
       </c>
-      <c r="I60" s="3">
+      <c r="K60" s="3">
         <v>304200</v>
       </c>
-      <c r="J60" s="3">
+      <c r="L60" s="3">
         <v>316800</v>
       </c>
-      <c r="K60" s="3">
+      <c r="M60" s="3">
         <v>294000</v>
       </c>
-      <c r="L60" s="3">
+      <c r="N60" s="3">
         <v>358000</v>
       </c>
-      <c r="M60" s="3">
+      <c r="O60" s="3">
         <v>325500</v>
       </c>
-      <c r="N60" s="3">
+      <c r="P60" s="3">
         <v>213900</v>
       </c>
-      <c r="O60" s="3">
+      <c r="Q60" s="3">
         <v>214000</v>
       </c>
-      <c r="P60" s="3">
+      <c r="R60" s="3">
         <v>191500</v>
       </c>
-      <c r="Q60" s="3">
+      <c r="S60" s="3">
         <v>217700</v>
       </c>
-      <c r="R60" s="3">
+      <c r="T60" s="3">
         <v>177200</v>
       </c>
-      <c r="S60" s="3">
+      <c r="U60" s="3">
         <v>184200</v>
       </c>
-      <c r="T60" s="3">
+      <c r="V60" s="3">
         <v>192100</v>
       </c>
-      <c r="U60" s="3">
+      <c r="W60" s="3">
         <v>202000</v>
       </c>
-      <c r="V60" s="3">
+      <c r="X60" s="3">
         <v>163500</v>
       </c>
     </row>
-    <row r="61" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
+        <v>800000</v>
+      </c>
+      <c r="E61" s="3">
+        <v>789800</v>
+      </c>
+      <c r="F61" s="3">
         <v>778900</v>
       </c>
-      <c r="E61" s="3">
+      <c r="G61" s="3">
         <v>769100</v>
       </c>
-      <c r="F61" s="3">
+      <c r="H61" s="3">
         <v>1134700</v>
       </c>
-      <c r="G61" s="3">
+      <c r="I61" s="3">
         <v>1120300</v>
       </c>
-      <c r="H61" s="3">
+      <c r="J61" s="3">
         <v>1106100</v>
       </c>
-      <c r="I61" s="3">
+      <c r="K61" s="3">
         <v>1092200</v>
       </c>
-      <c r="J61" s="3">
+      <c r="L61" s="3">
         <v>840000</v>
       </c>
-      <c r="K61" s="3">
+      <c r="M61" s="3">
         <v>835900</v>
       </c>
-      <c r="L61" s="3">
+      <c r="N61" s="3">
         <v>832400</v>
       </c>
-      <c r="M61" s="3">
+      <c r="O61" s="3">
         <v>829200</v>
       </c>
-      <c r="N61" s="3">
+      <c r="P61" s="3">
         <v>338500</v>
       </c>
-      <c r="O61" s="3">
+      <c r="Q61" s="3">
         <v>334600</v>
       </c>
-      <c r="P61" s="3">
+      <c r="R61" s="3">
         <v>330700</v>
       </c>
-      <c r="Q61" s="3">
+      <c r="S61" s="3">
         <v>328800</v>
       </c>
-      <c r="R61" s="3">
+      <c r="T61" s="3">
         <v>324000</v>
       </c>
-      <c r="S61" s="3">
+      <c r="U61" s="3">
         <v>317500</v>
       </c>
-      <c r="T61" s="3">
+      <c r="V61" s="3">
         <v>313400</v>
       </c>
-      <c r="U61" s="3">
-        <v>0</v>
-      </c>
-      <c r="V61" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="62" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W61" s="3">
+        <v>0</v>
+      </c>
+      <c r="X61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
+        <v>135900</v>
+      </c>
+      <c r="E62" s="3">
+        <v>124400</v>
+      </c>
+      <c r="F62" s="3">
         <v>127800</v>
       </c>
-      <c r="E62" s="3">
+      <c r="G62" s="3">
         <v>129900</v>
       </c>
-      <c r="F62" s="3">
+      <c r="H62" s="3">
         <v>143200</v>
       </c>
-      <c r="G62" s="3">
+      <c r="I62" s="3">
         <v>140100</v>
       </c>
-      <c r="H62" s="3">
+      <c r="J62" s="3">
         <v>141700</v>
       </c>
-      <c r="I62" s="3">
+      <c r="K62" s="3">
         <v>143200</v>
       </c>
-      <c r="J62" s="3">
+      <c r="L62" s="3">
         <v>149700</v>
       </c>
-      <c r="K62" s="3">
+      <c r="M62" s="3">
         <v>89600</v>
       </c>
-      <c r="L62" s="3">
+      <c r="N62" s="3">
         <v>77100</v>
       </c>
-      <c r="M62" s="3">
+      <c r="O62" s="3">
         <v>82200</v>
       </c>
-      <c r="N62" s="3">
+      <c r="P62" s="3">
         <v>73300</v>
       </c>
-      <c r="O62" s="3">
+      <c r="Q62" s="3">
         <v>71000</v>
       </c>
-      <c r="P62" s="3">
+      <c r="R62" s="3">
         <v>83600</v>
       </c>
-      <c r="Q62" s="3">
+      <c r="S62" s="3">
         <v>60800</v>
       </c>
-      <c r="R62" s="3">
+      <c r="T62" s="3">
         <v>70300</v>
       </c>
-      <c r="S62" s="3">
+      <c r="U62" s="3">
         <v>76600</v>
       </c>
-      <c r="T62" s="3">
+      <c r="V62" s="3">
         <v>234600</v>
       </c>
-      <c r="U62" s="3">
+      <c r="W62" s="3">
         <v>42500</v>
       </c>
-      <c r="V62" s="3">
+      <c r="X62" s="3">
         <v>42500</v>
       </c>
     </row>
-    <row r="63" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="63" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -3837,8 +4133,14 @@
       <c r="V63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W63" s="3">
+        <v>0</v>
+      </c>
+      <c r="X63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -3899,8 +4201,14 @@
       <c r="V64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W64" s="3">
+        <v>0</v>
+      </c>
+      <c r="X64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -3961,70 +4269,82 @@
       <c r="V65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W65" s="3">
+        <v>0</v>
+      </c>
+      <c r="X65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>1547600</v>
+      </c>
+      <c r="E66" s="3">
+        <v>1578800</v>
+      </c>
+      <c r="F66" s="3">
         <v>1580900</v>
       </c>
-      <c r="E66" s="3">
+      <c r="G66" s="3">
         <v>1546300</v>
       </c>
-      <c r="F66" s="3">
+      <c r="H66" s="3">
         <v>1571300</v>
       </c>
-      <c r="G66" s="3">
+      <c r="I66" s="3">
         <v>1543400</v>
       </c>
-      <c r="H66" s="3">
+      <c r="J66" s="3">
         <v>1534500</v>
       </c>
-      <c r="I66" s="3">
+      <c r="K66" s="3">
         <v>1539600</v>
       </c>
-      <c r="J66" s="3">
+      <c r="L66" s="3">
         <v>1306500</v>
       </c>
-      <c r="K66" s="3">
+      <c r="M66" s="3">
         <v>1219500</v>
       </c>
-      <c r="L66" s="3">
+      <c r="N66" s="3">
         <v>1267500</v>
       </c>
-      <c r="M66" s="3">
+      <c r="O66" s="3">
         <v>1236900</v>
       </c>
-      <c r="N66" s="3">
+      <c r="P66" s="3">
         <v>661500</v>
       </c>
-      <c r="O66" s="3">
+      <c r="Q66" s="3">
         <v>655400</v>
       </c>
-      <c r="P66" s="3">
+      <c r="R66" s="3">
         <v>641600</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="S66" s="3">
         <v>643100</v>
       </c>
-      <c r="R66" s="3">
+      <c r="T66" s="3">
         <v>607300</v>
       </c>
-      <c r="S66" s="3">
+      <c r="U66" s="3">
         <v>614100</v>
       </c>
-      <c r="T66" s="3">
+      <c r="V66" s="3">
         <v>775900</v>
       </c>
-      <c r="U66" s="3">
+      <c r="W66" s="3">
         <v>280300</v>
       </c>
-      <c r="V66" s="3">
+      <c r="X66" s="3">
         <v>241800</v>
       </c>
     </row>
-    <row r="67" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -4047,8 +4367,10 @@
       <c r="T67" s="3"/>
       <c r="U67" s="3"/>
       <c r="V67" s="3"/>
-    </row>
-    <row r="68" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W67" s="3"/>
+      <c r="X67" s="3"/>
+    </row>
+    <row r="68" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -4109,8 +4431,14 @@
       <c r="V68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W68" s="3">
+        <v>0</v>
+      </c>
+      <c r="X68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -4171,8 +4499,14 @@
       <c r="V69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W69" s="3">
+        <v>0</v>
+      </c>
+      <c r="X69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -4233,8 +4567,14 @@
       <c r="V70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W70" s="3">
+        <v>0</v>
+      </c>
+      <c r="X70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -4295,70 +4635,82 @@
       <c r="V71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W71" s="3">
+        <v>0</v>
+      </c>
+      <c r="X71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>210700</v>
+      </c>
+      <c r="E72" s="3">
+        <v>220900</v>
+      </c>
+      <c r="F72" s="3">
         <v>440400</v>
       </c>
-      <c r="E72" s="3">
+      <c r="G72" s="3">
         <v>214900</v>
       </c>
-      <c r="F72" s="3">
+      <c r="H72" s="3">
         <v>131700</v>
       </c>
-      <c r="G72" s="3">
+      <c r="I72" s="3">
         <v>64600</v>
       </c>
-      <c r="H72" s="3">
+      <c r="J72" s="3">
         <v>69200</v>
       </c>
-      <c r="I72" s="3">
+      <c r="K72" s="3">
         <v>25800</v>
       </c>
-      <c r="J72" s="3">
+      <c r="L72" s="3">
         <v>176700</v>
       </c>
-      <c r="K72" s="3">
+      <c r="M72" s="3">
         <v>129100</v>
       </c>
-      <c r="L72" s="3">
+      <c r="N72" s="3">
         <v>154900</v>
       </c>
-      <c r="M72" s="3">
+      <c r="O72" s="3">
         <v>229200</v>
       </c>
-      <c r="N72" s="3">
+      <c r="P72" s="3">
         <v>213000</v>
       </c>
-      <c r="O72" s="3">
+      <c r="Q72" s="3">
         <v>166400</v>
       </c>
-      <c r="P72" s="3">
+      <c r="R72" s="3">
         <v>133200</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="S72" s="3">
         <v>130700</v>
       </c>
-      <c r="R72" s="3">
+      <c r="T72" s="3">
         <v>-73900</v>
       </c>
-      <c r="S72" s="3">
+      <c r="U72" s="3">
         <v>-83200</v>
       </c>
-      <c r="T72" s="3">
+      <c r="V72" s="3">
         <v>-28000</v>
       </c>
-      <c r="U72" s="3">
+      <c r="W72" s="3">
         <v>28200</v>
       </c>
-      <c r="V72" s="3">
+      <c r="X72" s="3">
         <v>16600</v>
       </c>
     </row>
-    <row r="73" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -4419,8 +4771,14 @@
       <c r="V73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W73" s="3">
+        <v>0</v>
+      </c>
+      <c r="X73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -4481,8 +4839,14 @@
       <c r="V74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W74" s="3">
+        <v>0</v>
+      </c>
+      <c r="X74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -4543,70 +4907,82 @@
       <c r="V75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W75" s="3">
+        <v>0</v>
+      </c>
+      <c r="X75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>1971400</v>
+      </c>
+      <c r="E76" s="3">
+        <v>1972800</v>
+      </c>
+      <c r="F76" s="3">
         <v>2165000</v>
       </c>
-      <c r="E76" s="3">
+      <c r="G76" s="3">
         <v>1921900</v>
       </c>
-      <c r="F76" s="3">
+      <c r="H76" s="3">
         <v>1816100</v>
       </c>
-      <c r="G76" s="3">
+      <c r="I76" s="3">
         <v>1749200</v>
       </c>
-      <c r="H76" s="3">
+      <c r="J76" s="3">
         <v>1734200</v>
       </c>
-      <c r="I76" s="3">
+      <c r="K76" s="3">
         <v>1681600</v>
       </c>
-      <c r="J76" s="3">
+      <c r="L76" s="3">
         <v>1561300</v>
       </c>
-      <c r="K76" s="3">
+      <c r="M76" s="3">
         <v>1497100</v>
       </c>
-      <c r="L76" s="3">
+      <c r="N76" s="3">
         <v>1503900</v>
       </c>
-      <c r="M76" s="3">
+      <c r="O76" s="3">
         <v>1559700</v>
       </c>
-      <c r="N76" s="3">
+      <c r="P76" s="3">
         <v>983500</v>
       </c>
-      <c r="O76" s="3">
+      <c r="Q76" s="3">
         <v>926100</v>
       </c>
-      <c r="P76" s="3">
+      <c r="R76" s="3">
         <v>876600</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="S76" s="3">
         <v>864300</v>
       </c>
-      <c r="R76" s="3">
+      <c r="T76" s="3">
         <v>641100</v>
       </c>
-      <c r="S76" s="3">
+      <c r="U76" s="3">
         <v>618800</v>
       </c>
-      <c r="T76" s="3">
+      <c r="V76" s="3">
         <v>468600</v>
       </c>
-      <c r="U76" s="3">
+      <c r="W76" s="3">
         <v>516400</v>
       </c>
-      <c r="V76" s="3">
+      <c r="X76" s="3">
         <v>495700</v>
       </c>
     </row>
-    <row r="77" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -4667,137 +5043,155 @@
       <c r="V77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W77" s="3">
+        <v>0</v>
+      </c>
+      <c r="X77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:24" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44471</v>
+      </c>
+      <c r="E80" s="2">
+        <v>44380</v>
+      </c>
+      <c r="F80" s="2">
         <v>44289</v>
       </c>
-      <c r="E80" s="2">
+      <c r="G80" s="2">
         <v>44191</v>
       </c>
-      <c r="F80" s="2">
+      <c r="H80" s="2">
         <v>44100</v>
       </c>
-      <c r="G80" s="2">
+      <c r="I80" s="2">
         <v>44009</v>
       </c>
-      <c r="H80" s="2">
+      <c r="J80" s="2">
         <v>43918</v>
       </c>
-      <c r="I80" s="2">
+      <c r="K80" s="2">
         <v>43827</v>
       </c>
-      <c r="J80" s="2">
+      <c r="L80" s="2">
         <v>43736</v>
       </c>
-      <c r="K80" s="2">
+      <c r="M80" s="2">
         <v>43645</v>
       </c>
-      <c r="L80" s="2">
+      <c r="N80" s="2">
         <v>43554</v>
       </c>
-      <c r="M80" s="2">
+      <c r="O80" s="2">
         <v>43463</v>
       </c>
-      <c r="N80" s="2">
+      <c r="P80" s="2">
         <v>43372</v>
       </c>
-      <c r="O80" s="2">
+      <c r="Q80" s="2">
         <v>43281</v>
       </c>
-      <c r="P80" s="2">
+      <c r="R80" s="2">
         <v>43190</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="S80" s="2">
         <v>43099</v>
       </c>
-      <c r="R80" s="2">
+      <c r="T80" s="2">
         <v>43008</v>
       </c>
-      <c r="S80" s="2">
+      <c r="U80" s="2">
         <v>42917</v>
       </c>
-      <c r="T80" s="2">
+      <c r="V80" s="2">
         <v>42826</v>
       </c>
-      <c r="U80" s="2">
+      <c r="W80" s="2">
         <v>42735</v>
       </c>
-      <c r="V80" s="2">
+      <c r="X80" s="2">
         <v>42644</v>
       </c>
     </row>
-    <row r="81" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>81500</v>
+      </c>
+      <c r="E81" s="3">
+        <v>21500</v>
+      </c>
+      <c r="F81" s="3">
         <v>225500</v>
       </c>
-      <c r="E81" s="3">
+      <c r="G81" s="3">
         <v>83200</v>
       </c>
-      <c r="F81" s="3">
+      <c r="H81" s="3">
         <v>67100</v>
       </c>
-      <c r="G81" s="3">
+      <c r="I81" s="3">
         <v>-4600</v>
       </c>
-      <c r="H81" s="3">
+      <c r="J81" s="3">
         <v>43400</v>
       </c>
-      <c r="I81" s="3">
+      <c r="K81" s="3">
         <v>49100</v>
       </c>
-      <c r="J81" s="3">
+      <c r="L81" s="3">
         <v>47600</v>
       </c>
-      <c r="K81" s="3">
+      <c r="M81" s="3">
         <v>-25800</v>
       </c>
-      <c r="L81" s="3">
+      <c r="N81" s="3">
         <v>-74300</v>
       </c>
-      <c r="M81" s="3">
+      <c r="O81" s="3">
         <v>16200</v>
       </c>
-      <c r="N81" s="3">
+      <c r="P81" s="3">
         <v>46100</v>
       </c>
-      <c r="O81" s="3">
+      <c r="Q81" s="3">
         <v>32500</v>
       </c>
-      <c r="P81" s="3">
+      <c r="R81" s="3">
         <v>2400</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="S81" s="3">
         <v>116800</v>
       </c>
-      <c r="R81" s="3">
+      <c r="T81" s="3">
         <v>6900</v>
       </c>
-      <c r="S81" s="3">
+      <c r="U81" s="3">
         <v>-55200</v>
       </c>
-      <c r="T81" s="3">
+      <c r="V81" s="3">
         <v>-56200</v>
       </c>
-      <c r="U81" s="3">
+      <c r="W81" s="3">
         <v>11600</v>
       </c>
-      <c r="V81" s="3">
+      <c r="X81" s="3">
         <v>-3600</v>
       </c>
     </row>
-    <row r="82" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -4820,70 +5214,78 @@
       <c r="T82" s="3"/>
       <c r="U82" s="3"/>
       <c r="V82" s="3"/>
-    </row>
-    <row r="83" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W82" s="3"/>
+      <c r="X82" s="3"/>
+    </row>
+    <row r="83" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
+        <v>41800</v>
+      </c>
+      <c r="E83" s="3">
+        <v>43100</v>
+      </c>
+      <c r="F83" s="3">
         <v>44800</v>
       </c>
-      <c r="E83" s="3">
+      <c r="G83" s="3">
         <v>44700</v>
       </c>
-      <c r="F83" s="3">
+      <c r="H83" s="3">
         <v>44500</v>
       </c>
-      <c r="G83" s="3">
+      <c r="I83" s="3">
         <v>46700</v>
       </c>
-      <c r="H83" s="3">
+      <c r="J83" s="3">
         <v>47500</v>
       </c>
-      <c r="I83" s="3">
+      <c r="K83" s="3">
         <v>47300</v>
       </c>
-      <c r="J83" s="3">
+      <c r="L83" s="3">
         <v>50400</v>
       </c>
-      <c r="K83" s="3">
+      <c r="M83" s="3">
         <v>45100</v>
       </c>
-      <c r="L83" s="3">
+      <c r="N83" s="3">
         <v>60700</v>
       </c>
-      <c r="M83" s="3">
+      <c r="O83" s="3">
         <v>31200</v>
       </c>
-      <c r="N83" s="3">
+      <c r="P83" s="3">
         <v>20500</v>
       </c>
-      <c r="O83" s="3">
+      <c r="Q83" s="3">
         <v>21500</v>
       </c>
-      <c r="P83" s="3">
+      <c r="R83" s="3">
         <v>19200</v>
       </c>
-      <c r="Q83" s="3">
+      <c r="S83" s="3">
         <v>19000</v>
       </c>
-      <c r="R83" s="3">
+      <c r="T83" s="3">
         <v>17500</v>
       </c>
-      <c r="S83" s="3">
+      <c r="U83" s="3">
         <v>16500</v>
       </c>
-      <c r="T83" s="3">
+      <c r="V83" s="3">
         <v>15900</v>
       </c>
-      <c r="U83" s="3">
+      <c r="W83" s="3">
         <v>14900</v>
       </c>
-      <c r="V83" s="3">
+      <c r="X83" s="3">
         <v>13700</v>
       </c>
     </row>
-    <row r="84" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="84" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -4944,8 +5346,14 @@
       <c r="V84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W84" s="3">
+        <v>0</v>
+      </c>
+      <c r="X84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -5006,8 +5414,14 @@
       <c r="V85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W85" s="3">
+        <v>0</v>
+      </c>
+      <c r="X85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -5068,8 +5482,14 @@
       <c r="V86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W86" s="3">
+        <v>0</v>
+      </c>
+      <c r="X86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -5130,8 +5550,14 @@
       <c r="V87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W87" s="3">
+        <v>0</v>
+      </c>
+      <c r="X87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -5192,70 +5618,82 @@
       <c r="V88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W88" s="3">
+        <v>0</v>
+      </c>
+      <c r="X88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>61900</v>
+      </c>
+      <c r="E89" s="3">
+        <v>124200</v>
+      </c>
+      <c r="F89" s="3">
         <v>381300</v>
       </c>
-      <c r="E89" s="3">
+      <c r="G89" s="3">
         <v>128500</v>
       </c>
-      <c r="F89" s="3">
+      <c r="H89" s="3">
         <v>104700</v>
       </c>
-      <c r="G89" s="3">
+      <c r="I89" s="3">
         <v>122700</v>
       </c>
-      <c r="H89" s="3">
+      <c r="J89" s="3">
         <v>151800</v>
       </c>
-      <c r="I89" s="3">
+      <c r="K89" s="3">
         <v>162300</v>
       </c>
-      <c r="J89" s="3">
+      <c r="L89" s="3">
         <v>87500</v>
       </c>
-      <c r="K89" s="3">
+      <c r="M89" s="3">
         <v>127700</v>
       </c>
-      <c r="L89" s="3">
+      <c r="N89" s="3">
         <v>42800</v>
       </c>
-      <c r="M89" s="3">
+      <c r="O89" s="3">
         <v>102400</v>
       </c>
-      <c r="N89" s="3">
+      <c r="P89" s="3">
         <v>57200</v>
       </c>
-      <c r="O89" s="3">
+      <c r="Q89" s="3">
         <v>37600</v>
       </c>
-      <c r="P89" s="3">
+      <c r="R89" s="3">
         <v>95100</v>
       </c>
-      <c r="Q89" s="3">
+      <c r="S89" s="3">
         <v>105100</v>
       </c>
-      <c r="R89" s="3">
+      <c r="T89" s="3">
         <v>9700</v>
       </c>
-      <c r="S89" s="3">
+      <c r="U89" s="3">
         <v>13100</v>
       </c>
-      <c r="T89" s="3">
+      <c r="V89" s="3">
         <v>16400</v>
       </c>
-      <c r="U89" s="3">
+      <c r="W89" s="3">
         <v>19200</v>
       </c>
-      <c r="V89" s="3">
+      <c r="X89" s="3">
         <v>36300</v>
       </c>
     </row>
-    <row r="90" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -5278,70 +5716,78 @@
       <c r="T90" s="3"/>
       <c r="U90" s="3"/>
       <c r="V90" s="3"/>
-    </row>
-    <row r="91" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W90" s="3"/>
+      <c r="X90" s="3"/>
+    </row>
+    <row r="91" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
-        <v>0</v>
+        <v>-17900</v>
       </c>
       <c r="E91" s="3">
+        <v>0</v>
+      </c>
+      <c r="F91" s="3">
+        <v>0</v>
+      </c>
+      <c r="G91" s="3">
         <v>16300</v>
       </c>
-      <c r="F91" s="3">
+      <c r="H91" s="3">
         <v>-26300</v>
       </c>
-      <c r="G91" s="3">
-        <v>0</v>
-      </c>
-      <c r="H91" s="3">
-        <v>-1000</v>
-      </c>
       <c r="I91" s="3">
-        <v>-2000</v>
+        <v>0</v>
       </c>
       <c r="J91" s="3">
         <v>-1000</v>
       </c>
       <c r="K91" s="3">
-        <v>0</v>
+        <v>-2000</v>
       </c>
       <c r="L91" s="3">
+        <v>-1000</v>
+      </c>
+      <c r="M91" s="3">
+        <v>0</v>
+      </c>
+      <c r="N91" s="3">
         <v>-600</v>
       </c>
-      <c r="M91" s="3">
-        <v>0</v>
-      </c>
-      <c r="N91" s="3">
+      <c r="O91" s="3">
+        <v>0</v>
+      </c>
+      <c r="P91" s="3">
         <v>-700</v>
       </c>
-      <c r="O91" s="3">
+      <c r="Q91" s="3">
         <v>-20300</v>
       </c>
-      <c r="P91" s="3">
+      <c r="R91" s="3">
         <v>-22700</v>
       </c>
-      <c r="Q91" s="3">
+      <c r="S91" s="3">
         <v>-17200</v>
       </c>
-      <c r="R91" s="3">
+      <c r="T91" s="3">
         <v>-33000</v>
       </c>
-      <c r="S91" s="3">
+      <c r="U91" s="3">
         <v>-38100</v>
       </c>
-      <c r="T91" s="3">
+      <c r="V91" s="3">
         <v>-35700</v>
       </c>
-      <c r="U91" s="3">
+      <c r="W91" s="3">
         <v>-35400</v>
       </c>
-      <c r="V91" s="3">
+      <c r="X91" s="3">
         <v>-28900</v>
       </c>
     </row>
-    <row r="92" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="92" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -5402,8 +5848,14 @@
       <c r="V92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W92" s="3">
+        <v>0</v>
+      </c>
+      <c r="X92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -5464,70 +5916,82 @@
       <c r="V93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W93" s="3">
+        <v>0</v>
+      </c>
+      <c r="X93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
+        <v>-116900</v>
+      </c>
+      <c r="E94" s="3">
+        <v>197300</v>
+      </c>
+      <c r="F94" s="3">
         <v>-7300</v>
       </c>
-      <c r="E94" s="3">
+      <c r="G94" s="3">
         <v>-75000</v>
       </c>
-      <c r="F94" s="3">
+      <c r="H94" s="3">
         <v>-114000</v>
       </c>
-      <c r="G94" s="3">
+      <c r="I94" s="3">
         <v>-509800</v>
       </c>
-      <c r="H94" s="3">
+      <c r="J94" s="3">
         <v>-535700</v>
       </c>
-      <c r="I94" s="3">
+      <c r="K94" s="3">
         <v>36100</v>
       </c>
-      <c r="J94" s="3">
+      <c r="L94" s="3">
         <v>21700</v>
       </c>
-      <c r="K94" s="3">
+      <c r="M94" s="3">
         <v>-54400</v>
       </c>
-      <c r="L94" s="3">
+      <c r="N94" s="3">
         <v>-52900</v>
       </c>
-      <c r="M94" s="3">
+      <c r="O94" s="3">
         <v>-681900</v>
       </c>
-      <c r="N94" s="3">
+      <c r="P94" s="3">
         <v>9500</v>
       </c>
-      <c r="O94" s="3">
+      <c r="Q94" s="3">
         <v>181700</v>
       </c>
-      <c r="P94" s="3">
+      <c r="R94" s="3">
         <v>-117600</v>
       </c>
-      <c r="Q94" s="3">
+      <c r="S94" s="3">
         <v>-58600</v>
       </c>
-      <c r="R94" s="3">
+      <c r="T94" s="3">
         <v>-132500</v>
       </c>
-      <c r="S94" s="3">
+      <c r="U94" s="3">
         <v>-320600</v>
       </c>
-      <c r="T94" s="3">
+      <c r="V94" s="3">
         <v>-40800</v>
       </c>
-      <c r="U94" s="3">
+      <c r="W94" s="3">
         <v>-35400</v>
       </c>
-      <c r="V94" s="3">
+      <c r="X94" s="3">
         <v>-28900</v>
       </c>
     </row>
-    <row r="95" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="95" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -5550,8 +6014,10 @@
       <c r="T95" s="3"/>
       <c r="U95" s="3"/>
       <c r="V95" s="3"/>
-    </row>
-    <row r="96" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W95" s="3"/>
+      <c r="X95" s="3"/>
+    </row>
+    <row r="96" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -5612,8 +6078,14 @@
       <c r="V96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W96" s="3">
+        <v>0</v>
+      </c>
+      <c r="X96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -5674,8 +6146,14 @@
       <c r="V97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W97" s="3">
+        <v>0</v>
+      </c>
+      <c r="X97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -5736,8 +6214,14 @@
       <c r="V98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W98" s="3">
+        <v>0</v>
+      </c>
+      <c r="X98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -5798,70 +6282,82 @@
       <c r="V99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W99" s="3">
+        <v>0</v>
+      </c>
+      <c r="X99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>-108300</v>
+      </c>
+      <c r="E100" s="3">
+        <v>-234900</v>
+      </c>
+      <c r="F100" s="3">
         <v>-7600</v>
       </c>
-      <c r="E100" s="3">
+      <c r="G100" s="3">
         <v>-1700</v>
       </c>
-      <c r="F100" s="3">
+      <c r="H100" s="3">
         <v>-19200</v>
       </c>
-      <c r="G100" s="3">
+      <c r="I100" s="3">
         <v>-3700</v>
       </c>
-      <c r="H100" s="3">
+      <c r="J100" s="3">
         <v>-12300</v>
       </c>
-      <c r="I100" s="3">
+      <c r="K100" s="3">
         <v>347600</v>
       </c>
-      <c r="J100" s="3">
+      <c r="L100" s="3">
         <v>-2800</v>
       </c>
-      <c r="K100" s="3">
+      <c r="M100" s="3">
         <v>1000</v>
       </c>
-      <c r="L100" s="3">
+      <c r="N100" s="3">
         <v>-2900</v>
       </c>
-      <c r="M100" s="3">
+      <c r="O100" s="3">
         <v>491600</v>
       </c>
-      <c r="N100" s="3">
+      <c r="P100" s="3">
         <v>-4600</v>
       </c>
-      <c r="O100" s="3">
+      <c r="Q100" s="3">
         <v>1900</v>
       </c>
-      <c r="P100" s="3">
+      <c r="R100" s="3">
         <v>-2800</v>
       </c>
-      <c r="Q100" s="3">
+      <c r="S100" s="3">
         <v>4400</v>
       </c>
-      <c r="R100" s="3">
+      <c r="T100" s="3">
         <v>300</v>
       </c>
-      <c r="S100" s="3">
+      <c r="U100" s="3">
         <v>2000</v>
       </c>
-      <c r="T100" s="3">
+      <c r="V100" s="3">
         <v>445700</v>
       </c>
-      <c r="U100" s="3">
+      <c r="W100" s="3">
         <v>6700</v>
       </c>
-      <c r="V100" s="3">
+      <c r="X100" s="3">
         <v>2300</v>
       </c>
     </row>
-    <row r="101" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -5893,95 +6389,107 @@
         <v>0</v>
       </c>
       <c r="M101" s="3">
+        <v>0</v>
+      </c>
+      <c r="N101" s="3">
+        <v>0</v>
+      </c>
+      <c r="O101" s="3">
         <v>-200</v>
       </c>
-      <c r="N101" s="3">
-        <v>0</v>
-      </c>
-      <c r="O101" s="3">
+      <c r="P101" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q101" s="3">
         <v>-700</v>
       </c>
-      <c r="P101" s="3">
-        <v>0</v>
-      </c>
-      <c r="Q101" s="3">
+      <c r="R101" s="3">
+        <v>0</v>
+      </c>
+      <c r="S101" s="3">
         <v>400</v>
       </c>
-      <c r="R101" s="3">
+      <c r="T101" s="3">
         <v>400</v>
       </c>
-      <c r="S101" s="3">
+      <c r="U101" s="3">
         <v>500</v>
       </c>
-      <c r="T101" s="3">
+      <c r="V101" s="3">
         <v>700</v>
       </c>
-      <c r="U101" s="3">
+      <c r="W101" s="3">
         <v>-1400</v>
       </c>
-      <c r="V101" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="102" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="X101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>-163300</v>
+      </c>
+      <c r="E102" s="3">
+        <v>86600</v>
+      </c>
+      <c r="F102" s="3">
         <v>366400</v>
       </c>
-      <c r="E102" s="3">
+      <c r="G102" s="3">
         <v>51800</v>
       </c>
-      <c r="F102" s="3">
+      <c r="H102" s="3">
         <v>-28500</v>
       </c>
-      <c r="G102" s="3">
+      <c r="I102" s="3">
         <v>-390800</v>
       </c>
-      <c r="H102" s="3">
+      <c r="J102" s="3">
         <v>-396200</v>
       </c>
-      <c r="I102" s="3">
+      <c r="K102" s="3">
         <v>546000</v>
       </c>
-      <c r="J102" s="3">
+      <c r="L102" s="3">
         <v>106400</v>
       </c>
-      <c r="K102" s="3">
+      <c r="M102" s="3">
         <v>74300</v>
       </c>
-      <c r="L102" s="3">
+      <c r="N102" s="3">
         <v>-13000</v>
       </c>
-      <c r="M102" s="3">
+      <c r="O102" s="3">
         <v>-88100</v>
       </c>
-      <c r="N102" s="3">
+      <c r="P102" s="3">
         <v>62100</v>
       </c>
-      <c r="O102" s="3">
+      <c r="Q102" s="3">
         <v>220500</v>
       </c>
-      <c r="P102" s="3">
+      <c r="R102" s="3">
         <v>-25300</v>
       </c>
-      <c r="Q102" s="3">
+      <c r="S102" s="3">
         <v>51300</v>
       </c>
-      <c r="R102" s="3">
+      <c r="T102" s="3">
         <v>-122100</v>
       </c>
-      <c r="S102" s="3">
+      <c r="U102" s="3">
         <v>-305000</v>
       </c>
-      <c r="T102" s="3">
+      <c r="V102" s="3">
         <v>422000</v>
       </c>
-      <c r="U102" s="3">
+      <c r="W102" s="3">
         <v>-10900</v>
       </c>
-      <c r="V102" s="3">
+      <c r="X102" s="3">
         <v>9700</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/LITE_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/LITE_QTR_FIN.xlsx
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:X102"/>
+  <dimension ref="A5:Y102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,306 +665,318 @@
     <col min="1" max="1" width="6.42578125" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="6" width="13" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="8" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="12" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="16" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="20" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="21" max="22" width="13" style="1" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="12.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="25" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="7" width="13" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="9" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="13" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="17" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="21" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="22" max="23" width="13" style="1" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="12.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="26" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:25" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:25" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44562</v>
+      </c>
+      <c r="E7" s="2">
         <v>44471</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44380</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44289</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44191</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>44100</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>44009</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>43918</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>43827</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>43736</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>43645</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>43554</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>43463</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>43372</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>43281</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>43190</v>
       </c>
-      <c r="S7" s="2">
+      <c r="T7" s="2">
         <v>43099</v>
       </c>
-      <c r="T7" s="2">
+      <c r="U7" s="2">
         <v>43008</v>
       </c>
-      <c r="U7" s="2">
+      <c r="V7" s="2">
         <v>42917</v>
       </c>
-      <c r="V7" s="2">
+      <c r="W7" s="2">
         <v>42826</v>
       </c>
-      <c r="W7" s="2">
+      <c r="X7" s="2">
         <v>42735</v>
       </c>
-      <c r="X7" s="2">
+      <c r="Y7" s="2">
         <v>42644</v>
       </c>
     </row>
-    <row r="8" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:25" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
+        <v>446700</v>
+      </c>
+      <c r="E8" s="3">
         <v>448400</v>
       </c>
-      <c r="E8" s="3">
+      <c r="F8" s="3">
         <v>392100</v>
       </c>
-      <c r="F8" s="3">
+      <c r="G8" s="3">
         <v>419500</v>
       </c>
-      <c r="G8" s="3">
+      <c r="H8" s="3">
         <v>478800</v>
       </c>
-      <c r="H8" s="3">
+      <c r="I8" s="3">
         <v>452400</v>
       </c>
-      <c r="I8" s="3">
+      <c r="J8" s="3">
         <v>368100</v>
       </c>
-      <c r="J8" s="3">
+      <c r="K8" s="3">
         <v>402800</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>457800</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>449900</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>404600</v>
       </c>
-      <c r="N8" s="3">
+      <c r="O8" s="3">
         <v>432900</v>
       </c>
-      <c r="O8" s="3">
+      <c r="P8" s="3">
         <v>373700</v>
       </c>
-      <c r="P8" s="3">
+      <c r="Q8" s="3">
         <v>354100</v>
       </c>
-      <c r="Q8" s="3">
+      <c r="R8" s="3">
         <v>301100</v>
       </c>
-      <c r="R8" s="3">
+      <c r="S8" s="3">
         <v>298800</v>
       </c>
-      <c r="S8" s="3">
+      <c r="T8" s="3">
         <v>404600</v>
       </c>
-      <c r="T8" s="3">
+      <c r="U8" s="3">
         <v>243200</v>
       </c>
-      <c r="U8" s="3">
+      <c r="V8" s="3">
         <v>222700</v>
       </c>
-      <c r="V8" s="3">
+      <c r="W8" s="3">
         <v>255800</v>
       </c>
-      <c r="W8" s="3">
+      <c r="X8" s="3">
         <v>265000</v>
       </c>
-      <c r="X8" s="3">
+      <c r="Y8" s="3">
         <v>258100</v>
       </c>
     </row>
-    <row r="9" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:25" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
+        <v>239200</v>
+      </c>
+      <c r="E9" s="3">
         <v>216200</v>
       </c>
-      <c r="E9" s="3">
+      <c r="F9" s="3">
         <v>229300</v>
       </c>
-      <c r="F9" s="3">
+      <c r="G9" s="3">
         <v>234500</v>
       </c>
-      <c r="G9" s="3">
+      <c r="H9" s="3">
         <v>249200</v>
       </c>
-      <c r="H9" s="3">
+      <c r="I9" s="3">
         <v>246700</v>
       </c>
-      <c r="I9" s="3">
+      <c r="J9" s="3">
         <v>232400</v>
       </c>
-      <c r="J9" s="3">
+      <c r="K9" s="3">
         <v>245100</v>
       </c>
-      <c r="K9" s="3">
+      <c r="L9" s="3">
         <v>268700</v>
       </c>
-      <c r="L9" s="3">
+      <c r="M9" s="3">
         <v>282200</v>
       </c>
-      <c r="M9" s="3">
+      <c r="N9" s="3">
         <v>317800</v>
       </c>
-      <c r="N9" s="3">
+      <c r="O9" s="3">
         <v>344600</v>
       </c>
-      <c r="O9" s="3">
+      <c r="P9" s="3">
         <v>248900</v>
       </c>
-      <c r="P9" s="3">
+      <c r="Q9" s="3">
         <v>228100</v>
       </c>
-      <c r="Q9" s="3">
+      <c r="R9" s="3">
         <v>205600</v>
       </c>
-      <c r="R9" s="3">
+      <c r="S9" s="3">
         <v>201800</v>
       </c>
-      <c r="S9" s="3">
+      <c r="T9" s="3">
         <v>233500</v>
       </c>
-      <c r="T9" s="3">
+      <c r="U9" s="3">
         <v>174700</v>
       </c>
-      <c r="U9" s="3">
+      <c r="V9" s="3">
         <v>155400</v>
       </c>
-      <c r="V9" s="3">
+      <c r="W9" s="3">
         <v>173700</v>
       </c>
-      <c r="W9" s="3">
+      <c r="X9" s="3">
         <v>178000</v>
       </c>
-      <c r="X9" s="3">
+      <c r="Y9" s="3">
         <v>176400</v>
       </c>
     </row>
-    <row r="10" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:25" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
+        <v>207500</v>
+      </c>
+      <c r="E10" s="3">
         <v>232200</v>
       </c>
-      <c r="E10" s="3">
+      <c r="F10" s="3">
         <v>162800</v>
       </c>
-      <c r="F10" s="3">
+      <c r="G10" s="3">
         <v>185000</v>
       </c>
-      <c r="G10" s="3">
+      <c r="H10" s="3">
         <v>229600</v>
       </c>
-      <c r="H10" s="3">
+      <c r="I10" s="3">
         <v>205700</v>
       </c>
-      <c r="I10" s="3">
+      <c r="J10" s="3">
         <v>135700</v>
       </c>
-      <c r="J10" s="3">
+      <c r="K10" s="3">
         <v>157700</v>
       </c>
-      <c r="K10" s="3">
+      <c r="L10" s="3">
         <v>189100</v>
       </c>
-      <c r="L10" s="3">
+      <c r="M10" s="3">
         <v>167700</v>
       </c>
-      <c r="M10" s="3">
+      <c r="N10" s="3">
         <v>86800</v>
       </c>
-      <c r="N10" s="3">
+      <c r="O10" s="3">
         <v>88300</v>
       </c>
-      <c r="O10" s="3">
+      <c r="P10" s="3">
         <v>124800</v>
       </c>
-      <c r="P10" s="3">
+      <c r="Q10" s="3">
         <v>126000</v>
       </c>
-      <c r="Q10" s="3">
+      <c r="R10" s="3">
         <v>95500</v>
       </c>
-      <c r="R10" s="3">
+      <c r="S10" s="3">
         <v>97000</v>
       </c>
-      <c r="S10" s="3">
+      <c r="T10" s="3">
         <v>171100</v>
       </c>
-      <c r="T10" s="3">
+      <c r="U10" s="3">
         <v>68500</v>
       </c>
-      <c r="U10" s="3">
+      <c r="V10" s="3">
         <v>67300</v>
       </c>
-      <c r="V10" s="3">
+      <c r="W10" s="3">
         <v>82100</v>
       </c>
-      <c r="W10" s="3">
+      <c r="X10" s="3">
         <v>87000</v>
       </c>
-      <c r="X10" s="3">
+      <c r="Y10" s="3">
         <v>81700</v>
       </c>
     </row>
-    <row r="11" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:25" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -989,76 +1001,80 @@
       <c r="V11" s="3"/>
       <c r="W11" s="3"/>
       <c r="X11" s="3"/>
-    </row>
-    <row r="12" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="Y11" s="3"/>
+    </row>
+    <row r="12" spans="1:25" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
       <c r="D12" s="3">
-        <v>54100</v>
+        <v>53200</v>
       </c>
       <c r="E12" s="3">
         <v>54100</v>
       </c>
       <c r="F12" s="3">
+        <v>54100</v>
+      </c>
+      <c r="G12" s="3">
         <v>57200</v>
       </c>
-      <c r="G12" s="3">
+      <c r="H12" s="3">
         <v>52800</v>
       </c>
-      <c r="H12" s="3">
+      <c r="I12" s="3">
         <v>50400</v>
       </c>
-      <c r="I12" s="3">
+      <c r="J12" s="3">
         <v>49000</v>
       </c>
-      <c r="J12" s="3">
+      <c r="K12" s="3">
         <v>48700</v>
       </c>
-      <c r="K12" s="3">
+      <c r="L12" s="3">
         <v>51000</v>
       </c>
-      <c r="L12" s="3">
+      <c r="M12" s="3">
         <v>49900</v>
       </c>
-      <c r="M12" s="3">
+      <c r="N12" s="3">
         <v>49500</v>
       </c>
-      <c r="N12" s="3">
+      <c r="O12" s="3">
         <v>57700</v>
       </c>
-      <c r="O12" s="3">
+      <c r="P12" s="3">
         <v>42800</v>
       </c>
-      <c r="P12" s="3">
+      <c r="Q12" s="3">
         <v>34600</v>
       </c>
-      <c r="Q12" s="3">
+      <c r="R12" s="3">
         <v>38500</v>
       </c>
-      <c r="R12" s="3">
+      <c r="S12" s="3">
         <v>38200</v>
       </c>
-      <c r="S12" s="3">
+      <c r="T12" s="3">
         <v>43800</v>
       </c>
-      <c r="T12" s="3">
+      <c r="U12" s="3">
         <v>36300</v>
       </c>
-      <c r="U12" s="3">
+      <c r="V12" s="3">
         <v>35400</v>
       </c>
-      <c r="V12" s="3">
+      <c r="W12" s="3">
         <v>37300</v>
       </c>
-      <c r="W12" s="3">
+      <c r="X12" s="3">
         <v>38700</v>
       </c>
-      <c r="X12" s="3">
+      <c r="Y12" s="3">
         <v>36900</v>
       </c>
     </row>
-    <row r="13" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:25" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>8</v>
       </c>
@@ -1125,76 +1141,82 @@
       <c r="X13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="Y13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:25" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>9</v>
       </c>
       <c r="D14" s="3">
+        <v>100</v>
+      </c>
+      <c r="E14" s="3">
         <v>-1100</v>
       </c>
-      <c r="E14" s="3">
+      <c r="F14" s="3">
         <v>4600</v>
       </c>
-      <c r="F14" s="3">
+      <c r="G14" s="3">
         <v>-204600</v>
       </c>
-      <c r="G14" s="3">
+      <c r="H14" s="3">
         <v>200</v>
       </c>
-      <c r="H14" s="3">
-        <v>0</v>
-      </c>
       <c r="I14" s="3">
+        <v>0</v>
+      </c>
+      <c r="J14" s="3">
         <v>4900</v>
       </c>
-      <c r="J14" s="3">
+      <c r="K14" s="3">
         <v>5200</v>
       </c>
-      <c r="K14" s="3">
+      <c r="L14" s="3">
         <v>900</v>
       </c>
-      <c r="L14" s="3">
+      <c r="M14" s="3">
         <v>1300</v>
       </c>
-      <c r="M14" s="3">
+      <c r="N14" s="3">
         <v>1700</v>
       </c>
-      <c r="N14" s="3">
+      <c r="O14" s="3">
         <v>51800</v>
       </c>
-      <c r="O14" s="3">
+      <c r="P14" s="3">
         <v>7800</v>
       </c>
-      <c r="P14" s="3">
+      <c r="Q14" s="3">
         <v>1300</v>
       </c>
-      <c r="Q14" s="3">
+      <c r="R14" s="3">
         <v>3400</v>
       </c>
-      <c r="R14" s="3">
+      <c r="S14" s="3">
         <v>100</v>
       </c>
-      <c r="S14" s="3">
+      <c r="T14" s="3">
         <v>4500</v>
       </c>
-      <c r="T14" s="3">
+      <c r="U14" s="3">
         <v>2900</v>
       </c>
-      <c r="U14" s="3">
+      <c r="V14" s="3">
         <v>2000</v>
       </c>
-      <c r="V14" s="3">
+      <c r="W14" s="3">
         <v>3100</v>
       </c>
-      <c r="W14" s="3">
+      <c r="X14" s="3">
         <v>4000</v>
       </c>
-      <c r="X14" s="3">
+      <c r="Y14" s="3">
         <v>2900</v>
       </c>
     </row>
-    <row r="15" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:25" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>10</v>
       </c>
@@ -1202,40 +1224,40 @@
         <v>5600</v>
       </c>
       <c r="E15" s="3">
-        <v>6200</v>
+        <v>5600</v>
       </c>
       <c r="F15" s="3">
         <v>6200</v>
       </c>
       <c r="G15" s="3">
+        <v>6200</v>
+      </c>
+      <c r="H15" s="3">
         <v>5900</v>
       </c>
-      <c r="H15" s="3">
+      <c r="I15" s="3">
         <v>5700</v>
       </c>
-      <c r="I15" s="3">
+      <c r="J15" s="3">
         <v>6200</v>
       </c>
-      <c r="J15" s="3">
+      <c r="K15" s="3">
         <v>6100</v>
       </c>
-      <c r="K15" s="3">
+      <c r="L15" s="3">
         <v>6200</v>
       </c>
-      <c r="L15" s="3">
+      <c r="M15" s="3">
         <v>6300</v>
-      </c>
-      <c r="M15" s="3">
-        <v>3600</v>
       </c>
       <c r="N15" s="3">
         <v>3600</v>
       </c>
       <c r="O15" s="3">
+        <v>3600</v>
+      </c>
+      <c r="P15" s="3">
         <v>800</v>
-      </c>
-      <c r="P15" s="3" t="s">
-        <v>17</v>
       </c>
       <c r="Q15" s="3" t="s">
         <v>17</v>
@@ -1243,17 +1265,17 @@
       <c r="R15" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="S15" s="3">
-        <v>0</v>
-      </c>
-      <c r="T15" s="3" t="s">
+      <c r="S15" s="3" t="s">
         <v>17</v>
+      </c>
+      <c r="T15" s="3">
+        <v>0</v>
       </c>
       <c r="U15" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="V15" s="3">
-        <v>0</v>
+      <c r="V15" s="3" t="s">
+        <v>17</v>
       </c>
       <c r="W15" s="3">
         <v>0</v>
@@ -1261,8 +1283,11 @@
       <c r="X15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="Y15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:25" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1284,144 +1309,151 @@
       <c r="V16" s="3"/>
       <c r="W16" s="3"/>
       <c r="X16" s="3"/>
-    </row>
-    <row r="17" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y16" s="3"/>
+    </row>
+    <row r="17" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>11</v>
       </c>
       <c r="D17" s="3">
+        <v>361500</v>
+      </c>
+      <c r="E17" s="3">
         <v>332500</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="3">
         <v>346300</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>152600</v>
       </c>
-      <c r="G17" s="3">
+      <c r="H17" s="3">
         <v>363500</v>
       </c>
-      <c r="H17" s="3">
+      <c r="I17" s="3">
         <v>353400</v>
       </c>
-      <c r="I17" s="3">
+      <c r="J17" s="3">
         <v>341100</v>
       </c>
-      <c r="J17" s="3">
+      <c r="K17" s="3">
         <v>360300</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>383000</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>390100</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>418400</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>509300</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>362200</v>
       </c>
-      <c r="P17" s="3">
+      <c r="Q17" s="3">
         <v>297000</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="R17" s="3">
         <v>280200</v>
       </c>
-      <c r="R17" s="3">
+      <c r="S17" s="3">
         <v>273300</v>
       </c>
-      <c r="S17" s="3">
+      <c r="T17" s="3">
         <v>313800</v>
       </c>
-      <c r="T17" s="3">
+      <c r="U17" s="3">
         <v>240500</v>
       </c>
-      <c r="U17" s="3">
+      <c r="V17" s="3">
         <v>218800</v>
       </c>
-      <c r="V17" s="3">
+      <c r="W17" s="3">
         <v>242200</v>
       </c>
-      <c r="W17" s="3">
+      <c r="X17" s="3">
         <v>251700</v>
       </c>
-      <c r="X17" s="3">
+      <c r="Y17" s="3">
         <v>241300</v>
       </c>
     </row>
-    <row r="18" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D18" s="3">
+        <v>85200</v>
+      </c>
+      <c r="E18" s="3">
         <v>115900</v>
       </c>
-      <c r="E18" s="3">
+      <c r="F18" s="3">
         <v>45800</v>
       </c>
-      <c r="F18" s="3">
+      <c r="G18" s="3">
         <v>266900</v>
       </c>
-      <c r="G18" s="3">
+      <c r="H18" s="3">
         <v>115300</v>
       </c>
-      <c r="H18" s="3">
+      <c r="I18" s="3">
         <v>99000</v>
       </c>
-      <c r="I18" s="3">
+      <c r="J18" s="3">
         <v>27000</v>
       </c>
-      <c r="J18" s="3">
+      <c r="K18" s="3">
         <v>42500</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>74800</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>59800</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>-13800</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>-76400</v>
       </c>
-      <c r="O18" s="3">
+      <c r="P18" s="3">
         <v>11500</v>
       </c>
-      <c r="P18" s="3">
+      <c r="Q18" s="3">
         <v>57100</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="R18" s="3">
         <v>20900</v>
       </c>
-      <c r="R18" s="3">
+      <c r="S18" s="3">
         <v>25500</v>
       </c>
-      <c r="S18" s="3">
+      <c r="T18" s="3">
         <v>90800</v>
       </c>
-      <c r="T18" s="3">
+      <c r="U18" s="3">
         <v>2700</v>
       </c>
-      <c r="U18" s="3">
+      <c r="V18" s="3">
         <v>3900</v>
       </c>
-      <c r="V18" s="3">
+      <c r="W18" s="3">
         <v>13600</v>
       </c>
-      <c r="W18" s="3">
+      <c r="X18" s="3">
         <v>13300</v>
       </c>
-      <c r="X18" s="3">
+      <c r="Y18" s="3">
         <v>16800</v>
       </c>
     </row>
-    <row r="19" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>13</v>
       </c>
@@ -1446,188 +1478,195 @@
       <c r="V19" s="3"/>
       <c r="W19" s="3"/>
       <c r="X19" s="3"/>
-    </row>
-    <row r="20" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y19" s="3"/>
+    </row>
+    <row r="20" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>14</v>
       </c>
       <c r="D20" s="3">
+        <v>1000</v>
+      </c>
+      <c r="E20" s="3">
         <v>600</v>
       </c>
-      <c r="E20" s="3">
+      <c r="F20" s="3">
         <v>700</v>
       </c>
-      <c r="F20" s="3">
+      <c r="G20" s="3">
         <v>2400</v>
       </c>
-      <c r="G20" s="3">
+      <c r="H20" s="3">
         <v>-900</v>
       </c>
-      <c r="H20" s="3">
+      <c r="I20" s="3">
         <v>600</v>
       </c>
-      <c r="I20" s="3">
+      <c r="J20" s="3">
         <v>3500</v>
       </c>
-      <c r="J20" s="3">
+      <c r="K20" s="3">
         <v>21700</v>
       </c>
-      <c r="K20" s="3">
+      <c r="L20" s="3">
         <v>1200</v>
       </c>
-      <c r="L20" s="3">
+      <c r="M20" s="3">
         <v>5000</v>
       </c>
-      <c r="M20" s="3">
+      <c r="N20" s="3">
         <v>4100</v>
       </c>
-      <c r="N20" s="3">
+      <c r="O20" s="3">
         <v>5200</v>
       </c>
-      <c r="O20" s="3">
+      <c r="P20" s="3">
         <v>14700</v>
       </c>
-      <c r="P20" s="3">
+      <c r="Q20" s="3">
         <v>600</v>
       </c>
-      <c r="Q20" s="3">
+      <c r="R20" s="3">
         <v>11400</v>
       </c>
-      <c r="R20" s="3">
+      <c r="S20" s="3">
         <v>-18200</v>
       </c>
-      <c r="S20" s="3">
+      <c r="T20" s="3">
         <v>9300</v>
       </c>
-      <c r="T20" s="3">
+      <c r="U20" s="3">
         <v>5200</v>
       </c>
-      <c r="U20" s="3">
+      <c r="V20" s="3">
         <v>-31500</v>
       </c>
-      <c r="V20" s="3">
+      <c r="W20" s="3">
         <v>-58000</v>
       </c>
-      <c r="W20" s="3">
+      <c r="X20" s="3">
         <v>4600</v>
       </c>
-      <c r="X20" s="3">
+      <c r="Y20" s="3">
         <v>-22500</v>
       </c>
     </row>
-    <row r="21" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D21" s="3">
+        <v>128300</v>
+      </c>
+      <c r="E21" s="3">
         <v>158300</v>
       </c>
-      <c r="E21" s="3">
+      <c r="F21" s="3">
         <v>89600</v>
       </c>
-      <c r="F21" s="3">
+      <c r="G21" s="3">
         <v>314100</v>
       </c>
-      <c r="G21" s="3">
+      <c r="H21" s="3">
         <v>159100</v>
       </c>
-      <c r="H21" s="3">
+      <c r="I21" s="3">
         <v>144100</v>
       </c>
-      <c r="I21" s="3">
+      <c r="J21" s="3">
         <v>77200</v>
       </c>
-      <c r="J21" s="3">
+      <c r="K21" s="3">
         <v>111700</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>123300</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>115200</v>
       </c>
-      <c r="M21" s="3">
+      <c r="N21" s="3">
         <v>35400</v>
       </c>
-      <c r="N21" s="3">
+      <c r="O21" s="3">
         <v>-10500</v>
       </c>
-      <c r="O21" s="3">
+      <c r="P21" s="3">
         <v>57400</v>
       </c>
-      <c r="P21" s="3">
+      <c r="Q21" s="3">
         <v>78200</v>
       </c>
-      <c r="Q21" s="3">
+      <c r="R21" s="3">
         <v>53800</v>
       </c>
-      <c r="R21" s="3">
+      <c r="S21" s="3">
         <v>26500</v>
       </c>
-      <c r="S21" s="3">
+      <c r="T21" s="3">
         <v>119100</v>
       </c>
-      <c r="T21" s="3">
+      <c r="U21" s="3">
         <v>25400</v>
       </c>
-      <c r="U21" s="3">
+      <c r="V21" s="3">
         <v>-11100</v>
       </c>
-      <c r="V21" s="3">
+      <c r="W21" s="3">
         <v>-28500</v>
       </c>
-      <c r="W21" s="3">
+      <c r="X21" s="3">
         <v>32800</v>
       </c>
-      <c r="X21" s="3">
+      <c r="Y21" s="3">
         <v>8000</v>
       </c>
     </row>
-    <row r="22" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D22" s="3">
+        <v>17100</v>
+      </c>
+      <c r="E22" s="3">
         <v>16900</v>
       </c>
-      <c r="E22" s="3">
+      <c r="F22" s="3">
         <v>18000</v>
       </c>
-      <c r="F22" s="3">
+      <c r="G22" s="3">
         <v>16400</v>
       </c>
-      <c r="G22" s="3">
+      <c r="H22" s="3">
         <v>16300</v>
       </c>
-      <c r="H22" s="3">
+      <c r="I22" s="3">
         <v>16000</v>
       </c>
-      <c r="I22" s="3">
+      <c r="J22" s="3">
         <v>15900</v>
       </c>
-      <c r="J22" s="3">
+      <c r="K22" s="3">
         <v>15600</v>
       </c>
-      <c r="K22" s="3">
+      <c r="L22" s="3">
         <v>18300</v>
-      </c>
-      <c r="L22" s="3">
-        <v>11400</v>
       </c>
       <c r="M22" s="3">
         <v>11400</v>
       </c>
       <c r="N22" s="3">
+        <v>11400</v>
+      </c>
+      <c r="O22" s="3">
         <v>11300</v>
       </c>
-      <c r="O22" s="3">
+      <c r="P22" s="3">
         <v>8500</v>
       </c>
-      <c r="P22" s="3">
+      <c r="Q22" s="3">
         <v>5100</v>
-      </c>
-      <c r="Q22" s="3">
-        <v>4600</v>
       </c>
       <c r="R22" s="3">
         <v>4600</v>
@@ -1636,10 +1675,10 @@
         <v>4600</v>
       </c>
       <c r="T22" s="3">
+        <v>4600</v>
+      </c>
+      <c r="U22" s="3">
         <v>4400</v>
-      </c>
-      <c r="U22" s="3" t="s">
-        <v>17</v>
       </c>
       <c r="V22" s="3" t="s">
         <v>17</v>
@@ -1650,144 +1689,153 @@
       <c r="X22" s="3" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="23" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y22" s="3" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="23" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>69100</v>
+      </c>
+      <c r="E23" s="3">
         <v>99600</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>28500</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>252900</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
         <v>98100</v>
       </c>
-      <c r="H23" s="3">
+      <c r="I23" s="3">
         <v>83600</v>
       </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
         <v>14600</v>
       </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
         <v>48600</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>57700</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>53400</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>-21100</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>-82500</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>17700</v>
       </c>
-      <c r="P23" s="3">
+      <c r="Q23" s="3">
         <v>52600</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="R23" s="3">
         <v>27700</v>
       </c>
-      <c r="R23" s="3">
+      <c r="S23" s="3">
         <v>2700</v>
       </c>
-      <c r="S23" s="3">
+      <c r="T23" s="3">
         <v>95500</v>
       </c>
-      <c r="T23" s="3">
+      <c r="U23" s="3">
         <v>3500</v>
       </c>
-      <c r="U23" s="3">
+      <c r="V23" s="3">
         <v>-27600</v>
       </c>
-      <c r="V23" s="3">
+      <c r="W23" s="3">
         <v>-44400</v>
       </c>
-      <c r="W23" s="3">
+      <c r="X23" s="3">
         <v>17900</v>
       </c>
-      <c r="X23" s="3">
+      <c r="Y23" s="3">
         <v>-5700</v>
       </c>
     </row>
-    <row r="24" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
+        <v>12400</v>
+      </c>
+      <c r="E24" s="3">
         <v>18100</v>
       </c>
-      <c r="E24" s="3">
+      <c r="F24" s="3">
         <v>7000</v>
       </c>
-      <c r="F24" s="3">
+      <c r="G24" s="3">
         <v>27400</v>
       </c>
-      <c r="G24" s="3">
+      <c r="H24" s="3">
         <v>14900</v>
       </c>
-      <c r="H24" s="3">
+      <c r="I24" s="3">
         <v>16500</v>
       </c>
-      <c r="I24" s="3">
+      <c r="J24" s="3">
         <v>19200</v>
       </c>
-      <c r="J24" s="3">
+      <c r="K24" s="3">
         <v>5200</v>
       </c>
-      <c r="K24" s="3">
+      <c r="L24" s="3">
         <v>8600</v>
       </c>
-      <c r="L24" s="3">
+      <c r="M24" s="3">
         <v>5800</v>
       </c>
-      <c r="M24" s="3">
+      <c r="N24" s="3">
         <v>4700</v>
       </c>
-      <c r="N24" s="3">
+      <c r="O24" s="3">
         <v>-8200</v>
       </c>
-      <c r="O24" s="3">
+      <c r="P24" s="3">
         <v>1400</v>
       </c>
-      <c r="P24" s="3">
+      <c r="Q24" s="3">
         <v>5200</v>
       </c>
-      <c r="Q24" s="3">
+      <c r="R24" s="3">
         <v>-3300</v>
       </c>
-      <c r="R24" s="3">
-        <v>0</v>
-      </c>
       <c r="S24" s="3">
+        <v>0</v>
+      </c>
+      <c r="T24" s="3">
         <v>-109300</v>
       </c>
-      <c r="T24" s="3">
+      <c r="U24" s="3">
         <v>-3600</v>
       </c>
-      <c r="U24" s="3">
+      <c r="V24" s="3">
         <v>27300</v>
       </c>
-      <c r="V24" s="3">
+      <c r="W24" s="3">
         <v>11600</v>
       </c>
-      <c r="W24" s="3">
+      <c r="X24" s="3">
         <v>6100</v>
       </c>
-      <c r="X24" s="3">
+      <c r="Y24" s="3">
         <v>-2300</v>
       </c>
     </row>
-    <row r="25" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="25" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1854,144 +1902,153 @@
       <c r="X25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>56700</v>
+      </c>
+      <c r="E26" s="3">
         <v>81500</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
         <v>21500</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>225500</v>
       </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
         <v>83200</v>
       </c>
-      <c r="H26" s="3">
+      <c r="I26" s="3">
         <v>67100</v>
       </c>
-      <c r="I26" s="3">
+      <c r="J26" s="3">
         <v>-4600</v>
       </c>
-      <c r="J26" s="3">
+      <c r="K26" s="3">
         <v>43400</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>49100</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>47600</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>-25800</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>-74300</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>16300</v>
       </c>
-      <c r="P26" s="3">
+      <c r="Q26" s="3">
         <v>47400</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="R26" s="3">
         <v>31000</v>
       </c>
-      <c r="R26" s="3">
+      <c r="S26" s="3">
         <v>2700</v>
       </c>
-      <c r="S26" s="3">
+      <c r="T26" s="3">
         <v>204800</v>
       </c>
-      <c r="T26" s="3">
+      <c r="U26" s="3">
         <v>7100</v>
       </c>
-      <c r="U26" s="3">
+      <c r="V26" s="3">
         <v>-54900</v>
       </c>
-      <c r="V26" s="3">
+      <c r="W26" s="3">
         <v>-56000</v>
       </c>
-      <c r="W26" s="3">
+      <c r="X26" s="3">
         <v>11800</v>
       </c>
-      <c r="X26" s="3">
+      <c r="Y26" s="3">
         <v>-3400</v>
       </c>
     </row>
-    <row r="27" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>56700</v>
+      </c>
+      <c r="E27" s="3">
         <v>81500</v>
       </c>
-      <c r="E27" s="3">
+      <c r="F27" s="3">
         <v>21500</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>225500</v>
       </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
         <v>83200</v>
       </c>
-      <c r="H27" s="3">
+      <c r="I27" s="3">
         <v>67100</v>
       </c>
-      <c r="I27" s="3">
+      <c r="J27" s="3">
         <v>-4600</v>
       </c>
-      <c r="J27" s="3">
+      <c r="K27" s="3">
         <v>43400</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>49100</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>47600</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>-25800</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>-74300</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>16200</v>
       </c>
-      <c r="P27" s="3">
+      <c r="Q27" s="3">
         <v>46100</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="R27" s="3">
         <v>30000</v>
       </c>
-      <c r="R27" s="3">
+      <c r="S27" s="3">
         <v>2400</v>
       </c>
-      <c r="S27" s="3">
+      <c r="T27" s="3">
         <v>199800</v>
       </c>
-      <c r="T27" s="3">
+      <c r="U27" s="3">
         <v>6900</v>
       </c>
-      <c r="U27" s="3">
+      <c r="V27" s="3">
         <v>-55200</v>
       </c>
-      <c r="V27" s="3">
+      <c r="W27" s="3">
         <v>-56200</v>
       </c>
-      <c r="W27" s="3">
+      <c r="X27" s="3">
         <v>11600</v>
       </c>
-      <c r="X27" s="3">
+      <c r="Y27" s="3">
         <v>-3600</v>
       </c>
     </row>
-    <row r="28" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -2058,8 +2115,11 @@
       <c r="X28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -2084,17 +2144,17 @@
       <c r="J29" s="3">
         <v>0</v>
       </c>
-      <c r="K29" s="3" t="s">
-        <v>17</v>
+      <c r="K29" s="3">
+        <v>0</v>
       </c>
       <c r="L29" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="M29" s="3">
-        <v>0</v>
-      </c>
-      <c r="N29" s="3" t="s">
+      <c r="M29" s="3" t="s">
         <v>17</v>
+      </c>
+      <c r="N29" s="3">
+        <v>0</v>
       </c>
       <c r="O29" s="3" t="s">
         <v>17</v>
@@ -2102,17 +2162,17 @@
       <c r="P29" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="Q29" s="3">
+      <c r="Q29" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="R29" s="3">
         <v>2500</v>
       </c>
-      <c r="R29" s="3">
-        <v>0</v>
-      </c>
       <c r="S29" s="3">
+        <v>0</v>
+      </c>
+      <c r="T29" s="3">
         <v>-83000</v>
-      </c>
-      <c r="T29" s="3" t="s">
-        <v>17</v>
       </c>
       <c r="U29" s="3" t="s">
         <v>17</v>
@@ -2126,8 +2186,11 @@
       <c r="X29" s="3" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="30" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y29" s="3" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="30" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -2194,8 +2257,11 @@
       <c r="X30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -2262,144 +2328,153 @@
       <c r="X31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
+        <v>-1000</v>
+      </c>
+      <c r="E32" s="3">
         <v>-600</v>
       </c>
-      <c r="E32" s="3">
+      <c r="F32" s="3">
         <v>-700</v>
       </c>
-      <c r="F32" s="3">
+      <c r="G32" s="3">
         <v>-2400</v>
       </c>
-      <c r="G32" s="3">
+      <c r="H32" s="3">
         <v>900</v>
       </c>
-      <c r="H32" s="3">
+      <c r="I32" s="3">
         <v>-600</v>
       </c>
-      <c r="I32" s="3">
+      <c r="J32" s="3">
         <v>-3500</v>
       </c>
-      <c r="J32" s="3">
+      <c r="K32" s="3">
         <v>-21700</v>
       </c>
-      <c r="K32" s="3">
+      <c r="L32" s="3">
         <v>-1200</v>
       </c>
-      <c r="L32" s="3">
+      <c r="M32" s="3">
         <v>-5000</v>
       </c>
-      <c r="M32" s="3">
+      <c r="N32" s="3">
         <v>-4100</v>
       </c>
-      <c r="N32" s="3">
+      <c r="O32" s="3">
         <v>-5200</v>
       </c>
-      <c r="O32" s="3">
+      <c r="P32" s="3">
         <v>-14700</v>
       </c>
-      <c r="P32" s="3">
+      <c r="Q32" s="3">
         <v>-600</v>
       </c>
-      <c r="Q32" s="3">
+      <c r="R32" s="3">
         <v>-11400</v>
       </c>
-      <c r="R32" s="3">
+      <c r="S32" s="3">
         <v>18200</v>
       </c>
-      <c r="S32" s="3">
+      <c r="T32" s="3">
         <v>-9300</v>
       </c>
-      <c r="T32" s="3">
+      <c r="U32" s="3">
         <v>-5200</v>
       </c>
-      <c r="U32" s="3">
+      <c r="V32" s="3">
         <v>31500</v>
       </c>
-      <c r="V32" s="3">
+      <c r="W32" s="3">
         <v>58000</v>
       </c>
-      <c r="W32" s="3">
+      <c r="X32" s="3">
         <v>-4600</v>
       </c>
-      <c r="X32" s="3">
+      <c r="Y32" s="3">
         <v>22500</v>
       </c>
     </row>
-    <row r="33" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>56700</v>
+      </c>
+      <c r="E33" s="3">
         <v>81500</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
         <v>21500</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>225500</v>
       </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
         <v>83200</v>
       </c>
-      <c r="H33" s="3">
+      <c r="I33" s="3">
         <v>67100</v>
       </c>
-      <c r="I33" s="3">
+      <c r="J33" s="3">
         <v>-4600</v>
       </c>
-      <c r="J33" s="3">
+      <c r="K33" s="3">
         <v>43400</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>49100</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>47600</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>-25800</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>-74300</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>16200</v>
       </c>
-      <c r="P33" s="3">
+      <c r="Q33" s="3">
         <v>46100</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="R33" s="3">
         <v>32500</v>
       </c>
-      <c r="R33" s="3">
+      <c r="S33" s="3">
         <v>2400</v>
       </c>
-      <c r="S33" s="3">
+      <c r="T33" s="3">
         <v>116800</v>
       </c>
-      <c r="T33" s="3">
+      <c r="U33" s="3">
         <v>6900</v>
       </c>
-      <c r="U33" s="3">
+      <c r="V33" s="3">
         <v>-55200</v>
       </c>
-      <c r="V33" s="3">
+      <c r="W33" s="3">
         <v>-56200</v>
       </c>
-      <c r="W33" s="3">
+      <c r="X33" s="3">
         <v>11600</v>
       </c>
-      <c r="X33" s="3">
+      <c r="Y33" s="3">
         <v>-3600</v>
       </c>
     </row>
-    <row r="34" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2466,149 +2541,158 @@
       <c r="X34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>56700</v>
+      </c>
+      <c r="E35" s="3">
         <v>81500</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
         <v>21500</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>225500</v>
       </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
         <v>83200</v>
       </c>
-      <c r="H35" s="3">
+      <c r="I35" s="3">
         <v>67100</v>
       </c>
-      <c r="I35" s="3">
+      <c r="J35" s="3">
         <v>-4600</v>
       </c>
-      <c r="J35" s="3">
+      <c r="K35" s="3">
         <v>43400</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>49100</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>47600</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>-25800</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>-74300</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>16200</v>
       </c>
-      <c r="P35" s="3">
+      <c r="Q35" s="3">
         <v>46100</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="R35" s="3">
         <v>32500</v>
       </c>
-      <c r="R35" s="3">
+      <c r="S35" s="3">
         <v>2400</v>
       </c>
-      <c r="S35" s="3">
+      <c r="T35" s="3">
         <v>116800</v>
       </c>
-      <c r="T35" s="3">
+      <c r="U35" s="3">
         <v>6900</v>
       </c>
-      <c r="U35" s="3">
+      <c r="V35" s="3">
         <v>-55200</v>
       </c>
-      <c r="V35" s="3">
+      <c r="W35" s="3">
         <v>-56200</v>
       </c>
-      <c r="W35" s="3">
+      <c r="X35" s="3">
         <v>11600</v>
       </c>
-      <c r="X35" s="3">
+      <c r="Y35" s="3">
         <v>-3600</v>
       </c>
     </row>
-    <row r="37" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:25" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44562</v>
+      </c>
+      <c r="E38" s="2">
         <v>44471</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44380</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44289</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44191</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>44100</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>44009</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>43918</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>43827</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>43736</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>43645</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>43554</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>43463</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>43372</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>43281</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>43190</v>
       </c>
-      <c r="S38" s="2">
+      <c r="T38" s="2">
         <v>43099</v>
       </c>
-      <c r="T38" s="2">
+      <c r="U38" s="2">
         <v>43008</v>
       </c>
-      <c r="U38" s="2">
+      <c r="V38" s="2">
         <v>42917</v>
       </c>
-      <c r="V38" s="2">
+      <c r="W38" s="2">
         <v>42826</v>
       </c>
-      <c r="W38" s="2">
+      <c r="X38" s="2">
         <v>42735</v>
       </c>
-      <c r="X38" s="2">
+      <c r="Y38" s="2">
         <v>42644</v>
       </c>
     </row>
-    <row r="39" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2633,8 +2717,9 @@
       <c r="V39" s="3"/>
       <c r="W39" s="3"/>
       <c r="X39" s="3"/>
-    </row>
-    <row r="40" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y39" s="3"/>
+    </row>
+    <row r="40" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2659,135 +2744,139 @@
       <c r="V40" s="3"/>
       <c r="W40" s="3"/>
       <c r="X40" s="3"/>
-    </row>
-    <row r="41" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y40" s="3"/>
+    </row>
+    <row r="41" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>552000</v>
+      </c>
+      <c r="E41" s="3">
         <v>611000</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>774300</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>687700</v>
       </c>
-      <c r="G41" s="3">
+      <c r="H41" s="3">
         <v>321300</v>
       </c>
-      <c r="H41" s="3">
+      <c r="I41" s="3">
         <v>269500</v>
       </c>
-      <c r="I41" s="3">
+      <c r="J41" s="3">
         <v>298000</v>
       </c>
-      <c r="J41" s="3">
+      <c r="K41" s="3">
         <v>688300</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>1085000</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>539000</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>432600</v>
       </c>
-      <c r="N41" s="3">
+      <c r="O41" s="3">
         <v>357300</v>
       </c>
-      <c r="O41" s="3">
+      <c r="P41" s="3">
         <v>371300</v>
       </c>
-      <c r="P41" s="3">
+      <c r="Q41" s="3">
         <v>459400</v>
       </c>
-      <c r="Q41" s="3">
+      <c r="R41" s="3">
         <v>397300</v>
       </c>
-      <c r="R41" s="3">
+      <c r="S41" s="3">
         <v>176800</v>
       </c>
-      <c r="S41" s="3">
+      <c r="T41" s="3">
         <v>202100</v>
       </c>
-      <c r="T41" s="3">
+      <c r="U41" s="3">
         <v>150800</v>
       </c>
-      <c r="U41" s="3">
+      <c r="V41" s="3">
         <v>272900</v>
       </c>
-      <c r="V41" s="3">
+      <c r="W41" s="3">
         <v>577900</v>
       </c>
-      <c r="W41" s="3">
+      <c r="X41" s="3">
         <v>155900</v>
       </c>
-      <c r="X41" s="3">
+      <c r="Y41" s="3">
         <v>166800</v>
       </c>
     </row>
-    <row r="42" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
       <c r="D42" s="3">
+        <v>1470400</v>
+      </c>
+      <c r="E42" s="3">
         <v>1273600</v>
       </c>
-      <c r="E42" s="3">
+      <c r="F42" s="3">
         <v>1171700</v>
       </c>
-      <c r="F42" s="3">
+      <c r="G42" s="3">
         <v>1366900</v>
       </c>
-      <c r="G42" s="3">
+      <c r="H42" s="3">
         <v>1379000</v>
       </c>
-      <c r="H42" s="3">
+      <c r="I42" s="3">
         <v>1341200</v>
       </c>
-      <c r="I42" s="3">
+      <c r="J42" s="3">
         <v>1255800</v>
       </c>
-      <c r="J42" s="3">
+      <c r="K42" s="3">
         <v>763100</v>
       </c>
-      <c r="K42" s="3">
+      <c r="L42" s="3">
         <v>230600</v>
       </c>
-      <c r="L42" s="3">
+      <c r="M42" s="3">
         <v>291900</v>
       </c>
-      <c r="M42" s="3">
+      <c r="N42" s="3">
         <v>335900</v>
       </c>
-      <c r="N42" s="3">
+      <c r="O42" s="3">
         <v>340200</v>
       </c>
-      <c r="O42" s="3">
+      <c r="P42" s="3">
         <v>312800</v>
       </c>
-      <c r="P42" s="3">
+      <c r="Q42" s="3">
         <v>274900</v>
       </c>
-      <c r="Q42" s="3">
+      <c r="R42" s="3">
         <v>314200</v>
       </c>
-      <c r="R42" s="3">
+      <c r="S42" s="3">
         <v>516000</v>
       </c>
-      <c r="S42" s="3">
+      <c r="T42" s="3">
         <v>422400</v>
       </c>
-      <c r="T42" s="3">
+      <c r="U42" s="3">
         <v>381700</v>
       </c>
-      <c r="U42" s="3">
+      <c r="V42" s="3">
         <v>282400</v>
-      </c>
-      <c r="V42" s="3" t="s">
-        <v>17</v>
       </c>
       <c r="W42" s="3" t="s">
         <v>17</v>
@@ -2795,280 +2884,295 @@
       <c r="X42" s="3" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="43" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y42" s="3" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="43" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
+        <v>239200</v>
+      </c>
+      <c r="E43" s="3">
         <v>263200</v>
       </c>
-      <c r="E43" s="3">
+      <c r="F43" s="3">
         <v>212800</v>
       </c>
-      <c r="F43" s="3">
+      <c r="G43" s="3">
         <v>224800</v>
       </c>
-      <c r="G43" s="3">
+      <c r="H43" s="3">
         <v>276700</v>
       </c>
-      <c r="H43" s="3">
+      <c r="I43" s="3">
         <v>263600</v>
       </c>
-      <c r="I43" s="3">
+      <c r="J43" s="3">
         <v>233500</v>
       </c>
-      <c r="J43" s="3">
+      <c r="K43" s="3">
         <v>303100</v>
       </c>
-      <c r="K43" s="3">
+      <c r="L43" s="3">
         <v>343600</v>
       </c>
-      <c r="L43" s="3">
+      <c r="M43" s="3">
         <v>339600</v>
       </c>
-      <c r="M43" s="3">
+      <c r="N43" s="3">
         <v>286200</v>
       </c>
-      <c r="N43" s="3">
+      <c r="O43" s="3">
         <v>329700</v>
       </c>
-      <c r="O43" s="3">
+      <c r="P43" s="3">
         <v>266500</v>
       </c>
-      <c r="P43" s="3">
+      <c r="Q43" s="3">
         <v>239600</v>
       </c>
-      <c r="Q43" s="3">
+      <c r="R43" s="3">
         <v>197100</v>
       </c>
-      <c r="R43" s="3">
+      <c r="S43" s="3">
         <v>164700</v>
       </c>
-      <c r="S43" s="3">
+      <c r="T43" s="3">
         <v>222100</v>
       </c>
-      <c r="T43" s="3">
+      <c r="U43" s="3">
         <v>173800</v>
       </c>
-      <c r="U43" s="3">
+      <c r="V43" s="3">
         <v>166300</v>
       </c>
-      <c r="V43" s="3">
+      <c r="W43" s="3">
         <v>185400</v>
       </c>
-      <c r="W43" s="3">
+      <c r="X43" s="3">
         <v>192500</v>
       </c>
-      <c r="X43" s="3">
+      <c r="Y43" s="3">
         <v>156500</v>
       </c>
     </row>
-    <row r="44" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
+        <v>208100</v>
+      </c>
+      <c r="E44" s="3">
         <v>207000</v>
       </c>
-      <c r="E44" s="3">
+      <c r="F44" s="3">
         <v>196400</v>
       </c>
-      <c r="F44" s="3">
+      <c r="G44" s="3">
         <v>210700</v>
       </c>
-      <c r="G44" s="3">
+      <c r="H44" s="3">
         <v>207100</v>
       </c>
-      <c r="H44" s="3">
+      <c r="I44" s="3">
         <v>212600</v>
       </c>
-      <c r="I44" s="3">
+      <c r="J44" s="3">
         <v>188900</v>
       </c>
-      <c r="J44" s="3">
+      <c r="K44" s="3">
         <v>172700</v>
       </c>
-      <c r="K44" s="3">
+      <c r="L44" s="3">
         <v>179600</v>
       </c>
-      <c r="L44" s="3">
+      <c r="M44" s="3">
         <v>202200</v>
       </c>
-      <c r="M44" s="3">
+      <c r="N44" s="3">
         <v>228800</v>
       </c>
-      <c r="N44" s="3">
+      <c r="O44" s="3">
         <v>272200</v>
       </c>
-      <c r="O44" s="3">
+      <c r="P44" s="3">
         <v>303200</v>
       </c>
-      <c r="P44" s="3">
+      <c r="Q44" s="3">
         <v>136600</v>
       </c>
-      <c r="Q44" s="3">
+      <c r="R44" s="3">
         <v>153600</v>
       </c>
-      <c r="R44" s="3">
+      <c r="S44" s="3">
         <v>144200</v>
       </c>
-      <c r="S44" s="3">
+      <c r="T44" s="3">
         <v>147300</v>
       </c>
-      <c r="T44" s="3">
+      <c r="U44" s="3">
         <v>147200</v>
       </c>
-      <c r="U44" s="3">
+      <c r="V44" s="3">
         <v>145200</v>
       </c>
-      <c r="V44" s="3">
+      <c r="W44" s="3">
         <v>116900</v>
       </c>
-      <c r="W44" s="3">
+      <c r="X44" s="3">
         <v>121000</v>
       </c>
-      <c r="X44" s="3">
+      <c r="Y44" s="3">
         <v>103700</v>
       </c>
     </row>
-    <row r="45" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="45" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
+        <v>70400</v>
+      </c>
+      <c r="E45" s="3">
         <v>68200</v>
       </c>
-      <c r="E45" s="3">
+      <c r="F45" s="3">
         <v>81600</v>
       </c>
-      <c r="F45" s="3">
+      <c r="G45" s="3">
         <v>79700</v>
       </c>
-      <c r="G45" s="3">
+      <c r="H45" s="3">
         <v>82100</v>
       </c>
-      <c r="H45" s="3">
+      <c r="I45" s="3">
         <v>79800</v>
       </c>
-      <c r="I45" s="3">
+      <c r="J45" s="3">
         <v>73800</v>
       </c>
-      <c r="J45" s="3">
+      <c r="K45" s="3">
         <v>35800</v>
       </c>
-      <c r="K45" s="3">
+      <c r="L45" s="3">
         <v>44200</v>
       </c>
-      <c r="L45" s="3">
+      <c r="M45" s="3">
         <v>50500</v>
       </c>
-      <c r="M45" s="3">
+      <c r="N45" s="3">
         <v>49300</v>
       </c>
-      <c r="N45" s="3">
+      <c r="O45" s="3">
         <v>118700</v>
       </c>
-      <c r="O45" s="3">
+      <c r="P45" s="3">
         <v>103100</v>
       </c>
-      <c r="P45" s="3">
+      <c r="Q45" s="3">
         <v>70600</v>
       </c>
-      <c r="Q45" s="3">
+      <c r="R45" s="3">
         <v>65000</v>
       </c>
-      <c r="R45" s="3">
+      <c r="S45" s="3">
         <v>63000</v>
       </c>
-      <c r="S45" s="3">
+      <c r="T45" s="3">
         <v>59900</v>
       </c>
-      <c r="T45" s="3">
+      <c r="U45" s="3">
         <v>69000</v>
       </c>
-      <c r="U45" s="3">
+      <c r="V45" s="3">
         <v>63500</v>
       </c>
-      <c r="V45" s="3">
+      <c r="W45" s="3">
         <v>61400</v>
       </c>
-      <c r="W45" s="3">
+      <c r="X45" s="3">
         <v>58200</v>
       </c>
-      <c r="X45" s="3">
+      <c r="Y45" s="3">
         <v>62300</v>
       </c>
     </row>
-    <row r="46" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="46" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>2540100</v>
+      </c>
+      <c r="E46" s="3">
         <v>2423000</v>
       </c>
-      <c r="E46" s="3">
+      <c r="F46" s="3">
         <v>2436800</v>
       </c>
-      <c r="F46" s="3">
+      <c r="G46" s="3">
         <v>2569800</v>
       </c>
-      <c r="G46" s="3">
+      <c r="H46" s="3">
         <v>2266200</v>
       </c>
-      <c r="H46" s="3">
+      <c r="I46" s="3">
         <v>2166700</v>
       </c>
-      <c r="I46" s="3">
+      <c r="J46" s="3">
         <v>2050000</v>
       </c>
-      <c r="J46" s="3">
+      <c r="K46" s="3">
         <v>1963000</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>1883000</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>1423200</v>
       </c>
-      <c r="M46" s="3">
+      <c r="N46" s="3">
         <v>1332800</v>
       </c>
-      <c r="N46" s="3">
+      <c r="O46" s="3">
         <v>1418100</v>
       </c>
-      <c r="O46" s="3">
+      <c r="P46" s="3">
         <v>1356900</v>
       </c>
-      <c r="P46" s="3">
+      <c r="Q46" s="3">
         <v>1181100</v>
       </c>
-      <c r="Q46" s="3">
+      <c r="R46" s="3">
         <v>1127200</v>
       </c>
-      <c r="R46" s="3">
+      <c r="S46" s="3">
         <v>1064700</v>
       </c>
-      <c r="S46" s="3">
+      <c r="T46" s="3">
         <v>1053800</v>
       </c>
-      <c r="T46" s="3">
+      <c r="U46" s="3">
         <v>922500</v>
       </c>
-      <c r="U46" s="3">
+      <c r="V46" s="3">
         <v>930300</v>
       </c>
-      <c r="V46" s="3">
+      <c r="W46" s="3">
         <v>941600</v>
       </c>
-      <c r="W46" s="3">
+      <c r="X46" s="3">
         <v>527600</v>
       </c>
-      <c r="X46" s="3">
+      <c r="Y46" s="3">
         <v>489300</v>
       </c>
     </row>
-    <row r="47" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -3135,144 +3239,153 @@
       <c r="X47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>434700</v>
+      </c>
+      <c r="E48" s="3">
         <v>428400</v>
       </c>
-      <c r="E48" s="3">
+      <c r="F48" s="3">
         <v>428500</v>
       </c>
-      <c r="F48" s="3">
+      <c r="G48" s="3">
         <v>448300</v>
       </c>
-      <c r="G48" s="3">
+      <c r="H48" s="3">
         <v>457600</v>
       </c>
-      <c r="H48" s="3">
+      <c r="I48" s="3">
         <v>468100</v>
       </c>
-      <c r="I48" s="3">
+      <c r="J48" s="3">
         <v>471700</v>
       </c>
-      <c r="J48" s="3">
+      <c r="K48" s="3">
         <v>491800</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>505700</v>
       </c>
-      <c r="L48" s="3">
+      <c r="M48" s="3">
         <v>524900</v>
       </c>
-      <c r="M48" s="3">
+      <c r="N48" s="3">
         <v>433300</v>
       </c>
-      <c r="N48" s="3">
+      <c r="O48" s="3">
         <v>390600</v>
       </c>
-      <c r="O48" s="3">
+      <c r="P48" s="3">
         <v>444700</v>
       </c>
-      <c r="P48" s="3">
+      <c r="Q48" s="3">
         <v>318600</v>
       </c>
-      <c r="Q48" s="3">
+      <c r="R48" s="3">
         <v>280600</v>
       </c>
-      <c r="R48" s="3">
+      <c r="S48" s="3">
         <v>264500</v>
       </c>
-      <c r="S48" s="3">
+      <c r="T48" s="3">
         <v>301300</v>
       </c>
-      <c r="T48" s="3">
+      <c r="U48" s="3">
         <v>293700</v>
       </c>
-      <c r="U48" s="3">
+      <c r="V48" s="3">
         <v>273500</v>
       </c>
-      <c r="V48" s="3">
+      <c r="W48" s="3">
         <v>246600</v>
       </c>
-      <c r="W48" s="3">
+      <c r="X48" s="3">
         <v>219600</v>
       </c>
-      <c r="X48" s="3">
+      <c r="Y48" s="3">
         <v>196000</v>
       </c>
     </row>
-    <row r="49" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="49" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
+        <v>567200</v>
+      </c>
+      <c r="E49" s="3">
         <v>588700</v>
       </c>
-      <c r="E49" s="3">
+      <c r="F49" s="3">
         <v>610100</v>
       </c>
-      <c r="F49" s="3">
+      <c r="G49" s="3">
         <v>632100</v>
       </c>
-      <c r="G49" s="3">
+      <c r="H49" s="3">
         <v>654100</v>
       </c>
-      <c r="H49" s="3">
+      <c r="I49" s="3">
         <v>665000</v>
       </c>
-      <c r="I49" s="3">
+      <c r="J49" s="3">
         <v>685700</v>
       </c>
-      <c r="J49" s="3">
+      <c r="K49" s="3">
         <v>706900</v>
       </c>
-      <c r="K49" s="3">
+      <c r="L49" s="3">
         <v>726900</v>
       </c>
-      <c r="L49" s="3">
+      <c r="M49" s="3">
         <v>745500</v>
       </c>
-      <c r="M49" s="3">
+      <c r="N49" s="3">
         <v>764300</v>
       </c>
-      <c r="N49" s="3">
+      <c r="O49" s="3">
         <v>772100</v>
       </c>
-      <c r="O49" s="3">
+      <c r="P49" s="3">
         <v>789700</v>
       </c>
-      <c r="P49" s="3">
+      <c r="Q49" s="3">
         <v>17600</v>
       </c>
-      <c r="Q49" s="3">
+      <c r="R49" s="3">
         <v>44600</v>
       </c>
-      <c r="R49" s="3">
+      <c r="S49" s="3">
         <v>57200</v>
       </c>
-      <c r="S49" s="3">
+      <c r="T49" s="3">
         <v>20400</v>
       </c>
-      <c r="T49" s="3">
+      <c r="U49" s="3">
         <v>21000</v>
       </c>
-      <c r="U49" s="3">
+      <c r="V49" s="3">
         <v>21500</v>
       </c>
-      <c r="V49" s="3">
+      <c r="W49" s="3">
         <v>22300</v>
       </c>
-      <c r="W49" s="3">
+      <c r="X49" s="3">
         <v>16000</v>
       </c>
-      <c r="X49" s="3">
+      <c r="Y49" s="3">
         <v>18100</v>
       </c>
     </row>
-    <row r="50" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="50" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -3339,8 +3452,11 @@
       <c r="X50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -3407,76 +3523,82 @@
       <c r="X51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
+        <v>73700</v>
+      </c>
+      <c r="E52" s="3">
         <v>78900</v>
       </c>
-      <c r="E52" s="3">
+      <c r="F52" s="3">
         <v>76200</v>
       </c>
-      <c r="F52" s="3">
+      <c r="G52" s="3">
         <v>95700</v>
       </c>
-      <c r="G52" s="3">
+      <c r="H52" s="3">
         <v>90300</v>
       </c>
-      <c r="H52" s="3">
+      <c r="I52" s="3">
         <v>87600</v>
       </c>
-      <c r="I52" s="3">
+      <c r="J52" s="3">
         <v>85200</v>
       </c>
-      <c r="J52" s="3">
+      <c r="K52" s="3">
         <v>107000</v>
       </c>
-      <c r="K52" s="3">
+      <c r="L52" s="3">
         <v>105600</v>
       </c>
-      <c r="L52" s="3">
+      <c r="M52" s="3">
         <v>174200</v>
       </c>
-      <c r="M52" s="3">
+      <c r="N52" s="3">
         <v>186200</v>
       </c>
-      <c r="N52" s="3">
+      <c r="O52" s="3">
         <v>190600</v>
       </c>
-      <c r="O52" s="3">
+      <c r="P52" s="3">
         <v>205300</v>
       </c>
-      <c r="P52" s="3">
+      <c r="Q52" s="3">
         <v>127700</v>
       </c>
-      <c r="Q52" s="3">
+      <c r="R52" s="3">
         <v>129100</v>
       </c>
-      <c r="R52" s="3">
+      <c r="S52" s="3">
         <v>131800</v>
       </c>
-      <c r="S52" s="3">
+      <c r="T52" s="3">
         <v>131900</v>
       </c>
-      <c r="T52" s="3">
+      <c r="U52" s="3">
         <v>11200</v>
       </c>
-      <c r="U52" s="3">
+      <c r="V52" s="3">
         <v>7600</v>
       </c>
-      <c r="V52" s="3">
+      <c r="W52" s="3">
         <v>34000</v>
       </c>
-      <c r="W52" s="3">
+      <c r="X52" s="3">
         <v>33500</v>
       </c>
-      <c r="X52" s="3">
+      <c r="Y52" s="3">
         <v>34100</v>
       </c>
     </row>
-    <row r="53" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="53" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -3543,76 +3665,82 @@
       <c r="X53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>3615700</v>
+      </c>
+      <c r="E54" s="3">
         <v>3519000</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>3551600</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>3745900</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>3468200</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>3387400</v>
       </c>
-      <c r="I54" s="3">
+      <c r="J54" s="3">
         <v>3292600</v>
       </c>
-      <c r="J54" s="3">
+      <c r="K54" s="3">
         <v>3268700</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>3221200</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>2867800</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>2716600</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>2771400</v>
       </c>
-      <c r="O54" s="3">
+      <c r="P54" s="3">
         <v>2796600</v>
       </c>
-      <c r="P54" s="3">
+      <c r="Q54" s="3">
         <v>1645000</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="R54" s="3">
         <v>1581500</v>
       </c>
-      <c r="R54" s="3">
+      <c r="S54" s="3">
         <v>1518200</v>
       </c>
-      <c r="S54" s="3">
+      <c r="T54" s="3">
         <v>1507400</v>
       </c>
-      <c r="T54" s="3">
+      <c r="U54" s="3">
         <v>1248400</v>
       </c>
-      <c r="U54" s="3">
+      <c r="V54" s="3">
         <v>1232900</v>
       </c>
-      <c r="V54" s="3">
+      <c r="W54" s="3">
         <v>1244500</v>
       </c>
-      <c r="W54" s="3">
+      <c r="X54" s="3">
         <v>796700</v>
       </c>
-      <c r="X54" s="3">
+      <c r="Y54" s="3">
         <v>737500</v>
       </c>
     </row>
-    <row r="55" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -3637,8 +3765,9 @@
       <c r="V55" s="3"/>
       <c r="W55" s="3"/>
       <c r="X55" s="3"/>
-    </row>
-    <row r="56" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y55" s="3"/>
+    </row>
+    <row r="56" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -3663,132 +3792,136 @@
       <c r="V56" s="3"/>
       <c r="W56" s="3"/>
       <c r="X56" s="3"/>
-    </row>
-    <row r="57" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y56" s="3"/>
+    </row>
+    <row r="57" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>118200</v>
+      </c>
+      <c r="E57" s="3">
         <v>101600</v>
       </c>
-      <c r="E57" s="3">
+      <c r="F57" s="3">
         <v>116900</v>
       </c>
-      <c r="F57" s="3">
+      <c r="G57" s="3">
         <v>104700</v>
       </c>
-      <c r="G57" s="3">
+      <c r="H57" s="3">
         <v>111300</v>
       </c>
-      <c r="H57" s="3">
+      <c r="I57" s="3">
         <v>146000</v>
       </c>
-      <c r="I57" s="3">
+      <c r="J57" s="3">
         <v>150800</v>
       </c>
-      <c r="J57" s="3">
+      <c r="K57" s="3">
         <v>144600</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>143700</v>
       </c>
-      <c r="L57" s="3">
+      <c r="M57" s="3">
         <v>152200</v>
       </c>
-      <c r="M57" s="3">
+      <c r="N57" s="3">
         <v>160800</v>
       </c>
-      <c r="N57" s="3">
+      <c r="O57" s="3">
         <v>204100</v>
       </c>
-      <c r="O57" s="3">
+      <c r="P57" s="3">
         <v>199200</v>
       </c>
-      <c r="P57" s="3">
+      <c r="Q57" s="3">
         <v>127600</v>
       </c>
-      <c r="Q57" s="3">
+      <c r="R57" s="3">
         <v>126500</v>
       </c>
-      <c r="R57" s="3">
+      <c r="S57" s="3">
         <v>100900</v>
       </c>
-      <c r="S57" s="3">
+      <c r="T57" s="3">
         <v>113000</v>
       </c>
-      <c r="T57" s="3">
+      <c r="U57" s="3">
         <v>111600</v>
       </c>
-      <c r="U57" s="3">
+      <c r="V57" s="3">
         <v>114800</v>
       </c>
-      <c r="V57" s="3">
+      <c r="W57" s="3">
         <v>118400</v>
       </c>
-      <c r="W57" s="3">
+      <c r="X57" s="3">
         <v>127800</v>
       </c>
-      <c r="X57" s="3">
+      <c r="Y57" s="3">
         <v>108300</v>
       </c>
     </row>
-    <row r="58" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
+        <v>401000</v>
+      </c>
+      <c r="E58" s="3">
         <v>395800</v>
       </c>
-      <c r="E58" s="3">
+      <c r="F58" s="3">
         <v>390700</v>
       </c>
-      <c r="F58" s="3">
+      <c r="G58" s="3">
         <v>385400</v>
       </c>
-      <c r="G58" s="3">
+      <c r="H58" s="3">
         <v>380600</v>
       </c>
-      <c r="H58" s="3">
+      <c r="I58" s="3">
         <v>400</v>
       </c>
-      <c r="I58" s="3">
+      <c r="J58" s="3">
         <v>600</v>
       </c>
-      <c r="J58" s="3">
+      <c r="K58" s="3">
         <v>3900</v>
       </c>
-      <c r="K58" s="3">
+      <c r="L58" s="3">
         <v>7100</v>
       </c>
-      <c r="L58" s="3">
+      <c r="M58" s="3">
         <v>15900</v>
       </c>
-      <c r="M58" s="3">
+      <c r="N58" s="3">
         <v>5400</v>
       </c>
-      <c r="N58" s="3">
+      <c r="O58" s="3">
         <v>5800</v>
       </c>
-      <c r="O58" s="3">
+      <c r="P58" s="3">
         <v>8700</v>
       </c>
-      <c r="P58" s="3">
+      <c r="Q58" s="3">
         <v>5400</v>
       </c>
-      <c r="Q58" s="3">
+      <c r="R58" s="3">
         <v>7300</v>
       </c>
-      <c r="R58" s="3">
+      <c r="S58" s="3">
         <v>9200</v>
       </c>
-      <c r="S58" s="3">
+      <c r="T58" s="3">
         <v>9100</v>
       </c>
-      <c r="T58" s="3">
+      <c r="U58" s="3">
         <v>4900</v>
-      </c>
-      <c r="U58" s="3" t="s">
-        <v>17</v>
       </c>
       <c r="V58" s="3" t="s">
         <v>17</v>
@@ -3799,280 +3932,295 @@
       <c r="X58" s="3" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="59" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y58" s="3" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="59" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>137500</v>
+      </c>
+      <c r="E59" s="3">
         <v>114300</v>
       </c>
-      <c r="E59" s="3">
+      <c r="F59" s="3">
         <v>157000</v>
       </c>
-      <c r="F59" s="3">
+      <c r="G59" s="3">
         <v>184100</v>
       </c>
-      <c r="G59" s="3">
+      <c r="H59" s="3">
         <v>155400</v>
       </c>
-      <c r="H59" s="3">
+      <c r="I59" s="3">
         <v>147000</v>
       </c>
-      <c r="I59" s="3">
+      <c r="J59" s="3">
         <v>131600</v>
       </c>
-      <c r="J59" s="3">
+      <c r="K59" s="3">
         <v>138200</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>153400</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>148700</v>
       </c>
-      <c r="M59" s="3">
+      <c r="N59" s="3">
         <v>127800</v>
       </c>
-      <c r="N59" s="3">
+      <c r="O59" s="3">
         <v>148100</v>
       </c>
-      <c r="O59" s="3">
+      <c r="P59" s="3">
         <v>117600</v>
       </c>
-      <c r="P59" s="3">
+      <c r="Q59" s="3">
         <v>80900</v>
       </c>
-      <c r="Q59" s="3">
+      <c r="R59" s="3">
         <v>80200</v>
       </c>
-      <c r="R59" s="3">
+      <c r="S59" s="3">
         <v>81400</v>
       </c>
-      <c r="S59" s="3">
+      <c r="T59" s="3">
         <v>95600</v>
       </c>
-      <c r="T59" s="3">
+      <c r="U59" s="3">
         <v>60700</v>
       </c>
-      <c r="U59" s="3">
+      <c r="V59" s="3">
         <v>69400</v>
       </c>
-      <c r="V59" s="3">
+      <c r="W59" s="3">
         <v>73700</v>
       </c>
-      <c r="W59" s="3">
+      <c r="X59" s="3">
         <v>74200</v>
       </c>
-      <c r="X59" s="3">
+      <c r="Y59" s="3">
         <v>55200</v>
       </c>
     </row>
-    <row r="60" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>656700</v>
+      </c>
+      <c r="E60" s="3">
         <v>611700</v>
       </c>
-      <c r="E60" s="3">
+      <c r="F60" s="3">
         <v>664600</v>
       </c>
-      <c r="F60" s="3">
+      <c r="G60" s="3">
         <v>674200</v>
       </c>
-      <c r="G60" s="3">
+      <c r="H60" s="3">
         <v>647300</v>
       </c>
-      <c r="H60" s="3">
+      <c r="I60" s="3">
         <v>293400</v>
       </c>
-      <c r="I60" s="3">
+      <c r="J60" s="3">
         <v>283000</v>
       </c>
-      <c r="J60" s="3">
+      <c r="K60" s="3">
         <v>286700</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>304200</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>316800</v>
       </c>
-      <c r="M60" s="3">
+      <c r="N60" s="3">
         <v>294000</v>
       </c>
-      <c r="N60" s="3">
+      <c r="O60" s="3">
         <v>358000</v>
       </c>
-      <c r="O60" s="3">
+      <c r="P60" s="3">
         <v>325500</v>
       </c>
-      <c r="P60" s="3">
+      <c r="Q60" s="3">
         <v>213900</v>
       </c>
-      <c r="Q60" s="3">
+      <c r="R60" s="3">
         <v>214000</v>
       </c>
-      <c r="R60" s="3">
+      <c r="S60" s="3">
         <v>191500</v>
       </c>
-      <c r="S60" s="3">
+      <c r="T60" s="3">
         <v>217700</v>
       </c>
-      <c r="T60" s="3">
+      <c r="U60" s="3">
         <v>177200</v>
       </c>
-      <c r="U60" s="3">
+      <c r="V60" s="3">
         <v>184200</v>
       </c>
-      <c r="V60" s="3">
+      <c r="W60" s="3">
         <v>192100</v>
       </c>
-      <c r="W60" s="3">
+      <c r="X60" s="3">
         <v>202000</v>
       </c>
-      <c r="X60" s="3">
+      <c r="Y60" s="3">
         <v>163500</v>
       </c>
     </row>
-    <row r="61" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
+        <v>810300</v>
+      </c>
+      <c r="E61" s="3">
         <v>800000</v>
       </c>
-      <c r="E61" s="3">
+      <c r="F61" s="3">
         <v>789800</v>
       </c>
-      <c r="F61" s="3">
+      <c r="G61" s="3">
         <v>778900</v>
       </c>
-      <c r="G61" s="3">
+      <c r="H61" s="3">
         <v>769100</v>
       </c>
-      <c r="H61" s="3">
+      <c r="I61" s="3">
         <v>1134700</v>
       </c>
-      <c r="I61" s="3">
+      <c r="J61" s="3">
         <v>1120300</v>
       </c>
-      <c r="J61" s="3">
+      <c r="K61" s="3">
         <v>1106100</v>
       </c>
-      <c r="K61" s="3">
+      <c r="L61" s="3">
         <v>1092200</v>
       </c>
-      <c r="L61" s="3">
+      <c r="M61" s="3">
         <v>840000</v>
       </c>
-      <c r="M61" s="3">
+      <c r="N61" s="3">
         <v>835900</v>
       </c>
-      <c r="N61" s="3">
+      <c r="O61" s="3">
         <v>832400</v>
       </c>
-      <c r="O61" s="3">
+      <c r="P61" s="3">
         <v>829200</v>
       </c>
-      <c r="P61" s="3">
+      <c r="Q61" s="3">
         <v>338500</v>
       </c>
-      <c r="Q61" s="3">
+      <c r="R61" s="3">
         <v>334600</v>
       </c>
-      <c r="R61" s="3">
+      <c r="S61" s="3">
         <v>330700</v>
       </c>
-      <c r="S61" s="3">
+      <c r="T61" s="3">
         <v>328800</v>
       </c>
-      <c r="T61" s="3">
+      <c r="U61" s="3">
         <v>324000</v>
       </c>
-      <c r="U61" s="3">
+      <c r="V61" s="3">
         <v>317500</v>
       </c>
-      <c r="V61" s="3">
+      <c r="W61" s="3">
         <v>313400</v>
       </c>
-      <c r="W61" s="3">
-        <v>0</v>
-      </c>
       <c r="X61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
+        <v>126800</v>
+      </c>
+      <c r="E62" s="3">
         <v>135900</v>
       </c>
-      <c r="E62" s="3">
+      <c r="F62" s="3">
         <v>124400</v>
       </c>
-      <c r="F62" s="3">
+      <c r="G62" s="3">
         <v>127800</v>
       </c>
-      <c r="G62" s="3">
+      <c r="H62" s="3">
         <v>129900</v>
       </c>
-      <c r="H62" s="3">
+      <c r="I62" s="3">
         <v>143200</v>
       </c>
-      <c r="I62" s="3">
+      <c r="J62" s="3">
         <v>140100</v>
       </c>
-      <c r="J62" s="3">
+      <c r="K62" s="3">
         <v>141700</v>
       </c>
-      <c r="K62" s="3">
+      <c r="L62" s="3">
         <v>143200</v>
       </c>
-      <c r="L62" s="3">
+      <c r="M62" s="3">
         <v>149700</v>
       </c>
-      <c r="M62" s="3">
+      <c r="N62" s="3">
         <v>89600</v>
       </c>
-      <c r="N62" s="3">
+      <c r="O62" s="3">
         <v>77100</v>
       </c>
-      <c r="O62" s="3">
+      <c r="P62" s="3">
         <v>82200</v>
       </c>
-      <c r="P62" s="3">
+      <c r="Q62" s="3">
         <v>73300</v>
       </c>
-      <c r="Q62" s="3">
+      <c r="R62" s="3">
         <v>71000</v>
       </c>
-      <c r="R62" s="3">
+      <c r="S62" s="3">
         <v>83600</v>
       </c>
-      <c r="S62" s="3">
+      <c r="T62" s="3">
         <v>60800</v>
       </c>
-      <c r="T62" s="3">
+      <c r="U62" s="3">
         <v>70300</v>
       </c>
-      <c r="U62" s="3">
+      <c r="V62" s="3">
         <v>76600</v>
       </c>
-      <c r="V62" s="3">
+      <c r="W62" s="3">
         <v>234600</v>
-      </c>
-      <c r="W62" s="3">
-        <v>42500</v>
       </c>
       <c r="X62" s="3">
         <v>42500</v>
       </c>
-    </row>
-    <row r="63" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y62" s="3">
+        <v>42500</v>
+      </c>
+    </row>
+    <row r="63" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -4139,8 +4287,11 @@
       <c r="X63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -4207,8 +4358,11 @@
       <c r="X64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -4275,76 +4429,82 @@
       <c r="X65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>1593800</v>
+      </c>
+      <c r="E66" s="3">
         <v>1547600</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>1578800</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>1580900</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>1546300</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>1571300</v>
       </c>
-      <c r="I66" s="3">
+      <c r="J66" s="3">
         <v>1543400</v>
       </c>
-      <c r="J66" s="3">
+      <c r="K66" s="3">
         <v>1534500</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>1539600</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>1306500</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>1219500</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>1267500</v>
       </c>
-      <c r="O66" s="3">
+      <c r="P66" s="3">
         <v>1236900</v>
       </c>
-      <c r="P66" s="3">
+      <c r="Q66" s="3">
         <v>661500</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="R66" s="3">
         <v>655400</v>
       </c>
-      <c r="R66" s="3">
+      <c r="S66" s="3">
         <v>641600</v>
       </c>
-      <c r="S66" s="3">
+      <c r="T66" s="3">
         <v>643100</v>
       </c>
-      <c r="T66" s="3">
+      <c r="U66" s="3">
         <v>607300</v>
       </c>
-      <c r="U66" s="3">
+      <c r="V66" s="3">
         <v>614100</v>
       </c>
-      <c r="V66" s="3">
+      <c r="W66" s="3">
         <v>775900</v>
       </c>
-      <c r="W66" s="3">
+      <c r="X66" s="3">
         <v>280300</v>
       </c>
-      <c r="X66" s="3">
+      <c r="Y66" s="3">
         <v>241800</v>
       </c>
     </row>
-    <row r="67" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -4369,8 +4529,9 @@
       <c r="V67" s="3"/>
       <c r="W67" s="3"/>
       <c r="X67" s="3"/>
-    </row>
-    <row r="68" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y67" s="3"/>
+    </row>
+    <row r="68" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -4437,8 +4598,11 @@
       <c r="X68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -4505,8 +4669,11 @@
       <c r="X69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -4573,8 +4740,11 @@
       <c r="X70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -4641,76 +4811,82 @@
       <c r="X71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>237500</v>
+      </c>
+      <c r="E72" s="3">
         <v>210700</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>220900</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>440400</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>214900</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>131700</v>
       </c>
-      <c r="I72" s="3">
+      <c r="J72" s="3">
         <v>64600</v>
       </c>
-      <c r="J72" s="3">
+      <c r="K72" s="3">
         <v>69200</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>25800</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>176700</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>129100</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>154900</v>
       </c>
-      <c r="O72" s="3">
+      <c r="P72" s="3">
         <v>229200</v>
       </c>
-      <c r="P72" s="3">
+      <c r="Q72" s="3">
         <v>213000</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="R72" s="3">
         <v>166400</v>
       </c>
-      <c r="R72" s="3">
+      <c r="S72" s="3">
         <v>133200</v>
       </c>
-      <c r="S72" s="3">
+      <c r="T72" s="3">
         <v>130700</v>
       </c>
-      <c r="T72" s="3">
+      <c r="U72" s="3">
         <v>-73900</v>
       </c>
-      <c r="U72" s="3">
+      <c r="V72" s="3">
         <v>-83200</v>
       </c>
-      <c r="V72" s="3">
+      <c r="W72" s="3">
         <v>-28000</v>
       </c>
-      <c r="W72" s="3">
+      <c r="X72" s="3">
         <v>28200</v>
       </c>
-      <c r="X72" s="3">
+      <c r="Y72" s="3">
         <v>16600</v>
       </c>
     </row>
-    <row r="73" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -4777,8 +4953,11 @@
       <c r="X73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -4845,8 +5024,11 @@
       <c r="X74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -4913,76 +5095,82 @@
       <c r="X75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>2021900</v>
+      </c>
+      <c r="E76" s="3">
         <v>1971400</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>1972800</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>2165000</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>1921900</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>1816100</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>1749200</v>
       </c>
-      <c r="J76" s="3">
+      <c r="K76" s="3">
         <v>1734200</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>1681600</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>1561300</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>1497100</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>1503900</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>1559700</v>
       </c>
-      <c r="P76" s="3">
+      <c r="Q76" s="3">
         <v>983500</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="R76" s="3">
         <v>926100</v>
       </c>
-      <c r="R76" s="3">
+      <c r="S76" s="3">
         <v>876600</v>
       </c>
-      <c r="S76" s="3">
+      <c r="T76" s="3">
         <v>864300</v>
       </c>
-      <c r="T76" s="3">
+      <c r="U76" s="3">
         <v>641100</v>
       </c>
-      <c r="U76" s="3">
+      <c r="V76" s="3">
         <v>618800</v>
       </c>
-      <c r="V76" s="3">
+      <c r="W76" s="3">
         <v>468600</v>
       </c>
-      <c r="W76" s="3">
+      <c r="X76" s="3">
         <v>516400</v>
       </c>
-      <c r="X76" s="3">
+      <c r="Y76" s="3">
         <v>495700</v>
       </c>
     </row>
-    <row r="77" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -5049,149 +5237,158 @@
       <c r="X77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:25" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44562</v>
+      </c>
+      <c r="E80" s="2">
         <v>44471</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44380</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44289</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44191</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>44100</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>44009</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>43918</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>43827</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>43736</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>43645</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>43554</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>43463</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>43372</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>43281</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>43190</v>
       </c>
-      <c r="S80" s="2">
+      <c r="T80" s="2">
         <v>43099</v>
       </c>
-      <c r="T80" s="2">
+      <c r="U80" s="2">
         <v>43008</v>
       </c>
-      <c r="U80" s="2">
+      <c r="V80" s="2">
         <v>42917</v>
       </c>
-      <c r="V80" s="2">
+      <c r="W80" s="2">
         <v>42826</v>
       </c>
-      <c r="W80" s="2">
+      <c r="X80" s="2">
         <v>42735</v>
       </c>
-      <c r="X80" s="2">
+      <c r="Y80" s="2">
         <v>42644</v>
       </c>
     </row>
-    <row r="81" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>56700</v>
+      </c>
+      <c r="E81" s="3">
         <v>81500</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="3">
         <v>21500</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>225500</v>
       </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
         <v>83200</v>
       </c>
-      <c r="H81" s="3">
+      <c r="I81" s="3">
         <v>67100</v>
       </c>
-      <c r="I81" s="3">
+      <c r="J81" s="3">
         <v>-4600</v>
       </c>
-      <c r="J81" s="3">
+      <c r="K81" s="3">
         <v>43400</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>49100</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>47600</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>-25800</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>-74300</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>16200</v>
       </c>
-      <c r="P81" s="3">
+      <c r="Q81" s="3">
         <v>46100</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="R81" s="3">
         <v>32500</v>
       </c>
-      <c r="R81" s="3">
+      <c r="S81" s="3">
         <v>2400</v>
       </c>
-      <c r="S81" s="3">
+      <c r="T81" s="3">
         <v>116800</v>
       </c>
-      <c r="T81" s="3">
+      <c r="U81" s="3">
         <v>6900</v>
       </c>
-      <c r="U81" s="3">
+      <c r="V81" s="3">
         <v>-55200</v>
       </c>
-      <c r="V81" s="3">
+      <c r="W81" s="3">
         <v>-56200</v>
       </c>
-      <c r="W81" s="3">
+      <c r="X81" s="3">
         <v>11600</v>
       </c>
-      <c r="X81" s="3">
+      <c r="Y81" s="3">
         <v>-3600</v>
       </c>
     </row>
-    <row r="82" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -5216,76 +5413,80 @@
       <c r="V82" s="3"/>
       <c r="W82" s="3"/>
       <c r="X82" s="3"/>
-    </row>
-    <row r="83" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y82" s="3"/>
+    </row>
+    <row r="83" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
+        <v>42100</v>
+      </c>
+      <c r="E83" s="3">
         <v>41800</v>
       </c>
-      <c r="E83" s="3">
+      <c r="F83" s="3">
         <v>43100</v>
       </c>
-      <c r="F83" s="3">
+      <c r="G83" s="3">
         <v>44800</v>
       </c>
-      <c r="G83" s="3">
+      <c r="H83" s="3">
         <v>44700</v>
       </c>
-      <c r="H83" s="3">
+      <c r="I83" s="3">
         <v>44500</v>
       </c>
-      <c r="I83" s="3">
+      <c r="J83" s="3">
         <v>46700</v>
       </c>
-      <c r="J83" s="3">
+      <c r="K83" s="3">
         <v>47500</v>
       </c>
-      <c r="K83" s="3">
+      <c r="L83" s="3">
         <v>47300</v>
       </c>
-      <c r="L83" s="3">
+      <c r="M83" s="3">
         <v>50400</v>
       </c>
-      <c r="M83" s="3">
+      <c r="N83" s="3">
         <v>45100</v>
       </c>
-      <c r="N83" s="3">
+      <c r="O83" s="3">
         <v>60700</v>
       </c>
-      <c r="O83" s="3">
+      <c r="P83" s="3">
         <v>31200</v>
       </c>
-      <c r="P83" s="3">
+      <c r="Q83" s="3">
         <v>20500</v>
       </c>
-      <c r="Q83" s="3">
+      <c r="R83" s="3">
         <v>21500</v>
       </c>
-      <c r="R83" s="3">
+      <c r="S83" s="3">
         <v>19200</v>
       </c>
-      <c r="S83" s="3">
+      <c r="T83" s="3">
         <v>19000</v>
       </c>
-      <c r="T83" s="3">
+      <c r="U83" s="3">
         <v>17500</v>
       </c>
-      <c r="U83" s="3">
+      <c r="V83" s="3">
         <v>16500</v>
       </c>
-      <c r="V83" s="3">
+      <c r="W83" s="3">
         <v>15900</v>
       </c>
-      <c r="W83" s="3">
+      <c r="X83" s="3">
         <v>14900</v>
       </c>
-      <c r="X83" s="3">
+      <c r="Y83" s="3">
         <v>13700</v>
       </c>
     </row>
-    <row r="84" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="84" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -5352,8 +5553,11 @@
       <c r="X84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -5420,8 +5624,11 @@
       <c r="X85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -5488,8 +5695,11 @@
       <c r="X86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -5556,8 +5766,11 @@
       <c r="X87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -5624,76 +5837,82 @@
       <c r="X88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>206500</v>
+      </c>
+      <c r="E89" s="3">
         <v>61900</v>
       </c>
-      <c r="E89" s="3">
+      <c r="F89" s="3">
         <v>124200</v>
       </c>
-      <c r="F89" s="3">
+      <c r="G89" s="3">
         <v>381300</v>
       </c>
-      <c r="G89" s="3">
+      <c r="H89" s="3">
         <v>128500</v>
       </c>
-      <c r="H89" s="3">
+      <c r="I89" s="3">
         <v>104700</v>
       </c>
-      <c r="I89" s="3">
+      <c r="J89" s="3">
         <v>122700</v>
       </c>
-      <c r="J89" s="3">
+      <c r="K89" s="3">
         <v>151800</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>162300</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>87500</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>127700</v>
       </c>
-      <c r="N89" s="3">
+      <c r="O89" s="3">
         <v>42800</v>
       </c>
-      <c r="O89" s="3">
+      <c r="P89" s="3">
         <v>102400</v>
       </c>
-      <c r="P89" s="3">
+      <c r="Q89" s="3">
         <v>57200</v>
       </c>
-      <c r="Q89" s="3">
+      <c r="R89" s="3">
         <v>37600</v>
       </c>
-      <c r="R89" s="3">
+      <c r="S89" s="3">
         <v>95100</v>
       </c>
-      <c r="S89" s="3">
+      <c r="T89" s="3">
         <v>105100</v>
       </c>
-      <c r="T89" s="3">
+      <c r="U89" s="3">
         <v>9700</v>
       </c>
-      <c r="U89" s="3">
+      <c r="V89" s="3">
         <v>13100</v>
       </c>
-      <c r="V89" s="3">
+      <c r="W89" s="3">
         <v>16400</v>
       </c>
-      <c r="W89" s="3">
+      <c r="X89" s="3">
         <v>19200</v>
       </c>
-      <c r="X89" s="3">
+      <c r="Y89" s="3">
         <v>36300</v>
       </c>
     </row>
-    <row r="90" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -5718,76 +5937,80 @@
       <c r="V90" s="3"/>
       <c r="W90" s="3"/>
       <c r="X90" s="3"/>
-    </row>
-    <row r="91" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y90" s="3"/>
+    </row>
+    <row r="91" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
+        <v>-26100</v>
+      </c>
+      <c r="E91" s="3">
         <v>-17900</v>
       </c>
-      <c r="E91" s="3">
-        <v>0</v>
-      </c>
       <c r="F91" s="3">
         <v>0</v>
       </c>
       <c r="G91" s="3">
+        <v>0</v>
+      </c>
+      <c r="H91" s="3">
         <v>16300</v>
       </c>
-      <c r="H91" s="3">
+      <c r="I91" s="3">
         <v>-26300</v>
       </c>
-      <c r="I91" s="3">
-        <v>0</v>
-      </c>
       <c r="J91" s="3">
+        <v>0</v>
+      </c>
+      <c r="K91" s="3">
         <v>-1000</v>
       </c>
-      <c r="K91" s="3">
+      <c r="L91" s="3">
         <v>-2000</v>
       </c>
-      <c r="L91" s="3">
+      <c r="M91" s="3">
         <v>-1000</v>
       </c>
-      <c r="M91" s="3">
-        <v>0</v>
-      </c>
       <c r="N91" s="3">
+        <v>0</v>
+      </c>
+      <c r="O91" s="3">
         <v>-600</v>
       </c>
-      <c r="O91" s="3">
-        <v>0</v>
-      </c>
       <c r="P91" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q91" s="3">
         <v>-700</v>
       </c>
-      <c r="Q91" s="3">
+      <c r="R91" s="3">
         <v>-20300</v>
       </c>
-      <c r="R91" s="3">
+      <c r="S91" s="3">
         <v>-22700</v>
       </c>
-      <c r="S91" s="3">
+      <c r="T91" s="3">
         <v>-17200</v>
       </c>
-      <c r="T91" s="3">
+      <c r="U91" s="3">
         <v>-33000</v>
       </c>
-      <c r="U91" s="3">
+      <c r="V91" s="3">
         <v>-38100</v>
       </c>
-      <c r="V91" s="3">
+      <c r="W91" s="3">
         <v>-35700</v>
       </c>
-      <c r="W91" s="3">
+      <c r="X91" s="3">
         <v>-35400</v>
       </c>
-      <c r="X91" s="3">
+      <c r="Y91" s="3">
         <v>-28900</v>
       </c>
     </row>
-    <row r="92" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="92" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -5854,8 +6077,11 @@
       <c r="X92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -5922,76 +6148,82 @@
       <c r="X93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
+        <v>-228900</v>
+      </c>
+      <c r="E94" s="3">
         <v>-116900</v>
       </c>
-      <c r="E94" s="3">
+      <c r="F94" s="3">
         <v>197300</v>
       </c>
-      <c r="F94" s="3">
+      <c r="G94" s="3">
         <v>-7300</v>
       </c>
-      <c r="G94" s="3">
+      <c r="H94" s="3">
         <v>-75000</v>
       </c>
-      <c r="H94" s="3">
+      <c r="I94" s="3">
         <v>-114000</v>
       </c>
-      <c r="I94" s="3">
+      <c r="J94" s="3">
         <v>-509800</v>
       </c>
-      <c r="J94" s="3">
+      <c r="K94" s="3">
         <v>-535700</v>
       </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3">
         <v>36100</v>
       </c>
-      <c r="L94" s="3">
+      <c r="M94" s="3">
         <v>21700</v>
       </c>
-      <c r="M94" s="3">
+      <c r="N94" s="3">
         <v>-54400</v>
       </c>
-      <c r="N94" s="3">
+      <c r="O94" s="3">
         <v>-52900</v>
       </c>
-      <c r="O94" s="3">
+      <c r="P94" s="3">
         <v>-681900</v>
       </c>
-      <c r="P94" s="3">
+      <c r="Q94" s="3">
         <v>9500</v>
       </c>
-      <c r="Q94" s="3">
+      <c r="R94" s="3">
         <v>181700</v>
       </c>
-      <c r="R94" s="3">
+      <c r="S94" s="3">
         <v>-117600</v>
       </c>
-      <c r="S94" s="3">
+      <c r="T94" s="3">
         <v>-58600</v>
       </c>
-      <c r="T94" s="3">
+      <c r="U94" s="3">
         <v>-132500</v>
       </c>
-      <c r="U94" s="3">
+      <c r="V94" s="3">
         <v>-320600</v>
       </c>
-      <c r="V94" s="3">
+      <c r="W94" s="3">
         <v>-40800</v>
       </c>
-      <c r="W94" s="3">
+      <c r="X94" s="3">
         <v>-35400</v>
       </c>
-      <c r="X94" s="3">
+      <c r="Y94" s="3">
         <v>-28900</v>
       </c>
     </row>
-    <row r="95" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="95" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -6016,8 +6248,9 @@
       <c r="V95" s="3"/>
       <c r="W95" s="3"/>
       <c r="X95" s="3"/>
-    </row>
-    <row r="96" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y95" s="3"/>
+    </row>
+    <row r="96" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -6084,8 +6317,11 @@
       <c r="X96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -6152,8 +6388,11 @@
       <c r="X97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -6220,8 +6459,11 @@
       <c r="X98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -6288,76 +6530,82 @@
       <c r="X99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>-36600</v>
+      </c>
+      <c r="E100" s="3">
         <v>-108300</v>
       </c>
-      <c r="E100" s="3">
+      <c r="F100" s="3">
         <v>-234900</v>
       </c>
-      <c r="F100" s="3">
+      <c r="G100" s="3">
         <v>-7600</v>
       </c>
-      <c r="G100" s="3">
+      <c r="H100" s="3">
         <v>-1700</v>
       </c>
-      <c r="H100" s="3">
+      <c r="I100" s="3">
         <v>-19200</v>
       </c>
-      <c r="I100" s="3">
+      <c r="J100" s="3">
         <v>-3700</v>
       </c>
-      <c r="J100" s="3">
+      <c r="K100" s="3">
         <v>-12300</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>347600</v>
       </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
         <v>-2800</v>
       </c>
-      <c r="M100" s="3">
+      <c r="N100" s="3">
         <v>1000</v>
       </c>
-      <c r="N100" s="3">
+      <c r="O100" s="3">
         <v>-2900</v>
       </c>
-      <c r="O100" s="3">
+      <c r="P100" s="3">
         <v>491600</v>
       </c>
-      <c r="P100" s="3">
+      <c r="Q100" s="3">
         <v>-4600</v>
       </c>
-      <c r="Q100" s="3">
+      <c r="R100" s="3">
         <v>1900</v>
       </c>
-      <c r="R100" s="3">
+      <c r="S100" s="3">
         <v>-2800</v>
       </c>
-      <c r="S100" s="3">
+      <c r="T100" s="3">
         <v>4400</v>
       </c>
-      <c r="T100" s="3">
+      <c r="U100" s="3">
         <v>300</v>
       </c>
-      <c r="U100" s="3">
+      <c r="V100" s="3">
         <v>2000</v>
       </c>
-      <c r="V100" s="3">
+      <c r="W100" s="3">
         <v>445700</v>
       </c>
-      <c r="W100" s="3">
+      <c r="X100" s="3">
         <v>6700</v>
       </c>
-      <c r="X100" s="3">
+      <c r="Y100" s="3">
         <v>2300</v>
       </c>
     </row>
-    <row r="101" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -6395,101 +6643,107 @@
         <v>0</v>
       </c>
       <c r="O101" s="3">
+        <v>0</v>
+      </c>
+      <c r="P101" s="3">
         <v>-200</v>
       </c>
-      <c r="P101" s="3">
-        <v>0</v>
-      </c>
       <c r="Q101" s="3">
+        <v>0</v>
+      </c>
+      <c r="R101" s="3">
         <v>-700</v>
       </c>
-      <c r="R101" s="3">
-        <v>0</v>
-      </c>
       <c r="S101" s="3">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="T101" s="3">
         <v>400</v>
       </c>
       <c r="U101" s="3">
+        <v>400</v>
+      </c>
+      <c r="V101" s="3">
         <v>500</v>
       </c>
-      <c r="V101" s="3">
+      <c r="W101" s="3">
         <v>700</v>
       </c>
-      <c r="W101" s="3">
+      <c r="X101" s="3">
         <v>-1400</v>
       </c>
-      <c r="X101" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="102" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>-59000</v>
+      </c>
+      <c r="E102" s="3">
         <v>-163300</v>
       </c>
-      <c r="E102" s="3">
+      <c r="F102" s="3">
         <v>86600</v>
       </c>
-      <c r="F102" s="3">
+      <c r="G102" s="3">
         <v>366400</v>
       </c>
-      <c r="G102" s="3">
+      <c r="H102" s="3">
         <v>51800</v>
       </c>
-      <c r="H102" s="3">
+      <c r="I102" s="3">
         <v>-28500</v>
       </c>
-      <c r="I102" s="3">
+      <c r="J102" s="3">
         <v>-390800</v>
       </c>
-      <c r="J102" s="3">
+      <c r="K102" s="3">
         <v>-396200</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>546000</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>106400</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>74300</v>
       </c>
-      <c r="N102" s="3">
+      <c r="O102" s="3">
         <v>-13000</v>
       </c>
-      <c r="O102" s="3">
+      <c r="P102" s="3">
         <v>-88100</v>
       </c>
-      <c r="P102" s="3">
+      <c r="Q102" s="3">
         <v>62100</v>
       </c>
-      <c r="Q102" s="3">
+      <c r="R102" s="3">
         <v>220500</v>
       </c>
-      <c r="R102" s="3">
+      <c r="S102" s="3">
         <v>-25300</v>
       </c>
-      <c r="S102" s="3">
+      <c r="T102" s="3">
         <v>51300</v>
       </c>
-      <c r="T102" s="3">
+      <c r="U102" s="3">
         <v>-122100</v>
       </c>
-      <c r="U102" s="3">
+      <c r="V102" s="3">
         <v>-305000</v>
       </c>
-      <c r="V102" s="3">
+      <c r="W102" s="3">
         <v>422000</v>
       </c>
-      <c r="W102" s="3">
+      <c r="X102" s="3">
         <v>-10900</v>
       </c>
-      <c r="X102" s="3">
+      <c r="Y102" s="3">
         <v>9700</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/LITE_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/LITE_QTR_FIN.xlsx
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:Y102"/>
+  <dimension ref="A5:Z102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,318 +665,330 @@
     <col min="1" max="1" width="6.42578125" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="7" width="13" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="9" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="13" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="17" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="21" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="22" max="23" width="13" style="1" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="12.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="26" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="8" width="13" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="10" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="14" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="18" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="22" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="23" max="24" width="13" style="1" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="12.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="27" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:26" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:26" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44653</v>
+      </c>
+      <c r="E7" s="2">
         <v>44562</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44471</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44380</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44289</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>44191</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>44100</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>44009</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>43918</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>43827</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>43736</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>43645</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>43554</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>43463</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>43372</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>43281</v>
       </c>
-      <c r="S7" s="2">
+      <c r="T7" s="2">
         <v>43190</v>
       </c>
-      <c r="T7" s="2">
+      <c r="U7" s="2">
         <v>43099</v>
       </c>
-      <c r="U7" s="2">
+      <c r="V7" s="2">
         <v>43008</v>
       </c>
-      <c r="V7" s="2">
+      <c r="W7" s="2">
         <v>42917</v>
       </c>
-      <c r="W7" s="2">
+      <c r="X7" s="2">
         <v>42826</v>
       </c>
-      <c r="X7" s="2">
+      <c r="Y7" s="2">
         <v>42735</v>
       </c>
-      <c r="Y7" s="2">
+      <c r="Z7" s="2">
         <v>42644</v>
       </c>
     </row>
-    <row r="8" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:26" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
+        <v>395400</v>
+      </c>
+      <c r="E8" s="3">
         <v>446700</v>
       </c>
-      <c r="E8" s="3">
+      <c r="F8" s="3">
         <v>448400</v>
       </c>
-      <c r="F8" s="3">
+      <c r="G8" s="3">
         <v>392100</v>
       </c>
-      <c r="G8" s="3">
+      <c r="H8" s="3">
         <v>419500</v>
       </c>
-      <c r="H8" s="3">
+      <c r="I8" s="3">
         <v>478800</v>
       </c>
-      <c r="I8" s="3">
+      <c r="J8" s="3">
         <v>452400</v>
       </c>
-      <c r="J8" s="3">
+      <c r="K8" s="3">
         <v>368100</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>402800</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>457800</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>449900</v>
       </c>
-      <c r="N8" s="3">
+      <c r="O8" s="3">
         <v>404600</v>
       </c>
-      <c r="O8" s="3">
+      <c r="P8" s="3">
         <v>432900</v>
       </c>
-      <c r="P8" s="3">
+      <c r="Q8" s="3">
         <v>373700</v>
       </c>
-      <c r="Q8" s="3">
+      <c r="R8" s="3">
         <v>354100</v>
       </c>
-      <c r="R8" s="3">
+      <c r="S8" s="3">
         <v>301100</v>
       </c>
-      <c r="S8" s="3">
+      <c r="T8" s="3">
         <v>298800</v>
       </c>
-      <c r="T8" s="3">
+      <c r="U8" s="3">
         <v>404600</v>
       </c>
-      <c r="U8" s="3">
+      <c r="V8" s="3">
         <v>243200</v>
       </c>
-      <c r="V8" s="3">
+      <c r="W8" s="3">
         <v>222700</v>
       </c>
-      <c r="W8" s="3">
+      <c r="X8" s="3">
         <v>255800</v>
       </c>
-      <c r="X8" s="3">
+      <c r="Y8" s="3">
         <v>265000</v>
       </c>
-      <c r="Y8" s="3">
+      <c r="Z8" s="3">
         <v>258100</v>
       </c>
     </row>
-    <row r="9" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:26" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
+        <v>228200</v>
+      </c>
+      <c r="E9" s="3">
         <v>239200</v>
       </c>
-      <c r="E9" s="3">
+      <c r="F9" s="3">
         <v>216200</v>
       </c>
-      <c r="F9" s="3">
+      <c r="G9" s="3">
         <v>229300</v>
       </c>
-      <c r="G9" s="3">
+      <c r="H9" s="3">
         <v>234500</v>
       </c>
-      <c r="H9" s="3">
+      <c r="I9" s="3">
         <v>249200</v>
       </c>
-      <c r="I9" s="3">
+      <c r="J9" s="3">
         <v>246700</v>
       </c>
-      <c r="J9" s="3">
+      <c r="K9" s="3">
         <v>232400</v>
       </c>
-      <c r="K9" s="3">
+      <c r="L9" s="3">
         <v>245100</v>
       </c>
-      <c r="L9" s="3">
+      <c r="M9" s="3">
         <v>268700</v>
       </c>
-      <c r="M9" s="3">
+      <c r="N9" s="3">
         <v>282200</v>
       </c>
-      <c r="N9" s="3">
+      <c r="O9" s="3">
         <v>317800</v>
       </c>
-      <c r="O9" s="3">
+      <c r="P9" s="3">
         <v>344600</v>
       </c>
-      <c r="P9" s="3">
+      <c r="Q9" s="3">
         <v>248900</v>
       </c>
-      <c r="Q9" s="3">
+      <c r="R9" s="3">
         <v>228100</v>
       </c>
-      <c r="R9" s="3">
+      <c r="S9" s="3">
         <v>205600</v>
       </c>
-      <c r="S9" s="3">
+      <c r="T9" s="3">
         <v>201800</v>
       </c>
-      <c r="T9" s="3">
+      <c r="U9" s="3">
         <v>233500</v>
       </c>
-      <c r="U9" s="3">
+      <c r="V9" s="3">
         <v>174700</v>
       </c>
-      <c r="V9" s="3">
+      <c r="W9" s="3">
         <v>155400</v>
       </c>
-      <c r="W9" s="3">
+      <c r="X9" s="3">
         <v>173700</v>
       </c>
-      <c r="X9" s="3">
+      <c r="Y9" s="3">
         <v>178000</v>
       </c>
-      <c r="Y9" s="3">
+      <c r="Z9" s="3">
         <v>176400</v>
       </c>
     </row>
-    <row r="10" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:26" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
+        <v>167200</v>
+      </c>
+      <c r="E10" s="3">
         <v>207500</v>
       </c>
-      <c r="E10" s="3">
+      <c r="F10" s="3">
         <v>232200</v>
       </c>
-      <c r="F10" s="3">
+      <c r="G10" s="3">
         <v>162800</v>
       </c>
-      <c r="G10" s="3">
+      <c r="H10" s="3">
         <v>185000</v>
       </c>
-      <c r="H10" s="3">
+      <c r="I10" s="3">
         <v>229600</v>
       </c>
-      <c r="I10" s="3">
+      <c r="J10" s="3">
         <v>205700</v>
       </c>
-      <c r="J10" s="3">
+      <c r="K10" s="3">
         <v>135700</v>
       </c>
-      <c r="K10" s="3">
+      <c r="L10" s="3">
         <v>157700</v>
       </c>
-      <c r="L10" s="3">
+      <c r="M10" s="3">
         <v>189100</v>
       </c>
-      <c r="M10" s="3">
+      <c r="N10" s="3">
         <v>167700</v>
       </c>
-      <c r="N10" s="3">
+      <c r="O10" s="3">
         <v>86800</v>
       </c>
-      <c r="O10" s="3">
+      <c r="P10" s="3">
         <v>88300</v>
       </c>
-      <c r="P10" s="3">
+      <c r="Q10" s="3">
         <v>124800</v>
       </c>
-      <c r="Q10" s="3">
+      <c r="R10" s="3">
         <v>126000</v>
       </c>
-      <c r="R10" s="3">
+      <c r="S10" s="3">
         <v>95500</v>
       </c>
-      <c r="S10" s="3">
+      <c r="T10" s="3">
         <v>97000</v>
       </c>
-      <c r="T10" s="3">
+      <c r="U10" s="3">
         <v>171100</v>
       </c>
-      <c r="U10" s="3">
+      <c r="V10" s="3">
         <v>68500</v>
       </c>
-      <c r="V10" s="3">
+      <c r="W10" s="3">
         <v>67300</v>
       </c>
-      <c r="W10" s="3">
+      <c r="X10" s="3">
         <v>82100</v>
       </c>
-      <c r="X10" s="3">
+      <c r="Y10" s="3">
         <v>87000</v>
       </c>
-      <c r="Y10" s="3">
+      <c r="Z10" s="3">
         <v>81700</v>
       </c>
     </row>
-    <row r="11" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:26" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -1002,79 +1014,83 @@
       <c r="W11" s="3"/>
       <c r="X11" s="3"/>
       <c r="Y11" s="3"/>
-    </row>
-    <row r="12" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="Z11" s="3"/>
+    </row>
+    <row r="12" spans="1:26" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
       <c r="D12" s="3">
+        <v>56700</v>
+      </c>
+      <c r="E12" s="3">
         <v>53200</v>
-      </c>
-      <c r="E12" s="3">
-        <v>54100</v>
       </c>
       <c r="F12" s="3">
         <v>54100</v>
       </c>
       <c r="G12" s="3">
+        <v>54100</v>
+      </c>
+      <c r="H12" s="3">
         <v>57200</v>
       </c>
-      <c r="H12" s="3">
+      <c r="I12" s="3">
         <v>52800</v>
       </c>
-      <c r="I12" s="3">
+      <c r="J12" s="3">
         <v>50400</v>
       </c>
-      <c r="J12" s="3">
+      <c r="K12" s="3">
         <v>49000</v>
       </c>
-      <c r="K12" s="3">
+      <c r="L12" s="3">
         <v>48700</v>
       </c>
-      <c r="L12" s="3">
+      <c r="M12" s="3">
         <v>51000</v>
       </c>
-      <c r="M12" s="3">
+      <c r="N12" s="3">
         <v>49900</v>
       </c>
-      <c r="N12" s="3">
+      <c r="O12" s="3">
         <v>49500</v>
       </c>
-      <c r="O12" s="3">
+      <c r="P12" s="3">
         <v>57700</v>
       </c>
-      <c r="P12" s="3">
+      <c r="Q12" s="3">
         <v>42800</v>
       </c>
-      <c r="Q12" s="3">
+      <c r="R12" s="3">
         <v>34600</v>
       </c>
-      <c r="R12" s="3">
+      <c r="S12" s="3">
         <v>38500</v>
       </c>
-      <c r="S12" s="3">
+      <c r="T12" s="3">
         <v>38200</v>
       </c>
-      <c r="T12" s="3">
+      <c r="U12" s="3">
         <v>43800</v>
       </c>
-      <c r="U12" s="3">
+      <c r="V12" s="3">
         <v>36300</v>
       </c>
-      <c r="V12" s="3">
+      <c r="W12" s="3">
         <v>35400</v>
       </c>
-      <c r="W12" s="3">
+      <c r="X12" s="3">
         <v>37300</v>
       </c>
-      <c r="X12" s="3">
+      <c r="Y12" s="3">
         <v>38700</v>
       </c>
-      <c r="Y12" s="3">
+      <c r="Z12" s="3">
         <v>36900</v>
       </c>
     </row>
-    <row r="13" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:26" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>8</v>
       </c>
@@ -1144,123 +1160,129 @@
       <c r="Y13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="Z13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:26" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>9</v>
       </c>
       <c r="D14" s="3">
+        <v>-100</v>
+      </c>
+      <c r="E14" s="3">
         <v>100</v>
       </c>
-      <c r="E14" s="3">
+      <c r="F14" s="3">
         <v>-1100</v>
       </c>
-      <c r="F14" s="3">
+      <c r="G14" s="3">
         <v>4600</v>
       </c>
-      <c r="G14" s="3">
+      <c r="H14" s="3">
         <v>-204600</v>
       </c>
-      <c r="H14" s="3">
+      <c r="I14" s="3">
         <v>200</v>
       </c>
-      <c r="I14" s="3">
-        <v>0</v>
-      </c>
       <c r="J14" s="3">
+        <v>0</v>
+      </c>
+      <c r="K14" s="3">
         <v>4900</v>
       </c>
-      <c r="K14" s="3">
+      <c r="L14" s="3">
         <v>5200</v>
       </c>
-      <c r="L14" s="3">
+      <c r="M14" s="3">
         <v>900</v>
       </c>
-      <c r="M14" s="3">
+      <c r="N14" s="3">
         <v>1300</v>
       </c>
-      <c r="N14" s="3">
+      <c r="O14" s="3">
         <v>1700</v>
       </c>
-      <c r="O14" s="3">
+      <c r="P14" s="3">
         <v>51800</v>
       </c>
-      <c r="P14" s="3">
+      <c r="Q14" s="3">
         <v>7800</v>
       </c>
-      <c r="Q14" s="3">
+      <c r="R14" s="3">
         <v>1300</v>
       </c>
-      <c r="R14" s="3">
+      <c r="S14" s="3">
         <v>3400</v>
       </c>
-      <c r="S14" s="3">
+      <c r="T14" s="3">
         <v>100</v>
       </c>
-      <c r="T14" s="3">
+      <c r="U14" s="3">
         <v>4500</v>
       </c>
-      <c r="U14" s="3">
+      <c r="V14" s="3">
         <v>2900</v>
       </c>
-      <c r="V14" s="3">
+      <c r="W14" s="3">
         <v>2000</v>
       </c>
-      <c r="W14" s="3">
+      <c r="X14" s="3">
         <v>3100</v>
       </c>
-      <c r="X14" s="3">
+      <c r="Y14" s="3">
         <v>4000</v>
       </c>
-      <c r="Y14" s="3">
+      <c r="Z14" s="3">
         <v>2900</v>
       </c>
     </row>
-    <row r="15" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:26" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D15" s="3">
-        <v>5600</v>
+        <v>5800</v>
       </c>
       <c r="E15" s="3">
         <v>5600</v>
       </c>
       <c r="F15" s="3">
-        <v>6200</v>
+        <v>5600</v>
       </c>
       <c r="G15" s="3">
         <v>6200</v>
       </c>
       <c r="H15" s="3">
+        <v>6200</v>
+      </c>
+      <c r="I15" s="3">
         <v>5900</v>
       </c>
-      <c r="I15" s="3">
+      <c r="J15" s="3">
         <v>5700</v>
       </c>
-      <c r="J15" s="3">
+      <c r="K15" s="3">
         <v>6200</v>
       </c>
-      <c r="K15" s="3">
+      <c r="L15" s="3">
         <v>6100</v>
       </c>
-      <c r="L15" s="3">
+      <c r="M15" s="3">
         <v>6200</v>
       </c>
-      <c r="M15" s="3">
+      <c r="N15" s="3">
         <v>6300</v>
-      </c>
-      <c r="N15" s="3">
-        <v>3600</v>
       </c>
       <c r="O15" s="3">
         <v>3600</v>
       </c>
       <c r="P15" s="3">
+        <v>3600</v>
+      </c>
+      <c r="Q15" s="3">
         <v>800</v>
-      </c>
-      <c r="Q15" s="3" t="s">
-        <v>17</v>
       </c>
       <c r="R15" s="3" t="s">
         <v>17</v>
@@ -1268,17 +1290,17 @@
       <c r="S15" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="T15" s="3">
-        <v>0</v>
-      </c>
-      <c r="U15" s="3" t="s">
+      <c r="T15" s="3" t="s">
         <v>17</v>
+      </c>
+      <c r="U15" s="3">
+        <v>0</v>
       </c>
       <c r="V15" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="W15" s="3">
-        <v>0</v>
+      <c r="W15" s="3" t="s">
+        <v>17</v>
       </c>
       <c r="X15" s="3">
         <v>0</v>
@@ -1286,8 +1308,11 @@
       <c r="Y15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="Z15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:26" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1310,150 +1335,157 @@
       <c r="W16" s="3"/>
       <c r="X16" s="3"/>
       <c r="Y16" s="3"/>
-    </row>
-    <row r="17" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z16" s="3"/>
+    </row>
+    <row r="17" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>11</v>
       </c>
       <c r="D17" s="3">
+        <v>348600</v>
+      </c>
+      <c r="E17" s="3">
         <v>361500</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="3">
         <v>332500</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>346300</v>
       </c>
-      <c r="G17" s="3">
+      <c r="H17" s="3">
         <v>152600</v>
       </c>
-      <c r="H17" s="3">
+      <c r="I17" s="3">
         <v>363500</v>
       </c>
-      <c r="I17" s="3">
+      <c r="J17" s="3">
         <v>353400</v>
       </c>
-      <c r="J17" s="3">
+      <c r="K17" s="3">
         <v>341100</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>360300</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>383000</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>390100</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>418400</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>509300</v>
       </c>
-      <c r="P17" s="3">
+      <c r="Q17" s="3">
         <v>362200</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="R17" s="3">
         <v>297000</v>
       </c>
-      <c r="R17" s="3">
+      <c r="S17" s="3">
         <v>280200</v>
       </c>
-      <c r="S17" s="3">
+      <c r="T17" s="3">
         <v>273300</v>
       </c>
-      <c r="T17" s="3">
+      <c r="U17" s="3">
         <v>313800</v>
       </c>
-      <c r="U17" s="3">
+      <c r="V17" s="3">
         <v>240500</v>
       </c>
-      <c r="V17" s="3">
+      <c r="W17" s="3">
         <v>218800</v>
       </c>
-      <c r="W17" s="3">
+      <c r="X17" s="3">
         <v>242200</v>
       </c>
-      <c r="X17" s="3">
+      <c r="Y17" s="3">
         <v>251700</v>
       </c>
-      <c r="Y17" s="3">
+      <c r="Z17" s="3">
         <v>241300</v>
       </c>
     </row>
-    <row r="18" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D18" s="3">
+        <v>46800</v>
+      </c>
+      <c r="E18" s="3">
         <v>85200</v>
       </c>
-      <c r="E18" s="3">
+      <c r="F18" s="3">
         <v>115900</v>
       </c>
-      <c r="F18" s="3">
+      <c r="G18" s="3">
         <v>45800</v>
       </c>
-      <c r="G18" s="3">
+      <c r="H18" s="3">
         <v>266900</v>
       </c>
-      <c r="H18" s="3">
+      <c r="I18" s="3">
         <v>115300</v>
       </c>
-      <c r="I18" s="3">
+      <c r="J18" s="3">
         <v>99000</v>
       </c>
-      <c r="J18" s="3">
+      <c r="K18" s="3">
         <v>27000</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>42500</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>74800</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>59800</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>-13800</v>
       </c>
-      <c r="O18" s="3">
+      <c r="P18" s="3">
         <v>-76400</v>
       </c>
-      <c r="P18" s="3">
+      <c r="Q18" s="3">
         <v>11500</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="R18" s="3">
         <v>57100</v>
       </c>
-      <c r="R18" s="3">
+      <c r="S18" s="3">
         <v>20900</v>
       </c>
-      <c r="S18" s="3">
+      <c r="T18" s="3">
         <v>25500</v>
       </c>
-      <c r="T18" s="3">
+      <c r="U18" s="3">
         <v>90800</v>
       </c>
-      <c r="U18" s="3">
+      <c r="V18" s="3">
         <v>2700</v>
       </c>
-      <c r="V18" s="3">
+      <c r="W18" s="3">
         <v>3900</v>
       </c>
-      <c r="W18" s="3">
+      <c r="X18" s="3">
         <v>13600</v>
       </c>
-      <c r="X18" s="3">
+      <c r="Y18" s="3">
         <v>13300</v>
       </c>
-      <c r="Y18" s="3">
+      <c r="Z18" s="3">
         <v>16800</v>
       </c>
     </row>
-    <row r="19" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>13</v>
       </c>
@@ -1479,197 +1511,204 @@
       <c r="W19" s="3"/>
       <c r="X19" s="3"/>
       <c r="Y19" s="3"/>
-    </row>
-    <row r="20" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z19" s="3"/>
+    </row>
+    <row r="20" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>14</v>
       </c>
       <c r="D20" s="3">
+        <v>2200</v>
+      </c>
+      <c r="E20" s="3">
         <v>1000</v>
       </c>
-      <c r="E20" s="3">
+      <c r="F20" s="3">
         <v>600</v>
       </c>
-      <c r="F20" s="3">
+      <c r="G20" s="3">
         <v>700</v>
       </c>
-      <c r="G20" s="3">
+      <c r="H20" s="3">
         <v>2400</v>
       </c>
-      <c r="H20" s="3">
+      <c r="I20" s="3">
         <v>-900</v>
       </c>
-      <c r="I20" s="3">
+      <c r="J20" s="3">
         <v>600</v>
       </c>
-      <c r="J20" s="3">
+      <c r="K20" s="3">
         <v>3500</v>
       </c>
-      <c r="K20" s="3">
+      <c r="L20" s="3">
         <v>21700</v>
       </c>
-      <c r="L20" s="3">
+      <c r="M20" s="3">
         <v>1200</v>
       </c>
-      <c r="M20" s="3">
+      <c r="N20" s="3">
         <v>5000</v>
       </c>
-      <c r="N20" s="3">
+      <c r="O20" s="3">
         <v>4100</v>
       </c>
-      <c r="O20" s="3">
+      <c r="P20" s="3">
         <v>5200</v>
       </c>
-      <c r="P20" s="3">
+      <c r="Q20" s="3">
         <v>14700</v>
       </c>
-      <c r="Q20" s="3">
+      <c r="R20" s="3">
         <v>600</v>
       </c>
-      <c r="R20" s="3">
+      <c r="S20" s="3">
         <v>11400</v>
       </c>
-      <c r="S20" s="3">
+      <c r="T20" s="3">
         <v>-18200</v>
       </c>
-      <c r="T20" s="3">
+      <c r="U20" s="3">
         <v>9300</v>
       </c>
-      <c r="U20" s="3">
+      <c r="V20" s="3">
         <v>5200</v>
       </c>
-      <c r="V20" s="3">
+      <c r="W20" s="3">
         <v>-31500</v>
       </c>
-      <c r="W20" s="3">
+      <c r="X20" s="3">
         <v>-58000</v>
       </c>
-      <c r="X20" s="3">
+      <c r="Y20" s="3">
         <v>4600</v>
       </c>
-      <c r="Y20" s="3">
+      <c r="Z20" s="3">
         <v>-22500</v>
       </c>
     </row>
-    <row r="21" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D21" s="3">
+        <v>90600</v>
+      </c>
+      <c r="E21" s="3">
         <v>128300</v>
       </c>
-      <c r="E21" s="3">
+      <c r="F21" s="3">
         <v>158300</v>
       </c>
-      <c r="F21" s="3">
+      <c r="G21" s="3">
         <v>89600</v>
       </c>
-      <c r="G21" s="3">
+      <c r="H21" s="3">
         <v>314100</v>
       </c>
-      <c r="H21" s="3">
+      <c r="I21" s="3">
         <v>159100</v>
       </c>
-      <c r="I21" s="3">
+      <c r="J21" s="3">
         <v>144100</v>
       </c>
-      <c r="J21" s="3">
+      <c r="K21" s="3">
         <v>77200</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>111700</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>123300</v>
       </c>
-      <c r="M21" s="3">
+      <c r="N21" s="3">
         <v>115200</v>
       </c>
-      <c r="N21" s="3">
+      <c r="O21" s="3">
         <v>35400</v>
       </c>
-      <c r="O21" s="3">
+      <c r="P21" s="3">
         <v>-10500</v>
       </c>
-      <c r="P21" s="3">
+      <c r="Q21" s="3">
         <v>57400</v>
       </c>
-      <c r="Q21" s="3">
+      <c r="R21" s="3">
         <v>78200</v>
       </c>
-      <c r="R21" s="3">
+      <c r="S21" s="3">
         <v>53800</v>
       </c>
-      <c r="S21" s="3">
+      <c r="T21" s="3">
         <v>26500</v>
       </c>
-      <c r="T21" s="3">
+      <c r="U21" s="3">
         <v>119100</v>
       </c>
-      <c r="U21" s="3">
+      <c r="V21" s="3">
         <v>25400</v>
       </c>
-      <c r="V21" s="3">
+      <c r="W21" s="3">
         <v>-11100</v>
       </c>
-      <c r="W21" s="3">
+      <c r="X21" s="3">
         <v>-28500</v>
       </c>
-      <c r="X21" s="3">
+      <c r="Y21" s="3">
         <v>32800</v>
       </c>
-      <c r="Y21" s="3">
+      <c r="Z21" s="3">
         <v>8000</v>
       </c>
     </row>
-    <row r="22" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D22" s="3">
+        <v>19700</v>
+      </c>
+      <c r="E22" s="3">
         <v>17100</v>
       </c>
-      <c r="E22" s="3">
+      <c r="F22" s="3">
         <v>16900</v>
       </c>
-      <c r="F22" s="3">
+      <c r="G22" s="3">
         <v>18000</v>
       </c>
-      <c r="G22" s="3">
+      <c r="H22" s="3">
         <v>16400</v>
       </c>
-      <c r="H22" s="3">
+      <c r="I22" s="3">
         <v>16300</v>
       </c>
-      <c r="I22" s="3">
+      <c r="J22" s="3">
         <v>16000</v>
       </c>
-      <c r="J22" s="3">
+      <c r="K22" s="3">
         <v>15900</v>
       </c>
-      <c r="K22" s="3">
+      <c r="L22" s="3">
         <v>15600</v>
       </c>
-      <c r="L22" s="3">
+      <c r="M22" s="3">
         <v>18300</v>
-      </c>
-      <c r="M22" s="3">
-        <v>11400</v>
       </c>
       <c r="N22" s="3">
         <v>11400</v>
       </c>
       <c r="O22" s="3">
+        <v>11400</v>
+      </c>
+      <c r="P22" s="3">
         <v>11300</v>
       </c>
-      <c r="P22" s="3">
+      <c r="Q22" s="3">
         <v>8500</v>
       </c>
-      <c r="Q22" s="3">
+      <c r="R22" s="3">
         <v>5100</v>
-      </c>
-      <c r="R22" s="3">
-        <v>4600</v>
       </c>
       <c r="S22" s="3">
         <v>4600</v>
@@ -1678,10 +1717,10 @@
         <v>4600</v>
       </c>
       <c r="U22" s="3">
+        <v>4600</v>
+      </c>
+      <c r="V22" s="3">
         <v>4400</v>
-      </c>
-      <c r="V22" s="3" t="s">
-        <v>17</v>
       </c>
       <c r="W22" s="3" t="s">
         <v>17</v>
@@ -1692,150 +1731,159 @@
       <c r="Y22" s="3" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="23" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z22" s="3" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="23" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>29300</v>
+      </c>
+      <c r="E23" s="3">
         <v>69100</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>99600</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>28500</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
         <v>252900</v>
       </c>
-      <c r="H23" s="3">
+      <c r="I23" s="3">
         <v>98100</v>
       </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
         <v>83600</v>
       </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
         <v>14600</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>48600</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>57700</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>53400</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>-21100</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>-82500</v>
       </c>
-      <c r="P23" s="3">
+      <c r="Q23" s="3">
         <v>17700</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="R23" s="3">
         <v>52600</v>
       </c>
-      <c r="R23" s="3">
+      <c r="S23" s="3">
         <v>27700</v>
       </c>
-      <c r="S23" s="3">
+      <c r="T23" s="3">
         <v>2700</v>
       </c>
-      <c r="T23" s="3">
+      <c r="U23" s="3">
         <v>95500</v>
       </c>
-      <c r="U23" s="3">
+      <c r="V23" s="3">
         <v>3500</v>
       </c>
-      <c r="V23" s="3">
+      <c r="W23" s="3">
         <v>-27600</v>
       </c>
-      <c r="W23" s="3">
+      <c r="X23" s="3">
         <v>-44400</v>
       </c>
-      <c r="X23" s="3">
+      <c r="Y23" s="3">
         <v>17900</v>
       </c>
-      <c r="Y23" s="3">
+      <c r="Z23" s="3">
         <v>-5700</v>
       </c>
     </row>
-    <row r="24" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
+        <v>3300</v>
+      </c>
+      <c r="E24" s="3">
         <v>12400</v>
       </c>
-      <c r="E24" s="3">
+      <c r="F24" s="3">
         <v>18100</v>
       </c>
-      <c r="F24" s="3">
+      <c r="G24" s="3">
         <v>7000</v>
       </c>
-      <c r="G24" s="3">
+      <c r="H24" s="3">
         <v>27400</v>
       </c>
-      <c r="H24" s="3">
+      <c r="I24" s="3">
         <v>14900</v>
       </c>
-      <c r="I24" s="3">
+      <c r="J24" s="3">
         <v>16500</v>
       </c>
-      <c r="J24" s="3">
+      <c r="K24" s="3">
         <v>19200</v>
       </c>
-      <c r="K24" s="3">
+      <c r="L24" s="3">
         <v>5200</v>
       </c>
-      <c r="L24" s="3">
+      <c r="M24" s="3">
         <v>8600</v>
       </c>
-      <c r="M24" s="3">
+      <c r="N24" s="3">
         <v>5800</v>
       </c>
-      <c r="N24" s="3">
+      <c r="O24" s="3">
         <v>4700</v>
       </c>
-      <c r="O24" s="3">
+      <c r="P24" s="3">
         <v>-8200</v>
       </c>
-      <c r="P24" s="3">
+      <c r="Q24" s="3">
         <v>1400</v>
       </c>
-      <c r="Q24" s="3">
+      <c r="R24" s="3">
         <v>5200</v>
       </c>
-      <c r="R24" s="3">
+      <c r="S24" s="3">
         <v>-3300</v>
       </c>
-      <c r="S24" s="3">
-        <v>0</v>
-      </c>
       <c r="T24" s="3">
+        <v>0</v>
+      </c>
+      <c r="U24" s="3">
         <v>-109300</v>
       </c>
-      <c r="U24" s="3">
+      <c r="V24" s="3">
         <v>-3600</v>
       </c>
-      <c r="V24" s="3">
+      <c r="W24" s="3">
         <v>27300</v>
       </c>
-      <c r="W24" s="3">
+      <c r="X24" s="3">
         <v>11600</v>
       </c>
-      <c r="X24" s="3">
+      <c r="Y24" s="3">
         <v>6100</v>
       </c>
-      <c r="Y24" s="3">
+      <c r="Z24" s="3">
         <v>-2300</v>
       </c>
     </row>
-    <row r="25" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="25" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1905,150 +1953,159 @@
       <c r="Y25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>26000</v>
+      </c>
+      <c r="E26" s="3">
         <v>56700</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
         <v>81500</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>21500</v>
       </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
         <v>225500</v>
       </c>
-      <c r="H26" s="3">
+      <c r="I26" s="3">
         <v>83200</v>
       </c>
-      <c r="I26" s="3">
+      <c r="J26" s="3">
         <v>67100</v>
       </c>
-      <c r="J26" s="3">
+      <c r="K26" s="3">
         <v>-4600</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>43400</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>49100</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>47600</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>-25800</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>-74300</v>
       </c>
-      <c r="P26" s="3">
+      <c r="Q26" s="3">
         <v>16300</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="R26" s="3">
         <v>47400</v>
       </c>
-      <c r="R26" s="3">
+      <c r="S26" s="3">
         <v>31000</v>
       </c>
-      <c r="S26" s="3">
+      <c r="T26" s="3">
         <v>2700</v>
       </c>
-      <c r="T26" s="3">
+      <c r="U26" s="3">
         <v>204800</v>
       </c>
-      <c r="U26" s="3">
+      <c r="V26" s="3">
         <v>7100</v>
       </c>
-      <c r="V26" s="3">
+      <c r="W26" s="3">
         <v>-54900</v>
       </c>
-      <c r="W26" s="3">
+      <c r="X26" s="3">
         <v>-56000</v>
       </c>
-      <c r="X26" s="3">
+      <c r="Y26" s="3">
         <v>11800</v>
       </c>
-      <c r="Y26" s="3">
+      <c r="Z26" s="3">
         <v>-3400</v>
       </c>
     </row>
-    <row r="27" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>26000</v>
+      </c>
+      <c r="E27" s="3">
         <v>56700</v>
       </c>
-      <c r="E27" s="3">
+      <c r="F27" s="3">
         <v>81500</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>21500</v>
       </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
         <v>225500</v>
       </c>
-      <c r="H27" s="3">
+      <c r="I27" s="3">
         <v>83200</v>
       </c>
-      <c r="I27" s="3">
+      <c r="J27" s="3">
         <v>67100</v>
       </c>
-      <c r="J27" s="3">
+      <c r="K27" s="3">
         <v>-4600</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>43400</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>49100</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>47600</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>-25800</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>-74300</v>
       </c>
-      <c r="P27" s="3">
+      <c r="Q27" s="3">
         <v>16200</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="R27" s="3">
         <v>46100</v>
       </c>
-      <c r="R27" s="3">
+      <c r="S27" s="3">
         <v>30000</v>
       </c>
-      <c r="S27" s="3">
+      <c r="T27" s="3">
         <v>2400</v>
       </c>
-      <c r="T27" s="3">
+      <c r="U27" s="3">
         <v>199800</v>
       </c>
-      <c r="U27" s="3">
+      <c r="V27" s="3">
         <v>6900</v>
       </c>
-      <c r="V27" s="3">
+      <c r="W27" s="3">
         <v>-55200</v>
       </c>
-      <c r="W27" s="3">
+      <c r="X27" s="3">
         <v>-56200</v>
       </c>
-      <c r="X27" s="3">
+      <c r="Y27" s="3">
         <v>11600</v>
       </c>
-      <c r="Y27" s="3">
+      <c r="Z27" s="3">
         <v>-3600</v>
       </c>
     </row>
-    <row r="28" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -2118,8 +2175,11 @@
       <c r="Y28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -2147,17 +2207,17 @@
       <c r="K29" s="3">
         <v>0</v>
       </c>
-      <c r="L29" s="3" t="s">
-        <v>17</v>
+      <c r="L29" s="3">
+        <v>0</v>
       </c>
       <c r="M29" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="N29" s="3">
-        <v>0</v>
-      </c>
-      <c r="O29" s="3" t="s">
+      <c r="N29" s="3" t="s">
         <v>17</v>
+      </c>
+      <c r="O29" s="3">
+        <v>0</v>
       </c>
       <c r="P29" s="3" t="s">
         <v>17</v>
@@ -2165,17 +2225,17 @@
       <c r="Q29" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="R29" s="3">
+      <c r="R29" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="S29" s="3">
         <v>2500</v>
       </c>
-      <c r="S29" s="3">
-        <v>0</v>
-      </c>
       <c r="T29" s="3">
+        <v>0</v>
+      </c>
+      <c r="U29" s="3">
         <v>-83000</v>
-      </c>
-      <c r="U29" s="3" t="s">
-        <v>17</v>
       </c>
       <c r="V29" s="3" t="s">
         <v>17</v>
@@ -2189,8 +2249,11 @@
       <c r="Y29" s="3" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="30" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z29" s="3" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="30" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -2260,8 +2323,11 @@
       <c r="Y30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -2331,150 +2397,159 @@
       <c r="Y31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
+        <v>-2200</v>
+      </c>
+      <c r="E32" s="3">
         <v>-1000</v>
       </c>
-      <c r="E32" s="3">
+      <c r="F32" s="3">
         <v>-600</v>
       </c>
-      <c r="F32" s="3">
+      <c r="G32" s="3">
         <v>-700</v>
       </c>
-      <c r="G32" s="3">
+      <c r="H32" s="3">
         <v>-2400</v>
       </c>
-      <c r="H32" s="3">
+      <c r="I32" s="3">
         <v>900</v>
       </c>
-      <c r="I32" s="3">
+      <c r="J32" s="3">
         <v>-600</v>
       </c>
-      <c r="J32" s="3">
+      <c r="K32" s="3">
         <v>-3500</v>
       </c>
-      <c r="K32" s="3">
+      <c r="L32" s="3">
         <v>-21700</v>
       </c>
-      <c r="L32" s="3">
+      <c r="M32" s="3">
         <v>-1200</v>
       </c>
-      <c r="M32" s="3">
+      <c r="N32" s="3">
         <v>-5000</v>
       </c>
-      <c r="N32" s="3">
+      <c r="O32" s="3">
         <v>-4100</v>
       </c>
-      <c r="O32" s="3">
+      <c r="P32" s="3">
         <v>-5200</v>
       </c>
-      <c r="P32" s="3">
+      <c r="Q32" s="3">
         <v>-14700</v>
       </c>
-      <c r="Q32" s="3">
+      <c r="R32" s="3">
         <v>-600</v>
       </c>
-      <c r="R32" s="3">
+      <c r="S32" s="3">
         <v>-11400</v>
       </c>
-      <c r="S32" s="3">
+      <c r="T32" s="3">
         <v>18200</v>
       </c>
-      <c r="T32" s="3">
+      <c r="U32" s="3">
         <v>-9300</v>
       </c>
-      <c r="U32" s="3">
+      <c r="V32" s="3">
         <v>-5200</v>
       </c>
-      <c r="V32" s="3">
+      <c r="W32" s="3">
         <v>31500</v>
       </c>
-      <c r="W32" s="3">
+      <c r="X32" s="3">
         <v>58000</v>
       </c>
-      <c r="X32" s="3">
+      <c r="Y32" s="3">
         <v>-4600</v>
       </c>
-      <c r="Y32" s="3">
+      <c r="Z32" s="3">
         <v>22500</v>
       </c>
     </row>
-    <row r="33" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>26000</v>
+      </c>
+      <c r="E33" s="3">
         <v>56700</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
         <v>81500</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>21500</v>
       </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
         <v>225500</v>
       </c>
-      <c r="H33" s="3">
+      <c r="I33" s="3">
         <v>83200</v>
       </c>
-      <c r="I33" s="3">
+      <c r="J33" s="3">
         <v>67100</v>
       </c>
-      <c r="J33" s="3">
+      <c r="K33" s="3">
         <v>-4600</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>43400</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>49100</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>47600</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>-25800</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>-74300</v>
       </c>
-      <c r="P33" s="3">
+      <c r="Q33" s="3">
         <v>16200</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="R33" s="3">
         <v>46100</v>
       </c>
-      <c r="R33" s="3">
+      <c r="S33" s="3">
         <v>32500</v>
       </c>
-      <c r="S33" s="3">
+      <c r="T33" s="3">
         <v>2400</v>
       </c>
-      <c r="T33" s="3">
+      <c r="U33" s="3">
         <v>116800</v>
       </c>
-      <c r="U33" s="3">
+      <c r="V33" s="3">
         <v>6900</v>
       </c>
-      <c r="V33" s="3">
+      <c r="W33" s="3">
         <v>-55200</v>
       </c>
-      <c r="W33" s="3">
+      <c r="X33" s="3">
         <v>-56200</v>
       </c>
-      <c r="X33" s="3">
+      <c r="Y33" s="3">
         <v>11600</v>
       </c>
-      <c r="Y33" s="3">
+      <c r="Z33" s="3">
         <v>-3600</v>
       </c>
     </row>
-    <row r="34" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2544,155 +2619,164 @@
       <c r="Y34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>26000</v>
+      </c>
+      <c r="E35" s="3">
         <v>56700</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
         <v>81500</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>21500</v>
       </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
         <v>225500</v>
       </c>
-      <c r="H35" s="3">
+      <c r="I35" s="3">
         <v>83200</v>
       </c>
-      <c r="I35" s="3">
+      <c r="J35" s="3">
         <v>67100</v>
       </c>
-      <c r="J35" s="3">
+      <c r="K35" s="3">
         <v>-4600</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>43400</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>49100</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>47600</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>-25800</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>-74300</v>
       </c>
-      <c r="P35" s="3">
+      <c r="Q35" s="3">
         <v>16200</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="R35" s="3">
         <v>46100</v>
       </c>
-      <c r="R35" s="3">
+      <c r="S35" s="3">
         <v>32500</v>
       </c>
-      <c r="S35" s="3">
+      <c r="T35" s="3">
         <v>2400</v>
       </c>
-      <c r="T35" s="3">
+      <c r="U35" s="3">
         <v>116800</v>
       </c>
-      <c r="U35" s="3">
+      <c r="V35" s="3">
         <v>6900</v>
       </c>
-      <c r="V35" s="3">
+      <c r="W35" s="3">
         <v>-55200</v>
       </c>
-      <c r="W35" s="3">
+      <c r="X35" s="3">
         <v>-56200</v>
       </c>
-      <c r="X35" s="3">
+      <c r="Y35" s="3">
         <v>11600</v>
       </c>
-      <c r="Y35" s="3">
+      <c r="Z35" s="3">
         <v>-3600</v>
       </c>
     </row>
-    <row r="37" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:26" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44653</v>
+      </c>
+      <c r="E38" s="2">
         <v>44562</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44471</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44380</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44289</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>44191</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>44100</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>44009</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>43918</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>43827</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>43736</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>43645</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>43554</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>43463</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>43372</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>43281</v>
       </c>
-      <c r="S38" s="2">
+      <c r="T38" s="2">
         <v>43190</v>
       </c>
-      <c r="T38" s="2">
+      <c r="U38" s="2">
         <v>43099</v>
       </c>
-      <c r="U38" s="2">
+      <c r="V38" s="2">
         <v>43008</v>
       </c>
-      <c r="V38" s="2">
+      <c r="W38" s="2">
         <v>42917</v>
       </c>
-      <c r="W38" s="2">
+      <c r="X38" s="2">
         <v>42826</v>
       </c>
-      <c r="X38" s="2">
+      <c r="Y38" s="2">
         <v>42735</v>
       </c>
-      <c r="Y38" s="2">
+      <c r="Z38" s="2">
         <v>42644</v>
       </c>
     </row>
-    <row r="39" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2718,8 +2802,9 @@
       <c r="W39" s="3"/>
       <c r="X39" s="3"/>
       <c r="Y39" s="3"/>
-    </row>
-    <row r="40" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z39" s="3"/>
+    </row>
+    <row r="40" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2745,141 +2830,145 @@
       <c r="W40" s="3"/>
       <c r="X40" s="3"/>
       <c r="Y40" s="3"/>
-    </row>
-    <row r="41" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z40" s="3"/>
+    </row>
+    <row r="41" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>1130300</v>
+      </c>
+      <c r="E41" s="3">
         <v>552000</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>611000</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>774300</v>
       </c>
-      <c r="G41" s="3">
+      <c r="H41" s="3">
         <v>687700</v>
       </c>
-      <c r="H41" s="3">
+      <c r="I41" s="3">
         <v>321300</v>
       </c>
-      <c r="I41" s="3">
+      <c r="J41" s="3">
         <v>269500</v>
       </c>
-      <c r="J41" s="3">
+      <c r="K41" s="3">
         <v>298000</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>688300</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>1085000</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>539000</v>
       </c>
-      <c r="N41" s="3">
+      <c r="O41" s="3">
         <v>432600</v>
       </c>
-      <c r="O41" s="3">
+      <c r="P41" s="3">
         <v>357300</v>
       </c>
-      <c r="P41" s="3">
+      <c r="Q41" s="3">
         <v>371300</v>
       </c>
-      <c r="Q41" s="3">
+      <c r="R41" s="3">
         <v>459400</v>
       </c>
-      <c r="R41" s="3">
+      <c r="S41" s="3">
         <v>397300</v>
       </c>
-      <c r="S41" s="3">
+      <c r="T41" s="3">
         <v>176800</v>
       </c>
-      <c r="T41" s="3">
+      <c r="U41" s="3">
         <v>202100</v>
       </c>
-      <c r="U41" s="3">
+      <c r="V41" s="3">
         <v>150800</v>
       </c>
-      <c r="V41" s="3">
+      <c r="W41" s="3">
         <v>272900</v>
       </c>
-      <c r="W41" s="3">
+      <c r="X41" s="3">
         <v>577900</v>
       </c>
-      <c r="X41" s="3">
+      <c r="Y41" s="3">
         <v>155900</v>
       </c>
-      <c r="Y41" s="3">
+      <c r="Z41" s="3">
         <v>166800</v>
       </c>
     </row>
-    <row r="42" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
       <c r="D42" s="3">
+        <v>1433800</v>
+      </c>
+      <c r="E42" s="3">
         <v>1470400</v>
       </c>
-      <c r="E42" s="3">
+      <c r="F42" s="3">
         <v>1273600</v>
       </c>
-      <c r="F42" s="3">
+      <c r="G42" s="3">
         <v>1171700</v>
       </c>
-      <c r="G42" s="3">
+      <c r="H42" s="3">
         <v>1366900</v>
       </c>
-      <c r="H42" s="3">
+      <c r="I42" s="3">
         <v>1379000</v>
       </c>
-      <c r="I42" s="3">
+      <c r="J42" s="3">
         <v>1341200</v>
       </c>
-      <c r="J42" s="3">
+      <c r="K42" s="3">
         <v>1255800</v>
       </c>
-      <c r="K42" s="3">
+      <c r="L42" s="3">
         <v>763100</v>
       </c>
-      <c r="L42" s="3">
+      <c r="M42" s="3">
         <v>230600</v>
       </c>
-      <c r="M42" s="3">
+      <c r="N42" s="3">
         <v>291900</v>
       </c>
-      <c r="N42" s="3">
+      <c r="O42" s="3">
         <v>335900</v>
       </c>
-      <c r="O42" s="3">
+      <c r="P42" s="3">
         <v>340200</v>
       </c>
-      <c r="P42" s="3">
+      <c r="Q42" s="3">
         <v>312800</v>
       </c>
-      <c r="Q42" s="3">
+      <c r="R42" s="3">
         <v>274900</v>
       </c>
-      <c r="R42" s="3">
+      <c r="S42" s="3">
         <v>314200</v>
       </c>
-      <c r="S42" s="3">
+      <c r="T42" s="3">
         <v>516000</v>
       </c>
-      <c r="T42" s="3">
+      <c r="U42" s="3">
         <v>422400</v>
       </c>
-      <c r="U42" s="3">
+      <c r="V42" s="3">
         <v>381700</v>
       </c>
-      <c r="V42" s="3">
+      <c r="W42" s="3">
         <v>282400</v>
-      </c>
-      <c r="W42" s="3" t="s">
-        <v>17</v>
       </c>
       <c r="X42" s="3" t="s">
         <v>17</v>
@@ -2887,292 +2976,307 @@
       <c r="Y42" s="3" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="43" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z42" s="3" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="43" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
+        <v>242200</v>
+      </c>
+      <c r="E43" s="3">
         <v>239200</v>
       </c>
-      <c r="E43" s="3">
+      <c r="F43" s="3">
         <v>263200</v>
       </c>
-      <c r="F43" s="3">
+      <c r="G43" s="3">
         <v>212800</v>
       </c>
-      <c r="G43" s="3">
+      <c r="H43" s="3">
         <v>224800</v>
       </c>
-      <c r="H43" s="3">
+      <c r="I43" s="3">
         <v>276700</v>
       </c>
-      <c r="I43" s="3">
+      <c r="J43" s="3">
         <v>263600</v>
       </c>
-      <c r="J43" s="3">
+      <c r="K43" s="3">
         <v>233500</v>
       </c>
-      <c r="K43" s="3">
+      <c r="L43" s="3">
         <v>303100</v>
       </c>
-      <c r="L43" s="3">
+      <c r="M43" s="3">
         <v>343600</v>
       </c>
-      <c r="M43" s="3">
+      <c r="N43" s="3">
         <v>339600</v>
       </c>
-      <c r="N43" s="3">
+      <c r="O43" s="3">
         <v>286200</v>
       </c>
-      <c r="O43" s="3">
+      <c r="P43" s="3">
         <v>329700</v>
       </c>
-      <c r="P43" s="3">
+      <c r="Q43" s="3">
         <v>266500</v>
       </c>
-      <c r="Q43" s="3">
+      <c r="R43" s="3">
         <v>239600</v>
       </c>
-      <c r="R43" s="3">
+      <c r="S43" s="3">
         <v>197100</v>
       </c>
-      <c r="S43" s="3">
+      <c r="T43" s="3">
         <v>164700</v>
       </c>
-      <c r="T43" s="3">
+      <c r="U43" s="3">
         <v>222100</v>
       </c>
-      <c r="U43" s="3">
+      <c r="V43" s="3">
         <v>173800</v>
       </c>
-      <c r="V43" s="3">
+      <c r="W43" s="3">
         <v>166300</v>
       </c>
-      <c r="W43" s="3">
+      <c r="X43" s="3">
         <v>185400</v>
       </c>
-      <c r="X43" s="3">
+      <c r="Y43" s="3">
         <v>192500</v>
       </c>
-      <c r="Y43" s="3">
+      <c r="Z43" s="3">
         <v>156500</v>
       </c>
     </row>
-    <row r="44" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
+        <v>224000</v>
+      </c>
+      <c r="E44" s="3">
         <v>208100</v>
       </c>
-      <c r="E44" s="3">
+      <c r="F44" s="3">
         <v>207000</v>
       </c>
-      <c r="F44" s="3">
+      <c r="G44" s="3">
         <v>196400</v>
       </c>
-      <c r="G44" s="3">
+      <c r="H44" s="3">
         <v>210700</v>
       </c>
-      <c r="H44" s="3">
+      <c r="I44" s="3">
         <v>207100</v>
       </c>
-      <c r="I44" s="3">
+      <c r="J44" s="3">
         <v>212600</v>
       </c>
-      <c r="J44" s="3">
+      <c r="K44" s="3">
         <v>188900</v>
       </c>
-      <c r="K44" s="3">
+      <c r="L44" s="3">
         <v>172700</v>
       </c>
-      <c r="L44" s="3">
+      <c r="M44" s="3">
         <v>179600</v>
       </c>
-      <c r="M44" s="3">
+      <c r="N44" s="3">
         <v>202200</v>
       </c>
-      <c r="N44" s="3">
+      <c r="O44" s="3">
         <v>228800</v>
       </c>
-      <c r="O44" s="3">
+      <c r="P44" s="3">
         <v>272200</v>
       </c>
-      <c r="P44" s="3">
+      <c r="Q44" s="3">
         <v>303200</v>
       </c>
-      <c r="Q44" s="3">
+      <c r="R44" s="3">
         <v>136600</v>
       </c>
-      <c r="R44" s="3">
+      <c r="S44" s="3">
         <v>153600</v>
       </c>
-      <c r="S44" s="3">
+      <c r="T44" s="3">
         <v>144200</v>
       </c>
-      <c r="T44" s="3">
+      <c r="U44" s="3">
         <v>147300</v>
       </c>
-      <c r="U44" s="3">
+      <c r="V44" s="3">
         <v>147200</v>
       </c>
-      <c r="V44" s="3">
+      <c r="W44" s="3">
         <v>145200</v>
       </c>
-      <c r="W44" s="3">
+      <c r="X44" s="3">
         <v>116900</v>
       </c>
-      <c r="X44" s="3">
+      <c r="Y44" s="3">
         <v>121000</v>
       </c>
-      <c r="Y44" s="3">
+      <c r="Z44" s="3">
         <v>103700</v>
       </c>
     </row>
-    <row r="45" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="45" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
+        <v>70300</v>
+      </c>
+      <c r="E45" s="3">
         <v>70400</v>
       </c>
-      <c r="E45" s="3">
+      <c r="F45" s="3">
         <v>68200</v>
       </c>
-      <c r="F45" s="3">
+      <c r="G45" s="3">
         <v>81600</v>
       </c>
-      <c r="G45" s="3">
+      <c r="H45" s="3">
         <v>79700</v>
       </c>
-      <c r="H45" s="3">
+      <c r="I45" s="3">
         <v>82100</v>
       </c>
-      <c r="I45" s="3">
+      <c r="J45" s="3">
         <v>79800</v>
       </c>
-      <c r="J45" s="3">
+      <c r="K45" s="3">
         <v>73800</v>
       </c>
-      <c r="K45" s="3">
+      <c r="L45" s="3">
         <v>35800</v>
       </c>
-      <c r="L45" s="3">
+      <c r="M45" s="3">
         <v>44200</v>
       </c>
-      <c r="M45" s="3">
+      <c r="N45" s="3">
         <v>50500</v>
       </c>
-      <c r="N45" s="3">
+      <c r="O45" s="3">
         <v>49300</v>
       </c>
-      <c r="O45" s="3">
+      <c r="P45" s="3">
         <v>118700</v>
       </c>
-      <c r="P45" s="3">
+      <c r="Q45" s="3">
         <v>103100</v>
       </c>
-      <c r="Q45" s="3">
+      <c r="R45" s="3">
         <v>70600</v>
       </c>
-      <c r="R45" s="3">
+      <c r="S45" s="3">
         <v>65000</v>
       </c>
-      <c r="S45" s="3">
+      <c r="T45" s="3">
         <v>63000</v>
       </c>
-      <c r="T45" s="3">
+      <c r="U45" s="3">
         <v>59900</v>
       </c>
-      <c r="U45" s="3">
+      <c r="V45" s="3">
         <v>69000</v>
       </c>
-      <c r="V45" s="3">
+      <c r="W45" s="3">
         <v>63500</v>
       </c>
-      <c r="W45" s="3">
+      <c r="X45" s="3">
         <v>61400</v>
       </c>
-      <c r="X45" s="3">
+      <c r="Y45" s="3">
         <v>58200</v>
       </c>
-      <c r="Y45" s="3">
+      <c r="Z45" s="3">
         <v>62300</v>
       </c>
     </row>
-    <row r="46" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="46" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>3100600</v>
+      </c>
+      <c r="E46" s="3">
         <v>2540100</v>
       </c>
-      <c r="E46" s="3">
+      <c r="F46" s="3">
         <v>2423000</v>
       </c>
-      <c r="F46" s="3">
+      <c r="G46" s="3">
         <v>2436800</v>
       </c>
-      <c r="G46" s="3">
+      <c r="H46" s="3">
         <v>2569800</v>
       </c>
-      <c r="H46" s="3">
+      <c r="I46" s="3">
         <v>2266200</v>
       </c>
-      <c r="I46" s="3">
+      <c r="J46" s="3">
         <v>2166700</v>
       </c>
-      <c r="J46" s="3">
+      <c r="K46" s="3">
         <v>2050000</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>1963000</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>1883000</v>
       </c>
-      <c r="M46" s="3">
+      <c r="N46" s="3">
         <v>1423200</v>
       </c>
-      <c r="N46" s="3">
+      <c r="O46" s="3">
         <v>1332800</v>
       </c>
-      <c r="O46" s="3">
+      <c r="P46" s="3">
         <v>1418100</v>
       </c>
-      <c r="P46" s="3">
+      <c r="Q46" s="3">
         <v>1356900</v>
       </c>
-      <c r="Q46" s="3">
+      <c r="R46" s="3">
         <v>1181100</v>
       </c>
-      <c r="R46" s="3">
+      <c r="S46" s="3">
         <v>1127200</v>
       </c>
-      <c r="S46" s="3">
+      <c r="T46" s="3">
         <v>1064700</v>
       </c>
-      <c r="T46" s="3">
+      <c r="U46" s="3">
         <v>1053800</v>
       </c>
-      <c r="U46" s="3">
+      <c r="V46" s="3">
         <v>922500</v>
       </c>
-      <c r="V46" s="3">
+      <c r="W46" s="3">
         <v>930300</v>
       </c>
-      <c r="W46" s="3">
+      <c r="X46" s="3">
         <v>941600</v>
       </c>
-      <c r="X46" s="3">
+      <c r="Y46" s="3">
         <v>527600</v>
       </c>
-      <c r="Y46" s="3">
+      <c r="Z46" s="3">
         <v>489300</v>
       </c>
     </row>
-    <row r="47" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -3242,150 +3346,159 @@
       <c r="Y47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>430700</v>
+      </c>
+      <c r="E48" s="3">
         <v>434700</v>
       </c>
-      <c r="E48" s="3">
+      <c r="F48" s="3">
         <v>428400</v>
       </c>
-      <c r="F48" s="3">
+      <c r="G48" s="3">
         <v>428500</v>
       </c>
-      <c r="G48" s="3">
+      <c r="H48" s="3">
         <v>448300</v>
       </c>
-      <c r="H48" s="3">
+      <c r="I48" s="3">
         <v>457600</v>
       </c>
-      <c r="I48" s="3">
+      <c r="J48" s="3">
         <v>468100</v>
       </c>
-      <c r="J48" s="3">
+      <c r="K48" s="3">
         <v>471700</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>491800</v>
       </c>
-      <c r="L48" s="3">
+      <c r="M48" s="3">
         <v>505700</v>
       </c>
-      <c r="M48" s="3">
+      <c r="N48" s="3">
         <v>524900</v>
       </c>
-      <c r="N48" s="3">
+      <c r="O48" s="3">
         <v>433300</v>
       </c>
-      <c r="O48" s="3">
+      <c r="P48" s="3">
         <v>390600</v>
       </c>
-      <c r="P48" s="3">
+      <c r="Q48" s="3">
         <v>444700</v>
       </c>
-      <c r="Q48" s="3">
+      <c r="R48" s="3">
         <v>318600</v>
       </c>
-      <c r="R48" s="3">
+      <c r="S48" s="3">
         <v>280600</v>
       </c>
-      <c r="S48" s="3">
+      <c r="T48" s="3">
         <v>264500</v>
       </c>
-      <c r="T48" s="3">
+      <c r="U48" s="3">
         <v>301300</v>
       </c>
-      <c r="U48" s="3">
+      <c r="V48" s="3">
         <v>293700</v>
       </c>
-      <c r="V48" s="3">
+      <c r="W48" s="3">
         <v>273500</v>
       </c>
-      <c r="W48" s="3">
+      <c r="X48" s="3">
         <v>246600</v>
       </c>
-      <c r="X48" s="3">
+      <c r="Y48" s="3">
         <v>219600</v>
       </c>
-      <c r="Y48" s="3">
+      <c r="Z48" s="3">
         <v>196000</v>
       </c>
     </row>
-    <row r="49" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="49" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
+        <v>545800</v>
+      </c>
+      <c r="E49" s="3">
         <v>567200</v>
       </c>
-      <c r="E49" s="3">
+      <c r="F49" s="3">
         <v>588700</v>
       </c>
-      <c r="F49" s="3">
+      <c r="G49" s="3">
         <v>610100</v>
       </c>
-      <c r="G49" s="3">
+      <c r="H49" s="3">
         <v>632100</v>
       </c>
-      <c r="H49" s="3">
+      <c r="I49" s="3">
         <v>654100</v>
       </c>
-      <c r="I49" s="3">
+      <c r="J49" s="3">
         <v>665000</v>
       </c>
-      <c r="J49" s="3">
+      <c r="K49" s="3">
         <v>685700</v>
       </c>
-      <c r="K49" s="3">
+      <c r="L49" s="3">
         <v>706900</v>
       </c>
-      <c r="L49" s="3">
+      <c r="M49" s="3">
         <v>726900</v>
       </c>
-      <c r="M49" s="3">
+      <c r="N49" s="3">
         <v>745500</v>
       </c>
-      <c r="N49" s="3">
+      <c r="O49" s="3">
         <v>764300</v>
       </c>
-      <c r="O49" s="3">
+      <c r="P49" s="3">
         <v>772100</v>
       </c>
-      <c r="P49" s="3">
+      <c r="Q49" s="3">
         <v>789700</v>
       </c>
-      <c r="Q49" s="3">
+      <c r="R49" s="3">
         <v>17600</v>
       </c>
-      <c r="R49" s="3">
+      <c r="S49" s="3">
         <v>44600</v>
       </c>
-      <c r="S49" s="3">
+      <c r="T49" s="3">
         <v>57200</v>
       </c>
-      <c r="T49" s="3">
+      <c r="U49" s="3">
         <v>20400</v>
       </c>
-      <c r="U49" s="3">
+      <c r="V49" s="3">
         <v>21000</v>
       </c>
-      <c r="V49" s="3">
+      <c r="W49" s="3">
         <v>21500</v>
       </c>
-      <c r="W49" s="3">
+      <c r="X49" s="3">
         <v>22300</v>
       </c>
-      <c r="X49" s="3">
+      <c r="Y49" s="3">
         <v>16000</v>
       </c>
-      <c r="Y49" s="3">
+      <c r="Z49" s="3">
         <v>18100</v>
       </c>
     </row>
-    <row r="50" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="50" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -3455,8 +3568,11 @@
       <c r="Y50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -3526,79 +3642,85 @@
       <c r="Y51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
+        <v>56400</v>
+      </c>
+      <c r="E52" s="3">
         <v>73700</v>
       </c>
-      <c r="E52" s="3">
+      <c r="F52" s="3">
         <v>78900</v>
       </c>
-      <c r="F52" s="3">
+      <c r="G52" s="3">
         <v>76200</v>
       </c>
-      <c r="G52" s="3">
+      <c r="H52" s="3">
         <v>95700</v>
       </c>
-      <c r="H52" s="3">
+      <c r="I52" s="3">
         <v>90300</v>
       </c>
-      <c r="I52" s="3">
+      <c r="J52" s="3">
         <v>87600</v>
       </c>
-      <c r="J52" s="3">
+      <c r="K52" s="3">
         <v>85200</v>
       </c>
-      <c r="K52" s="3">
+      <c r="L52" s="3">
         <v>107000</v>
       </c>
-      <c r="L52" s="3">
+      <c r="M52" s="3">
         <v>105600</v>
       </c>
-      <c r="M52" s="3">
+      <c r="N52" s="3">
         <v>174200</v>
       </c>
-      <c r="N52" s="3">
+      <c r="O52" s="3">
         <v>186200</v>
       </c>
-      <c r="O52" s="3">
+      <c r="P52" s="3">
         <v>190600</v>
       </c>
-      <c r="P52" s="3">
+      <c r="Q52" s="3">
         <v>205300</v>
       </c>
-      <c r="Q52" s="3">
+      <c r="R52" s="3">
         <v>127700</v>
       </c>
-      <c r="R52" s="3">
+      <c r="S52" s="3">
         <v>129100</v>
       </c>
-      <c r="S52" s="3">
+      <c r="T52" s="3">
         <v>131800</v>
       </c>
-      <c r="T52" s="3">
+      <c r="U52" s="3">
         <v>131900</v>
       </c>
-      <c r="U52" s="3">
+      <c r="V52" s="3">
         <v>11200</v>
       </c>
-      <c r="V52" s="3">
+      <c r="W52" s="3">
         <v>7600</v>
       </c>
-      <c r="W52" s="3">
+      <c r="X52" s="3">
         <v>34000</v>
       </c>
-      <c r="X52" s="3">
+      <c r="Y52" s="3">
         <v>33500</v>
       </c>
-      <c r="Y52" s="3">
+      <c r="Z52" s="3">
         <v>34100</v>
       </c>
     </row>
-    <row r="53" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="53" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -3668,79 +3790,85 @@
       <c r="Y53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>4133500</v>
+      </c>
+      <c r="E54" s="3">
         <v>3615700</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>3519000</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>3551600</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>3745900</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>3468200</v>
       </c>
-      <c r="I54" s="3">
+      <c r="J54" s="3">
         <v>3387400</v>
       </c>
-      <c r="J54" s="3">
+      <c r="K54" s="3">
         <v>3292600</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>3268700</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>3221200</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>2867800</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>2716600</v>
       </c>
-      <c r="O54" s="3">
+      <c r="P54" s="3">
         <v>2771400</v>
       </c>
-      <c r="P54" s="3">
+      <c r="Q54" s="3">
         <v>2796600</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="R54" s="3">
         <v>1645000</v>
       </c>
-      <c r="R54" s="3">
+      <c r="S54" s="3">
         <v>1581500</v>
       </c>
-      <c r="S54" s="3">
+      <c r="T54" s="3">
         <v>1518200</v>
       </c>
-      <c r="T54" s="3">
+      <c r="U54" s="3">
         <v>1507400</v>
       </c>
-      <c r="U54" s="3">
+      <c r="V54" s="3">
         <v>1248400</v>
       </c>
-      <c r="V54" s="3">
+      <c r="W54" s="3">
         <v>1232900</v>
       </c>
-      <c r="W54" s="3">
+      <c r="X54" s="3">
         <v>1244500</v>
       </c>
-      <c r="X54" s="3">
+      <c r="Y54" s="3">
         <v>796700</v>
       </c>
-      <c r="Y54" s="3">
+      <c r="Z54" s="3">
         <v>737500</v>
       </c>
     </row>
-    <row r="55" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -3766,8 +3894,9 @@
       <c r="W55" s="3"/>
       <c r="X55" s="3"/>
       <c r="Y55" s="3"/>
-    </row>
-    <row r="56" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z55" s="3"/>
+    </row>
+    <row r="56" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -3793,138 +3922,142 @@
       <c r="W56" s="3"/>
       <c r="X56" s="3"/>
       <c r="Y56" s="3"/>
-    </row>
-    <row r="57" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z56" s="3"/>
+    </row>
+    <row r="57" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>126800</v>
+      </c>
+      <c r="E57" s="3">
         <v>118200</v>
       </c>
-      <c r="E57" s="3">
+      <c r="F57" s="3">
         <v>101600</v>
       </c>
-      <c r="F57" s="3">
+      <c r="G57" s="3">
         <v>116900</v>
       </c>
-      <c r="G57" s="3">
+      <c r="H57" s="3">
         <v>104700</v>
       </c>
-      <c r="H57" s="3">
+      <c r="I57" s="3">
         <v>111300</v>
       </c>
-      <c r="I57" s="3">
+      <c r="J57" s="3">
         <v>146000</v>
       </c>
-      <c r="J57" s="3">
+      <c r="K57" s="3">
         <v>150800</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>144600</v>
       </c>
-      <c r="L57" s="3">
+      <c r="M57" s="3">
         <v>143700</v>
       </c>
-      <c r="M57" s="3">
+      <c r="N57" s="3">
         <v>152200</v>
       </c>
-      <c r="N57" s="3">
+      <c r="O57" s="3">
         <v>160800</v>
       </c>
-      <c r="O57" s="3">
+      <c r="P57" s="3">
         <v>204100</v>
       </c>
-      <c r="P57" s="3">
+      <c r="Q57" s="3">
         <v>199200</v>
       </c>
-      <c r="Q57" s="3">
+      <c r="R57" s="3">
         <v>127600</v>
       </c>
-      <c r="R57" s="3">
+      <c r="S57" s="3">
         <v>126500</v>
       </c>
-      <c r="S57" s="3">
+      <c r="T57" s="3">
         <v>100900</v>
       </c>
-      <c r="T57" s="3">
+      <c r="U57" s="3">
         <v>113000</v>
       </c>
-      <c r="U57" s="3">
+      <c r="V57" s="3">
         <v>111600</v>
       </c>
-      <c r="V57" s="3">
+      <c r="W57" s="3">
         <v>114800</v>
       </c>
-      <c r="W57" s="3">
+      <c r="X57" s="3">
         <v>118400</v>
       </c>
-      <c r="X57" s="3">
+      <c r="Y57" s="3">
         <v>127800</v>
       </c>
-      <c r="Y57" s="3">
+      <c r="Z57" s="3">
         <v>108300</v>
       </c>
     </row>
-    <row r="58" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
+        <v>406100</v>
+      </c>
+      <c r="E58" s="3">
         <v>401000</v>
       </c>
-      <c r="E58" s="3">
+      <c r="F58" s="3">
         <v>395800</v>
       </c>
-      <c r="F58" s="3">
+      <c r="G58" s="3">
         <v>390700</v>
       </c>
-      <c r="G58" s="3">
+      <c r="H58" s="3">
         <v>385400</v>
       </c>
-      <c r="H58" s="3">
+      <c r="I58" s="3">
         <v>380600</v>
       </c>
-      <c r="I58" s="3">
+      <c r="J58" s="3">
         <v>400</v>
       </c>
-      <c r="J58" s="3">
+      <c r="K58" s="3">
         <v>600</v>
       </c>
-      <c r="K58" s="3">
+      <c r="L58" s="3">
         <v>3900</v>
       </c>
-      <c r="L58" s="3">
+      <c r="M58" s="3">
         <v>7100</v>
       </c>
-      <c r="M58" s="3">
+      <c r="N58" s="3">
         <v>15900</v>
       </c>
-      <c r="N58" s="3">
+      <c r="O58" s="3">
         <v>5400</v>
       </c>
-      <c r="O58" s="3">
+      <c r="P58" s="3">
         <v>5800</v>
       </c>
-      <c r="P58" s="3">
+      <c r="Q58" s="3">
         <v>8700</v>
       </c>
-      <c r="Q58" s="3">
+      <c r="R58" s="3">
         <v>5400</v>
       </c>
-      <c r="R58" s="3">
+      <c r="S58" s="3">
         <v>7300</v>
       </c>
-      <c r="S58" s="3">
+      <c r="T58" s="3">
         <v>9200</v>
       </c>
-      <c r="T58" s="3">
+      <c r="U58" s="3">
         <v>9100</v>
       </c>
-      <c r="U58" s="3">
+      <c r="V58" s="3">
         <v>4900</v>
-      </c>
-      <c r="V58" s="3" t="s">
-        <v>17</v>
       </c>
       <c r="W58" s="3" t="s">
         <v>17</v>
@@ -3935,292 +4068,307 @@
       <c r="Y58" s="3" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="59" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z58" s="3" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="59" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>127800</v>
+      </c>
+      <c r="E59" s="3">
         <v>137500</v>
       </c>
-      <c r="E59" s="3">
+      <c r="F59" s="3">
         <v>114300</v>
       </c>
-      <c r="F59" s="3">
+      <c r="G59" s="3">
         <v>157000</v>
       </c>
-      <c r="G59" s="3">
+      <c r="H59" s="3">
         <v>184100</v>
       </c>
-      <c r="H59" s="3">
+      <c r="I59" s="3">
         <v>155400</v>
       </c>
-      <c r="I59" s="3">
+      <c r="J59" s="3">
         <v>147000</v>
       </c>
-      <c r="J59" s="3">
+      <c r="K59" s="3">
         <v>131600</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>138200</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>153400</v>
       </c>
-      <c r="M59" s="3">
+      <c r="N59" s="3">
         <v>148700</v>
       </c>
-      <c r="N59" s="3">
+      <c r="O59" s="3">
         <v>127800</v>
       </c>
-      <c r="O59" s="3">
+      <c r="P59" s="3">
         <v>148100</v>
       </c>
-      <c r="P59" s="3">
+      <c r="Q59" s="3">
         <v>117600</v>
       </c>
-      <c r="Q59" s="3">
+      <c r="R59" s="3">
         <v>80900</v>
       </c>
-      <c r="R59" s="3">
+      <c r="S59" s="3">
         <v>80200</v>
       </c>
-      <c r="S59" s="3">
+      <c r="T59" s="3">
         <v>81400</v>
       </c>
-      <c r="T59" s="3">
+      <c r="U59" s="3">
         <v>95600</v>
       </c>
-      <c r="U59" s="3">
+      <c r="V59" s="3">
         <v>60700</v>
       </c>
-      <c r="V59" s="3">
+      <c r="W59" s="3">
         <v>69400</v>
       </c>
-      <c r="W59" s="3">
+      <c r="X59" s="3">
         <v>73700</v>
       </c>
-      <c r="X59" s="3">
+      <c r="Y59" s="3">
         <v>74200</v>
       </c>
-      <c r="Y59" s="3">
+      <c r="Z59" s="3">
         <v>55200</v>
       </c>
     </row>
-    <row r="60" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>660700</v>
+      </c>
+      <c r="E60" s="3">
         <v>656700</v>
       </c>
-      <c r="E60" s="3">
+      <c r="F60" s="3">
         <v>611700</v>
       </c>
-      <c r="F60" s="3">
+      <c r="G60" s="3">
         <v>664600</v>
       </c>
-      <c r="G60" s="3">
+      <c r="H60" s="3">
         <v>674200</v>
       </c>
-      <c r="H60" s="3">
+      <c r="I60" s="3">
         <v>647300</v>
       </c>
-      <c r="I60" s="3">
+      <c r="J60" s="3">
         <v>293400</v>
       </c>
-      <c r="J60" s="3">
+      <c r="K60" s="3">
         <v>283000</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>286700</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>304200</v>
       </c>
-      <c r="M60" s="3">
+      <c r="N60" s="3">
         <v>316800</v>
       </c>
-      <c r="N60" s="3">
+      <c r="O60" s="3">
         <v>294000</v>
       </c>
-      <c r="O60" s="3">
+      <c r="P60" s="3">
         <v>358000</v>
       </c>
-      <c r="P60" s="3">
+      <c r="Q60" s="3">
         <v>325500</v>
       </c>
-      <c r="Q60" s="3">
+      <c r="R60" s="3">
         <v>213900</v>
       </c>
-      <c r="R60" s="3">
+      <c r="S60" s="3">
         <v>214000</v>
       </c>
-      <c r="S60" s="3">
+      <c r="T60" s="3">
         <v>191500</v>
       </c>
-      <c r="T60" s="3">
+      <c r="U60" s="3">
         <v>217700</v>
       </c>
-      <c r="U60" s="3">
+      <c r="V60" s="3">
         <v>177200</v>
       </c>
-      <c r="V60" s="3">
+      <c r="W60" s="3">
         <v>184200</v>
       </c>
-      <c r="W60" s="3">
+      <c r="X60" s="3">
         <v>192100</v>
       </c>
-      <c r="X60" s="3">
+      <c r="Y60" s="3">
         <v>202000</v>
       </c>
-      <c r="Y60" s="3">
+      <c r="Z60" s="3">
         <v>163500</v>
       </c>
     </row>
-    <row r="61" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
+        <v>1447600</v>
+      </c>
+      <c r="E61" s="3">
         <v>810300</v>
       </c>
-      <c r="E61" s="3">
+      <c r="F61" s="3">
         <v>800000</v>
       </c>
-      <c r="F61" s="3">
+      <c r="G61" s="3">
         <v>789800</v>
       </c>
-      <c r="G61" s="3">
+      <c r="H61" s="3">
         <v>778900</v>
       </c>
-      <c r="H61" s="3">
+      <c r="I61" s="3">
         <v>769100</v>
       </c>
-      <c r="I61" s="3">
+      <c r="J61" s="3">
         <v>1134700</v>
       </c>
-      <c r="J61" s="3">
+      <c r="K61" s="3">
         <v>1120300</v>
       </c>
-      <c r="K61" s="3">
+      <c r="L61" s="3">
         <v>1106100</v>
       </c>
-      <c r="L61" s="3">
+      <c r="M61" s="3">
         <v>1092200</v>
       </c>
-      <c r="M61" s="3">
+      <c r="N61" s="3">
         <v>840000</v>
       </c>
-      <c r="N61" s="3">
+      <c r="O61" s="3">
         <v>835900</v>
       </c>
-      <c r="O61" s="3">
+      <c r="P61" s="3">
         <v>832400</v>
       </c>
-      <c r="P61" s="3">
+      <c r="Q61" s="3">
         <v>829200</v>
       </c>
-      <c r="Q61" s="3">
+      <c r="R61" s="3">
         <v>338500</v>
       </c>
-      <c r="R61" s="3">
+      <c r="S61" s="3">
         <v>334600</v>
       </c>
-      <c r="S61" s="3">
+      <c r="T61" s="3">
         <v>330700</v>
       </c>
-      <c r="T61" s="3">
+      <c r="U61" s="3">
         <v>328800</v>
       </c>
-      <c r="U61" s="3">
+      <c r="V61" s="3">
         <v>324000</v>
       </c>
-      <c r="V61" s="3">
+      <c r="W61" s="3">
         <v>317500</v>
       </c>
-      <c r="W61" s="3">
+      <c r="X61" s="3">
         <v>313400</v>
       </c>
-      <c r="X61" s="3">
-        <v>0</v>
-      </c>
       <c r="Y61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
+        <v>113100</v>
+      </c>
+      <c r="E62" s="3">
         <v>126800</v>
       </c>
-      <c r="E62" s="3">
+      <c r="F62" s="3">
         <v>135900</v>
       </c>
-      <c r="F62" s="3">
+      <c r="G62" s="3">
         <v>124400</v>
       </c>
-      <c r="G62" s="3">
+      <c r="H62" s="3">
         <v>127800</v>
       </c>
-      <c r="H62" s="3">
+      <c r="I62" s="3">
         <v>129900</v>
       </c>
-      <c r="I62" s="3">
+      <c r="J62" s="3">
         <v>143200</v>
       </c>
-      <c r="J62" s="3">
+      <c r="K62" s="3">
         <v>140100</v>
       </c>
-      <c r="K62" s="3">
+      <c r="L62" s="3">
         <v>141700</v>
       </c>
-      <c r="L62" s="3">
+      <c r="M62" s="3">
         <v>143200</v>
       </c>
-      <c r="M62" s="3">
+      <c r="N62" s="3">
         <v>149700</v>
       </c>
-      <c r="N62" s="3">
+      <c r="O62" s="3">
         <v>89600</v>
       </c>
-      <c r="O62" s="3">
+      <c r="P62" s="3">
         <v>77100</v>
       </c>
-      <c r="P62" s="3">
+      <c r="Q62" s="3">
         <v>82200</v>
       </c>
-      <c r="Q62" s="3">
+      <c r="R62" s="3">
         <v>73300</v>
       </c>
-      <c r="R62" s="3">
+      <c r="S62" s="3">
         <v>71000</v>
       </c>
-      <c r="S62" s="3">
+      <c r="T62" s="3">
         <v>83600</v>
       </c>
-      <c r="T62" s="3">
+      <c r="U62" s="3">
         <v>60800</v>
       </c>
-      <c r="U62" s="3">
+      <c r="V62" s="3">
         <v>70300</v>
       </c>
-      <c r="V62" s="3">
+      <c r="W62" s="3">
         <v>76600</v>
       </c>
-      <c r="W62" s="3">
+      <c r="X62" s="3">
         <v>234600</v>
-      </c>
-      <c r="X62" s="3">
-        <v>42500</v>
       </c>
       <c r="Y62" s="3">
         <v>42500</v>
       </c>
-    </row>
-    <row r="63" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z62" s="3">
+        <v>42500</v>
+      </c>
+    </row>
+    <row r="63" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -4290,8 +4438,11 @@
       <c r="Y63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -4361,8 +4512,11 @@
       <c r="Y64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -4432,79 +4586,85 @@
       <c r="Y65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>2221400</v>
+      </c>
+      <c r="E66" s="3">
         <v>1593800</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>1547600</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>1578800</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>1580900</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>1546300</v>
       </c>
-      <c r="I66" s="3">
+      <c r="J66" s="3">
         <v>1571300</v>
       </c>
-      <c r="J66" s="3">
+      <c r="K66" s="3">
         <v>1543400</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>1534500</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>1539600</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>1306500</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>1219500</v>
       </c>
-      <c r="O66" s="3">
+      <c r="P66" s="3">
         <v>1267500</v>
       </c>
-      <c r="P66" s="3">
+      <c r="Q66" s="3">
         <v>1236900</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="R66" s="3">
         <v>661500</v>
       </c>
-      <c r="R66" s="3">
+      <c r="S66" s="3">
         <v>655400</v>
       </c>
-      <c r="S66" s="3">
+      <c r="T66" s="3">
         <v>641600</v>
       </c>
-      <c r="T66" s="3">
+      <c r="U66" s="3">
         <v>643100</v>
       </c>
-      <c r="U66" s="3">
+      <c r="V66" s="3">
         <v>607300</v>
       </c>
-      <c r="V66" s="3">
+      <c r="W66" s="3">
         <v>614100</v>
       </c>
-      <c r="W66" s="3">
+      <c r="X66" s="3">
         <v>775900</v>
       </c>
-      <c r="X66" s="3">
+      <c r="Y66" s="3">
         <v>280300</v>
       </c>
-      <c r="Y66" s="3">
+      <c r="Z66" s="3">
         <v>241800</v>
       </c>
     </row>
-    <row r="67" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -4530,8 +4690,9 @@
       <c r="W67" s="3"/>
       <c r="X67" s="3"/>
       <c r="Y67" s="3"/>
-    </row>
-    <row r="68" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z67" s="3"/>
+    </row>
+    <row r="68" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -4601,8 +4762,11 @@
       <c r="Y68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -4672,8 +4836,11 @@
       <c r="Y69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -4743,8 +4910,11 @@
       <c r="Y70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -4814,79 +4984,85 @@
       <c r="Y71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>-60500</v>
+      </c>
+      <c r="E72" s="3">
         <v>237500</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>210700</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>220900</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>440400</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>214900</v>
       </c>
-      <c r="I72" s="3">
+      <c r="J72" s="3">
         <v>131700</v>
       </c>
-      <c r="J72" s="3">
+      <c r="K72" s="3">
         <v>64600</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>69200</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>25800</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>176700</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>129100</v>
       </c>
-      <c r="O72" s="3">
+      <c r="P72" s="3">
         <v>154900</v>
       </c>
-      <c r="P72" s="3">
+      <c r="Q72" s="3">
         <v>229200</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="R72" s="3">
         <v>213000</v>
       </c>
-      <c r="R72" s="3">
+      <c r="S72" s="3">
         <v>166400</v>
       </c>
-      <c r="S72" s="3">
+      <c r="T72" s="3">
         <v>133200</v>
       </c>
-      <c r="T72" s="3">
+      <c r="U72" s="3">
         <v>130700</v>
       </c>
-      <c r="U72" s="3">
+      <c r="V72" s="3">
         <v>-73900</v>
       </c>
-      <c r="V72" s="3">
+      <c r="W72" s="3">
         <v>-83200</v>
       </c>
-      <c r="W72" s="3">
+      <c r="X72" s="3">
         <v>-28000</v>
       </c>
-      <c r="X72" s="3">
+      <c r="Y72" s="3">
         <v>28200</v>
       </c>
-      <c r="Y72" s="3">
+      <c r="Z72" s="3">
         <v>16600</v>
       </c>
     </row>
-    <row r="73" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -4956,8 +5132,11 @@
       <c r="Y73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -5027,8 +5206,11 @@
       <c r="Y74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -5098,79 +5280,85 @@
       <c r="Y75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>1912100</v>
+      </c>
+      <c r="E76" s="3">
         <v>2021900</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>1971400</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>1972800</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>2165000</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>1921900</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>1816100</v>
       </c>
-      <c r="J76" s="3">
+      <c r="K76" s="3">
         <v>1749200</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>1734200</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>1681600</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>1561300</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>1497100</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>1503900</v>
       </c>
-      <c r="P76" s="3">
+      <c r="Q76" s="3">
         <v>1559700</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="R76" s="3">
         <v>983500</v>
       </c>
-      <c r="R76" s="3">
+      <c r="S76" s="3">
         <v>926100</v>
       </c>
-      <c r="S76" s="3">
+      <c r="T76" s="3">
         <v>876600</v>
       </c>
-      <c r="T76" s="3">
+      <c r="U76" s="3">
         <v>864300</v>
       </c>
-      <c r="U76" s="3">
+      <c r="V76" s="3">
         <v>641100</v>
       </c>
-      <c r="V76" s="3">
+      <c r="W76" s="3">
         <v>618800</v>
       </c>
-      <c r="W76" s="3">
+      <c r="X76" s="3">
         <v>468600</v>
       </c>
-      <c r="X76" s="3">
+      <c r="Y76" s="3">
         <v>516400</v>
       </c>
-      <c r="Y76" s="3">
+      <c r="Z76" s="3">
         <v>495700</v>
       </c>
     </row>
-    <row r="77" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -5240,155 +5428,164 @@
       <c r="Y77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:26" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44653</v>
+      </c>
+      <c r="E80" s="2">
         <v>44562</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44471</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44380</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44289</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>44191</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>44100</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>44009</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>43918</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>43827</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>43736</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>43645</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>43554</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>43463</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>43372</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>43281</v>
       </c>
-      <c r="S80" s="2">
+      <c r="T80" s="2">
         <v>43190</v>
       </c>
-      <c r="T80" s="2">
+      <c r="U80" s="2">
         <v>43099</v>
       </c>
-      <c r="U80" s="2">
+      <c r="V80" s="2">
         <v>43008</v>
       </c>
-      <c r="V80" s="2">
+      <c r="W80" s="2">
         <v>42917</v>
       </c>
-      <c r="W80" s="2">
+      <c r="X80" s="2">
         <v>42826</v>
       </c>
-      <c r="X80" s="2">
+      <c r="Y80" s="2">
         <v>42735</v>
       </c>
-      <c r="Y80" s="2">
+      <c r="Z80" s="2">
         <v>42644</v>
       </c>
     </row>
-    <row r="81" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>26000</v>
+      </c>
+      <c r="E81" s="3">
         <v>56700</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="3">
         <v>81500</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>21500</v>
       </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
         <v>225500</v>
       </c>
-      <c r="H81" s="3">
+      <c r="I81" s="3">
         <v>83200</v>
       </c>
-      <c r="I81" s="3">
+      <c r="J81" s="3">
         <v>67100</v>
       </c>
-      <c r="J81" s="3">
+      <c r="K81" s="3">
         <v>-4600</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>43400</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>49100</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>47600</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>-25800</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>-74300</v>
       </c>
-      <c r="P81" s="3">
+      <c r="Q81" s="3">
         <v>16200</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="R81" s="3">
         <v>46100</v>
       </c>
-      <c r="R81" s="3">
+      <c r="S81" s="3">
         <v>32500</v>
       </c>
-      <c r="S81" s="3">
+      <c r="T81" s="3">
         <v>2400</v>
       </c>
-      <c r="T81" s="3">
+      <c r="U81" s="3">
         <v>116800</v>
       </c>
-      <c r="U81" s="3">
+      <c r="V81" s="3">
         <v>6900</v>
       </c>
-      <c r="V81" s="3">
+      <c r="W81" s="3">
         <v>-55200</v>
       </c>
-      <c r="W81" s="3">
+      <c r="X81" s="3">
         <v>-56200</v>
       </c>
-      <c r="X81" s="3">
+      <c r="Y81" s="3">
         <v>11600</v>
       </c>
-      <c r="Y81" s="3">
+      <c r="Z81" s="3">
         <v>-3600</v>
       </c>
     </row>
-    <row r="82" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -5414,79 +5611,83 @@
       <c r="W82" s="3"/>
       <c r="X82" s="3"/>
       <c r="Y82" s="3"/>
-    </row>
-    <row r="83" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z82" s="3"/>
+    </row>
+    <row r="83" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
+        <v>41600</v>
+      </c>
+      <c r="E83" s="3">
         <v>42100</v>
       </c>
-      <c r="E83" s="3">
+      <c r="F83" s="3">
         <v>41800</v>
       </c>
-      <c r="F83" s="3">
+      <c r="G83" s="3">
         <v>43100</v>
       </c>
-      <c r="G83" s="3">
+      <c r="H83" s="3">
         <v>44800</v>
       </c>
-      <c r="H83" s="3">
+      <c r="I83" s="3">
         <v>44700</v>
       </c>
-      <c r="I83" s="3">
+      <c r="J83" s="3">
         <v>44500</v>
       </c>
-      <c r="J83" s="3">
+      <c r="K83" s="3">
         <v>46700</v>
       </c>
-      <c r="K83" s="3">
+      <c r="L83" s="3">
         <v>47500</v>
       </c>
-      <c r="L83" s="3">
+      <c r="M83" s="3">
         <v>47300</v>
       </c>
-      <c r="M83" s="3">
+      <c r="N83" s="3">
         <v>50400</v>
       </c>
-      <c r="N83" s="3">
+      <c r="O83" s="3">
         <v>45100</v>
       </c>
-      <c r="O83" s="3">
+      <c r="P83" s="3">
         <v>60700</v>
       </c>
-      <c r="P83" s="3">
+      <c r="Q83" s="3">
         <v>31200</v>
       </c>
-      <c r="Q83" s="3">
+      <c r="R83" s="3">
         <v>20500</v>
       </c>
-      <c r="R83" s="3">
+      <c r="S83" s="3">
         <v>21500</v>
       </c>
-      <c r="S83" s="3">
+      <c r="T83" s="3">
         <v>19200</v>
       </c>
-      <c r="T83" s="3">
+      <c r="U83" s="3">
         <v>19000</v>
       </c>
-      <c r="U83" s="3">
+      <c r="V83" s="3">
         <v>17500</v>
       </c>
-      <c r="V83" s="3">
+      <c r="W83" s="3">
         <v>16500</v>
       </c>
-      <c r="W83" s="3">
+      <c r="X83" s="3">
         <v>15900</v>
       </c>
-      <c r="X83" s="3">
+      <c r="Y83" s="3">
         <v>14900</v>
       </c>
-      <c r="Y83" s="3">
+      <c r="Z83" s="3">
         <v>13700</v>
       </c>
     </row>
-    <row r="84" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="84" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -5556,8 +5757,11 @@
       <c r="Y84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -5627,8 +5831,11 @@
       <c r="Y85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -5698,8 +5905,11 @@
       <c r="Y86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -5769,8 +5979,11 @@
       <c r="Y87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -5840,79 +6053,85 @@
       <c r="Y88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>76600</v>
+      </c>
+      <c r="E89" s="3">
         <v>206500</v>
       </c>
-      <c r="E89" s="3">
+      <c r="F89" s="3">
         <v>61900</v>
       </c>
-      <c r="F89" s="3">
+      <c r="G89" s="3">
         <v>124200</v>
       </c>
-      <c r="G89" s="3">
+      <c r="H89" s="3">
         <v>381300</v>
       </c>
-      <c r="H89" s="3">
+      <c r="I89" s="3">
         <v>128500</v>
       </c>
-      <c r="I89" s="3">
+      <c r="J89" s="3">
         <v>104700</v>
       </c>
-      <c r="J89" s="3">
+      <c r="K89" s="3">
         <v>122700</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>151800</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>162300</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>87500</v>
       </c>
-      <c r="N89" s="3">
+      <c r="O89" s="3">
         <v>127700</v>
       </c>
-      <c r="O89" s="3">
+      <c r="P89" s="3">
         <v>42800</v>
       </c>
-      <c r="P89" s="3">
+      <c r="Q89" s="3">
         <v>102400</v>
       </c>
-      <c r="Q89" s="3">
+      <c r="R89" s="3">
         <v>57200</v>
       </c>
-      <c r="R89" s="3">
+      <c r="S89" s="3">
         <v>37600</v>
       </c>
-      <c r="S89" s="3">
+      <c r="T89" s="3">
         <v>95100</v>
       </c>
-      <c r="T89" s="3">
+      <c r="U89" s="3">
         <v>105100</v>
       </c>
-      <c r="U89" s="3">
+      <c r="V89" s="3">
         <v>9700</v>
       </c>
-      <c r="V89" s="3">
+      <c r="W89" s="3">
         <v>13100</v>
       </c>
-      <c r="W89" s="3">
+      <c r="X89" s="3">
         <v>16400</v>
       </c>
-      <c r="X89" s="3">
+      <c r="Y89" s="3">
         <v>19200</v>
       </c>
-      <c r="Y89" s="3">
+      <c r="Z89" s="3">
         <v>36300</v>
       </c>
     </row>
-    <row r="90" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -5938,79 +6157,83 @@
       <c r="W90" s="3"/>
       <c r="X90" s="3"/>
       <c r="Y90" s="3"/>
-    </row>
-    <row r="91" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z90" s="3"/>
+    </row>
+    <row r="91" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
+        <v>-18600</v>
+      </c>
+      <c r="E91" s="3">
         <v>-26100</v>
       </c>
-      <c r="E91" s="3">
+      <c r="F91" s="3">
         <v>-17900</v>
       </c>
-      <c r="F91" s="3">
-        <v>0</v>
-      </c>
       <c r="G91" s="3">
         <v>0</v>
       </c>
       <c r="H91" s="3">
+        <v>0</v>
+      </c>
+      <c r="I91" s="3">
         <v>16300</v>
       </c>
-      <c r="I91" s="3">
+      <c r="J91" s="3">
         <v>-26300</v>
       </c>
-      <c r="J91" s="3">
-        <v>0</v>
-      </c>
       <c r="K91" s="3">
+        <v>0</v>
+      </c>
+      <c r="L91" s="3">
         <v>-1000</v>
       </c>
-      <c r="L91" s="3">
+      <c r="M91" s="3">
         <v>-2000</v>
       </c>
-      <c r="M91" s="3">
+      <c r="N91" s="3">
         <v>-1000</v>
       </c>
-      <c r="N91" s="3">
-        <v>0</v>
-      </c>
       <c r="O91" s="3">
+        <v>0</v>
+      </c>
+      <c r="P91" s="3">
         <v>-600</v>
       </c>
-      <c r="P91" s="3">
-        <v>0</v>
-      </c>
       <c r="Q91" s="3">
+        <v>0</v>
+      </c>
+      <c r="R91" s="3">
         <v>-700</v>
       </c>
-      <c r="R91" s="3">
+      <c r="S91" s="3">
         <v>-20300</v>
       </c>
-      <c r="S91" s="3">
+      <c r="T91" s="3">
         <v>-22700</v>
       </c>
-      <c r="T91" s="3">
+      <c r="U91" s="3">
         <v>-17200</v>
       </c>
-      <c r="U91" s="3">
+      <c r="V91" s="3">
         <v>-33000</v>
       </c>
-      <c r="V91" s="3">
+      <c r="W91" s="3">
         <v>-38100</v>
       </c>
-      <c r="W91" s="3">
+      <c r="X91" s="3">
         <v>-35700</v>
       </c>
-      <c r="X91" s="3">
+      <c r="Y91" s="3">
         <v>-35400</v>
       </c>
-      <c r="Y91" s="3">
+      <c r="Z91" s="3">
         <v>-28900</v>
       </c>
     </row>
-    <row r="92" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="92" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -6080,8 +6303,11 @@
       <c r="Y92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -6151,79 +6377,85 @@
       <c r="Y93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
+        <v>-23200</v>
+      </c>
+      <c r="E94" s="3">
         <v>-228900</v>
       </c>
-      <c r="E94" s="3">
+      <c r="F94" s="3">
         <v>-116900</v>
       </c>
-      <c r="F94" s="3">
+      <c r="G94" s="3">
         <v>197300</v>
       </c>
-      <c r="G94" s="3">
+      <c r="H94" s="3">
         <v>-7300</v>
       </c>
-      <c r="H94" s="3">
+      <c r="I94" s="3">
         <v>-75000</v>
       </c>
-      <c r="I94" s="3">
+      <c r="J94" s="3">
         <v>-114000</v>
       </c>
-      <c r="J94" s="3">
+      <c r="K94" s="3">
         <v>-509800</v>
       </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3">
         <v>-535700</v>
       </c>
-      <c r="L94" s="3">
+      <c r="M94" s="3">
         <v>36100</v>
       </c>
-      <c r="M94" s="3">
+      <c r="N94" s="3">
         <v>21700</v>
       </c>
-      <c r="N94" s="3">
+      <c r="O94" s="3">
         <v>-54400</v>
       </c>
-      <c r="O94" s="3">
+      <c r="P94" s="3">
         <v>-52900</v>
       </c>
-      <c r="P94" s="3">
+      <c r="Q94" s="3">
         <v>-681900</v>
       </c>
-      <c r="Q94" s="3">
+      <c r="R94" s="3">
         <v>9500</v>
       </c>
-      <c r="R94" s="3">
+      <c r="S94" s="3">
         <v>181700</v>
       </c>
-      <c r="S94" s="3">
+      <c r="T94" s="3">
         <v>-117600</v>
       </c>
-      <c r="T94" s="3">
+      <c r="U94" s="3">
         <v>-58600</v>
       </c>
-      <c r="U94" s="3">
+      <c r="V94" s="3">
         <v>-132500</v>
       </c>
-      <c r="V94" s="3">
+      <c r="W94" s="3">
         <v>-320600</v>
       </c>
-      <c r="W94" s="3">
+      <c r="X94" s="3">
         <v>-40800</v>
       </c>
-      <c r="X94" s="3">
+      <c r="Y94" s="3">
         <v>-35400</v>
       </c>
-      <c r="Y94" s="3">
+      <c r="Z94" s="3">
         <v>-28900</v>
       </c>
     </row>
-    <row r="95" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="95" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -6249,8 +6481,9 @@
       <c r="W95" s="3"/>
       <c r="X95" s="3"/>
       <c r="Y95" s="3"/>
-    </row>
-    <row r="96" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z95" s="3"/>
+    </row>
+    <row r="96" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -6320,8 +6553,11 @@
       <c r="Y96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -6391,8 +6627,11 @@
       <c r="Y97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -6462,8 +6701,11 @@
       <c r="Y98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -6533,79 +6775,85 @@
       <c r="Y99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>524900</v>
+      </c>
+      <c r="E100" s="3">
         <v>-36600</v>
       </c>
-      <c r="E100" s="3">
+      <c r="F100" s="3">
         <v>-108300</v>
       </c>
-      <c r="F100" s="3">
+      <c r="G100" s="3">
         <v>-234900</v>
       </c>
-      <c r="G100" s="3">
+      <c r="H100" s="3">
         <v>-7600</v>
       </c>
-      <c r="H100" s="3">
+      <c r="I100" s="3">
         <v>-1700</v>
       </c>
-      <c r="I100" s="3">
+      <c r="J100" s="3">
         <v>-19200</v>
       </c>
-      <c r="J100" s="3">
+      <c r="K100" s="3">
         <v>-3700</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>-12300</v>
       </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
         <v>347600</v>
       </c>
-      <c r="M100" s="3">
+      <c r="N100" s="3">
         <v>-2800</v>
       </c>
-      <c r="N100" s="3">
+      <c r="O100" s="3">
         <v>1000</v>
       </c>
-      <c r="O100" s="3">
+      <c r="P100" s="3">
         <v>-2900</v>
       </c>
-      <c r="P100" s="3">
+      <c r="Q100" s="3">
         <v>491600</v>
       </c>
-      <c r="Q100" s="3">
+      <c r="R100" s="3">
         <v>-4600</v>
       </c>
-      <c r="R100" s="3">
+      <c r="S100" s="3">
         <v>1900</v>
       </c>
-      <c r="S100" s="3">
+      <c r="T100" s="3">
         <v>-2800</v>
       </c>
-      <c r="T100" s="3">
+      <c r="U100" s="3">
         <v>4400</v>
       </c>
-      <c r="U100" s="3">
+      <c r="V100" s="3">
         <v>300</v>
       </c>
-      <c r="V100" s="3">
+      <c r="W100" s="3">
         <v>2000</v>
       </c>
-      <c r="W100" s="3">
+      <c r="X100" s="3">
         <v>445700</v>
       </c>
-      <c r="X100" s="3">
+      <c r="Y100" s="3">
         <v>6700</v>
       </c>
-      <c r="Y100" s="3">
+      <c r="Z100" s="3">
         <v>2300</v>
       </c>
     </row>
-    <row r="101" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -6646,104 +6894,110 @@
         <v>0</v>
       </c>
       <c r="P101" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q101" s="3">
         <v>-200</v>
       </c>
-      <c r="Q101" s="3">
-        <v>0</v>
-      </c>
       <c r="R101" s="3">
+        <v>0</v>
+      </c>
+      <c r="S101" s="3">
         <v>-700</v>
       </c>
-      <c r="S101" s="3">
-        <v>0</v>
-      </c>
       <c r="T101" s="3">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="U101" s="3">
         <v>400</v>
       </c>
       <c r="V101" s="3">
+        <v>400</v>
+      </c>
+      <c r="W101" s="3">
         <v>500</v>
       </c>
-      <c r="W101" s="3">
+      <c r="X101" s="3">
         <v>700</v>
       </c>
-      <c r="X101" s="3">
+      <c r="Y101" s="3">
         <v>-1400</v>
       </c>
-      <c r="Y101" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="102" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>578300</v>
+      </c>
+      <c r="E102" s="3">
         <v>-59000</v>
       </c>
-      <c r="E102" s="3">
+      <c r="F102" s="3">
         <v>-163300</v>
       </c>
-      <c r="F102" s="3">
+      <c r="G102" s="3">
         <v>86600</v>
       </c>
-      <c r="G102" s="3">
+      <c r="H102" s="3">
         <v>366400</v>
       </c>
-      <c r="H102" s="3">
+      <c r="I102" s="3">
         <v>51800</v>
       </c>
-      <c r="I102" s="3">
+      <c r="J102" s="3">
         <v>-28500</v>
       </c>
-      <c r="J102" s="3">
+      <c r="K102" s="3">
         <v>-390800</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>-396200</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>546000</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>106400</v>
       </c>
-      <c r="N102" s="3">
+      <c r="O102" s="3">
         <v>74300</v>
       </c>
-      <c r="O102" s="3">
+      <c r="P102" s="3">
         <v>-13000</v>
       </c>
-      <c r="P102" s="3">
+      <c r="Q102" s="3">
         <v>-88100</v>
       </c>
-      <c r="Q102" s="3">
+      <c r="R102" s="3">
         <v>62100</v>
       </c>
-      <c r="R102" s="3">
+      <c r="S102" s="3">
         <v>220500</v>
       </c>
-      <c r="S102" s="3">
+      <c r="T102" s="3">
         <v>-25300</v>
       </c>
-      <c r="T102" s="3">
+      <c r="U102" s="3">
         <v>51300</v>
       </c>
-      <c r="U102" s="3">
+      <c r="V102" s="3">
         <v>-122100</v>
       </c>
-      <c r="V102" s="3">
+      <c r="W102" s="3">
         <v>-305000</v>
       </c>
-      <c r="W102" s="3">
+      <c r="X102" s="3">
         <v>422000</v>
       </c>
-      <c r="X102" s="3">
+      <c r="Y102" s="3">
         <v>-10900</v>
       </c>
-      <c r="Y102" s="3">
+      <c r="Z102" s="3">
         <v>9700</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/LITE_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/LITE_QTR_FIN.xlsx
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:Z102"/>
+  <dimension ref="A5:AA102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,330 +665,342 @@
     <col min="1" max="1" width="6.42578125" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="8" width="13" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="10" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="14" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="18" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="21" max="22" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="23" max="24" width="13" style="1" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="26" max="26" width="12.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="27" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="9" width="13" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="11" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="15" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="19" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="22" max="23" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="24" max="25" width="13" style="1" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="27" max="27" width="12.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="28" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:27" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:27" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44744</v>
+      </c>
+      <c r="E7" s="2">
         <v>44653</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44562</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44471</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44380</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>44289</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>44191</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>44100</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>44009</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>43918</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>43827</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>43736</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>43645</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>43554</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>43463</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>43372</v>
       </c>
-      <c r="S7" s="2">
+      <c r="T7" s="2">
         <v>43281</v>
       </c>
-      <c r="T7" s="2">
+      <c r="U7" s="2">
         <v>43190</v>
       </c>
-      <c r="U7" s="2">
+      <c r="V7" s="2">
         <v>43099</v>
       </c>
-      <c r="V7" s="2">
+      <c r="W7" s="2">
         <v>43008</v>
       </c>
-      <c r="W7" s="2">
+      <c r="X7" s="2">
         <v>42917</v>
       </c>
-      <c r="X7" s="2">
+      <c r="Y7" s="2">
         <v>42826</v>
       </c>
-      <c r="Y7" s="2">
+      <c r="Z7" s="2">
         <v>42735</v>
       </c>
-      <c r="Z7" s="2">
+      <c r="AA7" s="2">
         <v>42644</v>
       </c>
     </row>
-    <row r="8" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:27" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
+        <v>422100</v>
+      </c>
+      <c r="E8" s="3">
         <v>395400</v>
       </c>
-      <c r="E8" s="3">
+      <c r="F8" s="3">
         <v>446700</v>
       </c>
-      <c r="F8" s="3">
+      <c r="G8" s="3">
         <v>448400</v>
       </c>
-      <c r="G8" s="3">
+      <c r="H8" s="3">
         <v>392100</v>
       </c>
-      <c r="H8" s="3">
+      <c r="I8" s="3">
         <v>419500</v>
       </c>
-      <c r="I8" s="3">
+      <c r="J8" s="3">
         <v>478800</v>
       </c>
-      <c r="J8" s="3">
+      <c r="K8" s="3">
         <v>452400</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>368100</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>402800</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>457800</v>
       </c>
-      <c r="N8" s="3">
+      <c r="O8" s="3">
         <v>449900</v>
       </c>
-      <c r="O8" s="3">
+      <c r="P8" s="3">
         <v>404600</v>
       </c>
-      <c r="P8" s="3">
+      <c r="Q8" s="3">
         <v>432900</v>
       </c>
-      <c r="Q8" s="3">
+      <c r="R8" s="3">
         <v>373700</v>
       </c>
-      <c r="R8" s="3">
+      <c r="S8" s="3">
         <v>354100</v>
       </c>
-      <c r="S8" s="3">
+      <c r="T8" s="3">
         <v>301100</v>
       </c>
-      <c r="T8" s="3">
+      <c r="U8" s="3">
         <v>298800</v>
       </c>
-      <c r="U8" s="3">
+      <c r="V8" s="3">
         <v>404600</v>
       </c>
-      <c r="V8" s="3">
+      <c r="W8" s="3">
         <v>243200</v>
       </c>
-      <c r="W8" s="3">
+      <c r="X8" s="3">
         <v>222700</v>
       </c>
-      <c r="X8" s="3">
+      <c r="Y8" s="3">
         <v>255800</v>
       </c>
-      <c r="Y8" s="3">
+      <c r="Z8" s="3">
         <v>265000</v>
       </c>
-      <c r="Z8" s="3">
+      <c r="AA8" s="3">
         <v>258100</v>
       </c>
     </row>
-    <row r="9" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:27" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
+        <v>240400</v>
+      </c>
+      <c r="E9" s="3">
         <v>228200</v>
       </c>
-      <c r="E9" s="3">
+      <c r="F9" s="3">
         <v>239200</v>
       </c>
-      <c r="F9" s="3">
+      <c r="G9" s="3">
         <v>216200</v>
       </c>
-      <c r="G9" s="3">
+      <c r="H9" s="3">
         <v>229300</v>
       </c>
-      <c r="H9" s="3">
+      <c r="I9" s="3">
         <v>234500</v>
       </c>
-      <c r="I9" s="3">
+      <c r="J9" s="3">
         <v>249200</v>
       </c>
-      <c r="J9" s="3">
+      <c r="K9" s="3">
         <v>246700</v>
       </c>
-      <c r="K9" s="3">
+      <c r="L9" s="3">
         <v>232400</v>
       </c>
-      <c r="L9" s="3">
+      <c r="M9" s="3">
         <v>245100</v>
       </c>
-      <c r="M9" s="3">
+      <c r="N9" s="3">
         <v>268700</v>
       </c>
-      <c r="N9" s="3">
+      <c r="O9" s="3">
         <v>282200</v>
       </c>
-      <c r="O9" s="3">
+      <c r="P9" s="3">
         <v>317800</v>
       </c>
-      <c r="P9" s="3">
+      <c r="Q9" s="3">
         <v>344600</v>
       </c>
-      <c r="Q9" s="3">
+      <c r="R9" s="3">
         <v>248900</v>
       </c>
-      <c r="R9" s="3">
+      <c r="S9" s="3">
         <v>228100</v>
       </c>
-      <c r="S9" s="3">
+      <c r="T9" s="3">
         <v>205600</v>
       </c>
-      <c r="T9" s="3">
+      <c r="U9" s="3">
         <v>201800</v>
       </c>
-      <c r="U9" s="3">
+      <c r="V9" s="3">
         <v>233500</v>
       </c>
-      <c r="V9" s="3">
+      <c r="W9" s="3">
         <v>174700</v>
       </c>
-      <c r="W9" s="3">
+      <c r="X9" s="3">
         <v>155400</v>
       </c>
-      <c r="X9" s="3">
+      <c r="Y9" s="3">
         <v>173700</v>
       </c>
-      <c r="Y9" s="3">
+      <c r="Z9" s="3">
         <v>178000</v>
       </c>
-      <c r="Z9" s="3">
+      <c r="AA9" s="3">
         <v>176400</v>
       </c>
     </row>
-    <row r="10" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:27" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
+        <v>181700</v>
+      </c>
+      <c r="E10" s="3">
         <v>167200</v>
       </c>
-      <c r="E10" s="3">
+      <c r="F10" s="3">
         <v>207500</v>
       </c>
-      <c r="F10" s="3">
+      <c r="G10" s="3">
         <v>232200</v>
       </c>
-      <c r="G10" s="3">
+      <c r="H10" s="3">
         <v>162800</v>
       </c>
-      <c r="H10" s="3">
+      <c r="I10" s="3">
         <v>185000</v>
       </c>
-      <c r="I10" s="3">
+      <c r="J10" s="3">
         <v>229600</v>
       </c>
-      <c r="J10" s="3">
+      <c r="K10" s="3">
         <v>205700</v>
       </c>
-      <c r="K10" s="3">
+      <c r="L10" s="3">
         <v>135700</v>
       </c>
-      <c r="L10" s="3">
+      <c r="M10" s="3">
         <v>157700</v>
       </c>
-      <c r="M10" s="3">
+      <c r="N10" s="3">
         <v>189100</v>
       </c>
-      <c r="N10" s="3">
+      <c r="O10" s="3">
         <v>167700</v>
       </c>
-      <c r="O10" s="3">
+      <c r="P10" s="3">
         <v>86800</v>
       </c>
-      <c r="P10" s="3">
+      <c r="Q10" s="3">
         <v>88300</v>
       </c>
-      <c r="Q10" s="3">
+      <c r="R10" s="3">
         <v>124800</v>
       </c>
-      <c r="R10" s="3">
+      <c r="S10" s="3">
         <v>126000</v>
       </c>
-      <c r="S10" s="3">
+      <c r="T10" s="3">
         <v>95500</v>
       </c>
-      <c r="T10" s="3">
+      <c r="U10" s="3">
         <v>97000</v>
       </c>
-      <c r="U10" s="3">
+      <c r="V10" s="3">
         <v>171100</v>
       </c>
-      <c r="V10" s="3">
+      <c r="W10" s="3">
         <v>68500</v>
       </c>
-      <c r="W10" s="3">
+      <c r="X10" s="3">
         <v>67300</v>
       </c>
-      <c r="X10" s="3">
+      <c r="Y10" s="3">
         <v>82100</v>
       </c>
-      <c r="Y10" s="3">
+      <c r="Z10" s="3">
         <v>87000</v>
       </c>
-      <c r="Z10" s="3">
+      <c r="AA10" s="3">
         <v>81700</v>
       </c>
     </row>
-    <row r="11" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:27" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -1015,8 +1027,9 @@
       <c r="X11" s="3"/>
       <c r="Y11" s="3"/>
       <c r="Z11" s="3"/>
-    </row>
-    <row r="12" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="AA11" s="3"/>
+    </row>
+    <row r="12" spans="1:27" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
@@ -1024,73 +1037,76 @@
         <v>56700</v>
       </c>
       <c r="E12" s="3">
+        <v>56700</v>
+      </c>
+      <c r="F12" s="3">
         <v>53200</v>
-      </c>
-      <c r="F12" s="3">
-        <v>54100</v>
       </c>
       <c r="G12" s="3">
         <v>54100</v>
       </c>
       <c r="H12" s="3">
+        <v>54100</v>
+      </c>
+      <c r="I12" s="3">
         <v>57200</v>
       </c>
-      <c r="I12" s="3">
+      <c r="J12" s="3">
         <v>52800</v>
       </c>
-      <c r="J12" s="3">
+      <c r="K12" s="3">
         <v>50400</v>
       </c>
-      <c r="K12" s="3">
+      <c r="L12" s="3">
         <v>49000</v>
       </c>
-      <c r="L12" s="3">
+      <c r="M12" s="3">
         <v>48700</v>
       </c>
-      <c r="M12" s="3">
+      <c r="N12" s="3">
         <v>51000</v>
       </c>
-      <c r="N12" s="3">
+      <c r="O12" s="3">
         <v>49900</v>
       </c>
-      <c r="O12" s="3">
+      <c r="P12" s="3">
         <v>49500</v>
       </c>
-      <c r="P12" s="3">
+      <c r="Q12" s="3">
         <v>57700</v>
       </c>
-      <c r="Q12" s="3">
+      <c r="R12" s="3">
         <v>42800</v>
       </c>
-      <c r="R12" s="3">
+      <c r="S12" s="3">
         <v>34600</v>
       </c>
-      <c r="S12" s="3">
+      <c r="T12" s="3">
         <v>38500</v>
       </c>
-      <c r="T12" s="3">
+      <c r="U12" s="3">
         <v>38200</v>
       </c>
-      <c r="U12" s="3">
+      <c r="V12" s="3">
         <v>43800</v>
       </c>
-      <c r="V12" s="3">
+      <c r="W12" s="3">
         <v>36300</v>
       </c>
-      <c r="W12" s="3">
+      <c r="X12" s="3">
         <v>35400</v>
       </c>
-      <c r="X12" s="3">
+      <c r="Y12" s="3">
         <v>37300</v>
       </c>
-      <c r="Y12" s="3">
+      <c r="Z12" s="3">
         <v>38700</v>
       </c>
-      <c r="Z12" s="3">
+      <c r="AA12" s="3">
         <v>36900</v>
       </c>
     </row>
-    <row r="13" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:27" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>8</v>
       </c>
@@ -1163,129 +1179,135 @@
       <c r="Z13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="AA13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:27" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>9</v>
       </c>
       <c r="D14" s="3">
+        <v>0</v>
+      </c>
+      <c r="E14" s="3">
         <v>-100</v>
       </c>
-      <c r="E14" s="3">
+      <c r="F14" s="3">
         <v>100</v>
       </c>
-      <c r="F14" s="3">
+      <c r="G14" s="3">
         <v>-1100</v>
       </c>
-      <c r="G14" s="3">
+      <c r="H14" s="3">
         <v>4600</v>
       </c>
-      <c r="H14" s="3">
+      <c r="I14" s="3">
         <v>-204600</v>
       </c>
-      <c r="I14" s="3">
+      <c r="J14" s="3">
         <v>200</v>
       </c>
-      <c r="J14" s="3">
-        <v>0</v>
-      </c>
       <c r="K14" s="3">
+        <v>0</v>
+      </c>
+      <c r="L14" s="3">
         <v>4900</v>
       </c>
-      <c r="L14" s="3">
+      <c r="M14" s="3">
         <v>5200</v>
       </c>
-      <c r="M14" s="3">
+      <c r="N14" s="3">
         <v>900</v>
       </c>
-      <c r="N14" s="3">
+      <c r="O14" s="3">
         <v>1300</v>
       </c>
-      <c r="O14" s="3">
+      <c r="P14" s="3">
         <v>1700</v>
       </c>
-      <c r="P14" s="3">
+      <c r="Q14" s="3">
         <v>51800</v>
       </c>
-      <c r="Q14" s="3">
+      <c r="R14" s="3">
         <v>7800</v>
       </c>
-      <c r="R14" s="3">
+      <c r="S14" s="3">
         <v>1300</v>
       </c>
-      <c r="S14" s="3">
+      <c r="T14" s="3">
         <v>3400</v>
       </c>
-      <c r="T14" s="3">
+      <c r="U14" s="3">
         <v>100</v>
       </c>
-      <c r="U14" s="3">
+      <c r="V14" s="3">
         <v>4500</v>
       </c>
-      <c r="V14" s="3">
+      <c r="W14" s="3">
         <v>2900</v>
       </c>
-      <c r="W14" s="3">
+      <c r="X14" s="3">
         <v>2000</v>
       </c>
-      <c r="X14" s="3">
+      <c r="Y14" s="3">
         <v>3100</v>
       </c>
-      <c r="Y14" s="3">
+      <c r="Z14" s="3">
         <v>4000</v>
       </c>
-      <c r="Z14" s="3">
+      <c r="AA14" s="3">
         <v>2900</v>
       </c>
     </row>
-    <row r="15" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:27" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D15" s="3">
+        <v>5600</v>
+      </c>
+      <c r="E15" s="3">
         <v>5800</v>
-      </c>
-      <c r="E15" s="3">
-        <v>5600</v>
       </c>
       <c r="F15" s="3">
         <v>5600</v>
       </c>
       <c r="G15" s="3">
-        <v>6200</v>
+        <v>5600</v>
       </c>
       <c r="H15" s="3">
         <v>6200</v>
       </c>
       <c r="I15" s="3">
+        <v>6200</v>
+      </c>
+      <c r="J15" s="3">
         <v>5900</v>
       </c>
-      <c r="J15" s="3">
+      <c r="K15" s="3">
         <v>5700</v>
       </c>
-      <c r="K15" s="3">
+      <c r="L15" s="3">
         <v>6200</v>
       </c>
-      <c r="L15" s="3">
+      <c r="M15" s="3">
         <v>6100</v>
       </c>
-      <c r="M15" s="3">
+      <c r="N15" s="3">
         <v>6200</v>
       </c>
-      <c r="N15" s="3">
+      <c r="O15" s="3">
         <v>6300</v>
-      </c>
-      <c r="O15" s="3">
-        <v>3600</v>
       </c>
       <c r="P15" s="3">
         <v>3600</v>
       </c>
       <c r="Q15" s="3">
+        <v>3600</v>
+      </c>
+      <c r="R15" s="3">
         <v>800</v>
-      </c>
-      <c r="R15" s="3" t="s">
-        <v>17</v>
       </c>
       <c r="S15" s="3" t="s">
         <v>17</v>
@@ -1293,17 +1315,17 @@
       <c r="T15" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="U15" s="3">
-        <v>0</v>
-      </c>
-      <c r="V15" s="3" t="s">
+      <c r="U15" s="3" t="s">
         <v>17</v>
+      </c>
+      <c r="V15" s="3">
+        <v>0</v>
       </c>
       <c r="W15" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="X15" s="3">
-        <v>0</v>
+      <c r="X15" s="3" t="s">
+        <v>17</v>
       </c>
       <c r="Y15" s="3">
         <v>0</v>
@@ -1311,8 +1333,11 @@
       <c r="Z15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="AA15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:27" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1336,156 +1361,163 @@
       <c r="X16" s="3"/>
       <c r="Y16" s="3"/>
       <c r="Z16" s="3"/>
-    </row>
-    <row r="17" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA16" s="3"/>
+    </row>
+    <row r="17" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>11</v>
       </c>
       <c r="D17" s="3">
+        <v>366700</v>
+      </c>
+      <c r="E17" s="3">
         <v>348600</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="3">
         <v>361500</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>332500</v>
       </c>
-      <c r="G17" s="3">
+      <c r="H17" s="3">
         <v>346300</v>
       </c>
-      <c r="H17" s="3">
+      <c r="I17" s="3">
         <v>152600</v>
       </c>
-      <c r="I17" s="3">
+      <c r="J17" s="3">
         <v>363500</v>
       </c>
-      <c r="J17" s="3">
+      <c r="K17" s="3">
         <v>353400</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>341100</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>360300</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>383000</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>390100</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>418400</v>
       </c>
-      <c r="P17" s="3">
+      <c r="Q17" s="3">
         <v>509300</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="R17" s="3">
         <v>362200</v>
       </c>
-      <c r="R17" s="3">
+      <c r="S17" s="3">
         <v>297000</v>
       </c>
-      <c r="S17" s="3">
+      <c r="T17" s="3">
         <v>280200</v>
       </c>
-      <c r="T17" s="3">
+      <c r="U17" s="3">
         <v>273300</v>
       </c>
-      <c r="U17" s="3">
+      <c r="V17" s="3">
         <v>313800</v>
       </c>
-      <c r="V17" s="3">
+      <c r="W17" s="3">
         <v>240500</v>
       </c>
-      <c r="W17" s="3">
+      <c r="X17" s="3">
         <v>218800</v>
       </c>
-      <c r="X17" s="3">
+      <c r="Y17" s="3">
         <v>242200</v>
       </c>
-      <c r="Y17" s="3">
+      <c r="Z17" s="3">
         <v>251700</v>
       </c>
-      <c r="Z17" s="3">
+      <c r="AA17" s="3">
         <v>241300</v>
       </c>
     </row>
-    <row r="18" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D18" s="3">
+        <v>55400</v>
+      </c>
+      <c r="E18" s="3">
         <v>46800</v>
       </c>
-      <c r="E18" s="3">
+      <c r="F18" s="3">
         <v>85200</v>
       </c>
-      <c r="F18" s="3">
+      <c r="G18" s="3">
         <v>115900</v>
       </c>
-      <c r="G18" s="3">
+      <c r="H18" s="3">
         <v>45800</v>
       </c>
-      <c r="H18" s="3">
+      <c r="I18" s="3">
         <v>266900</v>
       </c>
-      <c r="I18" s="3">
+      <c r="J18" s="3">
         <v>115300</v>
       </c>
-      <c r="J18" s="3">
+      <c r="K18" s="3">
         <v>99000</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>27000</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>42500</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>74800</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>59800</v>
       </c>
-      <c r="O18" s="3">
+      <c r="P18" s="3">
         <v>-13800</v>
       </c>
-      <c r="P18" s="3">
+      <c r="Q18" s="3">
         <v>-76400</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="R18" s="3">
         <v>11500</v>
       </c>
-      <c r="R18" s="3">
+      <c r="S18" s="3">
         <v>57100</v>
       </c>
-      <c r="S18" s="3">
+      <c r="T18" s="3">
         <v>20900</v>
       </c>
-      <c r="T18" s="3">
+      <c r="U18" s="3">
         <v>25500</v>
       </c>
-      <c r="U18" s="3">
+      <c r="V18" s="3">
         <v>90800</v>
       </c>
-      <c r="V18" s="3">
+      <c r="W18" s="3">
         <v>2700</v>
       </c>
-      <c r="W18" s="3">
+      <c r="X18" s="3">
         <v>3900</v>
       </c>
-      <c r="X18" s="3">
+      <c r="Y18" s="3">
         <v>13600</v>
       </c>
-      <c r="Y18" s="3">
+      <c r="Z18" s="3">
         <v>13300</v>
       </c>
-      <c r="Z18" s="3">
+      <c r="AA18" s="3">
         <v>16800</v>
       </c>
     </row>
-    <row r="19" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>13</v>
       </c>
@@ -1512,206 +1544,213 @@
       <c r="X19" s="3"/>
       <c r="Y19" s="3"/>
       <c r="Z19" s="3"/>
-    </row>
-    <row r="20" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA19" s="3"/>
+    </row>
+    <row r="20" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>14</v>
       </c>
       <c r="D20" s="3">
+        <v>8200</v>
+      </c>
+      <c r="E20" s="3">
         <v>2200</v>
       </c>
-      <c r="E20" s="3">
+      <c r="F20" s="3">
         <v>1000</v>
       </c>
-      <c r="F20" s="3">
+      <c r="G20" s="3">
         <v>600</v>
       </c>
-      <c r="G20" s="3">
+      <c r="H20" s="3">
         <v>700</v>
       </c>
-      <c r="H20" s="3">
+      <c r="I20" s="3">
         <v>2400</v>
       </c>
-      <c r="I20" s="3">
+      <c r="J20" s="3">
         <v>-900</v>
       </c>
-      <c r="J20" s="3">
+      <c r="K20" s="3">
         <v>600</v>
       </c>
-      <c r="K20" s="3">
+      <c r="L20" s="3">
         <v>3500</v>
       </c>
-      <c r="L20" s="3">
+      <c r="M20" s="3">
         <v>21700</v>
       </c>
-      <c r="M20" s="3">
+      <c r="N20" s="3">
         <v>1200</v>
       </c>
-      <c r="N20" s="3">
+      <c r="O20" s="3">
         <v>5000</v>
       </c>
-      <c r="O20" s="3">
+      <c r="P20" s="3">
         <v>4100</v>
       </c>
-      <c r="P20" s="3">
+      <c r="Q20" s="3">
         <v>5200</v>
       </c>
-      <c r="Q20" s="3">
+      <c r="R20" s="3">
         <v>14700</v>
       </c>
-      <c r="R20" s="3">
+      <c r="S20" s="3">
         <v>600</v>
       </c>
-      <c r="S20" s="3">
+      <c r="T20" s="3">
         <v>11400</v>
       </c>
-      <c r="T20" s="3">
+      <c r="U20" s="3">
         <v>-18200</v>
       </c>
-      <c r="U20" s="3">
+      <c r="V20" s="3">
         <v>9300</v>
       </c>
-      <c r="V20" s="3">
+      <c r="W20" s="3">
         <v>5200</v>
       </c>
-      <c r="W20" s="3">
+      <c r="X20" s="3">
         <v>-31500</v>
       </c>
-      <c r="X20" s="3">
+      <c r="Y20" s="3">
         <v>-58000</v>
       </c>
-      <c r="Y20" s="3">
+      <c r="Z20" s="3">
         <v>4600</v>
       </c>
-      <c r="Z20" s="3">
+      <c r="AA20" s="3">
         <v>-22500</v>
       </c>
     </row>
-    <row r="21" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D21" s="3">
+        <v>105200</v>
+      </c>
+      <c r="E21" s="3">
         <v>90600</v>
       </c>
-      <c r="E21" s="3">
+      <c r="F21" s="3">
         <v>128300</v>
       </c>
-      <c r="F21" s="3">
+      <c r="G21" s="3">
         <v>158300</v>
       </c>
-      <c r="G21" s="3">
+      <c r="H21" s="3">
         <v>89600</v>
       </c>
-      <c r="H21" s="3">
+      <c r="I21" s="3">
         <v>314100</v>
       </c>
-      <c r="I21" s="3">
+      <c r="J21" s="3">
         <v>159100</v>
       </c>
-      <c r="J21" s="3">
+      <c r="K21" s="3">
         <v>144100</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>77200</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>111700</v>
       </c>
-      <c r="M21" s="3">
+      <c r="N21" s="3">
         <v>123300</v>
       </c>
-      <c r="N21" s="3">
+      <c r="O21" s="3">
         <v>115200</v>
       </c>
-      <c r="O21" s="3">
+      <c r="P21" s="3">
         <v>35400</v>
       </c>
-      <c r="P21" s="3">
+      <c r="Q21" s="3">
         <v>-10500</v>
       </c>
-      <c r="Q21" s="3">
+      <c r="R21" s="3">
         <v>57400</v>
       </c>
-      <c r="R21" s="3">
+      <c r="S21" s="3">
         <v>78200</v>
       </c>
-      <c r="S21" s="3">
+      <c r="T21" s="3">
         <v>53800</v>
       </c>
-      <c r="T21" s="3">
+      <c r="U21" s="3">
         <v>26500</v>
       </c>
-      <c r="U21" s="3">
+      <c r="V21" s="3">
         <v>119100</v>
       </c>
-      <c r="V21" s="3">
+      <c r="W21" s="3">
         <v>25400</v>
       </c>
-      <c r="W21" s="3">
+      <c r="X21" s="3">
         <v>-11100</v>
       </c>
-      <c r="X21" s="3">
+      <c r="Y21" s="3">
         <v>-28500</v>
       </c>
-      <c r="Y21" s="3">
+      <c r="Z21" s="3">
         <v>32800</v>
       </c>
-      <c r="Z21" s="3">
+      <c r="AA21" s="3">
         <v>8000</v>
       </c>
     </row>
-    <row r="22" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D22" s="3">
+        <v>26500</v>
+      </c>
+      <c r="E22" s="3">
         <v>19700</v>
       </c>
-      <c r="E22" s="3">
+      <c r="F22" s="3">
         <v>17100</v>
       </c>
-      <c r="F22" s="3">
+      <c r="G22" s="3">
         <v>16900</v>
       </c>
-      <c r="G22" s="3">
+      <c r="H22" s="3">
         <v>18000</v>
       </c>
-      <c r="H22" s="3">
+      <c r="I22" s="3">
         <v>16400</v>
       </c>
-      <c r="I22" s="3">
+      <c r="J22" s="3">
         <v>16300</v>
       </c>
-      <c r="J22" s="3">
+      <c r="K22" s="3">
         <v>16000</v>
       </c>
-      <c r="K22" s="3">
+      <c r="L22" s="3">
         <v>15900</v>
       </c>
-      <c r="L22" s="3">
+      <c r="M22" s="3">
         <v>15600</v>
       </c>
-      <c r="M22" s="3">
+      <c r="N22" s="3">
         <v>18300</v>
-      </c>
-      <c r="N22" s="3">
-        <v>11400</v>
       </c>
       <c r="O22" s="3">
         <v>11400</v>
       </c>
       <c r="P22" s="3">
+        <v>11400</v>
+      </c>
+      <c r="Q22" s="3">
         <v>11300</v>
       </c>
-      <c r="Q22" s="3">
+      <c r="R22" s="3">
         <v>8500</v>
       </c>
-      <c r="R22" s="3">
+      <c r="S22" s="3">
         <v>5100</v>
-      </c>
-      <c r="S22" s="3">
-        <v>4600</v>
       </c>
       <c r="T22" s="3">
         <v>4600</v>
@@ -1720,10 +1759,10 @@
         <v>4600</v>
       </c>
       <c r="V22" s="3">
+        <v>4600</v>
+      </c>
+      <c r="W22" s="3">
         <v>4400</v>
-      </c>
-      <c r="W22" s="3" t="s">
-        <v>17</v>
       </c>
       <c r="X22" s="3" t="s">
         <v>17</v>
@@ -1734,156 +1773,165 @@
       <c r="Z22" s="3" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="23" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA22" s="3" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="23" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>37100</v>
+      </c>
+      <c r="E23" s="3">
         <v>29300</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>69100</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>99600</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
         <v>28500</v>
       </c>
-      <c r="H23" s="3">
+      <c r="I23" s="3">
         <v>252900</v>
       </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
         <v>98100</v>
       </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
         <v>83600</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>14600</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>48600</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>57700</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>53400</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>-21100</v>
       </c>
-      <c r="P23" s="3">
+      <c r="Q23" s="3">
         <v>-82500</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="R23" s="3">
         <v>17700</v>
       </c>
-      <c r="R23" s="3">
+      <c r="S23" s="3">
         <v>52600</v>
       </c>
-      <c r="S23" s="3">
+      <c r="T23" s="3">
         <v>27700</v>
       </c>
-      <c r="T23" s="3">
+      <c r="U23" s="3">
         <v>2700</v>
       </c>
-      <c r="U23" s="3">
+      <c r="V23" s="3">
         <v>95500</v>
       </c>
-      <c r="V23" s="3">
+      <c r="W23" s="3">
         <v>3500</v>
       </c>
-      <c r="W23" s="3">
+      <c r="X23" s="3">
         <v>-27600</v>
       </c>
-      <c r="X23" s="3">
+      <c r="Y23" s="3">
         <v>-44400</v>
       </c>
-      <c r="Y23" s="3">
+      <c r="Z23" s="3">
         <v>17900</v>
       </c>
-      <c r="Z23" s="3">
+      <c r="AA23" s="3">
         <v>-5700</v>
       </c>
     </row>
-    <row r="24" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
+        <v>2400</v>
+      </c>
+      <c r="E24" s="3">
         <v>3300</v>
       </c>
-      <c r="E24" s="3">
+      <c r="F24" s="3">
         <v>12400</v>
       </c>
-      <c r="F24" s="3">
+      <c r="G24" s="3">
         <v>18100</v>
       </c>
-      <c r="G24" s="3">
+      <c r="H24" s="3">
         <v>7000</v>
       </c>
-      <c r="H24" s="3">
+      <c r="I24" s="3">
         <v>27400</v>
       </c>
-      <c r="I24" s="3">
+      <c r="J24" s="3">
         <v>14900</v>
       </c>
-      <c r="J24" s="3">
+      <c r="K24" s="3">
         <v>16500</v>
       </c>
-      <c r="K24" s="3">
+      <c r="L24" s="3">
         <v>19200</v>
       </c>
-      <c r="L24" s="3">
+      <c r="M24" s="3">
         <v>5200</v>
       </c>
-      <c r="M24" s="3">
+      <c r="N24" s="3">
         <v>8600</v>
       </c>
-      <c r="N24" s="3">
+      <c r="O24" s="3">
         <v>5800</v>
       </c>
-      <c r="O24" s="3">
+      <c r="P24" s="3">
         <v>4700</v>
       </c>
-      <c r="P24" s="3">
+      <c r="Q24" s="3">
         <v>-8200</v>
       </c>
-      <c r="Q24" s="3">
+      <c r="R24" s="3">
         <v>1400</v>
       </c>
-      <c r="R24" s="3">
+      <c r="S24" s="3">
         <v>5200</v>
       </c>
-      <c r="S24" s="3">
+      <c r="T24" s="3">
         <v>-3300</v>
       </c>
-      <c r="T24" s="3">
-        <v>0</v>
-      </c>
       <c r="U24" s="3">
+        <v>0</v>
+      </c>
+      <c r="V24" s="3">
         <v>-109300</v>
       </c>
-      <c r="V24" s="3">
+      <c r="W24" s="3">
         <v>-3600</v>
       </c>
-      <c r="W24" s="3">
+      <c r="X24" s="3">
         <v>27300</v>
       </c>
-      <c r="X24" s="3">
+      <c r="Y24" s="3">
         <v>11600</v>
       </c>
-      <c r="Y24" s="3">
+      <c r="Z24" s="3">
         <v>6100</v>
       </c>
-      <c r="Z24" s="3">
+      <c r="AA24" s="3">
         <v>-2300</v>
       </c>
     </row>
-    <row r="25" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="25" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1956,156 +2004,165 @@
       <c r="Z25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>34700</v>
+      </c>
+      <c r="E26" s="3">
         <v>26000</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
         <v>56700</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>81500</v>
       </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
         <v>21500</v>
       </c>
-      <c r="H26" s="3">
+      <c r="I26" s="3">
         <v>225500</v>
       </c>
-      <c r="I26" s="3">
+      <c r="J26" s="3">
         <v>83200</v>
       </c>
-      <c r="J26" s="3">
+      <c r="K26" s="3">
         <v>67100</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>-4600</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>43400</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>49100</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>47600</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>-25800</v>
       </c>
-      <c r="P26" s="3">
+      <c r="Q26" s="3">
         <v>-74300</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="R26" s="3">
         <v>16300</v>
       </c>
-      <c r="R26" s="3">
+      <c r="S26" s="3">
         <v>47400</v>
       </c>
-      <c r="S26" s="3">
+      <c r="T26" s="3">
         <v>31000</v>
       </c>
-      <c r="T26" s="3">
+      <c r="U26" s="3">
         <v>2700</v>
       </c>
-      <c r="U26" s="3">
+      <c r="V26" s="3">
         <v>204800</v>
       </c>
-      <c r="V26" s="3">
+      <c r="W26" s="3">
         <v>7100</v>
       </c>
-      <c r="W26" s="3">
+      <c r="X26" s="3">
         <v>-54900</v>
       </c>
-      <c r="X26" s="3">
+      <c r="Y26" s="3">
         <v>-56000</v>
       </c>
-      <c r="Y26" s="3">
+      <c r="Z26" s="3">
         <v>11800</v>
       </c>
-      <c r="Z26" s="3">
+      <c r="AA26" s="3">
         <v>-3400</v>
       </c>
     </row>
-    <row r="27" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>34700</v>
+      </c>
+      <c r="E27" s="3">
         <v>26000</v>
       </c>
-      <c r="E27" s="3">
+      <c r="F27" s="3">
         <v>56700</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>81500</v>
       </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
         <v>21500</v>
       </c>
-      <c r="H27" s="3">
+      <c r="I27" s="3">
         <v>225500</v>
       </c>
-      <c r="I27" s="3">
+      <c r="J27" s="3">
         <v>83200</v>
       </c>
-      <c r="J27" s="3">
+      <c r="K27" s="3">
         <v>67100</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>-4600</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>43400</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>49100</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>47600</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>-25800</v>
       </c>
-      <c r="P27" s="3">
+      <c r="Q27" s="3">
         <v>-74300</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="R27" s="3">
         <v>16200</v>
       </c>
-      <c r="R27" s="3">
+      <c r="S27" s="3">
         <v>46100</v>
       </c>
-      <c r="S27" s="3">
+      <c r="T27" s="3">
         <v>30000</v>
       </c>
-      <c r="T27" s="3">
+      <c r="U27" s="3">
         <v>2400</v>
       </c>
-      <c r="U27" s="3">
+      <c r="V27" s="3">
         <v>199800</v>
       </c>
-      <c r="V27" s="3">
+      <c r="W27" s="3">
         <v>6900</v>
       </c>
-      <c r="W27" s="3">
+      <c r="X27" s="3">
         <v>-55200</v>
       </c>
-      <c r="X27" s="3">
+      <c r="Y27" s="3">
         <v>-56200</v>
       </c>
-      <c r="Y27" s="3">
+      <c r="Z27" s="3">
         <v>11600</v>
       </c>
-      <c r="Z27" s="3">
+      <c r="AA27" s="3">
         <v>-3600</v>
       </c>
     </row>
-    <row r="28" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -2178,8 +2235,11 @@
       <c r="Z28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -2210,17 +2270,17 @@
       <c r="L29" s="3">
         <v>0</v>
       </c>
-      <c r="M29" s="3" t="s">
-        <v>17</v>
+      <c r="M29" s="3">
+        <v>0</v>
       </c>
       <c r="N29" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="O29" s="3">
-        <v>0</v>
-      </c>
-      <c r="P29" s="3" t="s">
+      <c r="O29" s="3" t="s">
         <v>17</v>
+      </c>
+      <c r="P29" s="3">
+        <v>0</v>
       </c>
       <c r="Q29" s="3" t="s">
         <v>17</v>
@@ -2228,17 +2288,17 @@
       <c r="R29" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="S29" s="3">
+      <c r="S29" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="T29" s="3">
         <v>2500</v>
       </c>
-      <c r="T29" s="3">
-        <v>0</v>
-      </c>
       <c r="U29" s="3">
+        <v>0</v>
+      </c>
+      <c r="V29" s="3">
         <v>-83000</v>
-      </c>
-      <c r="V29" s="3" t="s">
-        <v>17</v>
       </c>
       <c r="W29" s="3" t="s">
         <v>17</v>
@@ -2252,8 +2312,11 @@
       <c r="Z29" s="3" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="30" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA29" s="3" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="30" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -2326,8 +2389,11 @@
       <c r="Z30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -2400,156 +2466,165 @@
       <c r="Z31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
+        <v>-8200</v>
+      </c>
+      <c r="E32" s="3">
         <v>-2200</v>
       </c>
-      <c r="E32" s="3">
+      <c r="F32" s="3">
         <v>-1000</v>
       </c>
-      <c r="F32" s="3">
+      <c r="G32" s="3">
         <v>-600</v>
       </c>
-      <c r="G32" s="3">
+      <c r="H32" s="3">
         <v>-700</v>
       </c>
-      <c r="H32" s="3">
+      <c r="I32" s="3">
         <v>-2400</v>
       </c>
-      <c r="I32" s="3">
+      <c r="J32" s="3">
         <v>900</v>
       </c>
-      <c r="J32" s="3">
+      <c r="K32" s="3">
         <v>-600</v>
       </c>
-      <c r="K32" s="3">
+      <c r="L32" s="3">
         <v>-3500</v>
       </c>
-      <c r="L32" s="3">
+      <c r="M32" s="3">
         <v>-21700</v>
       </c>
-      <c r="M32" s="3">
+      <c r="N32" s="3">
         <v>-1200</v>
       </c>
-      <c r="N32" s="3">
+      <c r="O32" s="3">
         <v>-5000</v>
       </c>
-      <c r="O32" s="3">
+      <c r="P32" s="3">
         <v>-4100</v>
       </c>
-      <c r="P32" s="3">
+      <c r="Q32" s="3">
         <v>-5200</v>
       </c>
-      <c r="Q32" s="3">
+      <c r="R32" s="3">
         <v>-14700</v>
       </c>
-      <c r="R32" s="3">
+      <c r="S32" s="3">
         <v>-600</v>
       </c>
-      <c r="S32" s="3">
+      <c r="T32" s="3">
         <v>-11400</v>
       </c>
-      <c r="T32" s="3">
+      <c r="U32" s="3">
         <v>18200</v>
       </c>
-      <c r="U32" s="3">
+      <c r="V32" s="3">
         <v>-9300</v>
       </c>
-      <c r="V32" s="3">
+      <c r="W32" s="3">
         <v>-5200</v>
       </c>
-      <c r="W32" s="3">
+      <c r="X32" s="3">
         <v>31500</v>
       </c>
-      <c r="X32" s="3">
+      <c r="Y32" s="3">
         <v>58000</v>
       </c>
-      <c r="Y32" s="3">
+      <c r="Z32" s="3">
         <v>-4600</v>
       </c>
-      <c r="Z32" s="3">
+      <c r="AA32" s="3">
         <v>22500</v>
       </c>
     </row>
-    <row r="33" spans="2:26" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>34700</v>
+      </c>
+      <c r="E33" s="3">
         <v>26000</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
         <v>56700</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>81500</v>
       </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
         <v>21500</v>
       </c>
-      <c r="H33" s="3">
+      <c r="I33" s="3">
         <v>225500</v>
       </c>
-      <c r="I33" s="3">
+      <c r="J33" s="3">
         <v>83200</v>
       </c>
-      <c r="J33" s="3">
+      <c r="K33" s="3">
         <v>67100</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>-4600</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>43400</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>49100</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>47600</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>-25800</v>
       </c>
-      <c r="P33" s="3">
+      <c r="Q33" s="3">
         <v>-74300</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="R33" s="3">
         <v>16200</v>
       </c>
-      <c r="R33" s="3">
+      <c r="S33" s="3">
         <v>46100</v>
       </c>
-      <c r="S33" s="3">
+      <c r="T33" s="3">
         <v>32500</v>
       </c>
-      <c r="T33" s="3">
+      <c r="U33" s="3">
         <v>2400</v>
       </c>
-      <c r="U33" s="3">
+      <c r="V33" s="3">
         <v>116800</v>
       </c>
-      <c r="V33" s="3">
+      <c r="W33" s="3">
         <v>6900</v>
       </c>
-      <c r="W33" s="3">
+      <c r="X33" s="3">
         <v>-55200</v>
       </c>
-      <c r="X33" s="3">
+      <c r="Y33" s="3">
         <v>-56200</v>
       </c>
-      <c r="Y33" s="3">
+      <c r="Z33" s="3">
         <v>11600</v>
       </c>
-      <c r="Z33" s="3">
+      <c r="AA33" s="3">
         <v>-3600</v>
       </c>
     </row>
-    <row r="34" spans="2:26" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2622,161 +2697,170 @@
       <c r="Z34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>34700</v>
+      </c>
+      <c r="E35" s="3">
         <v>26000</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
         <v>56700</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>81500</v>
       </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
         <v>21500</v>
       </c>
-      <c r="H35" s="3">
+      <c r="I35" s="3">
         <v>225500</v>
       </c>
-      <c r="I35" s="3">
+      <c r="J35" s="3">
         <v>83200</v>
       </c>
-      <c r="J35" s="3">
+      <c r="K35" s="3">
         <v>67100</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>-4600</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>43400</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>49100</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>47600</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>-25800</v>
       </c>
-      <c r="P35" s="3">
+      <c r="Q35" s="3">
         <v>-74300</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="R35" s="3">
         <v>16200</v>
       </c>
-      <c r="R35" s="3">
+      <c r="S35" s="3">
         <v>46100</v>
       </c>
-      <c r="S35" s="3">
+      <c r="T35" s="3">
         <v>32500</v>
       </c>
-      <c r="T35" s="3">
+      <c r="U35" s="3">
         <v>2400</v>
       </c>
-      <c r="U35" s="3">
+      <c r="V35" s="3">
         <v>116800</v>
       </c>
-      <c r="V35" s="3">
+      <c r="W35" s="3">
         <v>6900</v>
       </c>
-      <c r="W35" s="3">
+      <c r="X35" s="3">
         <v>-55200</v>
       </c>
-      <c r="X35" s="3">
+      <c r="Y35" s="3">
         <v>-56200</v>
       </c>
-      <c r="Y35" s="3">
+      <c r="Z35" s="3">
         <v>11600</v>
       </c>
-      <c r="Z35" s="3">
+      <c r="AA35" s="3">
         <v>-3600</v>
       </c>
     </row>
-    <row r="37" spans="2:26" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:27" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:26" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44744</v>
+      </c>
+      <c r="E38" s="2">
         <v>44653</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44562</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44471</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44380</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>44289</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>44191</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>44100</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>44009</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>43918</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>43827</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>43736</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>43645</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>43554</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>43463</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>43372</v>
       </c>
-      <c r="S38" s="2">
+      <c r="T38" s="2">
         <v>43281</v>
       </c>
-      <c r="T38" s="2">
+      <c r="U38" s="2">
         <v>43190</v>
       </c>
-      <c r="U38" s="2">
+      <c r="V38" s="2">
         <v>43099</v>
       </c>
-      <c r="V38" s="2">
+      <c r="W38" s="2">
         <v>43008</v>
       </c>
-      <c r="W38" s="2">
+      <c r="X38" s="2">
         <v>42917</v>
       </c>
-      <c r="X38" s="2">
+      <c r="Y38" s="2">
         <v>42826</v>
       </c>
-      <c r="Y38" s="2">
+      <c r="Z38" s="2">
         <v>42735</v>
       </c>
-      <c r="Z38" s="2">
+      <c r="AA38" s="2">
         <v>42644</v>
       </c>
     </row>
-    <row r="39" spans="2:26" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2803,8 +2887,9 @@
       <c r="X39" s="3"/>
       <c r="Y39" s="3"/>
       <c r="Z39" s="3"/>
-    </row>
-    <row r="40" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA39" s="3"/>
+    </row>
+    <row r="40" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2831,147 +2916,151 @@
       <c r="X40" s="3"/>
       <c r="Y40" s="3"/>
       <c r="Z40" s="3"/>
-    </row>
-    <row r="41" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA40" s="3"/>
+    </row>
+    <row r="41" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>1290200</v>
+      </c>
+      <c r="E41" s="3">
         <v>1130300</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>552000</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>611000</v>
       </c>
-      <c r="G41" s="3">
+      <c r="H41" s="3">
         <v>774300</v>
       </c>
-      <c r="H41" s="3">
+      <c r="I41" s="3">
         <v>687700</v>
       </c>
-      <c r="I41" s="3">
+      <c r="J41" s="3">
         <v>321300</v>
       </c>
-      <c r="J41" s="3">
+      <c r="K41" s="3">
         <v>269500</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>298000</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>688300</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>1085000</v>
       </c>
-      <c r="N41" s="3">
+      <c r="O41" s="3">
         <v>539000</v>
       </c>
-      <c r="O41" s="3">
+      <c r="P41" s="3">
         <v>432600</v>
       </c>
-      <c r="P41" s="3">
+      <c r="Q41" s="3">
         <v>357300</v>
       </c>
-      <c r="Q41" s="3">
+      <c r="R41" s="3">
         <v>371300</v>
       </c>
-      <c r="R41" s="3">
+      <c r="S41" s="3">
         <v>459400</v>
       </c>
-      <c r="S41" s="3">
+      <c r="T41" s="3">
         <v>397300</v>
       </c>
-      <c r="T41" s="3">
+      <c r="U41" s="3">
         <v>176800</v>
       </c>
-      <c r="U41" s="3">
+      <c r="V41" s="3">
         <v>202100</v>
       </c>
-      <c r="V41" s="3">
+      <c r="W41" s="3">
         <v>150800</v>
       </c>
-      <c r="W41" s="3">
+      <c r="X41" s="3">
         <v>272900</v>
       </c>
-      <c r="X41" s="3">
+      <c r="Y41" s="3">
         <v>577900</v>
       </c>
-      <c r="Y41" s="3">
+      <c r="Z41" s="3">
         <v>155900</v>
       </c>
-      <c r="Z41" s="3">
+      <c r="AA41" s="3">
         <v>166800</v>
       </c>
     </row>
-    <row r="42" spans="2:26" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
       <c r="D42" s="3">
+        <v>1258800</v>
+      </c>
+      <c r="E42" s="3">
         <v>1433800</v>
       </c>
-      <c r="E42" s="3">
+      <c r="F42" s="3">
         <v>1470400</v>
       </c>
-      <c r="F42" s="3">
+      <c r="G42" s="3">
         <v>1273600</v>
       </c>
-      <c r="G42" s="3">
+      <c r="H42" s="3">
         <v>1171700</v>
       </c>
-      <c r="H42" s="3">
+      <c r="I42" s="3">
         <v>1366900</v>
       </c>
-      <c r="I42" s="3">
+      <c r="J42" s="3">
         <v>1379000</v>
       </c>
-      <c r="J42" s="3">
+      <c r="K42" s="3">
         <v>1341200</v>
       </c>
-      <c r="K42" s="3">
+      <c r="L42" s="3">
         <v>1255800</v>
       </c>
-      <c r="L42" s="3">
+      <c r="M42" s="3">
         <v>763100</v>
       </c>
-      <c r="M42" s="3">
+      <c r="N42" s="3">
         <v>230600</v>
       </c>
-      <c r="N42" s="3">
+      <c r="O42" s="3">
         <v>291900</v>
       </c>
-      <c r="O42" s="3">
+      <c r="P42" s="3">
         <v>335900</v>
       </c>
-      <c r="P42" s="3">
+      <c r="Q42" s="3">
         <v>340200</v>
       </c>
-      <c r="Q42" s="3">
+      <c r="R42" s="3">
         <v>312800</v>
       </c>
-      <c r="R42" s="3">
+      <c r="S42" s="3">
         <v>274900</v>
       </c>
-      <c r="S42" s="3">
+      <c r="T42" s="3">
         <v>314200</v>
       </c>
-      <c r="T42" s="3">
+      <c r="U42" s="3">
         <v>516000</v>
       </c>
-      <c r="U42" s="3">
+      <c r="V42" s="3">
         <v>422400</v>
       </c>
-      <c r="V42" s="3">
+      <c r="W42" s="3">
         <v>381700</v>
       </c>
-      <c r="W42" s="3">
+      <c r="X42" s="3">
         <v>282400</v>
-      </c>
-      <c r="X42" s="3" t="s">
-        <v>17</v>
       </c>
       <c r="Y42" s="3" t="s">
         <v>17</v>
@@ -2979,304 +3068,319 @@
       <c r="Z42" s="3" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="43" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA42" s="3" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="43" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
+        <v>262000</v>
+      </c>
+      <c r="E43" s="3">
         <v>242200</v>
       </c>
-      <c r="E43" s="3">
+      <c r="F43" s="3">
         <v>239200</v>
       </c>
-      <c r="F43" s="3">
+      <c r="G43" s="3">
         <v>263200</v>
       </c>
-      <c r="G43" s="3">
+      <c r="H43" s="3">
         <v>212800</v>
       </c>
-      <c r="H43" s="3">
+      <c r="I43" s="3">
         <v>224800</v>
       </c>
-      <c r="I43" s="3">
+      <c r="J43" s="3">
         <v>276700</v>
       </c>
-      <c r="J43" s="3">
+      <c r="K43" s="3">
         <v>263600</v>
       </c>
-      <c r="K43" s="3">
+      <c r="L43" s="3">
         <v>233500</v>
       </c>
-      <c r="L43" s="3">
+      <c r="M43" s="3">
         <v>303100</v>
       </c>
-      <c r="M43" s="3">
+      <c r="N43" s="3">
         <v>343600</v>
       </c>
-      <c r="N43" s="3">
+      <c r="O43" s="3">
         <v>339600</v>
       </c>
-      <c r="O43" s="3">
+      <c r="P43" s="3">
         <v>286200</v>
       </c>
-      <c r="P43" s="3">
+      <c r="Q43" s="3">
         <v>329700</v>
       </c>
-      <c r="Q43" s="3">
+      <c r="R43" s="3">
         <v>266500</v>
       </c>
-      <c r="R43" s="3">
+      <c r="S43" s="3">
         <v>239600</v>
       </c>
-      <c r="S43" s="3">
+      <c r="T43" s="3">
         <v>197100</v>
       </c>
-      <c r="T43" s="3">
+      <c r="U43" s="3">
         <v>164700</v>
       </c>
-      <c r="U43" s="3">
+      <c r="V43" s="3">
         <v>222100</v>
       </c>
-      <c r="V43" s="3">
+      <c r="W43" s="3">
         <v>173800</v>
       </c>
-      <c r="W43" s="3">
+      <c r="X43" s="3">
         <v>166300</v>
       </c>
-      <c r="X43" s="3">
+      <c r="Y43" s="3">
         <v>185400</v>
       </c>
-      <c r="Y43" s="3">
+      <c r="Z43" s="3">
         <v>192500</v>
       </c>
-      <c r="Z43" s="3">
+      <c r="AA43" s="3">
         <v>156500</v>
       </c>
     </row>
-    <row r="44" spans="2:26" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
+        <v>250100</v>
+      </c>
+      <c r="E44" s="3">
         <v>224000</v>
       </c>
-      <c r="E44" s="3">
+      <c r="F44" s="3">
         <v>208100</v>
       </c>
-      <c r="F44" s="3">
+      <c r="G44" s="3">
         <v>207000</v>
       </c>
-      <c r="G44" s="3">
+      <c r="H44" s="3">
         <v>196400</v>
       </c>
-      <c r="H44" s="3">
+      <c r="I44" s="3">
         <v>210700</v>
       </c>
-      <c r="I44" s="3">
+      <c r="J44" s="3">
         <v>207100</v>
       </c>
-      <c r="J44" s="3">
+      <c r="K44" s="3">
         <v>212600</v>
       </c>
-      <c r="K44" s="3">
+      <c r="L44" s="3">
         <v>188900</v>
       </c>
-      <c r="L44" s="3">
+      <c r="M44" s="3">
         <v>172700</v>
       </c>
-      <c r="M44" s="3">
+      <c r="N44" s="3">
         <v>179600</v>
       </c>
-      <c r="N44" s="3">
+      <c r="O44" s="3">
         <v>202200</v>
       </c>
-      <c r="O44" s="3">
+      <c r="P44" s="3">
         <v>228800</v>
       </c>
-      <c r="P44" s="3">
+      <c r="Q44" s="3">
         <v>272200</v>
       </c>
-      <c r="Q44" s="3">
+      <c r="R44" s="3">
         <v>303200</v>
       </c>
-      <c r="R44" s="3">
+      <c r="S44" s="3">
         <v>136600</v>
       </c>
-      <c r="S44" s="3">
+      <c r="T44" s="3">
         <v>153600</v>
       </c>
-      <c r="T44" s="3">
+      <c r="U44" s="3">
         <v>144200</v>
       </c>
-      <c r="U44" s="3">
+      <c r="V44" s="3">
         <v>147300</v>
       </c>
-      <c r="V44" s="3">
+      <c r="W44" s="3">
         <v>147200</v>
       </c>
-      <c r="W44" s="3">
+      <c r="X44" s="3">
         <v>145200</v>
       </c>
-      <c r="X44" s="3">
+      <c r="Y44" s="3">
         <v>116900</v>
       </c>
-      <c r="Y44" s="3">
+      <c r="Z44" s="3">
         <v>121000</v>
       </c>
-      <c r="Z44" s="3">
+      <c r="AA44" s="3">
         <v>103700</v>
       </c>
     </row>
-    <row r="45" spans="2:26" x14ac:dyDescent="0.2">
+    <row r="45" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
+        <v>78100</v>
+      </c>
+      <c r="E45" s="3">
         <v>70300</v>
       </c>
-      <c r="E45" s="3">
+      <c r="F45" s="3">
         <v>70400</v>
       </c>
-      <c r="F45" s="3">
+      <c r="G45" s="3">
         <v>68200</v>
       </c>
-      <c r="G45" s="3">
+      <c r="H45" s="3">
         <v>81600</v>
       </c>
-      <c r="H45" s="3">
+      <c r="I45" s="3">
         <v>79700</v>
       </c>
-      <c r="I45" s="3">
+      <c r="J45" s="3">
         <v>82100</v>
       </c>
-      <c r="J45" s="3">
+      <c r="K45" s="3">
         <v>79800</v>
       </c>
-      <c r="K45" s="3">
+      <c r="L45" s="3">
         <v>73800</v>
       </c>
-      <c r="L45" s="3">
+      <c r="M45" s="3">
         <v>35800</v>
       </c>
-      <c r="M45" s="3">
+      <c r="N45" s="3">
         <v>44200</v>
       </c>
-      <c r="N45" s="3">
+      <c r="O45" s="3">
         <v>50500</v>
       </c>
-      <c r="O45" s="3">
+      <c r="P45" s="3">
         <v>49300</v>
       </c>
-      <c r="P45" s="3">
+      <c r="Q45" s="3">
         <v>118700</v>
       </c>
-      <c r="Q45" s="3">
+      <c r="R45" s="3">
         <v>103100</v>
       </c>
-      <c r="R45" s="3">
+      <c r="S45" s="3">
         <v>70600</v>
       </c>
-      <c r="S45" s="3">
+      <c r="T45" s="3">
         <v>65000</v>
       </c>
-      <c r="T45" s="3">
+      <c r="U45" s="3">
         <v>63000</v>
       </c>
-      <c r="U45" s="3">
+      <c r="V45" s="3">
         <v>59900</v>
       </c>
-      <c r="V45" s="3">
+      <c r="W45" s="3">
         <v>69000</v>
       </c>
-      <c r="W45" s="3">
+      <c r="X45" s="3">
         <v>63500</v>
       </c>
-      <c r="X45" s="3">
+      <c r="Y45" s="3">
         <v>61400</v>
       </c>
-      <c r="Y45" s="3">
+      <c r="Z45" s="3">
         <v>58200</v>
       </c>
-      <c r="Z45" s="3">
+      <c r="AA45" s="3">
         <v>62300</v>
       </c>
     </row>
-    <row r="46" spans="2:26" x14ac:dyDescent="0.2">
+    <row r="46" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>3139200</v>
+      </c>
+      <c r="E46" s="3">
         <v>3100600</v>
       </c>
-      <c r="E46" s="3">
+      <c r="F46" s="3">
         <v>2540100</v>
       </c>
-      <c r="F46" s="3">
+      <c r="G46" s="3">
         <v>2423000</v>
       </c>
-      <c r="G46" s="3">
+      <c r="H46" s="3">
         <v>2436800</v>
       </c>
-      <c r="H46" s="3">
+      <c r="I46" s="3">
         <v>2569800</v>
       </c>
-      <c r="I46" s="3">
+      <c r="J46" s="3">
         <v>2266200</v>
       </c>
-      <c r="J46" s="3">
+      <c r="K46" s="3">
         <v>2166700</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>2050000</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>1963000</v>
       </c>
-      <c r="M46" s="3">
+      <c r="N46" s="3">
         <v>1883000</v>
       </c>
-      <c r="N46" s="3">
+      <c r="O46" s="3">
         <v>1423200</v>
       </c>
-      <c r="O46" s="3">
+      <c r="P46" s="3">
         <v>1332800</v>
       </c>
-      <c r="P46" s="3">
+      <c r="Q46" s="3">
         <v>1418100</v>
       </c>
-      <c r="Q46" s="3">
+      <c r="R46" s="3">
         <v>1356900</v>
       </c>
-      <c r="R46" s="3">
+      <c r="S46" s="3">
         <v>1181100</v>
       </c>
-      <c r="S46" s="3">
+      <c r="T46" s="3">
         <v>1127200</v>
       </c>
-      <c r="T46" s="3">
+      <c r="U46" s="3">
         <v>1064700</v>
       </c>
-      <c r="U46" s="3">
+      <c r="V46" s="3">
         <v>1053800</v>
       </c>
-      <c r="V46" s="3">
+      <c r="W46" s="3">
         <v>922500</v>
       </c>
-      <c r="W46" s="3">
+      <c r="X46" s="3">
         <v>930300</v>
       </c>
-      <c r="X46" s="3">
+      <c r="Y46" s="3">
         <v>941600</v>
       </c>
-      <c r="Y46" s="3">
+      <c r="Z46" s="3">
         <v>527600</v>
       </c>
-      <c r="Z46" s="3">
+      <c r="AA46" s="3">
         <v>489300</v>
       </c>
     </row>
-    <row r="47" spans="2:26" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -3349,156 +3453,165 @@
       <c r="Z47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>434100</v>
+      </c>
+      <c r="E48" s="3">
         <v>430700</v>
       </c>
-      <c r="E48" s="3">
+      <c r="F48" s="3">
         <v>434700</v>
       </c>
-      <c r="F48" s="3">
+      <c r="G48" s="3">
         <v>428400</v>
       </c>
-      <c r="G48" s="3">
+      <c r="H48" s="3">
         <v>428500</v>
       </c>
-      <c r="H48" s="3">
+      <c r="I48" s="3">
         <v>448300</v>
       </c>
-      <c r="I48" s="3">
+      <c r="J48" s="3">
         <v>457600</v>
       </c>
-      <c r="J48" s="3">
+      <c r="K48" s="3">
         <v>468100</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>471700</v>
       </c>
-      <c r="L48" s="3">
+      <c r="M48" s="3">
         <v>491800</v>
       </c>
-      <c r="M48" s="3">
+      <c r="N48" s="3">
         <v>505700</v>
       </c>
-      <c r="N48" s="3">
+      <c r="O48" s="3">
         <v>524900</v>
       </c>
-      <c r="O48" s="3">
+      <c r="P48" s="3">
         <v>433300</v>
       </c>
-      <c r="P48" s="3">
+      <c r="Q48" s="3">
         <v>390600</v>
       </c>
-      <c r="Q48" s="3">
+      <c r="R48" s="3">
         <v>444700</v>
       </c>
-      <c r="R48" s="3">
+      <c r="S48" s="3">
         <v>318600</v>
       </c>
-      <c r="S48" s="3">
+      <c r="T48" s="3">
         <v>280600</v>
       </c>
-      <c r="T48" s="3">
+      <c r="U48" s="3">
         <v>264500</v>
       </c>
-      <c r="U48" s="3">
+      <c r="V48" s="3">
         <v>301300</v>
       </c>
-      <c r="V48" s="3">
+      <c r="W48" s="3">
         <v>293700</v>
       </c>
-      <c r="W48" s="3">
+      <c r="X48" s="3">
         <v>273500</v>
       </c>
-      <c r="X48" s="3">
+      <c r="Y48" s="3">
         <v>246600</v>
       </c>
-      <c r="Y48" s="3">
+      <c r="Z48" s="3">
         <v>219600</v>
       </c>
-      <c r="Z48" s="3">
+      <c r="AA48" s="3">
         <v>196000</v>
       </c>
     </row>
-    <row r="49" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="49" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
+        <v>524600</v>
+      </c>
+      <c r="E49" s="3">
         <v>545800</v>
       </c>
-      <c r="E49" s="3">
+      <c r="F49" s="3">
         <v>567200</v>
       </c>
-      <c r="F49" s="3">
+      <c r="G49" s="3">
         <v>588700</v>
       </c>
-      <c r="G49" s="3">
+      <c r="H49" s="3">
         <v>610100</v>
       </c>
-      <c r="H49" s="3">
+      <c r="I49" s="3">
         <v>632100</v>
       </c>
-      <c r="I49" s="3">
+      <c r="J49" s="3">
         <v>654100</v>
       </c>
-      <c r="J49" s="3">
+      <c r="K49" s="3">
         <v>665000</v>
       </c>
-      <c r="K49" s="3">
+      <c r="L49" s="3">
         <v>685700</v>
       </c>
-      <c r="L49" s="3">
+      <c r="M49" s="3">
         <v>706900</v>
       </c>
-      <c r="M49" s="3">
+      <c r="N49" s="3">
         <v>726900</v>
       </c>
-      <c r="N49" s="3">
+      <c r="O49" s="3">
         <v>745500</v>
       </c>
-      <c r="O49" s="3">
+      <c r="P49" s="3">
         <v>764300</v>
       </c>
-      <c r="P49" s="3">
+      <c r="Q49" s="3">
         <v>772100</v>
       </c>
-      <c r="Q49" s="3">
+      <c r="R49" s="3">
         <v>789700</v>
       </c>
-      <c r="R49" s="3">
+      <c r="S49" s="3">
         <v>17600</v>
       </c>
-      <c r="S49" s="3">
+      <c r="T49" s="3">
         <v>44600</v>
       </c>
-      <c r="T49" s="3">
+      <c r="U49" s="3">
         <v>57200</v>
       </c>
-      <c r="U49" s="3">
+      <c r="V49" s="3">
         <v>20400</v>
       </c>
-      <c r="V49" s="3">
+      <c r="W49" s="3">
         <v>21000</v>
       </c>
-      <c r="W49" s="3">
+      <c r="X49" s="3">
         <v>21500</v>
       </c>
-      <c r="X49" s="3">
+      <c r="Y49" s="3">
         <v>22300</v>
       </c>
-      <c r="Y49" s="3">
+      <c r="Z49" s="3">
         <v>16000</v>
       </c>
-      <c r="Z49" s="3">
+      <c r="AA49" s="3">
         <v>18100</v>
       </c>
     </row>
-    <row r="50" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="50" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -3571,8 +3684,11 @@
       <c r="Z50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -3645,82 +3761,88 @@
       <c r="Z51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
+        <v>64300</v>
+      </c>
+      <c r="E52" s="3">
         <v>56400</v>
       </c>
-      <c r="E52" s="3">
+      <c r="F52" s="3">
         <v>73700</v>
       </c>
-      <c r="F52" s="3">
+      <c r="G52" s="3">
         <v>78900</v>
       </c>
-      <c r="G52" s="3">
+      <c r="H52" s="3">
         <v>76200</v>
       </c>
-      <c r="H52" s="3">
+      <c r="I52" s="3">
         <v>95700</v>
       </c>
-      <c r="I52" s="3">
+      <c r="J52" s="3">
         <v>90300</v>
       </c>
-      <c r="J52" s="3">
+      <c r="K52" s="3">
         <v>87600</v>
       </c>
-      <c r="K52" s="3">
+      <c r="L52" s="3">
         <v>85200</v>
       </c>
-      <c r="L52" s="3">
+      <c r="M52" s="3">
         <v>107000</v>
       </c>
-      <c r="M52" s="3">
+      <c r="N52" s="3">
         <v>105600</v>
       </c>
-      <c r="N52" s="3">
+      <c r="O52" s="3">
         <v>174200</v>
       </c>
-      <c r="O52" s="3">
+      <c r="P52" s="3">
         <v>186200</v>
       </c>
-      <c r="P52" s="3">
+      <c r="Q52" s="3">
         <v>190600</v>
       </c>
-      <c r="Q52" s="3">
+      <c r="R52" s="3">
         <v>205300</v>
       </c>
-      <c r="R52" s="3">
+      <c r="S52" s="3">
         <v>127700</v>
       </c>
-      <c r="S52" s="3">
+      <c r="T52" s="3">
         <v>129100</v>
       </c>
-      <c r="T52" s="3">
+      <c r="U52" s="3">
         <v>131800</v>
       </c>
-      <c r="U52" s="3">
+      <c r="V52" s="3">
         <v>131900</v>
       </c>
-      <c r="V52" s="3">
+      <c r="W52" s="3">
         <v>11200</v>
       </c>
-      <c r="W52" s="3">
+      <c r="X52" s="3">
         <v>7600</v>
       </c>
-      <c r="X52" s="3">
+      <c r="Y52" s="3">
         <v>34000</v>
       </c>
-      <c r="Y52" s="3">
+      <c r="Z52" s="3">
         <v>33500</v>
       </c>
-      <c r="Z52" s="3">
+      <c r="AA52" s="3">
         <v>34100</v>
       </c>
     </row>
-    <row r="53" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="53" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -3793,82 +3915,88 @@
       <c r="Z53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>4162200</v>
+      </c>
+      <c r="E54" s="3">
         <v>4133500</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>3615700</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>3519000</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>3551600</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>3745900</v>
       </c>
-      <c r="I54" s="3">
+      <c r="J54" s="3">
         <v>3468200</v>
       </c>
-      <c r="J54" s="3">
+      <c r="K54" s="3">
         <v>3387400</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>3292600</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>3268700</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>3221200</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>2867800</v>
       </c>
-      <c r="O54" s="3">
+      <c r="P54" s="3">
         <v>2716600</v>
       </c>
-      <c r="P54" s="3">
+      <c r="Q54" s="3">
         <v>2771400</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="R54" s="3">
         <v>2796600</v>
       </c>
-      <c r="R54" s="3">
+      <c r="S54" s="3">
         <v>1645000</v>
       </c>
-      <c r="S54" s="3">
+      <c r="T54" s="3">
         <v>1581500</v>
       </c>
-      <c r="T54" s="3">
+      <c r="U54" s="3">
         <v>1518200</v>
       </c>
-      <c r="U54" s="3">
+      <c r="V54" s="3">
         <v>1507400</v>
       </c>
-      <c r="V54" s="3">
+      <c r="W54" s="3">
         <v>1248400</v>
       </c>
-      <c r="W54" s="3">
+      <c r="X54" s="3">
         <v>1232900</v>
       </c>
-      <c r="X54" s="3">
+      <c r="Y54" s="3">
         <v>1244500</v>
       </c>
-      <c r="Y54" s="3">
+      <c r="Z54" s="3">
         <v>796700</v>
       </c>
-      <c r="Z54" s="3">
+      <c r="AA54" s="3">
         <v>737500</v>
       </c>
     </row>
-    <row r="55" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -3895,8 +4023,9 @@
       <c r="X55" s="3"/>
       <c r="Y55" s="3"/>
       <c r="Z55" s="3"/>
-    </row>
-    <row r="56" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA55" s="3"/>
+    </row>
+    <row r="56" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -3923,144 +4052,148 @@
       <c r="X56" s="3"/>
       <c r="Y56" s="3"/>
       <c r="Z56" s="3"/>
-    </row>
-    <row r="57" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA56" s="3"/>
+    </row>
+    <row r="57" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>156700</v>
+      </c>
+      <c r="E57" s="3">
         <v>126800</v>
       </c>
-      <c r="E57" s="3">
+      <c r="F57" s="3">
         <v>118200</v>
       </c>
-      <c r="F57" s="3">
+      <c r="G57" s="3">
         <v>101600</v>
       </c>
-      <c r="G57" s="3">
+      <c r="H57" s="3">
         <v>116900</v>
       </c>
-      <c r="H57" s="3">
+      <c r="I57" s="3">
         <v>104700</v>
       </c>
-      <c r="I57" s="3">
+      <c r="J57" s="3">
         <v>111300</v>
       </c>
-      <c r="J57" s="3">
+      <c r="K57" s="3">
         <v>146000</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>150800</v>
       </c>
-      <c r="L57" s="3">
+      <c r="M57" s="3">
         <v>144600</v>
       </c>
-      <c r="M57" s="3">
+      <c r="N57" s="3">
         <v>143700</v>
       </c>
-      <c r="N57" s="3">
+      <c r="O57" s="3">
         <v>152200</v>
       </c>
-      <c r="O57" s="3">
+      <c r="P57" s="3">
         <v>160800</v>
       </c>
-      <c r="P57" s="3">
+      <c r="Q57" s="3">
         <v>204100</v>
       </c>
-      <c r="Q57" s="3">
+      <c r="R57" s="3">
         <v>199200</v>
       </c>
-      <c r="R57" s="3">
+      <c r="S57" s="3">
         <v>127600</v>
       </c>
-      <c r="S57" s="3">
+      <c r="T57" s="3">
         <v>126500</v>
       </c>
-      <c r="T57" s="3">
+      <c r="U57" s="3">
         <v>100900</v>
       </c>
-      <c r="U57" s="3">
+      <c r="V57" s="3">
         <v>113000</v>
       </c>
-      <c r="V57" s="3">
+      <c r="W57" s="3">
         <v>111600</v>
       </c>
-      <c r="W57" s="3">
+      <c r="X57" s="3">
         <v>114800</v>
       </c>
-      <c r="X57" s="3">
+      <c r="Y57" s="3">
         <v>118400</v>
       </c>
-      <c r="Y57" s="3">
+      <c r="Z57" s="3">
         <v>127800</v>
       </c>
-      <c r="Z57" s="3">
+      <c r="AA57" s="3">
         <v>108300</v>
       </c>
     </row>
-    <row r="58" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
+        <v>409900</v>
+      </c>
+      <c r="E58" s="3">
         <v>406100</v>
       </c>
-      <c r="E58" s="3">
+      <c r="F58" s="3">
         <v>401000</v>
       </c>
-      <c r="F58" s="3">
+      <c r="G58" s="3">
         <v>395800</v>
       </c>
-      <c r="G58" s="3">
+      <c r="H58" s="3">
         <v>390700</v>
       </c>
-      <c r="H58" s="3">
+      <c r="I58" s="3">
         <v>385400</v>
       </c>
-      <c r="I58" s="3">
+      <c r="J58" s="3">
         <v>380600</v>
       </c>
-      <c r="J58" s="3">
+      <c r="K58" s="3">
         <v>400</v>
       </c>
-      <c r="K58" s="3">
+      <c r="L58" s="3">
         <v>600</v>
       </c>
-      <c r="L58" s="3">
+      <c r="M58" s="3">
         <v>3900</v>
       </c>
-      <c r="M58" s="3">
+      <c r="N58" s="3">
         <v>7100</v>
       </c>
-      <c r="N58" s="3">
+      <c r="O58" s="3">
         <v>15900</v>
       </c>
-      <c r="O58" s="3">
+      <c r="P58" s="3">
         <v>5400</v>
       </c>
-      <c r="P58" s="3">
+      <c r="Q58" s="3">
         <v>5800</v>
       </c>
-      <c r="Q58" s="3">
+      <c r="R58" s="3">
         <v>8700</v>
       </c>
-      <c r="R58" s="3">
+      <c r="S58" s="3">
         <v>5400</v>
       </c>
-      <c r="S58" s="3">
+      <c r="T58" s="3">
         <v>7300</v>
       </c>
-      <c r="T58" s="3">
+      <c r="U58" s="3">
         <v>9200</v>
       </c>
-      <c r="U58" s="3">
+      <c r="V58" s="3">
         <v>9100</v>
       </c>
-      <c r="V58" s="3">
+      <c r="W58" s="3">
         <v>4900</v>
-      </c>
-      <c r="W58" s="3" t="s">
-        <v>17</v>
       </c>
       <c r="X58" s="3" t="s">
         <v>17</v>
@@ -4071,304 +4204,319 @@
       <c r="Z58" s="3" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="59" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA58" s="3" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="59" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>149900</v>
+      </c>
+      <c r="E59" s="3">
         <v>127800</v>
       </c>
-      <c r="E59" s="3">
+      <c r="F59" s="3">
         <v>137500</v>
       </c>
-      <c r="F59" s="3">
+      <c r="G59" s="3">
         <v>114300</v>
       </c>
-      <c r="G59" s="3">
+      <c r="H59" s="3">
         <v>157000</v>
       </c>
-      <c r="H59" s="3">
+      <c r="I59" s="3">
         <v>184100</v>
       </c>
-      <c r="I59" s="3">
+      <c r="J59" s="3">
         <v>155400</v>
       </c>
-      <c r="J59" s="3">
+      <c r="K59" s="3">
         <v>147000</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>131600</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>138200</v>
       </c>
-      <c r="M59" s="3">
+      <c r="N59" s="3">
         <v>153400</v>
       </c>
-      <c r="N59" s="3">
+      <c r="O59" s="3">
         <v>148700</v>
       </c>
-      <c r="O59" s="3">
+      <c r="P59" s="3">
         <v>127800</v>
       </c>
-      <c r="P59" s="3">
+      <c r="Q59" s="3">
         <v>148100</v>
       </c>
-      <c r="Q59" s="3">
+      <c r="R59" s="3">
         <v>117600</v>
       </c>
-      <c r="R59" s="3">
+      <c r="S59" s="3">
         <v>80900</v>
       </c>
-      <c r="S59" s="3">
+      <c r="T59" s="3">
         <v>80200</v>
       </c>
-      <c r="T59" s="3">
+      <c r="U59" s="3">
         <v>81400</v>
       </c>
-      <c r="U59" s="3">
+      <c r="V59" s="3">
         <v>95600</v>
       </c>
-      <c r="V59" s="3">
+      <c r="W59" s="3">
         <v>60700</v>
       </c>
-      <c r="W59" s="3">
+      <c r="X59" s="3">
         <v>69400</v>
       </c>
-      <c r="X59" s="3">
+      <c r="Y59" s="3">
         <v>73700</v>
       </c>
-      <c r="Y59" s="3">
+      <c r="Z59" s="3">
         <v>74200</v>
       </c>
-      <c r="Z59" s="3">
+      <c r="AA59" s="3">
         <v>55200</v>
       </c>
     </row>
-    <row r="60" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>716500</v>
+      </c>
+      <c r="E60" s="3">
         <v>660700</v>
       </c>
-      <c r="E60" s="3">
+      <c r="F60" s="3">
         <v>656700</v>
       </c>
-      <c r="F60" s="3">
+      <c r="G60" s="3">
         <v>611700</v>
       </c>
-      <c r="G60" s="3">
+      <c r="H60" s="3">
         <v>664600</v>
       </c>
-      <c r="H60" s="3">
+      <c r="I60" s="3">
         <v>674200</v>
       </c>
-      <c r="I60" s="3">
+      <c r="J60" s="3">
         <v>647300</v>
       </c>
-      <c r="J60" s="3">
+      <c r="K60" s="3">
         <v>293400</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>283000</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>286700</v>
       </c>
-      <c r="M60" s="3">
+      <c r="N60" s="3">
         <v>304200</v>
       </c>
-      <c r="N60" s="3">
+      <c r="O60" s="3">
         <v>316800</v>
       </c>
-      <c r="O60" s="3">
+      <c r="P60" s="3">
         <v>294000</v>
       </c>
-      <c r="P60" s="3">
+      <c r="Q60" s="3">
         <v>358000</v>
       </c>
-      <c r="Q60" s="3">
+      <c r="R60" s="3">
         <v>325500</v>
       </c>
-      <c r="R60" s="3">
+      <c r="S60" s="3">
         <v>213900</v>
       </c>
-      <c r="S60" s="3">
+      <c r="T60" s="3">
         <v>214000</v>
       </c>
-      <c r="T60" s="3">
+      <c r="U60" s="3">
         <v>191500</v>
       </c>
-      <c r="U60" s="3">
+      <c r="V60" s="3">
         <v>217700</v>
       </c>
-      <c r="V60" s="3">
+      <c r="W60" s="3">
         <v>177200</v>
       </c>
-      <c r="W60" s="3">
+      <c r="X60" s="3">
         <v>184200</v>
       </c>
-      <c r="X60" s="3">
+      <c r="Y60" s="3">
         <v>192100</v>
       </c>
-      <c r="Y60" s="3">
+      <c r="Z60" s="3">
         <v>202000</v>
       </c>
-      <c r="Z60" s="3">
+      <c r="AA60" s="3">
         <v>163500</v>
       </c>
     </row>
-    <row r="61" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
+        <v>1466100</v>
+      </c>
+      <c r="E61" s="3">
         <v>1447600</v>
       </c>
-      <c r="E61" s="3">
+      <c r="F61" s="3">
         <v>810300</v>
       </c>
-      <c r="F61" s="3">
+      <c r="G61" s="3">
         <v>800000</v>
       </c>
-      <c r="G61" s="3">
+      <c r="H61" s="3">
         <v>789800</v>
       </c>
-      <c r="H61" s="3">
+      <c r="I61" s="3">
         <v>778900</v>
       </c>
-      <c r="I61" s="3">
+      <c r="J61" s="3">
         <v>769100</v>
       </c>
-      <c r="J61" s="3">
+      <c r="K61" s="3">
         <v>1134700</v>
       </c>
-      <c r="K61" s="3">
+      <c r="L61" s="3">
         <v>1120300</v>
       </c>
-      <c r="L61" s="3">
+      <c r="M61" s="3">
         <v>1106100</v>
       </c>
-      <c r="M61" s="3">
+      <c r="N61" s="3">
         <v>1092200</v>
       </c>
-      <c r="N61" s="3">
+      <c r="O61" s="3">
         <v>840000</v>
       </c>
-      <c r="O61" s="3">
+      <c r="P61" s="3">
         <v>835900</v>
       </c>
-      <c r="P61" s="3">
+      <c r="Q61" s="3">
         <v>832400</v>
       </c>
-      <c r="Q61" s="3">
+      <c r="R61" s="3">
         <v>829200</v>
       </c>
-      <c r="R61" s="3">
+      <c r="S61" s="3">
         <v>338500</v>
       </c>
-      <c r="S61" s="3">
+      <c r="T61" s="3">
         <v>334600</v>
       </c>
-      <c r="T61" s="3">
+      <c r="U61" s="3">
         <v>330700</v>
       </c>
-      <c r="U61" s="3">
+      <c r="V61" s="3">
         <v>328800</v>
       </c>
-      <c r="V61" s="3">
+      <c r="W61" s="3">
         <v>324000</v>
       </c>
-      <c r="W61" s="3">
+      <c r="X61" s="3">
         <v>317500</v>
       </c>
-      <c r="X61" s="3">
+      <c r="Y61" s="3">
         <v>313400</v>
       </c>
-      <c r="Y61" s="3">
-        <v>0</v>
-      </c>
       <c r="Z61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
+        <v>104600</v>
+      </c>
+      <c r="E62" s="3">
         <v>113100</v>
       </c>
-      <c r="E62" s="3">
+      <c r="F62" s="3">
         <v>126800</v>
       </c>
-      <c r="F62" s="3">
+      <c r="G62" s="3">
         <v>135900</v>
       </c>
-      <c r="G62" s="3">
+      <c r="H62" s="3">
         <v>124400</v>
       </c>
-      <c r="H62" s="3">
+      <c r="I62" s="3">
         <v>127800</v>
       </c>
-      <c r="I62" s="3">
+      <c r="J62" s="3">
         <v>129900</v>
       </c>
-      <c r="J62" s="3">
+      <c r="K62" s="3">
         <v>143200</v>
       </c>
-      <c r="K62" s="3">
+      <c r="L62" s="3">
         <v>140100</v>
       </c>
-      <c r="L62" s="3">
+      <c r="M62" s="3">
         <v>141700</v>
       </c>
-      <c r="M62" s="3">
+      <c r="N62" s="3">
         <v>143200</v>
       </c>
-      <c r="N62" s="3">
+      <c r="O62" s="3">
         <v>149700</v>
       </c>
-      <c r="O62" s="3">
+      <c r="P62" s="3">
         <v>89600</v>
       </c>
-      <c r="P62" s="3">
+      <c r="Q62" s="3">
         <v>77100</v>
       </c>
-      <c r="Q62" s="3">
+      <c r="R62" s="3">
         <v>82200</v>
       </c>
-      <c r="R62" s="3">
+      <c r="S62" s="3">
         <v>73300</v>
       </c>
-      <c r="S62" s="3">
+      <c r="T62" s="3">
         <v>71000</v>
       </c>
-      <c r="T62" s="3">
+      <c r="U62" s="3">
         <v>83600</v>
       </c>
-      <c r="U62" s="3">
+      <c r="V62" s="3">
         <v>60800</v>
       </c>
-      <c r="V62" s="3">
+      <c r="W62" s="3">
         <v>70300</v>
       </c>
-      <c r="W62" s="3">
+      <c r="X62" s="3">
         <v>76600</v>
       </c>
-      <c r="X62" s="3">
+      <c r="Y62" s="3">
         <v>234600</v>
-      </c>
-      <c r="Y62" s="3">
-        <v>42500</v>
       </c>
       <c r="Z62" s="3">
         <v>42500</v>
       </c>
-    </row>
-    <row r="63" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA62" s="3">
+        <v>42500</v>
+      </c>
+    </row>
+    <row r="63" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -4441,8 +4589,11 @@
       <c r="Z63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -4515,8 +4666,11 @@
       <c r="Z64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -4589,82 +4743,88 @@
       <c r="Z65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>2287200</v>
+      </c>
+      <c r="E66" s="3">
         <v>2221400</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>1593800</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>1547600</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>1578800</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>1580900</v>
       </c>
-      <c r="I66" s="3">
+      <c r="J66" s="3">
         <v>1546300</v>
       </c>
-      <c r="J66" s="3">
+      <c r="K66" s="3">
         <v>1571300</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>1543400</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>1534500</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>1539600</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>1306500</v>
       </c>
-      <c r="O66" s="3">
+      <c r="P66" s="3">
         <v>1219500</v>
       </c>
-      <c r="P66" s="3">
+      <c r="Q66" s="3">
         <v>1267500</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="R66" s="3">
         <v>1236900</v>
       </c>
-      <c r="R66" s="3">
+      <c r="S66" s="3">
         <v>661500</v>
       </c>
-      <c r="S66" s="3">
+      <c r="T66" s="3">
         <v>655400</v>
       </c>
-      <c r="T66" s="3">
+      <c r="U66" s="3">
         <v>641600</v>
       </c>
-      <c r="U66" s="3">
+      <c r="V66" s="3">
         <v>643100</v>
       </c>
-      <c r="V66" s="3">
+      <c r="W66" s="3">
         <v>607300</v>
       </c>
-      <c r="W66" s="3">
+      <c r="X66" s="3">
         <v>614100</v>
       </c>
-      <c r="X66" s="3">
+      <c r="Y66" s="3">
         <v>775900</v>
       </c>
-      <c r="Y66" s="3">
+      <c r="Z66" s="3">
         <v>280300</v>
       </c>
-      <c r="Z66" s="3">
+      <c r="AA66" s="3">
         <v>241800</v>
       </c>
     </row>
-    <row r="67" spans="2:26" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -4691,8 +4851,9 @@
       <c r="X67" s="3"/>
       <c r="Y67" s="3"/>
       <c r="Z67" s="3"/>
-    </row>
-    <row r="68" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA67" s="3"/>
+    </row>
+    <row r="68" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -4765,8 +4926,11 @@
       <c r="Z68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -4839,8 +5003,11 @@
       <c r="Z69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -4913,8 +5080,11 @@
       <c r="Z70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -4987,82 +5157,88 @@
       <c r="Z71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>-129100</v>
+      </c>
+      <c r="E72" s="3">
         <v>-60500</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>237500</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>210700</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>220900</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>440400</v>
       </c>
-      <c r="I72" s="3">
+      <c r="J72" s="3">
         <v>214900</v>
       </c>
-      <c r="J72" s="3">
+      <c r="K72" s="3">
         <v>131700</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>64600</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>69200</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>25800</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>176700</v>
       </c>
-      <c r="O72" s="3">
+      <c r="P72" s="3">
         <v>129100</v>
       </c>
-      <c r="P72" s="3">
+      <c r="Q72" s="3">
         <v>154900</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="R72" s="3">
         <v>229200</v>
       </c>
-      <c r="R72" s="3">
+      <c r="S72" s="3">
         <v>213000</v>
       </c>
-      <c r="S72" s="3">
+      <c r="T72" s="3">
         <v>166400</v>
       </c>
-      <c r="T72" s="3">
+      <c r="U72" s="3">
         <v>133200</v>
       </c>
-      <c r="U72" s="3">
+      <c r="V72" s="3">
         <v>130700</v>
       </c>
-      <c r="V72" s="3">
+      <c r="W72" s="3">
         <v>-73900</v>
       </c>
-      <c r="W72" s="3">
+      <c r="X72" s="3">
         <v>-83200</v>
       </c>
-      <c r="X72" s="3">
+      <c r="Y72" s="3">
         <v>-28000</v>
       </c>
-      <c r="Y72" s="3">
+      <c r="Z72" s="3">
         <v>28200</v>
       </c>
-      <c r="Z72" s="3">
+      <c r="AA72" s="3">
         <v>16600</v>
       </c>
     </row>
-    <row r="73" spans="2:26" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -5135,8 +5311,11 @@
       <c r="Z73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -5209,8 +5388,11 @@
       <c r="Z74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -5283,82 +5465,88 @@
       <c r="Z75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>1875000</v>
+      </c>
+      <c r="E76" s="3">
         <v>1912100</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>2021900</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>1971400</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>1972800</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>2165000</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>1921900</v>
       </c>
-      <c r="J76" s="3">
+      <c r="K76" s="3">
         <v>1816100</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>1749200</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>1734200</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>1681600</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>1561300</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>1497100</v>
       </c>
-      <c r="P76" s="3">
+      <c r="Q76" s="3">
         <v>1503900</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="R76" s="3">
         <v>1559700</v>
       </c>
-      <c r="R76" s="3">
+      <c r="S76" s="3">
         <v>983500</v>
       </c>
-      <c r="S76" s="3">
+      <c r="T76" s="3">
         <v>926100</v>
       </c>
-      <c r="T76" s="3">
+      <c r="U76" s="3">
         <v>876600</v>
       </c>
-      <c r="U76" s="3">
+      <c r="V76" s="3">
         <v>864300</v>
       </c>
-      <c r="V76" s="3">
+      <c r="W76" s="3">
         <v>641100</v>
       </c>
-      <c r="W76" s="3">
+      <c r="X76" s="3">
         <v>618800</v>
       </c>
-      <c r="X76" s="3">
+      <c r="Y76" s="3">
         <v>468600</v>
       </c>
-      <c r="Y76" s="3">
+      <c r="Z76" s="3">
         <v>516400</v>
       </c>
-      <c r="Z76" s="3">
+      <c r="AA76" s="3">
         <v>495700</v>
       </c>
     </row>
-    <row r="77" spans="2:26" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -5431,161 +5619,170 @@
       <c r="Z77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:27" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:26" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44744</v>
+      </c>
+      <c r="E80" s="2">
         <v>44653</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44562</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44471</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44380</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>44289</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>44191</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>44100</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>44009</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>43918</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>43827</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>43736</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>43645</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>43554</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>43463</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>43372</v>
       </c>
-      <c r="S80" s="2">
+      <c r="T80" s="2">
         <v>43281</v>
       </c>
-      <c r="T80" s="2">
+      <c r="U80" s="2">
         <v>43190</v>
       </c>
-      <c r="U80" s="2">
+      <c r="V80" s="2">
         <v>43099</v>
       </c>
-      <c r="V80" s="2">
+      <c r="W80" s="2">
         <v>43008</v>
       </c>
-      <c r="W80" s="2">
+      <c r="X80" s="2">
         <v>42917</v>
       </c>
-      <c r="X80" s="2">
+      <c r="Y80" s="2">
         <v>42826</v>
       </c>
-      <c r="Y80" s="2">
+      <c r="Z80" s="2">
         <v>42735</v>
       </c>
-      <c r="Z80" s="2">
+      <c r="AA80" s="2">
         <v>42644</v>
       </c>
     </row>
-    <row r="81" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>34700</v>
+      </c>
+      <c r="E81" s="3">
         <v>26000</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="3">
         <v>56700</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>81500</v>
       </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
         <v>21500</v>
       </c>
-      <c r="H81" s="3">
+      <c r="I81" s="3">
         <v>225500</v>
       </c>
-      <c r="I81" s="3">
+      <c r="J81" s="3">
         <v>83200</v>
       </c>
-      <c r="J81" s="3">
+      <c r="K81" s="3">
         <v>67100</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>-4600</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>43400</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>49100</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>47600</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>-25800</v>
       </c>
-      <c r="P81" s="3">
+      <c r="Q81" s="3">
         <v>-74300</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="R81" s="3">
         <v>16200</v>
       </c>
-      <c r="R81" s="3">
+      <c r="S81" s="3">
         <v>46100</v>
       </c>
-      <c r="S81" s="3">
+      <c r="T81" s="3">
         <v>32500</v>
       </c>
-      <c r="T81" s="3">
+      <c r="U81" s="3">
         <v>2400</v>
       </c>
-      <c r="U81" s="3">
+      <c r="V81" s="3">
         <v>116800</v>
       </c>
-      <c r="V81" s="3">
+      <c r="W81" s="3">
         <v>6900</v>
       </c>
-      <c r="W81" s="3">
+      <c r="X81" s="3">
         <v>-55200</v>
       </c>
-      <c r="X81" s="3">
+      <c r="Y81" s="3">
         <v>-56200</v>
       </c>
-      <c r="Y81" s="3">
+      <c r="Z81" s="3">
         <v>11600</v>
       </c>
-      <c r="Z81" s="3">
+      <c r="AA81" s="3">
         <v>-3600</v>
       </c>
     </row>
-    <row r="82" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -5612,8 +5809,9 @@
       <c r="X82" s="3"/>
       <c r="Y82" s="3"/>
       <c r="Z82" s="3"/>
-    </row>
-    <row r="83" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA82" s="3"/>
+    </row>
+    <row r="83" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
@@ -5621,73 +5819,76 @@
         <v>41600</v>
       </c>
       <c r="E83" s="3">
+        <v>41600</v>
+      </c>
+      <c r="F83" s="3">
         <v>42100</v>
       </c>
-      <c r="F83" s="3">
+      <c r="G83" s="3">
         <v>41800</v>
       </c>
-      <c r="G83" s="3">
+      <c r="H83" s="3">
         <v>43100</v>
       </c>
-      <c r="H83" s="3">
+      <c r="I83" s="3">
         <v>44800</v>
       </c>
-      <c r="I83" s="3">
+      <c r="J83" s="3">
         <v>44700</v>
       </c>
-      <c r="J83" s="3">
+      <c r="K83" s="3">
         <v>44500</v>
       </c>
-      <c r="K83" s="3">
+      <c r="L83" s="3">
         <v>46700</v>
       </c>
-      <c r="L83" s="3">
+      <c r="M83" s="3">
         <v>47500</v>
       </c>
-      <c r="M83" s="3">
+      <c r="N83" s="3">
         <v>47300</v>
       </c>
-      <c r="N83" s="3">
+      <c r="O83" s="3">
         <v>50400</v>
       </c>
-      <c r="O83" s="3">
+      <c r="P83" s="3">
         <v>45100</v>
       </c>
-      <c r="P83" s="3">
+      <c r="Q83" s="3">
         <v>60700</v>
       </c>
-      <c r="Q83" s="3">
+      <c r="R83" s="3">
         <v>31200</v>
       </c>
-      <c r="R83" s="3">
+      <c r="S83" s="3">
         <v>20500</v>
       </c>
-      <c r="S83" s="3">
+      <c r="T83" s="3">
         <v>21500</v>
       </c>
-      <c r="T83" s="3">
+      <c r="U83" s="3">
         <v>19200</v>
       </c>
-      <c r="U83" s="3">
+      <c r="V83" s="3">
         <v>19000</v>
       </c>
-      <c r="V83" s="3">
+      <c r="W83" s="3">
         <v>17500</v>
       </c>
-      <c r="W83" s="3">
+      <c r="X83" s="3">
         <v>16500</v>
       </c>
-      <c r="X83" s="3">
+      <c r="Y83" s="3">
         <v>15900</v>
       </c>
-      <c r="Y83" s="3">
+      <c r="Z83" s="3">
         <v>14900</v>
       </c>
-      <c r="Z83" s="3">
+      <c r="AA83" s="3">
         <v>13700</v>
       </c>
     </row>
-    <row r="84" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="84" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -5760,8 +5961,11 @@
       <c r="Z84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -5834,8 +6038,11 @@
       <c r="Z85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -5908,8 +6115,11 @@
       <c r="Z86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -5982,8 +6192,11 @@
       <c r="Z87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -6056,82 +6269,88 @@
       <c r="Z88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>114300</v>
+      </c>
+      <c r="E89" s="3">
         <v>76600</v>
       </c>
-      <c r="E89" s="3">
+      <c r="F89" s="3">
         <v>206500</v>
       </c>
-      <c r="F89" s="3">
+      <c r="G89" s="3">
         <v>61900</v>
       </c>
-      <c r="G89" s="3">
+      <c r="H89" s="3">
         <v>124200</v>
       </c>
-      <c r="H89" s="3">
+      <c r="I89" s="3">
         <v>381300</v>
       </c>
-      <c r="I89" s="3">
+      <c r="J89" s="3">
         <v>128500</v>
       </c>
-      <c r="J89" s="3">
+      <c r="K89" s="3">
         <v>104700</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>122700</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>151800</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>162300</v>
       </c>
-      <c r="N89" s="3">
+      <c r="O89" s="3">
         <v>87500</v>
       </c>
-      <c r="O89" s="3">
+      <c r="P89" s="3">
         <v>127700</v>
       </c>
-      <c r="P89" s="3">
+      <c r="Q89" s="3">
         <v>42800</v>
       </c>
-      <c r="Q89" s="3">
+      <c r="R89" s="3">
         <v>102400</v>
       </c>
-      <c r="R89" s="3">
+      <c r="S89" s="3">
         <v>57200</v>
       </c>
-      <c r="S89" s="3">
+      <c r="T89" s="3">
         <v>37600</v>
       </c>
-      <c r="T89" s="3">
+      <c r="U89" s="3">
         <v>95100</v>
       </c>
-      <c r="U89" s="3">
+      <c r="V89" s="3">
         <v>105100</v>
       </c>
-      <c r="V89" s="3">
+      <c r="W89" s="3">
         <v>9700</v>
       </c>
-      <c r="W89" s="3">
+      <c r="X89" s="3">
         <v>13100</v>
       </c>
-      <c r="X89" s="3">
+      <c r="Y89" s="3">
         <v>16400</v>
       </c>
-      <c r="Y89" s="3">
+      <c r="Z89" s="3">
         <v>19200</v>
       </c>
-      <c r="Z89" s="3">
+      <c r="AA89" s="3">
         <v>36300</v>
       </c>
     </row>
-    <row r="90" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -6158,82 +6377,86 @@
       <c r="X90" s="3"/>
       <c r="Y90" s="3"/>
       <c r="Z90" s="3"/>
-    </row>
-    <row r="91" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA90" s="3"/>
+    </row>
+    <row r="91" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
+        <v>-28600</v>
+      </c>
+      <c r="E91" s="3">
         <v>-18600</v>
       </c>
-      <c r="E91" s="3">
+      <c r="F91" s="3">
         <v>-26100</v>
       </c>
-      <c r="F91" s="3">
+      <c r="G91" s="3">
         <v>-17900</v>
       </c>
-      <c r="G91" s="3">
-        <v>0</v>
-      </c>
       <c r="H91" s="3">
         <v>0</v>
       </c>
       <c r="I91" s="3">
+        <v>0</v>
+      </c>
+      <c r="J91" s="3">
         <v>16300</v>
       </c>
-      <c r="J91" s="3">
+      <c r="K91" s="3">
         <v>-26300</v>
       </c>
-      <c r="K91" s="3">
-        <v>0</v>
-      </c>
       <c r="L91" s="3">
+        <v>0</v>
+      </c>
+      <c r="M91" s="3">
         <v>-1000</v>
       </c>
-      <c r="M91" s="3">
+      <c r="N91" s="3">
         <v>-2000</v>
       </c>
-      <c r="N91" s="3">
+      <c r="O91" s="3">
         <v>-1000</v>
       </c>
-      <c r="O91" s="3">
-        <v>0</v>
-      </c>
       <c r="P91" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q91" s="3">
         <v>-600</v>
       </c>
-      <c r="Q91" s="3">
-        <v>0</v>
-      </c>
       <c r="R91" s="3">
+        <v>0</v>
+      </c>
+      <c r="S91" s="3">
         <v>-700</v>
       </c>
-      <c r="S91" s="3">
+      <c r="T91" s="3">
         <v>-20300</v>
       </c>
-      <c r="T91" s="3">
+      <c r="U91" s="3">
         <v>-22700</v>
       </c>
-      <c r="U91" s="3">
+      <c r="V91" s="3">
         <v>-17200</v>
       </c>
-      <c r="V91" s="3">
+      <c r="W91" s="3">
         <v>-33000</v>
       </c>
-      <c r="W91" s="3">
+      <c r="X91" s="3">
         <v>-38100</v>
       </c>
-      <c r="X91" s="3">
+      <c r="Y91" s="3">
         <v>-35700</v>
       </c>
-      <c r="Y91" s="3">
+      <c r="Z91" s="3">
         <v>-35400</v>
       </c>
-      <c r="Z91" s="3">
+      <c r="AA91" s="3">
         <v>-28900</v>
       </c>
     </row>
-    <row r="92" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="92" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -6306,8 +6529,11 @@
       <c r="Z92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -6380,82 +6606,88 @@
       <c r="Z93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
+        <v>142700</v>
+      </c>
+      <c r="E94" s="3">
         <v>-23200</v>
       </c>
-      <c r="E94" s="3">
+      <c r="F94" s="3">
         <v>-228900</v>
       </c>
-      <c r="F94" s="3">
+      <c r="G94" s="3">
         <v>-116900</v>
       </c>
-      <c r="G94" s="3">
+      <c r="H94" s="3">
         <v>197300</v>
       </c>
-      <c r="H94" s="3">
+      <c r="I94" s="3">
         <v>-7300</v>
       </c>
-      <c r="I94" s="3">
+      <c r="J94" s="3">
         <v>-75000</v>
       </c>
-      <c r="J94" s="3">
+      <c r="K94" s="3">
         <v>-114000</v>
       </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3">
         <v>-509800</v>
       </c>
-      <c r="L94" s="3">
+      <c r="M94" s="3">
         <v>-535700</v>
       </c>
-      <c r="M94" s="3">
+      <c r="N94" s="3">
         <v>36100</v>
       </c>
-      <c r="N94" s="3">
+      <c r="O94" s="3">
         <v>21700</v>
       </c>
-      <c r="O94" s="3">
+      <c r="P94" s="3">
         <v>-54400</v>
       </c>
-      <c r="P94" s="3">
+      <c r="Q94" s="3">
         <v>-52900</v>
       </c>
-      <c r="Q94" s="3">
+      <c r="R94" s="3">
         <v>-681900</v>
       </c>
-      <c r="R94" s="3">
+      <c r="S94" s="3">
         <v>9500</v>
       </c>
-      <c r="S94" s="3">
+      <c r="T94" s="3">
         <v>181700</v>
       </c>
-      <c r="T94" s="3">
+      <c r="U94" s="3">
         <v>-117600</v>
       </c>
-      <c r="U94" s="3">
+      <c r="V94" s="3">
         <v>-58600</v>
       </c>
-      <c r="V94" s="3">
+      <c r="W94" s="3">
         <v>-132500</v>
       </c>
-      <c r="W94" s="3">
+      <c r="X94" s="3">
         <v>-320600</v>
       </c>
-      <c r="X94" s="3">
+      <c r="Y94" s="3">
         <v>-40800</v>
       </c>
-      <c r="Y94" s="3">
+      <c r="Z94" s="3">
         <v>-35400</v>
       </c>
-      <c r="Z94" s="3">
+      <c r="AA94" s="3">
         <v>-28900</v>
       </c>
     </row>
-    <row r="95" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="95" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -6482,8 +6714,9 @@
       <c r="X95" s="3"/>
       <c r="Y95" s="3"/>
       <c r="Z95" s="3"/>
-    </row>
-    <row r="96" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA95" s="3"/>
+    </row>
+    <row r="96" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -6556,8 +6789,11 @@
       <c r="Z96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -6630,8 +6866,11 @@
       <c r="Z97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -6704,8 +6943,11 @@
       <c r="Z98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -6778,82 +7020,88 @@
       <c r="Z99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>-97100</v>
+      </c>
+      <c r="E100" s="3">
         <v>524900</v>
       </c>
-      <c r="E100" s="3">
+      <c r="F100" s="3">
         <v>-36600</v>
       </c>
-      <c r="F100" s="3">
+      <c r="G100" s="3">
         <v>-108300</v>
       </c>
-      <c r="G100" s="3">
+      <c r="H100" s="3">
         <v>-234900</v>
       </c>
-      <c r="H100" s="3">
+      <c r="I100" s="3">
         <v>-7600</v>
       </c>
-      <c r="I100" s="3">
+      <c r="J100" s="3">
         <v>-1700</v>
       </c>
-      <c r="J100" s="3">
+      <c r="K100" s="3">
         <v>-19200</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>-3700</v>
       </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
         <v>-12300</v>
       </c>
-      <c r="M100" s="3">
+      <c r="N100" s="3">
         <v>347600</v>
       </c>
-      <c r="N100" s="3">
+      <c r="O100" s="3">
         <v>-2800</v>
       </c>
-      <c r="O100" s="3">
+      <c r="P100" s="3">
         <v>1000</v>
       </c>
-      <c r="P100" s="3">
+      <c r="Q100" s="3">
         <v>-2900</v>
       </c>
-      <c r="Q100" s="3">
+      <c r="R100" s="3">
         <v>491600</v>
       </c>
-      <c r="R100" s="3">
+      <c r="S100" s="3">
         <v>-4600</v>
       </c>
-      <c r="S100" s="3">
+      <c r="T100" s="3">
         <v>1900</v>
       </c>
-      <c r="T100" s="3">
+      <c r="U100" s="3">
         <v>-2800</v>
       </c>
-      <c r="U100" s="3">
+      <c r="V100" s="3">
         <v>4400</v>
       </c>
-      <c r="V100" s="3">
+      <c r="W100" s="3">
         <v>300</v>
       </c>
-      <c r="W100" s="3">
+      <c r="X100" s="3">
         <v>2000</v>
       </c>
-      <c r="X100" s="3">
+      <c r="Y100" s="3">
         <v>445700</v>
       </c>
-      <c r="Y100" s="3">
+      <c r="Z100" s="3">
         <v>6700</v>
       </c>
-      <c r="Z100" s="3">
+      <c r="AA100" s="3">
         <v>2300</v>
       </c>
     </row>
-    <row r="101" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -6897,107 +7145,113 @@
         <v>0</v>
       </c>
       <c r="Q101" s="3">
+        <v>0</v>
+      </c>
+      <c r="R101" s="3">
         <v>-200</v>
       </c>
-      <c r="R101" s="3">
-        <v>0</v>
-      </c>
       <c r="S101" s="3">
+        <v>0</v>
+      </c>
+      <c r="T101" s="3">
         <v>-700</v>
       </c>
-      <c r="T101" s="3">
-        <v>0</v>
-      </c>
       <c r="U101" s="3">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="V101" s="3">
         <v>400</v>
       </c>
       <c r="W101" s="3">
+        <v>400</v>
+      </c>
+      <c r="X101" s="3">
         <v>500</v>
       </c>
-      <c r="X101" s="3">
+      <c r="Y101" s="3">
         <v>700</v>
       </c>
-      <c r="Y101" s="3">
+      <c r="Z101" s="3">
         <v>-1400</v>
       </c>
-      <c r="Z101" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="102" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>159900</v>
+      </c>
+      <c r="E102" s="3">
         <v>578300</v>
       </c>
-      <c r="E102" s="3">
+      <c r="F102" s="3">
         <v>-59000</v>
       </c>
-      <c r="F102" s="3">
+      <c r="G102" s="3">
         <v>-163300</v>
       </c>
-      <c r="G102" s="3">
+      <c r="H102" s="3">
         <v>86600</v>
       </c>
-      <c r="H102" s="3">
+      <c r="I102" s="3">
         <v>366400</v>
       </c>
-      <c r="I102" s="3">
+      <c r="J102" s="3">
         <v>51800</v>
       </c>
-      <c r="J102" s="3">
+      <c r="K102" s="3">
         <v>-28500</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>-390800</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>-396200</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>546000</v>
       </c>
-      <c r="N102" s="3">
+      <c r="O102" s="3">
         <v>106400</v>
       </c>
-      <c r="O102" s="3">
+      <c r="P102" s="3">
         <v>74300</v>
       </c>
-      <c r="P102" s="3">
+      <c r="Q102" s="3">
         <v>-13000</v>
       </c>
-      <c r="Q102" s="3">
+      <c r="R102" s="3">
         <v>-88100</v>
       </c>
-      <c r="R102" s="3">
+      <c r="S102" s="3">
         <v>62100</v>
       </c>
-      <c r="S102" s="3">
+      <c r="T102" s="3">
         <v>220500</v>
       </c>
-      <c r="T102" s="3">
+      <c r="U102" s="3">
         <v>-25300</v>
       </c>
-      <c r="U102" s="3">
+      <c r="V102" s="3">
         <v>51300</v>
       </c>
-      <c r="V102" s="3">
+      <c r="W102" s="3">
         <v>-122100</v>
       </c>
-      <c r="W102" s="3">
+      <c r="X102" s="3">
         <v>-305000</v>
       </c>
-      <c r="X102" s="3">
+      <c r="Y102" s="3">
         <v>422000</v>
       </c>
-      <c r="Y102" s="3">
+      <c r="Z102" s="3">
         <v>-10900</v>
       </c>
-      <c r="Z102" s="3">
+      <c r="AA102" s="3">
         <v>9700</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/LITE_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/LITE_QTR_FIN.xlsx
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:AA102"/>
+  <dimension ref="A5:AB102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,342 +665,354 @@
     <col min="1" max="1" width="6.42578125" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="9" width="13" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="11" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="15" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="19" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="22" max="23" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="24" max="25" width="13" style="1" bestFit="1" customWidth="1"/>
-    <col min="26" max="26" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="27" max="27" width="12.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="28" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="10" width="13" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="12" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="16" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="20" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="23" max="24" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="25" max="26" width="13" style="1" bestFit="1" customWidth="1"/>
+    <col min="27" max="27" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="28" max="28" width="12.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="29" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:28" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:28" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44835</v>
+      </c>
+      <c r="E7" s="2">
         <v>44744</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44653</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44562</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44471</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>44380</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>44289</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>44191</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>44100</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>44009</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>43918</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>43827</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>43736</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>43645</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>43554</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>43463</v>
       </c>
-      <c r="S7" s="2">
+      <c r="T7" s="2">
         <v>43372</v>
       </c>
-      <c r="T7" s="2">
+      <c r="U7" s="2">
         <v>43281</v>
       </c>
-      <c r="U7" s="2">
+      <c r="V7" s="2">
         <v>43190</v>
       </c>
-      <c r="V7" s="2">
+      <c r="W7" s="2">
         <v>43099</v>
       </c>
-      <c r="W7" s="2">
+      <c r="X7" s="2">
         <v>43008</v>
       </c>
-      <c r="X7" s="2">
+      <c r="Y7" s="2">
         <v>42917</v>
       </c>
-      <c r="Y7" s="2">
+      <c r="Z7" s="2">
         <v>42826</v>
       </c>
-      <c r="Z7" s="2">
+      <c r="AA7" s="2">
         <v>42735</v>
       </c>
-      <c r="AA7" s="2">
+      <c r="AB7" s="2">
         <v>42644</v>
       </c>
     </row>
-    <row r="8" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:28" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
+        <v>506800</v>
+      </c>
+      <c r="E8" s="3">
         <v>422100</v>
       </c>
-      <c r="E8" s="3">
+      <c r="F8" s="3">
         <v>395400</v>
       </c>
-      <c r="F8" s="3">
+      <c r="G8" s="3">
         <v>446700</v>
       </c>
-      <c r="G8" s="3">
+      <c r="H8" s="3">
         <v>448400</v>
       </c>
-      <c r="H8" s="3">
+      <c r="I8" s="3">
         <v>392100</v>
       </c>
-      <c r="I8" s="3">
+      <c r="J8" s="3">
         <v>419500</v>
       </c>
-      <c r="J8" s="3">
+      <c r="K8" s="3">
         <v>478800</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>452400</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>368100</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>402800</v>
       </c>
-      <c r="N8" s="3">
+      <c r="O8" s="3">
         <v>457800</v>
       </c>
-      <c r="O8" s="3">
+      <c r="P8" s="3">
         <v>449900</v>
       </c>
-      <c r="P8" s="3">
+      <c r="Q8" s="3">
         <v>404600</v>
       </c>
-      <c r="Q8" s="3">
+      <c r="R8" s="3">
         <v>432900</v>
       </c>
-      <c r="R8" s="3">
+      <c r="S8" s="3">
         <v>373700</v>
       </c>
-      <c r="S8" s="3">
+      <c r="T8" s="3">
         <v>354100</v>
       </c>
-      <c r="T8" s="3">
+      <c r="U8" s="3">
         <v>301100</v>
       </c>
-      <c r="U8" s="3">
+      <c r="V8" s="3">
         <v>298800</v>
       </c>
-      <c r="V8" s="3">
+      <c r="W8" s="3">
         <v>404600</v>
       </c>
-      <c r="W8" s="3">
+      <c r="X8" s="3">
         <v>243200</v>
       </c>
-      <c r="X8" s="3">
+      <c r="Y8" s="3">
         <v>222700</v>
       </c>
-      <c r="Y8" s="3">
+      <c r="Z8" s="3">
         <v>255800</v>
       </c>
-      <c r="Z8" s="3">
+      <c r="AA8" s="3">
         <v>265000</v>
       </c>
-      <c r="AA8" s="3">
+      <c r="AB8" s="3">
         <v>258100</v>
       </c>
     </row>
-    <row r="9" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:28" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
+        <v>305600</v>
+      </c>
+      <c r="E9" s="3">
         <v>240400</v>
       </c>
-      <c r="E9" s="3">
+      <c r="F9" s="3">
         <v>228200</v>
       </c>
-      <c r="F9" s="3">
+      <c r="G9" s="3">
         <v>239200</v>
       </c>
-      <c r="G9" s="3">
+      <c r="H9" s="3">
         <v>216200</v>
       </c>
-      <c r="H9" s="3">
+      <c r="I9" s="3">
         <v>229300</v>
       </c>
-      <c r="I9" s="3">
+      <c r="J9" s="3">
         <v>234500</v>
       </c>
-      <c r="J9" s="3">
+      <c r="K9" s="3">
         <v>249200</v>
       </c>
-      <c r="K9" s="3">
+      <c r="L9" s="3">
         <v>246700</v>
       </c>
-      <c r="L9" s="3">
+      <c r="M9" s="3">
         <v>232400</v>
       </c>
-      <c r="M9" s="3">
+      <c r="N9" s="3">
         <v>245100</v>
       </c>
-      <c r="N9" s="3">
+      <c r="O9" s="3">
         <v>268700</v>
       </c>
-      <c r="O9" s="3">
+      <c r="P9" s="3">
         <v>282200</v>
       </c>
-      <c r="P9" s="3">
+      <c r="Q9" s="3">
         <v>317800</v>
       </c>
-      <c r="Q9" s="3">
+      <c r="R9" s="3">
         <v>344600</v>
       </c>
-      <c r="R9" s="3">
+      <c r="S9" s="3">
         <v>248900</v>
       </c>
-      <c r="S9" s="3">
+      <c r="T9" s="3">
         <v>228100</v>
       </c>
-      <c r="T9" s="3">
+      <c r="U9" s="3">
         <v>205600</v>
       </c>
-      <c r="U9" s="3">
+      <c r="V9" s="3">
         <v>201800</v>
       </c>
-      <c r="V9" s="3">
+      <c r="W9" s="3">
         <v>233500</v>
       </c>
-      <c r="W9" s="3">
+      <c r="X9" s="3">
         <v>174700</v>
       </c>
-      <c r="X9" s="3">
+      <c r="Y9" s="3">
         <v>155400</v>
       </c>
-      <c r="Y9" s="3">
+      <c r="Z9" s="3">
         <v>173700</v>
       </c>
-      <c r="Z9" s="3">
+      <c r="AA9" s="3">
         <v>178000</v>
       </c>
-      <c r="AA9" s="3">
+      <c r="AB9" s="3">
         <v>176400</v>
       </c>
     </row>
-    <row r="10" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:28" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
+        <v>201200</v>
+      </c>
+      <c r="E10" s="3">
         <v>181700</v>
       </c>
-      <c r="E10" s="3">
+      <c r="F10" s="3">
         <v>167200</v>
       </c>
-      <c r="F10" s="3">
+      <c r="G10" s="3">
         <v>207500</v>
       </c>
-      <c r="G10" s="3">
+      <c r="H10" s="3">
         <v>232200</v>
       </c>
-      <c r="H10" s="3">
+      <c r="I10" s="3">
         <v>162800</v>
       </c>
-      <c r="I10" s="3">
+      <c r="J10" s="3">
         <v>185000</v>
       </c>
-      <c r="J10" s="3">
+      <c r="K10" s="3">
         <v>229600</v>
       </c>
-      <c r="K10" s="3">
+      <c r="L10" s="3">
         <v>205700</v>
       </c>
-      <c r="L10" s="3">
+      <c r="M10" s="3">
         <v>135700</v>
       </c>
-      <c r="M10" s="3">
+      <c r="N10" s="3">
         <v>157700</v>
       </c>
-      <c r="N10" s="3">
+      <c r="O10" s="3">
         <v>189100</v>
       </c>
-      <c r="O10" s="3">
+      <c r="P10" s="3">
         <v>167700</v>
       </c>
-      <c r="P10" s="3">
+      <c r="Q10" s="3">
         <v>86800</v>
       </c>
-      <c r="Q10" s="3">
+      <c r="R10" s="3">
         <v>88300</v>
       </c>
-      <c r="R10" s="3">
+      <c r="S10" s="3">
         <v>124800</v>
       </c>
-      <c r="S10" s="3">
+      <c r="T10" s="3">
         <v>126000</v>
       </c>
-      <c r="T10" s="3">
+      <c r="U10" s="3">
         <v>95500</v>
       </c>
-      <c r="U10" s="3">
+      <c r="V10" s="3">
         <v>97000</v>
       </c>
-      <c r="V10" s="3">
+      <c r="W10" s="3">
         <v>171100</v>
       </c>
-      <c r="W10" s="3">
+      <c r="X10" s="3">
         <v>68500</v>
       </c>
-      <c r="X10" s="3">
+      <c r="Y10" s="3">
         <v>67300</v>
       </c>
-      <c r="Y10" s="3">
+      <c r="Z10" s="3">
         <v>82100</v>
       </c>
-      <c r="Z10" s="3">
+      <c r="AA10" s="3">
         <v>87000</v>
       </c>
-      <c r="AA10" s="3">
+      <c r="AB10" s="3">
         <v>81700</v>
       </c>
     </row>
-    <row r="11" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:28" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -1028,85 +1040,89 @@
       <c r="Y11" s="3"/>
       <c r="Z11" s="3"/>
       <c r="AA11" s="3"/>
-    </row>
-    <row r="12" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="AB11" s="3"/>
+    </row>
+    <row r="12" spans="1:28" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
       <c r="D12" s="3">
-        <v>56700</v>
+        <v>72700</v>
       </c>
       <c r="E12" s="3">
         <v>56700</v>
       </c>
       <c r="F12" s="3">
+        <v>56700</v>
+      </c>
+      <c r="G12" s="3">
         <v>53200</v>
-      </c>
-      <c r="G12" s="3">
-        <v>54100</v>
       </c>
       <c r="H12" s="3">
         <v>54100</v>
       </c>
       <c r="I12" s="3">
+        <v>54100</v>
+      </c>
+      <c r="J12" s="3">
         <v>57200</v>
       </c>
-      <c r="J12" s="3">
+      <c r="K12" s="3">
         <v>52800</v>
       </c>
-      <c r="K12" s="3">
+      <c r="L12" s="3">
         <v>50400</v>
       </c>
-      <c r="L12" s="3">
+      <c r="M12" s="3">
         <v>49000</v>
       </c>
-      <c r="M12" s="3">
+      <c r="N12" s="3">
         <v>48700</v>
       </c>
-      <c r="N12" s="3">
+      <c r="O12" s="3">
         <v>51000</v>
       </c>
-      <c r="O12" s="3">
+      <c r="P12" s="3">
         <v>49900</v>
       </c>
-      <c r="P12" s="3">
+      <c r="Q12" s="3">
         <v>49500</v>
       </c>
-      <c r="Q12" s="3">
+      <c r="R12" s="3">
         <v>57700</v>
       </c>
-      <c r="R12" s="3">
+      <c r="S12" s="3">
         <v>42800</v>
       </c>
-      <c r="S12" s="3">
+      <c r="T12" s="3">
         <v>34600</v>
       </c>
-      <c r="T12" s="3">
+      <c r="U12" s="3">
         <v>38500</v>
       </c>
-      <c r="U12" s="3">
+      <c r="V12" s="3">
         <v>38200</v>
       </c>
-      <c r="V12" s="3">
+      <c r="W12" s="3">
         <v>43800</v>
       </c>
-      <c r="W12" s="3">
+      <c r="X12" s="3">
         <v>36300</v>
       </c>
-      <c r="X12" s="3">
+      <c r="Y12" s="3">
         <v>35400</v>
       </c>
-      <c r="Y12" s="3">
+      <c r="Z12" s="3">
         <v>37300</v>
       </c>
-      <c r="Z12" s="3">
+      <c r="AA12" s="3">
         <v>38700</v>
       </c>
-      <c r="AA12" s="3">
+      <c r="AB12" s="3">
         <v>36900</v>
       </c>
     </row>
-    <row r="13" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:28" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>8</v>
       </c>
@@ -1182,135 +1198,141 @@
       <c r="AA13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="AB13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:28" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>9</v>
       </c>
       <c r="D14" s="3">
-        <v>0</v>
+        <v>9300</v>
       </c>
       <c r="E14" s="3">
+        <v>0</v>
+      </c>
+      <c r="F14" s="3">
         <v>-100</v>
       </c>
-      <c r="F14" s="3">
+      <c r="G14" s="3">
         <v>100</v>
       </c>
-      <c r="G14" s="3">
+      <c r="H14" s="3">
         <v>-1100</v>
       </c>
-      <c r="H14" s="3">
+      <c r="I14" s="3">
         <v>4600</v>
       </c>
-      <c r="I14" s="3">
+      <c r="J14" s="3">
         <v>-204600</v>
       </c>
-      <c r="J14" s="3">
+      <c r="K14" s="3">
         <v>200</v>
       </c>
-      <c r="K14" s="3">
-        <v>0</v>
-      </c>
       <c r="L14" s="3">
+        <v>0</v>
+      </c>
+      <c r="M14" s="3">
         <v>4900</v>
       </c>
-      <c r="M14" s="3">
+      <c r="N14" s="3">
         <v>5200</v>
       </c>
-      <c r="N14" s="3">
+      <c r="O14" s="3">
         <v>900</v>
       </c>
-      <c r="O14" s="3">
+      <c r="P14" s="3">
         <v>1300</v>
       </c>
-      <c r="P14" s="3">
+      <c r="Q14" s="3">
         <v>1700</v>
       </c>
-      <c r="Q14" s="3">
+      <c r="R14" s="3">
         <v>51800</v>
       </c>
-      <c r="R14" s="3">
+      <c r="S14" s="3">
         <v>7800</v>
       </c>
-      <c r="S14" s="3">
+      <c r="T14" s="3">
         <v>1300</v>
       </c>
-      <c r="T14" s="3">
+      <c r="U14" s="3">
         <v>3400</v>
       </c>
-      <c r="U14" s="3">
+      <c r="V14" s="3">
         <v>100</v>
       </c>
-      <c r="V14" s="3">
+      <c r="W14" s="3">
         <v>4500</v>
       </c>
-      <c r="W14" s="3">
+      <c r="X14" s="3">
         <v>2900</v>
       </c>
-      <c r="X14" s="3">
+      <c r="Y14" s="3">
         <v>2000</v>
       </c>
-      <c r="Y14" s="3">
+      <c r="Z14" s="3">
         <v>3100</v>
       </c>
-      <c r="Z14" s="3">
+      <c r="AA14" s="3">
         <v>4000</v>
       </c>
-      <c r="AA14" s="3">
+      <c r="AB14" s="3">
         <v>2900</v>
       </c>
     </row>
-    <row r="15" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:28" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D15" s="3">
+        <v>9300</v>
+      </c>
+      <c r="E15" s="3">
         <v>5600</v>
       </c>
-      <c r="E15" s="3">
+      <c r="F15" s="3">
         <v>5800</v>
-      </c>
-      <c r="F15" s="3">
-        <v>5600</v>
       </c>
       <c r="G15" s="3">
         <v>5600</v>
       </c>
       <c r="H15" s="3">
-        <v>6200</v>
+        <v>5600</v>
       </c>
       <c r="I15" s="3">
         <v>6200</v>
       </c>
       <c r="J15" s="3">
+        <v>6200</v>
+      </c>
+      <c r="K15" s="3">
         <v>5900</v>
       </c>
-      <c r="K15" s="3">
+      <c r="L15" s="3">
         <v>5700</v>
       </c>
-      <c r="L15" s="3">
+      <c r="M15" s="3">
         <v>6200</v>
       </c>
-      <c r="M15" s="3">
+      <c r="N15" s="3">
         <v>6100</v>
       </c>
-      <c r="N15" s="3">
+      <c r="O15" s="3">
         <v>6200</v>
       </c>
-      <c r="O15" s="3">
+      <c r="P15" s="3">
         <v>6300</v>
-      </c>
-      <c r="P15" s="3">
-        <v>3600</v>
       </c>
       <c r="Q15" s="3">
         <v>3600</v>
       </c>
       <c r="R15" s="3">
+        <v>3600</v>
+      </c>
+      <c r="S15" s="3">
         <v>800</v>
-      </c>
-      <c r="S15" s="3" t="s">
-        <v>17</v>
       </c>
       <c r="T15" s="3" t="s">
         <v>17</v>
@@ -1318,17 +1340,17 @@
       <c r="U15" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="V15" s="3">
-        <v>0</v>
-      </c>
-      <c r="W15" s="3" t="s">
+      <c r="V15" s="3" t="s">
         <v>17</v>
+      </c>
+      <c r="W15" s="3">
+        <v>0</v>
       </c>
       <c r="X15" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="Y15" s="3">
-        <v>0</v>
+      <c r="Y15" s="3" t="s">
+        <v>17</v>
       </c>
       <c r="Z15" s="3">
         <v>0</v>
@@ -1336,8 +1358,11 @@
       <c r="AA15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="AB15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:28" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1362,162 +1387,169 @@
       <c r="Y16" s="3"/>
       <c r="Z16" s="3"/>
       <c r="AA16" s="3"/>
-    </row>
-    <row r="17" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB16" s="3"/>
+    </row>
+    <row r="17" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>11</v>
       </c>
       <c r="D17" s="3">
+        <v>493300</v>
+      </c>
+      <c r="E17" s="3">
         <v>366700</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="3">
         <v>348600</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>361500</v>
       </c>
-      <c r="G17" s="3">
+      <c r="H17" s="3">
         <v>332500</v>
       </c>
-      <c r="H17" s="3">
+      <c r="I17" s="3">
         <v>346300</v>
       </c>
-      <c r="I17" s="3">
+      <c r="J17" s="3">
         <v>152600</v>
       </c>
-      <c r="J17" s="3">
+      <c r="K17" s="3">
         <v>363500</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>353400</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>341100</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>360300</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>383000</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>390100</v>
       </c>
-      <c r="P17" s="3">
+      <c r="Q17" s="3">
         <v>418400</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="R17" s="3">
         <v>509300</v>
       </c>
-      <c r="R17" s="3">
+      <c r="S17" s="3">
         <v>362200</v>
       </c>
-      <c r="S17" s="3">
+      <c r="T17" s="3">
         <v>297000</v>
       </c>
-      <c r="T17" s="3">
+      <c r="U17" s="3">
         <v>280200</v>
       </c>
-      <c r="U17" s="3">
+      <c r="V17" s="3">
         <v>273300</v>
       </c>
-      <c r="V17" s="3">
+      <c r="W17" s="3">
         <v>313800</v>
       </c>
-      <c r="W17" s="3">
+      <c r="X17" s="3">
         <v>240500</v>
       </c>
-      <c r="X17" s="3">
+      <c r="Y17" s="3">
         <v>218800</v>
       </c>
-      <c r="Y17" s="3">
+      <c r="Z17" s="3">
         <v>242200</v>
       </c>
-      <c r="Z17" s="3">
+      <c r="AA17" s="3">
         <v>251700</v>
       </c>
-      <c r="AA17" s="3">
+      <c r="AB17" s="3">
         <v>241300</v>
       </c>
     </row>
-    <row r="18" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D18" s="3">
+        <v>13500</v>
+      </c>
+      <c r="E18" s="3">
         <v>55400</v>
       </c>
-      <c r="E18" s="3">
+      <c r="F18" s="3">
         <v>46800</v>
       </c>
-      <c r="F18" s="3">
+      <c r="G18" s="3">
         <v>85200</v>
       </c>
-      <c r="G18" s="3">
+      <c r="H18" s="3">
         <v>115900</v>
       </c>
-      <c r="H18" s="3">
+      <c r="I18" s="3">
         <v>45800</v>
       </c>
-      <c r="I18" s="3">
+      <c r="J18" s="3">
         <v>266900</v>
       </c>
-      <c r="J18" s="3">
+      <c r="K18" s="3">
         <v>115300</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>99000</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>27000</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>42500</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>74800</v>
       </c>
-      <c r="O18" s="3">
+      <c r="P18" s="3">
         <v>59800</v>
       </c>
-      <c r="P18" s="3">
+      <c r="Q18" s="3">
         <v>-13800</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="R18" s="3">
         <v>-76400</v>
       </c>
-      <c r="R18" s="3">
+      <c r="S18" s="3">
         <v>11500</v>
       </c>
-      <c r="S18" s="3">
+      <c r="T18" s="3">
         <v>57100</v>
       </c>
-      <c r="T18" s="3">
+      <c r="U18" s="3">
         <v>20900</v>
       </c>
-      <c r="U18" s="3">
+      <c r="V18" s="3">
         <v>25500</v>
       </c>
-      <c r="V18" s="3">
+      <c r="W18" s="3">
         <v>90800</v>
       </c>
-      <c r="W18" s="3">
+      <c r="X18" s="3">
         <v>2700</v>
       </c>
-      <c r="X18" s="3">
+      <c r="Y18" s="3">
         <v>3900</v>
       </c>
-      <c r="Y18" s="3">
+      <c r="Z18" s="3">
         <v>13600</v>
       </c>
-      <c r="Z18" s="3">
+      <c r="AA18" s="3">
         <v>13300</v>
       </c>
-      <c r="AA18" s="3">
+      <c r="AB18" s="3">
         <v>16800</v>
       </c>
     </row>
-    <row r="19" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>13</v>
       </c>
@@ -1545,215 +1577,222 @@
       <c r="Y19" s="3"/>
       <c r="Z19" s="3"/>
       <c r="AA19" s="3"/>
-    </row>
-    <row r="20" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB19" s="3"/>
+    </row>
+    <row r="20" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>14</v>
       </c>
       <c r="D20" s="3">
+        <v>13800</v>
+      </c>
+      <c r="E20" s="3">
         <v>8200</v>
       </c>
-      <c r="E20" s="3">
+      <c r="F20" s="3">
         <v>2200</v>
       </c>
-      <c r="F20" s="3">
+      <c r="G20" s="3">
         <v>1000</v>
       </c>
-      <c r="G20" s="3">
+      <c r="H20" s="3">
         <v>600</v>
       </c>
-      <c r="H20" s="3">
+      <c r="I20" s="3">
         <v>700</v>
       </c>
-      <c r="I20" s="3">
+      <c r="J20" s="3">
         <v>2400</v>
       </c>
-      <c r="J20" s="3">
+      <c r="K20" s="3">
         <v>-900</v>
       </c>
-      <c r="K20" s="3">
+      <c r="L20" s="3">
         <v>600</v>
       </c>
-      <c r="L20" s="3">
+      <c r="M20" s="3">
         <v>3500</v>
       </c>
-      <c r="M20" s="3">
+      <c r="N20" s="3">
         <v>21700</v>
       </c>
-      <c r="N20" s="3">
+      <c r="O20" s="3">
         <v>1200</v>
       </c>
-      <c r="O20" s="3">
+      <c r="P20" s="3">
         <v>5000</v>
       </c>
-      <c r="P20" s="3">
+      <c r="Q20" s="3">
         <v>4100</v>
       </c>
-      <c r="Q20" s="3">
+      <c r="R20" s="3">
         <v>5200</v>
       </c>
-      <c r="R20" s="3">
+      <c r="S20" s="3">
         <v>14700</v>
       </c>
-      <c r="S20" s="3">
+      <c r="T20" s="3">
         <v>600</v>
       </c>
-      <c r="T20" s="3">
+      <c r="U20" s="3">
         <v>11400</v>
       </c>
-      <c r="U20" s="3">
+      <c r="V20" s="3">
         <v>-18200</v>
       </c>
-      <c r="V20" s="3">
+      <c r="W20" s="3">
         <v>9300</v>
       </c>
-      <c r="W20" s="3">
+      <c r="X20" s="3">
         <v>5200</v>
       </c>
-      <c r="X20" s="3">
+      <c r="Y20" s="3">
         <v>-31500</v>
       </c>
-      <c r="Y20" s="3">
+      <c r="Z20" s="3">
         <v>-58000</v>
       </c>
-      <c r="Z20" s="3">
+      <c r="AA20" s="3">
         <v>4600</v>
       </c>
-      <c r="AA20" s="3">
+      <c r="AB20" s="3">
         <v>-22500</v>
       </c>
     </row>
-    <row r="21" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D21" s="3">
+        <v>84000</v>
+      </c>
+      <c r="E21" s="3">
         <v>105200</v>
       </c>
-      <c r="E21" s="3">
+      <c r="F21" s="3">
         <v>90600</v>
       </c>
-      <c r="F21" s="3">
+      <c r="G21" s="3">
         <v>128300</v>
       </c>
-      <c r="G21" s="3">
+      <c r="H21" s="3">
         <v>158300</v>
       </c>
-      <c r="H21" s="3">
+      <c r="I21" s="3">
         <v>89600</v>
       </c>
-      <c r="I21" s="3">
+      <c r="J21" s="3">
         <v>314100</v>
       </c>
-      <c r="J21" s="3">
+      <c r="K21" s="3">
         <v>159100</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>144100</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>77200</v>
       </c>
-      <c r="M21" s="3">
+      <c r="N21" s="3">
         <v>111700</v>
       </c>
-      <c r="N21" s="3">
+      <c r="O21" s="3">
         <v>123300</v>
       </c>
-      <c r="O21" s="3">
+      <c r="P21" s="3">
         <v>115200</v>
       </c>
-      <c r="P21" s="3">
+      <c r="Q21" s="3">
         <v>35400</v>
       </c>
-      <c r="Q21" s="3">
+      <c r="R21" s="3">
         <v>-10500</v>
       </c>
-      <c r="R21" s="3">
+      <c r="S21" s="3">
         <v>57400</v>
       </c>
-      <c r="S21" s="3">
+      <c r="T21" s="3">
         <v>78200</v>
       </c>
-      <c r="T21" s="3">
+      <c r="U21" s="3">
         <v>53800</v>
       </c>
-      <c r="U21" s="3">
+      <c r="V21" s="3">
         <v>26500</v>
       </c>
-      <c r="V21" s="3">
+      <c r="W21" s="3">
         <v>119100</v>
       </c>
-      <c r="W21" s="3">
+      <c r="X21" s="3">
         <v>25400</v>
       </c>
-      <c r="X21" s="3">
+      <c r="Y21" s="3">
         <v>-11100</v>
       </c>
-      <c r="Y21" s="3">
+      <c r="Z21" s="3">
         <v>-28500</v>
       </c>
-      <c r="Z21" s="3">
+      <c r="AA21" s="3">
         <v>32800</v>
       </c>
-      <c r="AA21" s="3">
+      <c r="AB21" s="3">
         <v>8000</v>
       </c>
     </row>
-    <row r="22" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D22" s="3">
+        <v>8500</v>
+      </c>
+      <c r="E22" s="3">
         <v>26500</v>
       </c>
-      <c r="E22" s="3">
+      <c r="F22" s="3">
         <v>19700</v>
       </c>
-      <c r="F22" s="3">
+      <c r="G22" s="3">
         <v>17100</v>
       </c>
-      <c r="G22" s="3">
+      <c r="H22" s="3">
         <v>16900</v>
       </c>
-      <c r="H22" s="3">
+      <c r="I22" s="3">
         <v>18000</v>
       </c>
-      <c r="I22" s="3">
+      <c r="J22" s="3">
         <v>16400</v>
       </c>
-      <c r="J22" s="3">
+      <c r="K22" s="3">
         <v>16300</v>
       </c>
-      <c r="K22" s="3">
+      <c r="L22" s="3">
         <v>16000</v>
       </c>
-      <c r="L22" s="3">
+      <c r="M22" s="3">
         <v>15900</v>
       </c>
-      <c r="M22" s="3">
+      <c r="N22" s="3">
         <v>15600</v>
       </c>
-      <c r="N22" s="3">
+      <c r="O22" s="3">
         <v>18300</v>
-      </c>
-      <c r="O22" s="3">
-        <v>11400</v>
       </c>
       <c r="P22" s="3">
         <v>11400</v>
       </c>
       <c r="Q22" s="3">
+        <v>11400</v>
+      </c>
+      <c r="R22" s="3">
         <v>11300</v>
       </c>
-      <c r="R22" s="3">
+      <c r="S22" s="3">
         <v>8500</v>
       </c>
-      <c r="S22" s="3">
+      <c r="T22" s="3">
         <v>5100</v>
-      </c>
-      <c r="T22" s="3">
-        <v>4600</v>
       </c>
       <c r="U22" s="3">
         <v>4600</v>
@@ -1762,10 +1801,10 @@
         <v>4600</v>
       </c>
       <c r="W22" s="3">
+        <v>4600</v>
+      </c>
+      <c r="X22" s="3">
         <v>4400</v>
-      </c>
-      <c r="X22" s="3" t="s">
-        <v>17</v>
       </c>
       <c r="Y22" s="3" t="s">
         <v>17</v>
@@ -1776,162 +1815,171 @@
       <c r="AA22" s="3" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="23" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB22" s="3" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="23" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>18800</v>
+      </c>
+      <c r="E23" s="3">
         <v>37100</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>29300</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>69100</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
         <v>99600</v>
       </c>
-      <c r="H23" s="3">
+      <c r="I23" s="3">
         <v>28500</v>
       </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
         <v>252900</v>
       </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
         <v>98100</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>83600</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>14600</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>48600</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>57700</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>53400</v>
       </c>
-      <c r="P23" s="3">
+      <c r="Q23" s="3">
         <v>-21100</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="R23" s="3">
         <v>-82500</v>
       </c>
-      <c r="R23" s="3">
+      <c r="S23" s="3">
         <v>17700</v>
       </c>
-      <c r="S23" s="3">
+      <c r="T23" s="3">
         <v>52600</v>
       </c>
-      <c r="T23" s="3">
+      <c r="U23" s="3">
         <v>27700</v>
       </c>
-      <c r="U23" s="3">
+      <c r="V23" s="3">
         <v>2700</v>
       </c>
-      <c r="V23" s="3">
+      <c r="W23" s="3">
         <v>95500</v>
       </c>
-      <c r="W23" s="3">
+      <c r="X23" s="3">
         <v>3500</v>
       </c>
-      <c r="X23" s="3">
+      <c r="Y23" s="3">
         <v>-27600</v>
       </c>
-      <c r="Y23" s="3">
+      <c r="Z23" s="3">
         <v>-44400</v>
       </c>
-      <c r="Z23" s="3">
+      <c r="AA23" s="3">
         <v>17900</v>
       </c>
-      <c r="AA23" s="3">
+      <c r="AB23" s="3">
         <v>-5700</v>
       </c>
     </row>
-    <row r="24" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
+        <v>19200</v>
+      </c>
+      <c r="E24" s="3">
         <v>2400</v>
       </c>
-      <c r="E24" s="3">
+      <c r="F24" s="3">
         <v>3300</v>
       </c>
-      <c r="F24" s="3">
+      <c r="G24" s="3">
         <v>12400</v>
       </c>
-      <c r="G24" s="3">
+      <c r="H24" s="3">
         <v>18100</v>
       </c>
-      <c r="H24" s="3">
+      <c r="I24" s="3">
         <v>7000</v>
       </c>
-      <c r="I24" s="3">
+      <c r="J24" s="3">
         <v>27400</v>
       </c>
-      <c r="J24" s="3">
+      <c r="K24" s="3">
         <v>14900</v>
       </c>
-      <c r="K24" s="3">
+      <c r="L24" s="3">
         <v>16500</v>
       </c>
-      <c r="L24" s="3">
+      <c r="M24" s="3">
         <v>19200</v>
       </c>
-      <c r="M24" s="3">
+      <c r="N24" s="3">
         <v>5200</v>
       </c>
-      <c r="N24" s="3">
+      <c r="O24" s="3">
         <v>8600</v>
       </c>
-      <c r="O24" s="3">
+      <c r="P24" s="3">
         <v>5800</v>
       </c>
-      <c r="P24" s="3">
+      <c r="Q24" s="3">
         <v>4700</v>
       </c>
-      <c r="Q24" s="3">
+      <c r="R24" s="3">
         <v>-8200</v>
       </c>
-      <c r="R24" s="3">
+      <c r="S24" s="3">
         <v>1400</v>
       </c>
-      <c r="S24" s="3">
+      <c r="T24" s="3">
         <v>5200</v>
       </c>
-      <c r="T24" s="3">
+      <c r="U24" s="3">
         <v>-3300</v>
       </c>
-      <c r="U24" s="3">
-        <v>0</v>
-      </c>
       <c r="V24" s="3">
+        <v>0</v>
+      </c>
+      <c r="W24" s="3">
         <v>-109300</v>
       </c>
-      <c r="W24" s="3">
+      <c r="X24" s="3">
         <v>-3600</v>
       </c>
-      <c r="X24" s="3">
+      <c r="Y24" s="3">
         <v>27300</v>
       </c>
-      <c r="Y24" s="3">
+      <c r="Z24" s="3">
         <v>11600</v>
       </c>
-      <c r="Z24" s="3">
+      <c r="AA24" s="3">
         <v>6100</v>
       </c>
-      <c r="AA24" s="3">
+      <c r="AB24" s="3">
         <v>-2300</v>
       </c>
     </row>
-    <row r="25" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="25" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -2007,162 +2055,171 @@
       <c r="AA25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>-400</v>
+      </c>
+      <c r="E26" s="3">
         <v>34700</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
         <v>26000</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>56700</v>
       </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
         <v>81500</v>
       </c>
-      <c r="H26" s="3">
+      <c r="I26" s="3">
         <v>21500</v>
       </c>
-      <c r="I26" s="3">
+      <c r="J26" s="3">
         <v>225500</v>
       </c>
-      <c r="J26" s="3">
+      <c r="K26" s="3">
         <v>83200</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>67100</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>-4600</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>43400</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>49100</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>47600</v>
       </c>
-      <c r="P26" s="3">
+      <c r="Q26" s="3">
         <v>-25800</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="R26" s="3">
         <v>-74300</v>
       </c>
-      <c r="R26" s="3">
+      <c r="S26" s="3">
         <v>16300</v>
       </c>
-      <c r="S26" s="3">
+      <c r="T26" s="3">
         <v>47400</v>
       </c>
-      <c r="T26" s="3">
+      <c r="U26" s="3">
         <v>31000</v>
       </c>
-      <c r="U26" s="3">
+      <c r="V26" s="3">
         <v>2700</v>
       </c>
-      <c r="V26" s="3">
+      <c r="W26" s="3">
         <v>204800</v>
       </c>
-      <c r="W26" s="3">
+      <c r="X26" s="3">
         <v>7100</v>
       </c>
-      <c r="X26" s="3">
+      <c r="Y26" s="3">
         <v>-54900</v>
       </c>
-      <c r="Y26" s="3">
+      <c r="Z26" s="3">
         <v>-56000</v>
       </c>
-      <c r="Z26" s="3">
+      <c r="AA26" s="3">
         <v>11800</v>
       </c>
-      <c r="AA26" s="3">
+      <c r="AB26" s="3">
         <v>-3400</v>
       </c>
     </row>
-    <row r="27" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>-400</v>
+      </c>
+      <c r="E27" s="3">
         <v>34700</v>
       </c>
-      <c r="E27" s="3">
+      <c r="F27" s="3">
         <v>26000</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>56700</v>
       </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
         <v>81500</v>
       </c>
-      <c r="H27" s="3">
+      <c r="I27" s="3">
         <v>21500</v>
       </c>
-      <c r="I27" s="3">
+      <c r="J27" s="3">
         <v>225500</v>
       </c>
-      <c r="J27" s="3">
+      <c r="K27" s="3">
         <v>83200</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>67100</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>-4600</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>43400</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>49100</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>47600</v>
       </c>
-      <c r="P27" s="3">
+      <c r="Q27" s="3">
         <v>-25800</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="R27" s="3">
         <v>-74300</v>
       </c>
-      <c r="R27" s="3">
+      <c r="S27" s="3">
         <v>16200</v>
       </c>
-      <c r="S27" s="3">
+      <c r="T27" s="3">
         <v>46100</v>
       </c>
-      <c r="T27" s="3">
+      <c r="U27" s="3">
         <v>30000</v>
       </c>
-      <c r="U27" s="3">
+      <c r="V27" s="3">
         <v>2400</v>
       </c>
-      <c r="V27" s="3">
+      <c r="W27" s="3">
         <v>199800</v>
       </c>
-      <c r="W27" s="3">
+      <c r="X27" s="3">
         <v>6900</v>
       </c>
-      <c r="X27" s="3">
+      <c r="Y27" s="3">
         <v>-55200</v>
       </c>
-      <c r="Y27" s="3">
+      <c r="Z27" s="3">
         <v>-56200</v>
       </c>
-      <c r="Z27" s="3">
+      <c r="AA27" s="3">
         <v>11600</v>
       </c>
-      <c r="AA27" s="3">
+      <c r="AB27" s="3">
         <v>-3600</v>
       </c>
     </row>
-    <row r="28" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -2238,8 +2295,11 @@
       <c r="AA28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -2273,17 +2333,17 @@
       <c r="M29" s="3">
         <v>0</v>
       </c>
-      <c r="N29" s="3" t="s">
-        <v>17</v>
+      <c r="N29" s="3">
+        <v>0</v>
       </c>
       <c r="O29" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="P29" s="3">
-        <v>0</v>
-      </c>
-      <c r="Q29" s="3" t="s">
+      <c r="P29" s="3" t="s">
         <v>17</v>
+      </c>
+      <c r="Q29" s="3">
+        <v>0</v>
       </c>
       <c r="R29" s="3" t="s">
         <v>17</v>
@@ -2291,17 +2351,17 @@
       <c r="S29" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="T29" s="3">
+      <c r="T29" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="U29" s="3">
         <v>2500</v>
       </c>
-      <c r="U29" s="3">
-        <v>0</v>
-      </c>
       <c r="V29" s="3">
+        <v>0</v>
+      </c>
+      <c r="W29" s="3">
         <v>-83000</v>
-      </c>
-      <c r="W29" s="3" t="s">
-        <v>17</v>
       </c>
       <c r="X29" s="3" t="s">
         <v>17</v>
@@ -2315,8 +2375,11 @@
       <c r="AA29" s="3" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="30" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB29" s="3" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="30" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -2392,8 +2455,11 @@
       <c r="AA30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -2469,162 +2535,171 @@
       <c r="AA31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
+        <v>-13800</v>
+      </c>
+      <c r="E32" s="3">
         <v>-8200</v>
       </c>
-      <c r="E32" s="3">
+      <c r="F32" s="3">
         <v>-2200</v>
       </c>
-      <c r="F32" s="3">
+      <c r="G32" s="3">
         <v>-1000</v>
       </c>
-      <c r="G32" s="3">
+      <c r="H32" s="3">
         <v>-600</v>
       </c>
-      <c r="H32" s="3">
+      <c r="I32" s="3">
         <v>-700</v>
       </c>
-      <c r="I32" s="3">
+      <c r="J32" s="3">
         <v>-2400</v>
       </c>
-      <c r="J32" s="3">
+      <c r="K32" s="3">
         <v>900</v>
       </c>
-      <c r="K32" s="3">
+      <c r="L32" s="3">
         <v>-600</v>
       </c>
-      <c r="L32" s="3">
+      <c r="M32" s="3">
         <v>-3500</v>
       </c>
-      <c r="M32" s="3">
+      <c r="N32" s="3">
         <v>-21700</v>
       </c>
-      <c r="N32" s="3">
+      <c r="O32" s="3">
         <v>-1200</v>
       </c>
-      <c r="O32" s="3">
+      <c r="P32" s="3">
         <v>-5000</v>
       </c>
-      <c r="P32" s="3">
+      <c r="Q32" s="3">
         <v>-4100</v>
       </c>
-      <c r="Q32" s="3">
+      <c r="R32" s="3">
         <v>-5200</v>
       </c>
-      <c r="R32" s="3">
+      <c r="S32" s="3">
         <v>-14700</v>
       </c>
-      <c r="S32" s="3">
+      <c r="T32" s="3">
         <v>-600</v>
       </c>
-      <c r="T32" s="3">
+      <c r="U32" s="3">
         <v>-11400</v>
       </c>
-      <c r="U32" s="3">
+      <c r="V32" s="3">
         <v>18200</v>
       </c>
-      <c r="V32" s="3">
+      <c r="W32" s="3">
         <v>-9300</v>
       </c>
-      <c r="W32" s="3">
+      <c r="X32" s="3">
         <v>-5200</v>
       </c>
-      <c r="X32" s="3">
+      <c r="Y32" s="3">
         <v>31500</v>
       </c>
-      <c r="Y32" s="3">
+      <c r="Z32" s="3">
         <v>58000</v>
       </c>
-      <c r="Z32" s="3">
+      <c r="AA32" s="3">
         <v>-4600</v>
       </c>
-      <c r="AA32" s="3">
+      <c r="AB32" s="3">
         <v>22500</v>
       </c>
     </row>
-    <row r="33" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>-400</v>
+      </c>
+      <c r="E33" s="3">
         <v>34700</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
         <v>26000</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>56700</v>
       </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
         <v>81500</v>
       </c>
-      <c r="H33" s="3">
+      <c r="I33" s="3">
         <v>21500</v>
       </c>
-      <c r="I33" s="3">
+      <c r="J33" s="3">
         <v>225500</v>
       </c>
-      <c r="J33" s="3">
+      <c r="K33" s="3">
         <v>83200</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>67100</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>-4600</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>43400</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>49100</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>47600</v>
       </c>
-      <c r="P33" s="3">
+      <c r="Q33" s="3">
         <v>-25800</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="R33" s="3">
         <v>-74300</v>
       </c>
-      <c r="R33" s="3">
+      <c r="S33" s="3">
         <v>16200</v>
       </c>
-      <c r="S33" s="3">
+      <c r="T33" s="3">
         <v>46100</v>
       </c>
-      <c r="T33" s="3">
+      <c r="U33" s="3">
         <v>32500</v>
       </c>
-      <c r="U33" s="3">
+      <c r="V33" s="3">
         <v>2400</v>
       </c>
-      <c r="V33" s="3">
+      <c r="W33" s="3">
         <v>116800</v>
       </c>
-      <c r="W33" s="3">
+      <c r="X33" s="3">
         <v>6900</v>
       </c>
-      <c r="X33" s="3">
+      <c r="Y33" s="3">
         <v>-55200</v>
       </c>
-      <c r="Y33" s="3">
+      <c r="Z33" s="3">
         <v>-56200</v>
       </c>
-      <c r="Z33" s="3">
+      <c r="AA33" s="3">
         <v>11600</v>
       </c>
-      <c r="AA33" s="3">
+      <c r="AB33" s="3">
         <v>-3600</v>
       </c>
     </row>
-    <row r="34" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2700,167 +2775,176 @@
       <c r="AA34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>-400</v>
+      </c>
+      <c r="E35" s="3">
         <v>34700</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
         <v>26000</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>56700</v>
       </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
         <v>81500</v>
       </c>
-      <c r="H35" s="3">
+      <c r="I35" s="3">
         <v>21500</v>
       </c>
-      <c r="I35" s="3">
+      <c r="J35" s="3">
         <v>225500</v>
       </c>
-      <c r="J35" s="3">
+      <c r="K35" s="3">
         <v>83200</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>67100</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>-4600</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>43400</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>49100</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>47600</v>
       </c>
-      <c r="P35" s="3">
+      <c r="Q35" s="3">
         <v>-25800</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="R35" s="3">
         <v>-74300</v>
       </c>
-      <c r="R35" s="3">
+      <c r="S35" s="3">
         <v>16200</v>
       </c>
-      <c r="S35" s="3">
+      <c r="T35" s="3">
         <v>46100</v>
       </c>
-      <c r="T35" s="3">
+      <c r="U35" s="3">
         <v>32500</v>
       </c>
-      <c r="U35" s="3">
+      <c r="V35" s="3">
         <v>2400</v>
       </c>
-      <c r="V35" s="3">
+      <c r="W35" s="3">
         <v>116800</v>
       </c>
-      <c r="W35" s="3">
+      <c r="X35" s="3">
         <v>6900</v>
       </c>
-      <c r="X35" s="3">
+      <c r="Y35" s="3">
         <v>-55200</v>
       </c>
-      <c r="Y35" s="3">
+      <c r="Z35" s="3">
         <v>-56200</v>
       </c>
-      <c r="Z35" s="3">
+      <c r="AA35" s="3">
         <v>11600</v>
       </c>
-      <c r="AA35" s="3">
+      <c r="AB35" s="3">
         <v>-3600</v>
       </c>
     </row>
-    <row r="37" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:28" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44835</v>
+      </c>
+      <c r="E38" s="2">
         <v>44744</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44653</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44562</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44471</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>44380</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>44289</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>44191</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>44100</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>44009</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>43918</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>43827</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>43736</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>43645</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>43554</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>43463</v>
       </c>
-      <c r="S38" s="2">
+      <c r="T38" s="2">
         <v>43372</v>
       </c>
-      <c r="T38" s="2">
+      <c r="U38" s="2">
         <v>43281</v>
       </c>
-      <c r="U38" s="2">
+      <c r="V38" s="2">
         <v>43190</v>
       </c>
-      <c r="V38" s="2">
+      <c r="W38" s="2">
         <v>43099</v>
       </c>
-      <c r="W38" s="2">
+      <c r="X38" s="2">
         <v>43008</v>
       </c>
-      <c r="X38" s="2">
+      <c r="Y38" s="2">
         <v>42917</v>
       </c>
-      <c r="Y38" s="2">
+      <c r="Z38" s="2">
         <v>42826</v>
       </c>
-      <c r="Z38" s="2">
+      <c r="AA38" s="2">
         <v>42735</v>
       </c>
-      <c r="AA38" s="2">
+      <c r="AB38" s="2">
         <v>42644</v>
       </c>
     </row>
-    <row r="39" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2888,8 +2972,9 @@
       <c r="Y39" s="3"/>
       <c r="Z39" s="3"/>
       <c r="AA39" s="3"/>
-    </row>
-    <row r="40" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB39" s="3"/>
+    </row>
+    <row r="40" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2917,153 +3002,157 @@
       <c r="Y40" s="3"/>
       <c r="Z40" s="3"/>
       <c r="AA40" s="3"/>
-    </row>
-    <row r="41" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB40" s="3"/>
+    </row>
+    <row r="41" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>605300</v>
+      </c>
+      <c r="E41" s="3">
         <v>1290200</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>1130300</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>552000</v>
       </c>
-      <c r="G41" s="3">
+      <c r="H41" s="3">
         <v>611000</v>
       </c>
-      <c r="H41" s="3">
+      <c r="I41" s="3">
         <v>774300</v>
       </c>
-      <c r="I41" s="3">
+      <c r="J41" s="3">
         <v>687700</v>
       </c>
-      <c r="J41" s="3">
+      <c r="K41" s="3">
         <v>321300</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>269500</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>298000</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>688300</v>
       </c>
-      <c r="N41" s="3">
+      <c r="O41" s="3">
         <v>1085000</v>
       </c>
-      <c r="O41" s="3">
+      <c r="P41" s="3">
         <v>539000</v>
       </c>
-      <c r="P41" s="3">
+      <c r="Q41" s="3">
         <v>432600</v>
       </c>
-      <c r="Q41" s="3">
+      <c r="R41" s="3">
         <v>357300</v>
       </c>
-      <c r="R41" s="3">
+      <c r="S41" s="3">
         <v>371300</v>
       </c>
-      <c r="S41" s="3">
+      <c r="T41" s="3">
         <v>459400</v>
       </c>
-      <c r="T41" s="3">
+      <c r="U41" s="3">
         <v>397300</v>
       </c>
-      <c r="U41" s="3">
+      <c r="V41" s="3">
         <v>176800</v>
       </c>
-      <c r="V41" s="3">
+      <c r="W41" s="3">
         <v>202100</v>
       </c>
-      <c r="W41" s="3">
+      <c r="X41" s="3">
         <v>150800</v>
       </c>
-      <c r="X41" s="3">
+      <c r="Y41" s="3">
         <v>272900</v>
       </c>
-      <c r="Y41" s="3">
+      <c r="Z41" s="3">
         <v>577900</v>
       </c>
-      <c r="Z41" s="3">
+      <c r="AA41" s="3">
         <v>155900</v>
       </c>
-      <c r="AA41" s="3">
+      <c r="AB41" s="3">
         <v>166800</v>
       </c>
     </row>
-    <row r="42" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
       <c r="D42" s="3">
+        <v>1019600</v>
+      </c>
+      <c r="E42" s="3">
         <v>1258800</v>
       </c>
-      <c r="E42" s="3">
+      <c r="F42" s="3">
         <v>1433800</v>
       </c>
-      <c r="F42" s="3">
+      <c r="G42" s="3">
         <v>1470400</v>
       </c>
-      <c r="G42" s="3">
+      <c r="H42" s="3">
         <v>1273600</v>
       </c>
-      <c r="H42" s="3">
+      <c r="I42" s="3">
         <v>1171700</v>
       </c>
-      <c r="I42" s="3">
+      <c r="J42" s="3">
         <v>1366900</v>
       </c>
-      <c r="J42" s="3">
+      <c r="K42" s="3">
         <v>1379000</v>
       </c>
-      <c r="K42" s="3">
+      <c r="L42" s="3">
         <v>1341200</v>
       </c>
-      <c r="L42" s="3">
+      <c r="M42" s="3">
         <v>1255800</v>
       </c>
-      <c r="M42" s="3">
+      <c r="N42" s="3">
         <v>763100</v>
       </c>
-      <c r="N42" s="3">
+      <c r="O42" s="3">
         <v>230600</v>
       </c>
-      <c r="O42" s="3">
+      <c r="P42" s="3">
         <v>291900</v>
       </c>
-      <c r="P42" s="3">
+      <c r="Q42" s="3">
         <v>335900</v>
       </c>
-      <c r="Q42" s="3">
+      <c r="R42" s="3">
         <v>340200</v>
       </c>
-      <c r="R42" s="3">
+      <c r="S42" s="3">
         <v>312800</v>
       </c>
-      <c r="S42" s="3">
+      <c r="T42" s="3">
         <v>274900</v>
       </c>
-      <c r="T42" s="3">
+      <c r="U42" s="3">
         <v>314200</v>
       </c>
-      <c r="U42" s="3">
+      <c r="V42" s="3">
         <v>516000</v>
       </c>
-      <c r="V42" s="3">
+      <c r="W42" s="3">
         <v>422400</v>
       </c>
-      <c r="W42" s="3">
+      <c r="X42" s="3">
         <v>381700</v>
       </c>
-      <c r="X42" s="3">
+      <c r="Y42" s="3">
         <v>282400</v>
-      </c>
-      <c r="Y42" s="3" t="s">
-        <v>17</v>
       </c>
       <c r="Z42" s="3" t="s">
         <v>17</v>
@@ -3071,316 +3160,331 @@
       <c r="AA42" s="3" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="43" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB42" s="3" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="43" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
+        <v>340500</v>
+      </c>
+      <c r="E43" s="3">
         <v>262000</v>
       </c>
-      <c r="E43" s="3">
+      <c r="F43" s="3">
         <v>242200</v>
       </c>
-      <c r="F43" s="3">
+      <c r="G43" s="3">
         <v>239200</v>
       </c>
-      <c r="G43" s="3">
+      <c r="H43" s="3">
         <v>263200</v>
       </c>
-      <c r="H43" s="3">
+      <c r="I43" s="3">
         <v>212800</v>
       </c>
-      <c r="I43" s="3">
+      <c r="J43" s="3">
         <v>224800</v>
       </c>
-      <c r="J43" s="3">
+      <c r="K43" s="3">
         <v>276700</v>
       </c>
-      <c r="K43" s="3">
+      <c r="L43" s="3">
         <v>263600</v>
       </c>
-      <c r="L43" s="3">
+      <c r="M43" s="3">
         <v>233500</v>
       </c>
-      <c r="M43" s="3">
+      <c r="N43" s="3">
         <v>303100</v>
       </c>
-      <c r="N43" s="3">
+      <c r="O43" s="3">
         <v>343600</v>
       </c>
-      <c r="O43" s="3">
+      <c r="P43" s="3">
         <v>339600</v>
       </c>
-      <c r="P43" s="3">
+      <c r="Q43" s="3">
         <v>286200</v>
       </c>
-      <c r="Q43" s="3">
+      <c r="R43" s="3">
         <v>329700</v>
       </c>
-      <c r="R43" s="3">
+      <c r="S43" s="3">
         <v>266500</v>
       </c>
-      <c r="S43" s="3">
+      <c r="T43" s="3">
         <v>239600</v>
       </c>
-      <c r="T43" s="3">
+      <c r="U43" s="3">
         <v>197100</v>
       </c>
-      <c r="U43" s="3">
+      <c r="V43" s="3">
         <v>164700</v>
       </c>
-      <c r="V43" s="3">
+      <c r="W43" s="3">
         <v>222100</v>
       </c>
-      <c r="W43" s="3">
+      <c r="X43" s="3">
         <v>173800</v>
       </c>
-      <c r="X43" s="3">
+      <c r="Y43" s="3">
         <v>166300</v>
       </c>
-      <c r="Y43" s="3">
+      <c r="Z43" s="3">
         <v>185400</v>
       </c>
-      <c r="Z43" s="3">
+      <c r="AA43" s="3">
         <v>192500</v>
       </c>
-      <c r="AA43" s="3">
+      <c r="AB43" s="3">
         <v>156500</v>
       </c>
     </row>
-    <row r="44" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
+        <v>366200</v>
+      </c>
+      <c r="E44" s="3">
         <v>250100</v>
       </c>
-      <c r="E44" s="3">
+      <c r="F44" s="3">
         <v>224000</v>
       </c>
-      <c r="F44" s="3">
+      <c r="G44" s="3">
         <v>208100</v>
       </c>
-      <c r="G44" s="3">
+      <c r="H44" s="3">
         <v>207000</v>
       </c>
-      <c r="H44" s="3">
+      <c r="I44" s="3">
         <v>196400</v>
       </c>
-      <c r="I44" s="3">
+      <c r="J44" s="3">
         <v>210700</v>
       </c>
-      <c r="J44" s="3">
+      <c r="K44" s="3">
         <v>207100</v>
       </c>
-      <c r="K44" s="3">
+      <c r="L44" s="3">
         <v>212600</v>
       </c>
-      <c r="L44" s="3">
+      <c r="M44" s="3">
         <v>188900</v>
       </c>
-      <c r="M44" s="3">
+      <c r="N44" s="3">
         <v>172700</v>
       </c>
-      <c r="N44" s="3">
+      <c r="O44" s="3">
         <v>179600</v>
       </c>
-      <c r="O44" s="3">
+      <c r="P44" s="3">
         <v>202200</v>
       </c>
-      <c r="P44" s="3">
+      <c r="Q44" s="3">
         <v>228800</v>
       </c>
-      <c r="Q44" s="3">
+      <c r="R44" s="3">
         <v>272200</v>
       </c>
-      <c r="R44" s="3">
+      <c r="S44" s="3">
         <v>303200</v>
       </c>
-      <c r="S44" s="3">
+      <c r="T44" s="3">
         <v>136600</v>
       </c>
-      <c r="T44" s="3">
+      <c r="U44" s="3">
         <v>153600</v>
       </c>
-      <c r="U44" s="3">
+      <c r="V44" s="3">
         <v>144200</v>
       </c>
-      <c r="V44" s="3">
+      <c r="W44" s="3">
         <v>147300</v>
       </c>
-      <c r="W44" s="3">
+      <c r="X44" s="3">
         <v>147200</v>
       </c>
-      <c r="X44" s="3">
+      <c r="Y44" s="3">
         <v>145200</v>
       </c>
-      <c r="Y44" s="3">
+      <c r="Z44" s="3">
         <v>116900</v>
       </c>
-      <c r="Z44" s="3">
+      <c r="AA44" s="3">
         <v>121000</v>
       </c>
-      <c r="AA44" s="3">
+      <c r="AB44" s="3">
         <v>103700</v>
       </c>
     </row>
-    <row r="45" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="45" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
+        <v>106800</v>
+      </c>
+      <c r="E45" s="3">
         <v>78100</v>
       </c>
-      <c r="E45" s="3">
+      <c r="F45" s="3">
         <v>70300</v>
       </c>
-      <c r="F45" s="3">
+      <c r="G45" s="3">
         <v>70400</v>
       </c>
-      <c r="G45" s="3">
+      <c r="H45" s="3">
         <v>68200</v>
       </c>
-      <c r="H45" s="3">
+      <c r="I45" s="3">
         <v>81600</v>
       </c>
-      <c r="I45" s="3">
+      <c r="J45" s="3">
         <v>79700</v>
       </c>
-      <c r="J45" s="3">
+      <c r="K45" s="3">
         <v>82100</v>
       </c>
-      <c r="K45" s="3">
+      <c r="L45" s="3">
         <v>79800</v>
       </c>
-      <c r="L45" s="3">
+      <c r="M45" s="3">
         <v>73800</v>
       </c>
-      <c r="M45" s="3">
+      <c r="N45" s="3">
         <v>35800</v>
       </c>
-      <c r="N45" s="3">
+      <c r="O45" s="3">
         <v>44200</v>
       </c>
-      <c r="O45" s="3">
+      <c r="P45" s="3">
         <v>50500</v>
       </c>
-      <c r="P45" s="3">
+      <c r="Q45" s="3">
         <v>49300</v>
       </c>
-      <c r="Q45" s="3">
+      <c r="R45" s="3">
         <v>118700</v>
       </c>
-      <c r="R45" s="3">
+      <c r="S45" s="3">
         <v>103100</v>
       </c>
-      <c r="S45" s="3">
+      <c r="T45" s="3">
         <v>70600</v>
       </c>
-      <c r="T45" s="3">
+      <c r="U45" s="3">
         <v>65000</v>
       </c>
-      <c r="U45" s="3">
+      <c r="V45" s="3">
         <v>63000</v>
       </c>
-      <c r="V45" s="3">
+      <c r="W45" s="3">
         <v>59900</v>
       </c>
-      <c r="W45" s="3">
+      <c r="X45" s="3">
         <v>69000</v>
       </c>
-      <c r="X45" s="3">
+      <c r="Y45" s="3">
         <v>63500</v>
       </c>
-      <c r="Y45" s="3">
+      <c r="Z45" s="3">
         <v>61400</v>
       </c>
-      <c r="Z45" s="3">
+      <c r="AA45" s="3">
         <v>58200</v>
       </c>
-      <c r="AA45" s="3">
+      <c r="AB45" s="3">
         <v>62300</v>
       </c>
     </row>
-    <row r="46" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="46" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>2438400</v>
+      </c>
+      <c r="E46" s="3">
         <v>3139200</v>
       </c>
-      <c r="E46" s="3">
+      <c r="F46" s="3">
         <v>3100600</v>
       </c>
-      <c r="F46" s="3">
+      <c r="G46" s="3">
         <v>2540100</v>
       </c>
-      <c r="G46" s="3">
+      <c r="H46" s="3">
         <v>2423000</v>
       </c>
-      <c r="H46" s="3">
+      <c r="I46" s="3">
         <v>2436800</v>
       </c>
-      <c r="I46" s="3">
+      <c r="J46" s="3">
         <v>2569800</v>
       </c>
-      <c r="J46" s="3">
+      <c r="K46" s="3">
         <v>2266200</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>2166700</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>2050000</v>
       </c>
-      <c r="M46" s="3">
+      <c r="N46" s="3">
         <v>1963000</v>
       </c>
-      <c r="N46" s="3">
+      <c r="O46" s="3">
         <v>1883000</v>
       </c>
-      <c r="O46" s="3">
+      <c r="P46" s="3">
         <v>1423200</v>
       </c>
-      <c r="P46" s="3">
+      <c r="Q46" s="3">
         <v>1332800</v>
       </c>
-      <c r="Q46" s="3">
+      <c r="R46" s="3">
         <v>1418100</v>
       </c>
-      <c r="R46" s="3">
+      <c r="S46" s="3">
         <v>1356900</v>
       </c>
-      <c r="S46" s="3">
+      <c r="T46" s="3">
         <v>1181100</v>
       </c>
-      <c r="T46" s="3">
+      <c r="U46" s="3">
         <v>1127200</v>
       </c>
-      <c r="U46" s="3">
+      <c r="V46" s="3">
         <v>1064700</v>
       </c>
-      <c r="V46" s="3">
+      <c r="W46" s="3">
         <v>1053800</v>
       </c>
-      <c r="W46" s="3">
+      <c r="X46" s="3">
         <v>922500</v>
       </c>
-      <c r="X46" s="3">
+      <c r="Y46" s="3">
         <v>930300</v>
       </c>
-      <c r="Y46" s="3">
+      <c r="Z46" s="3">
         <v>941600</v>
       </c>
-      <c r="Z46" s="3">
+      <c r="AA46" s="3">
         <v>527600</v>
       </c>
-      <c r="AA46" s="3">
+      <c r="AB46" s="3">
         <v>489300</v>
       </c>
     </row>
-    <row r="47" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -3456,162 +3560,171 @@
       <c r="AA47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>567400</v>
+      </c>
+      <c r="E48" s="3">
         <v>434100</v>
       </c>
-      <c r="E48" s="3">
+      <c r="F48" s="3">
         <v>430700</v>
       </c>
-      <c r="F48" s="3">
+      <c r="G48" s="3">
         <v>434700</v>
       </c>
-      <c r="G48" s="3">
+      <c r="H48" s="3">
         <v>428400</v>
       </c>
-      <c r="H48" s="3">
+      <c r="I48" s="3">
         <v>428500</v>
       </c>
-      <c r="I48" s="3">
+      <c r="J48" s="3">
         <v>448300</v>
       </c>
-      <c r="J48" s="3">
+      <c r="K48" s="3">
         <v>457600</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>468100</v>
       </c>
-      <c r="L48" s="3">
+      <c r="M48" s="3">
         <v>471700</v>
       </c>
-      <c r="M48" s="3">
+      <c r="N48" s="3">
         <v>491800</v>
       </c>
-      <c r="N48" s="3">
+      <c r="O48" s="3">
         <v>505700</v>
       </c>
-      <c r="O48" s="3">
+      <c r="P48" s="3">
         <v>524900</v>
       </c>
-      <c r="P48" s="3">
+      <c r="Q48" s="3">
         <v>433300</v>
       </c>
-      <c r="Q48" s="3">
+      <c r="R48" s="3">
         <v>390600</v>
       </c>
-      <c r="R48" s="3">
+      <c r="S48" s="3">
         <v>444700</v>
       </c>
-      <c r="S48" s="3">
+      <c r="T48" s="3">
         <v>318600</v>
       </c>
-      <c r="T48" s="3">
+      <c r="U48" s="3">
         <v>280600</v>
       </c>
-      <c r="U48" s="3">
+      <c r="V48" s="3">
         <v>264500</v>
       </c>
-      <c r="V48" s="3">
+      <c r="W48" s="3">
         <v>301300</v>
       </c>
-      <c r="W48" s="3">
+      <c r="X48" s="3">
         <v>293700</v>
       </c>
-      <c r="X48" s="3">
+      <c r="Y48" s="3">
         <v>273500</v>
       </c>
-      <c r="Y48" s="3">
+      <c r="Z48" s="3">
         <v>246600</v>
       </c>
-      <c r="Z48" s="3">
+      <c r="AA48" s="3">
         <v>219600</v>
       </c>
-      <c r="AA48" s="3">
+      <c r="AB48" s="3">
         <v>196000</v>
       </c>
     </row>
-    <row r="49" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="49" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
+        <v>1269700</v>
+      </c>
+      <c r="E49" s="3">
         <v>524600</v>
       </c>
-      <c r="E49" s="3">
+      <c r="F49" s="3">
         <v>545800</v>
       </c>
-      <c r="F49" s="3">
+      <c r="G49" s="3">
         <v>567200</v>
       </c>
-      <c r="G49" s="3">
+      <c r="H49" s="3">
         <v>588700</v>
       </c>
-      <c r="H49" s="3">
+      <c r="I49" s="3">
         <v>610100</v>
       </c>
-      <c r="I49" s="3">
+      <c r="J49" s="3">
         <v>632100</v>
       </c>
-      <c r="J49" s="3">
+      <c r="K49" s="3">
         <v>654100</v>
       </c>
-      <c r="K49" s="3">
+      <c r="L49" s="3">
         <v>665000</v>
       </c>
-      <c r="L49" s="3">
+      <c r="M49" s="3">
         <v>685700</v>
       </c>
-      <c r="M49" s="3">
+      <c r="N49" s="3">
         <v>706900</v>
       </c>
-      <c r="N49" s="3">
+      <c r="O49" s="3">
         <v>726900</v>
       </c>
-      <c r="O49" s="3">
+      <c r="P49" s="3">
         <v>745500</v>
       </c>
-      <c r="P49" s="3">
+      <c r="Q49" s="3">
         <v>764300</v>
       </c>
-      <c r="Q49" s="3">
+      <c r="R49" s="3">
         <v>772100</v>
       </c>
-      <c r="R49" s="3">
+      <c r="S49" s="3">
         <v>789700</v>
       </c>
-      <c r="S49" s="3">
+      <c r="T49" s="3">
         <v>17600</v>
       </c>
-      <c r="T49" s="3">
+      <c r="U49" s="3">
         <v>44600</v>
       </c>
-      <c r="U49" s="3">
+      <c r="V49" s="3">
         <v>57200</v>
       </c>
-      <c r="V49" s="3">
+      <c r="W49" s="3">
         <v>20400</v>
       </c>
-      <c r="W49" s="3">
+      <c r="X49" s="3">
         <v>21000</v>
       </c>
-      <c r="X49" s="3">
+      <c r="Y49" s="3">
         <v>21500</v>
       </c>
-      <c r="Y49" s="3">
+      <c r="Z49" s="3">
         <v>22300</v>
       </c>
-      <c r="Z49" s="3">
+      <c r="AA49" s="3">
         <v>16000</v>
       </c>
-      <c r="AA49" s="3">
+      <c r="AB49" s="3">
         <v>18100</v>
       </c>
     </row>
-    <row r="50" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="50" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -3687,8 +3800,11 @@
       <c r="AA50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -3764,85 +3880,91 @@
       <c r="AA51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
+        <v>111900</v>
+      </c>
+      <c r="E52" s="3">
         <v>64300</v>
       </c>
-      <c r="E52" s="3">
+      <c r="F52" s="3">
         <v>56400</v>
       </c>
-      <c r="F52" s="3">
+      <c r="G52" s="3">
         <v>73700</v>
       </c>
-      <c r="G52" s="3">
+      <c r="H52" s="3">
         <v>78900</v>
       </c>
-      <c r="H52" s="3">
+      <c r="I52" s="3">
         <v>76200</v>
       </c>
-      <c r="I52" s="3">
+      <c r="J52" s="3">
         <v>95700</v>
       </c>
-      <c r="J52" s="3">
+      <c r="K52" s="3">
         <v>90300</v>
       </c>
-      <c r="K52" s="3">
+      <c r="L52" s="3">
         <v>87600</v>
       </c>
-      <c r="L52" s="3">
+      <c r="M52" s="3">
         <v>85200</v>
       </c>
-      <c r="M52" s="3">
+      <c r="N52" s="3">
         <v>107000</v>
       </c>
-      <c r="N52" s="3">
+      <c r="O52" s="3">
         <v>105600</v>
       </c>
-      <c r="O52" s="3">
+      <c r="P52" s="3">
         <v>174200</v>
       </c>
-      <c r="P52" s="3">
+      <c r="Q52" s="3">
         <v>186200</v>
       </c>
-      <c r="Q52" s="3">
+      <c r="R52" s="3">
         <v>190600</v>
       </c>
-      <c r="R52" s="3">
+      <c r="S52" s="3">
         <v>205300</v>
       </c>
-      <c r="S52" s="3">
+      <c r="T52" s="3">
         <v>127700</v>
       </c>
-      <c r="T52" s="3">
+      <c r="U52" s="3">
         <v>129100</v>
       </c>
-      <c r="U52" s="3">
+      <c r="V52" s="3">
         <v>131800</v>
       </c>
-      <c r="V52" s="3">
+      <c r="W52" s="3">
         <v>131900</v>
       </c>
-      <c r="W52" s="3">
+      <c r="X52" s="3">
         <v>11200</v>
       </c>
-      <c r="X52" s="3">
+      <c r="Y52" s="3">
         <v>7600</v>
       </c>
-      <c r="Y52" s="3">
+      <c r="Z52" s="3">
         <v>34000</v>
       </c>
-      <c r="Z52" s="3">
+      <c r="AA52" s="3">
         <v>33500</v>
       </c>
-      <c r="AA52" s="3">
+      <c r="AB52" s="3">
         <v>34100</v>
       </c>
     </row>
-    <row r="53" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="53" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -3918,85 +4040,91 @@
       <c r="AA53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>4387400</v>
+      </c>
+      <c r="E54" s="3">
         <v>4162200</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>4133500</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>3615700</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>3519000</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>3551600</v>
       </c>
-      <c r="I54" s="3">
+      <c r="J54" s="3">
         <v>3745900</v>
       </c>
-      <c r="J54" s="3">
+      <c r="K54" s="3">
         <v>3468200</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>3387400</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>3292600</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>3268700</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>3221200</v>
       </c>
-      <c r="O54" s="3">
+      <c r="P54" s="3">
         <v>2867800</v>
       </c>
-      <c r="P54" s="3">
+      <c r="Q54" s="3">
         <v>2716600</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="R54" s="3">
         <v>2771400</v>
       </c>
-      <c r="R54" s="3">
+      <c r="S54" s="3">
         <v>2796600</v>
       </c>
-      <c r="S54" s="3">
+      <c r="T54" s="3">
         <v>1645000</v>
       </c>
-      <c r="T54" s="3">
+      <c r="U54" s="3">
         <v>1581500</v>
       </c>
-      <c r="U54" s="3">
+      <c r="V54" s="3">
         <v>1518200</v>
       </c>
-      <c r="V54" s="3">
+      <c r="W54" s="3">
         <v>1507400</v>
       </c>
-      <c r="W54" s="3">
+      <c r="X54" s="3">
         <v>1248400</v>
       </c>
-      <c r="X54" s="3">
+      <c r="Y54" s="3">
         <v>1232900</v>
       </c>
-      <c r="Y54" s="3">
+      <c r="Z54" s="3">
         <v>1244500</v>
       </c>
-      <c r="Z54" s="3">
+      <c r="AA54" s="3">
         <v>796700</v>
       </c>
-      <c r="AA54" s="3">
+      <c r="AB54" s="3">
         <v>737500</v>
       </c>
     </row>
-    <row r="55" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -4024,8 +4152,9 @@
       <c r="Y55" s="3"/>
       <c r="Z55" s="3"/>
       <c r="AA55" s="3"/>
-    </row>
-    <row r="56" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB55" s="3"/>
+    </row>
+    <row r="56" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -4053,150 +4182,154 @@
       <c r="Y56" s="3"/>
       <c r="Z56" s="3"/>
       <c r="AA56" s="3"/>
-    </row>
-    <row r="57" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB56" s="3"/>
+    </row>
+    <row r="57" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>205700</v>
+      </c>
+      <c r="E57" s="3">
         <v>156700</v>
       </c>
-      <c r="E57" s="3">
+      <c r="F57" s="3">
         <v>126800</v>
       </c>
-      <c r="F57" s="3">
+      <c r="G57" s="3">
         <v>118200</v>
       </c>
-      <c r="G57" s="3">
+      <c r="H57" s="3">
         <v>101600</v>
       </c>
-      <c r="H57" s="3">
+      <c r="I57" s="3">
         <v>116900</v>
       </c>
-      <c r="I57" s="3">
+      <c r="J57" s="3">
         <v>104700</v>
       </c>
-      <c r="J57" s="3">
+      <c r="K57" s="3">
         <v>111300</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>146000</v>
       </c>
-      <c r="L57" s="3">
+      <c r="M57" s="3">
         <v>150800</v>
       </c>
-      <c r="M57" s="3">
+      <c r="N57" s="3">
         <v>144600</v>
       </c>
-      <c r="N57" s="3">
+      <c r="O57" s="3">
         <v>143700</v>
       </c>
-      <c r="O57" s="3">
+      <c r="P57" s="3">
         <v>152200</v>
       </c>
-      <c r="P57" s="3">
+      <c r="Q57" s="3">
         <v>160800</v>
       </c>
-      <c r="Q57" s="3">
+      <c r="R57" s="3">
         <v>204100</v>
       </c>
-      <c r="R57" s="3">
+      <c r="S57" s="3">
         <v>199200</v>
       </c>
-      <c r="S57" s="3">
+      <c r="T57" s="3">
         <v>127600</v>
       </c>
-      <c r="T57" s="3">
+      <c r="U57" s="3">
         <v>126500</v>
       </c>
-      <c r="U57" s="3">
+      <c r="V57" s="3">
         <v>100900</v>
       </c>
-      <c r="V57" s="3">
+      <c r="W57" s="3">
         <v>113000</v>
       </c>
-      <c r="W57" s="3">
+      <c r="X57" s="3">
         <v>111600</v>
       </c>
-      <c r="X57" s="3">
+      <c r="Y57" s="3">
         <v>114800</v>
       </c>
-      <c r="Y57" s="3">
+      <c r="Z57" s="3">
         <v>118400</v>
       </c>
-      <c r="Z57" s="3">
+      <c r="AA57" s="3">
         <v>127800</v>
       </c>
-      <c r="AA57" s="3">
+      <c r="AB57" s="3">
         <v>108300</v>
       </c>
     </row>
-    <row r="58" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
+        <v>420200</v>
+      </c>
+      <c r="E58" s="3">
         <v>409900</v>
       </c>
-      <c r="E58" s="3">
+      <c r="F58" s="3">
         <v>406100</v>
       </c>
-      <c r="F58" s="3">
+      <c r="G58" s="3">
         <v>401000</v>
       </c>
-      <c r="G58" s="3">
+      <c r="H58" s="3">
         <v>395800</v>
       </c>
-      <c r="H58" s="3">
+      <c r="I58" s="3">
         <v>390700</v>
       </c>
-      <c r="I58" s="3">
+      <c r="J58" s="3">
         <v>385400</v>
       </c>
-      <c r="J58" s="3">
+      <c r="K58" s="3">
         <v>380600</v>
       </c>
-      <c r="K58" s="3">
+      <c r="L58" s="3">
         <v>400</v>
       </c>
-      <c r="L58" s="3">
+      <c r="M58" s="3">
         <v>600</v>
       </c>
-      <c r="M58" s="3">
+      <c r="N58" s="3">
         <v>3900</v>
       </c>
-      <c r="N58" s="3">
+      <c r="O58" s="3">
         <v>7100</v>
       </c>
-      <c r="O58" s="3">
+      <c r="P58" s="3">
         <v>15900</v>
       </c>
-      <c r="P58" s="3">
+      <c r="Q58" s="3">
         <v>5400</v>
       </c>
-      <c r="Q58" s="3">
+      <c r="R58" s="3">
         <v>5800</v>
       </c>
-      <c r="R58" s="3">
+      <c r="S58" s="3">
         <v>8700</v>
       </c>
-      <c r="S58" s="3">
+      <c r="T58" s="3">
         <v>5400</v>
       </c>
-      <c r="T58" s="3">
+      <c r="U58" s="3">
         <v>7300</v>
       </c>
-      <c r="U58" s="3">
+      <c r="V58" s="3">
         <v>9200</v>
       </c>
-      <c r="V58" s="3">
+      <c r="W58" s="3">
         <v>9100</v>
       </c>
-      <c r="W58" s="3">
+      <c r="X58" s="3">
         <v>4900</v>
-      </c>
-      <c r="X58" s="3" t="s">
-        <v>17</v>
       </c>
       <c r="Y58" s="3" t="s">
         <v>17</v>
@@ -4207,316 +4340,331 @@
       <c r="AA58" s="3" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="59" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB58" s="3" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="59" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>176900</v>
+      </c>
+      <c r="E59" s="3">
         <v>149900</v>
       </c>
-      <c r="E59" s="3">
+      <c r="F59" s="3">
         <v>127800</v>
       </c>
-      <c r="F59" s="3">
+      <c r="G59" s="3">
         <v>137500</v>
       </c>
-      <c r="G59" s="3">
+      <c r="H59" s="3">
         <v>114300</v>
       </c>
-      <c r="H59" s="3">
+      <c r="I59" s="3">
         <v>157000</v>
       </c>
-      <c r="I59" s="3">
+      <c r="J59" s="3">
         <v>184100</v>
       </c>
-      <c r="J59" s="3">
+      <c r="K59" s="3">
         <v>155400</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>147000</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>131600</v>
       </c>
-      <c r="M59" s="3">
+      <c r="N59" s="3">
         <v>138200</v>
       </c>
-      <c r="N59" s="3">
+      <c r="O59" s="3">
         <v>153400</v>
       </c>
-      <c r="O59" s="3">
+      <c r="P59" s="3">
         <v>148700</v>
       </c>
-      <c r="P59" s="3">
+      <c r="Q59" s="3">
         <v>127800</v>
       </c>
-      <c r="Q59" s="3">
+      <c r="R59" s="3">
         <v>148100</v>
       </c>
-      <c r="R59" s="3">
+      <c r="S59" s="3">
         <v>117600</v>
       </c>
-      <c r="S59" s="3">
+      <c r="T59" s="3">
         <v>80900</v>
       </c>
-      <c r="T59" s="3">
+      <c r="U59" s="3">
         <v>80200</v>
       </c>
-      <c r="U59" s="3">
+      <c r="V59" s="3">
         <v>81400</v>
       </c>
-      <c r="V59" s="3">
+      <c r="W59" s="3">
         <v>95600</v>
       </c>
-      <c r="W59" s="3">
+      <c r="X59" s="3">
         <v>60700</v>
       </c>
-      <c r="X59" s="3">
+      <c r="Y59" s="3">
         <v>69400</v>
       </c>
-      <c r="Y59" s="3">
+      <c r="Z59" s="3">
         <v>73700</v>
       </c>
-      <c r="Z59" s="3">
+      <c r="AA59" s="3">
         <v>74200</v>
       </c>
-      <c r="AA59" s="3">
+      <c r="AB59" s="3">
         <v>55200</v>
       </c>
     </row>
-    <row r="60" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>802800</v>
+      </c>
+      <c r="E60" s="3">
         <v>716500</v>
       </c>
-      <c r="E60" s="3">
+      <c r="F60" s="3">
         <v>660700</v>
       </c>
-      <c r="F60" s="3">
+      <c r="G60" s="3">
         <v>656700</v>
       </c>
-      <c r="G60" s="3">
+      <c r="H60" s="3">
         <v>611700</v>
       </c>
-      <c r="H60" s="3">
+      <c r="I60" s="3">
         <v>664600</v>
       </c>
-      <c r="I60" s="3">
+      <c r="J60" s="3">
         <v>674200</v>
       </c>
-      <c r="J60" s="3">
+      <c r="K60" s="3">
         <v>647300</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>293400</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>283000</v>
       </c>
-      <c r="M60" s="3">
+      <c r="N60" s="3">
         <v>286700</v>
       </c>
-      <c r="N60" s="3">
+      <c r="O60" s="3">
         <v>304200</v>
       </c>
-      <c r="O60" s="3">
+      <c r="P60" s="3">
         <v>316800</v>
       </c>
-      <c r="P60" s="3">
+      <c r="Q60" s="3">
         <v>294000</v>
       </c>
-      <c r="Q60" s="3">
+      <c r="R60" s="3">
         <v>358000</v>
       </c>
-      <c r="R60" s="3">
+      <c r="S60" s="3">
         <v>325500</v>
       </c>
-      <c r="S60" s="3">
+      <c r="T60" s="3">
         <v>213900</v>
       </c>
-      <c r="T60" s="3">
+      <c r="U60" s="3">
         <v>214000</v>
       </c>
-      <c r="U60" s="3">
+      <c r="V60" s="3">
         <v>191500</v>
       </c>
-      <c r="V60" s="3">
+      <c r="W60" s="3">
         <v>217700</v>
       </c>
-      <c r="W60" s="3">
+      <c r="X60" s="3">
         <v>177200</v>
       </c>
-      <c r="X60" s="3">
+      <c r="Y60" s="3">
         <v>184200</v>
       </c>
-      <c r="Y60" s="3">
+      <c r="Z60" s="3">
         <v>192100</v>
       </c>
-      <c r="Z60" s="3">
+      <c r="AA60" s="3">
         <v>202000</v>
       </c>
-      <c r="AA60" s="3">
+      <c r="AB60" s="3">
         <v>163500</v>
       </c>
     </row>
-    <row r="61" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
+        <v>1899500</v>
+      </c>
+      <c r="E61" s="3">
         <v>1466100</v>
       </c>
-      <c r="E61" s="3">
+      <c r="F61" s="3">
         <v>1447600</v>
       </c>
-      <c r="F61" s="3">
+      <c r="G61" s="3">
         <v>810300</v>
       </c>
-      <c r="G61" s="3">
+      <c r="H61" s="3">
         <v>800000</v>
       </c>
-      <c r="H61" s="3">
+      <c r="I61" s="3">
         <v>789800</v>
       </c>
-      <c r="I61" s="3">
+      <c r="J61" s="3">
         <v>778900</v>
       </c>
-      <c r="J61" s="3">
+      <c r="K61" s="3">
         <v>769100</v>
       </c>
-      <c r="K61" s="3">
+      <c r="L61" s="3">
         <v>1134700</v>
       </c>
-      <c r="L61" s="3">
+      <c r="M61" s="3">
         <v>1120300</v>
       </c>
-      <c r="M61" s="3">
+      <c r="N61" s="3">
         <v>1106100</v>
       </c>
-      <c r="N61" s="3">
+      <c r="O61" s="3">
         <v>1092200</v>
       </c>
-      <c r="O61" s="3">
+      <c r="P61" s="3">
         <v>840000</v>
       </c>
-      <c r="P61" s="3">
+      <c r="Q61" s="3">
         <v>835900</v>
       </c>
-      <c r="Q61" s="3">
+      <c r="R61" s="3">
         <v>832400</v>
       </c>
-      <c r="R61" s="3">
+      <c r="S61" s="3">
         <v>829200</v>
       </c>
-      <c r="S61" s="3">
+      <c r="T61" s="3">
         <v>338500</v>
       </c>
-      <c r="T61" s="3">
+      <c r="U61" s="3">
         <v>334600</v>
       </c>
-      <c r="U61" s="3">
+      <c r="V61" s="3">
         <v>330700</v>
       </c>
-      <c r="V61" s="3">
+      <c r="W61" s="3">
         <v>328800</v>
       </c>
-      <c r="W61" s="3">
+      <c r="X61" s="3">
         <v>324000</v>
       </c>
-      <c r="X61" s="3">
+      <c r="Y61" s="3">
         <v>317500</v>
       </c>
-      <c r="Y61" s="3">
+      <c r="Z61" s="3">
         <v>313400</v>
       </c>
-      <c r="Z61" s="3">
-        <v>0</v>
-      </c>
       <c r="AA61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
+        <v>158700</v>
+      </c>
+      <c r="E62" s="3">
         <v>104600</v>
       </c>
-      <c r="E62" s="3">
+      <c r="F62" s="3">
         <v>113100</v>
       </c>
-      <c r="F62" s="3">
+      <c r="G62" s="3">
         <v>126800</v>
       </c>
-      <c r="G62" s="3">
+      <c r="H62" s="3">
         <v>135900</v>
       </c>
-      <c r="H62" s="3">
+      <c r="I62" s="3">
         <v>124400</v>
       </c>
-      <c r="I62" s="3">
+      <c r="J62" s="3">
         <v>127800</v>
       </c>
-      <c r="J62" s="3">
+      <c r="K62" s="3">
         <v>129900</v>
       </c>
-      <c r="K62" s="3">
+      <c r="L62" s="3">
         <v>143200</v>
       </c>
-      <c r="L62" s="3">
+      <c r="M62" s="3">
         <v>140100</v>
       </c>
-      <c r="M62" s="3">
+      <c r="N62" s="3">
         <v>141700</v>
       </c>
-      <c r="N62" s="3">
+      <c r="O62" s="3">
         <v>143200</v>
       </c>
-      <c r="O62" s="3">
+      <c r="P62" s="3">
         <v>149700</v>
       </c>
-      <c r="P62" s="3">
+      <c r="Q62" s="3">
         <v>89600</v>
       </c>
-      <c r="Q62" s="3">
+      <c r="R62" s="3">
         <v>77100</v>
       </c>
-      <c r="R62" s="3">
+      <c r="S62" s="3">
         <v>82200</v>
       </c>
-      <c r="S62" s="3">
+      <c r="T62" s="3">
         <v>73300</v>
       </c>
-      <c r="T62" s="3">
+      <c r="U62" s="3">
         <v>71000</v>
       </c>
-      <c r="U62" s="3">
+      <c r="V62" s="3">
         <v>83600</v>
       </c>
-      <c r="V62" s="3">
+      <c r="W62" s="3">
         <v>60800</v>
       </c>
-      <c r="W62" s="3">
+      <c r="X62" s="3">
         <v>70300</v>
       </c>
-      <c r="X62" s="3">
+      <c r="Y62" s="3">
         <v>76600</v>
       </c>
-      <c r="Y62" s="3">
+      <c r="Z62" s="3">
         <v>234600</v>
-      </c>
-      <c r="Z62" s="3">
-        <v>42500</v>
       </c>
       <c r="AA62" s="3">
         <v>42500</v>
       </c>
-    </row>
-    <row r="63" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB62" s="3">
+        <v>42500</v>
+      </c>
+    </row>
+    <row r="63" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -4592,8 +4740,11 @@
       <c r="AA63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -4669,8 +4820,11 @@
       <c r="AA64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -4746,85 +4900,91 @@
       <c r="AA65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>2861000</v>
+      </c>
+      <c r="E66" s="3">
         <v>2287200</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>2221400</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>1593800</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>1547600</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>1578800</v>
       </c>
-      <c r="I66" s="3">
+      <c r="J66" s="3">
         <v>1580900</v>
       </c>
-      <c r="J66" s="3">
+      <c r="K66" s="3">
         <v>1546300</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>1571300</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>1543400</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>1534500</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>1539600</v>
       </c>
-      <c r="O66" s="3">
+      <c r="P66" s="3">
         <v>1306500</v>
       </c>
-      <c r="P66" s="3">
+      <c r="Q66" s="3">
         <v>1219500</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="R66" s="3">
         <v>1267500</v>
       </c>
-      <c r="R66" s="3">
+      <c r="S66" s="3">
         <v>1236900</v>
       </c>
-      <c r="S66" s="3">
+      <c r="T66" s="3">
         <v>661500</v>
       </c>
-      <c r="T66" s="3">
+      <c r="U66" s="3">
         <v>655400</v>
       </c>
-      <c r="U66" s="3">
+      <c r="V66" s="3">
         <v>641600</v>
       </c>
-      <c r="V66" s="3">
+      <c r="W66" s="3">
         <v>643100</v>
       </c>
-      <c r="W66" s="3">
+      <c r="X66" s="3">
         <v>607300</v>
       </c>
-      <c r="X66" s="3">
+      <c r="Y66" s="3">
         <v>614100</v>
       </c>
-      <c r="Y66" s="3">
+      <c r="Z66" s="3">
         <v>775900</v>
       </c>
-      <c r="Z66" s="3">
+      <c r="AA66" s="3">
         <v>280300</v>
       </c>
-      <c r="AA66" s="3">
+      <c r="AB66" s="3">
         <v>241800</v>
       </c>
     </row>
-    <row r="67" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -4852,8 +5012,9 @@
       <c r="Y67" s="3"/>
       <c r="Z67" s="3"/>
       <c r="AA67" s="3"/>
-    </row>
-    <row r="68" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB67" s="3"/>
+    </row>
+    <row r="68" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -4929,8 +5090,11 @@
       <c r="AA68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -5006,8 +5170,11 @@
       <c r="AA69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -5083,8 +5250,11 @@
       <c r="AA70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -5160,85 +5330,91 @@
       <c r="AA71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>-69600</v>
+      </c>
+      <c r="E72" s="3">
         <v>-129100</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>-60500</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>237500</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>210700</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>220900</v>
       </c>
-      <c r="I72" s="3">
+      <c r="J72" s="3">
         <v>440400</v>
       </c>
-      <c r="J72" s="3">
+      <c r="K72" s="3">
         <v>214900</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>131700</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>64600</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>69200</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>25800</v>
       </c>
-      <c r="O72" s="3">
+      <c r="P72" s="3">
         <v>176700</v>
       </c>
-      <c r="P72" s="3">
+      <c r="Q72" s="3">
         <v>129100</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="R72" s="3">
         <v>154900</v>
       </c>
-      <c r="R72" s="3">
+      <c r="S72" s="3">
         <v>229200</v>
       </c>
-      <c r="S72" s="3">
+      <c r="T72" s="3">
         <v>213000</v>
       </c>
-      <c r="T72" s="3">
+      <c r="U72" s="3">
         <v>166400</v>
       </c>
-      <c r="U72" s="3">
+      <c r="V72" s="3">
         <v>133200</v>
       </c>
-      <c r="V72" s="3">
+      <c r="W72" s="3">
         <v>130700</v>
       </c>
-      <c r="W72" s="3">
+      <c r="X72" s="3">
         <v>-73900</v>
       </c>
-      <c r="X72" s="3">
+      <c r="Y72" s="3">
         <v>-83200</v>
       </c>
-      <c r="Y72" s="3">
+      <c r="Z72" s="3">
         <v>-28000</v>
       </c>
-      <c r="Z72" s="3">
+      <c r="AA72" s="3">
         <v>28200</v>
       </c>
-      <c r="AA72" s="3">
+      <c r="AB72" s="3">
         <v>16600</v>
       </c>
     </row>
-    <row r="73" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -5314,8 +5490,11 @@
       <c r="AA73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -5391,8 +5570,11 @@
       <c r="AA74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -5468,85 +5650,91 @@
       <c r="AA75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>1526400</v>
+      </c>
+      <c r="E76" s="3">
         <v>1875000</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>1912100</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>2021900</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>1971400</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>1972800</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>2165000</v>
       </c>
-      <c r="J76" s="3">
+      <c r="K76" s="3">
         <v>1921900</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>1816100</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>1749200</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>1734200</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>1681600</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>1561300</v>
       </c>
-      <c r="P76" s="3">
+      <c r="Q76" s="3">
         <v>1497100</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="R76" s="3">
         <v>1503900</v>
       </c>
-      <c r="R76" s="3">
+      <c r="S76" s="3">
         <v>1559700</v>
       </c>
-      <c r="S76" s="3">
+      <c r="T76" s="3">
         <v>983500</v>
       </c>
-      <c r="T76" s="3">
+      <c r="U76" s="3">
         <v>926100</v>
       </c>
-      <c r="U76" s="3">
+      <c r="V76" s="3">
         <v>876600</v>
       </c>
-      <c r="V76" s="3">
+      <c r="W76" s="3">
         <v>864300</v>
       </c>
-      <c r="W76" s="3">
+      <c r="X76" s="3">
         <v>641100</v>
       </c>
-      <c r="X76" s="3">
+      <c r="Y76" s="3">
         <v>618800</v>
       </c>
-      <c r="Y76" s="3">
+      <c r="Z76" s="3">
         <v>468600</v>
       </c>
-      <c r="Z76" s="3">
+      <c r="AA76" s="3">
         <v>516400</v>
       </c>
-      <c r="AA76" s="3">
+      <c r="AB76" s="3">
         <v>495700</v>
       </c>
     </row>
-    <row r="77" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -5622,167 +5810,176 @@
       <c r="AA77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:28" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44835</v>
+      </c>
+      <c r="E80" s="2">
         <v>44744</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44653</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44562</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44471</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>44380</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>44289</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>44191</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>44100</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>44009</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>43918</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>43827</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>43736</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>43645</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>43554</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>43463</v>
       </c>
-      <c r="S80" s="2">
+      <c r="T80" s="2">
         <v>43372</v>
       </c>
-      <c r="T80" s="2">
+      <c r="U80" s="2">
         <v>43281</v>
       </c>
-      <c r="U80" s="2">
+      <c r="V80" s="2">
         <v>43190</v>
       </c>
-      <c r="V80" s="2">
+      <c r="W80" s="2">
         <v>43099</v>
       </c>
-      <c r="W80" s="2">
+      <c r="X80" s="2">
         <v>43008</v>
       </c>
-      <c r="X80" s="2">
+      <c r="Y80" s="2">
         <v>42917</v>
       </c>
-      <c r="Y80" s="2">
+      <c r="Z80" s="2">
         <v>42826</v>
       </c>
-      <c r="Z80" s="2">
+      <c r="AA80" s="2">
         <v>42735</v>
       </c>
-      <c r="AA80" s="2">
+      <c r="AB80" s="2">
         <v>42644</v>
       </c>
     </row>
-    <row r="81" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>-400</v>
+      </c>
+      <c r="E81" s="3">
         <v>34700</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="3">
         <v>26000</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>56700</v>
       </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
         <v>81500</v>
       </c>
-      <c r="H81" s="3">
+      <c r="I81" s="3">
         <v>21500</v>
       </c>
-      <c r="I81" s="3">
+      <c r="J81" s="3">
         <v>225500</v>
       </c>
-      <c r="J81" s="3">
+      <c r="K81" s="3">
         <v>83200</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>67100</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>-4600</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>43400</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>49100</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>47600</v>
       </c>
-      <c r="P81" s="3">
+      <c r="Q81" s="3">
         <v>-25800</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="R81" s="3">
         <v>-74300</v>
       </c>
-      <c r="R81" s="3">
+      <c r="S81" s="3">
         <v>16200</v>
       </c>
-      <c r="S81" s="3">
+      <c r="T81" s="3">
         <v>46100</v>
       </c>
-      <c r="T81" s="3">
+      <c r="U81" s="3">
         <v>32500</v>
       </c>
-      <c r="U81" s="3">
+      <c r="V81" s="3">
         <v>2400</v>
       </c>
-      <c r="V81" s="3">
+      <c r="W81" s="3">
         <v>116800</v>
       </c>
-      <c r="W81" s="3">
+      <c r="X81" s="3">
         <v>6900</v>
       </c>
-      <c r="X81" s="3">
+      <c r="Y81" s="3">
         <v>-55200</v>
       </c>
-      <c r="Y81" s="3">
+      <c r="Z81" s="3">
         <v>-56200</v>
       </c>
-      <c r="Z81" s="3">
+      <c r="AA81" s="3">
         <v>11600</v>
       </c>
-      <c r="AA81" s="3">
+      <c r="AB81" s="3">
         <v>-3600</v>
       </c>
     </row>
-    <row r="82" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -5810,85 +6007,89 @@
       <c r="Y82" s="3"/>
       <c r="Z82" s="3"/>
       <c r="AA82" s="3"/>
-    </row>
-    <row r="83" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB82" s="3"/>
+    </row>
+    <row r="83" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
-        <v>41600</v>
+        <v>56700</v>
       </c>
       <c r="E83" s="3">
         <v>41600</v>
       </c>
       <c r="F83" s="3">
+        <v>41600</v>
+      </c>
+      <c r="G83" s="3">
         <v>42100</v>
       </c>
-      <c r="G83" s="3">
+      <c r="H83" s="3">
         <v>41800</v>
       </c>
-      <c r="H83" s="3">
+      <c r="I83" s="3">
         <v>43100</v>
       </c>
-      <c r="I83" s="3">
+      <c r="J83" s="3">
         <v>44800</v>
       </c>
-      <c r="J83" s="3">
+      <c r="K83" s="3">
         <v>44700</v>
       </c>
-      <c r="K83" s="3">
+      <c r="L83" s="3">
         <v>44500</v>
       </c>
-      <c r="L83" s="3">
+      <c r="M83" s="3">
         <v>46700</v>
       </c>
-      <c r="M83" s="3">
+      <c r="N83" s="3">
         <v>47500</v>
       </c>
-      <c r="N83" s="3">
+      <c r="O83" s="3">
         <v>47300</v>
       </c>
-      <c r="O83" s="3">
+      <c r="P83" s="3">
         <v>50400</v>
       </c>
-      <c r="P83" s="3">
+      <c r="Q83" s="3">
         <v>45100</v>
       </c>
-      <c r="Q83" s="3">
+      <c r="R83" s="3">
         <v>60700</v>
       </c>
-      <c r="R83" s="3">
+      <c r="S83" s="3">
         <v>31200</v>
       </c>
-      <c r="S83" s="3">
+      <c r="T83" s="3">
         <v>20500</v>
       </c>
-      <c r="T83" s="3">
+      <c r="U83" s="3">
         <v>21500</v>
       </c>
-      <c r="U83" s="3">
+      <c r="V83" s="3">
         <v>19200</v>
       </c>
-      <c r="V83" s="3">
+      <c r="W83" s="3">
         <v>19000</v>
       </c>
-      <c r="W83" s="3">
+      <c r="X83" s="3">
         <v>17500</v>
       </c>
-      <c r="X83" s="3">
+      <c r="Y83" s="3">
         <v>16500</v>
       </c>
-      <c r="Y83" s="3">
+      <c r="Z83" s="3">
         <v>15900</v>
       </c>
-      <c r="Z83" s="3">
+      <c r="AA83" s="3">
         <v>14900</v>
       </c>
-      <c r="AA83" s="3">
+      <c r="AB83" s="3">
         <v>13700</v>
       </c>
     </row>
-    <row r="84" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="84" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -5964,8 +6165,11 @@
       <c r="AA84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -6041,8 +6245,11 @@
       <c r="AA85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -6118,8 +6325,11 @@
       <c r="AA86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -6195,8 +6405,11 @@
       <c r="AA87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -6272,85 +6485,91 @@
       <c r="AA88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>20800</v>
+      </c>
+      <c r="E89" s="3">
         <v>114300</v>
       </c>
-      <c r="E89" s="3">
+      <c r="F89" s="3">
         <v>76600</v>
       </c>
-      <c r="F89" s="3">
+      <c r="G89" s="3">
         <v>206500</v>
       </c>
-      <c r="G89" s="3">
+      <c r="H89" s="3">
         <v>61900</v>
       </c>
-      <c r="H89" s="3">
+      <c r="I89" s="3">
         <v>124200</v>
       </c>
-      <c r="I89" s="3">
+      <c r="J89" s="3">
         <v>381300</v>
       </c>
-      <c r="J89" s="3">
+      <c r="K89" s="3">
         <v>128500</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>104700</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>122700</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>151800</v>
       </c>
-      <c r="N89" s="3">
+      <c r="O89" s="3">
         <v>162300</v>
       </c>
-      <c r="O89" s="3">
+      <c r="P89" s="3">
         <v>87500</v>
       </c>
-      <c r="P89" s="3">
+      <c r="Q89" s="3">
         <v>127700</v>
       </c>
-      <c r="Q89" s="3">
+      <c r="R89" s="3">
         <v>42800</v>
       </c>
-      <c r="R89" s="3">
+      <c r="S89" s="3">
         <v>102400</v>
       </c>
-      <c r="S89" s="3">
+      <c r="T89" s="3">
         <v>57200</v>
       </c>
-      <c r="T89" s="3">
+      <c r="U89" s="3">
         <v>37600</v>
       </c>
-      <c r="U89" s="3">
+      <c r="V89" s="3">
         <v>95100</v>
       </c>
-      <c r="V89" s="3">
+      <c r="W89" s="3">
         <v>105100</v>
       </c>
-      <c r="W89" s="3">
+      <c r="X89" s="3">
         <v>9700</v>
       </c>
-      <c r="X89" s="3">
+      <c r="Y89" s="3">
         <v>13100</v>
       </c>
-      <c r="Y89" s="3">
+      <c r="Z89" s="3">
         <v>16400</v>
       </c>
-      <c r="Z89" s="3">
+      <c r="AA89" s="3">
         <v>19200</v>
       </c>
-      <c r="AA89" s="3">
+      <c r="AB89" s="3">
         <v>36300</v>
       </c>
     </row>
-    <row r="90" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -6378,85 +6597,89 @@
       <c r="Y90" s="3"/>
       <c r="Z90" s="3"/>
       <c r="AA90" s="3"/>
-    </row>
-    <row r="91" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB90" s="3"/>
+    </row>
+    <row r="91" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
+        <v>-22900</v>
+      </c>
+      <c r="E91" s="3">
         <v>-28600</v>
       </c>
-      <c r="E91" s="3">
+      <c r="F91" s="3">
         <v>-18600</v>
       </c>
-      <c r="F91" s="3">
+      <c r="G91" s="3">
         <v>-26100</v>
       </c>
-      <c r="G91" s="3">
+      <c r="H91" s="3">
         <v>-17900</v>
       </c>
-      <c r="H91" s="3">
-        <v>0</v>
-      </c>
       <c r="I91" s="3">
         <v>0</v>
       </c>
       <c r="J91" s="3">
+        <v>0</v>
+      </c>
+      <c r="K91" s="3">
         <v>16300</v>
       </c>
-      <c r="K91" s="3">
+      <c r="L91" s="3">
         <v>-26300</v>
       </c>
-      <c r="L91" s="3">
-        <v>0</v>
-      </c>
       <c r="M91" s="3">
+        <v>0</v>
+      </c>
+      <c r="N91" s="3">
         <v>-1000</v>
       </c>
-      <c r="N91" s="3">
+      <c r="O91" s="3">
         <v>-2000</v>
       </c>
-      <c r="O91" s="3">
+      <c r="P91" s="3">
         <v>-1000</v>
       </c>
-      <c r="P91" s="3">
-        <v>0</v>
-      </c>
       <c r="Q91" s="3">
+        <v>0</v>
+      </c>
+      <c r="R91" s="3">
         <v>-600</v>
       </c>
-      <c r="R91" s="3">
-        <v>0</v>
-      </c>
       <c r="S91" s="3">
+        <v>0</v>
+      </c>
+      <c r="T91" s="3">
         <v>-700</v>
       </c>
-      <c r="T91" s="3">
+      <c r="U91" s="3">
         <v>-20300</v>
       </c>
-      <c r="U91" s="3">
+      <c r="V91" s="3">
         <v>-22700</v>
       </c>
-      <c r="V91" s="3">
+      <c r="W91" s="3">
         <v>-17200</v>
       </c>
-      <c r="W91" s="3">
+      <c r="X91" s="3">
         <v>-33000</v>
       </c>
-      <c r="X91" s="3">
+      <c r="Y91" s="3">
         <v>-38100</v>
       </c>
-      <c r="Y91" s="3">
+      <c r="Z91" s="3">
         <v>-35700</v>
       </c>
-      <c r="Z91" s="3">
+      <c r="AA91" s="3">
         <v>-35400</v>
       </c>
-      <c r="AA91" s="3">
+      <c r="AB91" s="3">
         <v>-28900</v>
       </c>
     </row>
-    <row r="92" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="92" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -6532,8 +6755,11 @@
       <c r="AA92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -6609,85 +6835,91 @@
       <c r="AA93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
+        <v>-646600</v>
+      </c>
+      <c r="E94" s="3">
         <v>142700</v>
       </c>
-      <c r="E94" s="3">
+      <c r="F94" s="3">
         <v>-23200</v>
       </c>
-      <c r="F94" s="3">
+      <c r="G94" s="3">
         <v>-228900</v>
       </c>
-      <c r="G94" s="3">
+      <c r="H94" s="3">
         <v>-116900</v>
       </c>
-      <c r="H94" s="3">
+      <c r="I94" s="3">
         <v>197300</v>
       </c>
-      <c r="I94" s="3">
+      <c r="J94" s="3">
         <v>-7300</v>
       </c>
-      <c r="J94" s="3">
+      <c r="K94" s="3">
         <v>-75000</v>
       </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3">
         <v>-114000</v>
       </c>
-      <c r="L94" s="3">
+      <c r="M94" s="3">
         <v>-509800</v>
       </c>
-      <c r="M94" s="3">
+      <c r="N94" s="3">
         <v>-535700</v>
       </c>
-      <c r="N94" s="3">
+      <c r="O94" s="3">
         <v>36100</v>
       </c>
-      <c r="O94" s="3">
+      <c r="P94" s="3">
         <v>21700</v>
       </c>
-      <c r="P94" s="3">
+      <c r="Q94" s="3">
         <v>-54400</v>
       </c>
-      <c r="Q94" s="3">
+      <c r="R94" s="3">
         <v>-52900</v>
       </c>
-      <c r="R94" s="3">
+      <c r="S94" s="3">
         <v>-681900</v>
       </c>
-      <c r="S94" s="3">
+      <c r="T94" s="3">
         <v>9500</v>
       </c>
-      <c r="T94" s="3">
+      <c r="U94" s="3">
         <v>181700</v>
       </c>
-      <c r="U94" s="3">
+      <c r="V94" s="3">
         <v>-117600</v>
       </c>
-      <c r="V94" s="3">
+      <c r="W94" s="3">
         <v>-58600</v>
       </c>
-      <c r="W94" s="3">
+      <c r="X94" s="3">
         <v>-132500</v>
       </c>
-      <c r="X94" s="3">
+      <c r="Y94" s="3">
         <v>-320600</v>
       </c>
-      <c r="Y94" s="3">
+      <c r="Z94" s="3">
         <v>-40800</v>
       </c>
-      <c r="Z94" s="3">
+      <c r="AA94" s="3">
         <v>-35400</v>
       </c>
-      <c r="AA94" s="3">
+      <c r="AB94" s="3">
         <v>-28900</v>
       </c>
     </row>
-    <row r="95" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="95" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -6715,8 +6947,9 @@
       <c r="Y95" s="3"/>
       <c r="Z95" s="3"/>
       <c r="AA95" s="3"/>
-    </row>
-    <row r="96" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB95" s="3"/>
+    </row>
+    <row r="96" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -6792,8 +7025,11 @@
       <c r="AA96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -6869,8 +7105,11 @@
       <c r="AA97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -6946,8 +7185,11 @@
       <c r="AA98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -7023,85 +7265,91 @@
       <c r="AA99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>-59100</v>
+      </c>
+      <c r="E100" s="3">
         <v>-97100</v>
       </c>
-      <c r="E100" s="3">
+      <c r="F100" s="3">
         <v>524900</v>
       </c>
-      <c r="F100" s="3">
+      <c r="G100" s="3">
         <v>-36600</v>
       </c>
-      <c r="G100" s="3">
+      <c r="H100" s="3">
         <v>-108300</v>
       </c>
-      <c r="H100" s="3">
+      <c r="I100" s="3">
         <v>-234900</v>
       </c>
-      <c r="I100" s="3">
+      <c r="J100" s="3">
         <v>-7600</v>
       </c>
-      <c r="J100" s="3">
+      <c r="K100" s="3">
         <v>-1700</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>-19200</v>
       </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
         <v>-3700</v>
       </c>
-      <c r="M100" s="3">
+      <c r="N100" s="3">
         <v>-12300</v>
       </c>
-      <c r="N100" s="3">
+      <c r="O100" s="3">
         <v>347600</v>
       </c>
-      <c r="O100" s="3">
+      <c r="P100" s="3">
         <v>-2800</v>
       </c>
-      <c r="P100" s="3">
+      <c r="Q100" s="3">
         <v>1000</v>
       </c>
-      <c r="Q100" s="3">
+      <c r="R100" s="3">
         <v>-2900</v>
       </c>
-      <c r="R100" s="3">
+      <c r="S100" s="3">
         <v>491600</v>
       </c>
-      <c r="S100" s="3">
+      <c r="T100" s="3">
         <v>-4600</v>
       </c>
-      <c r="T100" s="3">
+      <c r="U100" s="3">
         <v>1900</v>
       </c>
-      <c r="U100" s="3">
+      <c r="V100" s="3">
         <v>-2800</v>
       </c>
-      <c r="V100" s="3">
+      <c r="W100" s="3">
         <v>4400</v>
       </c>
-      <c r="W100" s="3">
+      <c r="X100" s="3">
         <v>300</v>
       </c>
-      <c r="X100" s="3">
+      <c r="Y100" s="3">
         <v>2000</v>
       </c>
-      <c r="Y100" s="3">
+      <c r="Z100" s="3">
         <v>445700</v>
       </c>
-      <c r="Z100" s="3">
+      <c r="AA100" s="3">
         <v>6700</v>
       </c>
-      <c r="AA100" s="3">
+      <c r="AB100" s="3">
         <v>2300</v>
       </c>
     </row>
-    <row r="101" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -7148,110 +7396,116 @@
         <v>0</v>
       </c>
       <c r="R101" s="3">
+        <v>0</v>
+      </c>
+      <c r="S101" s="3">
         <v>-200</v>
       </c>
-      <c r="S101" s="3">
-        <v>0</v>
-      </c>
       <c r="T101" s="3">
+        <v>0</v>
+      </c>
+      <c r="U101" s="3">
         <v>-700</v>
       </c>
-      <c r="U101" s="3">
-        <v>0</v>
-      </c>
       <c r="V101" s="3">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="W101" s="3">
         <v>400</v>
       </c>
       <c r="X101" s="3">
+        <v>400</v>
+      </c>
+      <c r="Y101" s="3">
         <v>500</v>
       </c>
-      <c r="Y101" s="3">
+      <c r="Z101" s="3">
         <v>700</v>
       </c>
-      <c r="Z101" s="3">
+      <c r="AA101" s="3">
         <v>-1400</v>
       </c>
-      <c r="AA101" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="102" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>-684900</v>
+      </c>
+      <c r="E102" s="3">
         <v>159900</v>
       </c>
-      <c r="E102" s="3">
+      <c r="F102" s="3">
         <v>578300</v>
       </c>
-      <c r="F102" s="3">
+      <c r="G102" s="3">
         <v>-59000</v>
       </c>
-      <c r="G102" s="3">
+      <c r="H102" s="3">
         <v>-163300</v>
       </c>
-      <c r="H102" s="3">
+      <c r="I102" s="3">
         <v>86600</v>
       </c>
-      <c r="I102" s="3">
+      <c r="J102" s="3">
         <v>366400</v>
       </c>
-      <c r="J102" s="3">
+      <c r="K102" s="3">
         <v>51800</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>-28500</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>-390800</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>-396200</v>
       </c>
-      <c r="N102" s="3">
+      <c r="O102" s="3">
         <v>546000</v>
       </c>
-      <c r="O102" s="3">
+      <c r="P102" s="3">
         <v>106400</v>
       </c>
-      <c r="P102" s="3">
+      <c r="Q102" s="3">
         <v>74300</v>
       </c>
-      <c r="Q102" s="3">
+      <c r="R102" s="3">
         <v>-13000</v>
       </c>
-      <c r="R102" s="3">
+      <c r="S102" s="3">
         <v>-88100</v>
       </c>
-      <c r="S102" s="3">
+      <c r="T102" s="3">
         <v>62100</v>
       </c>
-      <c r="T102" s="3">
+      <c r="U102" s="3">
         <v>220500</v>
       </c>
-      <c r="U102" s="3">
+      <c r="V102" s="3">
         <v>-25300</v>
       </c>
-      <c r="V102" s="3">
+      <c r="W102" s="3">
         <v>51300</v>
       </c>
-      <c r="W102" s="3">
+      <c r="X102" s="3">
         <v>-122100</v>
       </c>
-      <c r="X102" s="3">
+      <c r="Y102" s="3">
         <v>-305000</v>
       </c>
-      <c r="Y102" s="3">
+      <c r="Z102" s="3">
         <v>422000</v>
       </c>
-      <c r="Z102" s="3">
+      <c r="AA102" s="3">
         <v>-10900</v>
       </c>
-      <c r="AA102" s="3">
+      <c r="AB102" s="3">
         <v>9700</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/LITE_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/LITE_QTR_FIN.xlsx
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:AB102"/>
+  <dimension ref="A5:AC102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,354 +665,367 @@
     <col min="1" max="1" width="6.42578125" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="10" width="13" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="12" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="16" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="20" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="23" max="24" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="25" max="26" width="13" style="1" bestFit="1" customWidth="1"/>
-    <col min="27" max="27" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="28" max="28" width="12.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="29" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="11" width="13" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="13" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="17" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="21" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="24" max="25" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="26" max="27" width="13" style="1" bestFit="1" customWidth="1"/>
+    <col min="28" max="28" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="29" max="29" width="12.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="30" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:29" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:29" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44926</v>
+      </c>
+      <c r="E7" s="2">
         <v>44835</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44744</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44653</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44562</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>44471</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>44380</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>44289</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>44191</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>44100</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>44009</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>43918</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>43827</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>43736</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>43645</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>43554</v>
       </c>
-      <c r="S7" s="2">
+      <c r="T7" s="2">
         <v>43463</v>
       </c>
-      <c r="T7" s="2">
+      <c r="U7" s="2">
         <v>43372</v>
       </c>
-      <c r="U7" s="2">
+      <c r="V7" s="2">
         <v>43281</v>
       </c>
-      <c r="V7" s="2">
+      <c r="W7" s="2">
         <v>43190</v>
       </c>
-      <c r="W7" s="2">
+      <c r="X7" s="2">
         <v>43099</v>
       </c>
-      <c r="X7" s="2">
+      <c r="Y7" s="2">
         <v>43008</v>
       </c>
-      <c r="Y7" s="2">
+      <c r="Z7" s="2">
         <v>42917</v>
       </c>
-      <c r="Z7" s="2">
+      <c r="AA7" s="2">
         <v>42826</v>
       </c>
-      <c r="AA7" s="2">
+      <c r="AB7" s="2">
         <v>42735</v>
       </c>
-      <c r="AB7" s="2">
+      <c r="AC7" s="2">
         <v>42644</v>
       </c>
     </row>
-    <row r="8" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:29" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
+        <v>506000</v>
+      </c>
+      <c r="E8" s="3">
         <v>506800</v>
       </c>
-      <c r="E8" s="3">
+      <c r="F8" s="3">
         <v>422100</v>
       </c>
-      <c r="F8" s="3">
+      <c r="G8" s="3">
         <v>395400</v>
       </c>
-      <c r="G8" s="3">
+      <c r="H8" s="3">
         <v>446700</v>
       </c>
-      <c r="H8" s="3">
+      <c r="I8" s="3">
         <v>448400</v>
       </c>
-      <c r="I8" s="3">
+      <c r="J8" s="3">
         <v>392100</v>
       </c>
-      <c r="J8" s="3">
+      <c r="K8" s="3">
         <v>419500</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>478800</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>452400</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>368100</v>
       </c>
-      <c r="N8" s="3">
+      <c r="O8" s="3">
         <v>402800</v>
       </c>
-      <c r="O8" s="3">
+      <c r="P8" s="3">
         <v>457800</v>
       </c>
-      <c r="P8" s="3">
+      <c r="Q8" s="3">
         <v>449900</v>
       </c>
-      <c r="Q8" s="3">
+      <c r="R8" s="3">
         <v>404600</v>
       </c>
-      <c r="R8" s="3">
+      <c r="S8" s="3">
         <v>432900</v>
       </c>
-      <c r="S8" s="3">
+      <c r="T8" s="3">
         <v>373700</v>
       </c>
-      <c r="T8" s="3">
+      <c r="U8" s="3">
         <v>354100</v>
       </c>
-      <c r="U8" s="3">
+      <c r="V8" s="3">
         <v>301100</v>
       </c>
-      <c r="V8" s="3">
+      <c r="W8" s="3">
         <v>298800</v>
       </c>
-      <c r="W8" s="3">
+      <c r="X8" s="3">
         <v>404600</v>
       </c>
-      <c r="X8" s="3">
+      <c r="Y8" s="3">
         <v>243200</v>
       </c>
-      <c r="Y8" s="3">
+      <c r="Z8" s="3">
         <v>222700</v>
       </c>
-      <c r="Z8" s="3">
+      <c r="AA8" s="3">
         <v>255800</v>
       </c>
-      <c r="AA8" s="3">
+      <c r="AB8" s="3">
         <v>265000</v>
       </c>
-      <c r="AB8" s="3">
+      <c r="AC8" s="3">
         <v>258100</v>
       </c>
     </row>
-    <row r="9" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:29" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
+        <v>339800</v>
+      </c>
+      <c r="E9" s="3">
         <v>305600</v>
       </c>
-      <c r="E9" s="3">
+      <c r="F9" s="3">
         <v>240400</v>
       </c>
-      <c r="F9" s="3">
+      <c r="G9" s="3">
         <v>228200</v>
       </c>
-      <c r="G9" s="3">
+      <c r="H9" s="3">
         <v>239200</v>
       </c>
-      <c r="H9" s="3">
+      <c r="I9" s="3">
         <v>216200</v>
       </c>
-      <c r="I9" s="3">
+      <c r="J9" s="3">
         <v>229300</v>
       </c>
-      <c r="J9" s="3">
+      <c r="K9" s="3">
         <v>234500</v>
       </c>
-      <c r="K9" s="3">
+      <c r="L9" s="3">
         <v>249200</v>
       </c>
-      <c r="L9" s="3">
+      <c r="M9" s="3">
         <v>246700</v>
       </c>
-      <c r="M9" s="3">
+      <c r="N9" s="3">
         <v>232400</v>
       </c>
-      <c r="N9" s="3">
+      <c r="O9" s="3">
         <v>245100</v>
       </c>
-      <c r="O9" s="3">
+      <c r="P9" s="3">
         <v>268700</v>
       </c>
-      <c r="P9" s="3">
+      <c r="Q9" s="3">
         <v>282200</v>
       </c>
-      <c r="Q9" s="3">
+      <c r="R9" s="3">
         <v>317800</v>
       </c>
-      <c r="R9" s="3">
+      <c r="S9" s="3">
         <v>344600</v>
       </c>
-      <c r="S9" s="3">
+      <c r="T9" s="3">
         <v>248900</v>
       </c>
-      <c r="T9" s="3">
+      <c r="U9" s="3">
         <v>228100</v>
       </c>
-      <c r="U9" s="3">
+      <c r="V9" s="3">
         <v>205600</v>
       </c>
-      <c r="V9" s="3">
+      <c r="W9" s="3">
         <v>201800</v>
       </c>
-      <c r="W9" s="3">
+      <c r="X9" s="3">
         <v>233500</v>
       </c>
-      <c r="X9" s="3">
+      <c r="Y9" s="3">
         <v>174700</v>
       </c>
-      <c r="Y9" s="3">
+      <c r="Z9" s="3">
         <v>155400</v>
       </c>
-      <c r="Z9" s="3">
+      <c r="AA9" s="3">
         <v>173700</v>
       </c>
-      <c r="AA9" s="3">
+      <c r="AB9" s="3">
         <v>178000</v>
       </c>
-      <c r="AB9" s="3">
+      <c r="AC9" s="3">
         <v>176400</v>
       </c>
     </row>
-    <row r="10" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:29" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
+        <v>166200</v>
+      </c>
+      <c r="E10" s="3">
         <v>201200</v>
       </c>
-      <c r="E10" s="3">
+      <c r="F10" s="3">
         <v>181700</v>
       </c>
-      <c r="F10" s="3">
+      <c r="G10" s="3">
         <v>167200</v>
       </c>
-      <c r="G10" s="3">
+      <c r="H10" s="3">
         <v>207500</v>
       </c>
-      <c r="H10" s="3">
+      <c r="I10" s="3">
         <v>232200</v>
       </c>
-      <c r="I10" s="3">
+      <c r="J10" s="3">
         <v>162800</v>
       </c>
-      <c r="J10" s="3">
+      <c r="K10" s="3">
         <v>185000</v>
       </c>
-      <c r="K10" s="3">
+      <c r="L10" s="3">
         <v>229600</v>
       </c>
-      <c r="L10" s="3">
+      <c r="M10" s="3">
         <v>205700</v>
       </c>
-      <c r="M10" s="3">
+      <c r="N10" s="3">
         <v>135700</v>
       </c>
-      <c r="N10" s="3">
+      <c r="O10" s="3">
         <v>157700</v>
       </c>
-      <c r="O10" s="3">
+      <c r="P10" s="3">
         <v>189100</v>
       </c>
-      <c r="P10" s="3">
+      <c r="Q10" s="3">
         <v>167700</v>
       </c>
-      <c r="Q10" s="3">
+      <c r="R10" s="3">
         <v>86800</v>
       </c>
-      <c r="R10" s="3">
+      <c r="S10" s="3">
         <v>88300</v>
       </c>
-      <c r="S10" s="3">
+      <c r="T10" s="3">
         <v>124800</v>
       </c>
-      <c r="T10" s="3">
+      <c r="U10" s="3">
         <v>126000</v>
       </c>
-      <c r="U10" s="3">
+      <c r="V10" s="3">
         <v>95500</v>
       </c>
-      <c r="V10" s="3">
+      <c r="W10" s="3">
         <v>97000</v>
       </c>
-      <c r="W10" s="3">
+      <c r="X10" s="3">
         <v>171100</v>
       </c>
-      <c r="X10" s="3">
+      <c r="Y10" s="3">
         <v>68500</v>
       </c>
-      <c r="Y10" s="3">
+      <c r="Z10" s="3">
         <v>67300</v>
       </c>
-      <c r="Z10" s="3">
+      <c r="AA10" s="3">
         <v>82100</v>
       </c>
-      <c r="AA10" s="3">
+      <c r="AB10" s="3">
         <v>87000</v>
       </c>
-      <c r="AB10" s="3">
+      <c r="AC10" s="3">
         <v>81700</v>
       </c>
     </row>
-    <row r="11" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:29" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -1041,88 +1054,92 @@
       <c r="Z11" s="3"/>
       <c r="AA11" s="3"/>
       <c r="AB11" s="3"/>
-    </row>
-    <row r="12" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="AC11" s="3"/>
+    </row>
+    <row r="12" spans="1:29" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
       <c r="D12" s="3">
+        <v>75800</v>
+      </c>
+      <c r="E12" s="3">
         <v>72700</v>
-      </c>
-      <c r="E12" s="3">
-        <v>56700</v>
       </c>
       <c r="F12" s="3">
         <v>56700</v>
       </c>
       <c r="G12" s="3">
+        <v>56700</v>
+      </c>
+      <c r="H12" s="3">
         <v>53200</v>
-      </c>
-      <c r="H12" s="3">
-        <v>54100</v>
       </c>
       <c r="I12" s="3">
         <v>54100</v>
       </c>
       <c r="J12" s="3">
+        <v>54100</v>
+      </c>
+      <c r="K12" s="3">
         <v>57200</v>
       </c>
-      <c r="K12" s="3">
+      <c r="L12" s="3">
         <v>52800</v>
       </c>
-      <c r="L12" s="3">
+      <c r="M12" s="3">
         <v>50400</v>
       </c>
-      <c r="M12" s="3">
+      <c r="N12" s="3">
         <v>49000</v>
       </c>
-      <c r="N12" s="3">
+      <c r="O12" s="3">
         <v>48700</v>
       </c>
-      <c r="O12" s="3">
+      <c r="P12" s="3">
         <v>51000</v>
       </c>
-      <c r="P12" s="3">
+      <c r="Q12" s="3">
         <v>49900</v>
       </c>
-      <c r="Q12" s="3">
+      <c r="R12" s="3">
         <v>49500</v>
       </c>
-      <c r="R12" s="3">
+      <c r="S12" s="3">
         <v>57700</v>
       </c>
-      <c r="S12" s="3">
+      <c r="T12" s="3">
         <v>42800</v>
       </c>
-      <c r="T12" s="3">
+      <c r="U12" s="3">
         <v>34600</v>
       </c>
-      <c r="U12" s="3">
+      <c r="V12" s="3">
         <v>38500</v>
       </c>
-      <c r="V12" s="3">
+      <c r="W12" s="3">
         <v>38200</v>
       </c>
-      <c r="W12" s="3">
+      <c r="X12" s="3">
         <v>43800</v>
       </c>
-      <c r="X12" s="3">
+      <c r="Y12" s="3">
         <v>36300</v>
       </c>
-      <c r="Y12" s="3">
+      <c r="Z12" s="3">
         <v>35400</v>
       </c>
-      <c r="Z12" s="3">
+      <c r="AA12" s="3">
         <v>37300</v>
       </c>
-      <c r="AA12" s="3">
+      <c r="AB12" s="3">
         <v>38700</v>
       </c>
-      <c r="AB12" s="3">
+      <c r="AC12" s="3">
         <v>36900</v>
       </c>
     </row>
-    <row r="13" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:29" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>8</v>
       </c>
@@ -1201,141 +1218,147 @@
       <c r="AB13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="AC13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:29" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>9</v>
       </c>
       <c r="D14" s="3">
+        <v>13900</v>
+      </c>
+      <c r="E14" s="3">
         <v>9300</v>
       </c>
-      <c r="E14" s="3">
-        <v>0</v>
-      </c>
       <c r="F14" s="3">
+        <v>0</v>
+      </c>
+      <c r="G14" s="3">
         <v>-100</v>
       </c>
-      <c r="G14" s="3">
+      <c r="H14" s="3">
         <v>100</v>
       </c>
-      <c r="H14" s="3">
+      <c r="I14" s="3">
         <v>-1100</v>
       </c>
-      <c r="I14" s="3">
+      <c r="J14" s="3">
         <v>4600</v>
       </c>
-      <c r="J14" s="3">
+      <c r="K14" s="3">
         <v>-204600</v>
       </c>
-      <c r="K14" s="3">
+      <c r="L14" s="3">
         <v>200</v>
       </c>
-      <c r="L14" s="3">
-        <v>0</v>
-      </c>
       <c r="M14" s="3">
+        <v>0</v>
+      </c>
+      <c r="N14" s="3">
         <v>4900</v>
       </c>
-      <c r="N14" s="3">
+      <c r="O14" s="3">
         <v>5200</v>
       </c>
-      <c r="O14" s="3">
+      <c r="P14" s="3">
         <v>900</v>
       </c>
-      <c r="P14" s="3">
+      <c r="Q14" s="3">
         <v>1300</v>
       </c>
-      <c r="Q14" s="3">
+      <c r="R14" s="3">
         <v>1700</v>
       </c>
-      <c r="R14" s="3">
+      <c r="S14" s="3">
         <v>51800</v>
       </c>
-      <c r="S14" s="3">
+      <c r="T14" s="3">
         <v>7800</v>
       </c>
-      <c r="T14" s="3">
+      <c r="U14" s="3">
         <v>1300</v>
       </c>
-      <c r="U14" s="3">
+      <c r="V14" s="3">
         <v>3400</v>
       </c>
-      <c r="V14" s="3">
+      <c r="W14" s="3">
         <v>100</v>
       </c>
-      <c r="W14" s="3">
+      <c r="X14" s="3">
         <v>4500</v>
       </c>
-      <c r="X14" s="3">
+      <c r="Y14" s="3">
         <v>2900</v>
       </c>
-      <c r="Y14" s="3">
+      <c r="Z14" s="3">
         <v>2000</v>
       </c>
-      <c r="Z14" s="3">
+      <c r="AA14" s="3">
         <v>3100</v>
       </c>
-      <c r="AA14" s="3">
+      <c r="AB14" s="3">
         <v>4000</v>
       </c>
-      <c r="AB14" s="3">
+      <c r="AC14" s="3">
         <v>2900</v>
       </c>
     </row>
-    <row r="15" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:29" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D15" s="3">
+        <v>11300</v>
+      </c>
+      <c r="E15" s="3">
         <v>9300</v>
       </c>
-      <c r="E15" s="3">
+      <c r="F15" s="3">
         <v>5600</v>
       </c>
-      <c r="F15" s="3">
+      <c r="G15" s="3">
         <v>5800</v>
-      </c>
-      <c r="G15" s="3">
-        <v>5600</v>
       </c>
       <c r="H15" s="3">
         <v>5600</v>
       </c>
       <c r="I15" s="3">
-        <v>6200</v>
+        <v>5600</v>
       </c>
       <c r="J15" s="3">
         <v>6200</v>
       </c>
       <c r="K15" s="3">
+        <v>6200</v>
+      </c>
+      <c r="L15" s="3">
         <v>5900</v>
       </c>
-      <c r="L15" s="3">
+      <c r="M15" s="3">
         <v>5700</v>
       </c>
-      <c r="M15" s="3">
+      <c r="N15" s="3">
         <v>6200</v>
       </c>
-      <c r="N15" s="3">
+      <c r="O15" s="3">
         <v>6100</v>
       </c>
-      <c r="O15" s="3">
+      <c r="P15" s="3">
         <v>6200</v>
       </c>
-      <c r="P15" s="3">
+      <c r="Q15" s="3">
         <v>6300</v>
-      </c>
-      <c r="Q15" s="3">
-        <v>3600</v>
       </c>
       <c r="R15" s="3">
         <v>3600</v>
       </c>
       <c r="S15" s="3">
+        <v>3600</v>
+      </c>
+      <c r="T15" s="3">
         <v>800</v>
-      </c>
-      <c r="T15" s="3" t="s">
-        <v>17</v>
       </c>
       <c r="U15" s="3" t="s">
         <v>17</v>
@@ -1343,17 +1366,17 @@
       <c r="V15" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="W15" s="3">
-        <v>0</v>
-      </c>
-      <c r="X15" s="3" t="s">
+      <c r="W15" s="3" t="s">
         <v>17</v>
+      </c>
+      <c r="X15" s="3">
+        <v>0</v>
       </c>
       <c r="Y15" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="Z15" s="3">
-        <v>0</v>
+      <c r="Z15" s="3" t="s">
+        <v>17</v>
       </c>
       <c r="AA15" s="3">
         <v>0</v>
@@ -1361,8 +1384,11 @@
       <c r="AB15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="AC15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:29" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1388,168 +1414,175 @@
       <c r="Z16" s="3"/>
       <c r="AA16" s="3"/>
       <c r="AB16" s="3"/>
-    </row>
-    <row r="17" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC16" s="3"/>
+    </row>
+    <row r="17" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>11</v>
       </c>
       <c r="D17" s="3">
+        <v>527900</v>
+      </c>
+      <c r="E17" s="3">
         <v>493300</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="3">
         <v>366700</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>348600</v>
       </c>
-      <c r="G17" s="3">
+      <c r="H17" s="3">
         <v>361500</v>
       </c>
-      <c r="H17" s="3">
+      <c r="I17" s="3">
         <v>332500</v>
       </c>
-      <c r="I17" s="3">
+      <c r="J17" s="3">
         <v>346300</v>
       </c>
-      <c r="J17" s="3">
+      <c r="K17" s="3">
         <v>152600</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>363500</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>353400</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>341100</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>360300</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>383000</v>
       </c>
-      <c r="P17" s="3">
+      <c r="Q17" s="3">
         <v>390100</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="R17" s="3">
         <v>418400</v>
       </c>
-      <c r="R17" s="3">
+      <c r="S17" s="3">
         <v>509300</v>
       </c>
-      <c r="S17" s="3">
+      <c r="T17" s="3">
         <v>362200</v>
       </c>
-      <c r="T17" s="3">
+      <c r="U17" s="3">
         <v>297000</v>
       </c>
-      <c r="U17" s="3">
+      <c r="V17" s="3">
         <v>280200</v>
       </c>
-      <c r="V17" s="3">
+      <c r="W17" s="3">
         <v>273300</v>
       </c>
-      <c r="W17" s="3">
+      <c r="X17" s="3">
         <v>313800</v>
       </c>
-      <c r="X17" s="3">
+      <c r="Y17" s="3">
         <v>240500</v>
       </c>
-      <c r="Y17" s="3">
+      <c r="Z17" s="3">
         <v>218800</v>
       </c>
-      <c r="Z17" s="3">
+      <c r="AA17" s="3">
         <v>242200</v>
       </c>
-      <c r="AA17" s="3">
+      <c r="AB17" s="3">
         <v>251700</v>
       </c>
-      <c r="AB17" s="3">
+      <c r="AC17" s="3">
         <v>241300</v>
       </c>
     </row>
-    <row r="18" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D18" s="3">
+        <v>-21900</v>
+      </c>
+      <c r="E18" s="3">
         <v>13500</v>
       </c>
-      <c r="E18" s="3">
+      <c r="F18" s="3">
         <v>55400</v>
       </c>
-      <c r="F18" s="3">
+      <c r="G18" s="3">
         <v>46800</v>
       </c>
-      <c r="G18" s="3">
+      <c r="H18" s="3">
         <v>85200</v>
       </c>
-      <c r="H18" s="3">
+      <c r="I18" s="3">
         <v>115900</v>
       </c>
-      <c r="I18" s="3">
+      <c r="J18" s="3">
         <v>45800</v>
       </c>
-      <c r="J18" s="3">
+      <c r="K18" s="3">
         <v>266900</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>115300</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>99000</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>27000</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>42500</v>
       </c>
-      <c r="O18" s="3">
+      <c r="P18" s="3">
         <v>74800</v>
       </c>
-      <c r="P18" s="3">
+      <c r="Q18" s="3">
         <v>59800</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="R18" s="3">
         <v>-13800</v>
       </c>
-      <c r="R18" s="3">
+      <c r="S18" s="3">
         <v>-76400</v>
       </c>
-      <c r="S18" s="3">
+      <c r="T18" s="3">
         <v>11500</v>
       </c>
-      <c r="T18" s="3">
+      <c r="U18" s="3">
         <v>57100</v>
       </c>
-      <c r="U18" s="3">
+      <c r="V18" s="3">
         <v>20900</v>
       </c>
-      <c r="V18" s="3">
+      <c r="W18" s="3">
         <v>25500</v>
       </c>
-      <c r="W18" s="3">
+      <c r="X18" s="3">
         <v>90800</v>
       </c>
-      <c r="X18" s="3">
+      <c r="Y18" s="3">
         <v>2700</v>
       </c>
-      <c r="Y18" s="3">
+      <c r="Z18" s="3">
         <v>3900</v>
       </c>
-      <c r="Z18" s="3">
+      <c r="AA18" s="3">
         <v>13600</v>
       </c>
-      <c r="AA18" s="3">
+      <c r="AB18" s="3">
         <v>13300</v>
       </c>
-      <c r="AB18" s="3">
+      <c r="AC18" s="3">
         <v>16800</v>
       </c>
     </row>
-    <row r="19" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>13</v>
       </c>
@@ -1578,224 +1611,231 @@
       <c r="Z19" s="3"/>
       <c r="AA19" s="3"/>
       <c r="AB19" s="3"/>
-    </row>
-    <row r="20" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC19" s="3"/>
+    </row>
+    <row r="20" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>14</v>
       </c>
       <c r="D20" s="3">
+        <v>3700</v>
+      </c>
+      <c r="E20" s="3">
         <v>13800</v>
       </c>
-      <c r="E20" s="3">
+      <c r="F20" s="3">
         <v>8200</v>
       </c>
-      <c r="F20" s="3">
+      <c r="G20" s="3">
         <v>2200</v>
       </c>
-      <c r="G20" s="3">
+      <c r="H20" s="3">
         <v>1000</v>
       </c>
-      <c r="H20" s="3">
+      <c r="I20" s="3">
         <v>600</v>
       </c>
-      <c r="I20" s="3">
+      <c r="J20" s="3">
         <v>700</v>
       </c>
-      <c r="J20" s="3">
+      <c r="K20" s="3">
         <v>2400</v>
       </c>
-      <c r="K20" s="3">
+      <c r="L20" s="3">
         <v>-900</v>
       </c>
-      <c r="L20" s="3">
+      <c r="M20" s="3">
         <v>600</v>
       </c>
-      <c r="M20" s="3">
+      <c r="N20" s="3">
         <v>3500</v>
       </c>
-      <c r="N20" s="3">
+      <c r="O20" s="3">
         <v>21700</v>
       </c>
-      <c r="O20" s="3">
+      <c r="P20" s="3">
         <v>1200</v>
       </c>
-      <c r="P20" s="3">
+      <c r="Q20" s="3">
         <v>5000</v>
       </c>
-      <c r="Q20" s="3">
+      <c r="R20" s="3">
         <v>4100</v>
       </c>
-      <c r="R20" s="3">
+      <c r="S20" s="3">
         <v>5200</v>
       </c>
-      <c r="S20" s="3">
+      <c r="T20" s="3">
         <v>14700</v>
       </c>
-      <c r="T20" s="3">
+      <c r="U20" s="3">
         <v>600</v>
       </c>
-      <c r="U20" s="3">
+      <c r="V20" s="3">
         <v>11400</v>
       </c>
-      <c r="V20" s="3">
+      <c r="W20" s="3">
         <v>-18200</v>
       </c>
-      <c r="W20" s="3">
+      <c r="X20" s="3">
         <v>9300</v>
       </c>
-      <c r="X20" s="3">
+      <c r="Y20" s="3">
         <v>5200</v>
       </c>
-      <c r="Y20" s="3">
+      <c r="Z20" s="3">
         <v>-31500</v>
       </c>
-      <c r="Z20" s="3">
+      <c r="AA20" s="3">
         <v>-58000</v>
       </c>
-      <c r="AA20" s="3">
+      <c r="AB20" s="3">
         <v>4600</v>
       </c>
-      <c r="AB20" s="3">
+      <c r="AC20" s="3">
         <v>-22500</v>
       </c>
     </row>
-    <row r="21" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D21" s="3">
+        <v>44300</v>
+      </c>
+      <c r="E21" s="3">
         <v>84000</v>
       </c>
-      <c r="E21" s="3">
+      <c r="F21" s="3">
         <v>105200</v>
       </c>
-      <c r="F21" s="3">
+      <c r="G21" s="3">
         <v>90600</v>
       </c>
-      <c r="G21" s="3">
+      <c r="H21" s="3">
         <v>128300</v>
       </c>
-      <c r="H21" s="3">
+      <c r="I21" s="3">
         <v>158300</v>
       </c>
-      <c r="I21" s="3">
+      <c r="J21" s="3">
         <v>89600</v>
       </c>
-      <c r="J21" s="3">
+      <c r="K21" s="3">
         <v>314100</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>159100</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>144100</v>
       </c>
-      <c r="M21" s="3">
+      <c r="N21" s="3">
         <v>77200</v>
       </c>
-      <c r="N21" s="3">
+      <c r="O21" s="3">
         <v>111700</v>
       </c>
-      <c r="O21" s="3">
+      <c r="P21" s="3">
         <v>123300</v>
       </c>
-      <c r="P21" s="3">
+      <c r="Q21" s="3">
         <v>115200</v>
       </c>
-      <c r="Q21" s="3">
+      <c r="R21" s="3">
         <v>35400</v>
       </c>
-      <c r="R21" s="3">
+      <c r="S21" s="3">
         <v>-10500</v>
       </c>
-      <c r="S21" s="3">
+      <c r="T21" s="3">
         <v>57400</v>
       </c>
-      <c r="T21" s="3">
+      <c r="U21" s="3">
         <v>78200</v>
       </c>
-      <c r="U21" s="3">
+      <c r="V21" s="3">
         <v>53800</v>
       </c>
-      <c r="V21" s="3">
+      <c r="W21" s="3">
         <v>26500</v>
       </c>
-      <c r="W21" s="3">
+      <c r="X21" s="3">
         <v>119100</v>
       </c>
-      <c r="X21" s="3">
+      <c r="Y21" s="3">
         <v>25400</v>
       </c>
-      <c r="Y21" s="3">
+      <c r="Z21" s="3">
         <v>-11100</v>
       </c>
-      <c r="Z21" s="3">
+      <c r="AA21" s="3">
         <v>-28500</v>
       </c>
-      <c r="AA21" s="3">
+      <c r="AB21" s="3">
         <v>32800</v>
       </c>
-      <c r="AB21" s="3">
+      <c r="AC21" s="3">
         <v>8000</v>
       </c>
     </row>
-    <row r="22" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D22" s="3">
+        <v>8900</v>
+      </c>
+      <c r="E22" s="3">
         <v>8500</v>
       </c>
-      <c r="E22" s="3">
+      <c r="F22" s="3">
         <v>26500</v>
       </c>
-      <c r="F22" s="3">
+      <c r="G22" s="3">
         <v>19700</v>
       </c>
-      <c r="G22" s="3">
+      <c r="H22" s="3">
         <v>17100</v>
       </c>
-      <c r="H22" s="3">
+      <c r="I22" s="3">
         <v>16900</v>
       </c>
-      <c r="I22" s="3">
+      <c r="J22" s="3">
         <v>18000</v>
       </c>
-      <c r="J22" s="3">
+      <c r="K22" s="3">
         <v>16400</v>
       </c>
-      <c r="K22" s="3">
+      <c r="L22" s="3">
         <v>16300</v>
       </c>
-      <c r="L22" s="3">
+      <c r="M22" s="3">
         <v>16000</v>
       </c>
-      <c r="M22" s="3">
+      <c r="N22" s="3">
         <v>15900</v>
       </c>
-      <c r="N22" s="3">
+      <c r="O22" s="3">
         <v>15600</v>
       </c>
-      <c r="O22" s="3">
+      <c r="P22" s="3">
         <v>18300</v>
-      </c>
-      <c r="P22" s="3">
-        <v>11400</v>
       </c>
       <c r="Q22" s="3">
         <v>11400</v>
       </c>
       <c r="R22" s="3">
+        <v>11400</v>
+      </c>
+      <c r="S22" s="3">
         <v>11300</v>
       </c>
-      <c r="S22" s="3">
+      <c r="T22" s="3">
         <v>8500</v>
       </c>
-      <c r="T22" s="3">
+      <c r="U22" s="3">
         <v>5100</v>
-      </c>
-      <c r="U22" s="3">
-        <v>4600</v>
       </c>
       <c r="V22" s="3">
         <v>4600</v>
@@ -1804,10 +1844,10 @@
         <v>4600</v>
       </c>
       <c r="X22" s="3">
+        <v>4600</v>
+      </c>
+      <c r="Y22" s="3">
         <v>4400</v>
-      </c>
-      <c r="Y22" s="3" t="s">
-        <v>17</v>
       </c>
       <c r="Z22" s="3" t="s">
         <v>17</v>
@@ -1818,168 +1858,177 @@
       <c r="AB22" s="3" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="23" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC22" s="3" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="23" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>-27100</v>
+      </c>
+      <c r="E23" s="3">
         <v>18800</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>37100</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>29300</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
         <v>69100</v>
       </c>
-      <c r="H23" s="3">
+      <c r="I23" s="3">
         <v>99600</v>
       </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
         <v>28500</v>
       </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
         <v>252900</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>98100</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>83600</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>14600</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>48600</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>57700</v>
       </c>
-      <c r="P23" s="3">
+      <c r="Q23" s="3">
         <v>53400</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="R23" s="3">
         <v>-21100</v>
       </c>
-      <c r="R23" s="3">
+      <c r="S23" s="3">
         <v>-82500</v>
       </c>
-      <c r="S23" s="3">
+      <c r="T23" s="3">
         <v>17700</v>
       </c>
-      <c r="T23" s="3">
+      <c r="U23" s="3">
         <v>52600</v>
       </c>
-      <c r="U23" s="3">
+      <c r="V23" s="3">
         <v>27700</v>
       </c>
-      <c r="V23" s="3">
+      <c r="W23" s="3">
         <v>2700</v>
       </c>
-      <c r="W23" s="3">
+      <c r="X23" s="3">
         <v>95500</v>
       </c>
-      <c r="X23" s="3">
+      <c r="Y23" s="3">
         <v>3500</v>
       </c>
-      <c r="Y23" s="3">
+      <c r="Z23" s="3">
         <v>-27600</v>
       </c>
-      <c r="Z23" s="3">
+      <c r="AA23" s="3">
         <v>-44400</v>
       </c>
-      <c r="AA23" s="3">
+      <c r="AB23" s="3">
         <v>17900</v>
       </c>
-      <c r="AB23" s="3">
+      <c r="AC23" s="3">
         <v>-5700</v>
       </c>
     </row>
-    <row r="24" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
+        <v>4600</v>
+      </c>
+      <c r="E24" s="3">
         <v>19200</v>
       </c>
-      <c r="E24" s="3">
+      <c r="F24" s="3">
         <v>2400</v>
       </c>
-      <c r="F24" s="3">
+      <c r="G24" s="3">
         <v>3300</v>
       </c>
-      <c r="G24" s="3">
+      <c r="H24" s="3">
         <v>12400</v>
       </c>
-      <c r="H24" s="3">
+      <c r="I24" s="3">
         <v>18100</v>
       </c>
-      <c r="I24" s="3">
+      <c r="J24" s="3">
         <v>7000</v>
       </c>
-      <c r="J24" s="3">
+      <c r="K24" s="3">
         <v>27400</v>
       </c>
-      <c r="K24" s="3">
+      <c r="L24" s="3">
         <v>14900</v>
       </c>
-      <c r="L24" s="3">
+      <c r="M24" s="3">
         <v>16500</v>
       </c>
-      <c r="M24" s="3">
+      <c r="N24" s="3">
         <v>19200</v>
       </c>
-      <c r="N24" s="3">
+      <c r="O24" s="3">
         <v>5200</v>
       </c>
-      <c r="O24" s="3">
+      <c r="P24" s="3">
         <v>8600</v>
       </c>
-      <c r="P24" s="3">
+      <c r="Q24" s="3">
         <v>5800</v>
       </c>
-      <c r="Q24" s="3">
+      <c r="R24" s="3">
         <v>4700</v>
       </c>
-      <c r="R24" s="3">
+      <c r="S24" s="3">
         <v>-8200</v>
       </c>
-      <c r="S24" s="3">
+      <c r="T24" s="3">
         <v>1400</v>
       </c>
-      <c r="T24" s="3">
+      <c r="U24" s="3">
         <v>5200</v>
       </c>
-      <c r="U24" s="3">
+      <c r="V24" s="3">
         <v>-3300</v>
       </c>
-      <c r="V24" s="3">
-        <v>0</v>
-      </c>
       <c r="W24" s="3">
+        <v>0</v>
+      </c>
+      <c r="X24" s="3">
         <v>-109300</v>
       </c>
-      <c r="X24" s="3">
+      <c r="Y24" s="3">
         <v>-3600</v>
       </c>
-      <c r="Y24" s="3">
+      <c r="Z24" s="3">
         <v>27300</v>
       </c>
-      <c r="Z24" s="3">
+      <c r="AA24" s="3">
         <v>11600</v>
       </c>
-      <c r="AA24" s="3">
+      <c r="AB24" s="3">
         <v>6100</v>
       </c>
-      <c r="AB24" s="3">
+      <c r="AC24" s="3">
         <v>-2300</v>
       </c>
     </row>
-    <row r="25" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="25" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -2058,168 +2107,177 @@
       <c r="AB25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>-31700</v>
+      </c>
+      <c r="E26" s="3">
         <v>-400</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
         <v>34700</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>26000</v>
       </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
         <v>56700</v>
       </c>
-      <c r="H26" s="3">
+      <c r="I26" s="3">
         <v>81500</v>
       </c>
-      <c r="I26" s="3">
+      <c r="J26" s="3">
         <v>21500</v>
       </c>
-      <c r="J26" s="3">
+      <c r="K26" s="3">
         <v>225500</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>83200</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>67100</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>-4600</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>43400</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>49100</v>
       </c>
-      <c r="P26" s="3">
+      <c r="Q26" s="3">
         <v>47600</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="R26" s="3">
         <v>-25800</v>
       </c>
-      <c r="R26" s="3">
+      <c r="S26" s="3">
         <v>-74300</v>
       </c>
-      <c r="S26" s="3">
+      <c r="T26" s="3">
         <v>16300</v>
       </c>
-      <c r="T26" s="3">
+      <c r="U26" s="3">
         <v>47400</v>
       </c>
-      <c r="U26" s="3">
+      <c r="V26" s="3">
         <v>31000</v>
       </c>
-      <c r="V26" s="3">
+      <c r="W26" s="3">
         <v>2700</v>
       </c>
-      <c r="W26" s="3">
+      <c r="X26" s="3">
         <v>204800</v>
       </c>
-      <c r="X26" s="3">
+      <c r="Y26" s="3">
         <v>7100</v>
       </c>
-      <c r="Y26" s="3">
+      <c r="Z26" s="3">
         <v>-54900</v>
       </c>
-      <c r="Z26" s="3">
+      <c r="AA26" s="3">
         <v>-56000</v>
       </c>
-      <c r="AA26" s="3">
+      <c r="AB26" s="3">
         <v>11800</v>
       </c>
-      <c r="AB26" s="3">
+      <c r="AC26" s="3">
         <v>-3400</v>
       </c>
     </row>
-    <row r="27" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>-31700</v>
+      </c>
+      <c r="E27" s="3">
         <v>-400</v>
       </c>
-      <c r="E27" s="3">
+      <c r="F27" s="3">
         <v>34700</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>26000</v>
       </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
         <v>56700</v>
       </c>
-      <c r="H27" s="3">
+      <c r="I27" s="3">
         <v>81500</v>
       </c>
-      <c r="I27" s="3">
+      <c r="J27" s="3">
         <v>21500</v>
       </c>
-      <c r="J27" s="3">
+      <c r="K27" s="3">
         <v>225500</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>83200</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>67100</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>-4600</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>43400</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>49100</v>
       </c>
-      <c r="P27" s="3">
+      <c r="Q27" s="3">
         <v>47600</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="R27" s="3">
         <v>-25800</v>
       </c>
-      <c r="R27" s="3">
+      <c r="S27" s="3">
         <v>-74300</v>
       </c>
-      <c r="S27" s="3">
+      <c r="T27" s="3">
         <v>16200</v>
       </c>
-      <c r="T27" s="3">
+      <c r="U27" s="3">
         <v>46100</v>
       </c>
-      <c r="U27" s="3">
+      <c r="V27" s="3">
         <v>30000</v>
       </c>
-      <c r="V27" s="3">
+      <c r="W27" s="3">
         <v>2400</v>
       </c>
-      <c r="W27" s="3">
+      <c r="X27" s="3">
         <v>199800</v>
       </c>
-      <c r="X27" s="3">
+      <c r="Y27" s="3">
         <v>6900</v>
       </c>
-      <c r="Y27" s="3">
+      <c r="Z27" s="3">
         <v>-55200</v>
       </c>
-      <c r="Z27" s="3">
+      <c r="AA27" s="3">
         <v>-56200</v>
       </c>
-      <c r="AA27" s="3">
+      <c r="AB27" s="3">
         <v>11600</v>
       </c>
-      <c r="AB27" s="3">
+      <c r="AC27" s="3">
         <v>-3600</v>
       </c>
     </row>
-    <row r="28" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -2298,8 +2356,11 @@
       <c r="AB28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -2336,17 +2397,17 @@
       <c r="N29" s="3">
         <v>0</v>
       </c>
-      <c r="O29" s="3" t="s">
-        <v>17</v>
+      <c r="O29" s="3">
+        <v>0</v>
       </c>
       <c r="P29" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="Q29" s="3">
-        <v>0</v>
-      </c>
-      <c r="R29" s="3" t="s">
+      <c r="Q29" s="3" t="s">
         <v>17</v>
+      </c>
+      <c r="R29" s="3">
+        <v>0</v>
       </c>
       <c r="S29" s="3" t="s">
         <v>17</v>
@@ -2354,17 +2415,17 @@
       <c r="T29" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="U29" s="3">
+      <c r="U29" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="V29" s="3">
         <v>2500</v>
       </c>
-      <c r="V29" s="3">
-        <v>0</v>
-      </c>
       <c r="W29" s="3">
+        <v>0</v>
+      </c>
+      <c r="X29" s="3">
         <v>-83000</v>
-      </c>
-      <c r="X29" s="3" t="s">
-        <v>17</v>
       </c>
       <c r="Y29" s="3" t="s">
         <v>17</v>
@@ -2378,8 +2439,11 @@
       <c r="AB29" s="3" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="30" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC29" s="3" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="30" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -2458,8 +2522,11 @@
       <c r="AB30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -2538,168 +2605,177 @@
       <c r="AB31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
+        <v>-3700</v>
+      </c>
+      <c r="E32" s="3">
         <v>-13800</v>
       </c>
-      <c r="E32" s="3">
+      <c r="F32" s="3">
         <v>-8200</v>
       </c>
-      <c r="F32" s="3">
+      <c r="G32" s="3">
         <v>-2200</v>
       </c>
-      <c r="G32" s="3">
+      <c r="H32" s="3">
         <v>-1000</v>
       </c>
-      <c r="H32" s="3">
+      <c r="I32" s="3">
         <v>-600</v>
       </c>
-      <c r="I32" s="3">
+      <c r="J32" s="3">
         <v>-700</v>
       </c>
-      <c r="J32" s="3">
+      <c r="K32" s="3">
         <v>-2400</v>
       </c>
-      <c r="K32" s="3">
+      <c r="L32" s="3">
         <v>900</v>
       </c>
-      <c r="L32" s="3">
+      <c r="M32" s="3">
         <v>-600</v>
       </c>
-      <c r="M32" s="3">
+      <c r="N32" s="3">
         <v>-3500</v>
       </c>
-      <c r="N32" s="3">
+      <c r="O32" s="3">
         <v>-21700</v>
       </c>
-      <c r="O32" s="3">
+      <c r="P32" s="3">
         <v>-1200</v>
       </c>
-      <c r="P32" s="3">
+      <c r="Q32" s="3">
         <v>-5000</v>
       </c>
-      <c r="Q32" s="3">
+      <c r="R32" s="3">
         <v>-4100</v>
       </c>
-      <c r="R32" s="3">
+      <c r="S32" s="3">
         <v>-5200</v>
       </c>
-      <c r="S32" s="3">
+      <c r="T32" s="3">
         <v>-14700</v>
       </c>
-      <c r="T32" s="3">
+      <c r="U32" s="3">
         <v>-600</v>
       </c>
-      <c r="U32" s="3">
+      <c r="V32" s="3">
         <v>-11400</v>
       </c>
-      <c r="V32" s="3">
+      <c r="W32" s="3">
         <v>18200</v>
       </c>
-      <c r="W32" s="3">
+      <c r="X32" s="3">
         <v>-9300</v>
       </c>
-      <c r="X32" s="3">
+      <c r="Y32" s="3">
         <v>-5200</v>
       </c>
-      <c r="Y32" s="3">
+      <c r="Z32" s="3">
         <v>31500</v>
       </c>
-      <c r="Z32" s="3">
+      <c r="AA32" s="3">
         <v>58000</v>
       </c>
-      <c r="AA32" s="3">
+      <c r="AB32" s="3">
         <v>-4600</v>
       </c>
-      <c r="AB32" s="3">
+      <c r="AC32" s="3">
         <v>22500</v>
       </c>
     </row>
-    <row r="33" spans="2:28" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>-31700</v>
+      </c>
+      <c r="E33" s="3">
         <v>-400</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
         <v>34700</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>26000</v>
       </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
         <v>56700</v>
       </c>
-      <c r="H33" s="3">
+      <c r="I33" s="3">
         <v>81500</v>
       </c>
-      <c r="I33" s="3">
+      <c r="J33" s="3">
         <v>21500</v>
       </c>
-      <c r="J33" s="3">
+      <c r="K33" s="3">
         <v>225500</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>83200</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>67100</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>-4600</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>43400</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>49100</v>
       </c>
-      <c r="P33" s="3">
+      <c r="Q33" s="3">
         <v>47600</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="R33" s="3">
         <v>-25800</v>
       </c>
-      <c r="R33" s="3">
+      <c r="S33" s="3">
         <v>-74300</v>
       </c>
-      <c r="S33" s="3">
+      <c r="T33" s="3">
         <v>16200</v>
       </c>
-      <c r="T33" s="3">
+      <c r="U33" s="3">
         <v>46100</v>
       </c>
-      <c r="U33" s="3">
+      <c r="V33" s="3">
         <v>32500</v>
       </c>
-      <c r="V33" s="3">
+      <c r="W33" s="3">
         <v>2400</v>
       </c>
-      <c r="W33" s="3">
+      <c r="X33" s="3">
         <v>116800</v>
       </c>
-      <c r="X33" s="3">
+      <c r="Y33" s="3">
         <v>6900</v>
       </c>
-      <c r="Y33" s="3">
+      <c r="Z33" s="3">
         <v>-55200</v>
       </c>
-      <c r="Z33" s="3">
+      <c r="AA33" s="3">
         <v>-56200</v>
       </c>
-      <c r="AA33" s="3">
+      <c r="AB33" s="3">
         <v>11600</v>
       </c>
-      <c r="AB33" s="3">
+      <c r="AC33" s="3">
         <v>-3600</v>
       </c>
     </row>
-    <row r="34" spans="2:28" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2778,173 +2854,182 @@
       <c r="AB34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>-31700</v>
+      </c>
+      <c r="E35" s="3">
         <v>-400</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
         <v>34700</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>26000</v>
       </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
         <v>56700</v>
       </c>
-      <c r="H35" s="3">
+      <c r="I35" s="3">
         <v>81500</v>
       </c>
-      <c r="I35" s="3">
+      <c r="J35" s="3">
         <v>21500</v>
       </c>
-      <c r="J35" s="3">
+      <c r="K35" s="3">
         <v>225500</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>83200</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>67100</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>-4600</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>43400</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>49100</v>
       </c>
-      <c r="P35" s="3">
+      <c r="Q35" s="3">
         <v>47600</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="R35" s="3">
         <v>-25800</v>
       </c>
-      <c r="R35" s="3">
+      <c r="S35" s="3">
         <v>-74300</v>
       </c>
-      <c r="S35" s="3">
+      <c r="T35" s="3">
         <v>16200</v>
       </c>
-      <c r="T35" s="3">
+      <c r="U35" s="3">
         <v>46100</v>
       </c>
-      <c r="U35" s="3">
+      <c r="V35" s="3">
         <v>32500</v>
       </c>
-      <c r="V35" s="3">
+      <c r="W35" s="3">
         <v>2400</v>
       </c>
-      <c r="W35" s="3">
+      <c r="X35" s="3">
         <v>116800</v>
       </c>
-      <c r="X35" s="3">
+      <c r="Y35" s="3">
         <v>6900</v>
       </c>
-      <c r="Y35" s="3">
+      <c r="Z35" s="3">
         <v>-55200</v>
       </c>
-      <c r="Z35" s="3">
+      <c r="AA35" s="3">
         <v>-56200</v>
       </c>
-      <c r="AA35" s="3">
+      <c r="AB35" s="3">
         <v>11600</v>
       </c>
-      <c r="AB35" s="3">
+      <c r="AC35" s="3">
         <v>-3600</v>
       </c>
     </row>
-    <row r="37" spans="2:28" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:29" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:28" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44926</v>
+      </c>
+      <c r="E38" s="2">
         <v>44835</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44744</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44653</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44562</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>44471</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>44380</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>44289</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>44191</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>44100</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>44009</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>43918</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>43827</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>43736</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>43645</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>43554</v>
       </c>
-      <c r="S38" s="2">
+      <c r="T38" s="2">
         <v>43463</v>
       </c>
-      <c r="T38" s="2">
+      <c r="U38" s="2">
         <v>43372</v>
       </c>
-      <c r="U38" s="2">
+      <c r="V38" s="2">
         <v>43281</v>
       </c>
-      <c r="V38" s="2">
+      <c r="W38" s="2">
         <v>43190</v>
       </c>
-      <c r="W38" s="2">
+      <c r="X38" s="2">
         <v>43099</v>
       </c>
-      <c r="X38" s="2">
+      <c r="Y38" s="2">
         <v>43008</v>
       </c>
-      <c r="Y38" s="2">
+      <c r="Z38" s="2">
         <v>42917</v>
       </c>
-      <c r="Z38" s="2">
+      <c r="AA38" s="2">
         <v>42826</v>
       </c>
-      <c r="AA38" s="2">
+      <c r="AB38" s="2">
         <v>42735</v>
       </c>
-      <c r="AB38" s="2">
+      <c r="AC38" s="2">
         <v>42644</v>
       </c>
     </row>
-    <row r="39" spans="2:28" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2973,8 +3058,9 @@
       <c r="Z39" s="3"/>
       <c r="AA39" s="3"/>
       <c r="AB39" s="3"/>
-    </row>
-    <row r="40" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC39" s="3"/>
+    </row>
+    <row r="40" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -3003,159 +3089,163 @@
       <c r="Z40" s="3"/>
       <c r="AA40" s="3"/>
       <c r="AB40" s="3"/>
-    </row>
-    <row r="41" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC40" s="3"/>
+    </row>
+    <row r="41" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>592100</v>
+      </c>
+      <c r="E41" s="3">
         <v>605300</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>1290200</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>1130300</v>
       </c>
-      <c r="G41" s="3">
+      <c r="H41" s="3">
         <v>552000</v>
       </c>
-      <c r="H41" s="3">
+      <c r="I41" s="3">
         <v>611000</v>
       </c>
-      <c r="I41" s="3">
+      <c r="J41" s="3">
         <v>774300</v>
       </c>
-      <c r="J41" s="3">
+      <c r="K41" s="3">
         <v>687700</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>321300</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>269500</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>298000</v>
       </c>
-      <c r="N41" s="3">
+      <c r="O41" s="3">
         <v>688300</v>
       </c>
-      <c r="O41" s="3">
+      <c r="P41" s="3">
         <v>1085000</v>
       </c>
-      <c r="P41" s="3">
+      <c r="Q41" s="3">
         <v>539000</v>
       </c>
-      <c r="Q41" s="3">
+      <c r="R41" s="3">
         <v>432600</v>
       </c>
-      <c r="R41" s="3">
+      <c r="S41" s="3">
         <v>357300</v>
       </c>
-      <c r="S41" s="3">
+      <c r="T41" s="3">
         <v>371300</v>
       </c>
-      <c r="T41" s="3">
+      <c r="U41" s="3">
         <v>459400</v>
       </c>
-      <c r="U41" s="3">
+      <c r="V41" s="3">
         <v>397300</v>
       </c>
-      <c r="V41" s="3">
+      <c r="W41" s="3">
         <v>176800</v>
       </c>
-      <c r="W41" s="3">
+      <c r="X41" s="3">
         <v>202100</v>
       </c>
-      <c r="X41" s="3">
+      <c r="Y41" s="3">
         <v>150800</v>
       </c>
-      <c r="Y41" s="3">
+      <c r="Z41" s="3">
         <v>272900</v>
       </c>
-      <c r="Z41" s="3">
+      <c r="AA41" s="3">
         <v>577900</v>
       </c>
-      <c r="AA41" s="3">
+      <c r="AB41" s="3">
         <v>155900</v>
       </c>
-      <c r="AB41" s="3">
+      <c r="AC41" s="3">
         <v>166800</v>
       </c>
     </row>
-    <row r="42" spans="2:28" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
       <c r="D42" s="3">
+        <v>1088300</v>
+      </c>
+      <c r="E42" s="3">
         <v>1019600</v>
       </c>
-      <c r="E42" s="3">
+      <c r="F42" s="3">
         <v>1258800</v>
       </c>
-      <c r="F42" s="3">
+      <c r="G42" s="3">
         <v>1433800</v>
       </c>
-      <c r="G42" s="3">
+      <c r="H42" s="3">
         <v>1470400</v>
       </c>
-      <c r="H42" s="3">
+      <c r="I42" s="3">
         <v>1273600</v>
       </c>
-      <c r="I42" s="3">
+      <c r="J42" s="3">
         <v>1171700</v>
       </c>
-      <c r="J42" s="3">
+      <c r="K42" s="3">
         <v>1366900</v>
       </c>
-      <c r="K42" s="3">
+      <c r="L42" s="3">
         <v>1379000</v>
       </c>
-      <c r="L42" s="3">
+      <c r="M42" s="3">
         <v>1341200</v>
       </c>
-      <c r="M42" s="3">
+      <c r="N42" s="3">
         <v>1255800</v>
       </c>
-      <c r="N42" s="3">
+      <c r="O42" s="3">
         <v>763100</v>
       </c>
-      <c r="O42" s="3">
+      <c r="P42" s="3">
         <v>230600</v>
       </c>
-      <c r="P42" s="3">
+      <c r="Q42" s="3">
         <v>291900</v>
       </c>
-      <c r="Q42" s="3">
+      <c r="R42" s="3">
         <v>335900</v>
       </c>
-      <c r="R42" s="3">
+      <c r="S42" s="3">
         <v>340200</v>
       </c>
-      <c r="S42" s="3">
+      <c r="T42" s="3">
         <v>312800</v>
       </c>
-      <c r="T42" s="3">
+      <c r="U42" s="3">
         <v>274900</v>
       </c>
-      <c r="U42" s="3">
+      <c r="V42" s="3">
         <v>314200</v>
       </c>
-      <c r="V42" s="3">
+      <c r="W42" s="3">
         <v>516000</v>
       </c>
-      <c r="W42" s="3">
+      <c r="X42" s="3">
         <v>422400</v>
       </c>
-      <c r="X42" s="3">
+      <c r="Y42" s="3">
         <v>381700</v>
       </c>
-      <c r="Y42" s="3">
+      <c r="Z42" s="3">
         <v>282400</v>
-      </c>
-      <c r="Z42" s="3" t="s">
-        <v>17</v>
       </c>
       <c r="AA42" s="3" t="s">
         <v>17</v>
@@ -3163,328 +3253,343 @@
       <c r="AB42" s="3" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="43" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC42" s="3" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="43" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
+        <v>330500</v>
+      </c>
+      <c r="E43" s="3">
         <v>340500</v>
       </c>
-      <c r="E43" s="3">
+      <c r="F43" s="3">
         <v>262000</v>
       </c>
-      <c r="F43" s="3">
+      <c r="G43" s="3">
         <v>242200</v>
       </c>
-      <c r="G43" s="3">
+      <c r="H43" s="3">
         <v>239200</v>
       </c>
-      <c r="H43" s="3">
+      <c r="I43" s="3">
         <v>263200</v>
       </c>
-      <c r="I43" s="3">
+      <c r="J43" s="3">
         <v>212800</v>
       </c>
-      <c r="J43" s="3">
+      <c r="K43" s="3">
         <v>224800</v>
       </c>
-      <c r="K43" s="3">
+      <c r="L43" s="3">
         <v>276700</v>
       </c>
-      <c r="L43" s="3">
+      <c r="M43" s="3">
         <v>263600</v>
       </c>
-      <c r="M43" s="3">
+      <c r="N43" s="3">
         <v>233500</v>
       </c>
-      <c r="N43" s="3">
+      <c r="O43" s="3">
         <v>303100</v>
       </c>
-      <c r="O43" s="3">
+      <c r="P43" s="3">
         <v>343600</v>
       </c>
-      <c r="P43" s="3">
+      <c r="Q43" s="3">
         <v>339600</v>
       </c>
-      <c r="Q43" s="3">
+      <c r="R43" s="3">
         <v>286200</v>
       </c>
-      <c r="R43" s="3">
+      <c r="S43" s="3">
         <v>329700</v>
       </c>
-      <c r="S43" s="3">
+      <c r="T43" s="3">
         <v>266500</v>
       </c>
-      <c r="T43" s="3">
+      <c r="U43" s="3">
         <v>239600</v>
       </c>
-      <c r="U43" s="3">
+      <c r="V43" s="3">
         <v>197100</v>
       </c>
-      <c r="V43" s="3">
+      <c r="W43" s="3">
         <v>164700</v>
       </c>
-      <c r="W43" s="3">
+      <c r="X43" s="3">
         <v>222100</v>
       </c>
-      <c r="X43" s="3">
+      <c r="Y43" s="3">
         <v>173800</v>
       </c>
-      <c r="Y43" s="3">
+      <c r="Z43" s="3">
         <v>166300</v>
       </c>
-      <c r="Z43" s="3">
+      <c r="AA43" s="3">
         <v>185400</v>
       </c>
-      <c r="AA43" s="3">
+      <c r="AB43" s="3">
         <v>192500</v>
       </c>
-      <c r="AB43" s="3">
+      <c r="AC43" s="3">
         <v>156500</v>
       </c>
     </row>
-    <row r="44" spans="2:28" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
+        <v>366900</v>
+      </c>
+      <c r="E44" s="3">
         <v>366200</v>
       </c>
-      <c r="E44" s="3">
+      <c r="F44" s="3">
         <v>250100</v>
       </c>
-      <c r="F44" s="3">
+      <c r="G44" s="3">
         <v>224000</v>
       </c>
-      <c r="G44" s="3">
+      <c r="H44" s="3">
         <v>208100</v>
       </c>
-      <c r="H44" s="3">
+      <c r="I44" s="3">
         <v>207000</v>
       </c>
-      <c r="I44" s="3">
+      <c r="J44" s="3">
         <v>196400</v>
       </c>
-      <c r="J44" s="3">
+      <c r="K44" s="3">
         <v>210700</v>
       </c>
-      <c r="K44" s="3">
+      <c r="L44" s="3">
         <v>207100</v>
       </c>
-      <c r="L44" s="3">
+      <c r="M44" s="3">
         <v>212600</v>
       </c>
-      <c r="M44" s="3">
+      <c r="N44" s="3">
         <v>188900</v>
       </c>
-      <c r="N44" s="3">
+      <c r="O44" s="3">
         <v>172700</v>
       </c>
-      <c r="O44" s="3">
+      <c r="P44" s="3">
         <v>179600</v>
       </c>
-      <c r="P44" s="3">
+      <c r="Q44" s="3">
         <v>202200</v>
       </c>
-      <c r="Q44" s="3">
+      <c r="R44" s="3">
         <v>228800</v>
       </c>
-      <c r="R44" s="3">
+      <c r="S44" s="3">
         <v>272200</v>
       </c>
-      <c r="S44" s="3">
+      <c r="T44" s="3">
         <v>303200</v>
       </c>
-      <c r="T44" s="3">
+      <c r="U44" s="3">
         <v>136600</v>
       </c>
-      <c r="U44" s="3">
+      <c r="V44" s="3">
         <v>153600</v>
       </c>
-      <c r="V44" s="3">
+      <c r="W44" s="3">
         <v>144200</v>
       </c>
-      <c r="W44" s="3">
+      <c r="X44" s="3">
         <v>147300</v>
       </c>
-      <c r="X44" s="3">
+      <c r="Y44" s="3">
         <v>147200</v>
       </c>
-      <c r="Y44" s="3">
+      <c r="Z44" s="3">
         <v>145200</v>
       </c>
-      <c r="Z44" s="3">
+      <c r="AA44" s="3">
         <v>116900</v>
       </c>
-      <c r="AA44" s="3">
+      <c r="AB44" s="3">
         <v>121000</v>
       </c>
-      <c r="AB44" s="3">
+      <c r="AC44" s="3">
         <v>103700</v>
       </c>
     </row>
-    <row r="45" spans="2:28" x14ac:dyDescent="0.2">
+    <row r="45" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
+        <v>114800</v>
+      </c>
+      <c r="E45" s="3">
         <v>106800</v>
       </c>
-      <c r="E45" s="3">
+      <c r="F45" s="3">
         <v>78100</v>
       </c>
-      <c r="F45" s="3">
+      <c r="G45" s="3">
         <v>70300</v>
       </c>
-      <c r="G45" s="3">
+      <c r="H45" s="3">
         <v>70400</v>
       </c>
-      <c r="H45" s="3">
+      <c r="I45" s="3">
         <v>68200</v>
       </c>
-      <c r="I45" s="3">
+      <c r="J45" s="3">
         <v>81600</v>
       </c>
-      <c r="J45" s="3">
+      <c r="K45" s="3">
         <v>79700</v>
       </c>
-      <c r="K45" s="3">
+      <c r="L45" s="3">
         <v>82100</v>
       </c>
-      <c r="L45" s="3">
+      <c r="M45" s="3">
         <v>79800</v>
       </c>
-      <c r="M45" s="3">
+      <c r="N45" s="3">
         <v>73800</v>
       </c>
-      <c r="N45" s="3">
+      <c r="O45" s="3">
         <v>35800</v>
       </c>
-      <c r="O45" s="3">
+      <c r="P45" s="3">
         <v>44200</v>
       </c>
-      <c r="P45" s="3">
+      <c r="Q45" s="3">
         <v>50500</v>
       </c>
-      <c r="Q45" s="3">
+      <c r="R45" s="3">
         <v>49300</v>
       </c>
-      <c r="R45" s="3">
+      <c r="S45" s="3">
         <v>118700</v>
       </c>
-      <c r="S45" s="3">
+      <c r="T45" s="3">
         <v>103100</v>
       </c>
-      <c r="T45" s="3">
+      <c r="U45" s="3">
         <v>70600</v>
       </c>
-      <c r="U45" s="3">
+      <c r="V45" s="3">
         <v>65000</v>
       </c>
-      <c r="V45" s="3">
+      <c r="W45" s="3">
         <v>63000</v>
       </c>
-      <c r="W45" s="3">
+      <c r="X45" s="3">
         <v>59900</v>
       </c>
-      <c r="X45" s="3">
+      <c r="Y45" s="3">
         <v>69000</v>
       </c>
-      <c r="Y45" s="3">
+      <c r="Z45" s="3">
         <v>63500</v>
       </c>
-      <c r="Z45" s="3">
+      <c r="AA45" s="3">
         <v>61400</v>
       </c>
-      <c r="AA45" s="3">
+      <c r="AB45" s="3">
         <v>58200</v>
       </c>
-      <c r="AB45" s="3">
+      <c r="AC45" s="3">
         <v>62300</v>
       </c>
     </row>
-    <row r="46" spans="2:28" x14ac:dyDescent="0.2">
+    <row r="46" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>2492600</v>
+      </c>
+      <c r="E46" s="3">
         <v>2438400</v>
       </c>
-      <c r="E46" s="3">
+      <c r="F46" s="3">
         <v>3139200</v>
       </c>
-      <c r="F46" s="3">
+      <c r="G46" s="3">
         <v>3100600</v>
       </c>
-      <c r="G46" s="3">
+      <c r="H46" s="3">
         <v>2540100</v>
       </c>
-      <c r="H46" s="3">
+      <c r="I46" s="3">
         <v>2423000</v>
       </c>
-      <c r="I46" s="3">
+      <c r="J46" s="3">
         <v>2436800</v>
       </c>
-      <c r="J46" s="3">
+      <c r="K46" s="3">
         <v>2569800</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>2266200</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>2166700</v>
       </c>
-      <c r="M46" s="3">
+      <c r="N46" s="3">
         <v>2050000</v>
       </c>
-      <c r="N46" s="3">
+      <c r="O46" s="3">
         <v>1963000</v>
       </c>
-      <c r="O46" s="3">
+      <c r="P46" s="3">
         <v>1883000</v>
       </c>
-      <c r="P46" s="3">
+      <c r="Q46" s="3">
         <v>1423200</v>
       </c>
-      <c r="Q46" s="3">
+      <c r="R46" s="3">
         <v>1332800</v>
       </c>
-      <c r="R46" s="3">
+      <c r="S46" s="3">
         <v>1418100</v>
       </c>
-      <c r="S46" s="3">
+      <c r="T46" s="3">
         <v>1356900</v>
       </c>
-      <c r="T46" s="3">
+      <c r="U46" s="3">
         <v>1181100</v>
       </c>
-      <c r="U46" s="3">
+      <c r="V46" s="3">
         <v>1127200</v>
       </c>
-      <c r="V46" s="3">
+      <c r="W46" s="3">
         <v>1064700</v>
       </c>
-      <c r="W46" s="3">
+      <c r="X46" s="3">
         <v>1053800</v>
       </c>
-      <c r="X46" s="3">
+      <c r="Y46" s="3">
         <v>922500</v>
       </c>
-      <c r="Y46" s="3">
+      <c r="Z46" s="3">
         <v>930300</v>
       </c>
-      <c r="Z46" s="3">
+      <c r="AA46" s="3">
         <v>941600</v>
       </c>
-      <c r="AA46" s="3">
+      <c r="AB46" s="3">
         <v>527600</v>
       </c>
-      <c r="AB46" s="3">
+      <c r="AC46" s="3">
         <v>489300</v>
       </c>
     </row>
-    <row r="47" spans="2:28" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -3563,168 +3668,177 @@
       <c r="AB47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>572600</v>
+      </c>
+      <c r="E48" s="3">
         <v>567400</v>
       </c>
-      <c r="E48" s="3">
+      <c r="F48" s="3">
         <v>434100</v>
       </c>
-      <c r="F48" s="3">
+      <c r="G48" s="3">
         <v>430700</v>
       </c>
-      <c r="G48" s="3">
+      <c r="H48" s="3">
         <v>434700</v>
       </c>
-      <c r="H48" s="3">
+      <c r="I48" s="3">
         <v>428400</v>
       </c>
-      <c r="I48" s="3">
+      <c r="J48" s="3">
         <v>428500</v>
       </c>
-      <c r="J48" s="3">
+      <c r="K48" s="3">
         <v>448300</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>457600</v>
       </c>
-      <c r="L48" s="3">
+      <c r="M48" s="3">
         <v>468100</v>
       </c>
-      <c r="M48" s="3">
+      <c r="N48" s="3">
         <v>471700</v>
       </c>
-      <c r="N48" s="3">
+      <c r="O48" s="3">
         <v>491800</v>
       </c>
-      <c r="O48" s="3">
+      <c r="P48" s="3">
         <v>505700</v>
       </c>
-      <c r="P48" s="3">
+      <c r="Q48" s="3">
         <v>524900</v>
       </c>
-      <c r="Q48" s="3">
+      <c r="R48" s="3">
         <v>433300</v>
       </c>
-      <c r="R48" s="3">
+      <c r="S48" s="3">
         <v>390600</v>
       </c>
-      <c r="S48" s="3">
+      <c r="T48" s="3">
         <v>444700</v>
       </c>
-      <c r="T48" s="3">
+      <c r="U48" s="3">
         <v>318600</v>
       </c>
-      <c r="U48" s="3">
+      <c r="V48" s="3">
         <v>280600</v>
       </c>
-      <c r="V48" s="3">
+      <c r="W48" s="3">
         <v>264500</v>
       </c>
-      <c r="W48" s="3">
+      <c r="X48" s="3">
         <v>301300</v>
       </c>
-      <c r="X48" s="3">
+      <c r="Y48" s="3">
         <v>293700</v>
       </c>
-      <c r="Y48" s="3">
+      <c r="Z48" s="3">
         <v>273500</v>
       </c>
-      <c r="Z48" s="3">
+      <c r="AA48" s="3">
         <v>246600</v>
       </c>
-      <c r="AA48" s="3">
+      <c r="AB48" s="3">
         <v>219600</v>
       </c>
-      <c r="AB48" s="3">
+      <c r="AC48" s="3">
         <v>196000</v>
       </c>
     </row>
-    <row r="49" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="49" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
+        <v>1238100</v>
+      </c>
+      <c r="E49" s="3">
         <v>1269700</v>
       </c>
-      <c r="E49" s="3">
+      <c r="F49" s="3">
         <v>524600</v>
       </c>
-      <c r="F49" s="3">
+      <c r="G49" s="3">
         <v>545800</v>
       </c>
-      <c r="G49" s="3">
+      <c r="H49" s="3">
         <v>567200</v>
       </c>
-      <c r="H49" s="3">
+      <c r="I49" s="3">
         <v>588700</v>
       </c>
-      <c r="I49" s="3">
+      <c r="J49" s="3">
         <v>610100</v>
       </c>
-      <c r="J49" s="3">
+      <c r="K49" s="3">
         <v>632100</v>
       </c>
-      <c r="K49" s="3">
+      <c r="L49" s="3">
         <v>654100</v>
       </c>
-      <c r="L49" s="3">
+      <c r="M49" s="3">
         <v>665000</v>
       </c>
-      <c r="M49" s="3">
+      <c r="N49" s="3">
         <v>685700</v>
       </c>
-      <c r="N49" s="3">
+      <c r="O49" s="3">
         <v>706900</v>
       </c>
-      <c r="O49" s="3">
+      <c r="P49" s="3">
         <v>726900</v>
       </c>
-      <c r="P49" s="3">
+      <c r="Q49" s="3">
         <v>745500</v>
       </c>
-      <c r="Q49" s="3">
+      <c r="R49" s="3">
         <v>764300</v>
       </c>
-      <c r="R49" s="3">
+      <c r="S49" s="3">
         <v>772100</v>
       </c>
-      <c r="S49" s="3">
+      <c r="T49" s="3">
         <v>789700</v>
       </c>
-      <c r="T49" s="3">
+      <c r="U49" s="3">
         <v>17600</v>
       </c>
-      <c r="U49" s="3">
+      <c r="V49" s="3">
         <v>44600</v>
       </c>
-      <c r="V49" s="3">
+      <c r="W49" s="3">
         <v>57200</v>
       </c>
-      <c r="W49" s="3">
+      <c r="X49" s="3">
         <v>20400</v>
       </c>
-      <c r="X49" s="3">
+      <c r="Y49" s="3">
         <v>21000</v>
       </c>
-      <c r="Y49" s="3">
+      <c r="Z49" s="3">
         <v>21500</v>
       </c>
-      <c r="Z49" s="3">
+      <c r="AA49" s="3">
         <v>22300</v>
       </c>
-      <c r="AA49" s="3">
+      <c r="AB49" s="3">
         <v>16000</v>
       </c>
-      <c r="AB49" s="3">
+      <c r="AC49" s="3">
         <v>18100</v>
       </c>
     </row>
-    <row r="50" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="50" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -3803,8 +3917,11 @@
       <c r="AB50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -3883,88 +4000,94 @@
       <c r="AB51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
+        <v>114800</v>
+      </c>
+      <c r="E52" s="3">
         <v>111900</v>
       </c>
-      <c r="E52" s="3">
+      <c r="F52" s="3">
         <v>64300</v>
       </c>
-      <c r="F52" s="3">
+      <c r="G52" s="3">
         <v>56400</v>
       </c>
-      <c r="G52" s="3">
+      <c r="H52" s="3">
         <v>73700</v>
       </c>
-      <c r="H52" s="3">
+      <c r="I52" s="3">
         <v>78900</v>
       </c>
-      <c r="I52" s="3">
+      <c r="J52" s="3">
         <v>76200</v>
       </c>
-      <c r="J52" s="3">
+      <c r="K52" s="3">
         <v>95700</v>
       </c>
-      <c r="K52" s="3">
+      <c r="L52" s="3">
         <v>90300</v>
       </c>
-      <c r="L52" s="3">
+      <c r="M52" s="3">
         <v>87600</v>
       </c>
-      <c r="M52" s="3">
+      <c r="N52" s="3">
         <v>85200</v>
       </c>
-      <c r="N52" s="3">
+      <c r="O52" s="3">
         <v>107000</v>
       </c>
-      <c r="O52" s="3">
+      <c r="P52" s="3">
         <v>105600</v>
       </c>
-      <c r="P52" s="3">
+      <c r="Q52" s="3">
         <v>174200</v>
       </c>
-      <c r="Q52" s="3">
+      <c r="R52" s="3">
         <v>186200</v>
       </c>
-      <c r="R52" s="3">
+      <c r="S52" s="3">
         <v>190600</v>
       </c>
-      <c r="S52" s="3">
+      <c r="T52" s="3">
         <v>205300</v>
       </c>
-      <c r="T52" s="3">
+      <c r="U52" s="3">
         <v>127700</v>
       </c>
-      <c r="U52" s="3">
+      <c r="V52" s="3">
         <v>129100</v>
       </c>
-      <c r="V52" s="3">
+      <c r="W52" s="3">
         <v>131800</v>
       </c>
-      <c r="W52" s="3">
+      <c r="X52" s="3">
         <v>131900</v>
       </c>
-      <c r="X52" s="3">
+      <c r="Y52" s="3">
         <v>11200</v>
       </c>
-      <c r="Y52" s="3">
+      <c r="Z52" s="3">
         <v>7600</v>
       </c>
-      <c r="Z52" s="3">
+      <c r="AA52" s="3">
         <v>34000</v>
       </c>
-      <c r="AA52" s="3">
+      <c r="AB52" s="3">
         <v>33500</v>
       </c>
-      <c r="AB52" s="3">
+      <c r="AC52" s="3">
         <v>34100</v>
       </c>
     </row>
-    <row r="53" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="53" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -4043,88 +4166,94 @@
       <c r="AB53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>4418100</v>
+      </c>
+      <c r="E54" s="3">
         <v>4387400</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>4162200</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>4133500</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>3615700</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>3519000</v>
       </c>
-      <c r="I54" s="3">
+      <c r="J54" s="3">
         <v>3551600</v>
       </c>
-      <c r="J54" s="3">
+      <c r="K54" s="3">
         <v>3745900</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>3468200</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>3387400</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>3292600</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>3268700</v>
       </c>
-      <c r="O54" s="3">
+      <c r="P54" s="3">
         <v>3221200</v>
       </c>
-      <c r="P54" s="3">
+      <c r="Q54" s="3">
         <v>2867800</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="R54" s="3">
         <v>2716600</v>
       </c>
-      <c r="R54" s="3">
+      <c r="S54" s="3">
         <v>2771400</v>
       </c>
-      <c r="S54" s="3">
+      <c r="T54" s="3">
         <v>2796600</v>
       </c>
-      <c r="T54" s="3">
+      <c r="U54" s="3">
         <v>1645000</v>
       </c>
-      <c r="U54" s="3">
+      <c r="V54" s="3">
         <v>1581500</v>
       </c>
-      <c r="V54" s="3">
+      <c r="W54" s="3">
         <v>1518200</v>
       </c>
-      <c r="W54" s="3">
+      <c r="X54" s="3">
         <v>1507400</v>
       </c>
-      <c r="X54" s="3">
+      <c r="Y54" s="3">
         <v>1248400</v>
       </c>
-      <c r="Y54" s="3">
+      <c r="Z54" s="3">
         <v>1232900</v>
       </c>
-      <c r="Z54" s="3">
+      <c r="AA54" s="3">
         <v>1244500</v>
       </c>
-      <c r="AA54" s="3">
+      <c r="AB54" s="3">
         <v>796700</v>
       </c>
-      <c r="AB54" s="3">
+      <c r="AC54" s="3">
         <v>737500</v>
       </c>
     </row>
-    <row r="55" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -4153,8 +4282,9 @@
       <c r="Z55" s="3"/>
       <c r="AA55" s="3"/>
       <c r="AB55" s="3"/>
-    </row>
-    <row r="56" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC55" s="3"/>
+    </row>
+    <row r="56" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -4183,156 +4313,160 @@
       <c r="Z56" s="3"/>
       <c r="AA56" s="3"/>
       <c r="AB56" s="3"/>
-    </row>
-    <row r="57" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC56" s="3"/>
+    </row>
+    <row r="57" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>205600</v>
+      </c>
+      <c r="E57" s="3">
         <v>205700</v>
       </c>
-      <c r="E57" s="3">
+      <c r="F57" s="3">
         <v>156700</v>
       </c>
-      <c r="F57" s="3">
+      <c r="G57" s="3">
         <v>126800</v>
       </c>
-      <c r="G57" s="3">
+      <c r="H57" s="3">
         <v>118200</v>
       </c>
-      <c r="H57" s="3">
+      <c r="I57" s="3">
         <v>101600</v>
       </c>
-      <c r="I57" s="3">
+      <c r="J57" s="3">
         <v>116900</v>
       </c>
-      <c r="J57" s="3">
+      <c r="K57" s="3">
         <v>104700</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>111300</v>
       </c>
-      <c r="L57" s="3">
+      <c r="M57" s="3">
         <v>146000</v>
       </c>
-      <c r="M57" s="3">
+      <c r="N57" s="3">
         <v>150800</v>
       </c>
-      <c r="N57" s="3">
+      <c r="O57" s="3">
         <v>144600</v>
       </c>
-      <c r="O57" s="3">
+      <c r="P57" s="3">
         <v>143700</v>
       </c>
-      <c r="P57" s="3">
+      <c r="Q57" s="3">
         <v>152200</v>
       </c>
-      <c r="Q57" s="3">
+      <c r="R57" s="3">
         <v>160800</v>
       </c>
-      <c r="R57" s="3">
+      <c r="S57" s="3">
         <v>204100</v>
       </c>
-      <c r="S57" s="3">
+      <c r="T57" s="3">
         <v>199200</v>
       </c>
-      <c r="T57" s="3">
+      <c r="U57" s="3">
         <v>127600</v>
       </c>
-      <c r="U57" s="3">
+      <c r="V57" s="3">
         <v>126500</v>
       </c>
-      <c r="V57" s="3">
+      <c r="W57" s="3">
         <v>100900</v>
       </c>
-      <c r="W57" s="3">
+      <c r="X57" s="3">
         <v>113000</v>
       </c>
-      <c r="X57" s="3">
+      <c r="Y57" s="3">
         <v>111600</v>
       </c>
-      <c r="Y57" s="3">
+      <c r="Z57" s="3">
         <v>114800</v>
       </c>
-      <c r="Z57" s="3">
+      <c r="AA57" s="3">
         <v>118400</v>
       </c>
-      <c r="AA57" s="3">
+      <c r="AB57" s="3">
         <v>127800</v>
       </c>
-      <c r="AB57" s="3">
+      <c r="AC57" s="3">
         <v>108300</v>
       </c>
     </row>
-    <row r="58" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
+        <v>420700</v>
+      </c>
+      <c r="E58" s="3">
         <v>420200</v>
       </c>
-      <c r="E58" s="3">
+      <c r="F58" s="3">
         <v>409900</v>
       </c>
-      <c r="F58" s="3">
+      <c r="G58" s="3">
         <v>406100</v>
       </c>
-      <c r="G58" s="3">
+      <c r="H58" s="3">
         <v>401000</v>
       </c>
-      <c r="H58" s="3">
+      <c r="I58" s="3">
         <v>395800</v>
       </c>
-      <c r="I58" s="3">
+      <c r="J58" s="3">
         <v>390700</v>
       </c>
-      <c r="J58" s="3">
+      <c r="K58" s="3">
         <v>385400</v>
       </c>
-      <c r="K58" s="3">
+      <c r="L58" s="3">
         <v>380600</v>
       </c>
-      <c r="L58" s="3">
+      <c r="M58" s="3">
         <v>400</v>
       </c>
-      <c r="M58" s="3">
+      <c r="N58" s="3">
         <v>600</v>
       </c>
-      <c r="N58" s="3">
+      <c r="O58" s="3">
         <v>3900</v>
       </c>
-      <c r="O58" s="3">
+      <c r="P58" s="3">
         <v>7100</v>
       </c>
-      <c r="P58" s="3">
+      <c r="Q58" s="3">
         <v>15900</v>
       </c>
-      <c r="Q58" s="3">
+      <c r="R58" s="3">
         <v>5400</v>
       </c>
-      <c r="R58" s="3">
+      <c r="S58" s="3">
         <v>5800</v>
       </c>
-      <c r="S58" s="3">
+      <c r="T58" s="3">
         <v>8700</v>
       </c>
-      <c r="T58" s="3">
+      <c r="U58" s="3">
         <v>5400</v>
       </c>
-      <c r="U58" s="3">
+      <c r="V58" s="3">
         <v>7300</v>
       </c>
-      <c r="V58" s="3">
+      <c r="W58" s="3">
         <v>9200</v>
       </c>
-      <c r="W58" s="3">
+      <c r="X58" s="3">
         <v>9100</v>
       </c>
-      <c r="X58" s="3">
+      <c r="Y58" s="3">
         <v>4900</v>
-      </c>
-      <c r="Y58" s="3" t="s">
-        <v>17</v>
       </c>
       <c r="Z58" s="3" t="s">
         <v>17</v>
@@ -4343,328 +4477,343 @@
       <c r="AB58" s="3" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="59" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC58" s="3" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="59" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>188000</v>
+      </c>
+      <c r="E59" s="3">
         <v>176900</v>
       </c>
-      <c r="E59" s="3">
+      <c r="F59" s="3">
         <v>149900</v>
       </c>
-      <c r="F59" s="3">
+      <c r="G59" s="3">
         <v>127800</v>
       </c>
-      <c r="G59" s="3">
+      <c r="H59" s="3">
         <v>137500</v>
       </c>
-      <c r="H59" s="3">
+      <c r="I59" s="3">
         <v>114300</v>
       </c>
-      <c r="I59" s="3">
+      <c r="J59" s="3">
         <v>157000</v>
       </c>
-      <c r="J59" s="3">
+      <c r="K59" s="3">
         <v>184100</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>155400</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>147000</v>
       </c>
-      <c r="M59" s="3">
+      <c r="N59" s="3">
         <v>131600</v>
       </c>
-      <c r="N59" s="3">
+      <c r="O59" s="3">
         <v>138200</v>
       </c>
-      <c r="O59" s="3">
+      <c r="P59" s="3">
         <v>153400</v>
       </c>
-      <c r="P59" s="3">
+      <c r="Q59" s="3">
         <v>148700</v>
       </c>
-      <c r="Q59" s="3">
+      <c r="R59" s="3">
         <v>127800</v>
       </c>
-      <c r="R59" s="3">
+      <c r="S59" s="3">
         <v>148100</v>
       </c>
-      <c r="S59" s="3">
+      <c r="T59" s="3">
         <v>117600</v>
       </c>
-      <c r="T59" s="3">
+      <c r="U59" s="3">
         <v>80900</v>
       </c>
-      <c r="U59" s="3">
+      <c r="V59" s="3">
         <v>80200</v>
       </c>
-      <c r="V59" s="3">
+      <c r="W59" s="3">
         <v>81400</v>
       </c>
-      <c r="W59" s="3">
+      <c r="X59" s="3">
         <v>95600</v>
       </c>
-      <c r="X59" s="3">
+      <c r="Y59" s="3">
         <v>60700</v>
       </c>
-      <c r="Y59" s="3">
+      <c r="Z59" s="3">
         <v>69400</v>
       </c>
-      <c r="Z59" s="3">
+      <c r="AA59" s="3">
         <v>73700</v>
       </c>
-      <c r="AA59" s="3">
+      <c r="AB59" s="3">
         <v>74200</v>
       </c>
-      <c r="AB59" s="3">
+      <c r="AC59" s="3">
         <v>55200</v>
       </c>
     </row>
-    <row r="60" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>814300</v>
+      </c>
+      <c r="E60" s="3">
         <v>802800</v>
       </c>
-      <c r="E60" s="3">
+      <c r="F60" s="3">
         <v>716500</v>
       </c>
-      <c r="F60" s="3">
+      <c r="G60" s="3">
         <v>660700</v>
       </c>
-      <c r="G60" s="3">
+      <c r="H60" s="3">
         <v>656700</v>
       </c>
-      <c r="H60" s="3">
+      <c r="I60" s="3">
         <v>611700</v>
       </c>
-      <c r="I60" s="3">
+      <c r="J60" s="3">
         <v>664600</v>
       </c>
-      <c r="J60" s="3">
+      <c r="K60" s="3">
         <v>674200</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>647300</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>293400</v>
       </c>
-      <c r="M60" s="3">
+      <c r="N60" s="3">
         <v>283000</v>
       </c>
-      <c r="N60" s="3">
+      <c r="O60" s="3">
         <v>286700</v>
       </c>
-      <c r="O60" s="3">
+      <c r="P60" s="3">
         <v>304200</v>
       </c>
-      <c r="P60" s="3">
+      <c r="Q60" s="3">
         <v>316800</v>
       </c>
-      <c r="Q60" s="3">
+      <c r="R60" s="3">
         <v>294000</v>
       </c>
-      <c r="R60" s="3">
+      <c r="S60" s="3">
         <v>358000</v>
       </c>
-      <c r="S60" s="3">
+      <c r="T60" s="3">
         <v>325500</v>
       </c>
-      <c r="T60" s="3">
+      <c r="U60" s="3">
         <v>213900</v>
       </c>
-      <c r="U60" s="3">
+      <c r="V60" s="3">
         <v>214000</v>
       </c>
-      <c r="V60" s="3">
+      <c r="W60" s="3">
         <v>191500</v>
       </c>
-      <c r="W60" s="3">
+      <c r="X60" s="3">
         <v>217700</v>
       </c>
-      <c r="X60" s="3">
+      <c r="Y60" s="3">
         <v>177200</v>
       </c>
-      <c r="Y60" s="3">
+      <c r="Z60" s="3">
         <v>184200</v>
       </c>
-      <c r="Z60" s="3">
+      <c r="AA60" s="3">
         <v>192100</v>
       </c>
-      <c r="AA60" s="3">
+      <c r="AB60" s="3">
         <v>202000</v>
       </c>
-      <c r="AB60" s="3">
+      <c r="AC60" s="3">
         <v>163500</v>
       </c>
     </row>
-    <row r="61" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
+        <v>1900300</v>
+      </c>
+      <c r="E61" s="3">
         <v>1899500</v>
       </c>
-      <c r="E61" s="3">
+      <c r="F61" s="3">
         <v>1466100</v>
       </c>
-      <c r="F61" s="3">
+      <c r="G61" s="3">
         <v>1447600</v>
       </c>
-      <c r="G61" s="3">
+      <c r="H61" s="3">
         <v>810300</v>
       </c>
-      <c r="H61" s="3">
+      <c r="I61" s="3">
         <v>800000</v>
       </c>
-      <c r="I61" s="3">
+      <c r="J61" s="3">
         <v>789800</v>
       </c>
-      <c r="J61" s="3">
+      <c r="K61" s="3">
         <v>778900</v>
       </c>
-      <c r="K61" s="3">
+      <c r="L61" s="3">
         <v>769100</v>
       </c>
-      <c r="L61" s="3">
+      <c r="M61" s="3">
         <v>1134700</v>
       </c>
-      <c r="M61" s="3">
+      <c r="N61" s="3">
         <v>1120300</v>
       </c>
-      <c r="N61" s="3">
+      <c r="O61" s="3">
         <v>1106100</v>
       </c>
-      <c r="O61" s="3">
+      <c r="P61" s="3">
         <v>1092200</v>
       </c>
-      <c r="P61" s="3">
+      <c r="Q61" s="3">
         <v>840000</v>
       </c>
-      <c r="Q61" s="3">
+      <c r="R61" s="3">
         <v>835900</v>
       </c>
-      <c r="R61" s="3">
+      <c r="S61" s="3">
         <v>832400</v>
       </c>
-      <c r="S61" s="3">
+      <c r="T61" s="3">
         <v>829200</v>
       </c>
-      <c r="T61" s="3">
+      <c r="U61" s="3">
         <v>338500</v>
       </c>
-      <c r="U61" s="3">
+      <c r="V61" s="3">
         <v>334600</v>
       </c>
-      <c r="V61" s="3">
+      <c r="W61" s="3">
         <v>330700</v>
       </c>
-      <c r="W61" s="3">
+      <c r="X61" s="3">
         <v>328800</v>
       </c>
-      <c r="X61" s="3">
+      <c r="Y61" s="3">
         <v>324000</v>
       </c>
-      <c r="Y61" s="3">
+      <c r="Z61" s="3">
         <v>317500</v>
       </c>
-      <c r="Z61" s="3">
+      <c r="AA61" s="3">
         <v>313400</v>
       </c>
-      <c r="AA61" s="3">
-        <v>0</v>
-      </c>
       <c r="AB61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
+        <v>159900</v>
+      </c>
+      <c r="E62" s="3">
         <v>158700</v>
       </c>
-      <c r="E62" s="3">
+      <c r="F62" s="3">
         <v>104600</v>
       </c>
-      <c r="F62" s="3">
+      <c r="G62" s="3">
         <v>113100</v>
       </c>
-      <c r="G62" s="3">
+      <c r="H62" s="3">
         <v>126800</v>
       </c>
-      <c r="H62" s="3">
+      <c r="I62" s="3">
         <v>135900</v>
       </c>
-      <c r="I62" s="3">
+      <c r="J62" s="3">
         <v>124400</v>
       </c>
-      <c r="J62" s="3">
+      <c r="K62" s="3">
         <v>127800</v>
       </c>
-      <c r="K62" s="3">
+      <c r="L62" s="3">
         <v>129900</v>
       </c>
-      <c r="L62" s="3">
+      <c r="M62" s="3">
         <v>143200</v>
       </c>
-      <c r="M62" s="3">
+      <c r="N62" s="3">
         <v>140100</v>
       </c>
-      <c r="N62" s="3">
+      <c r="O62" s="3">
         <v>141700</v>
       </c>
-      <c r="O62" s="3">
+      <c r="P62" s="3">
         <v>143200</v>
       </c>
-      <c r="P62" s="3">
+      <c r="Q62" s="3">
         <v>149700</v>
       </c>
-      <c r="Q62" s="3">
+      <c r="R62" s="3">
         <v>89600</v>
       </c>
-      <c r="R62" s="3">
+      <c r="S62" s="3">
         <v>77100</v>
       </c>
-      <c r="S62" s="3">
+      <c r="T62" s="3">
         <v>82200</v>
       </c>
-      <c r="T62" s="3">
+      <c r="U62" s="3">
         <v>73300</v>
       </c>
-      <c r="U62" s="3">
+      <c r="V62" s="3">
         <v>71000</v>
       </c>
-      <c r="V62" s="3">
+      <c r="W62" s="3">
         <v>83600</v>
       </c>
-      <c r="W62" s="3">
+      <c r="X62" s="3">
         <v>60800</v>
       </c>
-      <c r="X62" s="3">
+      <c r="Y62" s="3">
         <v>70300</v>
       </c>
-      <c r="Y62" s="3">
+      <c r="Z62" s="3">
         <v>76600</v>
       </c>
-      <c r="Z62" s="3">
+      <c r="AA62" s="3">
         <v>234600</v>
-      </c>
-      <c r="AA62" s="3">
-        <v>42500</v>
       </c>
       <c r="AB62" s="3">
         <v>42500</v>
       </c>
-    </row>
-    <row r="63" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC62" s="3">
+        <v>42500</v>
+      </c>
+    </row>
+    <row r="63" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -4743,8 +4892,11 @@
       <c r="AB63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -4823,8 +4975,11 @@
       <c r="AB64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -4903,88 +5058,94 @@
       <c r="AB65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>2874500</v>
+      </c>
+      <c r="E66" s="3">
         <v>2861000</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>2287200</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>2221400</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>1593800</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>1547600</v>
       </c>
-      <c r="I66" s="3">
+      <c r="J66" s="3">
         <v>1578800</v>
       </c>
-      <c r="J66" s="3">
+      <c r="K66" s="3">
         <v>1580900</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>1546300</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>1571300</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>1543400</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>1534500</v>
       </c>
-      <c r="O66" s="3">
+      <c r="P66" s="3">
         <v>1539600</v>
       </c>
-      <c r="P66" s="3">
+      <c r="Q66" s="3">
         <v>1306500</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="R66" s="3">
         <v>1219500</v>
       </c>
-      <c r="R66" s="3">
+      <c r="S66" s="3">
         <v>1267500</v>
       </c>
-      <c r="S66" s="3">
+      <c r="T66" s="3">
         <v>1236900</v>
       </c>
-      <c r="T66" s="3">
+      <c r="U66" s="3">
         <v>661500</v>
       </c>
-      <c r="U66" s="3">
+      <c r="V66" s="3">
         <v>655400</v>
       </c>
-      <c r="V66" s="3">
+      <c r="W66" s="3">
         <v>641600</v>
       </c>
-      <c r="W66" s="3">
+      <c r="X66" s="3">
         <v>643100</v>
       </c>
-      <c r="X66" s="3">
+      <c r="Y66" s="3">
         <v>607300</v>
       </c>
-      <c r="Y66" s="3">
+      <c r="Z66" s="3">
         <v>614100</v>
       </c>
-      <c r="Z66" s="3">
+      <c r="AA66" s="3">
         <v>775900</v>
       </c>
-      <c r="AA66" s="3">
+      <c r="AB66" s="3">
         <v>280300</v>
       </c>
-      <c r="AB66" s="3">
+      <c r="AC66" s="3">
         <v>241800</v>
       </c>
     </row>
-    <row r="67" spans="2:28" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -5013,8 +5174,9 @@
       <c r="Z67" s="3"/>
       <c r="AA67" s="3"/>
       <c r="AB67" s="3"/>
-    </row>
-    <row r="68" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC67" s="3"/>
+    </row>
+    <row r="68" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -5093,8 +5255,11 @@
       <c r="AB68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -5173,8 +5338,11 @@
       <c r="AB69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -5253,8 +5421,11 @@
       <c r="AB70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -5333,88 +5504,94 @@
       <c r="AB71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>-101300</v>
+      </c>
+      <c r="E72" s="3">
         <v>-69600</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>-129100</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>-60500</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>237500</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>210700</v>
       </c>
-      <c r="I72" s="3">
+      <c r="J72" s="3">
         <v>220900</v>
       </c>
-      <c r="J72" s="3">
+      <c r="K72" s="3">
         <v>440400</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>214900</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>131700</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>64600</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>69200</v>
       </c>
-      <c r="O72" s="3">
+      <c r="P72" s="3">
         <v>25800</v>
       </c>
-      <c r="P72" s="3">
+      <c r="Q72" s="3">
         <v>176700</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="R72" s="3">
         <v>129100</v>
       </c>
-      <c r="R72" s="3">
+      <c r="S72" s="3">
         <v>154900</v>
       </c>
-      <c r="S72" s="3">
+      <c r="T72" s="3">
         <v>229200</v>
       </c>
-      <c r="T72" s="3">
+      <c r="U72" s="3">
         <v>213000</v>
       </c>
-      <c r="U72" s="3">
+      <c r="V72" s="3">
         <v>166400</v>
       </c>
-      <c r="V72" s="3">
+      <c r="W72" s="3">
         <v>133200</v>
       </c>
-      <c r="W72" s="3">
+      <c r="X72" s="3">
         <v>130700</v>
       </c>
-      <c r="X72" s="3">
+      <c r="Y72" s="3">
         <v>-73900</v>
       </c>
-      <c r="Y72" s="3">
+      <c r="Z72" s="3">
         <v>-83200</v>
       </c>
-      <c r="Z72" s="3">
+      <c r="AA72" s="3">
         <v>-28000</v>
       </c>
-      <c r="AA72" s="3">
+      <c r="AB72" s="3">
         <v>28200</v>
       </c>
-      <c r="AB72" s="3">
+      <c r="AC72" s="3">
         <v>16600</v>
       </c>
     </row>
-    <row r="73" spans="2:28" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -5493,8 +5670,11 @@
       <c r="AB73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -5573,8 +5753,11 @@
       <c r="AB74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -5653,88 +5836,94 @@
       <c r="AB75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>1543600</v>
+      </c>
+      <c r="E76" s="3">
         <v>1526400</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>1875000</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>1912100</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>2021900</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>1971400</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>1972800</v>
       </c>
-      <c r="J76" s="3">
+      <c r="K76" s="3">
         <v>2165000</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>1921900</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>1816100</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>1749200</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>1734200</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>1681600</v>
       </c>
-      <c r="P76" s="3">
+      <c r="Q76" s="3">
         <v>1561300</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="R76" s="3">
         <v>1497100</v>
       </c>
-      <c r="R76" s="3">
+      <c r="S76" s="3">
         <v>1503900</v>
       </c>
-      <c r="S76" s="3">
+      <c r="T76" s="3">
         <v>1559700</v>
       </c>
-      <c r="T76" s="3">
+      <c r="U76" s="3">
         <v>983500</v>
       </c>
-      <c r="U76" s="3">
+      <c r="V76" s="3">
         <v>926100</v>
       </c>
-      <c r="V76" s="3">
+      <c r="W76" s="3">
         <v>876600</v>
       </c>
-      <c r="W76" s="3">
+      <c r="X76" s="3">
         <v>864300</v>
       </c>
-      <c r="X76" s="3">
+      <c r="Y76" s="3">
         <v>641100</v>
       </c>
-      <c r="Y76" s="3">
+      <c r="Z76" s="3">
         <v>618800</v>
       </c>
-      <c r="Z76" s="3">
+      <c r="AA76" s="3">
         <v>468600</v>
       </c>
-      <c r="AA76" s="3">
+      <c r="AB76" s="3">
         <v>516400</v>
       </c>
-      <c r="AB76" s="3">
+      <c r="AC76" s="3">
         <v>495700</v>
       </c>
     </row>
-    <row r="77" spans="2:28" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -5813,173 +6002,182 @@
       <c r="AB77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:29" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:28" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44926</v>
+      </c>
+      <c r="E80" s="2">
         <v>44835</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44744</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44653</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44562</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>44471</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>44380</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>44289</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>44191</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>44100</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>44009</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>43918</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>43827</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>43736</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>43645</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>43554</v>
       </c>
-      <c r="S80" s="2">
+      <c r="T80" s="2">
         <v>43463</v>
       </c>
-      <c r="T80" s="2">
+      <c r="U80" s="2">
         <v>43372</v>
       </c>
-      <c r="U80" s="2">
+      <c r="V80" s="2">
         <v>43281</v>
       </c>
-      <c r="V80" s="2">
+      <c r="W80" s="2">
         <v>43190</v>
       </c>
-      <c r="W80" s="2">
+      <c r="X80" s="2">
         <v>43099</v>
       </c>
-      <c r="X80" s="2">
+      <c r="Y80" s="2">
         <v>43008</v>
       </c>
-      <c r="Y80" s="2">
+      <c r="Z80" s="2">
         <v>42917</v>
       </c>
-      <c r="Z80" s="2">
+      <c r="AA80" s="2">
         <v>42826</v>
       </c>
-      <c r="AA80" s="2">
+      <c r="AB80" s="2">
         <v>42735</v>
       </c>
-      <c r="AB80" s="2">
+      <c r="AC80" s="2">
         <v>42644</v>
       </c>
     </row>
-    <row r="81" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>-31700</v>
+      </c>
+      <c r="E81" s="3">
         <v>-400</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="3">
         <v>34700</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>26000</v>
       </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
         <v>56700</v>
       </c>
-      <c r="H81" s="3">
+      <c r="I81" s="3">
         <v>81500</v>
       </c>
-      <c r="I81" s="3">
+      <c r="J81" s="3">
         <v>21500</v>
       </c>
-      <c r="J81" s="3">
+      <c r="K81" s="3">
         <v>225500</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>83200</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>67100</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>-4600</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>43400</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>49100</v>
       </c>
-      <c r="P81" s="3">
+      <c r="Q81" s="3">
         <v>47600</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="R81" s="3">
         <v>-25800</v>
       </c>
-      <c r="R81" s="3">
+      <c r="S81" s="3">
         <v>-74300</v>
       </c>
-      <c r="S81" s="3">
+      <c r="T81" s="3">
         <v>16200</v>
       </c>
-      <c r="T81" s="3">
+      <c r="U81" s="3">
         <v>46100</v>
       </c>
-      <c r="U81" s="3">
+      <c r="V81" s="3">
         <v>32500</v>
       </c>
-      <c r="V81" s="3">
+      <c r="W81" s="3">
         <v>2400</v>
       </c>
-      <c r="W81" s="3">
+      <c r="X81" s="3">
         <v>116800</v>
       </c>
-      <c r="X81" s="3">
+      <c r="Y81" s="3">
         <v>6900</v>
       </c>
-      <c r="Y81" s="3">
+      <c r="Z81" s="3">
         <v>-55200</v>
       </c>
-      <c r="Z81" s="3">
+      <c r="AA81" s="3">
         <v>-56200</v>
       </c>
-      <c r="AA81" s="3">
+      <c r="AB81" s="3">
         <v>11600</v>
       </c>
-      <c r="AB81" s="3">
+      <c r="AC81" s="3">
         <v>-3600</v>
       </c>
     </row>
-    <row r="82" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -6008,88 +6206,92 @@
       <c r="Z82" s="3"/>
       <c r="AA82" s="3"/>
       <c r="AB82" s="3"/>
-    </row>
-    <row r="83" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC82" s="3"/>
+    </row>
+    <row r="83" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
+        <v>62500</v>
+      </c>
+      <c r="E83" s="3">
         <v>56700</v>
-      </c>
-      <c r="E83" s="3">
-        <v>41600</v>
       </c>
       <c r="F83" s="3">
         <v>41600</v>
       </c>
       <c r="G83" s="3">
+        <v>41600</v>
+      </c>
+      <c r="H83" s="3">
         <v>42100</v>
       </c>
-      <c r="H83" s="3">
+      <c r="I83" s="3">
         <v>41800</v>
       </c>
-      <c r="I83" s="3">
+      <c r="J83" s="3">
         <v>43100</v>
       </c>
-      <c r="J83" s="3">
+      <c r="K83" s="3">
         <v>44800</v>
       </c>
-      <c r="K83" s="3">
+      <c r="L83" s="3">
         <v>44700</v>
       </c>
-      <c r="L83" s="3">
+      <c r="M83" s="3">
         <v>44500</v>
       </c>
-      <c r="M83" s="3">
+      <c r="N83" s="3">
         <v>46700</v>
       </c>
-      <c r="N83" s="3">
+      <c r="O83" s="3">
         <v>47500</v>
       </c>
-      <c r="O83" s="3">
+      <c r="P83" s="3">
         <v>47300</v>
       </c>
-      <c r="P83" s="3">
+      <c r="Q83" s="3">
         <v>50400</v>
       </c>
-      <c r="Q83" s="3">
+      <c r="R83" s="3">
         <v>45100</v>
       </c>
-      <c r="R83" s="3">
+      <c r="S83" s="3">
         <v>60700</v>
       </c>
-      <c r="S83" s="3">
+      <c r="T83" s="3">
         <v>31200</v>
       </c>
-      <c r="T83" s="3">
+      <c r="U83" s="3">
         <v>20500</v>
       </c>
-      <c r="U83" s="3">
+      <c r="V83" s="3">
         <v>21500</v>
       </c>
-      <c r="V83" s="3">
+      <c r="W83" s="3">
         <v>19200</v>
       </c>
-      <c r="W83" s="3">
+      <c r="X83" s="3">
         <v>19000</v>
       </c>
-      <c r="X83" s="3">
+      <c r="Y83" s="3">
         <v>17500</v>
       </c>
-      <c r="Y83" s="3">
+      <c r="Z83" s="3">
         <v>16500</v>
       </c>
-      <c r="Z83" s="3">
+      <c r="AA83" s="3">
         <v>15900</v>
       </c>
-      <c r="AA83" s="3">
+      <c r="AB83" s="3">
         <v>14900</v>
       </c>
-      <c r="AB83" s="3">
+      <c r="AC83" s="3">
         <v>13700</v>
       </c>
     </row>
-    <row r="84" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="84" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -6168,8 +6370,11 @@
       <c r="AB84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -6248,8 +6453,11 @@
       <c r="AB85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -6328,8 +6536,11 @@
       <c r="AB86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -6408,8 +6619,11 @@
       <c r="AB87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -6488,88 +6702,94 @@
       <c r="AB88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>94900</v>
+      </c>
+      <c r="E89" s="3">
         <v>20800</v>
       </c>
-      <c r="E89" s="3">
+      <c r="F89" s="3">
         <v>114300</v>
       </c>
-      <c r="F89" s="3">
+      <c r="G89" s="3">
         <v>76600</v>
       </c>
-      <c r="G89" s="3">
+      <c r="H89" s="3">
         <v>206500</v>
       </c>
-      <c r="H89" s="3">
+      <c r="I89" s="3">
         <v>61900</v>
       </c>
-      <c r="I89" s="3">
+      <c r="J89" s="3">
         <v>124200</v>
       </c>
-      <c r="J89" s="3">
+      <c r="K89" s="3">
         <v>381300</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>128500</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>104700</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>122700</v>
       </c>
-      <c r="N89" s="3">
+      <c r="O89" s="3">
         <v>151800</v>
       </c>
-      <c r="O89" s="3">
+      <c r="P89" s="3">
         <v>162300</v>
       </c>
-      <c r="P89" s="3">
+      <c r="Q89" s="3">
         <v>87500</v>
       </c>
-      <c r="Q89" s="3">
+      <c r="R89" s="3">
         <v>127700</v>
       </c>
-      <c r="R89" s="3">
+      <c r="S89" s="3">
         <v>42800</v>
       </c>
-      <c r="S89" s="3">
+      <c r="T89" s="3">
         <v>102400</v>
       </c>
-      <c r="T89" s="3">
+      <c r="U89" s="3">
         <v>57200</v>
       </c>
-      <c r="U89" s="3">
+      <c r="V89" s="3">
         <v>37600</v>
       </c>
-      <c r="V89" s="3">
+      <c r="W89" s="3">
         <v>95100</v>
       </c>
-      <c r="W89" s="3">
+      <c r="X89" s="3">
         <v>105100</v>
       </c>
-      <c r="X89" s="3">
+      <c r="Y89" s="3">
         <v>9700</v>
       </c>
-      <c r="Y89" s="3">
+      <c r="Z89" s="3">
         <v>13100</v>
       </c>
-      <c r="Z89" s="3">
+      <c r="AA89" s="3">
         <v>16400</v>
       </c>
-      <c r="AA89" s="3">
+      <c r="AB89" s="3">
         <v>19200</v>
       </c>
-      <c r="AB89" s="3">
+      <c r="AC89" s="3">
         <v>36300</v>
       </c>
     </row>
-    <row r="90" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -6598,88 +6818,92 @@
       <c r="Z90" s="3"/>
       <c r="AA90" s="3"/>
       <c r="AB90" s="3"/>
-    </row>
-    <row r="91" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC90" s="3"/>
+    </row>
+    <row r="91" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
+        <v>-39900</v>
+      </c>
+      <c r="E91" s="3">
         <v>-22900</v>
       </c>
-      <c r="E91" s="3">
+      <c r="F91" s="3">
         <v>-28600</v>
       </c>
-      <c r="F91" s="3">
+      <c r="G91" s="3">
         <v>-18600</v>
       </c>
-      <c r="G91" s="3">
+      <c r="H91" s="3">
         <v>-26100</v>
       </c>
-      <c r="H91" s="3">
+      <c r="I91" s="3">
         <v>-17900</v>
       </c>
-      <c r="I91" s="3">
-        <v>0</v>
-      </c>
       <c r="J91" s="3">
         <v>0</v>
       </c>
       <c r="K91" s="3">
+        <v>0</v>
+      </c>
+      <c r="L91" s="3">
         <v>16300</v>
       </c>
-      <c r="L91" s="3">
+      <c r="M91" s="3">
         <v>-26300</v>
       </c>
-      <c r="M91" s="3">
-        <v>0</v>
-      </c>
       <c r="N91" s="3">
+        <v>0</v>
+      </c>
+      <c r="O91" s="3">
         <v>-1000</v>
       </c>
-      <c r="O91" s="3">
+      <c r="P91" s="3">
         <v>-2000</v>
       </c>
-      <c r="P91" s="3">
+      <c r="Q91" s="3">
         <v>-1000</v>
       </c>
-      <c r="Q91" s="3">
-        <v>0</v>
-      </c>
       <c r="R91" s="3">
+        <v>0</v>
+      </c>
+      <c r="S91" s="3">
         <v>-600</v>
       </c>
-      <c r="S91" s="3">
-        <v>0</v>
-      </c>
       <c r="T91" s="3">
+        <v>0</v>
+      </c>
+      <c r="U91" s="3">
         <v>-700</v>
       </c>
-      <c r="U91" s="3">
+      <c r="V91" s="3">
         <v>-20300</v>
       </c>
-      <c r="V91" s="3">
+      <c r="W91" s="3">
         <v>-22700</v>
       </c>
-      <c r="W91" s="3">
+      <c r="X91" s="3">
         <v>-17200</v>
       </c>
-      <c r="X91" s="3">
+      <c r="Y91" s="3">
         <v>-33000</v>
       </c>
-      <c r="Y91" s="3">
+      <c r="Z91" s="3">
         <v>-38100</v>
       </c>
-      <c r="Z91" s="3">
+      <c r="AA91" s="3">
         <v>-35700</v>
       </c>
-      <c r="AA91" s="3">
+      <c r="AB91" s="3">
         <v>-35400</v>
       </c>
-      <c r="AB91" s="3">
+      <c r="AC91" s="3">
         <v>-28900</v>
       </c>
     </row>
-    <row r="92" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="92" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -6758,8 +6982,11 @@
       <c r="AB92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -6838,88 +7065,94 @@
       <c r="AB93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
+        <v>-104500</v>
+      </c>
+      <c r="E94" s="3">
         <v>-646600</v>
       </c>
-      <c r="E94" s="3">
+      <c r="F94" s="3">
         <v>142700</v>
       </c>
-      <c r="F94" s="3">
+      <c r="G94" s="3">
         <v>-23200</v>
       </c>
-      <c r="G94" s="3">
+      <c r="H94" s="3">
         <v>-228900</v>
       </c>
-      <c r="H94" s="3">
+      <c r="I94" s="3">
         <v>-116900</v>
       </c>
-      <c r="I94" s="3">
+      <c r="J94" s="3">
         <v>197300</v>
       </c>
-      <c r="J94" s="3">
+      <c r="K94" s="3">
         <v>-7300</v>
       </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3">
         <v>-75000</v>
       </c>
-      <c r="L94" s="3">
+      <c r="M94" s="3">
         <v>-114000</v>
       </c>
-      <c r="M94" s="3">
+      <c r="N94" s="3">
         <v>-509800</v>
       </c>
-      <c r="N94" s="3">
+      <c r="O94" s="3">
         <v>-535700</v>
       </c>
-      <c r="O94" s="3">
+      <c r="P94" s="3">
         <v>36100</v>
       </c>
-      <c r="P94" s="3">
+      <c r="Q94" s="3">
         <v>21700</v>
       </c>
-      <c r="Q94" s="3">
+      <c r="R94" s="3">
         <v>-54400</v>
       </c>
-      <c r="R94" s="3">
+      <c r="S94" s="3">
         <v>-52900</v>
       </c>
-      <c r="S94" s="3">
+      <c r="T94" s="3">
         <v>-681900</v>
       </c>
-      <c r="T94" s="3">
+      <c r="U94" s="3">
         <v>9500</v>
       </c>
-      <c r="U94" s="3">
+      <c r="V94" s="3">
         <v>181700</v>
       </c>
-      <c r="V94" s="3">
+      <c r="W94" s="3">
         <v>-117600</v>
       </c>
-      <c r="W94" s="3">
+      <c r="X94" s="3">
         <v>-58600</v>
       </c>
-      <c r="X94" s="3">
+      <c r="Y94" s="3">
         <v>-132500</v>
       </c>
-      <c r="Y94" s="3">
+      <c r="Z94" s="3">
         <v>-320600</v>
       </c>
-      <c r="Z94" s="3">
+      <c r="AA94" s="3">
         <v>-40800</v>
       </c>
-      <c r="AA94" s="3">
+      <c r="AB94" s="3">
         <v>-35400</v>
       </c>
-      <c r="AB94" s="3">
+      <c r="AC94" s="3">
         <v>-28900</v>
       </c>
     </row>
-    <row r="95" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="95" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -6948,8 +7181,9 @@
       <c r="Z95" s="3"/>
       <c r="AA95" s="3"/>
       <c r="AB95" s="3"/>
-    </row>
-    <row r="96" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC95" s="3"/>
+    </row>
+    <row r="96" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -7028,8 +7262,11 @@
       <c r="AB96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -7108,8 +7345,11 @@
       <c r="AB97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -7188,8 +7428,11 @@
       <c r="AB98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -7268,88 +7511,94 @@
       <c r="AB99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>-3600</v>
+      </c>
+      <c r="E100" s="3">
         <v>-59100</v>
       </c>
-      <c r="E100" s="3">
+      <c r="F100" s="3">
         <v>-97100</v>
       </c>
-      <c r="F100" s="3">
+      <c r="G100" s="3">
         <v>524900</v>
       </c>
-      <c r="G100" s="3">
+      <c r="H100" s="3">
         <v>-36600</v>
       </c>
-      <c r="H100" s="3">
+      <c r="I100" s="3">
         <v>-108300</v>
       </c>
-      <c r="I100" s="3">
+      <c r="J100" s="3">
         <v>-234900</v>
       </c>
-      <c r="J100" s="3">
+      <c r="K100" s="3">
         <v>-7600</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>-1700</v>
       </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
         <v>-19200</v>
       </c>
-      <c r="M100" s="3">
+      <c r="N100" s="3">
         <v>-3700</v>
       </c>
-      <c r="N100" s="3">
+      <c r="O100" s="3">
         <v>-12300</v>
       </c>
-      <c r="O100" s="3">
+      <c r="P100" s="3">
         <v>347600</v>
       </c>
-      <c r="P100" s="3">
+      <c r="Q100" s="3">
         <v>-2800</v>
       </c>
-      <c r="Q100" s="3">
+      <c r="R100" s="3">
         <v>1000</v>
       </c>
-      <c r="R100" s="3">
+      <c r="S100" s="3">
         <v>-2900</v>
       </c>
-      <c r="S100" s="3">
+      <c r="T100" s="3">
         <v>491600</v>
       </c>
-      <c r="T100" s="3">
+      <c r="U100" s="3">
         <v>-4600</v>
       </c>
-      <c r="U100" s="3">
+      <c r="V100" s="3">
         <v>1900</v>
       </c>
-      <c r="V100" s="3">
+      <c r="W100" s="3">
         <v>-2800</v>
       </c>
-      <c r="W100" s="3">
+      <c r="X100" s="3">
         <v>4400</v>
       </c>
-      <c r="X100" s="3">
+      <c r="Y100" s="3">
         <v>300</v>
       </c>
-      <c r="Y100" s="3">
+      <c r="Z100" s="3">
         <v>2000</v>
       </c>
-      <c r="Z100" s="3">
+      <c r="AA100" s="3">
         <v>445700</v>
       </c>
-      <c r="AA100" s="3">
+      <c r="AB100" s="3">
         <v>6700</v>
       </c>
-      <c r="AB100" s="3">
+      <c r="AC100" s="3">
         <v>2300</v>
       </c>
     </row>
-    <row r="101" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -7399,113 +7648,119 @@
         <v>0</v>
       </c>
       <c r="S101" s="3">
+        <v>0</v>
+      </c>
+      <c r="T101" s="3">
         <v>-200</v>
       </c>
-      <c r="T101" s="3">
-        <v>0</v>
-      </c>
       <c r="U101" s="3">
+        <v>0</v>
+      </c>
+      <c r="V101" s="3">
         <v>-700</v>
       </c>
-      <c r="V101" s="3">
-        <v>0</v>
-      </c>
       <c r="W101" s="3">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="X101" s="3">
         <v>400</v>
       </c>
       <c r="Y101" s="3">
+        <v>400</v>
+      </c>
+      <c r="Z101" s="3">
         <v>500</v>
       </c>
-      <c r="Z101" s="3">
+      <c r="AA101" s="3">
         <v>700</v>
       </c>
-      <c r="AA101" s="3">
+      <c r="AB101" s="3">
         <v>-1400</v>
       </c>
-      <c r="AB101" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="102" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>-13200</v>
+      </c>
+      <c r="E102" s="3">
         <v>-684900</v>
       </c>
-      <c r="E102" s="3">
+      <c r="F102" s="3">
         <v>159900</v>
       </c>
-      <c r="F102" s="3">
+      <c r="G102" s="3">
         <v>578300</v>
       </c>
-      <c r="G102" s="3">
+      <c r="H102" s="3">
         <v>-59000</v>
       </c>
-      <c r="H102" s="3">
+      <c r="I102" s="3">
         <v>-163300</v>
       </c>
-      <c r="I102" s="3">
+      <c r="J102" s="3">
         <v>86600</v>
       </c>
-      <c r="J102" s="3">
+      <c r="K102" s="3">
         <v>366400</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>51800</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>-28500</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>-390800</v>
       </c>
-      <c r="N102" s="3">
+      <c r="O102" s="3">
         <v>-396200</v>
       </c>
-      <c r="O102" s="3">
+      <c r="P102" s="3">
         <v>546000</v>
       </c>
-      <c r="P102" s="3">
+      <c r="Q102" s="3">
         <v>106400</v>
       </c>
-      <c r="Q102" s="3">
+      <c r="R102" s="3">
         <v>74300</v>
       </c>
-      <c r="R102" s="3">
+      <c r="S102" s="3">
         <v>-13000</v>
       </c>
-      <c r="S102" s="3">
+      <c r="T102" s="3">
         <v>-88100</v>
       </c>
-      <c r="T102" s="3">
+      <c r="U102" s="3">
         <v>62100</v>
       </c>
-      <c r="U102" s="3">
+      <c r="V102" s="3">
         <v>220500</v>
       </c>
-      <c r="V102" s="3">
+      <c r="W102" s="3">
         <v>-25300</v>
       </c>
-      <c r="W102" s="3">
+      <c r="X102" s="3">
         <v>51300</v>
       </c>
-      <c r="X102" s="3">
+      <c r="Y102" s="3">
         <v>-122100</v>
       </c>
-      <c r="Y102" s="3">
+      <c r="Z102" s="3">
         <v>-305000</v>
       </c>
-      <c r="Z102" s="3">
+      <c r="AA102" s="3">
         <v>422000</v>
       </c>
-      <c r="AA102" s="3">
+      <c r="AB102" s="3">
         <v>-10900</v>
       </c>
-      <c r="AB102" s="3">
+      <c r="AC102" s="3">
         <v>9700</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/LITE_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/LITE_QTR_FIN.xlsx
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:AC102"/>
+  <dimension ref="A5:AD102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,367 +665,380 @@
     <col min="1" max="1" width="6.42578125" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="11" width="13" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="13" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="17" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="21" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="24" max="25" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="26" max="27" width="13" style="1" bestFit="1" customWidth="1"/>
-    <col min="28" max="28" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="29" max="29" width="12.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="30" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="13" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="12" width="13" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="14" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="18" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="22" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="25" max="26" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="27" max="28" width="13" style="1" bestFit="1" customWidth="1"/>
+    <col min="29" max="29" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="30" max="30" width="12.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="31" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:30" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:30" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>45017</v>
+      </c>
+      <c r="E7" s="2">
         <v>44926</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44835</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44744</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44653</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>44562</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>44471</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>44380</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>44289</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>44191</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>44100</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>44009</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>43918</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>43827</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>43736</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>43645</v>
       </c>
-      <c r="S7" s="2">
+      <c r="T7" s="2">
         <v>43554</v>
       </c>
-      <c r="T7" s="2">
+      <c r="U7" s="2">
         <v>43463</v>
       </c>
-      <c r="U7" s="2">
+      <c r="V7" s="2">
         <v>43372</v>
       </c>
-      <c r="V7" s="2">
+      <c r="W7" s="2">
         <v>43281</v>
       </c>
-      <c r="W7" s="2">
+      <c r="X7" s="2">
         <v>43190</v>
       </c>
-      <c r="X7" s="2">
+      <c r="Y7" s="2">
         <v>43099</v>
       </c>
-      <c r="Y7" s="2">
+      <c r="Z7" s="2">
         <v>43008</v>
       </c>
-      <c r="Z7" s="2">
+      <c r="AA7" s="2">
         <v>42917</v>
       </c>
-      <c r="AA7" s="2">
+      <c r="AB7" s="2">
         <v>42826</v>
       </c>
-      <c r="AB7" s="2">
+      <c r="AC7" s="2">
         <v>42735</v>
       </c>
-      <c r="AC7" s="2">
+      <c r="AD7" s="2">
         <v>42644</v>
       </c>
     </row>
-    <row r="8" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:30" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
+        <v>383400</v>
+      </c>
+      <c r="E8" s="3">
         <v>506000</v>
       </c>
-      <c r="E8" s="3">
+      <c r="F8" s="3">
         <v>506800</v>
       </c>
-      <c r="F8" s="3">
+      <c r="G8" s="3">
         <v>422100</v>
       </c>
-      <c r="G8" s="3">
+      <c r="H8" s="3">
         <v>395400</v>
       </c>
-      <c r="H8" s="3">
+      <c r="I8" s="3">
         <v>446700</v>
       </c>
-      <c r="I8" s="3">
+      <c r="J8" s="3">
         <v>448400</v>
       </c>
-      <c r="J8" s="3">
+      <c r="K8" s="3">
         <v>392100</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>419500</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>478800</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>452400</v>
       </c>
-      <c r="N8" s="3">
+      <c r="O8" s="3">
         <v>368100</v>
       </c>
-      <c r="O8" s="3">
+      <c r="P8" s="3">
         <v>402800</v>
       </c>
-      <c r="P8" s="3">
+      <c r="Q8" s="3">
         <v>457800</v>
       </c>
-      <c r="Q8" s="3">
+      <c r="R8" s="3">
         <v>449900</v>
       </c>
-      <c r="R8" s="3">
+      <c r="S8" s="3">
         <v>404600</v>
       </c>
-      <c r="S8" s="3">
+      <c r="T8" s="3">
         <v>432900</v>
       </c>
-      <c r="T8" s="3">
+      <c r="U8" s="3">
         <v>373700</v>
       </c>
-      <c r="U8" s="3">
+      <c r="V8" s="3">
         <v>354100</v>
       </c>
-      <c r="V8" s="3">
+      <c r="W8" s="3">
         <v>301100</v>
       </c>
-      <c r="W8" s="3">
+      <c r="X8" s="3">
         <v>298800</v>
       </c>
-      <c r="X8" s="3">
+      <c r="Y8" s="3">
         <v>404600</v>
       </c>
-      <c r="Y8" s="3">
+      <c r="Z8" s="3">
         <v>243200</v>
       </c>
-      <c r="Z8" s="3">
+      <c r="AA8" s="3">
         <v>222700</v>
       </c>
-      <c r="AA8" s="3">
+      <c r="AB8" s="3">
         <v>255800</v>
       </c>
-      <c r="AB8" s="3">
+      <c r="AC8" s="3">
         <v>265000</v>
       </c>
-      <c r="AC8" s="3">
+      <c r="AD8" s="3">
         <v>258100</v>
       </c>
     </row>
-    <row r="9" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:30" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
+        <v>271400</v>
+      </c>
+      <c r="E9" s="3">
         <v>339800</v>
       </c>
-      <c r="E9" s="3">
+      <c r="F9" s="3">
         <v>305600</v>
       </c>
-      <c r="F9" s="3">
+      <c r="G9" s="3">
         <v>240400</v>
       </c>
-      <c r="G9" s="3">
+      <c r="H9" s="3">
         <v>228200</v>
       </c>
-      <c r="H9" s="3">
+      <c r="I9" s="3">
         <v>239200</v>
       </c>
-      <c r="I9" s="3">
+      <c r="J9" s="3">
         <v>216200</v>
       </c>
-      <c r="J9" s="3">
+      <c r="K9" s="3">
         <v>229300</v>
       </c>
-      <c r="K9" s="3">
+      <c r="L9" s="3">
         <v>234500</v>
       </c>
-      <c r="L9" s="3">
+      <c r="M9" s="3">
         <v>249200</v>
       </c>
-      <c r="M9" s="3">
+      <c r="N9" s="3">
         <v>246700</v>
       </c>
-      <c r="N9" s="3">
+      <c r="O9" s="3">
         <v>232400</v>
       </c>
-      <c r="O9" s="3">
+      <c r="P9" s="3">
         <v>245100</v>
       </c>
-      <c r="P9" s="3">
+      <c r="Q9" s="3">
         <v>268700</v>
       </c>
-      <c r="Q9" s="3">
+      <c r="R9" s="3">
         <v>282200</v>
       </c>
-      <c r="R9" s="3">
+      <c r="S9" s="3">
         <v>317800</v>
       </c>
-      <c r="S9" s="3">
+      <c r="T9" s="3">
         <v>344600</v>
       </c>
-      <c r="T9" s="3">
+      <c r="U9" s="3">
         <v>248900</v>
       </c>
-      <c r="U9" s="3">
+      <c r="V9" s="3">
         <v>228100</v>
       </c>
-      <c r="V9" s="3">
+      <c r="W9" s="3">
         <v>205600</v>
       </c>
-      <c r="W9" s="3">
+      <c r="X9" s="3">
         <v>201800</v>
       </c>
-      <c r="X9" s="3">
+      <c r="Y9" s="3">
         <v>233500</v>
       </c>
-      <c r="Y9" s="3">
+      <c r="Z9" s="3">
         <v>174700</v>
       </c>
-      <c r="Z9" s="3">
+      <c r="AA9" s="3">
         <v>155400</v>
       </c>
-      <c r="AA9" s="3">
+      <c r="AB9" s="3">
         <v>173700</v>
       </c>
-      <c r="AB9" s="3">
+      <c r="AC9" s="3">
         <v>178000</v>
       </c>
-      <c r="AC9" s="3">
+      <c r="AD9" s="3">
         <v>176400</v>
       </c>
     </row>
-    <row r="10" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:30" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
+        <v>112000</v>
+      </c>
+      <c r="E10" s="3">
         <v>166200</v>
       </c>
-      <c r="E10" s="3">
+      <c r="F10" s="3">
         <v>201200</v>
       </c>
-      <c r="F10" s="3">
+      <c r="G10" s="3">
         <v>181700</v>
       </c>
-      <c r="G10" s="3">
+      <c r="H10" s="3">
         <v>167200</v>
       </c>
-      <c r="H10" s="3">
+      <c r="I10" s="3">
         <v>207500</v>
       </c>
-      <c r="I10" s="3">
+      <c r="J10" s="3">
         <v>232200</v>
       </c>
-      <c r="J10" s="3">
+      <c r="K10" s="3">
         <v>162800</v>
       </c>
-      <c r="K10" s="3">
+      <c r="L10" s="3">
         <v>185000</v>
       </c>
-      <c r="L10" s="3">
+      <c r="M10" s="3">
         <v>229600</v>
       </c>
-      <c r="M10" s="3">
+      <c r="N10" s="3">
         <v>205700</v>
       </c>
-      <c r="N10" s="3">
+      <c r="O10" s="3">
         <v>135700</v>
       </c>
-      <c r="O10" s="3">
+      <c r="P10" s="3">
         <v>157700</v>
       </c>
-      <c r="P10" s="3">
+      <c r="Q10" s="3">
         <v>189100</v>
       </c>
-      <c r="Q10" s="3">
+      <c r="R10" s="3">
         <v>167700</v>
       </c>
-      <c r="R10" s="3">
+      <c r="S10" s="3">
         <v>86800</v>
       </c>
-      <c r="S10" s="3">
+      <c r="T10" s="3">
         <v>88300</v>
       </c>
-      <c r="T10" s="3">
+      <c r="U10" s="3">
         <v>124800</v>
       </c>
-      <c r="U10" s="3">
+      <c r="V10" s="3">
         <v>126000</v>
       </c>
-      <c r="V10" s="3">
+      <c r="W10" s="3">
         <v>95500</v>
       </c>
-      <c r="W10" s="3">
+      <c r="X10" s="3">
         <v>97000</v>
       </c>
-      <c r="X10" s="3">
+      <c r="Y10" s="3">
         <v>171100</v>
       </c>
-      <c r="Y10" s="3">
+      <c r="Z10" s="3">
         <v>68500</v>
       </c>
-      <c r="Z10" s="3">
+      <c r="AA10" s="3">
         <v>67300</v>
       </c>
-      <c r="AA10" s="3">
+      <c r="AB10" s="3">
         <v>82100</v>
       </c>
-      <c r="AB10" s="3">
+      <c r="AC10" s="3">
         <v>87000</v>
       </c>
-      <c r="AC10" s="3">
+      <c r="AD10" s="3">
         <v>81700</v>
       </c>
     </row>
-    <row r="11" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:30" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -1055,91 +1068,95 @@
       <c r="AA11" s="3"/>
       <c r="AB11" s="3"/>
       <c r="AC11" s="3"/>
-    </row>
-    <row r="12" spans="1:29" x14ac:dyDescent="0.2">
+      <c r="AD11" s="3"/>
+    </row>
+    <row r="12" spans="1:30" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
       <c r="D12" s="3">
+        <v>85400</v>
+      </c>
+      <c r="E12" s="3">
         <v>75800</v>
       </c>
-      <c r="E12" s="3">
+      <c r="F12" s="3">
         <v>72700</v>
-      </c>
-      <c r="F12" s="3">
-        <v>56700</v>
       </c>
       <c r="G12" s="3">
         <v>56700</v>
       </c>
       <c r="H12" s="3">
+        <v>56700</v>
+      </c>
+      <c r="I12" s="3">
         <v>53200</v>
-      </c>
-      <c r="I12" s="3">
-        <v>54100</v>
       </c>
       <c r="J12" s="3">
         <v>54100</v>
       </c>
       <c r="K12" s="3">
+        <v>54100</v>
+      </c>
+      <c r="L12" s="3">
         <v>57200</v>
       </c>
-      <c r="L12" s="3">
+      <c r="M12" s="3">
         <v>52800</v>
       </c>
-      <c r="M12" s="3">
+      <c r="N12" s="3">
         <v>50400</v>
       </c>
-      <c r="N12" s="3">
+      <c r="O12" s="3">
         <v>49000</v>
       </c>
-      <c r="O12" s="3">
+      <c r="P12" s="3">
         <v>48700</v>
       </c>
-      <c r="P12" s="3">
+      <c r="Q12" s="3">
         <v>51000</v>
       </c>
-      <c r="Q12" s="3">
+      <c r="R12" s="3">
         <v>49900</v>
       </c>
-      <c r="R12" s="3">
+      <c r="S12" s="3">
         <v>49500</v>
       </c>
-      <c r="S12" s="3">
+      <c r="T12" s="3">
         <v>57700</v>
       </c>
-      <c r="T12" s="3">
+      <c r="U12" s="3">
         <v>42800</v>
       </c>
-      <c r="U12" s="3">
+      <c r="V12" s="3">
         <v>34600</v>
       </c>
-      <c r="V12" s="3">
+      <c r="W12" s="3">
         <v>38500</v>
       </c>
-      <c r="W12" s="3">
+      <c r="X12" s="3">
         <v>38200</v>
       </c>
-      <c r="X12" s="3">
+      <c r="Y12" s="3">
         <v>43800</v>
       </c>
-      <c r="Y12" s="3">
+      <c r="Z12" s="3">
         <v>36300</v>
       </c>
-      <c r="Z12" s="3">
+      <c r="AA12" s="3">
         <v>35400</v>
       </c>
-      <c r="AA12" s="3">
+      <c r="AB12" s="3">
         <v>37300</v>
       </c>
-      <c r="AB12" s="3">
+      <c r="AC12" s="3">
         <v>38700</v>
       </c>
-      <c r="AC12" s="3">
+      <c r="AD12" s="3">
         <v>36900</v>
       </c>
     </row>
-    <row r="13" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:30" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>8</v>
       </c>
@@ -1221,91 +1238,97 @@
       <c r="AC13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:29" x14ac:dyDescent="0.2">
+      <c r="AD13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:30" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>9</v>
       </c>
       <c r="D14" s="3">
+        <v>1600</v>
+      </c>
+      <c r="E14" s="3">
         <v>13900</v>
       </c>
-      <c r="E14" s="3">
+      <c r="F14" s="3">
         <v>9300</v>
       </c>
-      <c r="F14" s="3">
-        <v>0</v>
-      </c>
       <c r="G14" s="3">
+        <v>0</v>
+      </c>
+      <c r="H14" s="3">
         <v>-100</v>
       </c>
-      <c r="H14" s="3">
+      <c r="I14" s="3">
         <v>100</v>
       </c>
-      <c r="I14" s="3">
+      <c r="J14" s="3">
         <v>-1100</v>
       </c>
-      <c r="J14" s="3">
+      <c r="K14" s="3">
         <v>4600</v>
       </c>
-      <c r="K14" s="3">
+      <c r="L14" s="3">
         <v>-204600</v>
       </c>
-      <c r="L14" s="3">
+      <c r="M14" s="3">
         <v>200</v>
       </c>
-      <c r="M14" s="3">
-        <v>0</v>
-      </c>
       <c r="N14" s="3">
+        <v>0</v>
+      </c>
+      <c r="O14" s="3">
         <v>4900</v>
       </c>
-      <c r="O14" s="3">
+      <c r="P14" s="3">
         <v>5200</v>
       </c>
-      <c r="P14" s="3">
+      <c r="Q14" s="3">
         <v>900</v>
       </c>
-      <c r="Q14" s="3">
+      <c r="R14" s="3">
         <v>1300</v>
       </c>
-      <c r="R14" s="3">
+      <c r="S14" s="3">
         <v>1700</v>
       </c>
-      <c r="S14" s="3">
+      <c r="T14" s="3">
         <v>51800</v>
       </c>
-      <c r="T14" s="3">
+      <c r="U14" s="3">
         <v>7800</v>
       </c>
-      <c r="U14" s="3">
+      <c r="V14" s="3">
         <v>1300</v>
       </c>
-      <c r="V14" s="3">
+      <c r="W14" s="3">
         <v>3400</v>
       </c>
-      <c r="W14" s="3">
+      <c r="X14" s="3">
         <v>100</v>
       </c>
-      <c r="X14" s="3">
+      <c r="Y14" s="3">
         <v>4500</v>
       </c>
-      <c r="Y14" s="3">
+      <c r="Z14" s="3">
         <v>2900</v>
       </c>
-      <c r="Z14" s="3">
+      <c r="AA14" s="3">
         <v>2000</v>
       </c>
-      <c r="AA14" s="3">
+      <c r="AB14" s="3">
         <v>3100</v>
       </c>
-      <c r="AB14" s="3">
+      <c r="AC14" s="3">
         <v>4000</v>
       </c>
-      <c r="AC14" s="3">
+      <c r="AD14" s="3">
         <v>2900</v>
       </c>
     </row>
-    <row r="15" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:30" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>10</v>
       </c>
@@ -1313,55 +1336,55 @@
         <v>11300</v>
       </c>
       <c r="E15" s="3">
+        <v>11300</v>
+      </c>
+      <c r="F15" s="3">
         <v>9300</v>
       </c>
-      <c r="F15" s="3">
+      <c r="G15" s="3">
         <v>5600</v>
       </c>
-      <c r="G15" s="3">
+      <c r="H15" s="3">
         <v>5800</v>
-      </c>
-      <c r="H15" s="3">
-        <v>5600</v>
       </c>
       <c r="I15" s="3">
         <v>5600</v>
       </c>
       <c r="J15" s="3">
-        <v>6200</v>
+        <v>5600</v>
       </c>
       <c r="K15" s="3">
         <v>6200</v>
       </c>
       <c r="L15" s="3">
+        <v>6200</v>
+      </c>
+      <c r="M15" s="3">
         <v>5900</v>
       </c>
-      <c r="M15" s="3">
+      <c r="N15" s="3">
         <v>5700</v>
       </c>
-      <c r="N15" s="3">
+      <c r="O15" s="3">
         <v>6200</v>
       </c>
-      <c r="O15" s="3">
+      <c r="P15" s="3">
         <v>6100</v>
       </c>
-      <c r="P15" s="3">
+      <c r="Q15" s="3">
         <v>6200</v>
       </c>
-      <c r="Q15" s="3">
+      <c r="R15" s="3">
         <v>6300</v>
-      </c>
-      <c r="R15" s="3">
-        <v>3600</v>
       </c>
       <c r="S15" s="3">
         <v>3600</v>
       </c>
       <c r="T15" s="3">
+        <v>3600</v>
+      </c>
+      <c r="U15" s="3">
         <v>800</v>
-      </c>
-      <c r="U15" s="3" t="s">
-        <v>17</v>
       </c>
       <c r="V15" s="3" t="s">
         <v>17</v>
@@ -1369,17 +1392,17 @@
       <c r="W15" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="X15" s="3">
-        <v>0</v>
-      </c>
-      <c r="Y15" s="3" t="s">
+      <c r="X15" s="3" t="s">
         <v>17</v>
+      </c>
+      <c r="Y15" s="3">
+        <v>0</v>
       </c>
       <c r="Z15" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="AA15" s="3">
-        <v>0</v>
+      <c r="AA15" s="3" t="s">
+        <v>17</v>
       </c>
       <c r="AB15" s="3">
         <v>0</v>
@@ -1387,8 +1410,11 @@
       <c r="AC15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:29" x14ac:dyDescent="0.2">
+      <c r="AD15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:30" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1415,174 +1441,181 @@
       <c r="AA16" s="3"/>
       <c r="AB16" s="3"/>
       <c r="AC16" s="3"/>
-    </row>
-    <row r="17" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD16" s="3"/>
+    </row>
+    <row r="17" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>11</v>
       </c>
       <c r="D17" s="3">
+        <v>434800</v>
+      </c>
+      <c r="E17" s="3">
         <v>527900</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="3">
         <v>493300</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>366700</v>
       </c>
-      <c r="G17" s="3">
+      <c r="H17" s="3">
         <v>348600</v>
       </c>
-      <c r="H17" s="3">
+      <c r="I17" s="3">
         <v>361500</v>
       </c>
-      <c r="I17" s="3">
+      <c r="J17" s="3">
         <v>332500</v>
       </c>
-      <c r="J17" s="3">
+      <c r="K17" s="3">
         <v>346300</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>152600</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>363500</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>353400</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>341100</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>360300</v>
       </c>
-      <c r="P17" s="3">
+      <c r="Q17" s="3">
         <v>383000</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="R17" s="3">
         <v>390100</v>
       </c>
-      <c r="R17" s="3">
+      <c r="S17" s="3">
         <v>418400</v>
       </c>
-      <c r="S17" s="3">
+      <c r="T17" s="3">
         <v>509300</v>
       </c>
-      <c r="T17" s="3">
+      <c r="U17" s="3">
         <v>362200</v>
       </c>
-      <c r="U17" s="3">
+      <c r="V17" s="3">
         <v>297000</v>
       </c>
-      <c r="V17" s="3">
+      <c r="W17" s="3">
         <v>280200</v>
       </c>
-      <c r="W17" s="3">
+      <c r="X17" s="3">
         <v>273300</v>
       </c>
-      <c r="X17" s="3">
+      <c r="Y17" s="3">
         <v>313800</v>
       </c>
-      <c r="Y17" s="3">
+      <c r="Z17" s="3">
         <v>240500</v>
       </c>
-      <c r="Z17" s="3">
+      <c r="AA17" s="3">
         <v>218800</v>
       </c>
-      <c r="AA17" s="3">
+      <c r="AB17" s="3">
         <v>242200</v>
       </c>
-      <c r="AB17" s="3">
+      <c r="AC17" s="3">
         <v>251700</v>
       </c>
-      <c r="AC17" s="3">
+      <c r="AD17" s="3">
         <v>241300</v>
       </c>
     </row>
-    <row r="18" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D18" s="3">
+        <v>-51400</v>
+      </c>
+      <c r="E18" s="3">
         <v>-21900</v>
       </c>
-      <c r="E18" s="3">
+      <c r="F18" s="3">
         <v>13500</v>
       </c>
-      <c r="F18" s="3">
+      <c r="G18" s="3">
         <v>55400</v>
       </c>
-      <c r="G18" s="3">
+      <c r="H18" s="3">
         <v>46800</v>
       </c>
-      <c r="H18" s="3">
+      <c r="I18" s="3">
         <v>85200</v>
       </c>
-      <c r="I18" s="3">
+      <c r="J18" s="3">
         <v>115900</v>
       </c>
-      <c r="J18" s="3">
+      <c r="K18" s="3">
         <v>45800</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>266900</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>115300</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>99000</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>27000</v>
       </c>
-      <c r="O18" s="3">
+      <c r="P18" s="3">
         <v>42500</v>
       </c>
-      <c r="P18" s="3">
+      <c r="Q18" s="3">
         <v>74800</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="R18" s="3">
         <v>59800</v>
       </c>
-      <c r="R18" s="3">
+      <c r="S18" s="3">
         <v>-13800</v>
       </c>
-      <c r="S18" s="3">
+      <c r="T18" s="3">
         <v>-76400</v>
       </c>
-      <c r="T18" s="3">
+      <c r="U18" s="3">
         <v>11500</v>
       </c>
-      <c r="U18" s="3">
+      <c r="V18" s="3">
         <v>57100</v>
       </c>
-      <c r="V18" s="3">
+      <c r="W18" s="3">
         <v>20900</v>
       </c>
-      <c r="W18" s="3">
+      <c r="X18" s="3">
         <v>25500</v>
       </c>
-      <c r="X18" s="3">
+      <c r="Y18" s="3">
         <v>90800</v>
       </c>
-      <c r="Y18" s="3">
+      <c r="Z18" s="3">
         <v>2700</v>
       </c>
-      <c r="Z18" s="3">
+      <c r="AA18" s="3">
         <v>3900</v>
       </c>
-      <c r="AA18" s="3">
+      <c r="AB18" s="3">
         <v>13600</v>
       </c>
-      <c r="AB18" s="3">
+      <c r="AC18" s="3">
         <v>13300</v>
       </c>
-      <c r="AC18" s="3">
+      <c r="AD18" s="3">
         <v>16800</v>
       </c>
     </row>
-    <row r="19" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>13</v>
       </c>
@@ -1612,233 +1645,240 @@
       <c r="AA19" s="3"/>
       <c r="AB19" s="3"/>
       <c r="AC19" s="3"/>
-    </row>
-    <row r="20" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD19" s="3"/>
+    </row>
+    <row r="20" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>14</v>
       </c>
       <c r="D20" s="3">
+        <v>11400</v>
+      </c>
+      <c r="E20" s="3">
         <v>3700</v>
       </c>
-      <c r="E20" s="3">
+      <c r="F20" s="3">
         <v>13800</v>
       </c>
-      <c r="F20" s="3">
+      <c r="G20" s="3">
         <v>8200</v>
       </c>
-      <c r="G20" s="3">
+      <c r="H20" s="3">
         <v>2200</v>
       </c>
-      <c r="H20" s="3">
+      <c r="I20" s="3">
         <v>1000</v>
       </c>
-      <c r="I20" s="3">
+      <c r="J20" s="3">
         <v>600</v>
       </c>
-      <c r="J20" s="3">
+      <c r="K20" s="3">
         <v>700</v>
       </c>
-      <c r="K20" s="3">
+      <c r="L20" s="3">
         <v>2400</v>
       </c>
-      <c r="L20" s="3">
+      <c r="M20" s="3">
         <v>-900</v>
       </c>
-      <c r="M20" s="3">
+      <c r="N20" s="3">
         <v>600</v>
       </c>
-      <c r="N20" s="3">
+      <c r="O20" s="3">
         <v>3500</v>
       </c>
-      <c r="O20" s="3">
+      <c r="P20" s="3">
         <v>21700</v>
       </c>
-      <c r="P20" s="3">
+      <c r="Q20" s="3">
         <v>1200</v>
       </c>
-      <c r="Q20" s="3">
+      <c r="R20" s="3">
         <v>5000</v>
       </c>
-      <c r="R20" s="3">
+      <c r="S20" s="3">
         <v>4100</v>
       </c>
-      <c r="S20" s="3">
+      <c r="T20" s="3">
         <v>5200</v>
       </c>
-      <c r="T20" s="3">
+      <c r="U20" s="3">
         <v>14700</v>
       </c>
-      <c r="U20" s="3">
+      <c r="V20" s="3">
         <v>600</v>
       </c>
-      <c r="V20" s="3">
+      <c r="W20" s="3">
         <v>11400</v>
       </c>
-      <c r="W20" s="3">
+      <c r="X20" s="3">
         <v>-18200</v>
       </c>
-      <c r="X20" s="3">
+      <c r="Y20" s="3">
         <v>9300</v>
       </c>
-      <c r="Y20" s="3">
+      <c r="Z20" s="3">
         <v>5200</v>
       </c>
-      <c r="Z20" s="3">
+      <c r="AA20" s="3">
         <v>-31500</v>
       </c>
-      <c r="AA20" s="3">
+      <c r="AB20" s="3">
         <v>-58000</v>
       </c>
-      <c r="AB20" s="3">
+      <c r="AC20" s="3">
         <v>4600</v>
       </c>
-      <c r="AC20" s="3">
+      <c r="AD20" s="3">
         <v>-22500</v>
       </c>
     </row>
-    <row r="21" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D21" s="3">
+        <v>17700</v>
+      </c>
+      <c r="E21" s="3">
         <v>44300</v>
       </c>
-      <c r="E21" s="3">
+      <c r="F21" s="3">
         <v>84000</v>
       </c>
-      <c r="F21" s="3">
+      <c r="G21" s="3">
         <v>105200</v>
       </c>
-      <c r="G21" s="3">
+      <c r="H21" s="3">
         <v>90600</v>
       </c>
-      <c r="H21" s="3">
+      <c r="I21" s="3">
         <v>128300</v>
       </c>
-      <c r="I21" s="3">
+      <c r="J21" s="3">
         <v>158300</v>
       </c>
-      <c r="J21" s="3">
+      <c r="K21" s="3">
         <v>89600</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>314100</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>159100</v>
       </c>
-      <c r="M21" s="3">
+      <c r="N21" s="3">
         <v>144100</v>
       </c>
-      <c r="N21" s="3">
+      <c r="O21" s="3">
         <v>77200</v>
       </c>
-      <c r="O21" s="3">
+      <c r="P21" s="3">
         <v>111700</v>
       </c>
-      <c r="P21" s="3">
+      <c r="Q21" s="3">
         <v>123300</v>
       </c>
-      <c r="Q21" s="3">
+      <c r="R21" s="3">
         <v>115200</v>
       </c>
-      <c r="R21" s="3">
+      <c r="S21" s="3">
         <v>35400</v>
       </c>
-      <c r="S21" s="3">
+      <c r="T21" s="3">
         <v>-10500</v>
       </c>
-      <c r="T21" s="3">
+      <c r="U21" s="3">
         <v>57400</v>
       </c>
-      <c r="U21" s="3">
+      <c r="V21" s="3">
         <v>78200</v>
       </c>
-      <c r="V21" s="3">
+      <c r="W21" s="3">
         <v>53800</v>
       </c>
-      <c r="W21" s="3">
+      <c r="X21" s="3">
         <v>26500</v>
       </c>
-      <c r="X21" s="3">
+      <c r="Y21" s="3">
         <v>119100</v>
       </c>
-      <c r="Y21" s="3">
+      <c r="Z21" s="3">
         <v>25400</v>
       </c>
-      <c r="Z21" s="3">
+      <c r="AA21" s="3">
         <v>-11100</v>
       </c>
-      <c r="AA21" s="3">
+      <c r="AB21" s="3">
         <v>-28500</v>
       </c>
-      <c r="AB21" s="3">
+      <c r="AC21" s="3">
         <v>32800</v>
       </c>
-      <c r="AC21" s="3">
+      <c r="AD21" s="3">
         <v>8000</v>
       </c>
     </row>
-    <row r="22" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D22" s="3">
+        <v>8700</v>
+      </c>
+      <c r="E22" s="3">
         <v>8900</v>
       </c>
-      <c r="E22" s="3">
+      <c r="F22" s="3">
         <v>8500</v>
       </c>
-      <c r="F22" s="3">
+      <c r="G22" s="3">
         <v>26500</v>
       </c>
-      <c r="G22" s="3">
+      <c r="H22" s="3">
         <v>19700</v>
       </c>
-      <c r="H22" s="3">
+      <c r="I22" s="3">
         <v>17100</v>
       </c>
-      <c r="I22" s="3">
+      <c r="J22" s="3">
         <v>16900</v>
       </c>
-      <c r="J22" s="3">
+      <c r="K22" s="3">
         <v>18000</v>
       </c>
-      <c r="K22" s="3">
+      <c r="L22" s="3">
         <v>16400</v>
       </c>
-      <c r="L22" s="3">
+      <c r="M22" s="3">
         <v>16300</v>
       </c>
-      <c r="M22" s="3">
+      <c r="N22" s="3">
         <v>16000</v>
       </c>
-      <c r="N22" s="3">
+      <c r="O22" s="3">
         <v>15900</v>
       </c>
-      <c r="O22" s="3">
+      <c r="P22" s="3">
         <v>15600</v>
       </c>
-      <c r="P22" s="3">
+      <c r="Q22" s="3">
         <v>18300</v>
-      </c>
-      <c r="Q22" s="3">
-        <v>11400</v>
       </c>
       <c r="R22" s="3">
         <v>11400</v>
       </c>
       <c r="S22" s="3">
+        <v>11400</v>
+      </c>
+      <c r="T22" s="3">
         <v>11300</v>
       </c>
-      <c r="T22" s="3">
+      <c r="U22" s="3">
         <v>8500</v>
       </c>
-      <c r="U22" s="3">
+      <c r="V22" s="3">
         <v>5100</v>
-      </c>
-      <c r="V22" s="3">
-        <v>4600</v>
       </c>
       <c r="W22" s="3">
         <v>4600</v>
@@ -1847,10 +1887,10 @@
         <v>4600</v>
       </c>
       <c r="Y22" s="3">
+        <v>4600</v>
+      </c>
+      <c r="Z22" s="3">
         <v>4400</v>
-      </c>
-      <c r="Z22" s="3" t="s">
-        <v>17</v>
       </c>
       <c r="AA22" s="3" t="s">
         <v>17</v>
@@ -1861,174 +1901,183 @@
       <c r="AC22" s="3" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="23" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD22" s="3" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="23" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>-48700</v>
+      </c>
+      <c r="E23" s="3">
         <v>-27100</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>18800</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>37100</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
         <v>29300</v>
       </c>
-      <c r="H23" s="3">
+      <c r="I23" s="3">
         <v>69100</v>
       </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
         <v>99600</v>
       </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
         <v>28500</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>252900</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>98100</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>83600</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>14600</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>48600</v>
       </c>
-      <c r="P23" s="3">
+      <c r="Q23" s="3">
         <v>57700</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="R23" s="3">
         <v>53400</v>
       </c>
-      <c r="R23" s="3">
+      <c r="S23" s="3">
         <v>-21100</v>
       </c>
-      <c r="S23" s="3">
+      <c r="T23" s="3">
         <v>-82500</v>
       </c>
-      <c r="T23" s="3">
+      <c r="U23" s="3">
         <v>17700</v>
       </c>
-      <c r="U23" s="3">
+      <c r="V23" s="3">
         <v>52600</v>
       </c>
-      <c r="V23" s="3">
+      <c r="W23" s="3">
         <v>27700</v>
       </c>
-      <c r="W23" s="3">
+      <c r="X23" s="3">
         <v>2700</v>
       </c>
-      <c r="X23" s="3">
+      <c r="Y23" s="3">
         <v>95500</v>
       </c>
-      <c r="Y23" s="3">
+      <c r="Z23" s="3">
         <v>3500</v>
       </c>
-      <c r="Z23" s="3">
+      <c r="AA23" s="3">
         <v>-27600</v>
       </c>
-      <c r="AA23" s="3">
+      <c r="AB23" s="3">
         <v>-44400</v>
       </c>
-      <c r="AB23" s="3">
+      <c r="AC23" s="3">
         <v>17900</v>
       </c>
-      <c r="AC23" s="3">
+      <c r="AD23" s="3">
         <v>-5700</v>
       </c>
     </row>
-    <row r="24" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
+        <v>-9400</v>
+      </c>
+      <c r="E24" s="3">
         <v>4600</v>
       </c>
-      <c r="E24" s="3">
+      <c r="F24" s="3">
         <v>19200</v>
       </c>
-      <c r="F24" s="3">
+      <c r="G24" s="3">
         <v>2400</v>
       </c>
-      <c r="G24" s="3">
+      <c r="H24" s="3">
         <v>3300</v>
       </c>
-      <c r="H24" s="3">
+      <c r="I24" s="3">
         <v>12400</v>
       </c>
-      <c r="I24" s="3">
+      <c r="J24" s="3">
         <v>18100</v>
       </c>
-      <c r="J24" s="3">
+      <c r="K24" s="3">
         <v>7000</v>
       </c>
-      <c r="K24" s="3">
+      <c r="L24" s="3">
         <v>27400</v>
       </c>
-      <c r="L24" s="3">
+      <c r="M24" s="3">
         <v>14900</v>
       </c>
-      <c r="M24" s="3">
+      <c r="N24" s="3">
         <v>16500</v>
       </c>
-      <c r="N24" s="3">
+      <c r="O24" s="3">
         <v>19200</v>
       </c>
-      <c r="O24" s="3">
+      <c r="P24" s="3">
         <v>5200</v>
       </c>
-      <c r="P24" s="3">
+      <c r="Q24" s="3">
         <v>8600</v>
       </c>
-      <c r="Q24" s="3">
+      <c r="R24" s="3">
         <v>5800</v>
       </c>
-      <c r="R24" s="3">
+      <c r="S24" s="3">
         <v>4700</v>
       </c>
-      <c r="S24" s="3">
+      <c r="T24" s="3">
         <v>-8200</v>
       </c>
-      <c r="T24" s="3">
+      <c r="U24" s="3">
         <v>1400</v>
       </c>
-      <c r="U24" s="3">
+      <c r="V24" s="3">
         <v>5200</v>
       </c>
-      <c r="V24" s="3">
+      <c r="W24" s="3">
         <v>-3300</v>
       </c>
-      <c r="W24" s="3">
-        <v>0</v>
-      </c>
       <c r="X24" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y24" s="3">
         <v>-109300</v>
       </c>
-      <c r="Y24" s="3">
+      <c r="Z24" s="3">
         <v>-3600</v>
       </c>
-      <c r="Z24" s="3">
+      <c r="AA24" s="3">
         <v>27300</v>
       </c>
-      <c r="AA24" s="3">
+      <c r="AB24" s="3">
         <v>11600</v>
       </c>
-      <c r="AB24" s="3">
+      <c r="AC24" s="3">
         <v>6100</v>
       </c>
-      <c r="AC24" s="3">
+      <c r="AD24" s="3">
         <v>-2300</v>
       </c>
     </row>
-    <row r="25" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="25" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -2110,174 +2159,183 @@
       <c r="AC25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>-39300</v>
+      </c>
+      <c r="E26" s="3">
         <v>-31700</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
         <v>-400</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>34700</v>
       </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
         <v>26000</v>
       </c>
-      <c r="H26" s="3">
+      <c r="I26" s="3">
         <v>56700</v>
       </c>
-      <c r="I26" s="3">
+      <c r="J26" s="3">
         <v>81500</v>
       </c>
-      <c r="J26" s="3">
+      <c r="K26" s="3">
         <v>21500</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>225500</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>83200</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>67100</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>-4600</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>43400</v>
       </c>
-      <c r="P26" s="3">
+      <c r="Q26" s="3">
         <v>49100</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="R26" s="3">
         <v>47600</v>
       </c>
-      <c r="R26" s="3">
+      <c r="S26" s="3">
         <v>-25800</v>
       </c>
-      <c r="S26" s="3">
+      <c r="T26" s="3">
         <v>-74300</v>
       </c>
-      <c r="T26" s="3">
+      <c r="U26" s="3">
         <v>16300</v>
       </c>
-      <c r="U26" s="3">
+      <c r="V26" s="3">
         <v>47400</v>
       </c>
-      <c r="V26" s="3">
+      <c r="W26" s="3">
         <v>31000</v>
       </c>
-      <c r="W26" s="3">
+      <c r="X26" s="3">
         <v>2700</v>
       </c>
-      <c r="X26" s="3">
+      <c r="Y26" s="3">
         <v>204800</v>
       </c>
-      <c r="Y26" s="3">
+      <c r="Z26" s="3">
         <v>7100</v>
       </c>
-      <c r="Z26" s="3">
+      <c r="AA26" s="3">
         <v>-54900</v>
       </c>
-      <c r="AA26" s="3">
+      <c r="AB26" s="3">
         <v>-56000</v>
       </c>
-      <c r="AB26" s="3">
+      <c r="AC26" s="3">
         <v>11800</v>
       </c>
-      <c r="AC26" s="3">
+      <c r="AD26" s="3">
         <v>-3400</v>
       </c>
     </row>
-    <row r="27" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>-39300</v>
+      </c>
+      <c r="E27" s="3">
         <v>-31700</v>
       </c>
-      <c r="E27" s="3">
+      <c r="F27" s="3">
         <v>-400</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>34700</v>
       </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
         <v>26000</v>
       </c>
-      <c r="H27" s="3">
+      <c r="I27" s="3">
         <v>56700</v>
       </c>
-      <c r="I27" s="3">
+      <c r="J27" s="3">
         <v>81500</v>
       </c>
-      <c r="J27" s="3">
+      <c r="K27" s="3">
         <v>21500</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>225500</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>83200</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>67100</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>-4600</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>43400</v>
       </c>
-      <c r="P27" s="3">
+      <c r="Q27" s="3">
         <v>49100</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="R27" s="3">
         <v>47600</v>
       </c>
-      <c r="R27" s="3">
+      <c r="S27" s="3">
         <v>-25800</v>
       </c>
-      <c r="S27" s="3">
+      <c r="T27" s="3">
         <v>-74300</v>
       </c>
-      <c r="T27" s="3">
+      <c r="U27" s="3">
         <v>16200</v>
       </c>
-      <c r="U27" s="3">
+      <c r="V27" s="3">
         <v>46100</v>
       </c>
-      <c r="V27" s="3">
+      <c r="W27" s="3">
         <v>30000</v>
       </c>
-      <c r="W27" s="3">
+      <c r="X27" s="3">
         <v>2400</v>
       </c>
-      <c r="X27" s="3">
+      <c r="Y27" s="3">
         <v>199800</v>
       </c>
-      <c r="Y27" s="3">
+      <c r="Z27" s="3">
         <v>6900</v>
       </c>
-      <c r="Z27" s="3">
+      <c r="AA27" s="3">
         <v>-55200</v>
       </c>
-      <c r="AA27" s="3">
+      <c r="AB27" s="3">
         <v>-56200</v>
       </c>
-      <c r="AB27" s="3">
+      <c r="AC27" s="3">
         <v>11600</v>
       </c>
-      <c r="AC27" s="3">
+      <c r="AD27" s="3">
         <v>-3600</v>
       </c>
     </row>
-    <row r="28" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -2359,8 +2417,11 @@
       <c r="AC28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -2400,17 +2461,17 @@
       <c r="O29" s="3">
         <v>0</v>
       </c>
-      <c r="P29" s="3" t="s">
-        <v>17</v>
+      <c r="P29" s="3">
+        <v>0</v>
       </c>
       <c r="Q29" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="R29" s="3">
-        <v>0</v>
-      </c>
-      <c r="S29" s="3" t="s">
+      <c r="R29" s="3" t="s">
         <v>17</v>
+      </c>
+      <c r="S29" s="3">
+        <v>0</v>
       </c>
       <c r="T29" s="3" t="s">
         <v>17</v>
@@ -2418,17 +2479,17 @@
       <c r="U29" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="V29" s="3">
+      <c r="V29" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="W29" s="3">
         <v>2500</v>
       </c>
-      <c r="W29" s="3">
-        <v>0</v>
-      </c>
       <c r="X29" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y29" s="3">
         <v>-83000</v>
-      </c>
-      <c r="Y29" s="3" t="s">
-        <v>17</v>
       </c>
       <c r="Z29" s="3" t="s">
         <v>17</v>
@@ -2442,8 +2503,11 @@
       <c r="AC29" s="3" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="30" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD29" s="3" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="30" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -2525,8 +2589,11 @@
       <c r="AC30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -2608,174 +2675,183 @@
       <c r="AC31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
+        <v>-11400</v>
+      </c>
+      <c r="E32" s="3">
         <v>-3700</v>
       </c>
-      <c r="E32" s="3">
+      <c r="F32" s="3">
         <v>-13800</v>
       </c>
-      <c r="F32" s="3">
+      <c r="G32" s="3">
         <v>-8200</v>
       </c>
-      <c r="G32" s="3">
+      <c r="H32" s="3">
         <v>-2200</v>
       </c>
-      <c r="H32" s="3">
+      <c r="I32" s="3">
         <v>-1000</v>
       </c>
-      <c r="I32" s="3">
+      <c r="J32" s="3">
         <v>-600</v>
       </c>
-      <c r="J32" s="3">
+      <c r="K32" s="3">
         <v>-700</v>
       </c>
-      <c r="K32" s="3">
+      <c r="L32" s="3">
         <v>-2400</v>
       </c>
-      <c r="L32" s="3">
+      <c r="M32" s="3">
         <v>900</v>
       </c>
-      <c r="M32" s="3">
+      <c r="N32" s="3">
         <v>-600</v>
       </c>
-      <c r="N32" s="3">
+      <c r="O32" s="3">
         <v>-3500</v>
       </c>
-      <c r="O32" s="3">
+      <c r="P32" s="3">
         <v>-21700</v>
       </c>
-      <c r="P32" s="3">
+      <c r="Q32" s="3">
         <v>-1200</v>
       </c>
-      <c r="Q32" s="3">
+      <c r="R32" s="3">
         <v>-5000</v>
       </c>
-      <c r="R32" s="3">
+      <c r="S32" s="3">
         <v>-4100</v>
       </c>
-      <c r="S32" s="3">
+      <c r="T32" s="3">
         <v>-5200</v>
       </c>
-      <c r="T32" s="3">
+      <c r="U32" s="3">
         <v>-14700</v>
       </c>
-      <c r="U32" s="3">
+      <c r="V32" s="3">
         <v>-600</v>
       </c>
-      <c r="V32" s="3">
+      <c r="W32" s="3">
         <v>-11400</v>
       </c>
-      <c r="W32" s="3">
+      <c r="X32" s="3">
         <v>18200</v>
       </c>
-      <c r="X32" s="3">
+      <c r="Y32" s="3">
         <v>-9300</v>
       </c>
-      <c r="Y32" s="3">
+      <c r="Z32" s="3">
         <v>-5200</v>
       </c>
-      <c r="Z32" s="3">
+      <c r="AA32" s="3">
         <v>31500</v>
       </c>
-      <c r="AA32" s="3">
+      <c r="AB32" s="3">
         <v>58000</v>
       </c>
-      <c r="AB32" s="3">
+      <c r="AC32" s="3">
         <v>-4600</v>
       </c>
-      <c r="AC32" s="3">
+      <c r="AD32" s="3">
         <v>22500</v>
       </c>
     </row>
-    <row r="33" spans="2:29" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>-39300</v>
+      </c>
+      <c r="E33" s="3">
         <v>-31700</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
         <v>-400</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>34700</v>
       </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
         <v>26000</v>
       </c>
-      <c r="H33" s="3">
+      <c r="I33" s="3">
         <v>56700</v>
       </c>
-      <c r="I33" s="3">
+      <c r="J33" s="3">
         <v>81500</v>
       </c>
-      <c r="J33" s="3">
+      <c r="K33" s="3">
         <v>21500</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>225500</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>83200</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>67100</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>-4600</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>43400</v>
       </c>
-      <c r="P33" s="3">
+      <c r="Q33" s="3">
         <v>49100</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="R33" s="3">
         <v>47600</v>
       </c>
-      <c r="R33" s="3">
+      <c r="S33" s="3">
         <v>-25800</v>
       </c>
-      <c r="S33" s="3">
+      <c r="T33" s="3">
         <v>-74300</v>
       </c>
-      <c r="T33" s="3">
+      <c r="U33" s="3">
         <v>16200</v>
       </c>
-      <c r="U33" s="3">
+      <c r="V33" s="3">
         <v>46100</v>
       </c>
-      <c r="V33" s="3">
+      <c r="W33" s="3">
         <v>32500</v>
       </c>
-      <c r="W33" s="3">
+      <c r="X33" s="3">
         <v>2400</v>
       </c>
-      <c r="X33" s="3">
+      <c r="Y33" s="3">
         <v>116800</v>
       </c>
-      <c r="Y33" s="3">
+      <c r="Z33" s="3">
         <v>6900</v>
       </c>
-      <c r="Z33" s="3">
+      <c r="AA33" s="3">
         <v>-55200</v>
       </c>
-      <c r="AA33" s="3">
+      <c r="AB33" s="3">
         <v>-56200</v>
       </c>
-      <c r="AB33" s="3">
+      <c r="AC33" s="3">
         <v>11600</v>
       </c>
-      <c r="AC33" s="3">
+      <c r="AD33" s="3">
         <v>-3600</v>
       </c>
     </row>
-    <row r="34" spans="2:29" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2857,179 +2933,188 @@
       <c r="AC34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>-39300</v>
+      </c>
+      <c r="E35" s="3">
         <v>-31700</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
         <v>-400</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>34700</v>
       </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
         <v>26000</v>
       </c>
-      <c r="H35" s="3">
+      <c r="I35" s="3">
         <v>56700</v>
       </c>
-      <c r="I35" s="3">
+      <c r="J35" s="3">
         <v>81500</v>
       </c>
-      <c r="J35" s="3">
+      <c r="K35" s="3">
         <v>21500</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>225500</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>83200</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>67100</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>-4600</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>43400</v>
       </c>
-      <c r="P35" s="3">
+      <c r="Q35" s="3">
         <v>49100</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="R35" s="3">
         <v>47600</v>
       </c>
-      <c r="R35" s="3">
+      <c r="S35" s="3">
         <v>-25800</v>
       </c>
-      <c r="S35" s="3">
+      <c r="T35" s="3">
         <v>-74300</v>
       </c>
-      <c r="T35" s="3">
+      <c r="U35" s="3">
         <v>16200</v>
       </c>
-      <c r="U35" s="3">
+      <c r="V35" s="3">
         <v>46100</v>
       </c>
-      <c r="V35" s="3">
+      <c r="W35" s="3">
         <v>32500</v>
       </c>
-      <c r="W35" s="3">
+      <c r="X35" s="3">
         <v>2400</v>
       </c>
-      <c r="X35" s="3">
+      <c r="Y35" s="3">
         <v>116800</v>
       </c>
-      <c r="Y35" s="3">
+      <c r="Z35" s="3">
         <v>6900</v>
       </c>
-      <c r="Z35" s="3">
+      <c r="AA35" s="3">
         <v>-55200</v>
       </c>
-      <c r="AA35" s="3">
+      <c r="AB35" s="3">
         <v>-56200</v>
       </c>
-      <c r="AB35" s="3">
+      <c r="AC35" s="3">
         <v>11600</v>
       </c>
-      <c r="AC35" s="3">
+      <c r="AD35" s="3">
         <v>-3600</v>
       </c>
     </row>
-    <row r="37" spans="2:29" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:30" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:29" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>45017</v>
+      </c>
+      <c r="E38" s="2">
         <v>44926</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44835</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44744</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44653</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>44562</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>44471</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>44380</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>44289</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>44191</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>44100</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>44009</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>43918</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>43827</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>43736</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>43645</v>
       </c>
-      <c r="S38" s="2">
+      <c r="T38" s="2">
         <v>43554</v>
       </c>
-      <c r="T38" s="2">
+      <c r="U38" s="2">
         <v>43463</v>
       </c>
-      <c r="U38" s="2">
+      <c r="V38" s="2">
         <v>43372</v>
       </c>
-      <c r="V38" s="2">
+      <c r="W38" s="2">
         <v>43281</v>
       </c>
-      <c r="W38" s="2">
+      <c r="X38" s="2">
         <v>43190</v>
       </c>
-      <c r="X38" s="2">
+      <c r="Y38" s="2">
         <v>43099</v>
       </c>
-      <c r="Y38" s="2">
+      <c r="Z38" s="2">
         <v>43008</v>
       </c>
-      <c r="Z38" s="2">
+      <c r="AA38" s="2">
         <v>42917</v>
       </c>
-      <c r="AA38" s="2">
+      <c r="AB38" s="2">
         <v>42826</v>
       </c>
-      <c r="AB38" s="2">
+      <c r="AC38" s="2">
         <v>42735</v>
       </c>
-      <c r="AC38" s="2">
+      <c r="AD38" s="2">
         <v>42644</v>
       </c>
     </row>
-    <row r="39" spans="2:29" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -3059,8 +3144,9 @@
       <c r="AA39" s="3"/>
       <c r="AB39" s="3"/>
       <c r="AC39" s="3"/>
-    </row>
-    <row r="40" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD39" s="3"/>
+    </row>
+    <row r="40" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -3090,165 +3176,169 @@
       <c r="AA40" s="3"/>
       <c r="AB40" s="3"/>
       <c r="AC40" s="3"/>
-    </row>
-    <row r="41" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD40" s="3"/>
+    </row>
+    <row r="41" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>549200</v>
+      </c>
+      <c r="E41" s="3">
         <v>592100</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>605300</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>1290200</v>
       </c>
-      <c r="G41" s="3">
+      <c r="H41" s="3">
         <v>1130300</v>
       </c>
-      <c r="H41" s="3">
+      <c r="I41" s="3">
         <v>552000</v>
       </c>
-      <c r="I41" s="3">
+      <c r="J41" s="3">
         <v>611000</v>
       </c>
-      <c r="J41" s="3">
+      <c r="K41" s="3">
         <v>774300</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>687700</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>321300</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>269500</v>
       </c>
-      <c r="N41" s="3">
+      <c r="O41" s="3">
         <v>298000</v>
       </c>
-      <c r="O41" s="3">
+      <c r="P41" s="3">
         <v>688300</v>
       </c>
-      <c r="P41" s="3">
+      <c r="Q41" s="3">
         <v>1085000</v>
       </c>
-      <c r="Q41" s="3">
+      <c r="R41" s="3">
         <v>539000</v>
       </c>
-      <c r="R41" s="3">
+      <c r="S41" s="3">
         <v>432600</v>
       </c>
-      <c r="S41" s="3">
+      <c r="T41" s="3">
         <v>357300</v>
       </c>
-      <c r="T41" s="3">
+      <c r="U41" s="3">
         <v>371300</v>
       </c>
-      <c r="U41" s="3">
+      <c r="V41" s="3">
         <v>459400</v>
       </c>
-      <c r="V41" s="3">
+      <c r="W41" s="3">
         <v>397300</v>
       </c>
-      <c r="W41" s="3">
+      <c r="X41" s="3">
         <v>176800</v>
       </c>
-      <c r="X41" s="3">
+      <c r="Y41" s="3">
         <v>202100</v>
       </c>
-      <c r="Y41" s="3">
+      <c r="Z41" s="3">
         <v>150800</v>
       </c>
-      <c r="Z41" s="3">
+      <c r="AA41" s="3">
         <v>272900</v>
       </c>
-      <c r="AA41" s="3">
+      <c r="AB41" s="3">
         <v>577900</v>
       </c>
-      <c r="AB41" s="3">
+      <c r="AC41" s="3">
         <v>155900</v>
       </c>
-      <c r="AC41" s="3">
+      <c r="AD41" s="3">
         <v>166800</v>
       </c>
     </row>
-    <row r="42" spans="2:29" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
       <c r="D42" s="3">
+        <v>1118000</v>
+      </c>
+      <c r="E42" s="3">
         <v>1088300</v>
       </c>
-      <c r="E42" s="3">
+      <c r="F42" s="3">
         <v>1019600</v>
       </c>
-      <c r="F42" s="3">
+      <c r="G42" s="3">
         <v>1258800</v>
       </c>
-      <c r="G42" s="3">
+      <c r="H42" s="3">
         <v>1433800</v>
       </c>
-      <c r="H42" s="3">
+      <c r="I42" s="3">
         <v>1470400</v>
       </c>
-      <c r="I42" s="3">
+      <c r="J42" s="3">
         <v>1273600</v>
       </c>
-      <c r="J42" s="3">
+      <c r="K42" s="3">
         <v>1171700</v>
       </c>
-      <c r="K42" s="3">
+      <c r="L42" s="3">
         <v>1366900</v>
       </c>
-      <c r="L42" s="3">
+      <c r="M42" s="3">
         <v>1379000</v>
       </c>
-      <c r="M42" s="3">
+      <c r="N42" s="3">
         <v>1341200</v>
       </c>
-      <c r="N42" s="3">
+      <c r="O42" s="3">
         <v>1255800</v>
       </c>
-      <c r="O42" s="3">
+      <c r="P42" s="3">
         <v>763100</v>
       </c>
-      <c r="P42" s="3">
+      <c r="Q42" s="3">
         <v>230600</v>
       </c>
-      <c r="Q42" s="3">
+      <c r="R42" s="3">
         <v>291900</v>
       </c>
-      <c r="R42" s="3">
+      <c r="S42" s="3">
         <v>335900</v>
       </c>
-      <c r="S42" s="3">
+      <c r="T42" s="3">
         <v>340200</v>
       </c>
-      <c r="T42" s="3">
+      <c r="U42" s="3">
         <v>312800</v>
       </c>
-      <c r="U42" s="3">
+      <c r="V42" s="3">
         <v>274900</v>
       </c>
-      <c r="V42" s="3">
+      <c r="W42" s="3">
         <v>314200</v>
       </c>
-      <c r="W42" s="3">
+      <c r="X42" s="3">
         <v>516000</v>
       </c>
-      <c r="X42" s="3">
+      <c r="Y42" s="3">
         <v>422400</v>
       </c>
-      <c r="Y42" s="3">
+      <c r="Z42" s="3">
         <v>381700</v>
       </c>
-      <c r="Z42" s="3">
+      <c r="AA42" s="3">
         <v>282400</v>
-      </c>
-      <c r="AA42" s="3" t="s">
-        <v>17</v>
       </c>
       <c r="AB42" s="3" t="s">
         <v>17</v>
@@ -3256,340 +3346,355 @@
       <c r="AC42" s="3" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="43" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD42" s="3" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="43" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
+        <v>278000</v>
+      </c>
+      <c r="E43" s="3">
         <v>330500</v>
       </c>
-      <c r="E43" s="3">
+      <c r="F43" s="3">
         <v>340500</v>
       </c>
-      <c r="F43" s="3">
+      <c r="G43" s="3">
         <v>262000</v>
       </c>
-      <c r="G43" s="3">
+      <c r="H43" s="3">
         <v>242200</v>
       </c>
-      <c r="H43" s="3">
+      <c r="I43" s="3">
         <v>239200</v>
       </c>
-      <c r="I43" s="3">
+      <c r="J43" s="3">
         <v>263200</v>
       </c>
-      <c r="J43" s="3">
+      <c r="K43" s="3">
         <v>212800</v>
       </c>
-      <c r="K43" s="3">
+      <c r="L43" s="3">
         <v>224800</v>
       </c>
-      <c r="L43" s="3">
+      <c r="M43" s="3">
         <v>276700</v>
       </c>
-      <c r="M43" s="3">
+      <c r="N43" s="3">
         <v>263600</v>
       </c>
-      <c r="N43" s="3">
+      <c r="O43" s="3">
         <v>233500</v>
       </c>
-      <c r="O43" s="3">
+      <c r="P43" s="3">
         <v>303100</v>
       </c>
-      <c r="P43" s="3">
+      <c r="Q43" s="3">
         <v>343600</v>
       </c>
-      <c r="Q43" s="3">
+      <c r="R43" s="3">
         <v>339600</v>
       </c>
-      <c r="R43" s="3">
+      <c r="S43" s="3">
         <v>286200</v>
       </c>
-      <c r="S43" s="3">
+      <c r="T43" s="3">
         <v>329700</v>
       </c>
-      <c r="T43" s="3">
+      <c r="U43" s="3">
         <v>266500</v>
       </c>
-      <c r="U43" s="3">
+      <c r="V43" s="3">
         <v>239600</v>
       </c>
-      <c r="V43" s="3">
+      <c r="W43" s="3">
         <v>197100</v>
       </c>
-      <c r="W43" s="3">
+      <c r="X43" s="3">
         <v>164700</v>
       </c>
-      <c r="X43" s="3">
+      <c r="Y43" s="3">
         <v>222100</v>
       </c>
-      <c r="Y43" s="3">
+      <c r="Z43" s="3">
         <v>173800</v>
       </c>
-      <c r="Z43" s="3">
+      <c r="AA43" s="3">
         <v>166300</v>
       </c>
-      <c r="AA43" s="3">
+      <c r="AB43" s="3">
         <v>185400</v>
       </c>
-      <c r="AB43" s="3">
+      <c r="AC43" s="3">
         <v>192500</v>
       </c>
-      <c r="AC43" s="3">
+      <c r="AD43" s="3">
         <v>156500</v>
       </c>
     </row>
-    <row r="44" spans="2:29" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
+        <v>410200</v>
+      </c>
+      <c r="E44" s="3">
         <v>366900</v>
       </c>
-      <c r="E44" s="3">
+      <c r="F44" s="3">
         <v>366200</v>
       </c>
-      <c r="F44" s="3">
+      <c r="G44" s="3">
         <v>250100</v>
       </c>
-      <c r="G44" s="3">
+      <c r="H44" s="3">
         <v>224000</v>
       </c>
-      <c r="H44" s="3">
+      <c r="I44" s="3">
         <v>208100</v>
       </c>
-      <c r="I44" s="3">
+      <c r="J44" s="3">
         <v>207000</v>
       </c>
-      <c r="J44" s="3">
+      <c r="K44" s="3">
         <v>196400</v>
       </c>
-      <c r="K44" s="3">
+      <c r="L44" s="3">
         <v>210700</v>
       </c>
-      <c r="L44" s="3">
+      <c r="M44" s="3">
         <v>207100</v>
       </c>
-      <c r="M44" s="3">
+      <c r="N44" s="3">
         <v>212600</v>
       </c>
-      <c r="N44" s="3">
+      <c r="O44" s="3">
         <v>188900</v>
       </c>
-      <c r="O44" s="3">
+      <c r="P44" s="3">
         <v>172700</v>
       </c>
-      <c r="P44" s="3">
+      <c r="Q44" s="3">
         <v>179600</v>
       </c>
-      <c r="Q44" s="3">
+      <c r="R44" s="3">
         <v>202200</v>
       </c>
-      <c r="R44" s="3">
+      <c r="S44" s="3">
         <v>228800</v>
       </c>
-      <c r="S44" s="3">
+      <c r="T44" s="3">
         <v>272200</v>
       </c>
-      <c r="T44" s="3">
+      <c r="U44" s="3">
         <v>303200</v>
       </c>
-      <c r="U44" s="3">
+      <c r="V44" s="3">
         <v>136600</v>
       </c>
-      <c r="V44" s="3">
+      <c r="W44" s="3">
         <v>153600</v>
       </c>
-      <c r="W44" s="3">
+      <c r="X44" s="3">
         <v>144200</v>
       </c>
-      <c r="X44" s="3">
+      <c r="Y44" s="3">
         <v>147300</v>
       </c>
-      <c r="Y44" s="3">
+      <c r="Z44" s="3">
         <v>147200</v>
       </c>
-      <c r="Z44" s="3">
+      <c r="AA44" s="3">
         <v>145200</v>
       </c>
-      <c r="AA44" s="3">
+      <c r="AB44" s="3">
         <v>116900</v>
       </c>
-      <c r="AB44" s="3">
+      <c r="AC44" s="3">
         <v>121000</v>
       </c>
-      <c r="AC44" s="3">
+      <c r="AD44" s="3">
         <v>103700</v>
       </c>
     </row>
-    <row r="45" spans="2:29" x14ac:dyDescent="0.2">
+    <row r="45" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
+        <v>108200</v>
+      </c>
+      <c r="E45" s="3">
         <v>114800</v>
       </c>
-      <c r="E45" s="3">
+      <c r="F45" s="3">
         <v>106800</v>
       </c>
-      <c r="F45" s="3">
+      <c r="G45" s="3">
         <v>78100</v>
       </c>
-      <c r="G45" s="3">
+      <c r="H45" s="3">
         <v>70300</v>
       </c>
-      <c r="H45" s="3">
+      <c r="I45" s="3">
         <v>70400</v>
       </c>
-      <c r="I45" s="3">
+      <c r="J45" s="3">
         <v>68200</v>
       </c>
-      <c r="J45" s="3">
+      <c r="K45" s="3">
         <v>81600</v>
       </c>
-      <c r="K45" s="3">
+      <c r="L45" s="3">
         <v>79700</v>
       </c>
-      <c r="L45" s="3">
+      <c r="M45" s="3">
         <v>82100</v>
       </c>
-      <c r="M45" s="3">
+      <c r="N45" s="3">
         <v>79800</v>
       </c>
-      <c r="N45" s="3">
+      <c r="O45" s="3">
         <v>73800</v>
       </c>
-      <c r="O45" s="3">
+      <c r="P45" s="3">
         <v>35800</v>
       </c>
-      <c r="P45" s="3">
+      <c r="Q45" s="3">
         <v>44200</v>
       </c>
-      <c r="Q45" s="3">
+      <c r="R45" s="3">
         <v>50500</v>
       </c>
-      <c r="R45" s="3">
+      <c r="S45" s="3">
         <v>49300</v>
       </c>
-      <c r="S45" s="3">
+      <c r="T45" s="3">
         <v>118700</v>
       </c>
-      <c r="T45" s="3">
+      <c r="U45" s="3">
         <v>103100</v>
       </c>
-      <c r="U45" s="3">
+      <c r="V45" s="3">
         <v>70600</v>
       </c>
-      <c r="V45" s="3">
+      <c r="W45" s="3">
         <v>65000</v>
       </c>
-      <c r="W45" s="3">
+      <c r="X45" s="3">
         <v>63000</v>
       </c>
-      <c r="X45" s="3">
+      <c r="Y45" s="3">
         <v>59900</v>
       </c>
-      <c r="Y45" s="3">
+      <c r="Z45" s="3">
         <v>69000</v>
       </c>
-      <c r="Z45" s="3">
+      <c r="AA45" s="3">
         <v>63500</v>
       </c>
-      <c r="AA45" s="3">
+      <c r="AB45" s="3">
         <v>61400</v>
       </c>
-      <c r="AB45" s="3">
+      <c r="AC45" s="3">
         <v>58200</v>
       </c>
-      <c r="AC45" s="3">
+      <c r="AD45" s="3">
         <v>62300</v>
       </c>
     </row>
-    <row r="46" spans="2:29" x14ac:dyDescent="0.2">
+    <row r="46" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>2463600</v>
+      </c>
+      <c r="E46" s="3">
         <v>2492600</v>
       </c>
-      <c r="E46" s="3">
+      <c r="F46" s="3">
         <v>2438400</v>
       </c>
-      <c r="F46" s="3">
+      <c r="G46" s="3">
         <v>3139200</v>
       </c>
-      <c r="G46" s="3">
+      <c r="H46" s="3">
         <v>3100600</v>
       </c>
-      <c r="H46" s="3">
+      <c r="I46" s="3">
         <v>2540100</v>
       </c>
-      <c r="I46" s="3">
+      <c r="J46" s="3">
         <v>2423000</v>
       </c>
-      <c r="J46" s="3">
+      <c r="K46" s="3">
         <v>2436800</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>2569800</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>2266200</v>
       </c>
-      <c r="M46" s="3">
+      <c r="N46" s="3">
         <v>2166700</v>
       </c>
-      <c r="N46" s="3">
+      <c r="O46" s="3">
         <v>2050000</v>
       </c>
-      <c r="O46" s="3">
+      <c r="P46" s="3">
         <v>1963000</v>
       </c>
-      <c r="P46" s="3">
+      <c r="Q46" s="3">
         <v>1883000</v>
       </c>
-      <c r="Q46" s="3">
+      <c r="R46" s="3">
         <v>1423200</v>
       </c>
-      <c r="R46" s="3">
+      <c r="S46" s="3">
         <v>1332800</v>
       </c>
-      <c r="S46" s="3">
+      <c r="T46" s="3">
         <v>1418100</v>
       </c>
-      <c r="T46" s="3">
+      <c r="U46" s="3">
         <v>1356900</v>
       </c>
-      <c r="U46" s="3">
+      <c r="V46" s="3">
         <v>1181100</v>
       </c>
-      <c r="V46" s="3">
+      <c r="W46" s="3">
         <v>1127200</v>
       </c>
-      <c r="W46" s="3">
+      <c r="X46" s="3">
         <v>1064700</v>
       </c>
-      <c r="X46" s="3">
+      <c r="Y46" s="3">
         <v>1053800</v>
       </c>
-      <c r="Y46" s="3">
+      <c r="Z46" s="3">
         <v>922500</v>
       </c>
-      <c r="Z46" s="3">
+      <c r="AA46" s="3">
         <v>930300</v>
       </c>
-      <c r="AA46" s="3">
+      <c r="AB46" s="3">
         <v>941600</v>
       </c>
-      <c r="AB46" s="3">
+      <c r="AC46" s="3">
         <v>527600</v>
       </c>
-      <c r="AC46" s="3">
+      <c r="AD46" s="3">
         <v>489300</v>
       </c>
     </row>
-    <row r="47" spans="2:29" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -3671,174 +3776,183 @@
       <c r="AC47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>564400</v>
+      </c>
+      <c r="E48" s="3">
         <v>572600</v>
       </c>
-      <c r="E48" s="3">
+      <c r="F48" s="3">
         <v>567400</v>
       </c>
-      <c r="F48" s="3">
+      <c r="G48" s="3">
         <v>434100</v>
       </c>
-      <c r="G48" s="3">
+      <c r="H48" s="3">
         <v>430700</v>
       </c>
-      <c r="H48" s="3">
+      <c r="I48" s="3">
         <v>434700</v>
       </c>
-      <c r="I48" s="3">
+      <c r="J48" s="3">
         <v>428400</v>
       </c>
-      <c r="J48" s="3">
+      <c r="K48" s="3">
         <v>428500</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>448300</v>
       </c>
-      <c r="L48" s="3">
+      <c r="M48" s="3">
         <v>457600</v>
       </c>
-      <c r="M48" s="3">
+      <c r="N48" s="3">
         <v>468100</v>
       </c>
-      <c r="N48" s="3">
+      <c r="O48" s="3">
         <v>471700</v>
       </c>
-      <c r="O48" s="3">
+      <c r="P48" s="3">
         <v>491800</v>
       </c>
-      <c r="P48" s="3">
+      <c r="Q48" s="3">
         <v>505700</v>
       </c>
-      <c r="Q48" s="3">
+      <c r="R48" s="3">
         <v>524900</v>
       </c>
-      <c r="R48" s="3">
+      <c r="S48" s="3">
         <v>433300</v>
       </c>
-      <c r="S48" s="3">
+      <c r="T48" s="3">
         <v>390600</v>
       </c>
-      <c r="T48" s="3">
+      <c r="U48" s="3">
         <v>444700</v>
       </c>
-      <c r="U48" s="3">
+      <c r="V48" s="3">
         <v>318600</v>
       </c>
-      <c r="V48" s="3">
+      <c r="W48" s="3">
         <v>280600</v>
       </c>
-      <c r="W48" s="3">
+      <c r="X48" s="3">
         <v>264500</v>
       </c>
-      <c r="X48" s="3">
+      <c r="Y48" s="3">
         <v>301300</v>
       </c>
-      <c r="Y48" s="3">
+      <c r="Z48" s="3">
         <v>293700</v>
       </c>
-      <c r="Z48" s="3">
+      <c r="AA48" s="3">
         <v>273500</v>
       </c>
-      <c r="AA48" s="3">
+      <c r="AB48" s="3">
         <v>246600</v>
       </c>
-      <c r="AB48" s="3">
+      <c r="AC48" s="3">
         <v>219600</v>
       </c>
-      <c r="AC48" s="3">
+      <c r="AD48" s="3">
         <v>196000</v>
       </c>
     </row>
-    <row r="49" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="49" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
+        <v>1194600</v>
+      </c>
+      <c r="E49" s="3">
         <v>1238100</v>
       </c>
-      <c r="E49" s="3">
+      <c r="F49" s="3">
         <v>1269700</v>
       </c>
-      <c r="F49" s="3">
+      <c r="G49" s="3">
         <v>524600</v>
       </c>
-      <c r="G49" s="3">
+      <c r="H49" s="3">
         <v>545800</v>
       </c>
-      <c r="H49" s="3">
+      <c r="I49" s="3">
         <v>567200</v>
       </c>
-      <c r="I49" s="3">
+      <c r="J49" s="3">
         <v>588700</v>
       </c>
-      <c r="J49" s="3">
+      <c r="K49" s="3">
         <v>610100</v>
       </c>
-      <c r="K49" s="3">
+      <c r="L49" s="3">
         <v>632100</v>
       </c>
-      <c r="L49" s="3">
+      <c r="M49" s="3">
         <v>654100</v>
       </c>
-      <c r="M49" s="3">
+      <c r="N49" s="3">
         <v>665000</v>
       </c>
-      <c r="N49" s="3">
+      <c r="O49" s="3">
         <v>685700</v>
       </c>
-      <c r="O49" s="3">
+      <c r="P49" s="3">
         <v>706900</v>
       </c>
-      <c r="P49" s="3">
+      <c r="Q49" s="3">
         <v>726900</v>
       </c>
-      <c r="Q49" s="3">
+      <c r="R49" s="3">
         <v>745500</v>
       </c>
-      <c r="R49" s="3">
+      <c r="S49" s="3">
         <v>764300</v>
       </c>
-      <c r="S49" s="3">
+      <c r="T49" s="3">
         <v>772100</v>
       </c>
-      <c r="T49" s="3">
+      <c r="U49" s="3">
         <v>789700</v>
       </c>
-      <c r="U49" s="3">
+      <c r="V49" s="3">
         <v>17600</v>
       </c>
-      <c r="V49" s="3">
+      <c r="W49" s="3">
         <v>44600</v>
       </c>
-      <c r="W49" s="3">
+      <c r="X49" s="3">
         <v>57200</v>
       </c>
-      <c r="X49" s="3">
+      <c r="Y49" s="3">
         <v>20400</v>
       </c>
-      <c r="Y49" s="3">
+      <c r="Z49" s="3">
         <v>21000</v>
       </c>
-      <c r="Z49" s="3">
+      <c r="AA49" s="3">
         <v>21500</v>
       </c>
-      <c r="AA49" s="3">
+      <c r="AB49" s="3">
         <v>22300</v>
       </c>
-      <c r="AB49" s="3">
+      <c r="AC49" s="3">
         <v>16000</v>
       </c>
-      <c r="AC49" s="3">
+      <c r="AD49" s="3">
         <v>18100</v>
       </c>
     </row>
-    <row r="50" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="50" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -3920,8 +4034,11 @@
       <c r="AC50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -4003,91 +4120,97 @@
       <c r="AC51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
+        <v>131400</v>
+      </c>
+      <c r="E52" s="3">
         <v>114800</v>
       </c>
-      <c r="E52" s="3">
+      <c r="F52" s="3">
         <v>111900</v>
       </c>
-      <c r="F52" s="3">
+      <c r="G52" s="3">
         <v>64300</v>
       </c>
-      <c r="G52" s="3">
+      <c r="H52" s="3">
         <v>56400</v>
       </c>
-      <c r="H52" s="3">
+      <c r="I52" s="3">
         <v>73700</v>
       </c>
-      <c r="I52" s="3">
+      <c r="J52" s="3">
         <v>78900</v>
       </c>
-      <c r="J52" s="3">
+      <c r="K52" s="3">
         <v>76200</v>
       </c>
-      <c r="K52" s="3">
+      <c r="L52" s="3">
         <v>95700</v>
       </c>
-      <c r="L52" s="3">
+      <c r="M52" s="3">
         <v>90300</v>
       </c>
-      <c r="M52" s="3">
+      <c r="N52" s="3">
         <v>87600</v>
       </c>
-      <c r="N52" s="3">
+      <c r="O52" s="3">
         <v>85200</v>
       </c>
-      <c r="O52" s="3">
+      <c r="P52" s="3">
         <v>107000</v>
       </c>
-      <c r="P52" s="3">
+      <c r="Q52" s="3">
         <v>105600</v>
       </c>
-      <c r="Q52" s="3">
+      <c r="R52" s="3">
         <v>174200</v>
       </c>
-      <c r="R52" s="3">
+      <c r="S52" s="3">
         <v>186200</v>
       </c>
-      <c r="S52" s="3">
+      <c r="T52" s="3">
         <v>190600</v>
       </c>
-      <c r="T52" s="3">
+      <c r="U52" s="3">
         <v>205300</v>
       </c>
-      <c r="U52" s="3">
+      <c r="V52" s="3">
         <v>127700</v>
       </c>
-      <c r="V52" s="3">
+      <c r="W52" s="3">
         <v>129100</v>
       </c>
-      <c r="W52" s="3">
+      <c r="X52" s="3">
         <v>131800</v>
       </c>
-      <c r="X52" s="3">
+      <c r="Y52" s="3">
         <v>131900</v>
       </c>
-      <c r="Y52" s="3">
+      <c r="Z52" s="3">
         <v>11200</v>
       </c>
-      <c r="Z52" s="3">
+      <c r="AA52" s="3">
         <v>7600</v>
       </c>
-      <c r="AA52" s="3">
+      <c r="AB52" s="3">
         <v>34000</v>
       </c>
-      <c r="AB52" s="3">
+      <c r="AC52" s="3">
         <v>33500</v>
       </c>
-      <c r="AC52" s="3">
+      <c r="AD52" s="3">
         <v>34100</v>
       </c>
     </row>
-    <row r="53" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="53" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -4169,91 +4292,97 @@
       <c r="AC53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>4354000</v>
+      </c>
+      <c r="E54" s="3">
         <v>4418100</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>4387400</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>4162200</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>4133500</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>3615700</v>
       </c>
-      <c r="I54" s="3">
+      <c r="J54" s="3">
         <v>3519000</v>
       </c>
-      <c r="J54" s="3">
+      <c r="K54" s="3">
         <v>3551600</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>3745900</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>3468200</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>3387400</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>3292600</v>
       </c>
-      <c r="O54" s="3">
+      <c r="P54" s="3">
         <v>3268700</v>
       </c>
-      <c r="P54" s="3">
+      <c r="Q54" s="3">
         <v>3221200</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="R54" s="3">
         <v>2867800</v>
       </c>
-      <c r="R54" s="3">
+      <c r="S54" s="3">
         <v>2716600</v>
       </c>
-      <c r="S54" s="3">
+      <c r="T54" s="3">
         <v>2771400</v>
       </c>
-      <c r="T54" s="3">
+      <c r="U54" s="3">
         <v>2796600</v>
       </c>
-      <c r="U54" s="3">
+      <c r="V54" s="3">
         <v>1645000</v>
       </c>
-      <c r="V54" s="3">
+      <c r="W54" s="3">
         <v>1581500</v>
       </c>
-      <c r="W54" s="3">
+      <c r="X54" s="3">
         <v>1518200</v>
       </c>
-      <c r="X54" s="3">
+      <c r="Y54" s="3">
         <v>1507400</v>
       </c>
-      <c r="Y54" s="3">
+      <c r="Z54" s="3">
         <v>1248400</v>
       </c>
-      <c r="Z54" s="3">
+      <c r="AA54" s="3">
         <v>1232900</v>
       </c>
-      <c r="AA54" s="3">
+      <c r="AB54" s="3">
         <v>1244500</v>
       </c>
-      <c r="AB54" s="3">
+      <c r="AC54" s="3">
         <v>796700</v>
       </c>
-      <c r="AC54" s="3">
+      <c r="AD54" s="3">
         <v>737500</v>
       </c>
     </row>
-    <row r="55" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -4283,8 +4412,9 @@
       <c r="AA55" s="3"/>
       <c r="AB55" s="3"/>
       <c r="AC55" s="3"/>
-    </row>
-    <row r="56" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD55" s="3"/>
+    </row>
+    <row r="56" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -4314,162 +4444,166 @@
       <c r="AA56" s="3"/>
       <c r="AB56" s="3"/>
       <c r="AC56" s="3"/>
-    </row>
-    <row r="57" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD56" s="3"/>
+    </row>
+    <row r="57" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>198700</v>
+      </c>
+      <c r="E57" s="3">
         <v>205600</v>
       </c>
-      <c r="E57" s="3">
+      <c r="F57" s="3">
         <v>205700</v>
       </c>
-      <c r="F57" s="3">
+      <c r="G57" s="3">
         <v>156700</v>
       </c>
-      <c r="G57" s="3">
+      <c r="H57" s="3">
         <v>126800</v>
       </c>
-      <c r="H57" s="3">
+      <c r="I57" s="3">
         <v>118200</v>
       </c>
-      <c r="I57" s="3">
+      <c r="J57" s="3">
         <v>101600</v>
       </c>
-      <c r="J57" s="3">
+      <c r="K57" s="3">
         <v>116900</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>104700</v>
       </c>
-      <c r="L57" s="3">
+      <c r="M57" s="3">
         <v>111300</v>
       </c>
-      <c r="M57" s="3">
+      <c r="N57" s="3">
         <v>146000</v>
       </c>
-      <c r="N57" s="3">
+      <c r="O57" s="3">
         <v>150800</v>
       </c>
-      <c r="O57" s="3">
+      <c r="P57" s="3">
         <v>144600</v>
       </c>
-      <c r="P57" s="3">
+      <c r="Q57" s="3">
         <v>143700</v>
       </c>
-      <c r="Q57" s="3">
+      <c r="R57" s="3">
         <v>152200</v>
       </c>
-      <c r="R57" s="3">
+      <c r="S57" s="3">
         <v>160800</v>
       </c>
-      <c r="S57" s="3">
+      <c r="T57" s="3">
         <v>204100</v>
       </c>
-      <c r="T57" s="3">
+      <c r="U57" s="3">
         <v>199200</v>
       </c>
-      <c r="U57" s="3">
+      <c r="V57" s="3">
         <v>127600</v>
       </c>
-      <c r="V57" s="3">
+      <c r="W57" s="3">
         <v>126500</v>
       </c>
-      <c r="W57" s="3">
+      <c r="X57" s="3">
         <v>100900</v>
       </c>
-      <c r="X57" s="3">
+      <c r="Y57" s="3">
         <v>113000</v>
       </c>
-      <c r="Y57" s="3">
+      <c r="Z57" s="3">
         <v>111600</v>
       </c>
-      <c r="Z57" s="3">
+      <c r="AA57" s="3">
         <v>114800</v>
       </c>
-      <c r="AA57" s="3">
+      <c r="AB57" s="3">
         <v>118400</v>
       </c>
-      <c r="AB57" s="3">
+      <c r="AC57" s="3">
         <v>127800</v>
       </c>
-      <c r="AC57" s="3">
+      <c r="AD57" s="3">
         <v>108300</v>
       </c>
     </row>
-    <row r="58" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
+        <v>426200</v>
+      </c>
+      <c r="E58" s="3">
         <v>420700</v>
       </c>
-      <c r="E58" s="3">
+      <c r="F58" s="3">
         <v>420200</v>
       </c>
-      <c r="F58" s="3">
+      <c r="G58" s="3">
         <v>409900</v>
       </c>
-      <c r="G58" s="3">
+      <c r="H58" s="3">
         <v>406100</v>
       </c>
-      <c r="H58" s="3">
+      <c r="I58" s="3">
         <v>401000</v>
       </c>
-      <c r="I58" s="3">
+      <c r="J58" s="3">
         <v>395800</v>
       </c>
-      <c r="J58" s="3">
+      <c r="K58" s="3">
         <v>390700</v>
       </c>
-      <c r="K58" s="3">
+      <c r="L58" s="3">
         <v>385400</v>
       </c>
-      <c r="L58" s="3">
+      <c r="M58" s="3">
         <v>380600</v>
       </c>
-      <c r="M58" s="3">
+      <c r="N58" s="3">
         <v>400</v>
       </c>
-      <c r="N58" s="3">
+      <c r="O58" s="3">
         <v>600</v>
       </c>
-      <c r="O58" s="3">
+      <c r="P58" s="3">
         <v>3900</v>
       </c>
-      <c r="P58" s="3">
+      <c r="Q58" s="3">
         <v>7100</v>
       </c>
-      <c r="Q58" s="3">
+      <c r="R58" s="3">
         <v>15900</v>
       </c>
-      <c r="R58" s="3">
+      <c r="S58" s="3">
         <v>5400</v>
       </c>
-      <c r="S58" s="3">
+      <c r="T58" s="3">
         <v>5800</v>
       </c>
-      <c r="T58" s="3">
+      <c r="U58" s="3">
         <v>8700</v>
       </c>
-      <c r="U58" s="3">
+      <c r="V58" s="3">
         <v>5400</v>
       </c>
-      <c r="V58" s="3">
+      <c r="W58" s="3">
         <v>7300</v>
       </c>
-      <c r="W58" s="3">
+      <c r="X58" s="3">
         <v>9200</v>
       </c>
-      <c r="X58" s="3">
+      <c r="Y58" s="3">
         <v>9100</v>
       </c>
-      <c r="Y58" s="3">
+      <c r="Z58" s="3">
         <v>4900</v>
-      </c>
-      <c r="Z58" s="3" t="s">
-        <v>17</v>
       </c>
       <c r="AA58" s="3" t="s">
         <v>17</v>
@@ -4480,340 +4614,355 @@
       <c r="AC58" s="3" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="59" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD58" s="3" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="59" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>144000</v>
+      </c>
+      <c r="E59" s="3">
         <v>188000</v>
       </c>
-      <c r="E59" s="3">
+      <c r="F59" s="3">
         <v>176900</v>
       </c>
-      <c r="F59" s="3">
+      <c r="G59" s="3">
         <v>149900</v>
       </c>
-      <c r="G59" s="3">
+      <c r="H59" s="3">
         <v>127800</v>
       </c>
-      <c r="H59" s="3">
+      <c r="I59" s="3">
         <v>137500</v>
       </c>
-      <c r="I59" s="3">
+      <c r="J59" s="3">
         <v>114300</v>
       </c>
-      <c r="J59" s="3">
+      <c r="K59" s="3">
         <v>157000</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>184100</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>155400</v>
       </c>
-      <c r="M59" s="3">
+      <c r="N59" s="3">
         <v>147000</v>
       </c>
-      <c r="N59" s="3">
+      <c r="O59" s="3">
         <v>131600</v>
       </c>
-      <c r="O59" s="3">
+      <c r="P59" s="3">
         <v>138200</v>
       </c>
-      <c r="P59" s="3">
+      <c r="Q59" s="3">
         <v>153400</v>
       </c>
-      <c r="Q59" s="3">
+      <c r="R59" s="3">
         <v>148700</v>
       </c>
-      <c r="R59" s="3">
+      <c r="S59" s="3">
         <v>127800</v>
       </c>
-      <c r="S59" s="3">
+      <c r="T59" s="3">
         <v>148100</v>
       </c>
-      <c r="T59" s="3">
+      <c r="U59" s="3">
         <v>117600</v>
       </c>
-      <c r="U59" s="3">
+      <c r="V59" s="3">
         <v>80900</v>
       </c>
-      <c r="V59" s="3">
+      <c r="W59" s="3">
         <v>80200</v>
       </c>
-      <c r="W59" s="3">
+      <c r="X59" s="3">
         <v>81400</v>
       </c>
-      <c r="X59" s="3">
+      <c r="Y59" s="3">
         <v>95600</v>
       </c>
-      <c r="Y59" s="3">
+      <c r="Z59" s="3">
         <v>60700</v>
       </c>
-      <c r="Z59" s="3">
+      <c r="AA59" s="3">
         <v>69400</v>
       </c>
-      <c r="AA59" s="3">
+      <c r="AB59" s="3">
         <v>73700</v>
       </c>
-      <c r="AB59" s="3">
+      <c r="AC59" s="3">
         <v>74200</v>
       </c>
-      <c r="AC59" s="3">
+      <c r="AD59" s="3">
         <v>55200</v>
       </c>
     </row>
-    <row r="60" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>768900</v>
+      </c>
+      <c r="E60" s="3">
         <v>814300</v>
       </c>
-      <c r="E60" s="3">
+      <c r="F60" s="3">
         <v>802800</v>
       </c>
-      <c r="F60" s="3">
+      <c r="G60" s="3">
         <v>716500</v>
       </c>
-      <c r="G60" s="3">
+      <c r="H60" s="3">
         <v>660700</v>
       </c>
-      <c r="H60" s="3">
+      <c r="I60" s="3">
         <v>656700</v>
       </c>
-      <c r="I60" s="3">
+      <c r="J60" s="3">
         <v>611700</v>
       </c>
-      <c r="J60" s="3">
+      <c r="K60" s="3">
         <v>664600</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>674200</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>647300</v>
       </c>
-      <c r="M60" s="3">
+      <c r="N60" s="3">
         <v>293400</v>
       </c>
-      <c r="N60" s="3">
+      <c r="O60" s="3">
         <v>283000</v>
       </c>
-      <c r="O60" s="3">
+      <c r="P60" s="3">
         <v>286700</v>
       </c>
-      <c r="P60" s="3">
+      <c r="Q60" s="3">
         <v>304200</v>
       </c>
-      <c r="Q60" s="3">
+      <c r="R60" s="3">
         <v>316800</v>
       </c>
-      <c r="R60" s="3">
+      <c r="S60" s="3">
         <v>294000</v>
       </c>
-      <c r="S60" s="3">
+      <c r="T60" s="3">
         <v>358000</v>
       </c>
-      <c r="T60" s="3">
+      <c r="U60" s="3">
         <v>325500</v>
       </c>
-      <c r="U60" s="3">
+      <c r="V60" s="3">
         <v>213900</v>
       </c>
-      <c r="V60" s="3">
+      <c r="W60" s="3">
         <v>214000</v>
       </c>
-      <c r="W60" s="3">
+      <c r="X60" s="3">
         <v>191500</v>
       </c>
-      <c r="X60" s="3">
+      <c r="Y60" s="3">
         <v>217700</v>
       </c>
-      <c r="Y60" s="3">
+      <c r="Z60" s="3">
         <v>177200</v>
       </c>
-      <c r="Z60" s="3">
+      <c r="AA60" s="3">
         <v>184200</v>
       </c>
-      <c r="AA60" s="3">
+      <c r="AB60" s="3">
         <v>192100</v>
       </c>
-      <c r="AB60" s="3">
+      <c r="AC60" s="3">
         <v>202000</v>
       </c>
-      <c r="AC60" s="3">
+      <c r="AD60" s="3">
         <v>163500</v>
       </c>
     </row>
-    <row r="61" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
+        <v>1900800</v>
+      </c>
+      <c r="E61" s="3">
         <v>1900300</v>
       </c>
-      <c r="E61" s="3">
+      <c r="F61" s="3">
         <v>1899500</v>
       </c>
-      <c r="F61" s="3">
+      <c r="G61" s="3">
         <v>1466100</v>
       </c>
-      <c r="G61" s="3">
+      <c r="H61" s="3">
         <v>1447600</v>
       </c>
-      <c r="H61" s="3">
+      <c r="I61" s="3">
         <v>810300</v>
       </c>
-      <c r="I61" s="3">
+      <c r="J61" s="3">
         <v>800000</v>
       </c>
-      <c r="J61" s="3">
+      <c r="K61" s="3">
         <v>789800</v>
       </c>
-      <c r="K61" s="3">
+      <c r="L61" s="3">
         <v>778900</v>
       </c>
-      <c r="L61" s="3">
+      <c r="M61" s="3">
         <v>769100</v>
       </c>
-      <c r="M61" s="3">
+      <c r="N61" s="3">
         <v>1134700</v>
       </c>
-      <c r="N61" s="3">
+      <c r="O61" s="3">
         <v>1120300</v>
       </c>
-      <c r="O61" s="3">
+      <c r="P61" s="3">
         <v>1106100</v>
       </c>
-      <c r="P61" s="3">
+      <c r="Q61" s="3">
         <v>1092200</v>
       </c>
-      <c r="Q61" s="3">
+      <c r="R61" s="3">
         <v>840000</v>
       </c>
-      <c r="R61" s="3">
+      <c r="S61" s="3">
         <v>835900</v>
       </c>
-      <c r="S61" s="3">
+      <c r="T61" s="3">
         <v>832400</v>
       </c>
-      <c r="T61" s="3">
+      <c r="U61" s="3">
         <v>829200</v>
       </c>
-      <c r="U61" s="3">
+      <c r="V61" s="3">
         <v>338500</v>
       </c>
-      <c r="V61" s="3">
+      <c r="W61" s="3">
         <v>334600</v>
       </c>
-      <c r="W61" s="3">
+      <c r="X61" s="3">
         <v>330700</v>
       </c>
-      <c r="X61" s="3">
+      <c r="Y61" s="3">
         <v>328800</v>
       </c>
-      <c r="Y61" s="3">
+      <c r="Z61" s="3">
         <v>324000</v>
       </c>
-      <c r="Z61" s="3">
+      <c r="AA61" s="3">
         <v>317500</v>
       </c>
-      <c r="AA61" s="3">
+      <c r="AB61" s="3">
         <v>313400</v>
       </c>
-      <c r="AB61" s="3">
-        <v>0</v>
-      </c>
       <c r="AC61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
+        <v>146300</v>
+      </c>
+      <c r="E62" s="3">
         <v>159900</v>
       </c>
-      <c r="E62" s="3">
+      <c r="F62" s="3">
         <v>158700</v>
       </c>
-      <c r="F62" s="3">
+      <c r="G62" s="3">
         <v>104600</v>
       </c>
-      <c r="G62" s="3">
+      <c r="H62" s="3">
         <v>113100</v>
       </c>
-      <c r="H62" s="3">
+      <c r="I62" s="3">
         <v>126800</v>
       </c>
-      <c r="I62" s="3">
+      <c r="J62" s="3">
         <v>135900</v>
       </c>
-      <c r="J62" s="3">
+      <c r="K62" s="3">
         <v>124400</v>
       </c>
-      <c r="K62" s="3">
+      <c r="L62" s="3">
         <v>127800</v>
       </c>
-      <c r="L62" s="3">
+      <c r="M62" s="3">
         <v>129900</v>
       </c>
-      <c r="M62" s="3">
+      <c r="N62" s="3">
         <v>143200</v>
       </c>
-      <c r="N62" s="3">
+      <c r="O62" s="3">
         <v>140100</v>
       </c>
-      <c r="O62" s="3">
+      <c r="P62" s="3">
         <v>141700</v>
       </c>
-      <c r="P62" s="3">
+      <c r="Q62" s="3">
         <v>143200</v>
       </c>
-      <c r="Q62" s="3">
+      <c r="R62" s="3">
         <v>149700</v>
       </c>
-      <c r="R62" s="3">
+      <c r="S62" s="3">
         <v>89600</v>
       </c>
-      <c r="S62" s="3">
+      <c r="T62" s="3">
         <v>77100</v>
       </c>
-      <c r="T62" s="3">
+      <c r="U62" s="3">
         <v>82200</v>
       </c>
-      <c r="U62" s="3">
+      <c r="V62" s="3">
         <v>73300</v>
       </c>
-      <c r="V62" s="3">
+      <c r="W62" s="3">
         <v>71000</v>
       </c>
-      <c r="W62" s="3">
+      <c r="X62" s="3">
         <v>83600</v>
       </c>
-      <c r="X62" s="3">
+      <c r="Y62" s="3">
         <v>60800</v>
       </c>
-      <c r="Y62" s="3">
+      <c r="Z62" s="3">
         <v>70300</v>
       </c>
-      <c r="Z62" s="3">
+      <c r="AA62" s="3">
         <v>76600</v>
       </c>
-      <c r="AA62" s="3">
+      <c r="AB62" s="3">
         <v>234600</v>
-      </c>
-      <c r="AB62" s="3">
-        <v>42500</v>
       </c>
       <c r="AC62" s="3">
         <v>42500</v>
       </c>
-    </row>
-    <row r="63" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD62" s="3">
+        <v>42500</v>
+      </c>
+    </row>
+    <row r="63" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -4895,8 +5044,11 @@
       <c r="AC63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -4978,8 +5130,11 @@
       <c r="AC64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -5061,91 +5216,97 @@
       <c r="AC65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>2816000</v>
+      </c>
+      <c r="E66" s="3">
         <v>2874500</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>2861000</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>2287200</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>2221400</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>1593800</v>
       </c>
-      <c r="I66" s="3">
+      <c r="J66" s="3">
         <v>1547600</v>
       </c>
-      <c r="J66" s="3">
+      <c r="K66" s="3">
         <v>1578800</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>1580900</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>1546300</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>1571300</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>1543400</v>
       </c>
-      <c r="O66" s="3">
+      <c r="P66" s="3">
         <v>1534500</v>
       </c>
-      <c r="P66" s="3">
+      <c r="Q66" s="3">
         <v>1539600</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="R66" s="3">
         <v>1306500</v>
       </c>
-      <c r="R66" s="3">
+      <c r="S66" s="3">
         <v>1219500</v>
       </c>
-      <c r="S66" s="3">
+      <c r="T66" s="3">
         <v>1267500</v>
       </c>
-      <c r="T66" s="3">
+      <c r="U66" s="3">
         <v>1236900</v>
       </c>
-      <c r="U66" s="3">
+      <c r="V66" s="3">
         <v>661500</v>
       </c>
-      <c r="V66" s="3">
+      <c r="W66" s="3">
         <v>655400</v>
       </c>
-      <c r="W66" s="3">
+      <c r="X66" s="3">
         <v>641600</v>
       </c>
-      <c r="X66" s="3">
+      <c r="Y66" s="3">
         <v>643100</v>
       </c>
-      <c r="Y66" s="3">
+      <c r="Z66" s="3">
         <v>607300</v>
       </c>
-      <c r="Z66" s="3">
+      <c r="AA66" s="3">
         <v>614100</v>
       </c>
-      <c r="AA66" s="3">
+      <c r="AB66" s="3">
         <v>775900</v>
       </c>
-      <c r="AB66" s="3">
+      <c r="AC66" s="3">
         <v>280300</v>
       </c>
-      <c r="AC66" s="3">
+      <c r="AD66" s="3">
         <v>241800</v>
       </c>
     </row>
-    <row r="67" spans="2:29" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -5175,8 +5336,9 @@
       <c r="AA67" s="3"/>
       <c r="AB67" s="3"/>
       <c r="AC67" s="3"/>
-    </row>
-    <row r="68" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD67" s="3"/>
+    </row>
+    <row r="68" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -5258,8 +5420,11 @@
       <c r="AC68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -5341,8 +5506,11 @@
       <c r="AC69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -5424,8 +5592,11 @@
       <c r="AC70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -5507,91 +5678,97 @@
       <c r="AC71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>-140600</v>
+      </c>
+      <c r="E72" s="3">
         <v>-101300</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>-69600</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>-129100</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>-60500</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>237500</v>
       </c>
-      <c r="I72" s="3">
+      <c r="J72" s="3">
         <v>210700</v>
       </c>
-      <c r="J72" s="3">
+      <c r="K72" s="3">
         <v>220900</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>440400</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>214900</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>131700</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>64600</v>
       </c>
-      <c r="O72" s="3">
+      <c r="P72" s="3">
         <v>69200</v>
       </c>
-      <c r="P72" s="3">
+      <c r="Q72" s="3">
         <v>25800</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="R72" s="3">
         <v>176700</v>
       </c>
-      <c r="R72" s="3">
+      <c r="S72" s="3">
         <v>129100</v>
       </c>
-      <c r="S72" s="3">
+      <c r="T72" s="3">
         <v>154900</v>
       </c>
-      <c r="T72" s="3">
+      <c r="U72" s="3">
         <v>229200</v>
       </c>
-      <c r="U72" s="3">
+      <c r="V72" s="3">
         <v>213000</v>
       </c>
-      <c r="V72" s="3">
+      <c r="W72" s="3">
         <v>166400</v>
       </c>
-      <c r="W72" s="3">
+      <c r="X72" s="3">
         <v>133200</v>
       </c>
-      <c r="X72" s="3">
+      <c r="Y72" s="3">
         <v>130700</v>
       </c>
-      <c r="Y72" s="3">
+      <c r="Z72" s="3">
         <v>-73900</v>
       </c>
-      <c r="Z72" s="3">
+      <c r="AA72" s="3">
         <v>-83200</v>
       </c>
-      <c r="AA72" s="3">
+      <c r="AB72" s="3">
         <v>-28000</v>
       </c>
-      <c r="AB72" s="3">
+      <c r="AC72" s="3">
         <v>28200</v>
       </c>
-      <c r="AC72" s="3">
+      <c r="AD72" s="3">
         <v>16600</v>
       </c>
     </row>
-    <row r="73" spans="2:29" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -5673,8 +5850,11 @@
       <c r="AC73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -5756,8 +5936,11 @@
       <c r="AC74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -5839,91 +6022,97 @@
       <c r="AC75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>1538000</v>
+      </c>
+      <c r="E76" s="3">
         <v>1543600</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>1526400</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>1875000</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>1912100</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>2021900</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>1971400</v>
       </c>
-      <c r="J76" s="3">
+      <c r="K76" s="3">
         <v>1972800</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>2165000</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>1921900</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>1816100</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>1749200</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>1734200</v>
       </c>
-      <c r="P76" s="3">
+      <c r="Q76" s="3">
         <v>1681600</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="R76" s="3">
         <v>1561300</v>
       </c>
-      <c r="R76" s="3">
+      <c r="S76" s="3">
         <v>1497100</v>
       </c>
-      <c r="S76" s="3">
+      <c r="T76" s="3">
         <v>1503900</v>
       </c>
-      <c r="T76" s="3">
+      <c r="U76" s="3">
         <v>1559700</v>
       </c>
-      <c r="U76" s="3">
+      <c r="V76" s="3">
         <v>983500</v>
       </c>
-      <c r="V76" s="3">
+      <c r="W76" s="3">
         <v>926100</v>
       </c>
-      <c r="W76" s="3">
+      <c r="X76" s="3">
         <v>876600</v>
       </c>
-      <c r="X76" s="3">
+      <c r="Y76" s="3">
         <v>864300</v>
       </c>
-      <c r="Y76" s="3">
+      <c r="Z76" s="3">
         <v>641100</v>
       </c>
-      <c r="Z76" s="3">
+      <c r="AA76" s="3">
         <v>618800</v>
       </c>
-      <c r="AA76" s="3">
+      <c r="AB76" s="3">
         <v>468600</v>
       </c>
-      <c r="AB76" s="3">
+      <c r="AC76" s="3">
         <v>516400</v>
       </c>
-      <c r="AC76" s="3">
+      <c r="AD76" s="3">
         <v>495700</v>
       </c>
     </row>
-    <row r="77" spans="2:29" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -6005,179 +6194,188 @@
       <c r="AC77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:30" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:29" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>45017</v>
+      </c>
+      <c r="E80" s="2">
         <v>44926</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44835</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44744</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44653</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>44562</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>44471</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>44380</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>44289</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>44191</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>44100</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>44009</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>43918</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>43827</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>43736</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>43645</v>
       </c>
-      <c r="S80" s="2">
+      <c r="T80" s="2">
         <v>43554</v>
       </c>
-      <c r="T80" s="2">
+      <c r="U80" s="2">
         <v>43463</v>
       </c>
-      <c r="U80" s="2">
+      <c r="V80" s="2">
         <v>43372</v>
       </c>
-      <c r="V80" s="2">
+      <c r="W80" s="2">
         <v>43281</v>
       </c>
-      <c r="W80" s="2">
+      <c r="X80" s="2">
         <v>43190</v>
       </c>
-      <c r="X80" s="2">
+      <c r="Y80" s="2">
         <v>43099</v>
       </c>
-      <c r="Y80" s="2">
+      <c r="Z80" s="2">
         <v>43008</v>
       </c>
-      <c r="Z80" s="2">
+      <c r="AA80" s="2">
         <v>42917</v>
       </c>
-      <c r="AA80" s="2">
+      <c r="AB80" s="2">
         <v>42826</v>
       </c>
-      <c r="AB80" s="2">
+      <c r="AC80" s="2">
         <v>42735</v>
       </c>
-      <c r="AC80" s="2">
+      <c r="AD80" s="2">
         <v>42644</v>
       </c>
     </row>
-    <row r="81" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>-39300</v>
+      </c>
+      <c r="E81" s="3">
         <v>-31700</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="3">
         <v>-400</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>34700</v>
       </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
         <v>26000</v>
       </c>
-      <c r="H81" s="3">
+      <c r="I81" s="3">
         <v>56700</v>
       </c>
-      <c r="I81" s="3">
+      <c r="J81" s="3">
         <v>81500</v>
       </c>
-      <c r="J81" s="3">
+      <c r="K81" s="3">
         <v>21500</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>225500</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>83200</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>67100</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>-4600</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>43400</v>
       </c>
-      <c r="P81" s="3">
+      <c r="Q81" s="3">
         <v>49100</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="R81" s="3">
         <v>47600</v>
       </c>
-      <c r="R81" s="3">
+      <c r="S81" s="3">
         <v>-25800</v>
       </c>
-      <c r="S81" s="3">
+      <c r="T81" s="3">
         <v>-74300</v>
       </c>
-      <c r="T81" s="3">
+      <c r="U81" s="3">
         <v>16200</v>
       </c>
-      <c r="U81" s="3">
+      <c r="V81" s="3">
         <v>46100</v>
       </c>
-      <c r="V81" s="3">
+      <c r="W81" s="3">
         <v>32500</v>
       </c>
-      <c r="W81" s="3">
+      <c r="X81" s="3">
         <v>2400</v>
       </c>
-      <c r="X81" s="3">
+      <c r="Y81" s="3">
         <v>116800</v>
       </c>
-      <c r="Y81" s="3">
+      <c r="Z81" s="3">
         <v>6900</v>
       </c>
-      <c r="Z81" s="3">
+      <c r="AA81" s="3">
         <v>-55200</v>
       </c>
-      <c r="AA81" s="3">
+      <c r="AB81" s="3">
         <v>-56200</v>
       </c>
-      <c r="AB81" s="3">
+      <c r="AC81" s="3">
         <v>11600</v>
       </c>
-      <c r="AC81" s="3">
+      <c r="AD81" s="3">
         <v>-3600</v>
       </c>
     </row>
-    <row r="82" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -6207,91 +6405,95 @@
       <c r="AA82" s="3"/>
       <c r="AB82" s="3"/>
       <c r="AC82" s="3"/>
-    </row>
-    <row r="83" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD82" s="3"/>
+    </row>
+    <row r="83" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
+        <v>57700</v>
+      </c>
+      <c r="E83" s="3">
         <v>62500</v>
       </c>
-      <c r="E83" s="3">
+      <c r="F83" s="3">
         <v>56700</v>
-      </c>
-      <c r="F83" s="3">
-        <v>41600</v>
       </c>
       <c r="G83" s="3">
         <v>41600</v>
       </c>
       <c r="H83" s="3">
+        <v>41600</v>
+      </c>
+      <c r="I83" s="3">
         <v>42100</v>
       </c>
-      <c r="I83" s="3">
+      <c r="J83" s="3">
         <v>41800</v>
       </c>
-      <c r="J83" s="3">
+      <c r="K83" s="3">
         <v>43100</v>
       </c>
-      <c r="K83" s="3">
+      <c r="L83" s="3">
         <v>44800</v>
       </c>
-      <c r="L83" s="3">
+      <c r="M83" s="3">
         <v>44700</v>
       </c>
-      <c r="M83" s="3">
+      <c r="N83" s="3">
         <v>44500</v>
       </c>
-      <c r="N83" s="3">
+      <c r="O83" s="3">
         <v>46700</v>
       </c>
-      <c r="O83" s="3">
+      <c r="P83" s="3">
         <v>47500</v>
       </c>
-      <c r="P83" s="3">
+      <c r="Q83" s="3">
         <v>47300</v>
       </c>
-      <c r="Q83" s="3">
+      <c r="R83" s="3">
         <v>50400</v>
       </c>
-      <c r="R83" s="3">
+      <c r="S83" s="3">
         <v>45100</v>
       </c>
-      <c r="S83" s="3">
+      <c r="T83" s="3">
         <v>60700</v>
       </c>
-      <c r="T83" s="3">
+      <c r="U83" s="3">
         <v>31200</v>
       </c>
-      <c r="U83" s="3">
+      <c r="V83" s="3">
         <v>20500</v>
       </c>
-      <c r="V83" s="3">
+      <c r="W83" s="3">
         <v>21500</v>
       </c>
-      <c r="W83" s="3">
+      <c r="X83" s="3">
         <v>19200</v>
       </c>
-      <c r="X83" s="3">
+      <c r="Y83" s="3">
         <v>19000</v>
       </c>
-      <c r="Y83" s="3">
+      <c r="Z83" s="3">
         <v>17500</v>
       </c>
-      <c r="Z83" s="3">
+      <c r="AA83" s="3">
         <v>16500</v>
       </c>
-      <c r="AA83" s="3">
+      <c r="AB83" s="3">
         <v>15900</v>
       </c>
-      <c r="AB83" s="3">
+      <c r="AC83" s="3">
         <v>14900</v>
       </c>
-      <c r="AC83" s="3">
+      <c r="AD83" s="3">
         <v>13700</v>
       </c>
     </row>
-    <row r="84" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="84" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -6373,8 +6575,11 @@
       <c r="AC84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -6456,8 +6661,11 @@
       <c r="AC85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -6539,8 +6747,11 @@
       <c r="AC86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -6622,8 +6833,11 @@
       <c r="AC87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -6705,91 +6919,97 @@
       <c r="AC88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>14900</v>
+      </c>
+      <c r="E89" s="3">
         <v>94900</v>
       </c>
-      <c r="E89" s="3">
+      <c r="F89" s="3">
         <v>20800</v>
       </c>
-      <c r="F89" s="3">
+      <c r="G89" s="3">
         <v>114300</v>
       </c>
-      <c r="G89" s="3">
+      <c r="H89" s="3">
         <v>76600</v>
       </c>
-      <c r="H89" s="3">
+      <c r="I89" s="3">
         <v>206500</v>
       </c>
-      <c r="I89" s="3">
+      <c r="J89" s="3">
         <v>61900</v>
       </c>
-      <c r="J89" s="3">
+      <c r="K89" s="3">
         <v>124200</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>381300</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>128500</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>104700</v>
       </c>
-      <c r="N89" s="3">
+      <c r="O89" s="3">
         <v>122700</v>
       </c>
-      <c r="O89" s="3">
+      <c r="P89" s="3">
         <v>151800</v>
       </c>
-      <c r="P89" s="3">
+      <c r="Q89" s="3">
         <v>162300</v>
       </c>
-      <c r="Q89" s="3">
+      <c r="R89" s="3">
         <v>87500</v>
       </c>
-      <c r="R89" s="3">
+      <c r="S89" s="3">
         <v>127700</v>
       </c>
-      <c r="S89" s="3">
+      <c r="T89" s="3">
         <v>42800</v>
       </c>
-      <c r="T89" s="3">
+      <c r="U89" s="3">
         <v>102400</v>
       </c>
-      <c r="U89" s="3">
+      <c r="V89" s="3">
         <v>57200</v>
       </c>
-      <c r="V89" s="3">
+      <c r="W89" s="3">
         <v>37600</v>
       </c>
-      <c r="W89" s="3">
+      <c r="X89" s="3">
         <v>95100</v>
       </c>
-      <c r="X89" s="3">
+      <c r="Y89" s="3">
         <v>105100</v>
       </c>
-      <c r="Y89" s="3">
+      <c r="Z89" s="3">
         <v>9700</v>
       </c>
-      <c r="Z89" s="3">
+      <c r="AA89" s="3">
         <v>13100</v>
       </c>
-      <c r="AA89" s="3">
+      <c r="AB89" s="3">
         <v>16400</v>
       </c>
-      <c r="AB89" s="3">
+      <c r="AC89" s="3">
         <v>19200</v>
       </c>
-      <c r="AC89" s="3">
+      <c r="AD89" s="3">
         <v>36300</v>
       </c>
     </row>
-    <row r="90" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -6819,91 +7039,95 @@
       <c r="AA90" s="3"/>
       <c r="AB90" s="3"/>
       <c r="AC90" s="3"/>
-    </row>
-    <row r="91" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD90" s="3"/>
+    </row>
+    <row r="91" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
+        <v>-29400</v>
+      </c>
+      <c r="E91" s="3">
         <v>-39900</v>
       </c>
-      <c r="E91" s="3">
+      <c r="F91" s="3">
         <v>-22900</v>
       </c>
-      <c r="F91" s="3">
+      <c r="G91" s="3">
         <v>-28600</v>
       </c>
-      <c r="G91" s="3">
+      <c r="H91" s="3">
         <v>-18600</v>
       </c>
-      <c r="H91" s="3">
+      <c r="I91" s="3">
         <v>-26100</v>
       </c>
-      <c r="I91" s="3">
+      <c r="J91" s="3">
         <v>-17900</v>
       </c>
-      <c r="J91" s="3">
-        <v>0</v>
-      </c>
       <c r="K91" s="3">
         <v>0</v>
       </c>
       <c r="L91" s="3">
+        <v>0</v>
+      </c>
+      <c r="M91" s="3">
         <v>16300</v>
       </c>
-      <c r="M91" s="3">
+      <c r="N91" s="3">
         <v>-26300</v>
       </c>
-      <c r="N91" s="3">
-        <v>0</v>
-      </c>
       <c r="O91" s="3">
+        <v>0</v>
+      </c>
+      <c r="P91" s="3">
         <v>-1000</v>
       </c>
-      <c r="P91" s="3">
+      <c r="Q91" s="3">
         <v>-2000</v>
       </c>
-      <c r="Q91" s="3">
+      <c r="R91" s="3">
         <v>-1000</v>
       </c>
-      <c r="R91" s="3">
-        <v>0</v>
-      </c>
       <c r="S91" s="3">
+        <v>0</v>
+      </c>
+      <c r="T91" s="3">
         <v>-600</v>
       </c>
-      <c r="T91" s="3">
-        <v>0</v>
-      </c>
       <c r="U91" s="3">
+        <v>0</v>
+      </c>
+      <c r="V91" s="3">
         <v>-700</v>
       </c>
-      <c r="V91" s="3">
+      <c r="W91" s="3">
         <v>-20300</v>
       </c>
-      <c r="W91" s="3">
+      <c r="X91" s="3">
         <v>-22700</v>
       </c>
-      <c r="X91" s="3">
+      <c r="Y91" s="3">
         <v>-17200</v>
       </c>
-      <c r="Y91" s="3">
+      <c r="Z91" s="3">
         <v>-33000</v>
       </c>
-      <c r="Z91" s="3">
+      <c r="AA91" s="3">
         <v>-38100</v>
       </c>
-      <c r="AA91" s="3">
+      <c r="AB91" s="3">
         <v>-35700</v>
       </c>
-      <c r="AB91" s="3">
+      <c r="AC91" s="3">
         <v>-35400</v>
       </c>
-      <c r="AC91" s="3">
+      <c r="AD91" s="3">
         <v>-28900</v>
       </c>
     </row>
-    <row r="92" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="92" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -6985,8 +7209,11 @@
       <c r="AC92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -7068,91 +7295,97 @@
       <c r="AC93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
+        <v>-52000</v>
+      </c>
+      <c r="E94" s="3">
         <v>-104500</v>
       </c>
-      <c r="E94" s="3">
+      <c r="F94" s="3">
         <v>-646600</v>
       </c>
-      <c r="F94" s="3">
+      <c r="G94" s="3">
         <v>142700</v>
       </c>
-      <c r="G94" s="3">
+      <c r="H94" s="3">
         <v>-23200</v>
       </c>
-      <c r="H94" s="3">
+      <c r="I94" s="3">
         <v>-228900</v>
       </c>
-      <c r="I94" s="3">
+      <c r="J94" s="3">
         <v>-116900</v>
       </c>
-      <c r="J94" s="3">
+      <c r="K94" s="3">
         <v>197300</v>
       </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3">
         <v>-7300</v>
       </c>
-      <c r="L94" s="3">
+      <c r="M94" s="3">
         <v>-75000</v>
       </c>
-      <c r="M94" s="3">
+      <c r="N94" s="3">
         <v>-114000</v>
       </c>
-      <c r="N94" s="3">
+      <c r="O94" s="3">
         <v>-509800</v>
       </c>
-      <c r="O94" s="3">
+      <c r="P94" s="3">
         <v>-535700</v>
       </c>
-      <c r="P94" s="3">
+      <c r="Q94" s="3">
         <v>36100</v>
       </c>
-      <c r="Q94" s="3">
+      <c r="R94" s="3">
         <v>21700</v>
       </c>
-      <c r="R94" s="3">
+      <c r="S94" s="3">
         <v>-54400</v>
       </c>
-      <c r="S94" s="3">
+      <c r="T94" s="3">
         <v>-52900</v>
       </c>
-      <c r="T94" s="3">
+      <c r="U94" s="3">
         <v>-681900</v>
       </c>
-      <c r="U94" s="3">
+      <c r="V94" s="3">
         <v>9500</v>
       </c>
-      <c r="V94" s="3">
+      <c r="W94" s="3">
         <v>181700</v>
       </c>
-      <c r="W94" s="3">
+      <c r="X94" s="3">
         <v>-117600</v>
       </c>
-      <c r="X94" s="3">
+      <c r="Y94" s="3">
         <v>-58600</v>
       </c>
-      <c r="Y94" s="3">
+      <c r="Z94" s="3">
         <v>-132500</v>
       </c>
-      <c r="Z94" s="3">
+      <c r="AA94" s="3">
         <v>-320600</v>
       </c>
-      <c r="AA94" s="3">
+      <c r="AB94" s="3">
         <v>-40800</v>
       </c>
-      <c r="AB94" s="3">
+      <c r="AC94" s="3">
         <v>-35400</v>
       </c>
-      <c r="AC94" s="3">
+      <c r="AD94" s="3">
         <v>-28900</v>
       </c>
     </row>
-    <row r="95" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="95" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -7182,8 +7415,9 @@
       <c r="AA95" s="3"/>
       <c r="AB95" s="3"/>
       <c r="AC95" s="3"/>
-    </row>
-    <row r="96" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD95" s="3"/>
+    </row>
+    <row r="96" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -7265,8 +7499,11 @@
       <c r="AC96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -7348,8 +7585,11 @@
       <c r="AC97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -7431,8 +7671,11 @@
       <c r="AC98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -7514,91 +7757,97 @@
       <c r="AC99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>-5800</v>
+      </c>
+      <c r="E100" s="3">
         <v>-3600</v>
       </c>
-      <c r="E100" s="3">
+      <c r="F100" s="3">
         <v>-59100</v>
       </c>
-      <c r="F100" s="3">
+      <c r="G100" s="3">
         <v>-97100</v>
       </c>
-      <c r="G100" s="3">
+      <c r="H100" s="3">
         <v>524900</v>
       </c>
-      <c r="H100" s="3">
+      <c r="I100" s="3">
         <v>-36600</v>
       </c>
-      <c r="I100" s="3">
+      <c r="J100" s="3">
         <v>-108300</v>
       </c>
-      <c r="J100" s="3">
+      <c r="K100" s="3">
         <v>-234900</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>-7600</v>
       </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
         <v>-1700</v>
       </c>
-      <c r="M100" s="3">
+      <c r="N100" s="3">
         <v>-19200</v>
       </c>
-      <c r="N100" s="3">
+      <c r="O100" s="3">
         <v>-3700</v>
       </c>
-      <c r="O100" s="3">
+      <c r="P100" s="3">
         <v>-12300</v>
       </c>
-      <c r="P100" s="3">
+      <c r="Q100" s="3">
         <v>347600</v>
       </c>
-      <c r="Q100" s="3">
+      <c r="R100" s="3">
         <v>-2800</v>
       </c>
-      <c r="R100" s="3">
+      <c r="S100" s="3">
         <v>1000</v>
       </c>
-      <c r="S100" s="3">
+      <c r="T100" s="3">
         <v>-2900</v>
       </c>
-      <c r="T100" s="3">
+      <c r="U100" s="3">
         <v>491600</v>
       </c>
-      <c r="U100" s="3">
+      <c r="V100" s="3">
         <v>-4600</v>
       </c>
-      <c r="V100" s="3">
+      <c r="W100" s="3">
         <v>1900</v>
       </c>
-      <c r="W100" s="3">
+      <c r="X100" s="3">
         <v>-2800</v>
       </c>
-      <c r="X100" s="3">
+      <c r="Y100" s="3">
         <v>4400</v>
       </c>
-      <c r="Y100" s="3">
+      <c r="Z100" s="3">
         <v>300</v>
       </c>
-      <c r="Z100" s="3">
+      <c r="AA100" s="3">
         <v>2000</v>
       </c>
-      <c r="AA100" s="3">
+      <c r="AB100" s="3">
         <v>445700</v>
       </c>
-      <c r="AB100" s="3">
+      <c r="AC100" s="3">
         <v>6700</v>
       </c>
-      <c r="AC100" s="3">
+      <c r="AD100" s="3">
         <v>2300</v>
       </c>
     </row>
-    <row r="101" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -7651,116 +7900,122 @@
         <v>0</v>
       </c>
       <c r="T101" s="3">
+        <v>0</v>
+      </c>
+      <c r="U101" s="3">
         <v>-200</v>
       </c>
-      <c r="U101" s="3">
-        <v>0</v>
-      </c>
       <c r="V101" s="3">
+        <v>0</v>
+      </c>
+      <c r="W101" s="3">
         <v>-700</v>
       </c>
-      <c r="W101" s="3">
-        <v>0</v>
-      </c>
       <c r="X101" s="3">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="Y101" s="3">
         <v>400</v>
       </c>
       <c r="Z101" s="3">
+        <v>400</v>
+      </c>
+      <c r="AA101" s="3">
         <v>500</v>
       </c>
-      <c r="AA101" s="3">
+      <c r="AB101" s="3">
         <v>700</v>
       </c>
-      <c r="AB101" s="3">
+      <c r="AC101" s="3">
         <v>-1400</v>
       </c>
-      <c r="AC101" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="102" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>-42900</v>
+      </c>
+      <c r="E102" s="3">
         <v>-13200</v>
       </c>
-      <c r="E102" s="3">
+      <c r="F102" s="3">
         <v>-684900</v>
       </c>
-      <c r="F102" s="3">
+      <c r="G102" s="3">
         <v>159900</v>
       </c>
-      <c r="G102" s="3">
+      <c r="H102" s="3">
         <v>578300</v>
       </c>
-      <c r="H102" s="3">
+      <c r="I102" s="3">
         <v>-59000</v>
       </c>
-      <c r="I102" s="3">
+      <c r="J102" s="3">
         <v>-163300</v>
       </c>
-      <c r="J102" s="3">
+      <c r="K102" s="3">
         <v>86600</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>366400</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>51800</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>-28500</v>
       </c>
-      <c r="N102" s="3">
+      <c r="O102" s="3">
         <v>-390800</v>
       </c>
-      <c r="O102" s="3">
+      <c r="P102" s="3">
         <v>-396200</v>
       </c>
-      <c r="P102" s="3">
+      <c r="Q102" s="3">
         <v>546000</v>
       </c>
-      <c r="Q102" s="3">
+      <c r="R102" s="3">
         <v>106400</v>
       </c>
-      <c r="R102" s="3">
+      <c r="S102" s="3">
         <v>74300</v>
       </c>
-      <c r="S102" s="3">
+      <c r="T102" s="3">
         <v>-13000</v>
       </c>
-      <c r="T102" s="3">
+      <c r="U102" s="3">
         <v>-88100</v>
       </c>
-      <c r="U102" s="3">
+      <c r="V102" s="3">
         <v>62100</v>
       </c>
-      <c r="V102" s="3">
+      <c r="W102" s="3">
         <v>220500</v>
       </c>
-      <c r="W102" s="3">
+      <c r="X102" s="3">
         <v>-25300</v>
       </c>
-      <c r="X102" s="3">
+      <c r="Y102" s="3">
         <v>51300</v>
       </c>
-      <c r="Y102" s="3">
+      <c r="Z102" s="3">
         <v>-122100</v>
       </c>
-      <c r="Z102" s="3">
+      <c r="AA102" s="3">
         <v>-305000</v>
       </c>
-      <c r="AA102" s="3">
+      <c r="AB102" s="3">
         <v>422000</v>
       </c>
-      <c r="AB102" s="3">
+      <c r="AC102" s="3">
         <v>-10900</v>
       </c>
-      <c r="AC102" s="3">
+      <c r="AD102" s="3">
         <v>9700</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/LITE_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/LITE_QTR_FIN.xlsx
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:AD102"/>
+  <dimension ref="A5:AE102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,380 +665,392 @@
     <col min="1" max="1" width="6.42578125" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="13" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="12" width="13" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="14" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="18" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="21" max="22" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="25" max="26" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="27" max="28" width="13" style="1" bestFit="1" customWidth="1"/>
-    <col min="29" max="29" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="30" max="30" width="12.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="31" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="5" width="13" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="13" width="13" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="15" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="19" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="22" max="23" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="26" max="27" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="28" max="29" width="13" style="1" bestFit="1" customWidth="1"/>
+    <col min="30" max="30" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="31" max="31" width="12.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="32" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:31" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:31" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>45108</v>
+      </c>
+      <c r="E7" s="2">
         <v>45017</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44926</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44835</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44744</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>44653</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>44562</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>44471</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>44380</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>44289</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>44191</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>44100</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>44009</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>43918</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>43827</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>43736</v>
       </c>
-      <c r="S7" s="2">
+      <c r="T7" s="2">
         <v>43645</v>
       </c>
-      <c r="T7" s="2">
+      <c r="U7" s="2">
         <v>43554</v>
       </c>
-      <c r="U7" s="2">
+      <c r="V7" s="2">
         <v>43463</v>
       </c>
-      <c r="V7" s="2">
+      <c r="W7" s="2">
         <v>43372</v>
       </c>
-      <c r="W7" s="2">
+      <c r="X7" s="2">
         <v>43281</v>
       </c>
-      <c r="X7" s="2">
+      <c r="Y7" s="2">
         <v>43190</v>
       </c>
-      <c r="Y7" s="2">
+      <c r="Z7" s="2">
         <v>43099</v>
       </c>
-      <c r="Z7" s="2">
+      <c r="AA7" s="2">
         <v>43008</v>
       </c>
-      <c r="AA7" s="2">
+      <c r="AB7" s="2">
         <v>42917</v>
       </c>
-      <c r="AB7" s="2">
+      <c r="AC7" s="2">
         <v>42826</v>
       </c>
-      <c r="AC7" s="2">
+      <c r="AD7" s="2">
         <v>42735</v>
       </c>
-      <c r="AD7" s="2">
+      <c r="AE7" s="2">
         <v>42644</v>
       </c>
     </row>
-    <row r="8" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:31" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
+        <v>370800</v>
+      </c>
+      <c r="E8" s="3">
         <v>383400</v>
       </c>
-      <c r="E8" s="3">
+      <c r="F8" s="3">
         <v>506000</v>
       </c>
-      <c r="F8" s="3">
+      <c r="G8" s="3">
         <v>506800</v>
       </c>
-      <c r="G8" s="3">
+      <c r="H8" s="3">
         <v>422100</v>
       </c>
-      <c r="H8" s="3">
+      <c r="I8" s="3">
         <v>395400</v>
       </c>
-      <c r="I8" s="3">
+      <c r="J8" s="3">
         <v>446700</v>
       </c>
-      <c r="J8" s="3">
+      <c r="K8" s="3">
         <v>448400</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>392100</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>419500</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>478800</v>
       </c>
-      <c r="N8" s="3">
+      <c r="O8" s="3">
         <v>452400</v>
       </c>
-      <c r="O8" s="3">
+      <c r="P8" s="3">
         <v>368100</v>
       </c>
-      <c r="P8" s="3">
+      <c r="Q8" s="3">
         <v>402800</v>
       </c>
-      <c r="Q8" s="3">
+      <c r="R8" s="3">
         <v>457800</v>
       </c>
-      <c r="R8" s="3">
+      <c r="S8" s="3">
         <v>449900</v>
       </c>
-      <c r="S8" s="3">
+      <c r="T8" s="3">
         <v>404600</v>
       </c>
-      <c r="T8" s="3">
+      <c r="U8" s="3">
         <v>432900</v>
       </c>
-      <c r="U8" s="3">
+      <c r="V8" s="3">
         <v>373700</v>
       </c>
-      <c r="V8" s="3">
+      <c r="W8" s="3">
         <v>354100</v>
       </c>
-      <c r="W8" s="3">
+      <c r="X8" s="3">
         <v>301100</v>
       </c>
-      <c r="X8" s="3">
+      <c r="Y8" s="3">
         <v>298800</v>
       </c>
-      <c r="Y8" s="3">
+      <c r="Z8" s="3">
         <v>404600</v>
       </c>
-      <c r="Z8" s="3">
+      <c r="AA8" s="3">
         <v>243200</v>
       </c>
-      <c r="AA8" s="3">
+      <c r="AB8" s="3">
         <v>222700</v>
       </c>
-      <c r="AB8" s="3">
+      <c r="AC8" s="3">
         <v>255800</v>
       </c>
-      <c r="AC8" s="3">
+      <c r="AD8" s="3">
         <v>265000</v>
       </c>
-      <c r="AD8" s="3">
+      <c r="AE8" s="3">
         <v>258100</v>
       </c>
     </row>
-    <row r="9" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:31" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
+        <v>281200</v>
+      </c>
+      <c r="E9" s="3">
         <v>271400</v>
       </c>
-      <c r="E9" s="3">
+      <c r="F9" s="3">
         <v>339800</v>
       </c>
-      <c r="F9" s="3">
+      <c r="G9" s="3">
         <v>305600</v>
       </c>
-      <c r="G9" s="3">
+      <c r="H9" s="3">
         <v>240400</v>
       </c>
-      <c r="H9" s="3">
+      <c r="I9" s="3">
         <v>228200</v>
       </c>
-      <c r="I9" s="3">
+      <c r="J9" s="3">
         <v>239200</v>
       </c>
-      <c r="J9" s="3">
+      <c r="K9" s="3">
         <v>216200</v>
       </c>
-      <c r="K9" s="3">
+      <c r="L9" s="3">
         <v>229300</v>
       </c>
-      <c r="L9" s="3">
+      <c r="M9" s="3">
         <v>234500</v>
       </c>
-      <c r="M9" s="3">
+      <c r="N9" s="3">
         <v>249200</v>
       </c>
-      <c r="N9" s="3">
+      <c r="O9" s="3">
         <v>246700</v>
       </c>
-      <c r="O9" s="3">
+      <c r="P9" s="3">
         <v>232400</v>
       </c>
-      <c r="P9" s="3">
+      <c r="Q9" s="3">
         <v>245100</v>
       </c>
-      <c r="Q9" s="3">
+      <c r="R9" s="3">
         <v>268700</v>
       </c>
-      <c r="R9" s="3">
+      <c r="S9" s="3">
         <v>282200</v>
       </c>
-      <c r="S9" s="3">
+      <c r="T9" s="3">
         <v>317800</v>
       </c>
-      <c r="T9" s="3">
+      <c r="U9" s="3">
         <v>344600</v>
       </c>
-      <c r="U9" s="3">
+      <c r="V9" s="3">
         <v>248900</v>
       </c>
-      <c r="V9" s="3">
+      <c r="W9" s="3">
         <v>228100</v>
       </c>
-      <c r="W9" s="3">
+      <c r="X9" s="3">
         <v>205600</v>
       </c>
-      <c r="X9" s="3">
+      <c r="Y9" s="3">
         <v>201800</v>
       </c>
-      <c r="Y9" s="3">
+      <c r="Z9" s="3">
         <v>233500</v>
       </c>
-      <c r="Z9" s="3">
+      <c r="AA9" s="3">
         <v>174700</v>
       </c>
-      <c r="AA9" s="3">
+      <c r="AB9" s="3">
         <v>155400</v>
       </c>
-      <c r="AB9" s="3">
+      <c r="AC9" s="3">
         <v>173700</v>
       </c>
-      <c r="AC9" s="3">
+      <c r="AD9" s="3">
         <v>178000</v>
       </c>
-      <c r="AD9" s="3">
+      <c r="AE9" s="3">
         <v>176400</v>
       </c>
     </row>
-    <row r="10" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:31" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
+        <v>89600</v>
+      </c>
+      <c r="E10" s="3">
         <v>112000</v>
       </c>
-      <c r="E10" s="3">
+      <c r="F10" s="3">
         <v>166200</v>
       </c>
-      <c r="F10" s="3">
+      <c r="G10" s="3">
         <v>201200</v>
       </c>
-      <c r="G10" s="3">
+      <c r="H10" s="3">
         <v>181700</v>
       </c>
-      <c r="H10" s="3">
+      <c r="I10" s="3">
         <v>167200</v>
       </c>
-      <c r="I10" s="3">
+      <c r="J10" s="3">
         <v>207500</v>
       </c>
-      <c r="J10" s="3">
+      <c r="K10" s="3">
         <v>232200</v>
       </c>
-      <c r="K10" s="3">
+      <c r="L10" s="3">
         <v>162800</v>
       </c>
-      <c r="L10" s="3">
+      <c r="M10" s="3">
         <v>185000</v>
       </c>
-      <c r="M10" s="3">
+      <c r="N10" s="3">
         <v>229600</v>
       </c>
-      <c r="N10" s="3">
+      <c r="O10" s="3">
         <v>205700</v>
       </c>
-      <c r="O10" s="3">
+      <c r="P10" s="3">
         <v>135700</v>
       </c>
-      <c r="P10" s="3">
+      <c r="Q10" s="3">
         <v>157700</v>
       </c>
-      <c r="Q10" s="3">
+      <c r="R10" s="3">
         <v>189100</v>
       </c>
-      <c r="R10" s="3">
+      <c r="S10" s="3">
         <v>167700</v>
       </c>
-      <c r="S10" s="3">
+      <c r="T10" s="3">
         <v>86800</v>
       </c>
-      <c r="T10" s="3">
+      <c r="U10" s="3">
         <v>88300</v>
       </c>
-      <c r="U10" s="3">
+      <c r="V10" s="3">
         <v>124800</v>
       </c>
-      <c r="V10" s="3">
+      <c r="W10" s="3">
         <v>126000</v>
       </c>
-      <c r="W10" s="3">
+      <c r="X10" s="3">
         <v>95500</v>
       </c>
-      <c r="X10" s="3">
+      <c r="Y10" s="3">
         <v>97000</v>
       </c>
-      <c r="Y10" s="3">
+      <c r="Z10" s="3">
         <v>171100</v>
       </c>
-      <c r="Z10" s="3">
+      <c r="AA10" s="3">
         <v>68500</v>
       </c>
-      <c r="AA10" s="3">
+      <c r="AB10" s="3">
         <v>67300</v>
       </c>
-      <c r="AB10" s="3">
+      <c r="AC10" s="3">
         <v>82100</v>
       </c>
-      <c r="AC10" s="3">
+      <c r="AD10" s="3">
         <v>87000</v>
       </c>
-      <c r="AD10" s="3">
+      <c r="AE10" s="3">
         <v>81700</v>
       </c>
     </row>
-    <row r="11" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:31" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -1069,94 +1081,98 @@
       <c r="AB11" s="3"/>
       <c r="AC11" s="3"/>
       <c r="AD11" s="3"/>
-    </row>
-    <row r="12" spans="1:30" x14ac:dyDescent="0.2">
+      <c r="AE11" s="3"/>
+    </row>
+    <row r="12" spans="1:31" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
       <c r="D12" s="3">
+        <v>73900</v>
+      </c>
+      <c r="E12" s="3">
         <v>85400</v>
       </c>
-      <c r="E12" s="3">
+      <c r="F12" s="3">
         <v>75800</v>
       </c>
-      <c r="F12" s="3">
+      <c r="G12" s="3">
         <v>72700</v>
-      </c>
-      <c r="G12" s="3">
-        <v>56700</v>
       </c>
       <c r="H12" s="3">
         <v>56700</v>
       </c>
       <c r="I12" s="3">
+        <v>56700</v>
+      </c>
+      <c r="J12" s="3">
         <v>53200</v>
-      </c>
-      <c r="J12" s="3">
-        <v>54100</v>
       </c>
       <c r="K12" s="3">
         <v>54100</v>
       </c>
       <c r="L12" s="3">
+        <v>54100</v>
+      </c>
+      <c r="M12" s="3">
         <v>57200</v>
       </c>
-      <c r="M12" s="3">
+      <c r="N12" s="3">
         <v>52800</v>
       </c>
-      <c r="N12" s="3">
+      <c r="O12" s="3">
         <v>50400</v>
       </c>
-      <c r="O12" s="3">
+      <c r="P12" s="3">
         <v>49000</v>
       </c>
-      <c r="P12" s="3">
+      <c r="Q12" s="3">
         <v>48700</v>
       </c>
-      <c r="Q12" s="3">
+      <c r="R12" s="3">
         <v>51000</v>
       </c>
-      <c r="R12" s="3">
+      <c r="S12" s="3">
         <v>49900</v>
       </c>
-      <c r="S12" s="3">
+      <c r="T12" s="3">
         <v>49500</v>
       </c>
-      <c r="T12" s="3">
+      <c r="U12" s="3">
         <v>57700</v>
       </c>
-      <c r="U12" s="3">
+      <c r="V12" s="3">
         <v>42800</v>
       </c>
-      <c r="V12" s="3">
+      <c r="W12" s="3">
         <v>34600</v>
       </c>
-      <c r="W12" s="3">
+      <c r="X12" s="3">
         <v>38500</v>
       </c>
-      <c r="X12" s="3">
+      <c r="Y12" s="3">
         <v>38200</v>
       </c>
-      <c r="Y12" s="3">
+      <c r="Z12" s="3">
         <v>43800</v>
       </c>
-      <c r="Z12" s="3">
+      <c r="AA12" s="3">
         <v>36300</v>
       </c>
-      <c r="AA12" s="3">
+      <c r="AB12" s="3">
         <v>35400</v>
       </c>
-      <c r="AB12" s="3">
+      <c r="AC12" s="3">
         <v>37300</v>
       </c>
-      <c r="AC12" s="3">
+      <c r="AD12" s="3">
         <v>38700</v>
       </c>
-      <c r="AD12" s="3">
+      <c r="AE12" s="3">
         <v>36900</v>
       </c>
     </row>
-    <row r="13" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:31" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>8</v>
       </c>
@@ -1241,153 +1257,159 @@
       <c r="AD13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:30" x14ac:dyDescent="0.2">
+      <c r="AE13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:31" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>9</v>
       </c>
       <c r="D14" s="3">
+        <v>3300</v>
+      </c>
+      <c r="E14" s="3">
         <v>1600</v>
       </c>
-      <c r="E14" s="3">
+      <c r="F14" s="3">
         <v>13900</v>
       </c>
-      <c r="F14" s="3">
+      <c r="G14" s="3">
         <v>9300</v>
       </c>
-      <c r="G14" s="3">
-        <v>0</v>
-      </c>
       <c r="H14" s="3">
+        <v>0</v>
+      </c>
+      <c r="I14" s="3">
         <v>-100</v>
       </c>
-      <c r="I14" s="3">
+      <c r="J14" s="3">
         <v>100</v>
       </c>
-      <c r="J14" s="3">
+      <c r="K14" s="3">
         <v>-1100</v>
       </c>
-      <c r="K14" s="3">
+      <c r="L14" s="3">
         <v>4600</v>
       </c>
-      <c r="L14" s="3">
+      <c r="M14" s="3">
         <v>-204600</v>
       </c>
-      <c r="M14" s="3">
+      <c r="N14" s="3">
         <v>200</v>
       </c>
-      <c r="N14" s="3">
-        <v>0</v>
-      </c>
       <c r="O14" s="3">
+        <v>0</v>
+      </c>
+      <c r="P14" s="3">
         <v>4900</v>
       </c>
-      <c r="P14" s="3">
+      <c r="Q14" s="3">
         <v>5200</v>
       </c>
-      <c r="Q14" s="3">
+      <c r="R14" s="3">
         <v>900</v>
       </c>
-      <c r="R14" s="3">
+      <c r="S14" s="3">
         <v>1300</v>
       </c>
-      <c r="S14" s="3">
+      <c r="T14" s="3">
         <v>1700</v>
       </c>
-      <c r="T14" s="3">
+      <c r="U14" s="3">
         <v>51800</v>
       </c>
-      <c r="U14" s="3">
+      <c r="V14" s="3">
         <v>7800</v>
       </c>
-      <c r="V14" s="3">
+      <c r="W14" s="3">
         <v>1300</v>
       </c>
-      <c r="W14" s="3">
+      <c r="X14" s="3">
         <v>3400</v>
       </c>
-      <c r="X14" s="3">
+      <c r="Y14" s="3">
         <v>100</v>
       </c>
-      <c r="Y14" s="3">
+      <c r="Z14" s="3">
         <v>4500</v>
       </c>
-      <c r="Z14" s="3">
+      <c r="AA14" s="3">
         <v>2900</v>
       </c>
-      <c r="AA14" s="3">
+      <c r="AB14" s="3">
         <v>2000</v>
       </c>
-      <c r="AB14" s="3">
+      <c r="AC14" s="3">
         <v>3100</v>
       </c>
-      <c r="AC14" s="3">
+      <c r="AD14" s="3">
         <v>4000</v>
       </c>
-      <c r="AD14" s="3">
+      <c r="AE14" s="3">
         <v>2900</v>
       </c>
     </row>
-    <row r="15" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:31" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D15" s="3">
-        <v>11300</v>
+        <v>11400</v>
       </c>
       <c r="E15" s="3">
         <v>11300</v>
       </c>
       <c r="F15" s="3">
+        <v>11300</v>
+      </c>
+      <c r="G15" s="3">
         <v>9300</v>
       </c>
-      <c r="G15" s="3">
+      <c r="H15" s="3">
         <v>5600</v>
       </c>
-      <c r="H15" s="3">
+      <c r="I15" s="3">
         <v>5800</v>
-      </c>
-      <c r="I15" s="3">
-        <v>5600</v>
       </c>
       <c r="J15" s="3">
         <v>5600</v>
       </c>
       <c r="K15" s="3">
-        <v>6200</v>
+        <v>5600</v>
       </c>
       <c r="L15" s="3">
         <v>6200</v>
       </c>
       <c r="M15" s="3">
+        <v>6200</v>
+      </c>
+      <c r="N15" s="3">
         <v>5900</v>
       </c>
-      <c r="N15" s="3">
+      <c r="O15" s="3">
         <v>5700</v>
       </c>
-      <c r="O15" s="3">
+      <c r="P15" s="3">
         <v>6200</v>
       </c>
-      <c r="P15" s="3">
+      <c r="Q15" s="3">
         <v>6100</v>
       </c>
-      <c r="Q15" s="3">
+      <c r="R15" s="3">
         <v>6200</v>
       </c>
-      <c r="R15" s="3">
+      <c r="S15" s="3">
         <v>6300</v>
-      </c>
-      <c r="S15" s="3">
-        <v>3600</v>
       </c>
       <c r="T15" s="3">
         <v>3600</v>
       </c>
       <c r="U15" s="3">
+        <v>3600</v>
+      </c>
+      <c r="V15" s="3">
         <v>800</v>
-      </c>
-      <c r="V15" s="3" t="s">
-        <v>17</v>
       </c>
       <c r="W15" s="3" t="s">
         <v>17</v>
@@ -1395,17 +1417,17 @@
       <c r="X15" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="Y15" s="3">
-        <v>0</v>
-      </c>
-      <c r="Z15" s="3" t="s">
+      <c r="Y15" s="3" t="s">
         <v>17</v>
+      </c>
+      <c r="Z15" s="3">
+        <v>0</v>
       </c>
       <c r="AA15" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="AB15" s="3">
-        <v>0</v>
+      <c r="AB15" s="3" t="s">
+        <v>17</v>
       </c>
       <c r="AC15" s="3">
         <v>0</v>
@@ -1413,8 +1435,11 @@
       <c r="AD15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:30" x14ac:dyDescent="0.2">
+      <c r="AE15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:31" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1442,180 +1467,187 @@
       <c r="AB16" s="3"/>
       <c r="AC16" s="3"/>
       <c r="AD16" s="3"/>
-    </row>
-    <row r="17" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE16" s="3"/>
+    </row>
+    <row r="17" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>11</v>
       </c>
       <c r="D17" s="3">
+        <v>426700</v>
+      </c>
+      <c r="E17" s="3">
         <v>434800</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="3">
         <v>527900</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>493300</v>
       </c>
-      <c r="G17" s="3">
+      <c r="H17" s="3">
         <v>366700</v>
       </c>
-      <c r="H17" s="3">
+      <c r="I17" s="3">
         <v>348600</v>
       </c>
-      <c r="I17" s="3">
+      <c r="J17" s="3">
         <v>361500</v>
       </c>
-      <c r="J17" s="3">
+      <c r="K17" s="3">
         <v>332500</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>346300</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>152600</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>363500</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>353400</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>341100</v>
       </c>
-      <c r="P17" s="3">
+      <c r="Q17" s="3">
         <v>360300</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="R17" s="3">
         <v>383000</v>
       </c>
-      <c r="R17" s="3">
+      <c r="S17" s="3">
         <v>390100</v>
       </c>
-      <c r="S17" s="3">
+      <c r="T17" s="3">
         <v>418400</v>
       </c>
-      <c r="T17" s="3">
+      <c r="U17" s="3">
         <v>509300</v>
       </c>
-      <c r="U17" s="3">
+      <c r="V17" s="3">
         <v>362200</v>
       </c>
-      <c r="V17" s="3">
+      <c r="W17" s="3">
         <v>297000</v>
       </c>
-      <c r="W17" s="3">
+      <c r="X17" s="3">
         <v>280200</v>
       </c>
-      <c r="X17" s="3">
+      <c r="Y17" s="3">
         <v>273300</v>
       </c>
-      <c r="Y17" s="3">
+      <c r="Z17" s="3">
         <v>313800</v>
       </c>
-      <c r="Z17" s="3">
+      <c r="AA17" s="3">
         <v>240500</v>
       </c>
-      <c r="AA17" s="3">
+      <c r="AB17" s="3">
         <v>218800</v>
       </c>
-      <c r="AB17" s="3">
+      <c r="AC17" s="3">
         <v>242200</v>
       </c>
-      <c r="AC17" s="3">
+      <c r="AD17" s="3">
         <v>251700</v>
       </c>
-      <c r="AD17" s="3">
+      <c r="AE17" s="3">
         <v>241300</v>
       </c>
     </row>
-    <row r="18" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D18" s="3">
+        <v>-55900</v>
+      </c>
+      <c r="E18" s="3">
         <v>-51400</v>
       </c>
-      <c r="E18" s="3">
+      <c r="F18" s="3">
         <v>-21900</v>
       </c>
-      <c r="F18" s="3">
+      <c r="G18" s="3">
         <v>13500</v>
       </c>
-      <c r="G18" s="3">
+      <c r="H18" s="3">
         <v>55400</v>
       </c>
-      <c r="H18" s="3">
+      <c r="I18" s="3">
         <v>46800</v>
       </c>
-      <c r="I18" s="3">
+      <c r="J18" s="3">
         <v>85200</v>
       </c>
-      <c r="J18" s="3">
+      <c r="K18" s="3">
         <v>115900</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>45800</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>266900</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>115300</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>99000</v>
       </c>
-      <c r="O18" s="3">
+      <c r="P18" s="3">
         <v>27000</v>
       </c>
-      <c r="P18" s="3">
+      <c r="Q18" s="3">
         <v>42500</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="R18" s="3">
         <v>74800</v>
       </c>
-      <c r="R18" s="3">
+      <c r="S18" s="3">
         <v>59800</v>
       </c>
-      <c r="S18" s="3">
+      <c r="T18" s="3">
         <v>-13800</v>
       </c>
-      <c r="T18" s="3">
+      <c r="U18" s="3">
         <v>-76400</v>
       </c>
-      <c r="U18" s="3">
+      <c r="V18" s="3">
         <v>11500</v>
       </c>
-      <c r="V18" s="3">
+      <c r="W18" s="3">
         <v>57100</v>
       </c>
-      <c r="W18" s="3">
+      <c r="X18" s="3">
         <v>20900</v>
       </c>
-      <c r="X18" s="3">
+      <c r="Y18" s="3">
         <v>25500</v>
       </c>
-      <c r="Y18" s="3">
+      <c r="Z18" s="3">
         <v>90800</v>
       </c>
-      <c r="Z18" s="3">
+      <c r="AA18" s="3">
         <v>2700</v>
       </c>
-      <c r="AA18" s="3">
+      <c r="AB18" s="3">
         <v>3900</v>
       </c>
-      <c r="AB18" s="3">
+      <c r="AC18" s="3">
         <v>13600</v>
       </c>
-      <c r="AC18" s="3">
+      <c r="AD18" s="3">
         <v>13300</v>
       </c>
-      <c r="AD18" s="3">
+      <c r="AE18" s="3">
         <v>16800</v>
       </c>
     </row>
-    <row r="19" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>13</v>
       </c>
@@ -1646,242 +1678,249 @@
       <c r="AB19" s="3"/>
       <c r="AC19" s="3"/>
       <c r="AD19" s="3"/>
-    </row>
-    <row r="20" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE19" s="3"/>
+    </row>
+    <row r="20" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>14</v>
       </c>
       <c r="D20" s="3">
+        <v>19900</v>
+      </c>
+      <c r="E20" s="3">
         <v>11400</v>
       </c>
-      <c r="E20" s="3">
+      <c r="F20" s="3">
         <v>3700</v>
       </c>
-      <c r="F20" s="3">
+      <c r="G20" s="3">
         <v>13800</v>
       </c>
-      <c r="G20" s="3">
+      <c r="H20" s="3">
         <v>8200</v>
       </c>
-      <c r="H20" s="3">
+      <c r="I20" s="3">
         <v>2200</v>
       </c>
-      <c r="I20" s="3">
+      <c r="J20" s="3">
         <v>1000</v>
       </c>
-      <c r="J20" s="3">
+      <c r="K20" s="3">
         <v>600</v>
       </c>
-      <c r="K20" s="3">
+      <c r="L20" s="3">
         <v>700</v>
       </c>
-      <c r="L20" s="3">
+      <c r="M20" s="3">
         <v>2400</v>
       </c>
-      <c r="M20" s="3">
+      <c r="N20" s="3">
         <v>-900</v>
       </c>
-      <c r="N20" s="3">
+      <c r="O20" s="3">
         <v>600</v>
       </c>
-      <c r="O20" s="3">
+      <c r="P20" s="3">
         <v>3500</v>
       </c>
-      <c r="P20" s="3">
+      <c r="Q20" s="3">
         <v>21700</v>
       </c>
-      <c r="Q20" s="3">
+      <c r="R20" s="3">
         <v>1200</v>
       </c>
-      <c r="R20" s="3">
+      <c r="S20" s="3">
         <v>5000</v>
       </c>
-      <c r="S20" s="3">
+      <c r="T20" s="3">
         <v>4100</v>
       </c>
-      <c r="T20" s="3">
+      <c r="U20" s="3">
         <v>5200</v>
       </c>
-      <c r="U20" s="3">
+      <c r="V20" s="3">
         <v>14700</v>
       </c>
-      <c r="V20" s="3">
+      <c r="W20" s="3">
         <v>600</v>
       </c>
-      <c r="W20" s="3">
+      <c r="X20" s="3">
         <v>11400</v>
       </c>
-      <c r="X20" s="3">
+      <c r="Y20" s="3">
         <v>-18200</v>
       </c>
-      <c r="Y20" s="3">
+      <c r="Z20" s="3">
         <v>9300</v>
       </c>
-      <c r="Z20" s="3">
+      <c r="AA20" s="3">
         <v>5200</v>
       </c>
-      <c r="AA20" s="3">
+      <c r="AB20" s="3">
         <v>-31500</v>
       </c>
-      <c r="AB20" s="3">
+      <c r="AC20" s="3">
         <v>-58000</v>
       </c>
-      <c r="AC20" s="3">
+      <c r="AD20" s="3">
         <v>4600</v>
       </c>
-      <c r="AD20" s="3">
+      <c r="AE20" s="3">
         <v>-22500</v>
       </c>
     </row>
-    <row r="21" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D21" s="3">
+        <v>42700</v>
+      </c>
+      <c r="E21" s="3">
         <v>17700</v>
       </c>
-      <c r="E21" s="3">
+      <c r="F21" s="3">
         <v>44300</v>
       </c>
-      <c r="F21" s="3">
+      <c r="G21" s="3">
         <v>84000</v>
       </c>
-      <c r="G21" s="3">
+      <c r="H21" s="3">
         <v>105200</v>
       </c>
-      <c r="H21" s="3">
+      <c r="I21" s="3">
         <v>90600</v>
       </c>
-      <c r="I21" s="3">
+      <c r="J21" s="3">
         <v>128300</v>
       </c>
-      <c r="J21" s="3">
+      <c r="K21" s="3">
         <v>158300</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>89600</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>314100</v>
       </c>
-      <c r="M21" s="3">
+      <c r="N21" s="3">
         <v>159100</v>
       </c>
-      <c r="N21" s="3">
+      <c r="O21" s="3">
         <v>144100</v>
       </c>
-      <c r="O21" s="3">
+      <c r="P21" s="3">
         <v>77200</v>
       </c>
-      <c r="P21" s="3">
+      <c r="Q21" s="3">
         <v>111700</v>
       </c>
-      <c r="Q21" s="3">
+      <c r="R21" s="3">
         <v>123300</v>
       </c>
-      <c r="R21" s="3">
+      <c r="S21" s="3">
         <v>115200</v>
       </c>
-      <c r="S21" s="3">
+      <c r="T21" s="3">
         <v>35400</v>
       </c>
-      <c r="T21" s="3">
+      <c r="U21" s="3">
         <v>-10500</v>
       </c>
-      <c r="U21" s="3">
+      <c r="V21" s="3">
         <v>57400</v>
       </c>
-      <c r="V21" s="3">
+      <c r="W21" s="3">
         <v>78200</v>
       </c>
-      <c r="W21" s="3">
+      <c r="X21" s="3">
         <v>53800</v>
       </c>
-      <c r="X21" s="3">
+      <c r="Y21" s="3">
         <v>26500</v>
       </c>
-      <c r="Y21" s="3">
+      <c r="Z21" s="3">
         <v>119100</v>
       </c>
-      <c r="Z21" s="3">
+      <c r="AA21" s="3">
         <v>25400</v>
       </c>
-      <c r="AA21" s="3">
+      <c r="AB21" s="3">
         <v>-11100</v>
       </c>
-      <c r="AB21" s="3">
+      <c r="AC21" s="3">
         <v>-28500</v>
       </c>
-      <c r="AC21" s="3">
+      <c r="AD21" s="3">
         <v>32800</v>
       </c>
-      <c r="AD21" s="3">
+      <c r="AE21" s="3">
         <v>8000</v>
       </c>
     </row>
-    <row r="22" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D22" s="3">
+        <v>9400</v>
+      </c>
+      <c r="E22" s="3">
         <v>8700</v>
       </c>
-      <c r="E22" s="3">
+      <c r="F22" s="3">
         <v>8900</v>
       </c>
-      <c r="F22" s="3">
+      <c r="G22" s="3">
         <v>8500</v>
       </c>
-      <c r="G22" s="3">
+      <c r="H22" s="3">
         <v>26500</v>
       </c>
-      <c r="H22" s="3">
+      <c r="I22" s="3">
         <v>19700</v>
       </c>
-      <c r="I22" s="3">
+      <c r="J22" s="3">
         <v>17100</v>
       </c>
-      <c r="J22" s="3">
+      <c r="K22" s="3">
         <v>16900</v>
       </c>
-      <c r="K22" s="3">
+      <c r="L22" s="3">
         <v>18000</v>
       </c>
-      <c r="L22" s="3">
+      <c r="M22" s="3">
         <v>16400</v>
       </c>
-      <c r="M22" s="3">
+      <c r="N22" s="3">
         <v>16300</v>
       </c>
-      <c r="N22" s="3">
+      <c r="O22" s="3">
         <v>16000</v>
       </c>
-      <c r="O22" s="3">
+      <c r="P22" s="3">
         <v>15900</v>
       </c>
-      <c r="P22" s="3">
+      <c r="Q22" s="3">
         <v>15600</v>
       </c>
-      <c r="Q22" s="3">
+      <c r="R22" s="3">
         <v>18300</v>
-      </c>
-      <c r="R22" s="3">
-        <v>11400</v>
       </c>
       <c r="S22" s="3">
         <v>11400</v>
       </c>
       <c r="T22" s="3">
+        <v>11400</v>
+      </c>
+      <c r="U22" s="3">
         <v>11300</v>
       </c>
-      <c r="U22" s="3">
+      <c r="V22" s="3">
         <v>8500</v>
       </c>
-      <c r="V22" s="3">
+      <c r="W22" s="3">
         <v>5100</v>
-      </c>
-      <c r="W22" s="3">
-        <v>4600</v>
       </c>
       <c r="X22" s="3">
         <v>4600</v>
@@ -1890,10 +1929,10 @@
         <v>4600</v>
       </c>
       <c r="Z22" s="3">
+        <v>4600</v>
+      </c>
+      <c r="AA22" s="3">
         <v>4400</v>
-      </c>
-      <c r="AA22" s="3" t="s">
-        <v>17</v>
       </c>
       <c r="AB22" s="3" t="s">
         <v>17</v>
@@ -1904,180 +1943,189 @@
       <c r="AD22" s="3" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="23" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE22" s="3" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="23" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>-45400</v>
+      </c>
+      <c r="E23" s="3">
         <v>-48700</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>-27100</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>18800</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
         <v>37100</v>
       </c>
-      <c r="H23" s="3">
+      <c r="I23" s="3">
         <v>29300</v>
       </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
         <v>69100</v>
       </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
         <v>99600</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>28500</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>252900</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>98100</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>83600</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>14600</v>
       </c>
-      <c r="P23" s="3">
+      <c r="Q23" s="3">
         <v>48600</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="R23" s="3">
         <v>57700</v>
       </c>
-      <c r="R23" s="3">
+      <c r="S23" s="3">
         <v>53400</v>
       </c>
-      <c r="S23" s="3">
+      <c r="T23" s="3">
         <v>-21100</v>
       </c>
-      <c r="T23" s="3">
+      <c r="U23" s="3">
         <v>-82500</v>
       </c>
-      <c r="U23" s="3">
+      <c r="V23" s="3">
         <v>17700</v>
       </c>
-      <c r="V23" s="3">
+      <c r="W23" s="3">
         <v>52600</v>
       </c>
-      <c r="W23" s="3">
+      <c r="X23" s="3">
         <v>27700</v>
       </c>
-      <c r="X23" s="3">
+      <c r="Y23" s="3">
         <v>2700</v>
       </c>
-      <c r="Y23" s="3">
+      <c r="Z23" s="3">
         <v>95500</v>
       </c>
-      <c r="Z23" s="3">
+      <c r="AA23" s="3">
         <v>3500</v>
       </c>
-      <c r="AA23" s="3">
+      <c r="AB23" s="3">
         <v>-27600</v>
       </c>
-      <c r="AB23" s="3">
+      <c r="AC23" s="3">
         <v>-44400</v>
       </c>
-      <c r="AC23" s="3">
+      <c r="AD23" s="3">
         <v>17900</v>
       </c>
-      <c r="AD23" s="3">
+      <c r="AE23" s="3">
         <v>-5700</v>
       </c>
     </row>
-    <row r="24" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
+        <v>14800</v>
+      </c>
+      <c r="E24" s="3">
         <v>-9400</v>
       </c>
-      <c r="E24" s="3">
+      <c r="F24" s="3">
         <v>4600</v>
       </c>
-      <c r="F24" s="3">
+      <c r="G24" s="3">
         <v>19200</v>
       </c>
-      <c r="G24" s="3">
+      <c r="H24" s="3">
         <v>2400</v>
       </c>
-      <c r="H24" s="3">
+      <c r="I24" s="3">
         <v>3300</v>
       </c>
-      <c r="I24" s="3">
+      <c r="J24" s="3">
         <v>12400</v>
       </c>
-      <c r="J24" s="3">
+      <c r="K24" s="3">
         <v>18100</v>
       </c>
-      <c r="K24" s="3">
+      <c r="L24" s="3">
         <v>7000</v>
       </c>
-      <c r="L24" s="3">
+      <c r="M24" s="3">
         <v>27400</v>
       </c>
-      <c r="M24" s="3">
+      <c r="N24" s="3">
         <v>14900</v>
       </c>
-      <c r="N24" s="3">
+      <c r="O24" s="3">
         <v>16500</v>
       </c>
-      <c r="O24" s="3">
+      <c r="P24" s="3">
         <v>19200</v>
       </c>
-      <c r="P24" s="3">
+      <c r="Q24" s="3">
         <v>5200</v>
       </c>
-      <c r="Q24" s="3">
+      <c r="R24" s="3">
         <v>8600</v>
       </c>
-      <c r="R24" s="3">
+      <c r="S24" s="3">
         <v>5800</v>
       </c>
-      <c r="S24" s="3">
+      <c r="T24" s="3">
         <v>4700</v>
       </c>
-      <c r="T24" s="3">
+      <c r="U24" s="3">
         <v>-8200</v>
       </c>
-      <c r="U24" s="3">
+      <c r="V24" s="3">
         <v>1400</v>
       </c>
-      <c r="V24" s="3">
+      <c r="W24" s="3">
         <v>5200</v>
       </c>
-      <c r="W24" s="3">
+      <c r="X24" s="3">
         <v>-3300</v>
       </c>
-      <c r="X24" s="3">
-        <v>0</v>
-      </c>
       <c r="Y24" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z24" s="3">
         <v>-109300</v>
       </c>
-      <c r="Z24" s="3">
+      <c r="AA24" s="3">
         <v>-3600</v>
       </c>
-      <c r="AA24" s="3">
+      <c r="AB24" s="3">
         <v>27300</v>
       </c>
-      <c r="AB24" s="3">
+      <c r="AC24" s="3">
         <v>11600</v>
       </c>
-      <c r="AC24" s="3">
+      <c r="AD24" s="3">
         <v>6100</v>
       </c>
-      <c r="AD24" s="3">
+      <c r="AE24" s="3">
         <v>-2300</v>
       </c>
     </row>
-    <row r="25" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="25" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -2162,180 +2210,189 @@
       <c r="AD25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>-60200</v>
+      </c>
+      <c r="E26" s="3">
         <v>-39300</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
         <v>-31700</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>-400</v>
       </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
         <v>34700</v>
       </c>
-      <c r="H26" s="3">
+      <c r="I26" s="3">
         <v>26000</v>
       </c>
-      <c r="I26" s="3">
+      <c r="J26" s="3">
         <v>56700</v>
       </c>
-      <c r="J26" s="3">
+      <c r="K26" s="3">
         <v>81500</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>21500</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>225500</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>83200</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>67100</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>-4600</v>
       </c>
-      <c r="P26" s="3">
+      <c r="Q26" s="3">
         <v>43400</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="R26" s="3">
         <v>49100</v>
       </c>
-      <c r="R26" s="3">
+      <c r="S26" s="3">
         <v>47600</v>
       </c>
-      <c r="S26" s="3">
+      <c r="T26" s="3">
         <v>-25800</v>
       </c>
-      <c r="T26" s="3">
+      <c r="U26" s="3">
         <v>-74300</v>
       </c>
-      <c r="U26" s="3">
+      <c r="V26" s="3">
         <v>16300</v>
       </c>
-      <c r="V26" s="3">
+      <c r="W26" s="3">
         <v>47400</v>
       </c>
-      <c r="W26" s="3">
+      <c r="X26" s="3">
         <v>31000</v>
       </c>
-      <c r="X26" s="3">
+      <c r="Y26" s="3">
         <v>2700</v>
       </c>
-      <c r="Y26" s="3">
+      <c r="Z26" s="3">
         <v>204800</v>
       </c>
-      <c r="Z26" s="3">
+      <c r="AA26" s="3">
         <v>7100</v>
       </c>
-      <c r="AA26" s="3">
+      <c r="AB26" s="3">
         <v>-54900</v>
       </c>
-      <c r="AB26" s="3">
+      <c r="AC26" s="3">
         <v>-56000</v>
       </c>
-      <c r="AC26" s="3">
+      <c r="AD26" s="3">
         <v>11800</v>
       </c>
-      <c r="AD26" s="3">
+      <c r="AE26" s="3">
         <v>-3400</v>
       </c>
     </row>
-    <row r="27" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>-60200</v>
+      </c>
+      <c r="E27" s="3">
         <v>-39300</v>
       </c>
-      <c r="E27" s="3">
+      <c r="F27" s="3">
         <v>-31700</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>-400</v>
       </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
         <v>34700</v>
       </c>
-      <c r="H27" s="3">
+      <c r="I27" s="3">
         <v>26000</v>
       </c>
-      <c r="I27" s="3">
+      <c r="J27" s="3">
         <v>56700</v>
       </c>
-      <c r="J27" s="3">
+      <c r="K27" s="3">
         <v>81500</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>21500</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>225500</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>83200</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>67100</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>-4600</v>
       </c>
-      <c r="P27" s="3">
+      <c r="Q27" s="3">
         <v>43400</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="R27" s="3">
         <v>49100</v>
       </c>
-      <c r="R27" s="3">
+      <c r="S27" s="3">
         <v>47600</v>
       </c>
-      <c r="S27" s="3">
+      <c r="T27" s="3">
         <v>-25800</v>
       </c>
-      <c r="T27" s="3">
+      <c r="U27" s="3">
         <v>-74300</v>
       </c>
-      <c r="U27" s="3">
+      <c r="V27" s="3">
         <v>16200</v>
       </c>
-      <c r="V27" s="3">
+      <c r="W27" s="3">
         <v>46100</v>
       </c>
-      <c r="W27" s="3">
+      <c r="X27" s="3">
         <v>30000</v>
       </c>
-      <c r="X27" s="3">
+      <c r="Y27" s="3">
         <v>2400</v>
       </c>
-      <c r="Y27" s="3">
+      <c r="Z27" s="3">
         <v>199800</v>
       </c>
-      <c r="Z27" s="3">
+      <c r="AA27" s="3">
         <v>6900</v>
       </c>
-      <c r="AA27" s="3">
+      <c r="AB27" s="3">
         <v>-55200</v>
       </c>
-      <c r="AB27" s="3">
+      <c r="AC27" s="3">
         <v>-56200</v>
       </c>
-      <c r="AC27" s="3">
+      <c r="AD27" s="3">
         <v>11600</v>
       </c>
-      <c r="AD27" s="3">
+      <c r="AE27" s="3">
         <v>-3600</v>
       </c>
     </row>
-    <row r="28" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -2420,8 +2477,11 @@
       <c r="AD28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -2464,17 +2524,17 @@
       <c r="P29" s="3">
         <v>0</v>
       </c>
-      <c r="Q29" s="3" t="s">
-        <v>17</v>
+      <c r="Q29" s="3">
+        <v>0</v>
       </c>
       <c r="R29" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="S29" s="3">
-        <v>0</v>
-      </c>
-      <c r="T29" s="3" t="s">
+      <c r="S29" s="3" t="s">
         <v>17</v>
+      </c>
+      <c r="T29" s="3">
+        <v>0</v>
       </c>
       <c r="U29" s="3" t="s">
         <v>17</v>
@@ -2482,17 +2542,17 @@
       <c r="V29" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="W29" s="3">
+      <c r="W29" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="X29" s="3">
         <v>2500</v>
       </c>
-      <c r="X29" s="3">
-        <v>0</v>
-      </c>
       <c r="Y29" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z29" s="3">
         <v>-83000</v>
-      </c>
-      <c r="Z29" s="3" t="s">
-        <v>17</v>
       </c>
       <c r="AA29" s="3" t="s">
         <v>17</v>
@@ -2506,8 +2566,11 @@
       <c r="AD29" s="3" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="30" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE29" s="3" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="30" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -2592,8 +2655,11 @@
       <c r="AD30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -2678,180 +2744,189 @@
       <c r="AD31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
+        <v>-19900</v>
+      </c>
+      <c r="E32" s="3">
         <v>-11400</v>
       </c>
-      <c r="E32" s="3">
+      <c r="F32" s="3">
         <v>-3700</v>
       </c>
-      <c r="F32" s="3">
+      <c r="G32" s="3">
         <v>-13800</v>
       </c>
-      <c r="G32" s="3">
+      <c r="H32" s="3">
         <v>-8200</v>
       </c>
-      <c r="H32" s="3">
+      <c r="I32" s="3">
         <v>-2200</v>
       </c>
-      <c r="I32" s="3">
+      <c r="J32" s="3">
         <v>-1000</v>
       </c>
-      <c r="J32" s="3">
+      <c r="K32" s="3">
         <v>-600</v>
       </c>
-      <c r="K32" s="3">
+      <c r="L32" s="3">
         <v>-700</v>
       </c>
-      <c r="L32" s="3">
+      <c r="M32" s="3">
         <v>-2400</v>
       </c>
-      <c r="M32" s="3">
+      <c r="N32" s="3">
         <v>900</v>
       </c>
-      <c r="N32" s="3">
+      <c r="O32" s="3">
         <v>-600</v>
       </c>
-      <c r="O32" s="3">
+      <c r="P32" s="3">
         <v>-3500</v>
       </c>
-      <c r="P32" s="3">
+      <c r="Q32" s="3">
         <v>-21700</v>
       </c>
-      <c r="Q32" s="3">
+      <c r="R32" s="3">
         <v>-1200</v>
       </c>
-      <c r="R32" s="3">
+      <c r="S32" s="3">
         <v>-5000</v>
       </c>
-      <c r="S32" s="3">
+      <c r="T32" s="3">
         <v>-4100</v>
       </c>
-      <c r="T32" s="3">
+      <c r="U32" s="3">
         <v>-5200</v>
       </c>
-      <c r="U32" s="3">
+      <c r="V32" s="3">
         <v>-14700</v>
       </c>
-      <c r="V32" s="3">
+      <c r="W32" s="3">
         <v>-600</v>
       </c>
-      <c r="W32" s="3">
+      <c r="X32" s="3">
         <v>-11400</v>
       </c>
-      <c r="X32" s="3">
+      <c r="Y32" s="3">
         <v>18200</v>
       </c>
-      <c r="Y32" s="3">
+      <c r="Z32" s="3">
         <v>-9300</v>
       </c>
-      <c r="Z32" s="3">
+      <c r="AA32" s="3">
         <v>-5200</v>
       </c>
-      <c r="AA32" s="3">
+      <c r="AB32" s="3">
         <v>31500</v>
       </c>
-      <c r="AB32" s="3">
+      <c r="AC32" s="3">
         <v>58000</v>
       </c>
-      <c r="AC32" s="3">
+      <c r="AD32" s="3">
         <v>-4600</v>
       </c>
-      <c r="AD32" s="3">
+      <c r="AE32" s="3">
         <v>22500</v>
       </c>
     </row>
-    <row r="33" spans="2:30" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>-60200</v>
+      </c>
+      <c r="E33" s="3">
         <v>-39300</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
         <v>-31700</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>-400</v>
       </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
         <v>34700</v>
       </c>
-      <c r="H33" s="3">
+      <c r="I33" s="3">
         <v>26000</v>
       </c>
-      <c r="I33" s="3">
+      <c r="J33" s="3">
         <v>56700</v>
       </c>
-      <c r="J33" s="3">
+      <c r="K33" s="3">
         <v>81500</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>21500</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>225500</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>83200</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>67100</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>-4600</v>
       </c>
-      <c r="P33" s="3">
+      <c r="Q33" s="3">
         <v>43400</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="R33" s="3">
         <v>49100</v>
       </c>
-      <c r="R33" s="3">
+      <c r="S33" s="3">
         <v>47600</v>
       </c>
-      <c r="S33" s="3">
+      <c r="T33" s="3">
         <v>-25800</v>
       </c>
-      <c r="T33" s="3">
+      <c r="U33" s="3">
         <v>-74300</v>
       </c>
-      <c r="U33" s="3">
+      <c r="V33" s="3">
         <v>16200</v>
       </c>
-      <c r="V33" s="3">
+      <c r="W33" s="3">
         <v>46100</v>
       </c>
-      <c r="W33" s="3">
+      <c r="X33" s="3">
         <v>32500</v>
       </c>
-      <c r="X33" s="3">
+      <c r="Y33" s="3">
         <v>2400</v>
       </c>
-      <c r="Y33" s="3">
+      <c r="Z33" s="3">
         <v>116800</v>
       </c>
-      <c r="Z33" s="3">
+      <c r="AA33" s="3">
         <v>6900</v>
       </c>
-      <c r="AA33" s="3">
+      <c r="AB33" s="3">
         <v>-55200</v>
       </c>
-      <c r="AB33" s="3">
+      <c r="AC33" s="3">
         <v>-56200</v>
       </c>
-      <c r="AC33" s="3">
+      <c r="AD33" s="3">
         <v>11600</v>
       </c>
-      <c r="AD33" s="3">
+      <c r="AE33" s="3">
         <v>-3600</v>
       </c>
     </row>
-    <row r="34" spans="2:30" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2936,185 +3011,194 @@
       <c r="AD34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>-60200</v>
+      </c>
+      <c r="E35" s="3">
         <v>-39300</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
         <v>-31700</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>-400</v>
       </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
         <v>34700</v>
       </c>
-      <c r="H35" s="3">
+      <c r="I35" s="3">
         <v>26000</v>
       </c>
-      <c r="I35" s="3">
+      <c r="J35" s="3">
         <v>56700</v>
       </c>
-      <c r="J35" s="3">
+      <c r="K35" s="3">
         <v>81500</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>21500</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>225500</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>83200</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>67100</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>-4600</v>
       </c>
-      <c r="P35" s="3">
+      <c r="Q35" s="3">
         <v>43400</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="R35" s="3">
         <v>49100</v>
       </c>
-      <c r="R35" s="3">
+      <c r="S35" s="3">
         <v>47600</v>
       </c>
-      <c r="S35" s="3">
+      <c r="T35" s="3">
         <v>-25800</v>
       </c>
-      <c r="T35" s="3">
+      <c r="U35" s="3">
         <v>-74300</v>
       </c>
-      <c r="U35" s="3">
+      <c r="V35" s="3">
         <v>16200</v>
       </c>
-      <c r="V35" s="3">
+      <c r="W35" s="3">
         <v>46100</v>
       </c>
-      <c r="W35" s="3">
+      <c r="X35" s="3">
         <v>32500</v>
       </c>
-      <c r="X35" s="3">
+      <c r="Y35" s="3">
         <v>2400</v>
       </c>
-      <c r="Y35" s="3">
+      <c r="Z35" s="3">
         <v>116800</v>
       </c>
-      <c r="Z35" s="3">
+      <c r="AA35" s="3">
         <v>6900</v>
       </c>
-      <c r="AA35" s="3">
+      <c r="AB35" s="3">
         <v>-55200</v>
       </c>
-      <c r="AB35" s="3">
+      <c r="AC35" s="3">
         <v>-56200</v>
       </c>
-      <c r="AC35" s="3">
+      <c r="AD35" s="3">
         <v>11600</v>
       </c>
-      <c r="AD35" s="3">
+      <c r="AE35" s="3">
         <v>-3600</v>
       </c>
     </row>
-    <row r="37" spans="2:30" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:31" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:30" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>45108</v>
+      </c>
+      <c r="E38" s="2">
         <v>45017</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44926</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44835</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44744</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>44653</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>44562</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>44471</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>44380</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>44289</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>44191</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>44100</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>44009</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>43918</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>43827</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>43736</v>
       </c>
-      <c r="S38" s="2">
+      <c r="T38" s="2">
         <v>43645</v>
       </c>
-      <c r="T38" s="2">
+      <c r="U38" s="2">
         <v>43554</v>
       </c>
-      <c r="U38" s="2">
+      <c r="V38" s="2">
         <v>43463</v>
       </c>
-      <c r="V38" s="2">
+      <c r="W38" s="2">
         <v>43372</v>
       </c>
-      <c r="W38" s="2">
+      <c r="X38" s="2">
         <v>43281</v>
       </c>
-      <c r="X38" s="2">
+      <c r="Y38" s="2">
         <v>43190</v>
       </c>
-      <c r="Y38" s="2">
+      <c r="Z38" s="2">
         <v>43099</v>
       </c>
-      <c r="Z38" s="2">
+      <c r="AA38" s="2">
         <v>43008</v>
       </c>
-      <c r="AA38" s="2">
+      <c r="AB38" s="2">
         <v>42917</v>
       </c>
-      <c r="AB38" s="2">
+      <c r="AC38" s="2">
         <v>42826</v>
       </c>
-      <c r="AC38" s="2">
+      <c r="AD38" s="2">
         <v>42735</v>
       </c>
-      <c r="AD38" s="2">
+      <c r="AE38" s="2">
         <v>42644</v>
       </c>
     </row>
-    <row r="39" spans="2:30" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -3145,8 +3229,9 @@
       <c r="AB39" s="3"/>
       <c r="AC39" s="3"/>
       <c r="AD39" s="3"/>
-    </row>
-    <row r="40" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE39" s="3"/>
+    </row>
+    <row r="40" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -3177,171 +3262,175 @@
       <c r="AB40" s="3"/>
       <c r="AC40" s="3"/>
       <c r="AD40" s="3"/>
-    </row>
-    <row r="41" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE40" s="3"/>
+    </row>
+    <row r="41" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>859000</v>
+      </c>
+      <c r="E41" s="3">
         <v>549200</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>592100</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>605300</v>
       </c>
-      <c r="G41" s="3">
+      <c r="H41" s="3">
         <v>1290200</v>
       </c>
-      <c r="H41" s="3">
+      <c r="I41" s="3">
         <v>1130300</v>
       </c>
-      <c r="I41" s="3">
+      <c r="J41" s="3">
         <v>552000</v>
       </c>
-      <c r="J41" s="3">
+      <c r="K41" s="3">
         <v>611000</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>774300</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>687700</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>321300</v>
       </c>
-      <c r="N41" s="3">
+      <c r="O41" s="3">
         <v>269500</v>
       </c>
-      <c r="O41" s="3">
+      <c r="P41" s="3">
         <v>298000</v>
       </c>
-      <c r="P41" s="3">
+      <c r="Q41" s="3">
         <v>688300</v>
       </c>
-      <c r="Q41" s="3">
+      <c r="R41" s="3">
         <v>1085000</v>
       </c>
-      <c r="R41" s="3">
+      <c r="S41" s="3">
         <v>539000</v>
       </c>
-      <c r="S41" s="3">
+      <c r="T41" s="3">
         <v>432600</v>
       </c>
-      <c r="T41" s="3">
+      <c r="U41" s="3">
         <v>357300</v>
       </c>
-      <c r="U41" s="3">
+      <c r="V41" s="3">
         <v>371300</v>
       </c>
-      <c r="V41" s="3">
+      <c r="W41" s="3">
         <v>459400</v>
       </c>
-      <c r="W41" s="3">
+      <c r="X41" s="3">
         <v>397300</v>
       </c>
-      <c r="X41" s="3">
+      <c r="Y41" s="3">
         <v>176800</v>
       </c>
-      <c r="Y41" s="3">
+      <c r="Z41" s="3">
         <v>202100</v>
       </c>
-      <c r="Z41" s="3">
+      <c r="AA41" s="3">
         <v>150800</v>
       </c>
-      <c r="AA41" s="3">
+      <c r="AB41" s="3">
         <v>272900</v>
       </c>
-      <c r="AB41" s="3">
+      <c r="AC41" s="3">
         <v>577900</v>
       </c>
-      <c r="AC41" s="3">
+      <c r="AD41" s="3">
         <v>155900</v>
       </c>
-      <c r="AD41" s="3">
+      <c r="AE41" s="3">
         <v>166800</v>
       </c>
     </row>
-    <row r="42" spans="2:30" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
       <c r="D42" s="3">
+        <v>1154600</v>
+      </c>
+      <c r="E42" s="3">
         <v>1118000</v>
       </c>
-      <c r="E42" s="3">
+      <c r="F42" s="3">
         <v>1088300</v>
       </c>
-      <c r="F42" s="3">
+      <c r="G42" s="3">
         <v>1019600</v>
       </c>
-      <c r="G42" s="3">
+      <c r="H42" s="3">
         <v>1258800</v>
       </c>
-      <c r="H42" s="3">
+      <c r="I42" s="3">
         <v>1433800</v>
       </c>
-      <c r="I42" s="3">
+      <c r="J42" s="3">
         <v>1470400</v>
       </c>
-      <c r="J42" s="3">
+      <c r="K42" s="3">
         <v>1273600</v>
       </c>
-      <c r="K42" s="3">
+      <c r="L42" s="3">
         <v>1171700</v>
       </c>
-      <c r="L42" s="3">
+      <c r="M42" s="3">
         <v>1366900</v>
       </c>
-      <c r="M42" s="3">
+      <c r="N42" s="3">
         <v>1379000</v>
       </c>
-      <c r="N42" s="3">
+      <c r="O42" s="3">
         <v>1341200</v>
       </c>
-      <c r="O42" s="3">
+      <c r="P42" s="3">
         <v>1255800</v>
       </c>
-      <c r="P42" s="3">
+      <c r="Q42" s="3">
         <v>763100</v>
       </c>
-      <c r="Q42" s="3">
+      <c r="R42" s="3">
         <v>230600</v>
       </c>
-      <c r="R42" s="3">
+      <c r="S42" s="3">
         <v>291900</v>
       </c>
-      <c r="S42" s="3">
+      <c r="T42" s="3">
         <v>335900</v>
       </c>
-      <c r="T42" s="3">
+      <c r="U42" s="3">
         <v>340200</v>
       </c>
-      <c r="U42" s="3">
+      <c r="V42" s="3">
         <v>312800</v>
       </c>
-      <c r="V42" s="3">
+      <c r="W42" s="3">
         <v>274900</v>
       </c>
-      <c r="W42" s="3">
+      <c r="X42" s="3">
         <v>314200</v>
       </c>
-      <c r="X42" s="3">
+      <c r="Y42" s="3">
         <v>516000</v>
       </c>
-      <c r="Y42" s="3">
+      <c r="Z42" s="3">
         <v>422400</v>
       </c>
-      <c r="Z42" s="3">
+      <c r="AA42" s="3">
         <v>381700</v>
       </c>
-      <c r="AA42" s="3">
+      <c r="AB42" s="3">
         <v>282400</v>
-      </c>
-      <c r="AB42" s="3" t="s">
-        <v>17</v>
       </c>
       <c r="AC42" s="3" t="s">
         <v>17</v>
@@ -3349,352 +3438,367 @@
       <c r="AD42" s="3" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="43" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE42" s="3" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="43" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
+        <v>246100</v>
+      </c>
+      <c r="E43" s="3">
         <v>278000</v>
       </c>
-      <c r="E43" s="3">
+      <c r="F43" s="3">
         <v>330500</v>
       </c>
-      <c r="F43" s="3">
+      <c r="G43" s="3">
         <v>340500</v>
       </c>
-      <c r="G43" s="3">
+      <c r="H43" s="3">
         <v>262000</v>
       </c>
-      <c r="H43" s="3">
+      <c r="I43" s="3">
         <v>242200</v>
       </c>
-      <c r="I43" s="3">
+      <c r="J43" s="3">
         <v>239200</v>
       </c>
-      <c r="J43" s="3">
+      <c r="K43" s="3">
         <v>263200</v>
       </c>
-      <c r="K43" s="3">
+      <c r="L43" s="3">
         <v>212800</v>
       </c>
-      <c r="L43" s="3">
+      <c r="M43" s="3">
         <v>224800</v>
       </c>
-      <c r="M43" s="3">
+      <c r="N43" s="3">
         <v>276700</v>
       </c>
-      <c r="N43" s="3">
+      <c r="O43" s="3">
         <v>263600</v>
       </c>
-      <c r="O43" s="3">
+      <c r="P43" s="3">
         <v>233500</v>
       </c>
-      <c r="P43" s="3">
+      <c r="Q43" s="3">
         <v>303100</v>
       </c>
-      <c r="Q43" s="3">
+      <c r="R43" s="3">
         <v>343600</v>
       </c>
-      <c r="R43" s="3">
+      <c r="S43" s="3">
         <v>339600</v>
       </c>
-      <c r="S43" s="3">
+      <c r="T43" s="3">
         <v>286200</v>
       </c>
-      <c r="T43" s="3">
+      <c r="U43" s="3">
         <v>329700</v>
       </c>
-      <c r="U43" s="3">
+      <c r="V43" s="3">
         <v>266500</v>
       </c>
-      <c r="V43" s="3">
+      <c r="W43" s="3">
         <v>239600</v>
       </c>
-      <c r="W43" s="3">
+      <c r="X43" s="3">
         <v>197100</v>
       </c>
-      <c r="X43" s="3">
+      <c r="Y43" s="3">
         <v>164700</v>
       </c>
-      <c r="Y43" s="3">
+      <c r="Z43" s="3">
         <v>222100</v>
       </c>
-      <c r="Z43" s="3">
+      <c r="AA43" s="3">
         <v>173800</v>
       </c>
-      <c r="AA43" s="3">
+      <c r="AB43" s="3">
         <v>166300</v>
       </c>
-      <c r="AB43" s="3">
+      <c r="AC43" s="3">
         <v>185400</v>
       </c>
-      <c r="AC43" s="3">
+      <c r="AD43" s="3">
         <v>192500</v>
       </c>
-      <c r="AD43" s="3">
+      <c r="AE43" s="3">
         <v>156500</v>
       </c>
     </row>
-    <row r="44" spans="2:30" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
+        <v>408600</v>
+      </c>
+      <c r="E44" s="3">
         <v>410200</v>
       </c>
-      <c r="E44" s="3">
+      <c r="F44" s="3">
         <v>366900</v>
       </c>
-      <c r="F44" s="3">
+      <c r="G44" s="3">
         <v>366200</v>
       </c>
-      <c r="G44" s="3">
+      <c r="H44" s="3">
         <v>250100</v>
       </c>
-      <c r="H44" s="3">
+      <c r="I44" s="3">
         <v>224000</v>
       </c>
-      <c r="I44" s="3">
+      <c r="J44" s="3">
         <v>208100</v>
       </c>
-      <c r="J44" s="3">
+      <c r="K44" s="3">
         <v>207000</v>
       </c>
-      <c r="K44" s="3">
+      <c r="L44" s="3">
         <v>196400</v>
       </c>
-      <c r="L44" s="3">
+      <c r="M44" s="3">
         <v>210700</v>
       </c>
-      <c r="M44" s="3">
+      <c r="N44" s="3">
         <v>207100</v>
       </c>
-      <c r="N44" s="3">
+      <c r="O44" s="3">
         <v>212600</v>
       </c>
-      <c r="O44" s="3">
+      <c r="P44" s="3">
         <v>188900</v>
       </c>
-      <c r="P44" s="3">
+      <c r="Q44" s="3">
         <v>172700</v>
       </c>
-      <c r="Q44" s="3">
+      <c r="R44" s="3">
         <v>179600</v>
       </c>
-      <c r="R44" s="3">
+      <c r="S44" s="3">
         <v>202200</v>
       </c>
-      <c r="S44" s="3">
+      <c r="T44" s="3">
         <v>228800</v>
       </c>
-      <c r="T44" s="3">
+      <c r="U44" s="3">
         <v>272200</v>
       </c>
-      <c r="U44" s="3">
+      <c r="V44" s="3">
         <v>303200</v>
       </c>
-      <c r="V44" s="3">
+      <c r="W44" s="3">
         <v>136600</v>
       </c>
-      <c r="W44" s="3">
+      <c r="X44" s="3">
         <v>153600</v>
       </c>
-      <c r="X44" s="3">
+      <c r="Y44" s="3">
         <v>144200</v>
       </c>
-      <c r="Y44" s="3">
+      <c r="Z44" s="3">
         <v>147300</v>
       </c>
-      <c r="Z44" s="3">
+      <c r="AA44" s="3">
         <v>147200</v>
       </c>
-      <c r="AA44" s="3">
+      <c r="AB44" s="3">
         <v>145200</v>
       </c>
-      <c r="AB44" s="3">
+      <c r="AC44" s="3">
         <v>116900</v>
       </c>
-      <c r="AC44" s="3">
+      <c r="AD44" s="3">
         <v>121000</v>
       </c>
-      <c r="AD44" s="3">
+      <c r="AE44" s="3">
         <v>103700</v>
       </c>
     </row>
-    <row r="45" spans="2:30" x14ac:dyDescent="0.2">
+    <row r="45" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
+        <v>109600</v>
+      </c>
+      <c r="E45" s="3">
         <v>108200</v>
       </c>
-      <c r="E45" s="3">
+      <c r="F45" s="3">
         <v>114800</v>
       </c>
-      <c r="F45" s="3">
+      <c r="G45" s="3">
         <v>106800</v>
       </c>
-      <c r="G45" s="3">
+      <c r="H45" s="3">
         <v>78100</v>
       </c>
-      <c r="H45" s="3">
+      <c r="I45" s="3">
         <v>70300</v>
       </c>
-      <c r="I45" s="3">
+      <c r="J45" s="3">
         <v>70400</v>
       </c>
-      <c r="J45" s="3">
+      <c r="K45" s="3">
         <v>68200</v>
       </c>
-      <c r="K45" s="3">
+      <c r="L45" s="3">
         <v>81600</v>
       </c>
-      <c r="L45" s="3">
+      <c r="M45" s="3">
         <v>79700</v>
       </c>
-      <c r="M45" s="3">
+      <c r="N45" s="3">
         <v>82100</v>
       </c>
-      <c r="N45" s="3">
+      <c r="O45" s="3">
         <v>79800</v>
       </c>
-      <c r="O45" s="3">
+      <c r="P45" s="3">
         <v>73800</v>
       </c>
-      <c r="P45" s="3">
+      <c r="Q45" s="3">
         <v>35800</v>
       </c>
-      <c r="Q45" s="3">
+      <c r="R45" s="3">
         <v>44200</v>
       </c>
-      <c r="R45" s="3">
+      <c r="S45" s="3">
         <v>50500</v>
       </c>
-      <c r="S45" s="3">
+      <c r="T45" s="3">
         <v>49300</v>
       </c>
-      <c r="T45" s="3">
+      <c r="U45" s="3">
         <v>118700</v>
       </c>
-      <c r="U45" s="3">
+      <c r="V45" s="3">
         <v>103100</v>
       </c>
-      <c r="V45" s="3">
+      <c r="W45" s="3">
         <v>70600</v>
       </c>
-      <c r="W45" s="3">
+      <c r="X45" s="3">
         <v>65000</v>
       </c>
-      <c r="X45" s="3">
+      <c r="Y45" s="3">
         <v>63000</v>
       </c>
-      <c r="Y45" s="3">
+      <c r="Z45" s="3">
         <v>59900</v>
       </c>
-      <c r="Z45" s="3">
+      <c r="AA45" s="3">
         <v>69000</v>
       </c>
-      <c r="AA45" s="3">
+      <c r="AB45" s="3">
         <v>63500</v>
       </c>
-      <c r="AB45" s="3">
+      <c r="AC45" s="3">
         <v>61400</v>
       </c>
-      <c r="AC45" s="3">
+      <c r="AD45" s="3">
         <v>58200</v>
       </c>
-      <c r="AD45" s="3">
+      <c r="AE45" s="3">
         <v>62300</v>
       </c>
     </row>
-    <row r="46" spans="2:30" x14ac:dyDescent="0.2">
+    <row r="46" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>2777900</v>
+      </c>
+      <c r="E46" s="3">
         <v>2463600</v>
       </c>
-      <c r="E46" s="3">
+      <c r="F46" s="3">
         <v>2492600</v>
       </c>
-      <c r="F46" s="3">
+      <c r="G46" s="3">
         <v>2438400</v>
       </c>
-      <c r="G46" s="3">
+      <c r="H46" s="3">
         <v>3139200</v>
       </c>
-      <c r="H46" s="3">
+      <c r="I46" s="3">
         <v>3100600</v>
       </c>
-      <c r="I46" s="3">
+      <c r="J46" s="3">
         <v>2540100</v>
       </c>
-      <c r="J46" s="3">
+      <c r="K46" s="3">
         <v>2423000</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>2436800</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>2569800</v>
       </c>
-      <c r="M46" s="3">
+      <c r="N46" s="3">
         <v>2266200</v>
       </c>
-      <c r="N46" s="3">
+      <c r="O46" s="3">
         <v>2166700</v>
       </c>
-      <c r="O46" s="3">
+      <c r="P46" s="3">
         <v>2050000</v>
       </c>
-      <c r="P46" s="3">
+      <c r="Q46" s="3">
         <v>1963000</v>
       </c>
-      <c r="Q46" s="3">
+      <c r="R46" s="3">
         <v>1883000</v>
       </c>
-      <c r="R46" s="3">
+      <c r="S46" s="3">
         <v>1423200</v>
       </c>
-      <c r="S46" s="3">
+      <c r="T46" s="3">
         <v>1332800</v>
       </c>
-      <c r="T46" s="3">
+      <c r="U46" s="3">
         <v>1418100</v>
       </c>
-      <c r="U46" s="3">
+      <c r="V46" s="3">
         <v>1356900</v>
       </c>
-      <c r="V46" s="3">
+      <c r="W46" s="3">
         <v>1181100</v>
       </c>
-      <c r="W46" s="3">
+      <c r="X46" s="3">
         <v>1127200</v>
       </c>
-      <c r="X46" s="3">
+      <c r="Y46" s="3">
         <v>1064700</v>
       </c>
-      <c r="Y46" s="3">
+      <c r="Z46" s="3">
         <v>1053800</v>
       </c>
-      <c r="Z46" s="3">
+      <c r="AA46" s="3">
         <v>922500</v>
       </c>
-      <c r="AA46" s="3">
+      <c r="AB46" s="3">
         <v>930300</v>
       </c>
-      <c r="AB46" s="3">
+      <c r="AC46" s="3">
         <v>941600</v>
       </c>
-      <c r="AC46" s="3">
+      <c r="AD46" s="3">
         <v>527600</v>
       </c>
-      <c r="AD46" s="3">
+      <c r="AE46" s="3">
         <v>489300</v>
       </c>
     </row>
-    <row r="47" spans="2:30" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -3779,180 +3883,189 @@
       <c r="AD47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>566800</v>
+      </c>
+      <c r="E48" s="3">
         <v>564400</v>
       </c>
-      <c r="E48" s="3">
+      <c r="F48" s="3">
         <v>572600</v>
       </c>
-      <c r="F48" s="3">
+      <c r="G48" s="3">
         <v>567400</v>
       </c>
-      <c r="G48" s="3">
+      <c r="H48" s="3">
         <v>434100</v>
       </c>
-      <c r="H48" s="3">
+      <c r="I48" s="3">
         <v>430700</v>
       </c>
-      <c r="I48" s="3">
+      <c r="J48" s="3">
         <v>434700</v>
       </c>
-      <c r="J48" s="3">
+      <c r="K48" s="3">
         <v>428400</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>428500</v>
       </c>
-      <c r="L48" s="3">
+      <c r="M48" s="3">
         <v>448300</v>
       </c>
-      <c r="M48" s="3">
+      <c r="N48" s="3">
         <v>457600</v>
       </c>
-      <c r="N48" s="3">
+      <c r="O48" s="3">
         <v>468100</v>
       </c>
-      <c r="O48" s="3">
+      <c r="P48" s="3">
         <v>471700</v>
       </c>
-      <c r="P48" s="3">
+      <c r="Q48" s="3">
         <v>491800</v>
       </c>
-      <c r="Q48" s="3">
+      <c r="R48" s="3">
         <v>505700</v>
       </c>
-      <c r="R48" s="3">
+      <c r="S48" s="3">
         <v>524900</v>
       </c>
-      <c r="S48" s="3">
+      <c r="T48" s="3">
         <v>433300</v>
       </c>
-      <c r="T48" s="3">
+      <c r="U48" s="3">
         <v>390600</v>
       </c>
-      <c r="U48" s="3">
+      <c r="V48" s="3">
         <v>444700</v>
       </c>
-      <c r="V48" s="3">
+      <c r="W48" s="3">
         <v>318600</v>
       </c>
-      <c r="W48" s="3">
+      <c r="X48" s="3">
         <v>280600</v>
       </c>
-      <c r="X48" s="3">
+      <c r="Y48" s="3">
         <v>264500</v>
       </c>
-      <c r="Y48" s="3">
+      <c r="Z48" s="3">
         <v>301300</v>
       </c>
-      <c r="Z48" s="3">
+      <c r="AA48" s="3">
         <v>293700</v>
       </c>
-      <c r="AA48" s="3">
+      <c r="AB48" s="3">
         <v>273500</v>
       </c>
-      <c r="AB48" s="3">
+      <c r="AC48" s="3">
         <v>246600</v>
       </c>
-      <c r="AC48" s="3">
+      <c r="AD48" s="3">
         <v>219600</v>
       </c>
-      <c r="AD48" s="3">
+      <c r="AE48" s="3">
         <v>196000</v>
       </c>
     </row>
-    <row r="49" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="49" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
+        <v>1154300</v>
+      </c>
+      <c r="E49" s="3">
         <v>1194600</v>
       </c>
-      <c r="E49" s="3">
+      <c r="F49" s="3">
         <v>1238100</v>
       </c>
-      <c r="F49" s="3">
+      <c r="G49" s="3">
         <v>1269700</v>
       </c>
-      <c r="G49" s="3">
+      <c r="H49" s="3">
         <v>524600</v>
       </c>
-      <c r="H49" s="3">
+      <c r="I49" s="3">
         <v>545800</v>
       </c>
-      <c r="I49" s="3">
+      <c r="J49" s="3">
         <v>567200</v>
       </c>
-      <c r="J49" s="3">
+      <c r="K49" s="3">
         <v>588700</v>
       </c>
-      <c r="K49" s="3">
+      <c r="L49" s="3">
         <v>610100</v>
       </c>
-      <c r="L49" s="3">
+      <c r="M49" s="3">
         <v>632100</v>
       </c>
-      <c r="M49" s="3">
+      <c r="N49" s="3">
         <v>654100</v>
       </c>
-      <c r="N49" s="3">
+      <c r="O49" s="3">
         <v>665000</v>
       </c>
-      <c r="O49" s="3">
+      <c r="P49" s="3">
         <v>685700</v>
       </c>
-      <c r="P49" s="3">
+      <c r="Q49" s="3">
         <v>706900</v>
       </c>
-      <c r="Q49" s="3">
+      <c r="R49" s="3">
         <v>726900</v>
       </c>
-      <c r="R49" s="3">
+      <c r="S49" s="3">
         <v>745500</v>
       </c>
-      <c r="S49" s="3">
+      <c r="T49" s="3">
         <v>764300</v>
       </c>
-      <c r="T49" s="3">
+      <c r="U49" s="3">
         <v>772100</v>
       </c>
-      <c r="U49" s="3">
+      <c r="V49" s="3">
         <v>789700</v>
       </c>
-      <c r="V49" s="3">
+      <c r="W49" s="3">
         <v>17600</v>
       </c>
-      <c r="W49" s="3">
+      <c r="X49" s="3">
         <v>44600</v>
       </c>
-      <c r="X49" s="3">
+      <c r="Y49" s="3">
         <v>57200</v>
       </c>
-      <c r="Y49" s="3">
+      <c r="Z49" s="3">
         <v>20400</v>
       </c>
-      <c r="Z49" s="3">
+      <c r="AA49" s="3">
         <v>21000</v>
       </c>
-      <c r="AA49" s="3">
+      <c r="AB49" s="3">
         <v>21500</v>
       </c>
-      <c r="AB49" s="3">
+      <c r="AC49" s="3">
         <v>22300</v>
       </c>
-      <c r="AC49" s="3">
+      <c r="AD49" s="3">
         <v>16000</v>
       </c>
-      <c r="AD49" s="3">
+      <c r="AE49" s="3">
         <v>18100</v>
       </c>
     </row>
-    <row r="50" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="50" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -4037,8 +4150,11 @@
       <c r="AD50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -4123,94 +4239,100 @@
       <c r="AD51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
+        <v>133100</v>
+      </c>
+      <c r="E52" s="3">
         <v>131400</v>
       </c>
-      <c r="E52" s="3">
+      <c r="F52" s="3">
         <v>114800</v>
       </c>
-      <c r="F52" s="3">
+      <c r="G52" s="3">
         <v>111900</v>
       </c>
-      <c r="G52" s="3">
+      <c r="H52" s="3">
         <v>64300</v>
       </c>
-      <c r="H52" s="3">
+      <c r="I52" s="3">
         <v>56400</v>
       </c>
-      <c r="I52" s="3">
+      <c r="J52" s="3">
         <v>73700</v>
       </c>
-      <c r="J52" s="3">
+      <c r="K52" s="3">
         <v>78900</v>
       </c>
-      <c r="K52" s="3">
+      <c r="L52" s="3">
         <v>76200</v>
       </c>
-      <c r="L52" s="3">
+      <c r="M52" s="3">
         <v>95700</v>
       </c>
-      <c r="M52" s="3">
+      <c r="N52" s="3">
         <v>90300</v>
       </c>
-      <c r="N52" s="3">
+      <c r="O52" s="3">
         <v>87600</v>
       </c>
-      <c r="O52" s="3">
+      <c r="P52" s="3">
         <v>85200</v>
       </c>
-      <c r="P52" s="3">
+      <c r="Q52" s="3">
         <v>107000</v>
       </c>
-      <c r="Q52" s="3">
+      <c r="R52" s="3">
         <v>105600</v>
       </c>
-      <c r="R52" s="3">
+      <c r="S52" s="3">
         <v>174200</v>
       </c>
-      <c r="S52" s="3">
+      <c r="T52" s="3">
         <v>186200</v>
       </c>
-      <c r="T52" s="3">
+      <c r="U52" s="3">
         <v>190600</v>
       </c>
-      <c r="U52" s="3">
+      <c r="V52" s="3">
         <v>205300</v>
       </c>
-      <c r="V52" s="3">
+      <c r="W52" s="3">
         <v>127700</v>
       </c>
-      <c r="W52" s="3">
+      <c r="X52" s="3">
         <v>129100</v>
       </c>
-      <c r="X52" s="3">
+      <c r="Y52" s="3">
         <v>131800</v>
       </c>
-      <c r="Y52" s="3">
+      <c r="Z52" s="3">
         <v>131900</v>
       </c>
-      <c r="Z52" s="3">
+      <c r="AA52" s="3">
         <v>11200</v>
       </c>
-      <c r="AA52" s="3">
+      <c r="AB52" s="3">
         <v>7600</v>
       </c>
-      <c r="AB52" s="3">
+      <c r="AC52" s="3">
         <v>34000</v>
       </c>
-      <c r="AC52" s="3">
+      <c r="AD52" s="3">
         <v>33500</v>
       </c>
-      <c r="AD52" s="3">
+      <c r="AE52" s="3">
         <v>34100</v>
       </c>
     </row>
-    <row r="53" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="53" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -4295,94 +4417,100 @@
       <c r="AD53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>4632100</v>
+      </c>
+      <c r="E54" s="3">
         <v>4354000</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>4418100</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>4387400</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>4162200</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>4133500</v>
       </c>
-      <c r="I54" s="3">
+      <c r="J54" s="3">
         <v>3615700</v>
       </c>
-      <c r="J54" s="3">
+      <c r="K54" s="3">
         <v>3519000</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>3551600</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>3745900</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>3468200</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>3387400</v>
       </c>
-      <c r="O54" s="3">
+      <c r="P54" s="3">
         <v>3292600</v>
       </c>
-      <c r="P54" s="3">
+      <c r="Q54" s="3">
         <v>3268700</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="R54" s="3">
         <v>3221200</v>
       </c>
-      <c r="R54" s="3">
+      <c r="S54" s="3">
         <v>2867800</v>
       </c>
-      <c r="S54" s="3">
+      <c r="T54" s="3">
         <v>2716600</v>
       </c>
-      <c r="T54" s="3">
+      <c r="U54" s="3">
         <v>2771400</v>
       </c>
-      <c r="U54" s="3">
+      <c r="V54" s="3">
         <v>2796600</v>
       </c>
-      <c r="V54" s="3">
+      <c r="W54" s="3">
         <v>1645000</v>
       </c>
-      <c r="W54" s="3">
+      <c r="X54" s="3">
         <v>1581500</v>
       </c>
-      <c r="X54" s="3">
+      <c r="Y54" s="3">
         <v>1518200</v>
       </c>
-      <c r="Y54" s="3">
+      <c r="Z54" s="3">
         <v>1507400</v>
       </c>
-      <c r="Z54" s="3">
+      <c r="AA54" s="3">
         <v>1248400</v>
       </c>
-      <c r="AA54" s="3">
+      <c r="AB54" s="3">
         <v>1232900</v>
       </c>
-      <c r="AB54" s="3">
+      <c r="AC54" s="3">
         <v>1244500</v>
       </c>
-      <c r="AC54" s="3">
+      <c r="AD54" s="3">
         <v>796700</v>
       </c>
-      <c r="AD54" s="3">
+      <c r="AE54" s="3">
         <v>737500</v>
       </c>
     </row>
-    <row r="55" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -4413,8 +4541,9 @@
       <c r="AB55" s="3"/>
       <c r="AC55" s="3"/>
       <c r="AD55" s="3"/>
-    </row>
-    <row r="56" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE55" s="3"/>
+    </row>
+    <row r="56" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -4445,168 +4574,172 @@
       <c r="AB56" s="3"/>
       <c r="AC56" s="3"/>
       <c r="AD56" s="3"/>
-    </row>
-    <row r="57" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE56" s="3"/>
+    </row>
+    <row r="57" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>169400</v>
+      </c>
+      <c r="E57" s="3">
         <v>198700</v>
       </c>
-      <c r="E57" s="3">
+      <c r="F57" s="3">
         <v>205600</v>
       </c>
-      <c r="F57" s="3">
+      <c r="G57" s="3">
         <v>205700</v>
       </c>
-      <c r="G57" s="3">
+      <c r="H57" s="3">
         <v>156700</v>
       </c>
-      <c r="H57" s="3">
+      <c r="I57" s="3">
         <v>126800</v>
       </c>
-      <c r="I57" s="3">
+      <c r="J57" s="3">
         <v>118200</v>
       </c>
-      <c r="J57" s="3">
+      <c r="K57" s="3">
         <v>101600</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>116900</v>
       </c>
-      <c r="L57" s="3">
+      <c r="M57" s="3">
         <v>104700</v>
       </c>
-      <c r="M57" s="3">
+      <c r="N57" s="3">
         <v>111300</v>
       </c>
-      <c r="N57" s="3">
+      <c r="O57" s="3">
         <v>146000</v>
       </c>
-      <c r="O57" s="3">
+      <c r="P57" s="3">
         <v>150800</v>
       </c>
-      <c r="P57" s="3">
+      <c r="Q57" s="3">
         <v>144600</v>
       </c>
-      <c r="Q57" s="3">
+      <c r="R57" s="3">
         <v>143700</v>
       </c>
-      <c r="R57" s="3">
+      <c r="S57" s="3">
         <v>152200</v>
       </c>
-      <c r="S57" s="3">
+      <c r="T57" s="3">
         <v>160800</v>
       </c>
-      <c r="T57" s="3">
+      <c r="U57" s="3">
         <v>204100</v>
       </c>
-      <c r="U57" s="3">
+      <c r="V57" s="3">
         <v>199200</v>
       </c>
-      <c r="V57" s="3">
+      <c r="W57" s="3">
         <v>127600</v>
       </c>
-      <c r="W57" s="3">
+      <c r="X57" s="3">
         <v>126500</v>
       </c>
-      <c r="X57" s="3">
+      <c r="Y57" s="3">
         <v>100900</v>
       </c>
-      <c r="Y57" s="3">
+      <c r="Z57" s="3">
         <v>113000</v>
       </c>
-      <c r="Z57" s="3">
+      <c r="AA57" s="3">
         <v>111600</v>
       </c>
-      <c r="AA57" s="3">
+      <c r="AB57" s="3">
         <v>114800</v>
       </c>
-      <c r="AB57" s="3">
+      <c r="AC57" s="3">
         <v>118400</v>
       </c>
-      <c r="AC57" s="3">
+      <c r="AD57" s="3">
         <v>127800</v>
       </c>
-      <c r="AD57" s="3">
+      <c r="AE57" s="3">
         <v>108300</v>
       </c>
     </row>
-    <row r="58" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
+        <v>311600</v>
+      </c>
+      <c r="E58" s="3">
         <v>426200</v>
       </c>
-      <c r="E58" s="3">
+      <c r="F58" s="3">
         <v>420700</v>
       </c>
-      <c r="F58" s="3">
+      <c r="G58" s="3">
         <v>420200</v>
       </c>
-      <c r="G58" s="3">
+      <c r="H58" s="3">
         <v>409900</v>
       </c>
-      <c r="H58" s="3">
+      <c r="I58" s="3">
         <v>406100</v>
       </c>
-      <c r="I58" s="3">
+      <c r="J58" s="3">
         <v>401000</v>
       </c>
-      <c r="J58" s="3">
+      <c r="K58" s="3">
         <v>395800</v>
       </c>
-      <c r="K58" s="3">
+      <c r="L58" s="3">
         <v>390700</v>
       </c>
-      <c r="L58" s="3">
+      <c r="M58" s="3">
         <v>385400</v>
       </c>
-      <c r="M58" s="3">
+      <c r="N58" s="3">
         <v>380600</v>
       </c>
-      <c r="N58" s="3">
+      <c r="O58" s="3">
         <v>400</v>
       </c>
-      <c r="O58" s="3">
+      <c r="P58" s="3">
         <v>600</v>
       </c>
-      <c r="P58" s="3">
+      <c r="Q58" s="3">
         <v>3900</v>
       </c>
-      <c r="Q58" s="3">
+      <c r="R58" s="3">
         <v>7100</v>
       </c>
-      <c r="R58" s="3">
+      <c r="S58" s="3">
         <v>15900</v>
       </c>
-      <c r="S58" s="3">
+      <c r="T58" s="3">
         <v>5400</v>
       </c>
-      <c r="T58" s="3">
+      <c r="U58" s="3">
         <v>5800</v>
       </c>
-      <c r="U58" s="3">
+      <c r="V58" s="3">
         <v>8700</v>
       </c>
-      <c r="V58" s="3">
+      <c r="W58" s="3">
         <v>5400</v>
       </c>
-      <c r="W58" s="3">
+      <c r="X58" s="3">
         <v>7300</v>
       </c>
-      <c r="X58" s="3">
+      <c r="Y58" s="3">
         <v>9200</v>
       </c>
-      <c r="Y58" s="3">
+      <c r="Z58" s="3">
         <v>9100</v>
       </c>
-      <c r="Z58" s="3">
+      <c r="AA58" s="3">
         <v>4900</v>
-      </c>
-      <c r="AA58" s="3" t="s">
-        <v>17</v>
       </c>
       <c r="AB58" s="3" t="s">
         <v>17</v>
@@ -4617,352 +4750,367 @@
       <c r="AD58" s="3" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="59" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE58" s="3" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="59" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>152800</v>
+      </c>
+      <c r="E59" s="3">
         <v>144000</v>
       </c>
-      <c r="E59" s="3">
+      <c r="F59" s="3">
         <v>188000</v>
       </c>
-      <c r="F59" s="3">
+      <c r="G59" s="3">
         <v>176900</v>
       </c>
-      <c r="G59" s="3">
+      <c r="H59" s="3">
         <v>149900</v>
       </c>
-      <c r="H59" s="3">
+      <c r="I59" s="3">
         <v>127800</v>
       </c>
-      <c r="I59" s="3">
+      <c r="J59" s="3">
         <v>137500</v>
       </c>
-      <c r="J59" s="3">
+      <c r="K59" s="3">
         <v>114300</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>157000</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>184100</v>
       </c>
-      <c r="M59" s="3">
+      <c r="N59" s="3">
         <v>155400</v>
       </c>
-      <c r="N59" s="3">
+      <c r="O59" s="3">
         <v>147000</v>
       </c>
-      <c r="O59" s="3">
+      <c r="P59" s="3">
         <v>131600</v>
       </c>
-      <c r="P59" s="3">
+      <c r="Q59" s="3">
         <v>138200</v>
       </c>
-      <c r="Q59" s="3">
+      <c r="R59" s="3">
         <v>153400</v>
       </c>
-      <c r="R59" s="3">
+      <c r="S59" s="3">
         <v>148700</v>
       </c>
-      <c r="S59" s="3">
+      <c r="T59" s="3">
         <v>127800</v>
       </c>
-      <c r="T59" s="3">
+      <c r="U59" s="3">
         <v>148100</v>
       </c>
-      <c r="U59" s="3">
+      <c r="V59" s="3">
         <v>117600</v>
       </c>
-      <c r="V59" s="3">
+      <c r="W59" s="3">
         <v>80900</v>
       </c>
-      <c r="W59" s="3">
+      <c r="X59" s="3">
         <v>80200</v>
       </c>
-      <c r="X59" s="3">
+      <c r="Y59" s="3">
         <v>81400</v>
       </c>
-      <c r="Y59" s="3">
+      <c r="Z59" s="3">
         <v>95600</v>
       </c>
-      <c r="Z59" s="3">
+      <c r="AA59" s="3">
         <v>60700</v>
       </c>
-      <c r="AA59" s="3">
+      <c r="AB59" s="3">
         <v>69400</v>
       </c>
-      <c r="AB59" s="3">
+      <c r="AC59" s="3">
         <v>73700</v>
       </c>
-      <c r="AC59" s="3">
+      <c r="AD59" s="3">
         <v>74200</v>
       </c>
-      <c r="AD59" s="3">
+      <c r="AE59" s="3">
         <v>55200</v>
       </c>
     </row>
-    <row r="60" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>633800</v>
+      </c>
+      <c r="E60" s="3">
         <v>768900</v>
       </c>
-      <c r="E60" s="3">
+      <c r="F60" s="3">
         <v>814300</v>
       </c>
-      <c r="F60" s="3">
+      <c r="G60" s="3">
         <v>802800</v>
       </c>
-      <c r="G60" s="3">
+      <c r="H60" s="3">
         <v>716500</v>
       </c>
-      <c r="H60" s="3">
+      <c r="I60" s="3">
         <v>660700</v>
       </c>
-      <c r="I60" s="3">
+      <c r="J60" s="3">
         <v>656700</v>
       </c>
-      <c r="J60" s="3">
+      <c r="K60" s="3">
         <v>611700</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>664600</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>674200</v>
       </c>
-      <c r="M60" s="3">
+      <c r="N60" s="3">
         <v>647300</v>
       </c>
-      <c r="N60" s="3">
+      <c r="O60" s="3">
         <v>293400</v>
       </c>
-      <c r="O60" s="3">
+      <c r="P60" s="3">
         <v>283000</v>
       </c>
-      <c r="P60" s="3">
+      <c r="Q60" s="3">
         <v>286700</v>
       </c>
-      <c r="Q60" s="3">
+      <c r="R60" s="3">
         <v>304200</v>
       </c>
-      <c r="R60" s="3">
+      <c r="S60" s="3">
         <v>316800</v>
       </c>
-      <c r="S60" s="3">
+      <c r="T60" s="3">
         <v>294000</v>
       </c>
-      <c r="T60" s="3">
+      <c r="U60" s="3">
         <v>358000</v>
       </c>
-      <c r="U60" s="3">
+      <c r="V60" s="3">
         <v>325500</v>
       </c>
-      <c r="V60" s="3">
+      <c r="W60" s="3">
         <v>213900</v>
       </c>
-      <c r="W60" s="3">
+      <c r="X60" s="3">
         <v>214000</v>
       </c>
-      <c r="X60" s="3">
+      <c r="Y60" s="3">
         <v>191500</v>
       </c>
-      <c r="Y60" s="3">
+      <c r="Z60" s="3">
         <v>217700</v>
       </c>
-      <c r="Z60" s="3">
+      <c r="AA60" s="3">
         <v>177200</v>
       </c>
-      <c r="AA60" s="3">
+      <c r="AB60" s="3">
         <v>184200</v>
       </c>
-      <c r="AB60" s="3">
+      <c r="AC60" s="3">
         <v>192100</v>
       </c>
-      <c r="AC60" s="3">
+      <c r="AD60" s="3">
         <v>202000</v>
       </c>
-      <c r="AD60" s="3">
+      <c r="AE60" s="3">
         <v>163500</v>
       </c>
     </row>
-    <row r="61" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
+        <v>2500000</v>
+      </c>
+      <c r="E61" s="3">
         <v>1900800</v>
       </c>
-      <c r="E61" s="3">
+      <c r="F61" s="3">
         <v>1900300</v>
       </c>
-      <c r="F61" s="3">
+      <c r="G61" s="3">
         <v>1899500</v>
       </c>
-      <c r="G61" s="3">
+      <c r="H61" s="3">
         <v>1466100</v>
       </c>
-      <c r="H61" s="3">
+      <c r="I61" s="3">
         <v>1447600</v>
       </c>
-      <c r="I61" s="3">
+      <c r="J61" s="3">
         <v>810300</v>
       </c>
-      <c r="J61" s="3">
+      <c r="K61" s="3">
         <v>800000</v>
       </c>
-      <c r="K61" s="3">
+      <c r="L61" s="3">
         <v>789800</v>
       </c>
-      <c r="L61" s="3">
+      <c r="M61" s="3">
         <v>778900</v>
       </c>
-      <c r="M61" s="3">
+      <c r="N61" s="3">
         <v>769100</v>
       </c>
-      <c r="N61" s="3">
+      <c r="O61" s="3">
         <v>1134700</v>
       </c>
-      <c r="O61" s="3">
+      <c r="P61" s="3">
         <v>1120300</v>
       </c>
-      <c r="P61" s="3">
+      <c r="Q61" s="3">
         <v>1106100</v>
       </c>
-      <c r="Q61" s="3">
+      <c r="R61" s="3">
         <v>1092200</v>
       </c>
-      <c r="R61" s="3">
+      <c r="S61" s="3">
         <v>840000</v>
       </c>
-      <c r="S61" s="3">
+      <c r="T61" s="3">
         <v>835900</v>
       </c>
-      <c r="T61" s="3">
+      <c r="U61" s="3">
         <v>832400</v>
       </c>
-      <c r="U61" s="3">
+      <c r="V61" s="3">
         <v>829200</v>
       </c>
-      <c r="V61" s="3">
+      <c r="W61" s="3">
         <v>338500</v>
       </c>
-      <c r="W61" s="3">
+      <c r="X61" s="3">
         <v>334600</v>
       </c>
-      <c r="X61" s="3">
+      <c r="Y61" s="3">
         <v>330700</v>
       </c>
-      <c r="Y61" s="3">
+      <c r="Z61" s="3">
         <v>328800</v>
       </c>
-      <c r="Z61" s="3">
+      <c r="AA61" s="3">
         <v>324000</v>
       </c>
-      <c r="AA61" s="3">
+      <c r="AB61" s="3">
         <v>317500</v>
       </c>
-      <c r="AB61" s="3">
+      <c r="AC61" s="3">
         <v>313400</v>
       </c>
-      <c r="AC61" s="3">
-        <v>0</v>
-      </c>
       <c r="AD61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
+        <v>142500</v>
+      </c>
+      <c r="E62" s="3">
         <v>146300</v>
       </c>
-      <c r="E62" s="3">
+      <c r="F62" s="3">
         <v>159900</v>
       </c>
-      <c r="F62" s="3">
+      <c r="G62" s="3">
         <v>158700</v>
       </c>
-      <c r="G62" s="3">
+      <c r="H62" s="3">
         <v>104600</v>
       </c>
-      <c r="H62" s="3">
+      <c r="I62" s="3">
         <v>113100</v>
       </c>
-      <c r="I62" s="3">
+      <c r="J62" s="3">
         <v>126800</v>
       </c>
-      <c r="J62" s="3">
+      <c r="K62" s="3">
         <v>135900</v>
       </c>
-      <c r="K62" s="3">
+      <c r="L62" s="3">
         <v>124400</v>
       </c>
-      <c r="L62" s="3">
+      <c r="M62" s="3">
         <v>127800</v>
       </c>
-      <c r="M62" s="3">
+      <c r="N62" s="3">
         <v>129900</v>
       </c>
-      <c r="N62" s="3">
+      <c r="O62" s="3">
         <v>143200</v>
       </c>
-      <c r="O62" s="3">
+      <c r="P62" s="3">
         <v>140100</v>
       </c>
-      <c r="P62" s="3">
+      <c r="Q62" s="3">
         <v>141700</v>
       </c>
-      <c r="Q62" s="3">
+      <c r="R62" s="3">
         <v>143200</v>
       </c>
-      <c r="R62" s="3">
+      <c r="S62" s="3">
         <v>149700</v>
       </c>
-      <c r="S62" s="3">
+      <c r="T62" s="3">
         <v>89600</v>
       </c>
-      <c r="T62" s="3">
+      <c r="U62" s="3">
         <v>77100</v>
       </c>
-      <c r="U62" s="3">
+      <c r="V62" s="3">
         <v>82200</v>
       </c>
-      <c r="V62" s="3">
+      <c r="W62" s="3">
         <v>73300</v>
       </c>
-      <c r="W62" s="3">
+      <c r="X62" s="3">
         <v>71000</v>
       </c>
-      <c r="X62" s="3">
+      <c r="Y62" s="3">
         <v>83600</v>
       </c>
-      <c r="Y62" s="3">
+      <c r="Z62" s="3">
         <v>60800</v>
       </c>
-      <c r="Z62" s="3">
+      <c r="AA62" s="3">
         <v>70300</v>
       </c>
-      <c r="AA62" s="3">
+      <c r="AB62" s="3">
         <v>76600</v>
       </c>
-      <c r="AB62" s="3">
+      <c r="AC62" s="3">
         <v>234600</v>
-      </c>
-      <c r="AC62" s="3">
-        <v>42500</v>
       </c>
       <c r="AD62" s="3">
         <v>42500</v>
       </c>
-    </row>
-    <row r="63" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE62" s="3">
+        <v>42500</v>
+      </c>
+    </row>
+    <row r="63" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -5047,8 +5195,11 @@
       <c r="AD63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -5133,8 +5284,11 @@
       <c r="AD64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -5219,94 +5373,100 @@
       <c r="AD65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>3276300</v>
+      </c>
+      <c r="E66" s="3">
         <v>2816000</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>2874500</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>2861000</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>2287200</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>2221400</v>
       </c>
-      <c r="I66" s="3">
+      <c r="J66" s="3">
         <v>1593800</v>
       </c>
-      <c r="J66" s="3">
+      <c r="K66" s="3">
         <v>1547600</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>1578800</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>1580900</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>1546300</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>1571300</v>
       </c>
-      <c r="O66" s="3">
+      <c r="P66" s="3">
         <v>1543400</v>
       </c>
-      <c r="P66" s="3">
+      <c r="Q66" s="3">
         <v>1534500</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="R66" s="3">
         <v>1539600</v>
       </c>
-      <c r="R66" s="3">
+      <c r="S66" s="3">
         <v>1306500</v>
       </c>
-      <c r="S66" s="3">
+      <c r="T66" s="3">
         <v>1219500</v>
       </c>
-      <c r="T66" s="3">
+      <c r="U66" s="3">
         <v>1267500</v>
       </c>
-      <c r="U66" s="3">
+      <c r="V66" s="3">
         <v>1236900</v>
       </c>
-      <c r="V66" s="3">
+      <c r="W66" s="3">
         <v>661500</v>
       </c>
-      <c r="W66" s="3">
+      <c r="X66" s="3">
         <v>655400</v>
       </c>
-      <c r="X66" s="3">
+      <c r="Y66" s="3">
         <v>641600</v>
       </c>
-      <c r="Y66" s="3">
+      <c r="Z66" s="3">
         <v>643100</v>
       </c>
-      <c r="Z66" s="3">
+      <c r="AA66" s="3">
         <v>607300</v>
       </c>
-      <c r="AA66" s="3">
+      <c r="AB66" s="3">
         <v>614100</v>
       </c>
-      <c r="AB66" s="3">
+      <c r="AC66" s="3">
         <v>775900</v>
       </c>
-      <c r="AC66" s="3">
+      <c r="AD66" s="3">
         <v>280300</v>
       </c>
-      <c r="AD66" s="3">
+      <c r="AE66" s="3">
         <v>241800</v>
       </c>
     </row>
-    <row r="67" spans="2:30" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -5337,8 +5497,9 @@
       <c r="AB67" s="3"/>
       <c r="AC67" s="3"/>
       <c r="AD67" s="3"/>
-    </row>
-    <row r="68" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE67" s="3"/>
+    </row>
+    <row r="68" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -5423,8 +5584,11 @@
       <c r="AD68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -5509,8 +5673,11 @@
       <c r="AD69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -5595,8 +5762,11 @@
       <c r="AD70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -5681,94 +5851,100 @@
       <c r="AD71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>-340600</v>
+      </c>
+      <c r="E72" s="3">
         <v>-140600</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>-101300</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>-69600</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>-129100</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>-60500</v>
       </c>
-      <c r="I72" s="3">
+      <c r="J72" s="3">
         <v>237500</v>
       </c>
-      <c r="J72" s="3">
+      <c r="K72" s="3">
         <v>210700</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>220900</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>440400</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>214900</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>131700</v>
       </c>
-      <c r="O72" s="3">
+      <c r="P72" s="3">
         <v>64600</v>
       </c>
-      <c r="P72" s="3">
+      <c r="Q72" s="3">
         <v>69200</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="R72" s="3">
         <v>25800</v>
       </c>
-      <c r="R72" s="3">
+      <c r="S72" s="3">
         <v>176700</v>
       </c>
-      <c r="S72" s="3">
+      <c r="T72" s="3">
         <v>129100</v>
       </c>
-      <c r="T72" s="3">
+      <c r="U72" s="3">
         <v>154900</v>
       </c>
-      <c r="U72" s="3">
+      <c r="V72" s="3">
         <v>229200</v>
       </c>
-      <c r="V72" s="3">
+      <c r="W72" s="3">
         <v>213000</v>
       </c>
-      <c r="W72" s="3">
+      <c r="X72" s="3">
         <v>166400</v>
       </c>
-      <c r="X72" s="3">
+      <c r="Y72" s="3">
         <v>133200</v>
       </c>
-      <c r="Y72" s="3">
+      <c r="Z72" s="3">
         <v>130700</v>
       </c>
-      <c r="Z72" s="3">
+      <c r="AA72" s="3">
         <v>-73900</v>
       </c>
-      <c r="AA72" s="3">
+      <c r="AB72" s="3">
         <v>-83200</v>
       </c>
-      <c r="AB72" s="3">
+      <c r="AC72" s="3">
         <v>-28000</v>
       </c>
-      <c r="AC72" s="3">
+      <c r="AD72" s="3">
         <v>28200</v>
       </c>
-      <c r="AD72" s="3">
+      <c r="AE72" s="3">
         <v>16600</v>
       </c>
     </row>
-    <row r="73" spans="2:30" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -5853,8 +6029,11 @@
       <c r="AD73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -5939,8 +6118,11 @@
       <c r="AD74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -6025,94 +6207,100 @@
       <c r="AD75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>1355800</v>
+      </c>
+      <c r="E76" s="3">
         <v>1538000</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>1543600</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>1526400</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>1875000</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>1912100</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>2021900</v>
       </c>
-      <c r="J76" s="3">
+      <c r="K76" s="3">
         <v>1971400</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>1972800</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>2165000</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>1921900</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>1816100</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>1749200</v>
       </c>
-      <c r="P76" s="3">
+      <c r="Q76" s="3">
         <v>1734200</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="R76" s="3">
         <v>1681600</v>
       </c>
-      <c r="R76" s="3">
+      <c r="S76" s="3">
         <v>1561300</v>
       </c>
-      <c r="S76" s="3">
+      <c r="T76" s="3">
         <v>1497100</v>
       </c>
-      <c r="T76" s="3">
+      <c r="U76" s="3">
         <v>1503900</v>
       </c>
-      <c r="U76" s="3">
+      <c r="V76" s="3">
         <v>1559700</v>
       </c>
-      <c r="V76" s="3">
+      <c r="W76" s="3">
         <v>983500</v>
       </c>
-      <c r="W76" s="3">
+      <c r="X76" s="3">
         <v>926100</v>
       </c>
-      <c r="X76" s="3">
+      <c r="Y76" s="3">
         <v>876600</v>
       </c>
-      <c r="Y76" s="3">
+      <c r="Z76" s="3">
         <v>864300</v>
       </c>
-      <c r="Z76" s="3">
+      <c r="AA76" s="3">
         <v>641100</v>
       </c>
-      <c r="AA76" s="3">
+      <c r="AB76" s="3">
         <v>618800</v>
       </c>
-      <c r="AB76" s="3">
+      <c r="AC76" s="3">
         <v>468600</v>
       </c>
-      <c r="AC76" s="3">
+      <c r="AD76" s="3">
         <v>516400</v>
       </c>
-      <c r="AD76" s="3">
+      <c r="AE76" s="3">
         <v>495700</v>
       </c>
     </row>
-    <row r="77" spans="2:30" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -6197,185 +6385,194 @@
       <c r="AD77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:31" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:30" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>45108</v>
+      </c>
+      <c r="E80" s="2">
         <v>45017</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44926</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44835</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44744</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>44653</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>44562</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>44471</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>44380</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>44289</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>44191</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>44100</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>44009</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>43918</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>43827</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>43736</v>
       </c>
-      <c r="S80" s="2">
+      <c r="T80" s="2">
         <v>43645</v>
       </c>
-      <c r="T80" s="2">
+      <c r="U80" s="2">
         <v>43554</v>
       </c>
-      <c r="U80" s="2">
+      <c r="V80" s="2">
         <v>43463</v>
       </c>
-      <c r="V80" s="2">
+      <c r="W80" s="2">
         <v>43372</v>
       </c>
-      <c r="W80" s="2">
+      <c r="X80" s="2">
         <v>43281</v>
       </c>
-      <c r="X80" s="2">
+      <c r="Y80" s="2">
         <v>43190</v>
       </c>
-      <c r="Y80" s="2">
+      <c r="Z80" s="2">
         <v>43099</v>
       </c>
-      <c r="Z80" s="2">
+      <c r="AA80" s="2">
         <v>43008</v>
       </c>
-      <c r="AA80" s="2">
+      <c r="AB80" s="2">
         <v>42917</v>
       </c>
-      <c r="AB80" s="2">
+      <c r="AC80" s="2">
         <v>42826</v>
       </c>
-      <c r="AC80" s="2">
+      <c r="AD80" s="2">
         <v>42735</v>
       </c>
-      <c r="AD80" s="2">
+      <c r="AE80" s="2">
         <v>42644</v>
       </c>
     </row>
-    <row r="81" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>-60200</v>
+      </c>
+      <c r="E81" s="3">
         <v>-39300</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="3">
         <v>-31700</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>-400</v>
       </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
         <v>34700</v>
       </c>
-      <c r="H81" s="3">
+      <c r="I81" s="3">
         <v>26000</v>
       </c>
-      <c r="I81" s="3">
+      <c r="J81" s="3">
         <v>56700</v>
       </c>
-      <c r="J81" s="3">
+      <c r="K81" s="3">
         <v>81500</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>21500</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>225500</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>83200</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>67100</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>-4600</v>
       </c>
-      <c r="P81" s="3">
+      <c r="Q81" s="3">
         <v>43400</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="R81" s="3">
         <v>49100</v>
       </c>
-      <c r="R81" s="3">
+      <c r="S81" s="3">
         <v>47600</v>
       </c>
-      <c r="S81" s="3">
+      <c r="T81" s="3">
         <v>-25800</v>
       </c>
-      <c r="T81" s="3">
+      <c r="U81" s="3">
         <v>-74300</v>
       </c>
-      <c r="U81" s="3">
+      <c r="V81" s="3">
         <v>16200</v>
       </c>
-      <c r="V81" s="3">
+      <c r="W81" s="3">
         <v>46100</v>
       </c>
-      <c r="W81" s="3">
+      <c r="X81" s="3">
         <v>32500</v>
       </c>
-      <c r="X81" s="3">
+      <c r="Y81" s="3">
         <v>2400</v>
       </c>
-      <c r="Y81" s="3">
+      <c r="Z81" s="3">
         <v>116800</v>
       </c>
-      <c r="Z81" s="3">
+      <c r="AA81" s="3">
         <v>6900</v>
       </c>
-      <c r="AA81" s="3">
+      <c r="AB81" s="3">
         <v>-55200</v>
       </c>
-      <c r="AB81" s="3">
+      <c r="AC81" s="3">
         <v>-56200</v>
       </c>
-      <c r="AC81" s="3">
+      <c r="AD81" s="3">
         <v>11600</v>
       </c>
-      <c r="AD81" s="3">
+      <c r="AE81" s="3">
         <v>-3600</v>
       </c>
     </row>
-    <row r="82" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -6406,94 +6603,98 @@
       <c r="AB82" s="3"/>
       <c r="AC82" s="3"/>
       <c r="AD82" s="3"/>
-    </row>
-    <row r="83" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE82" s="3"/>
+    </row>
+    <row r="83" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
+        <v>78700</v>
+      </c>
+      <c r="E83" s="3">
         <v>57700</v>
       </c>
-      <c r="E83" s="3">
+      <c r="F83" s="3">
         <v>62500</v>
       </c>
-      <c r="F83" s="3">
+      <c r="G83" s="3">
         <v>56700</v>
-      </c>
-      <c r="G83" s="3">
-        <v>41600</v>
       </c>
       <c r="H83" s="3">
         <v>41600</v>
       </c>
       <c r="I83" s="3">
+        <v>41600</v>
+      </c>
+      <c r="J83" s="3">
         <v>42100</v>
       </c>
-      <c r="J83" s="3">
+      <c r="K83" s="3">
         <v>41800</v>
       </c>
-      <c r="K83" s="3">
+      <c r="L83" s="3">
         <v>43100</v>
       </c>
-      <c r="L83" s="3">
+      <c r="M83" s="3">
         <v>44800</v>
       </c>
-      <c r="M83" s="3">
+      <c r="N83" s="3">
         <v>44700</v>
       </c>
-      <c r="N83" s="3">
+      <c r="O83" s="3">
         <v>44500</v>
       </c>
-      <c r="O83" s="3">
+      <c r="P83" s="3">
         <v>46700</v>
       </c>
-      <c r="P83" s="3">
+      <c r="Q83" s="3">
         <v>47500</v>
       </c>
-      <c r="Q83" s="3">
+      <c r="R83" s="3">
         <v>47300</v>
       </c>
-      <c r="R83" s="3">
+      <c r="S83" s="3">
         <v>50400</v>
       </c>
-      <c r="S83" s="3">
+      <c r="T83" s="3">
         <v>45100</v>
       </c>
-      <c r="T83" s="3">
+      <c r="U83" s="3">
         <v>60700</v>
       </c>
-      <c r="U83" s="3">
+      <c r="V83" s="3">
         <v>31200</v>
       </c>
-      <c r="V83" s="3">
+      <c r="W83" s="3">
         <v>20500</v>
       </c>
-      <c r="W83" s="3">
+      <c r="X83" s="3">
         <v>21500</v>
       </c>
-      <c r="X83" s="3">
+      <c r="Y83" s="3">
         <v>19200</v>
       </c>
-      <c r="Y83" s="3">
+      <c r="Z83" s="3">
         <v>19000</v>
       </c>
-      <c r="Z83" s="3">
+      <c r="AA83" s="3">
         <v>17500</v>
       </c>
-      <c r="AA83" s="3">
+      <c r="AB83" s="3">
         <v>16500</v>
       </c>
-      <c r="AB83" s="3">
+      <c r="AC83" s="3">
         <v>15900</v>
       </c>
-      <c r="AC83" s="3">
+      <c r="AD83" s="3">
         <v>14900</v>
       </c>
-      <c r="AD83" s="3">
+      <c r="AE83" s="3">
         <v>13700</v>
       </c>
     </row>
-    <row r="84" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="84" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -6578,8 +6779,11 @@
       <c r="AD84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -6664,8 +6868,11 @@
       <c r="AD85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -6750,8 +6957,11 @@
       <c r="AD86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -6836,8 +7046,11 @@
       <c r="AD87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -6922,94 +7135,100 @@
       <c r="AD88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>49200</v>
+      </c>
+      <c r="E89" s="3">
         <v>14900</v>
       </c>
-      <c r="E89" s="3">
+      <c r="F89" s="3">
         <v>94900</v>
       </c>
-      <c r="F89" s="3">
+      <c r="G89" s="3">
         <v>20800</v>
       </c>
-      <c r="G89" s="3">
+      <c r="H89" s="3">
         <v>114300</v>
       </c>
-      <c r="H89" s="3">
+      <c r="I89" s="3">
         <v>76600</v>
       </c>
-      <c r="I89" s="3">
+      <c r="J89" s="3">
         <v>206500</v>
       </c>
-      <c r="J89" s="3">
+      <c r="K89" s="3">
         <v>61900</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>124200</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>381300</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>128500</v>
       </c>
-      <c r="N89" s="3">
+      <c r="O89" s="3">
         <v>104700</v>
       </c>
-      <c r="O89" s="3">
+      <c r="P89" s="3">
         <v>122700</v>
       </c>
-      <c r="P89" s="3">
+      <c r="Q89" s="3">
         <v>151800</v>
       </c>
-      <c r="Q89" s="3">
+      <c r="R89" s="3">
         <v>162300</v>
       </c>
-      <c r="R89" s="3">
+      <c r="S89" s="3">
         <v>87500</v>
       </c>
-      <c r="S89" s="3">
+      <c r="T89" s="3">
         <v>127700</v>
       </c>
-      <c r="T89" s="3">
+      <c r="U89" s="3">
         <v>42800</v>
       </c>
-      <c r="U89" s="3">
+      <c r="V89" s="3">
         <v>102400</v>
       </c>
-      <c r="V89" s="3">
+      <c r="W89" s="3">
         <v>57200</v>
       </c>
-      <c r="W89" s="3">
+      <c r="X89" s="3">
         <v>37600</v>
       </c>
-      <c r="X89" s="3">
+      <c r="Y89" s="3">
         <v>95100</v>
       </c>
-      <c r="Y89" s="3">
+      <c r="Z89" s="3">
         <v>105100</v>
       </c>
-      <c r="Z89" s="3">
+      <c r="AA89" s="3">
         <v>9700</v>
       </c>
-      <c r="AA89" s="3">
+      <c r="AB89" s="3">
         <v>13100</v>
       </c>
-      <c r="AB89" s="3">
+      <c r="AC89" s="3">
         <v>16400</v>
       </c>
-      <c r="AC89" s="3">
+      <c r="AD89" s="3">
         <v>19200</v>
       </c>
-      <c r="AD89" s="3">
+      <c r="AE89" s="3">
         <v>36300</v>
       </c>
     </row>
-    <row r="90" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -7040,94 +7259,98 @@
       <c r="AB90" s="3"/>
       <c r="AC90" s="3"/>
       <c r="AD90" s="3"/>
-    </row>
-    <row r="91" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE90" s="3"/>
+    </row>
+    <row r="91" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
+        <v>-36300</v>
+      </c>
+      <c r="E91" s="3">
         <v>-29400</v>
       </c>
-      <c r="E91" s="3">
+      <c r="F91" s="3">
         <v>-39900</v>
       </c>
-      <c r="F91" s="3">
+      <c r="G91" s="3">
         <v>-22900</v>
       </c>
-      <c r="G91" s="3">
+      <c r="H91" s="3">
         <v>-28600</v>
       </c>
-      <c r="H91" s="3">
+      <c r="I91" s="3">
         <v>-18600</v>
       </c>
-      <c r="I91" s="3">
+      <c r="J91" s="3">
         <v>-26100</v>
       </c>
-      <c r="J91" s="3">
+      <c r="K91" s="3">
         <v>-17900</v>
       </c>
-      <c r="K91" s="3">
-        <v>0</v>
-      </c>
       <c r="L91" s="3">
         <v>0</v>
       </c>
       <c r="M91" s="3">
+        <v>0</v>
+      </c>
+      <c r="N91" s="3">
         <v>16300</v>
       </c>
-      <c r="N91" s="3">
+      <c r="O91" s="3">
         <v>-26300</v>
       </c>
-      <c r="O91" s="3">
-        <v>0</v>
-      </c>
       <c r="P91" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q91" s="3">
         <v>-1000</v>
       </c>
-      <c r="Q91" s="3">
+      <c r="R91" s="3">
         <v>-2000</v>
       </c>
-      <c r="R91" s="3">
+      <c r="S91" s="3">
         <v>-1000</v>
       </c>
-      <c r="S91" s="3">
-        <v>0</v>
-      </c>
       <c r="T91" s="3">
+        <v>0</v>
+      </c>
+      <c r="U91" s="3">
         <v>-600</v>
       </c>
-      <c r="U91" s="3">
-        <v>0</v>
-      </c>
       <c r="V91" s="3">
+        <v>0</v>
+      </c>
+      <c r="W91" s="3">
         <v>-700</v>
       </c>
-      <c r="W91" s="3">
+      <c r="X91" s="3">
         <v>-20300</v>
       </c>
-      <c r="X91" s="3">
+      <c r="Y91" s="3">
         <v>-22700</v>
       </c>
-      <c r="Y91" s="3">
+      <c r="Z91" s="3">
         <v>-17200</v>
       </c>
-      <c r="Z91" s="3">
+      <c r="AA91" s="3">
         <v>-33000</v>
       </c>
-      <c r="AA91" s="3">
+      <c r="AB91" s="3">
         <v>-38100</v>
       </c>
-      <c r="AB91" s="3">
+      <c r="AC91" s="3">
         <v>-35700</v>
       </c>
-      <c r="AC91" s="3">
+      <c r="AD91" s="3">
         <v>-35400</v>
       </c>
-      <c r="AD91" s="3">
+      <c r="AE91" s="3">
         <v>-28900</v>
       </c>
     </row>
-    <row r="92" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="92" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -7212,8 +7435,11 @@
       <c r="AD92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -7298,94 +7524,100 @@
       <c r="AD93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
+        <v>-70900</v>
+      </c>
+      <c r="E94" s="3">
         <v>-52000</v>
       </c>
-      <c r="E94" s="3">
+      <c r="F94" s="3">
         <v>-104500</v>
       </c>
-      <c r="F94" s="3">
+      <c r="G94" s="3">
         <v>-646600</v>
       </c>
-      <c r="G94" s="3">
+      <c r="H94" s="3">
         <v>142700</v>
       </c>
-      <c r="H94" s="3">
+      <c r="I94" s="3">
         <v>-23200</v>
       </c>
-      <c r="I94" s="3">
+      <c r="J94" s="3">
         <v>-228900</v>
       </c>
-      <c r="J94" s="3">
+      <c r="K94" s="3">
         <v>-116900</v>
       </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3">
         <v>197300</v>
       </c>
-      <c r="L94" s="3">
+      <c r="M94" s="3">
         <v>-7300</v>
       </c>
-      <c r="M94" s="3">
+      <c r="N94" s="3">
         <v>-75000</v>
       </c>
-      <c r="N94" s="3">
+      <c r="O94" s="3">
         <v>-114000</v>
       </c>
-      <c r="O94" s="3">
+      <c r="P94" s="3">
         <v>-509800</v>
       </c>
-      <c r="P94" s="3">
+      <c r="Q94" s="3">
         <v>-535700</v>
       </c>
-      <c r="Q94" s="3">
+      <c r="R94" s="3">
         <v>36100</v>
       </c>
-      <c r="R94" s="3">
+      <c r="S94" s="3">
         <v>21700</v>
       </c>
-      <c r="S94" s="3">
+      <c r="T94" s="3">
         <v>-54400</v>
       </c>
-      <c r="T94" s="3">
+      <c r="U94" s="3">
         <v>-52900</v>
       </c>
-      <c r="U94" s="3">
+      <c r="V94" s="3">
         <v>-681900</v>
       </c>
-      <c r="V94" s="3">
+      <c r="W94" s="3">
         <v>9500</v>
       </c>
-      <c r="W94" s="3">
+      <c r="X94" s="3">
         <v>181700</v>
       </c>
-      <c r="X94" s="3">
+      <c r="Y94" s="3">
         <v>-117600</v>
       </c>
-      <c r="Y94" s="3">
+      <c r="Z94" s="3">
         <v>-58600</v>
       </c>
-      <c r="Z94" s="3">
+      <c r="AA94" s="3">
         <v>-132500</v>
       </c>
-      <c r="AA94" s="3">
+      <c r="AB94" s="3">
         <v>-320600</v>
       </c>
-      <c r="AB94" s="3">
+      <c r="AC94" s="3">
         <v>-40800</v>
       </c>
-      <c r="AC94" s="3">
+      <c r="AD94" s="3">
         <v>-35400</v>
       </c>
-      <c r="AD94" s="3">
+      <c r="AE94" s="3">
         <v>-28900</v>
       </c>
     </row>
-    <row r="95" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="95" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -7416,8 +7648,9 @@
       <c r="AB95" s="3"/>
       <c r="AC95" s="3"/>
       <c r="AD95" s="3"/>
-    </row>
-    <row r="96" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE95" s="3"/>
+    </row>
+    <row r="96" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -7502,8 +7735,11 @@
       <c r="AD96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -7588,8 +7824,11 @@
       <c r="AD97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -7674,8 +7913,11 @@
       <c r="AD98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -7760,94 +8002,100 @@
       <c r="AD99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>331500</v>
+      </c>
+      <c r="E100" s="3">
         <v>-5800</v>
       </c>
-      <c r="E100" s="3">
+      <c r="F100" s="3">
         <v>-3600</v>
       </c>
-      <c r="F100" s="3">
+      <c r="G100" s="3">
         <v>-59100</v>
       </c>
-      <c r="G100" s="3">
+      <c r="H100" s="3">
         <v>-97100</v>
       </c>
-      <c r="H100" s="3">
+      <c r="I100" s="3">
         <v>524900</v>
       </c>
-      <c r="I100" s="3">
+      <c r="J100" s="3">
         <v>-36600</v>
       </c>
-      <c r="J100" s="3">
+      <c r="K100" s="3">
         <v>-108300</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>-234900</v>
       </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
         <v>-7600</v>
       </c>
-      <c r="M100" s="3">
+      <c r="N100" s="3">
         <v>-1700</v>
       </c>
-      <c r="N100" s="3">
+      <c r="O100" s="3">
         <v>-19200</v>
       </c>
-      <c r="O100" s="3">
+      <c r="P100" s="3">
         <v>-3700</v>
       </c>
-      <c r="P100" s="3">
+      <c r="Q100" s="3">
         <v>-12300</v>
       </c>
-      <c r="Q100" s="3">
+      <c r="R100" s="3">
         <v>347600</v>
       </c>
-      <c r="R100" s="3">
+      <c r="S100" s="3">
         <v>-2800</v>
       </c>
-      <c r="S100" s="3">
+      <c r="T100" s="3">
         <v>1000</v>
       </c>
-      <c r="T100" s="3">
+      <c r="U100" s="3">
         <v>-2900</v>
       </c>
-      <c r="U100" s="3">
+      <c r="V100" s="3">
         <v>491600</v>
       </c>
-      <c r="V100" s="3">
+      <c r="W100" s="3">
         <v>-4600</v>
       </c>
-      <c r="W100" s="3">
+      <c r="X100" s="3">
         <v>1900</v>
       </c>
-      <c r="X100" s="3">
+      <c r="Y100" s="3">
         <v>-2800</v>
       </c>
-      <c r="Y100" s="3">
+      <c r="Z100" s="3">
         <v>4400</v>
       </c>
-      <c r="Z100" s="3">
+      <c r="AA100" s="3">
         <v>300</v>
       </c>
-      <c r="AA100" s="3">
+      <c r="AB100" s="3">
         <v>2000</v>
       </c>
-      <c r="AB100" s="3">
+      <c r="AC100" s="3">
         <v>445700</v>
       </c>
-      <c r="AC100" s="3">
+      <c r="AD100" s="3">
         <v>6700</v>
       </c>
-      <c r="AD100" s="3">
+      <c r="AE100" s="3">
         <v>2300</v>
       </c>
     </row>
-    <row r="101" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -7903,119 +8151,125 @@
         <v>0</v>
       </c>
       <c r="U101" s="3">
+        <v>0</v>
+      </c>
+      <c r="V101" s="3">
         <v>-200</v>
       </c>
-      <c r="V101" s="3">
-        <v>0</v>
-      </c>
       <c r="W101" s="3">
+        <v>0</v>
+      </c>
+      <c r="X101" s="3">
         <v>-700</v>
       </c>
-      <c r="X101" s="3">
-        <v>0</v>
-      </c>
       <c r="Y101" s="3">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="Z101" s="3">
         <v>400</v>
       </c>
       <c r="AA101" s="3">
+        <v>400</v>
+      </c>
+      <c r="AB101" s="3">
         <v>500</v>
       </c>
-      <c r="AB101" s="3">
+      <c r="AC101" s="3">
         <v>700</v>
       </c>
-      <c r="AC101" s="3">
+      <c r="AD101" s="3">
         <v>-1400</v>
       </c>
-      <c r="AD101" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="102" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>309800</v>
+      </c>
+      <c r="E102" s="3">
         <v>-42900</v>
       </c>
-      <c r="E102" s="3">
+      <c r="F102" s="3">
         <v>-13200</v>
       </c>
-      <c r="F102" s="3">
+      <c r="G102" s="3">
         <v>-684900</v>
       </c>
-      <c r="G102" s="3">
+      <c r="H102" s="3">
         <v>159900</v>
       </c>
-      <c r="H102" s="3">
+      <c r="I102" s="3">
         <v>578300</v>
       </c>
-      <c r="I102" s="3">
+      <c r="J102" s="3">
         <v>-59000</v>
       </c>
-      <c r="J102" s="3">
+      <c r="K102" s="3">
         <v>-163300</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>86600</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>366400</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>51800</v>
       </c>
-      <c r="N102" s="3">
+      <c r="O102" s="3">
         <v>-28500</v>
       </c>
-      <c r="O102" s="3">
+      <c r="P102" s="3">
         <v>-390800</v>
       </c>
-      <c r="P102" s="3">
+      <c r="Q102" s="3">
         <v>-396200</v>
       </c>
-      <c r="Q102" s="3">
+      <c r="R102" s="3">
         <v>546000</v>
       </c>
-      <c r="R102" s="3">
+      <c r="S102" s="3">
         <v>106400</v>
       </c>
-      <c r="S102" s="3">
+      <c r="T102" s="3">
         <v>74300</v>
       </c>
-      <c r="T102" s="3">
+      <c r="U102" s="3">
         <v>-13000</v>
       </c>
-      <c r="U102" s="3">
+      <c r="V102" s="3">
         <v>-88100</v>
       </c>
-      <c r="V102" s="3">
+      <c r="W102" s="3">
         <v>62100</v>
       </c>
-      <c r="W102" s="3">
+      <c r="X102" s="3">
         <v>220500</v>
       </c>
-      <c r="X102" s="3">
+      <c r="Y102" s="3">
         <v>-25300</v>
       </c>
-      <c r="Y102" s="3">
+      <c r="Z102" s="3">
         <v>51300</v>
       </c>
-      <c r="Z102" s="3">
+      <c r="AA102" s="3">
         <v>-122100</v>
       </c>
-      <c r="AA102" s="3">
+      <c r="AB102" s="3">
         <v>-305000</v>
       </c>
-      <c r="AB102" s="3">
+      <c r="AC102" s="3">
         <v>422000</v>
       </c>
-      <c r="AC102" s="3">
+      <c r="AD102" s="3">
         <v>-10900</v>
       </c>
-      <c r="AD102" s="3">
+      <c r="AE102" s="3">
         <v>9700</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/LITE_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/LITE_QTR_FIN.xlsx
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:AE102"/>
+  <dimension ref="A5:AF102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,392 +665,405 @@
     <col min="1" max="1" width="6.42578125" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="5" width="13" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="13" width="13" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="15" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="19" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="22" max="23" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="26" max="27" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="28" max="29" width="13" style="1" bestFit="1" customWidth="1"/>
-    <col min="30" max="30" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="31" max="31" width="12.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="32" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="6" width="13" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="14" width="13" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="16" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="20" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="23" max="24" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="27" max="28" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="29" max="30" width="13" style="1" bestFit="1" customWidth="1"/>
+    <col min="31" max="31" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="32" max="32" width="12.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="33" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:32" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:32" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>45199</v>
+      </c>
+      <c r="E7" s="2">
         <v>45108</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>45017</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44926</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44835</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>44744</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>44653</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>44562</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>44471</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>44380</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>44289</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>44191</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>44100</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>44009</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>43918</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>43827</v>
       </c>
-      <c r="S7" s="2">
+      <c r="T7" s="2">
         <v>43736</v>
       </c>
-      <c r="T7" s="2">
+      <c r="U7" s="2">
         <v>43645</v>
       </c>
-      <c r="U7" s="2">
+      <c r="V7" s="2">
         <v>43554</v>
       </c>
-      <c r="V7" s="2">
+      <c r="W7" s="2">
         <v>43463</v>
       </c>
-      <c r="W7" s="2">
+      <c r="X7" s="2">
         <v>43372</v>
       </c>
-      <c r="X7" s="2">
+      <c r="Y7" s="2">
         <v>43281</v>
       </c>
-      <c r="Y7" s="2">
+      <c r="Z7" s="2">
         <v>43190</v>
       </c>
-      <c r="Z7" s="2">
+      <c r="AA7" s="2">
         <v>43099</v>
       </c>
-      <c r="AA7" s="2">
+      <c r="AB7" s="2">
         <v>43008</v>
       </c>
-      <c r="AB7" s="2">
+      <c r="AC7" s="2">
         <v>42917</v>
       </c>
-      <c r="AC7" s="2">
+      <c r="AD7" s="2">
         <v>42826</v>
       </c>
-      <c r="AD7" s="2">
+      <c r="AE7" s="2">
         <v>42735</v>
       </c>
-      <c r="AE7" s="2">
+      <c r="AF7" s="2">
         <v>42644</v>
       </c>
     </row>
-    <row r="8" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:32" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
+        <v>317600</v>
+      </c>
+      <c r="E8" s="3">
         <v>370800</v>
       </c>
-      <c r="E8" s="3">
+      <c r="F8" s="3">
         <v>383400</v>
       </c>
-      <c r="F8" s="3">
+      <c r="G8" s="3">
         <v>506000</v>
       </c>
-      <c r="G8" s="3">
+      <c r="H8" s="3">
         <v>506800</v>
       </c>
-      <c r="H8" s="3">
+      <c r="I8" s="3">
         <v>422100</v>
       </c>
-      <c r="I8" s="3">
+      <c r="J8" s="3">
         <v>395400</v>
       </c>
-      <c r="J8" s="3">
+      <c r="K8" s="3">
         <v>446700</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>448400</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>392100</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>419500</v>
       </c>
-      <c r="N8" s="3">
+      <c r="O8" s="3">
         <v>478800</v>
       </c>
-      <c r="O8" s="3">
+      <c r="P8" s="3">
         <v>452400</v>
       </c>
-      <c r="P8" s="3">
+      <c r="Q8" s="3">
         <v>368100</v>
       </c>
-      <c r="Q8" s="3">
+      <c r="R8" s="3">
         <v>402800</v>
       </c>
-      <c r="R8" s="3">
+      <c r="S8" s="3">
         <v>457800</v>
       </c>
-      <c r="S8" s="3">
+      <c r="T8" s="3">
         <v>449900</v>
       </c>
-      <c r="T8" s="3">
+      <c r="U8" s="3">
         <v>404600</v>
       </c>
-      <c r="U8" s="3">
+      <c r="V8" s="3">
         <v>432900</v>
       </c>
-      <c r="V8" s="3">
+      <c r="W8" s="3">
         <v>373700</v>
       </c>
-      <c r="W8" s="3">
+      <c r="X8" s="3">
         <v>354100</v>
       </c>
-      <c r="X8" s="3">
+      <c r="Y8" s="3">
         <v>301100</v>
       </c>
-      <c r="Y8" s="3">
+      <c r="Z8" s="3">
         <v>298800</v>
       </c>
-      <c r="Z8" s="3">
+      <c r="AA8" s="3">
         <v>404600</v>
       </c>
-      <c r="AA8" s="3">
+      <c r="AB8" s="3">
         <v>243200</v>
       </c>
-      <c r="AB8" s="3">
+      <c r="AC8" s="3">
         <v>222700</v>
       </c>
-      <c r="AC8" s="3">
+      <c r="AD8" s="3">
         <v>255800</v>
       </c>
-      <c r="AD8" s="3">
+      <c r="AE8" s="3">
         <v>265000</v>
       </c>
-      <c r="AE8" s="3">
+      <c r="AF8" s="3">
         <v>258100</v>
       </c>
     </row>
-    <row r="9" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:32" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
+        <v>240900</v>
+      </c>
+      <c r="E9" s="3">
         <v>281200</v>
       </c>
-      <c r="E9" s="3">
+      <c r="F9" s="3">
         <v>271400</v>
       </c>
-      <c r="F9" s="3">
+      <c r="G9" s="3">
         <v>339800</v>
       </c>
-      <c r="G9" s="3">
+      <c r="H9" s="3">
         <v>305600</v>
       </c>
-      <c r="H9" s="3">
+      <c r="I9" s="3">
         <v>240400</v>
       </c>
-      <c r="I9" s="3">
+      <c r="J9" s="3">
         <v>228200</v>
       </c>
-      <c r="J9" s="3">
+      <c r="K9" s="3">
         <v>239200</v>
       </c>
-      <c r="K9" s="3">
+      <c r="L9" s="3">
         <v>216200</v>
       </c>
-      <c r="L9" s="3">
+      <c r="M9" s="3">
         <v>229300</v>
       </c>
-      <c r="M9" s="3">
+      <c r="N9" s="3">
         <v>234500</v>
       </c>
-      <c r="N9" s="3">
+      <c r="O9" s="3">
         <v>249200</v>
       </c>
-      <c r="O9" s="3">
+      <c r="P9" s="3">
         <v>246700</v>
       </c>
-      <c r="P9" s="3">
+      <c r="Q9" s="3">
         <v>232400</v>
       </c>
-      <c r="Q9" s="3">
+      <c r="R9" s="3">
         <v>245100</v>
       </c>
-      <c r="R9" s="3">
+      <c r="S9" s="3">
         <v>268700</v>
       </c>
-      <c r="S9" s="3">
+      <c r="T9" s="3">
         <v>282200</v>
       </c>
-      <c r="T9" s="3">
+      <c r="U9" s="3">
         <v>317800</v>
       </c>
-      <c r="U9" s="3">
+      <c r="V9" s="3">
         <v>344600</v>
       </c>
-      <c r="V9" s="3">
+      <c r="W9" s="3">
         <v>248900</v>
       </c>
-      <c r="W9" s="3">
+      <c r="X9" s="3">
         <v>228100</v>
       </c>
-      <c r="X9" s="3">
+      <c r="Y9" s="3">
         <v>205600</v>
       </c>
-      <c r="Y9" s="3">
+      <c r="Z9" s="3">
         <v>201800</v>
       </c>
-      <c r="Z9" s="3">
+      <c r="AA9" s="3">
         <v>233500</v>
       </c>
-      <c r="AA9" s="3">
+      <c r="AB9" s="3">
         <v>174700</v>
       </c>
-      <c r="AB9" s="3">
+      <c r="AC9" s="3">
         <v>155400</v>
       </c>
-      <c r="AC9" s="3">
+      <c r="AD9" s="3">
         <v>173700</v>
       </c>
-      <c r="AD9" s="3">
+      <c r="AE9" s="3">
         <v>178000</v>
       </c>
-      <c r="AE9" s="3">
+      <c r="AF9" s="3">
         <v>176400</v>
       </c>
     </row>
-    <row r="10" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:32" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
+        <v>76700</v>
+      </c>
+      <c r="E10" s="3">
         <v>89600</v>
       </c>
-      <c r="E10" s="3">
+      <c r="F10" s="3">
         <v>112000</v>
       </c>
-      <c r="F10" s="3">
+      <c r="G10" s="3">
         <v>166200</v>
       </c>
-      <c r="G10" s="3">
+      <c r="H10" s="3">
         <v>201200</v>
       </c>
-      <c r="H10" s="3">
+      <c r="I10" s="3">
         <v>181700</v>
       </c>
-      <c r="I10" s="3">
+      <c r="J10" s="3">
         <v>167200</v>
       </c>
-      <c r="J10" s="3">
+      <c r="K10" s="3">
         <v>207500</v>
       </c>
-      <c r="K10" s="3">
+      <c r="L10" s="3">
         <v>232200</v>
       </c>
-      <c r="L10" s="3">
+      <c r="M10" s="3">
         <v>162800</v>
       </c>
-      <c r="M10" s="3">
+      <c r="N10" s="3">
         <v>185000</v>
       </c>
-      <c r="N10" s="3">
+      <c r="O10" s="3">
         <v>229600</v>
       </c>
-      <c r="O10" s="3">
+      <c r="P10" s="3">
         <v>205700</v>
       </c>
-      <c r="P10" s="3">
+      <c r="Q10" s="3">
         <v>135700</v>
       </c>
-      <c r="Q10" s="3">
+      <c r="R10" s="3">
         <v>157700</v>
       </c>
-      <c r="R10" s="3">
+      <c r="S10" s="3">
         <v>189100</v>
       </c>
-      <c r="S10" s="3">
+      <c r="T10" s="3">
         <v>167700</v>
       </c>
-      <c r="T10" s="3">
+      <c r="U10" s="3">
         <v>86800</v>
       </c>
-      <c r="U10" s="3">
+      <c r="V10" s="3">
         <v>88300</v>
       </c>
-      <c r="V10" s="3">
+      <c r="W10" s="3">
         <v>124800</v>
       </c>
-      <c r="W10" s="3">
+      <c r="X10" s="3">
         <v>126000</v>
       </c>
-      <c r="X10" s="3">
+      <c r="Y10" s="3">
         <v>95500</v>
       </c>
-      <c r="Y10" s="3">
+      <c r="Z10" s="3">
         <v>97000</v>
       </c>
-      <c r="Z10" s="3">
+      <c r="AA10" s="3">
         <v>171100</v>
       </c>
-      <c r="AA10" s="3">
+      <c r="AB10" s="3">
         <v>68500</v>
       </c>
-      <c r="AB10" s="3">
+      <c r="AC10" s="3">
         <v>67300</v>
       </c>
-      <c r="AC10" s="3">
+      <c r="AD10" s="3">
         <v>82100</v>
       </c>
-      <c r="AD10" s="3">
+      <c r="AE10" s="3">
         <v>87000</v>
       </c>
-      <c r="AE10" s="3">
+      <c r="AF10" s="3">
         <v>81700</v>
       </c>
     </row>
-    <row r="11" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:32" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -1082,97 +1095,101 @@
       <c r="AC11" s="3"/>
       <c r="AD11" s="3"/>
       <c r="AE11" s="3"/>
-    </row>
-    <row r="12" spans="1:31" x14ac:dyDescent="0.2">
+      <c r="AF11" s="3"/>
+    </row>
+    <row r="12" spans="1:32" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
       <c r="D12" s="3">
+        <v>73200</v>
+      </c>
+      <c r="E12" s="3">
         <v>73900</v>
       </c>
-      <c r="E12" s="3">
+      <c r="F12" s="3">
         <v>85400</v>
       </c>
-      <c r="F12" s="3">
+      <c r="G12" s="3">
         <v>75800</v>
       </c>
-      <c r="G12" s="3">
+      <c r="H12" s="3">
         <v>72700</v>
-      </c>
-      <c r="H12" s="3">
-        <v>56700</v>
       </c>
       <c r="I12" s="3">
         <v>56700</v>
       </c>
       <c r="J12" s="3">
+        <v>56700</v>
+      </c>
+      <c r="K12" s="3">
         <v>53200</v>
-      </c>
-      <c r="K12" s="3">
-        <v>54100</v>
       </c>
       <c r="L12" s="3">
         <v>54100</v>
       </c>
       <c r="M12" s="3">
+        <v>54100</v>
+      </c>
+      <c r="N12" s="3">
         <v>57200</v>
       </c>
-      <c r="N12" s="3">
+      <c r="O12" s="3">
         <v>52800</v>
       </c>
-      <c r="O12" s="3">
+      <c r="P12" s="3">
         <v>50400</v>
       </c>
-      <c r="P12" s="3">
+      <c r="Q12" s="3">
         <v>49000</v>
       </c>
-      <c r="Q12" s="3">
+      <c r="R12" s="3">
         <v>48700</v>
       </c>
-      <c r="R12" s="3">
+      <c r="S12" s="3">
         <v>51000</v>
       </c>
-      <c r="S12" s="3">
+      <c r="T12" s="3">
         <v>49900</v>
       </c>
-      <c r="T12" s="3">
+      <c r="U12" s="3">
         <v>49500</v>
       </c>
-      <c r="U12" s="3">
+      <c r="V12" s="3">
         <v>57700</v>
       </c>
-      <c r="V12" s="3">
+      <c r="W12" s="3">
         <v>42800</v>
       </c>
-      <c r="W12" s="3">
+      <c r="X12" s="3">
         <v>34600</v>
       </c>
-      <c r="X12" s="3">
+      <c r="Y12" s="3">
         <v>38500</v>
       </c>
-      <c r="Y12" s="3">
+      <c r="Z12" s="3">
         <v>38200</v>
       </c>
-      <c r="Z12" s="3">
+      <c r="AA12" s="3">
         <v>43800</v>
       </c>
-      <c r="AA12" s="3">
+      <c r="AB12" s="3">
         <v>36300</v>
       </c>
-      <c r="AB12" s="3">
+      <c r="AC12" s="3">
         <v>35400</v>
       </c>
-      <c r="AC12" s="3">
+      <c r="AD12" s="3">
         <v>37300</v>
       </c>
-      <c r="AD12" s="3">
+      <c r="AE12" s="3">
         <v>38700</v>
       </c>
-      <c r="AE12" s="3">
+      <c r="AF12" s="3">
         <v>36900</v>
       </c>
     </row>
-    <row r="13" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:32" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>8</v>
       </c>
@@ -1260,159 +1277,165 @@
       <c r="AE13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:31" x14ac:dyDescent="0.2">
+      <c r="AF13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:32" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>9</v>
       </c>
       <c r="D14" s="3">
+        <v>11000</v>
+      </c>
+      <c r="E14" s="3">
         <v>3300</v>
       </c>
-      <c r="E14" s="3">
+      <c r="F14" s="3">
         <v>1600</v>
       </c>
-      <c r="F14" s="3">
+      <c r="G14" s="3">
         <v>13900</v>
       </c>
-      <c r="G14" s="3">
+      <c r="H14" s="3">
         <v>9300</v>
       </c>
-      <c r="H14" s="3">
-        <v>0</v>
-      </c>
       <c r="I14" s="3">
+        <v>0</v>
+      </c>
+      <c r="J14" s="3">
         <v>-100</v>
       </c>
-      <c r="J14" s="3">
+      <c r="K14" s="3">
         <v>100</v>
       </c>
-      <c r="K14" s="3">
+      <c r="L14" s="3">
         <v>-1100</v>
       </c>
-      <c r="L14" s="3">
+      <c r="M14" s="3">
         <v>4600</v>
       </c>
-      <c r="M14" s="3">
+      <c r="N14" s="3">
         <v>-204600</v>
       </c>
-      <c r="N14" s="3">
+      <c r="O14" s="3">
         <v>200</v>
       </c>
-      <c r="O14" s="3">
-        <v>0</v>
-      </c>
       <c r="P14" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q14" s="3">
         <v>4900</v>
       </c>
-      <c r="Q14" s="3">
+      <c r="R14" s="3">
         <v>5200</v>
       </c>
-      <c r="R14" s="3">
+      <c r="S14" s="3">
         <v>900</v>
       </c>
-      <c r="S14" s="3">
+      <c r="T14" s="3">
         <v>1300</v>
       </c>
-      <c r="T14" s="3">
+      <c r="U14" s="3">
         <v>1700</v>
       </c>
-      <c r="U14" s="3">
+      <c r="V14" s="3">
         <v>51800</v>
       </c>
-      <c r="V14" s="3">
+      <c r="W14" s="3">
         <v>7800</v>
       </c>
-      <c r="W14" s="3">
+      <c r="X14" s="3">
         <v>1300</v>
       </c>
-      <c r="X14" s="3">
+      <c r="Y14" s="3">
         <v>3400</v>
       </c>
-      <c r="Y14" s="3">
+      <c r="Z14" s="3">
         <v>100</v>
       </c>
-      <c r="Z14" s="3">
+      <c r="AA14" s="3">
         <v>4500</v>
       </c>
-      <c r="AA14" s="3">
+      <c r="AB14" s="3">
         <v>2900</v>
       </c>
-      <c r="AB14" s="3">
+      <c r="AC14" s="3">
         <v>2000</v>
       </c>
-      <c r="AC14" s="3">
+      <c r="AD14" s="3">
         <v>3100</v>
       </c>
-      <c r="AD14" s="3">
+      <c r="AE14" s="3">
         <v>4000</v>
       </c>
-      <c r="AE14" s="3">
+      <c r="AF14" s="3">
         <v>2900</v>
       </c>
     </row>
-    <row r="15" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:32" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D15" s="3">
+        <v>11000</v>
+      </c>
+      <c r="E15" s="3">
         <v>11400</v>
-      </c>
-      <c r="E15" s="3">
-        <v>11300</v>
       </c>
       <c r="F15" s="3">
         <v>11300</v>
       </c>
       <c r="G15" s="3">
+        <v>11300</v>
+      </c>
+      <c r="H15" s="3">
         <v>9300</v>
       </c>
-      <c r="H15" s="3">
+      <c r="I15" s="3">
         <v>5600</v>
       </c>
-      <c r="I15" s="3">
+      <c r="J15" s="3">
         <v>5800</v>
-      </c>
-      <c r="J15" s="3">
-        <v>5600</v>
       </c>
       <c r="K15" s="3">
         <v>5600</v>
       </c>
       <c r="L15" s="3">
-        <v>6200</v>
+        <v>5600</v>
       </c>
       <c r="M15" s="3">
         <v>6200</v>
       </c>
       <c r="N15" s="3">
+        <v>6200</v>
+      </c>
+      <c r="O15" s="3">
         <v>5900</v>
       </c>
-      <c r="O15" s="3">
+      <c r="P15" s="3">
         <v>5700</v>
       </c>
-      <c r="P15" s="3">
+      <c r="Q15" s="3">
         <v>6200</v>
       </c>
-      <c r="Q15" s="3">
+      <c r="R15" s="3">
         <v>6100</v>
       </c>
-      <c r="R15" s="3">
+      <c r="S15" s="3">
         <v>6200</v>
       </c>
-      <c r="S15" s="3">
+      <c r="T15" s="3">
         <v>6300</v>
-      </c>
-      <c r="T15" s="3">
-        <v>3600</v>
       </c>
       <c r="U15" s="3">
         <v>3600</v>
       </c>
       <c r="V15" s="3">
+        <v>3600</v>
+      </c>
+      <c r="W15" s="3">
         <v>800</v>
-      </c>
-      <c r="W15" s="3" t="s">
-        <v>17</v>
       </c>
       <c r="X15" s="3" t="s">
         <v>17</v>
@@ -1420,17 +1443,17 @@
       <c r="Y15" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="Z15" s="3">
-        <v>0</v>
-      </c>
-      <c r="AA15" s="3" t="s">
+      <c r="Z15" s="3" t="s">
         <v>17</v>
+      </c>
+      <c r="AA15" s="3">
+        <v>0</v>
       </c>
       <c r="AB15" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="AC15" s="3">
-        <v>0</v>
+      <c r="AC15" s="3" t="s">
+        <v>17</v>
       </c>
       <c r="AD15" s="3">
         <v>0</v>
@@ -1438,8 +1461,11 @@
       <c r="AE15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:31" x14ac:dyDescent="0.2">
+      <c r="AF15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:32" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1468,186 +1494,193 @@
       <c r="AC16" s="3"/>
       <c r="AD16" s="3"/>
       <c r="AE16" s="3"/>
-    </row>
-    <row r="17" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF16" s="3"/>
+    </row>
+    <row r="17" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>11</v>
       </c>
       <c r="D17" s="3">
+        <v>398400</v>
+      </c>
+      <c r="E17" s="3">
         <v>426700</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="3">
         <v>434800</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>527900</v>
       </c>
-      <c r="G17" s="3">
+      <c r="H17" s="3">
         <v>493300</v>
       </c>
-      <c r="H17" s="3">
+      <c r="I17" s="3">
         <v>366700</v>
       </c>
-      <c r="I17" s="3">
+      <c r="J17" s="3">
         <v>348600</v>
       </c>
-      <c r="J17" s="3">
+      <c r="K17" s="3">
         <v>361500</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>332500</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>346300</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>152600</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>363500</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>353400</v>
       </c>
-      <c r="P17" s="3">
+      <c r="Q17" s="3">
         <v>341100</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="R17" s="3">
         <v>360300</v>
       </c>
-      <c r="R17" s="3">
+      <c r="S17" s="3">
         <v>383000</v>
       </c>
-      <c r="S17" s="3">
+      <c r="T17" s="3">
         <v>390100</v>
       </c>
-      <c r="T17" s="3">
+      <c r="U17" s="3">
         <v>418400</v>
       </c>
-      <c r="U17" s="3">
+      <c r="V17" s="3">
         <v>509300</v>
       </c>
-      <c r="V17" s="3">
+      <c r="W17" s="3">
         <v>362200</v>
       </c>
-      <c r="W17" s="3">
+      <c r="X17" s="3">
         <v>297000</v>
       </c>
-      <c r="X17" s="3">
+      <c r="Y17" s="3">
         <v>280200</v>
       </c>
-      <c r="Y17" s="3">
+      <c r="Z17" s="3">
         <v>273300</v>
       </c>
-      <c r="Z17" s="3">
+      <c r="AA17" s="3">
         <v>313800</v>
       </c>
-      <c r="AA17" s="3">
+      <c r="AB17" s="3">
         <v>240500</v>
       </c>
-      <c r="AB17" s="3">
+      <c r="AC17" s="3">
         <v>218800</v>
       </c>
-      <c r="AC17" s="3">
+      <c r="AD17" s="3">
         <v>242200</v>
       </c>
-      <c r="AD17" s="3">
+      <c r="AE17" s="3">
         <v>251700</v>
       </c>
-      <c r="AE17" s="3">
+      <c r="AF17" s="3">
         <v>241300</v>
       </c>
     </row>
-    <row r="18" spans="3:31" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D18" s="3">
+        <v>-80800</v>
+      </c>
+      <c r="E18" s="3">
         <v>-55900</v>
       </c>
-      <c r="E18" s="3">
+      <c r="F18" s="3">
         <v>-51400</v>
       </c>
-      <c r="F18" s="3">
+      <c r="G18" s="3">
         <v>-21900</v>
       </c>
-      <c r="G18" s="3">
+      <c r="H18" s="3">
         <v>13500</v>
       </c>
-      <c r="H18" s="3">
+      <c r="I18" s="3">
         <v>55400</v>
       </c>
-      <c r="I18" s="3">
+      <c r="J18" s="3">
         <v>46800</v>
       </c>
-      <c r="J18" s="3">
+      <c r="K18" s="3">
         <v>85200</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>115900</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>45800</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>266900</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>115300</v>
       </c>
-      <c r="O18" s="3">
+      <c r="P18" s="3">
         <v>99000</v>
       </c>
-      <c r="P18" s="3">
+      <c r="Q18" s="3">
         <v>27000</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="R18" s="3">
         <v>42500</v>
       </c>
-      <c r="R18" s="3">
+      <c r="S18" s="3">
         <v>74800</v>
       </c>
-      <c r="S18" s="3">
+      <c r="T18" s="3">
         <v>59800</v>
       </c>
-      <c r="T18" s="3">
+      <c r="U18" s="3">
         <v>-13800</v>
       </c>
-      <c r="U18" s="3">
+      <c r="V18" s="3">
         <v>-76400</v>
       </c>
-      <c r="V18" s="3">
+      <c r="W18" s="3">
         <v>11500</v>
       </c>
-      <c r="W18" s="3">
+      <c r="X18" s="3">
         <v>57100</v>
       </c>
-      <c r="X18" s="3">
+      <c r="Y18" s="3">
         <v>20900</v>
       </c>
-      <c r="Y18" s="3">
+      <c r="Z18" s="3">
         <v>25500</v>
       </c>
-      <c r="Z18" s="3">
+      <c r="AA18" s="3">
         <v>90800</v>
       </c>
-      <c r="AA18" s="3">
+      <c r="AB18" s="3">
         <v>2700</v>
       </c>
-      <c r="AB18" s="3">
+      <c r="AC18" s="3">
         <v>3900</v>
       </c>
-      <c r="AC18" s="3">
+      <c r="AD18" s="3">
         <v>13600</v>
       </c>
-      <c r="AD18" s="3">
+      <c r="AE18" s="3">
         <v>13300</v>
       </c>
-      <c r="AE18" s="3">
+      <c r="AF18" s="3">
         <v>16800</v>
       </c>
     </row>
-    <row r="19" spans="3:31" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>13</v>
       </c>
@@ -1679,251 +1712,258 @@
       <c r="AC19" s="3"/>
       <c r="AD19" s="3"/>
       <c r="AE19" s="3"/>
-    </row>
-    <row r="20" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF19" s="3"/>
+    </row>
+    <row r="20" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>14</v>
       </c>
       <c r="D20" s="3">
+        <v>21200</v>
+      </c>
+      <c r="E20" s="3">
         <v>19900</v>
       </c>
-      <c r="E20" s="3">
+      <c r="F20" s="3">
         <v>11400</v>
       </c>
-      <c r="F20" s="3">
+      <c r="G20" s="3">
         <v>3700</v>
       </c>
-      <c r="G20" s="3">
+      <c r="H20" s="3">
         <v>13800</v>
       </c>
-      <c r="H20" s="3">
+      <c r="I20" s="3">
         <v>8200</v>
       </c>
-      <c r="I20" s="3">
+      <c r="J20" s="3">
         <v>2200</v>
       </c>
-      <c r="J20" s="3">
+      <c r="K20" s="3">
         <v>1000</v>
       </c>
-      <c r="K20" s="3">
+      <c r="L20" s="3">
         <v>600</v>
       </c>
-      <c r="L20" s="3">
+      <c r="M20" s="3">
         <v>700</v>
       </c>
-      <c r="M20" s="3">
+      <c r="N20" s="3">
         <v>2400</v>
       </c>
-      <c r="N20" s="3">
+      <c r="O20" s="3">
         <v>-900</v>
       </c>
-      <c r="O20" s="3">
+      <c r="P20" s="3">
         <v>600</v>
       </c>
-      <c r="P20" s="3">
+      <c r="Q20" s="3">
         <v>3500</v>
       </c>
-      <c r="Q20" s="3">
+      <c r="R20" s="3">
         <v>21700</v>
       </c>
-      <c r="R20" s="3">
+      <c r="S20" s="3">
         <v>1200</v>
       </c>
-      <c r="S20" s="3">
+      <c r="T20" s="3">
         <v>5000</v>
       </c>
-      <c r="T20" s="3">
+      <c r="U20" s="3">
         <v>4100</v>
       </c>
-      <c r="U20" s="3">
+      <c r="V20" s="3">
         <v>5200</v>
       </c>
-      <c r="V20" s="3">
+      <c r="W20" s="3">
         <v>14700</v>
       </c>
-      <c r="W20" s="3">
+      <c r="X20" s="3">
         <v>600</v>
       </c>
-      <c r="X20" s="3">
+      <c r="Y20" s="3">
         <v>11400</v>
       </c>
-      <c r="Y20" s="3">
+      <c r="Z20" s="3">
         <v>-18200</v>
       </c>
-      <c r="Z20" s="3">
+      <c r="AA20" s="3">
         <v>9300</v>
       </c>
-      <c r="AA20" s="3">
+      <c r="AB20" s="3">
         <v>5200</v>
       </c>
-      <c r="AB20" s="3">
+      <c r="AC20" s="3">
         <v>-31500</v>
       </c>
-      <c r="AC20" s="3">
+      <c r="AD20" s="3">
         <v>-58000</v>
       </c>
-      <c r="AD20" s="3">
+      <c r="AE20" s="3">
         <v>4600</v>
       </c>
-      <c r="AE20" s="3">
+      <c r="AF20" s="3">
         <v>-22500</v>
       </c>
     </row>
-    <row r="21" spans="3:31" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D21" s="3">
+        <v>-2400</v>
+      </c>
+      <c r="E21" s="3">
         <v>42700</v>
       </c>
-      <c r="E21" s="3">
+      <c r="F21" s="3">
         <v>17700</v>
       </c>
-      <c r="F21" s="3">
+      <c r="G21" s="3">
         <v>44300</v>
       </c>
-      <c r="G21" s="3">
+      <c r="H21" s="3">
         <v>84000</v>
       </c>
-      <c r="H21" s="3">
+      <c r="I21" s="3">
         <v>105200</v>
       </c>
-      <c r="I21" s="3">
+      <c r="J21" s="3">
         <v>90600</v>
       </c>
-      <c r="J21" s="3">
+      <c r="K21" s="3">
         <v>128300</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>158300</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>89600</v>
       </c>
-      <c r="M21" s="3">
+      <c r="N21" s="3">
         <v>314100</v>
       </c>
-      <c r="N21" s="3">
+      <c r="O21" s="3">
         <v>159100</v>
       </c>
-      <c r="O21" s="3">
+      <c r="P21" s="3">
         <v>144100</v>
       </c>
-      <c r="P21" s="3">
+      <c r="Q21" s="3">
         <v>77200</v>
       </c>
-      <c r="Q21" s="3">
+      <c r="R21" s="3">
         <v>111700</v>
       </c>
-      <c r="R21" s="3">
+      <c r="S21" s="3">
         <v>123300</v>
       </c>
-      <c r="S21" s="3">
+      <c r="T21" s="3">
         <v>115200</v>
       </c>
-      <c r="T21" s="3">
+      <c r="U21" s="3">
         <v>35400</v>
       </c>
-      <c r="U21" s="3">
+      <c r="V21" s="3">
         <v>-10500</v>
       </c>
-      <c r="V21" s="3">
+      <c r="W21" s="3">
         <v>57400</v>
       </c>
-      <c r="W21" s="3">
+      <c r="X21" s="3">
         <v>78200</v>
       </c>
-      <c r="X21" s="3">
+      <c r="Y21" s="3">
         <v>53800</v>
       </c>
-      <c r="Y21" s="3">
+      <c r="Z21" s="3">
         <v>26500</v>
       </c>
-      <c r="Z21" s="3">
+      <c r="AA21" s="3">
         <v>119100</v>
       </c>
-      <c r="AA21" s="3">
+      <c r="AB21" s="3">
         <v>25400</v>
       </c>
-      <c r="AB21" s="3">
+      <c r="AC21" s="3">
         <v>-11100</v>
       </c>
-      <c r="AC21" s="3">
+      <c r="AD21" s="3">
         <v>-28500</v>
       </c>
-      <c r="AD21" s="3">
+      <c r="AE21" s="3">
         <v>32800</v>
       </c>
-      <c r="AE21" s="3">
+      <c r="AF21" s="3">
         <v>8000</v>
       </c>
     </row>
-    <row r="22" spans="3:31" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D22" s="3">
+        <v>9700</v>
+      </c>
+      <c r="E22" s="3">
         <v>9400</v>
       </c>
-      <c r="E22" s="3">
+      <c r="F22" s="3">
         <v>8700</v>
       </c>
-      <c r="F22" s="3">
+      <c r="G22" s="3">
         <v>8900</v>
       </c>
-      <c r="G22" s="3">
+      <c r="H22" s="3">
         <v>8500</v>
       </c>
-      <c r="H22" s="3">
+      <c r="I22" s="3">
         <v>26500</v>
       </c>
-      <c r="I22" s="3">
+      <c r="J22" s="3">
         <v>19700</v>
       </c>
-      <c r="J22" s="3">
+      <c r="K22" s="3">
         <v>17100</v>
       </c>
-      <c r="K22" s="3">
+      <c r="L22" s="3">
         <v>16900</v>
       </c>
-      <c r="L22" s="3">
+      <c r="M22" s="3">
         <v>18000</v>
       </c>
-      <c r="M22" s="3">
+      <c r="N22" s="3">
         <v>16400</v>
       </c>
-      <c r="N22" s="3">
+      <c r="O22" s="3">
         <v>16300</v>
       </c>
-      <c r="O22" s="3">
+      <c r="P22" s="3">
         <v>16000</v>
       </c>
-      <c r="P22" s="3">
+      <c r="Q22" s="3">
         <v>15900</v>
       </c>
-      <c r="Q22" s="3">
+      <c r="R22" s="3">
         <v>15600</v>
       </c>
-      <c r="R22" s="3">
+      <c r="S22" s="3">
         <v>18300</v>
-      </c>
-      <c r="S22" s="3">
-        <v>11400</v>
       </c>
       <c r="T22" s="3">
         <v>11400</v>
       </c>
       <c r="U22" s="3">
+        <v>11400</v>
+      </c>
+      <c r="V22" s="3">
         <v>11300</v>
       </c>
-      <c r="V22" s="3">
+      <c r="W22" s="3">
         <v>8500</v>
       </c>
-      <c r="W22" s="3">
+      <c r="X22" s="3">
         <v>5100</v>
-      </c>
-      <c r="X22" s="3">
-        <v>4600</v>
       </c>
       <c r="Y22" s="3">
         <v>4600</v>
@@ -1932,10 +1972,10 @@
         <v>4600</v>
       </c>
       <c r="AA22" s="3">
+        <v>4600</v>
+      </c>
+      <c r="AB22" s="3">
         <v>4400</v>
-      </c>
-      <c r="AB22" s="3" t="s">
-        <v>17</v>
       </c>
       <c r="AC22" s="3" t="s">
         <v>17</v>
@@ -1946,186 +1986,195 @@
       <c r="AE22" s="3" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="23" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF22" s="3" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="23" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>-69300</v>
+      </c>
+      <c r="E23" s="3">
         <v>-45400</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>-48700</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>-27100</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
         <v>18800</v>
       </c>
-      <c r="H23" s="3">
+      <c r="I23" s="3">
         <v>37100</v>
       </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
         <v>29300</v>
       </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
         <v>69100</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>99600</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>28500</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>252900</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>98100</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>83600</v>
       </c>
-      <c r="P23" s="3">
+      <c r="Q23" s="3">
         <v>14600</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="R23" s="3">
         <v>48600</v>
       </c>
-      <c r="R23" s="3">
+      <c r="S23" s="3">
         <v>57700</v>
       </c>
-      <c r="S23" s="3">
+      <c r="T23" s="3">
         <v>53400</v>
       </c>
-      <c r="T23" s="3">
+      <c r="U23" s="3">
         <v>-21100</v>
       </c>
-      <c r="U23" s="3">
+      <c r="V23" s="3">
         <v>-82500</v>
       </c>
-      <c r="V23" s="3">
+      <c r="W23" s="3">
         <v>17700</v>
       </c>
-      <c r="W23" s="3">
+      <c r="X23" s="3">
         <v>52600</v>
       </c>
-      <c r="X23" s="3">
+      <c r="Y23" s="3">
         <v>27700</v>
       </c>
-      <c r="Y23" s="3">
+      <c r="Z23" s="3">
         <v>2700</v>
       </c>
-      <c r="Z23" s="3">
+      <c r="AA23" s="3">
         <v>95500</v>
       </c>
-      <c r="AA23" s="3">
+      <c r="AB23" s="3">
         <v>3500</v>
       </c>
-      <c r="AB23" s="3">
+      <c r="AC23" s="3">
         <v>-27600</v>
       </c>
-      <c r="AC23" s="3">
+      <c r="AD23" s="3">
         <v>-44400</v>
       </c>
-      <c r="AD23" s="3">
+      <c r="AE23" s="3">
         <v>17900</v>
       </c>
-      <c r="AE23" s="3">
+      <c r="AF23" s="3">
         <v>-5700</v>
       </c>
     </row>
-    <row r="24" spans="3:31" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
+        <v>-1400</v>
+      </c>
+      <c r="E24" s="3">
         <v>14800</v>
       </c>
-      <c r="E24" s="3">
+      <c r="F24" s="3">
         <v>-9400</v>
       </c>
-      <c r="F24" s="3">
+      <c r="G24" s="3">
         <v>4600</v>
       </c>
-      <c r="G24" s="3">
+      <c r="H24" s="3">
         <v>19200</v>
       </c>
-      <c r="H24" s="3">
+      <c r="I24" s="3">
         <v>2400</v>
       </c>
-      <c r="I24" s="3">
+      <c r="J24" s="3">
         <v>3300</v>
       </c>
-      <c r="J24" s="3">
+      <c r="K24" s="3">
         <v>12400</v>
       </c>
-      <c r="K24" s="3">
+      <c r="L24" s="3">
         <v>18100</v>
       </c>
-      <c r="L24" s="3">
+      <c r="M24" s="3">
         <v>7000</v>
       </c>
-      <c r="M24" s="3">
+      <c r="N24" s="3">
         <v>27400</v>
       </c>
-      <c r="N24" s="3">
+      <c r="O24" s="3">
         <v>14900</v>
       </c>
-      <c r="O24" s="3">
+      <c r="P24" s="3">
         <v>16500</v>
       </c>
-      <c r="P24" s="3">
+      <c r="Q24" s="3">
         <v>19200</v>
       </c>
-      <c r="Q24" s="3">
+      <c r="R24" s="3">
         <v>5200</v>
       </c>
-      <c r="R24" s="3">
+      <c r="S24" s="3">
         <v>8600</v>
       </c>
-      <c r="S24" s="3">
+      <c r="T24" s="3">
         <v>5800</v>
       </c>
-      <c r="T24" s="3">
+      <c r="U24" s="3">
         <v>4700</v>
       </c>
-      <c r="U24" s="3">
+      <c r="V24" s="3">
         <v>-8200</v>
       </c>
-      <c r="V24" s="3">
+      <c r="W24" s="3">
         <v>1400</v>
       </c>
-      <c r="W24" s="3">
+      <c r="X24" s="3">
         <v>5200</v>
       </c>
-      <c r="X24" s="3">
+      <c r="Y24" s="3">
         <v>-3300</v>
       </c>
-      <c r="Y24" s="3">
-        <v>0</v>
-      </c>
       <c r="Z24" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA24" s="3">
         <v>-109300</v>
       </c>
-      <c r="AA24" s="3">
+      <c r="AB24" s="3">
         <v>-3600</v>
       </c>
-      <c r="AB24" s="3">
+      <c r="AC24" s="3">
         <v>27300</v>
       </c>
-      <c r="AC24" s="3">
+      <c r="AD24" s="3">
         <v>11600</v>
       </c>
-      <c r="AD24" s="3">
+      <c r="AE24" s="3">
         <v>6100</v>
       </c>
-      <c r="AE24" s="3">
+      <c r="AF24" s="3">
         <v>-2300</v>
       </c>
     </row>
-    <row r="25" spans="3:31" x14ac:dyDescent="0.2">
+    <row r="25" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -2213,186 +2262,195 @@
       <c r="AE25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>-67900</v>
+      </c>
+      <c r="E26" s="3">
         <v>-60200</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
         <v>-39300</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>-31700</v>
       </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
         <v>-400</v>
       </c>
-      <c r="H26" s="3">
+      <c r="I26" s="3">
         <v>34700</v>
       </c>
-      <c r="I26" s="3">
+      <c r="J26" s="3">
         <v>26000</v>
       </c>
-      <c r="J26" s="3">
+      <c r="K26" s="3">
         <v>56700</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>81500</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>21500</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>225500</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>83200</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>67100</v>
       </c>
-      <c r="P26" s="3">
+      <c r="Q26" s="3">
         <v>-4600</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="R26" s="3">
         <v>43400</v>
       </c>
-      <c r="R26" s="3">
+      <c r="S26" s="3">
         <v>49100</v>
       </c>
-      <c r="S26" s="3">
+      <c r="T26" s="3">
         <v>47600</v>
       </c>
-      <c r="T26" s="3">
+      <c r="U26" s="3">
         <v>-25800</v>
       </c>
-      <c r="U26" s="3">
+      <c r="V26" s="3">
         <v>-74300</v>
       </c>
-      <c r="V26" s="3">
+      <c r="W26" s="3">
         <v>16300</v>
       </c>
-      <c r="W26" s="3">
+      <c r="X26" s="3">
         <v>47400</v>
       </c>
-      <c r="X26" s="3">
+      <c r="Y26" s="3">
         <v>31000</v>
       </c>
-      <c r="Y26" s="3">
+      <c r="Z26" s="3">
         <v>2700</v>
       </c>
-      <c r="Z26" s="3">
+      <c r="AA26" s="3">
         <v>204800</v>
       </c>
-      <c r="AA26" s="3">
+      <c r="AB26" s="3">
         <v>7100</v>
       </c>
-      <c r="AB26" s="3">
+      <c r="AC26" s="3">
         <v>-54900</v>
       </c>
-      <c r="AC26" s="3">
+      <c r="AD26" s="3">
         <v>-56000</v>
       </c>
-      <c r="AD26" s="3">
+      <c r="AE26" s="3">
         <v>11800</v>
       </c>
-      <c r="AE26" s="3">
+      <c r="AF26" s="3">
         <v>-3400</v>
       </c>
     </row>
-    <row r="27" spans="3:31" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>-67900</v>
+      </c>
+      <c r="E27" s="3">
         <v>-60200</v>
       </c>
-      <c r="E27" s="3">
+      <c r="F27" s="3">
         <v>-39300</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>-31700</v>
       </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
         <v>-400</v>
       </c>
-      <c r="H27" s="3">
+      <c r="I27" s="3">
         <v>34700</v>
       </c>
-      <c r="I27" s="3">
+      <c r="J27" s="3">
         <v>26000</v>
       </c>
-      <c r="J27" s="3">
+      <c r="K27" s="3">
         <v>56700</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>81500</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>21500</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>225500</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>83200</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>67100</v>
       </c>
-      <c r="P27" s="3">
+      <c r="Q27" s="3">
         <v>-4600</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="R27" s="3">
         <v>43400</v>
       </c>
-      <c r="R27" s="3">
+      <c r="S27" s="3">
         <v>49100</v>
       </c>
-      <c r="S27" s="3">
+      <c r="T27" s="3">
         <v>47600</v>
       </c>
-      <c r="T27" s="3">
+      <c r="U27" s="3">
         <v>-25800</v>
       </c>
-      <c r="U27" s="3">
+      <c r="V27" s="3">
         <v>-74300</v>
       </c>
-      <c r="V27" s="3">
+      <c r="W27" s="3">
         <v>16200</v>
       </c>
-      <c r="W27" s="3">
+      <c r="X27" s="3">
         <v>46100</v>
       </c>
-      <c r="X27" s="3">
+      <c r="Y27" s="3">
         <v>30000</v>
       </c>
-      <c r="Y27" s="3">
+      <c r="Z27" s="3">
         <v>2400</v>
       </c>
-      <c r="Z27" s="3">
+      <c r="AA27" s="3">
         <v>199800</v>
       </c>
-      <c r="AA27" s="3">
+      <c r="AB27" s="3">
         <v>6900</v>
       </c>
-      <c r="AB27" s="3">
+      <c r="AC27" s="3">
         <v>-55200</v>
       </c>
-      <c r="AC27" s="3">
+      <c r="AD27" s="3">
         <v>-56200</v>
       </c>
-      <c r="AD27" s="3">
+      <c r="AE27" s="3">
         <v>11600</v>
       </c>
-      <c r="AE27" s="3">
+      <c r="AF27" s="3">
         <v>-3600</v>
       </c>
     </row>
-    <row r="28" spans="3:31" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -2480,8 +2538,11 @@
       <c r="AE28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -2527,17 +2588,17 @@
       <c r="Q29" s="3">
         <v>0</v>
       </c>
-      <c r="R29" s="3" t="s">
-        <v>17</v>
+      <c r="R29" s="3">
+        <v>0</v>
       </c>
       <c r="S29" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="T29" s="3">
-        <v>0</v>
-      </c>
-      <c r="U29" s="3" t="s">
+      <c r="T29" s="3" t="s">
         <v>17</v>
+      </c>
+      <c r="U29" s="3">
+        <v>0</v>
       </c>
       <c r="V29" s="3" t="s">
         <v>17</v>
@@ -2545,17 +2606,17 @@
       <c r="W29" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="X29" s="3">
+      <c r="X29" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="Y29" s="3">
         <v>2500</v>
       </c>
-      <c r="Y29" s="3">
-        <v>0</v>
-      </c>
       <c r="Z29" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA29" s="3">
         <v>-83000</v>
-      </c>
-      <c r="AA29" s="3" t="s">
-        <v>17</v>
       </c>
       <c r="AB29" s="3" t="s">
         <v>17</v>
@@ -2569,8 +2630,11 @@
       <c r="AE29" s="3" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="30" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF29" s="3" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="30" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -2658,8 +2722,11 @@
       <c r="AE30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -2747,186 +2814,195 @@
       <c r="AE31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
+        <v>-21200</v>
+      </c>
+      <c r="E32" s="3">
         <v>-19900</v>
       </c>
-      <c r="E32" s="3">
+      <c r="F32" s="3">
         <v>-11400</v>
       </c>
-      <c r="F32" s="3">
+      <c r="G32" s="3">
         <v>-3700</v>
       </c>
-      <c r="G32" s="3">
+      <c r="H32" s="3">
         <v>-13800</v>
       </c>
-      <c r="H32" s="3">
+      <c r="I32" s="3">
         <v>-8200</v>
       </c>
-      <c r="I32" s="3">
+      <c r="J32" s="3">
         <v>-2200</v>
       </c>
-      <c r="J32" s="3">
+      <c r="K32" s="3">
         <v>-1000</v>
       </c>
-      <c r="K32" s="3">
+      <c r="L32" s="3">
         <v>-600</v>
       </c>
-      <c r="L32" s="3">
+      <c r="M32" s="3">
         <v>-700</v>
       </c>
-      <c r="M32" s="3">
+      <c r="N32" s="3">
         <v>-2400</v>
       </c>
-      <c r="N32" s="3">
+      <c r="O32" s="3">
         <v>900</v>
       </c>
-      <c r="O32" s="3">
+      <c r="P32" s="3">
         <v>-600</v>
       </c>
-      <c r="P32" s="3">
+      <c r="Q32" s="3">
         <v>-3500</v>
       </c>
-      <c r="Q32" s="3">
+      <c r="R32" s="3">
         <v>-21700</v>
       </c>
-      <c r="R32" s="3">
+      <c r="S32" s="3">
         <v>-1200</v>
       </c>
-      <c r="S32" s="3">
+      <c r="T32" s="3">
         <v>-5000</v>
       </c>
-      <c r="T32" s="3">
+      <c r="U32" s="3">
         <v>-4100</v>
       </c>
-      <c r="U32" s="3">
+      <c r="V32" s="3">
         <v>-5200</v>
       </c>
-      <c r="V32" s="3">
+      <c r="W32" s="3">
         <v>-14700</v>
       </c>
-      <c r="W32" s="3">
+      <c r="X32" s="3">
         <v>-600</v>
       </c>
-      <c r="X32" s="3">
+      <c r="Y32" s="3">
         <v>-11400</v>
       </c>
-      <c r="Y32" s="3">
+      <c r="Z32" s="3">
         <v>18200</v>
       </c>
-      <c r="Z32" s="3">
+      <c r="AA32" s="3">
         <v>-9300</v>
       </c>
-      <c r="AA32" s="3">
+      <c r="AB32" s="3">
         <v>-5200</v>
       </c>
-      <c r="AB32" s="3">
+      <c r="AC32" s="3">
         <v>31500</v>
       </c>
-      <c r="AC32" s="3">
+      <c r="AD32" s="3">
         <v>58000</v>
       </c>
-      <c r="AD32" s="3">
+      <c r="AE32" s="3">
         <v>-4600</v>
       </c>
-      <c r="AE32" s="3">
+      <c r="AF32" s="3">
         <v>22500</v>
       </c>
     </row>
-    <row r="33" spans="2:31" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>-67900</v>
+      </c>
+      <c r="E33" s="3">
         <v>-60200</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
         <v>-39300</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>-31700</v>
       </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
         <v>-400</v>
       </c>
-      <c r="H33" s="3">
+      <c r="I33" s="3">
         <v>34700</v>
       </c>
-      <c r="I33" s="3">
+      <c r="J33" s="3">
         <v>26000</v>
       </c>
-      <c r="J33" s="3">
+      <c r="K33" s="3">
         <v>56700</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>81500</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>21500</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>225500</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>83200</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>67100</v>
       </c>
-      <c r="P33" s="3">
+      <c r="Q33" s="3">
         <v>-4600</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="R33" s="3">
         <v>43400</v>
       </c>
-      <c r="R33" s="3">
+      <c r="S33" s="3">
         <v>49100</v>
       </c>
-      <c r="S33" s="3">
+      <c r="T33" s="3">
         <v>47600</v>
       </c>
-      <c r="T33" s="3">
+      <c r="U33" s="3">
         <v>-25800</v>
       </c>
-      <c r="U33" s="3">
+      <c r="V33" s="3">
         <v>-74300</v>
       </c>
-      <c r="V33" s="3">
+      <c r="W33" s="3">
         <v>16200</v>
       </c>
-      <c r="W33" s="3">
+      <c r="X33" s="3">
         <v>46100</v>
       </c>
-      <c r="X33" s="3">
+      <c r="Y33" s="3">
         <v>32500</v>
       </c>
-      <c r="Y33" s="3">
+      <c r="Z33" s="3">
         <v>2400</v>
       </c>
-      <c r="Z33" s="3">
+      <c r="AA33" s="3">
         <v>116800</v>
       </c>
-      <c r="AA33" s="3">
+      <c r="AB33" s="3">
         <v>6900</v>
       </c>
-      <c r="AB33" s="3">
+      <c r="AC33" s="3">
         <v>-55200</v>
       </c>
-      <c r="AC33" s="3">
+      <c r="AD33" s="3">
         <v>-56200</v>
       </c>
-      <c r="AD33" s="3">
+      <c r="AE33" s="3">
         <v>11600</v>
       </c>
-      <c r="AE33" s="3">
+      <c r="AF33" s="3">
         <v>-3600</v>
       </c>
     </row>
-    <row r="34" spans="2:31" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -3014,191 +3090,200 @@
       <c r="AE34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:31" x14ac:dyDescent="0.2">
+      <c r="AF34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>-67900</v>
+      </c>
+      <c r="E35" s="3">
         <v>-60200</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
         <v>-39300</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>-31700</v>
       </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
         <v>-400</v>
       </c>
-      <c r="H35" s="3">
+      <c r="I35" s="3">
         <v>34700</v>
       </c>
-      <c r="I35" s="3">
+      <c r="J35" s="3">
         <v>26000</v>
       </c>
-      <c r="J35" s="3">
+      <c r="K35" s="3">
         <v>56700</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>81500</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>21500</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>225500</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>83200</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>67100</v>
       </c>
-      <c r="P35" s="3">
+      <c r="Q35" s="3">
         <v>-4600</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="R35" s="3">
         <v>43400</v>
       </c>
-      <c r="R35" s="3">
+      <c r="S35" s="3">
         <v>49100</v>
       </c>
-      <c r="S35" s="3">
+      <c r="T35" s="3">
         <v>47600</v>
       </c>
-      <c r="T35" s="3">
+      <c r="U35" s="3">
         <v>-25800</v>
       </c>
-      <c r="U35" s="3">
+      <c r="V35" s="3">
         <v>-74300</v>
       </c>
-      <c r="V35" s="3">
+      <c r="W35" s="3">
         <v>16200</v>
       </c>
-      <c r="W35" s="3">
+      <c r="X35" s="3">
         <v>46100</v>
       </c>
-      <c r="X35" s="3">
+      <c r="Y35" s="3">
         <v>32500</v>
       </c>
-      <c r="Y35" s="3">
+      <c r="Z35" s="3">
         <v>2400</v>
       </c>
-      <c r="Z35" s="3">
+      <c r="AA35" s="3">
         <v>116800</v>
       </c>
-      <c r="AA35" s="3">
+      <c r="AB35" s="3">
         <v>6900</v>
       </c>
-      <c r="AB35" s="3">
+      <c r="AC35" s="3">
         <v>-55200</v>
       </c>
-      <c r="AC35" s="3">
+      <c r="AD35" s="3">
         <v>-56200</v>
       </c>
-      <c r="AD35" s="3">
+      <c r="AE35" s="3">
         <v>11600</v>
       </c>
-      <c r="AE35" s="3">
+      <c r="AF35" s="3">
         <v>-3600</v>
       </c>
     </row>
-    <row r="37" spans="2:31" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:32" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:31" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>45199</v>
+      </c>
+      <c r="E38" s="2">
         <v>45108</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>45017</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44926</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44835</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>44744</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>44653</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>44562</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>44471</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>44380</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>44289</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>44191</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>44100</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>44009</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>43918</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>43827</v>
       </c>
-      <c r="S38" s="2">
+      <c r="T38" s="2">
         <v>43736</v>
       </c>
-      <c r="T38" s="2">
+      <c r="U38" s="2">
         <v>43645</v>
       </c>
-      <c r="U38" s="2">
+      <c r="V38" s="2">
         <v>43554</v>
       </c>
-      <c r="V38" s="2">
+      <c r="W38" s="2">
         <v>43463</v>
       </c>
-      <c r="W38" s="2">
+      <c r="X38" s="2">
         <v>43372</v>
       </c>
-      <c r="X38" s="2">
+      <c r="Y38" s="2">
         <v>43281</v>
       </c>
-      <c r="Y38" s="2">
+      <c r="Z38" s="2">
         <v>43190</v>
       </c>
-      <c r="Z38" s="2">
+      <c r="AA38" s="2">
         <v>43099</v>
       </c>
-      <c r="AA38" s="2">
+      <c r="AB38" s="2">
         <v>43008</v>
       </c>
-      <c r="AB38" s="2">
+      <c r="AC38" s="2">
         <v>42917</v>
       </c>
-      <c r="AC38" s="2">
+      <c r="AD38" s="2">
         <v>42826</v>
       </c>
-      <c r="AD38" s="2">
+      <c r="AE38" s="2">
         <v>42735</v>
       </c>
-      <c r="AE38" s="2">
+      <c r="AF38" s="2">
         <v>42644</v>
       </c>
     </row>
-    <row r="39" spans="2:31" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -3230,8 +3315,9 @@
       <c r="AC39" s="3"/>
       <c r="AD39" s="3"/>
       <c r="AE39" s="3"/>
-    </row>
-    <row r="40" spans="2:31" x14ac:dyDescent="0.2">
+      <c r="AF39" s="3"/>
+    </row>
+    <row r="40" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -3263,177 +3349,181 @@
       <c r="AC40" s="3"/>
       <c r="AD40" s="3"/>
       <c r="AE40" s="3"/>
-    </row>
-    <row r="41" spans="2:31" x14ac:dyDescent="0.2">
+      <c r="AF40" s="3"/>
+    </row>
+    <row r="41" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>861600</v>
+      </c>
+      <c r="E41" s="3">
         <v>859000</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>549200</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>592100</v>
       </c>
-      <c r="G41" s="3">
+      <c r="H41" s="3">
         <v>605300</v>
       </c>
-      <c r="H41" s="3">
+      <c r="I41" s="3">
         <v>1290200</v>
       </c>
-      <c r="I41" s="3">
+      <c r="J41" s="3">
         <v>1130300</v>
       </c>
-      <c r="J41" s="3">
+      <c r="K41" s="3">
         <v>552000</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>611000</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>774300</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>687700</v>
       </c>
-      <c r="N41" s="3">
+      <c r="O41" s="3">
         <v>321300</v>
       </c>
-      <c r="O41" s="3">
+      <c r="P41" s="3">
         <v>269500</v>
       </c>
-      <c r="P41" s="3">
+      <c r="Q41" s="3">
         <v>298000</v>
       </c>
-      <c r="Q41" s="3">
+      <c r="R41" s="3">
         <v>688300</v>
       </c>
-      <c r="R41" s="3">
+      <c r="S41" s="3">
         <v>1085000</v>
       </c>
-      <c r="S41" s="3">
+      <c r="T41" s="3">
         <v>539000</v>
       </c>
-      <c r="T41" s="3">
+      <c r="U41" s="3">
         <v>432600</v>
       </c>
-      <c r="U41" s="3">
+      <c r="V41" s="3">
         <v>357300</v>
       </c>
-      <c r="V41" s="3">
+      <c r="W41" s="3">
         <v>371300</v>
       </c>
-      <c r="W41" s="3">
+      <c r="X41" s="3">
         <v>459400</v>
       </c>
-      <c r="X41" s="3">
+      <c r="Y41" s="3">
         <v>397300</v>
       </c>
-      <c r="Y41" s="3">
+      <c r="Z41" s="3">
         <v>176800</v>
       </c>
-      <c r="Z41" s="3">
+      <c r="AA41" s="3">
         <v>202100</v>
       </c>
-      <c r="AA41" s="3">
+      <c r="AB41" s="3">
         <v>150800</v>
       </c>
-      <c r="AB41" s="3">
+      <c r="AC41" s="3">
         <v>272900</v>
       </c>
-      <c r="AC41" s="3">
+      <c r="AD41" s="3">
         <v>577900</v>
       </c>
-      <c r="AD41" s="3">
+      <c r="AE41" s="3">
         <v>155900</v>
       </c>
-      <c r="AE41" s="3">
+      <c r="AF41" s="3">
         <v>166800</v>
       </c>
     </row>
-    <row r="42" spans="2:31" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
       <c r="D42" s="3">
+        <v>1082700</v>
+      </c>
+      <c r="E42" s="3">
         <v>1154600</v>
       </c>
-      <c r="E42" s="3">
+      <c r="F42" s="3">
         <v>1118000</v>
       </c>
-      <c r="F42" s="3">
+      <c r="G42" s="3">
         <v>1088300</v>
       </c>
-      <c r="G42" s="3">
+      <c r="H42" s="3">
         <v>1019600</v>
       </c>
-      <c r="H42" s="3">
+      <c r="I42" s="3">
         <v>1258800</v>
       </c>
-      <c r="I42" s="3">
+      <c r="J42" s="3">
         <v>1433800</v>
       </c>
-      <c r="J42" s="3">
+      <c r="K42" s="3">
         <v>1470400</v>
       </c>
-      <c r="K42" s="3">
+      <c r="L42" s="3">
         <v>1273600</v>
       </c>
-      <c r="L42" s="3">
+      <c r="M42" s="3">
         <v>1171700</v>
       </c>
-      <c r="M42" s="3">
+      <c r="N42" s="3">
         <v>1366900</v>
       </c>
-      <c r="N42" s="3">
+      <c r="O42" s="3">
         <v>1379000</v>
       </c>
-      <c r="O42" s="3">
+      <c r="P42" s="3">
         <v>1341200</v>
       </c>
-      <c r="P42" s="3">
+      <c r="Q42" s="3">
         <v>1255800</v>
       </c>
-      <c r="Q42" s="3">
+      <c r="R42" s="3">
         <v>763100</v>
       </c>
-      <c r="R42" s="3">
+      <c r="S42" s="3">
         <v>230600</v>
       </c>
-      <c r="S42" s="3">
+      <c r="T42" s="3">
         <v>291900</v>
       </c>
-      <c r="T42" s="3">
+      <c r="U42" s="3">
         <v>335900</v>
       </c>
-      <c r="U42" s="3">
+      <c r="V42" s="3">
         <v>340200</v>
       </c>
-      <c r="V42" s="3">
+      <c r="W42" s="3">
         <v>312800</v>
       </c>
-      <c r="W42" s="3">
+      <c r="X42" s="3">
         <v>274900</v>
       </c>
-      <c r="X42" s="3">
+      <c r="Y42" s="3">
         <v>314200</v>
       </c>
-      <c r="Y42" s="3">
+      <c r="Z42" s="3">
         <v>516000</v>
       </c>
-      <c r="Z42" s="3">
+      <c r="AA42" s="3">
         <v>422400</v>
       </c>
-      <c r="AA42" s="3">
+      <c r="AB42" s="3">
         <v>381700</v>
       </c>
-      <c r="AB42" s="3">
+      <c r="AC42" s="3">
         <v>282400</v>
-      </c>
-      <c r="AC42" s="3" t="s">
-        <v>17</v>
       </c>
       <c r="AD42" s="3" t="s">
         <v>17</v>
@@ -3441,364 +3531,379 @@
       <c r="AE42" s="3" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="43" spans="2:31" x14ac:dyDescent="0.2">
+      <c r="AF42" s="3" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="43" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
+        <v>220000</v>
+      </c>
+      <c r="E43" s="3">
         <v>246100</v>
       </c>
-      <c r="E43" s="3">
+      <c r="F43" s="3">
         <v>278000</v>
       </c>
-      <c r="F43" s="3">
+      <c r="G43" s="3">
         <v>330500</v>
       </c>
-      <c r="G43" s="3">
+      <c r="H43" s="3">
         <v>340500</v>
       </c>
-      <c r="H43" s="3">
+      <c r="I43" s="3">
         <v>262000</v>
       </c>
-      <c r="I43" s="3">
+      <c r="J43" s="3">
         <v>242200</v>
       </c>
-      <c r="J43" s="3">
+      <c r="K43" s="3">
         <v>239200</v>
       </c>
-      <c r="K43" s="3">
+      <c r="L43" s="3">
         <v>263200</v>
       </c>
-      <c r="L43" s="3">
+      <c r="M43" s="3">
         <v>212800</v>
       </c>
-      <c r="M43" s="3">
+      <c r="N43" s="3">
         <v>224800</v>
       </c>
-      <c r="N43" s="3">
+      <c r="O43" s="3">
         <v>276700</v>
       </c>
-      <c r="O43" s="3">
+      <c r="P43" s="3">
         <v>263600</v>
       </c>
-      <c r="P43" s="3">
+      <c r="Q43" s="3">
         <v>233500</v>
       </c>
-      <c r="Q43" s="3">
+      <c r="R43" s="3">
         <v>303100</v>
       </c>
-      <c r="R43" s="3">
+      <c r="S43" s="3">
         <v>343600</v>
       </c>
-      <c r="S43" s="3">
+      <c r="T43" s="3">
         <v>339600</v>
       </c>
-      <c r="T43" s="3">
+      <c r="U43" s="3">
         <v>286200</v>
       </c>
-      <c r="U43" s="3">
+      <c r="V43" s="3">
         <v>329700</v>
       </c>
-      <c r="V43" s="3">
+      <c r="W43" s="3">
         <v>266500</v>
       </c>
-      <c r="W43" s="3">
+      <c r="X43" s="3">
         <v>239600</v>
       </c>
-      <c r="X43" s="3">
+      <c r="Y43" s="3">
         <v>197100</v>
       </c>
-      <c r="Y43" s="3">
+      <c r="Z43" s="3">
         <v>164700</v>
       </c>
-      <c r="Z43" s="3">
+      <c r="AA43" s="3">
         <v>222100</v>
       </c>
-      <c r="AA43" s="3">
+      <c r="AB43" s="3">
         <v>173800</v>
       </c>
-      <c r="AB43" s="3">
+      <c r="AC43" s="3">
         <v>166300</v>
       </c>
-      <c r="AC43" s="3">
+      <c r="AD43" s="3">
         <v>185400</v>
       </c>
-      <c r="AD43" s="3">
+      <c r="AE43" s="3">
         <v>192500</v>
       </c>
-      <c r="AE43" s="3">
+      <c r="AF43" s="3">
         <v>156500</v>
       </c>
     </row>
-    <row r="44" spans="2:31" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
+        <v>428000</v>
+      </c>
+      <c r="E44" s="3">
         <v>408600</v>
       </c>
-      <c r="E44" s="3">
+      <c r="F44" s="3">
         <v>410200</v>
       </c>
-      <c r="F44" s="3">
+      <c r="G44" s="3">
         <v>366900</v>
       </c>
-      <c r="G44" s="3">
+      <c r="H44" s="3">
         <v>366200</v>
       </c>
-      <c r="H44" s="3">
+      <c r="I44" s="3">
         <v>250100</v>
       </c>
-      <c r="I44" s="3">
+      <c r="J44" s="3">
         <v>224000</v>
       </c>
-      <c r="J44" s="3">
+      <c r="K44" s="3">
         <v>208100</v>
       </c>
-      <c r="K44" s="3">
+      <c r="L44" s="3">
         <v>207000</v>
       </c>
-      <c r="L44" s="3">
+      <c r="M44" s="3">
         <v>196400</v>
       </c>
-      <c r="M44" s="3">
+      <c r="N44" s="3">
         <v>210700</v>
       </c>
-      <c r="N44" s="3">
+      <c r="O44" s="3">
         <v>207100</v>
       </c>
-      <c r="O44" s="3">
+      <c r="P44" s="3">
         <v>212600</v>
       </c>
-      <c r="P44" s="3">
+      <c r="Q44" s="3">
         <v>188900</v>
       </c>
-      <c r="Q44" s="3">
+      <c r="R44" s="3">
         <v>172700</v>
       </c>
-      <c r="R44" s="3">
+      <c r="S44" s="3">
         <v>179600</v>
       </c>
-      <c r="S44" s="3">
+      <c r="T44" s="3">
         <v>202200</v>
       </c>
-      <c r="T44" s="3">
+      <c r="U44" s="3">
         <v>228800</v>
       </c>
-      <c r="U44" s="3">
+      <c r="V44" s="3">
         <v>272200</v>
       </c>
-      <c r="V44" s="3">
+      <c r="W44" s="3">
         <v>303200</v>
       </c>
-      <c r="W44" s="3">
+      <c r="X44" s="3">
         <v>136600</v>
       </c>
-      <c r="X44" s="3">
+      <c r="Y44" s="3">
         <v>153600</v>
       </c>
-      <c r="Y44" s="3">
+      <c r="Z44" s="3">
         <v>144200</v>
       </c>
-      <c r="Z44" s="3">
+      <c r="AA44" s="3">
         <v>147300</v>
       </c>
-      <c r="AA44" s="3">
+      <c r="AB44" s="3">
         <v>147200</v>
       </c>
-      <c r="AB44" s="3">
+      <c r="AC44" s="3">
         <v>145200</v>
       </c>
-      <c r="AC44" s="3">
+      <c r="AD44" s="3">
         <v>116900</v>
       </c>
-      <c r="AD44" s="3">
+      <c r="AE44" s="3">
         <v>121000</v>
       </c>
-      <c r="AE44" s="3">
+      <c r="AF44" s="3">
         <v>103700</v>
       </c>
     </row>
-    <row r="45" spans="2:31" x14ac:dyDescent="0.2">
+    <row r="45" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
+        <v>99400</v>
+      </c>
+      <c r="E45" s="3">
         <v>109600</v>
       </c>
-      <c r="E45" s="3">
+      <c r="F45" s="3">
         <v>108200</v>
       </c>
-      <c r="F45" s="3">
+      <c r="G45" s="3">
         <v>114800</v>
       </c>
-      <c r="G45" s="3">
+      <c r="H45" s="3">
         <v>106800</v>
       </c>
-      <c r="H45" s="3">
+      <c r="I45" s="3">
         <v>78100</v>
       </c>
-      <c r="I45" s="3">
+      <c r="J45" s="3">
         <v>70300</v>
       </c>
-      <c r="J45" s="3">
+      <c r="K45" s="3">
         <v>70400</v>
       </c>
-      <c r="K45" s="3">
+      <c r="L45" s="3">
         <v>68200</v>
       </c>
-      <c r="L45" s="3">
+      <c r="M45" s="3">
         <v>81600</v>
       </c>
-      <c r="M45" s="3">
+      <c r="N45" s="3">
         <v>79700</v>
       </c>
-      <c r="N45" s="3">
+      <c r="O45" s="3">
         <v>82100</v>
       </c>
-      <c r="O45" s="3">
+      <c r="P45" s="3">
         <v>79800</v>
       </c>
-      <c r="P45" s="3">
+      <c r="Q45" s="3">
         <v>73800</v>
       </c>
-      <c r="Q45" s="3">
+      <c r="R45" s="3">
         <v>35800</v>
       </c>
-      <c r="R45" s="3">
+      <c r="S45" s="3">
         <v>44200</v>
       </c>
-      <c r="S45" s="3">
+      <c r="T45" s="3">
         <v>50500</v>
       </c>
-      <c r="T45" s="3">
+      <c r="U45" s="3">
         <v>49300</v>
       </c>
-      <c r="U45" s="3">
+      <c r="V45" s="3">
         <v>118700</v>
       </c>
-      <c r="V45" s="3">
+      <c r="W45" s="3">
         <v>103100</v>
       </c>
-      <c r="W45" s="3">
+      <c r="X45" s="3">
         <v>70600</v>
       </c>
-      <c r="X45" s="3">
+      <c r="Y45" s="3">
         <v>65000</v>
       </c>
-      <c r="Y45" s="3">
+      <c r="Z45" s="3">
         <v>63000</v>
       </c>
-      <c r="Z45" s="3">
+      <c r="AA45" s="3">
         <v>59900</v>
       </c>
-      <c r="AA45" s="3">
+      <c r="AB45" s="3">
         <v>69000</v>
       </c>
-      <c r="AB45" s="3">
+      <c r="AC45" s="3">
         <v>63500</v>
       </c>
-      <c r="AC45" s="3">
+      <c r="AD45" s="3">
         <v>61400</v>
       </c>
-      <c r="AD45" s="3">
+      <c r="AE45" s="3">
         <v>58200</v>
       </c>
-      <c r="AE45" s="3">
+      <c r="AF45" s="3">
         <v>62300</v>
       </c>
     </row>
-    <row r="46" spans="2:31" x14ac:dyDescent="0.2">
+    <row r="46" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>2691700</v>
+      </c>
+      <c r="E46" s="3">
         <v>2777900</v>
       </c>
-      <c r="E46" s="3">
+      <c r="F46" s="3">
         <v>2463600</v>
       </c>
-      <c r="F46" s="3">
+      <c r="G46" s="3">
         <v>2492600</v>
       </c>
-      <c r="G46" s="3">
+      <c r="H46" s="3">
         <v>2438400</v>
       </c>
-      <c r="H46" s="3">
+      <c r="I46" s="3">
         <v>3139200</v>
       </c>
-      <c r="I46" s="3">
+      <c r="J46" s="3">
         <v>3100600</v>
       </c>
-      <c r="J46" s="3">
+      <c r="K46" s="3">
         <v>2540100</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>2423000</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>2436800</v>
       </c>
-      <c r="M46" s="3">
+      <c r="N46" s="3">
         <v>2569800</v>
       </c>
-      <c r="N46" s="3">
+      <c r="O46" s="3">
         <v>2266200</v>
       </c>
-      <c r="O46" s="3">
+      <c r="P46" s="3">
         <v>2166700</v>
       </c>
-      <c r="P46" s="3">
+      <c r="Q46" s="3">
         <v>2050000</v>
       </c>
-      <c r="Q46" s="3">
+      <c r="R46" s="3">
         <v>1963000</v>
       </c>
-      <c r="R46" s="3">
+      <c r="S46" s="3">
         <v>1883000</v>
       </c>
-      <c r="S46" s="3">
+      <c r="T46" s="3">
         <v>1423200</v>
       </c>
-      <c r="T46" s="3">
+      <c r="U46" s="3">
         <v>1332800</v>
       </c>
-      <c r="U46" s="3">
+      <c r="V46" s="3">
         <v>1418100</v>
       </c>
-      <c r="V46" s="3">
+      <c r="W46" s="3">
         <v>1356900</v>
       </c>
-      <c r="W46" s="3">
+      <c r="X46" s="3">
         <v>1181100</v>
       </c>
-      <c r="X46" s="3">
+      <c r="Y46" s="3">
         <v>1127200</v>
       </c>
-      <c r="Y46" s="3">
+      <c r="Z46" s="3">
         <v>1064700</v>
       </c>
-      <c r="Z46" s="3">
+      <c r="AA46" s="3">
         <v>1053800</v>
       </c>
-      <c r="AA46" s="3">
+      <c r="AB46" s="3">
         <v>922500</v>
       </c>
-      <c r="AB46" s="3">
+      <c r="AC46" s="3">
         <v>930300</v>
       </c>
-      <c r="AC46" s="3">
+      <c r="AD46" s="3">
         <v>941600</v>
       </c>
-      <c r="AD46" s="3">
+      <c r="AE46" s="3">
         <v>527600</v>
       </c>
-      <c r="AE46" s="3">
+      <c r="AF46" s="3">
         <v>489300</v>
       </c>
     </row>
-    <row r="47" spans="2:31" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -3886,186 +3991,195 @@
       <c r="AE47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:31" x14ac:dyDescent="0.2">
+      <c r="AF47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>580400</v>
+      </c>
+      <c r="E48" s="3">
         <v>566800</v>
       </c>
-      <c r="E48" s="3">
+      <c r="F48" s="3">
         <v>564400</v>
       </c>
-      <c r="F48" s="3">
+      <c r="G48" s="3">
         <v>572600</v>
       </c>
-      <c r="G48" s="3">
+      <c r="H48" s="3">
         <v>567400</v>
       </c>
-      <c r="H48" s="3">
+      <c r="I48" s="3">
         <v>434100</v>
       </c>
-      <c r="I48" s="3">
+      <c r="J48" s="3">
         <v>430700</v>
       </c>
-      <c r="J48" s="3">
+      <c r="K48" s="3">
         <v>434700</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>428400</v>
       </c>
-      <c r="L48" s="3">
+      <c r="M48" s="3">
         <v>428500</v>
       </c>
-      <c r="M48" s="3">
+      <c r="N48" s="3">
         <v>448300</v>
       </c>
-      <c r="N48" s="3">
+      <c r="O48" s="3">
         <v>457600</v>
       </c>
-      <c r="O48" s="3">
+      <c r="P48" s="3">
         <v>468100</v>
       </c>
-      <c r="P48" s="3">
+      <c r="Q48" s="3">
         <v>471700</v>
       </c>
-      <c r="Q48" s="3">
+      <c r="R48" s="3">
         <v>491800</v>
       </c>
-      <c r="R48" s="3">
+      <c r="S48" s="3">
         <v>505700</v>
       </c>
-      <c r="S48" s="3">
+      <c r="T48" s="3">
         <v>524900</v>
       </c>
-      <c r="T48" s="3">
+      <c r="U48" s="3">
         <v>433300</v>
       </c>
-      <c r="U48" s="3">
+      <c r="V48" s="3">
         <v>390600</v>
       </c>
-      <c r="V48" s="3">
+      <c r="W48" s="3">
         <v>444700</v>
       </c>
-      <c r="W48" s="3">
+      <c r="X48" s="3">
         <v>318600</v>
       </c>
-      <c r="X48" s="3">
+      <c r="Y48" s="3">
         <v>280600</v>
       </c>
-      <c r="Y48" s="3">
+      <c r="Z48" s="3">
         <v>264500</v>
       </c>
-      <c r="Z48" s="3">
+      <c r="AA48" s="3">
         <v>301300</v>
       </c>
-      <c r="AA48" s="3">
+      <c r="AB48" s="3">
         <v>293700</v>
       </c>
-      <c r="AB48" s="3">
+      <c r="AC48" s="3">
         <v>273500</v>
       </c>
-      <c r="AC48" s="3">
+      <c r="AD48" s="3">
         <v>246600</v>
       </c>
-      <c r="AD48" s="3">
+      <c r="AE48" s="3">
         <v>219600</v>
       </c>
-      <c r="AE48" s="3">
+      <c r="AF48" s="3">
         <v>196000</v>
       </c>
     </row>
-    <row r="49" spans="3:31" x14ac:dyDescent="0.2">
+    <row r="49" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
+        <v>1130300</v>
+      </c>
+      <c r="E49" s="3">
         <v>1154300</v>
       </c>
-      <c r="E49" s="3">
+      <c r="F49" s="3">
         <v>1194600</v>
       </c>
-      <c r="F49" s="3">
+      <c r="G49" s="3">
         <v>1238100</v>
       </c>
-      <c r="G49" s="3">
+      <c r="H49" s="3">
         <v>1269700</v>
       </c>
-      <c r="H49" s="3">
+      <c r="I49" s="3">
         <v>524600</v>
       </c>
-      <c r="I49" s="3">
+      <c r="J49" s="3">
         <v>545800</v>
       </c>
-      <c r="J49" s="3">
+      <c r="K49" s="3">
         <v>567200</v>
       </c>
-      <c r="K49" s="3">
+      <c r="L49" s="3">
         <v>588700</v>
       </c>
-      <c r="L49" s="3">
+      <c r="M49" s="3">
         <v>610100</v>
       </c>
-      <c r="M49" s="3">
+      <c r="N49" s="3">
         <v>632100</v>
       </c>
-      <c r="N49" s="3">
+      <c r="O49" s="3">
         <v>654100</v>
       </c>
-      <c r="O49" s="3">
+      <c r="P49" s="3">
         <v>665000</v>
       </c>
-      <c r="P49" s="3">
+      <c r="Q49" s="3">
         <v>685700</v>
       </c>
-      <c r="Q49" s="3">
+      <c r="R49" s="3">
         <v>706900</v>
       </c>
-      <c r="R49" s="3">
+      <c r="S49" s="3">
         <v>726900</v>
       </c>
-      <c r="S49" s="3">
+      <c r="T49" s="3">
         <v>745500</v>
       </c>
-      <c r="T49" s="3">
+      <c r="U49" s="3">
         <v>764300</v>
       </c>
-      <c r="U49" s="3">
+      <c r="V49" s="3">
         <v>772100</v>
       </c>
-      <c r="V49" s="3">
+      <c r="W49" s="3">
         <v>789700</v>
       </c>
-      <c r="W49" s="3">
+      <c r="X49" s="3">
         <v>17600</v>
       </c>
-      <c r="X49" s="3">
+      <c r="Y49" s="3">
         <v>44600</v>
       </c>
-      <c r="Y49" s="3">
+      <c r="Z49" s="3">
         <v>57200</v>
       </c>
-      <c r="Z49" s="3">
+      <c r="AA49" s="3">
         <v>20400</v>
       </c>
-      <c r="AA49" s="3">
+      <c r="AB49" s="3">
         <v>21000</v>
       </c>
-      <c r="AB49" s="3">
+      <c r="AC49" s="3">
         <v>21500</v>
       </c>
-      <c r="AC49" s="3">
+      <c r="AD49" s="3">
         <v>22300</v>
       </c>
-      <c r="AD49" s="3">
+      <c r="AE49" s="3">
         <v>16000</v>
       </c>
-      <c r="AE49" s="3">
+      <c r="AF49" s="3">
         <v>18100</v>
       </c>
     </row>
-    <row r="50" spans="3:31" x14ac:dyDescent="0.2">
+    <row r="50" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -4153,8 +4267,11 @@
       <c r="AE50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -4242,97 +4359,103 @@
       <c r="AE51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
+        <v>142600</v>
+      </c>
+      <c r="E52" s="3">
         <v>133100</v>
       </c>
-      <c r="E52" s="3">
+      <c r="F52" s="3">
         <v>131400</v>
       </c>
-      <c r="F52" s="3">
+      <c r="G52" s="3">
         <v>114800</v>
       </c>
-      <c r="G52" s="3">
+      <c r="H52" s="3">
         <v>111900</v>
       </c>
-      <c r="H52" s="3">
+      <c r="I52" s="3">
         <v>64300</v>
       </c>
-      <c r="I52" s="3">
+      <c r="J52" s="3">
         <v>56400</v>
       </c>
-      <c r="J52" s="3">
+      <c r="K52" s="3">
         <v>73700</v>
       </c>
-      <c r="K52" s="3">
+      <c r="L52" s="3">
         <v>78900</v>
       </c>
-      <c r="L52" s="3">
+      <c r="M52" s="3">
         <v>76200</v>
       </c>
-      <c r="M52" s="3">
+      <c r="N52" s="3">
         <v>95700</v>
       </c>
-      <c r="N52" s="3">
+      <c r="O52" s="3">
         <v>90300</v>
       </c>
-      <c r="O52" s="3">
+      <c r="P52" s="3">
         <v>87600</v>
       </c>
-      <c r="P52" s="3">
+      <c r="Q52" s="3">
         <v>85200</v>
       </c>
-      <c r="Q52" s="3">
+      <c r="R52" s="3">
         <v>107000</v>
       </c>
-      <c r="R52" s="3">
+      <c r="S52" s="3">
         <v>105600</v>
       </c>
-      <c r="S52" s="3">
+      <c r="T52" s="3">
         <v>174200</v>
       </c>
-      <c r="T52" s="3">
+      <c r="U52" s="3">
         <v>186200</v>
       </c>
-      <c r="U52" s="3">
+      <c r="V52" s="3">
         <v>190600</v>
       </c>
-      <c r="V52" s="3">
+      <c r="W52" s="3">
         <v>205300</v>
       </c>
-      <c r="W52" s="3">
+      <c r="X52" s="3">
         <v>127700</v>
       </c>
-      <c r="X52" s="3">
+      <c r="Y52" s="3">
         <v>129100</v>
       </c>
-      <c r="Y52" s="3">
+      <c r="Z52" s="3">
         <v>131800</v>
       </c>
-      <c r="Z52" s="3">
+      <c r="AA52" s="3">
         <v>131900</v>
       </c>
-      <c r="AA52" s="3">
+      <c r="AB52" s="3">
         <v>11200</v>
       </c>
-      <c r="AB52" s="3">
+      <c r="AC52" s="3">
         <v>7600</v>
       </c>
-      <c r="AC52" s="3">
+      <c r="AD52" s="3">
         <v>34000</v>
       </c>
-      <c r="AD52" s="3">
+      <c r="AE52" s="3">
         <v>33500</v>
       </c>
-      <c r="AE52" s="3">
+      <c r="AF52" s="3">
         <v>34100</v>
       </c>
     </row>
-    <row r="53" spans="3:31" x14ac:dyDescent="0.2">
+    <row r="53" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -4420,97 +4543,103 @@
       <c r="AE53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>4545000</v>
+      </c>
+      <c r="E54" s="3">
         <v>4632100</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>4354000</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>4418100</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>4387400</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>4162200</v>
       </c>
-      <c r="I54" s="3">
+      <c r="J54" s="3">
         <v>4133500</v>
       </c>
-      <c r="J54" s="3">
+      <c r="K54" s="3">
         <v>3615700</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>3519000</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>3551600</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>3745900</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>3468200</v>
       </c>
-      <c r="O54" s="3">
+      <c r="P54" s="3">
         <v>3387400</v>
       </c>
-      <c r="P54" s="3">
+      <c r="Q54" s="3">
         <v>3292600</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="R54" s="3">
         <v>3268700</v>
       </c>
-      <c r="R54" s="3">
+      <c r="S54" s="3">
         <v>3221200</v>
       </c>
-      <c r="S54" s="3">
+      <c r="T54" s="3">
         <v>2867800</v>
       </c>
-      <c r="T54" s="3">
+      <c r="U54" s="3">
         <v>2716600</v>
       </c>
-      <c r="U54" s="3">
+      <c r="V54" s="3">
         <v>2771400</v>
       </c>
-      <c r="V54" s="3">
+      <c r="W54" s="3">
         <v>2796600</v>
       </c>
-      <c r="W54" s="3">
+      <c r="X54" s="3">
         <v>1645000</v>
       </c>
-      <c r="X54" s="3">
+      <c r="Y54" s="3">
         <v>1581500</v>
       </c>
-      <c r="Y54" s="3">
+      <c r="Z54" s="3">
         <v>1518200</v>
       </c>
-      <c r="Z54" s="3">
+      <c r="AA54" s="3">
         <v>1507400</v>
       </c>
-      <c r="AA54" s="3">
+      <c r="AB54" s="3">
         <v>1248400</v>
       </c>
-      <c r="AB54" s="3">
+      <c r="AC54" s="3">
         <v>1232900</v>
       </c>
-      <c r="AC54" s="3">
+      <c r="AD54" s="3">
         <v>1244500</v>
       </c>
-      <c r="AD54" s="3">
+      <c r="AE54" s="3">
         <v>796700</v>
       </c>
-      <c r="AE54" s="3">
+      <c r="AF54" s="3">
         <v>737500</v>
       </c>
     </row>
-    <row r="55" spans="3:31" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -4542,8 +4671,9 @@
       <c r="AC55" s="3"/>
       <c r="AD55" s="3"/>
       <c r="AE55" s="3"/>
-    </row>
-    <row r="56" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF55" s="3"/>
+    </row>
+    <row r="56" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -4575,174 +4705,178 @@
       <c r="AC56" s="3"/>
       <c r="AD56" s="3"/>
       <c r="AE56" s="3"/>
-    </row>
-    <row r="57" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF56" s="3"/>
+    </row>
+    <row r="57" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>134600</v>
+      </c>
+      <c r="E57" s="3">
         <v>169400</v>
       </c>
-      <c r="E57" s="3">
+      <c r="F57" s="3">
         <v>198700</v>
       </c>
-      <c r="F57" s="3">
+      <c r="G57" s="3">
         <v>205600</v>
       </c>
-      <c r="G57" s="3">
+      <c r="H57" s="3">
         <v>205700</v>
       </c>
-      <c r="H57" s="3">
+      <c r="I57" s="3">
         <v>156700</v>
       </c>
-      <c r="I57" s="3">
+      <c r="J57" s="3">
         <v>126800</v>
       </c>
-      <c r="J57" s="3">
+      <c r="K57" s="3">
         <v>118200</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>101600</v>
       </c>
-      <c r="L57" s="3">
+      <c r="M57" s="3">
         <v>116900</v>
       </c>
-      <c r="M57" s="3">
+      <c r="N57" s="3">
         <v>104700</v>
       </c>
-      <c r="N57" s="3">
+      <c r="O57" s="3">
         <v>111300</v>
       </c>
-      <c r="O57" s="3">
+      <c r="P57" s="3">
         <v>146000</v>
       </c>
-      <c r="P57" s="3">
+      <c r="Q57" s="3">
         <v>150800</v>
       </c>
-      <c r="Q57" s="3">
+      <c r="R57" s="3">
         <v>144600</v>
       </c>
-      <c r="R57" s="3">
+      <c r="S57" s="3">
         <v>143700</v>
       </c>
-      <c r="S57" s="3">
+      <c r="T57" s="3">
         <v>152200</v>
       </c>
-      <c r="T57" s="3">
+      <c r="U57" s="3">
         <v>160800</v>
       </c>
-      <c r="U57" s="3">
+      <c r="V57" s="3">
         <v>204100</v>
       </c>
-      <c r="V57" s="3">
+      <c r="W57" s="3">
         <v>199200</v>
       </c>
-      <c r="W57" s="3">
+      <c r="X57" s="3">
         <v>127600</v>
       </c>
-      <c r="X57" s="3">
+      <c r="Y57" s="3">
         <v>126500</v>
       </c>
-      <c r="Y57" s="3">
+      <c r="Z57" s="3">
         <v>100900</v>
       </c>
-      <c r="Z57" s="3">
+      <c r="AA57" s="3">
         <v>113000</v>
       </c>
-      <c r="AA57" s="3">
+      <c r="AB57" s="3">
         <v>111600</v>
       </c>
-      <c r="AB57" s="3">
+      <c r="AC57" s="3">
         <v>114800</v>
       </c>
-      <c r="AC57" s="3">
+      <c r="AD57" s="3">
         <v>118400</v>
       </c>
-      <c r="AD57" s="3">
+      <c r="AE57" s="3">
         <v>127800</v>
       </c>
-      <c r="AE57" s="3">
+      <c r="AF57" s="3">
         <v>108300</v>
       </c>
     </row>
-    <row r="58" spans="3:31" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
+        <v>315700</v>
+      </c>
+      <c r="E58" s="3">
         <v>311600</v>
       </c>
-      <c r="E58" s="3">
+      <c r="F58" s="3">
         <v>426200</v>
       </c>
-      <c r="F58" s="3">
+      <c r="G58" s="3">
         <v>420700</v>
       </c>
-      <c r="G58" s="3">
+      <c r="H58" s="3">
         <v>420200</v>
       </c>
-      <c r="H58" s="3">
+      <c r="I58" s="3">
         <v>409900</v>
       </c>
-      <c r="I58" s="3">
+      <c r="J58" s="3">
         <v>406100</v>
       </c>
-      <c r="J58" s="3">
+      <c r="K58" s="3">
         <v>401000</v>
       </c>
-      <c r="K58" s="3">
+      <c r="L58" s="3">
         <v>395800</v>
       </c>
-      <c r="L58" s="3">
+      <c r="M58" s="3">
         <v>390700</v>
       </c>
-      <c r="M58" s="3">
+      <c r="N58" s="3">
         <v>385400</v>
       </c>
-      <c r="N58" s="3">
+      <c r="O58" s="3">
         <v>380600</v>
       </c>
-      <c r="O58" s="3">
+      <c r="P58" s="3">
         <v>400</v>
       </c>
-      <c r="P58" s="3">
+      <c r="Q58" s="3">
         <v>600</v>
       </c>
-      <c r="Q58" s="3">
+      <c r="R58" s="3">
         <v>3900</v>
       </c>
-      <c r="R58" s="3">
+      <c r="S58" s="3">
         <v>7100</v>
       </c>
-      <c r="S58" s="3">
+      <c r="T58" s="3">
         <v>15900</v>
       </c>
-      <c r="T58" s="3">
+      <c r="U58" s="3">
         <v>5400</v>
       </c>
-      <c r="U58" s="3">
+      <c r="V58" s="3">
         <v>5800</v>
       </c>
-      <c r="V58" s="3">
+      <c r="W58" s="3">
         <v>8700</v>
       </c>
-      <c r="W58" s="3">
+      <c r="X58" s="3">
         <v>5400</v>
       </c>
-      <c r="X58" s="3">
+      <c r="Y58" s="3">
         <v>7300</v>
       </c>
-      <c r="Y58" s="3">
+      <c r="Z58" s="3">
         <v>9200</v>
       </c>
-      <c r="Z58" s="3">
+      <c r="AA58" s="3">
         <v>9100</v>
       </c>
-      <c r="AA58" s="3">
+      <c r="AB58" s="3">
         <v>4900</v>
-      </c>
-      <c r="AB58" s="3" t="s">
-        <v>17</v>
       </c>
       <c r="AC58" s="3" t="s">
         <v>17</v>
@@ -4753,364 +4887,379 @@
       <c r="AE58" s="3" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="59" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF58" s="3" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="59" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>143400</v>
+      </c>
+      <c r="E59" s="3">
         <v>152800</v>
       </c>
-      <c r="E59" s="3">
+      <c r="F59" s="3">
         <v>144000</v>
       </c>
-      <c r="F59" s="3">
+      <c r="G59" s="3">
         <v>188000</v>
       </c>
-      <c r="G59" s="3">
+      <c r="H59" s="3">
         <v>176900</v>
       </c>
-      <c r="H59" s="3">
+      <c r="I59" s="3">
         <v>149900</v>
       </c>
-      <c r="I59" s="3">
+      <c r="J59" s="3">
         <v>127800</v>
       </c>
-      <c r="J59" s="3">
+      <c r="K59" s="3">
         <v>137500</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>114300</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>157000</v>
       </c>
-      <c r="M59" s="3">
+      <c r="N59" s="3">
         <v>184100</v>
       </c>
-      <c r="N59" s="3">
+      <c r="O59" s="3">
         <v>155400</v>
       </c>
-      <c r="O59" s="3">
+      <c r="P59" s="3">
         <v>147000</v>
       </c>
-      <c r="P59" s="3">
+      <c r="Q59" s="3">
         <v>131600</v>
       </c>
-      <c r="Q59" s="3">
+      <c r="R59" s="3">
         <v>138200</v>
       </c>
-      <c r="R59" s="3">
+      <c r="S59" s="3">
         <v>153400</v>
       </c>
-      <c r="S59" s="3">
+      <c r="T59" s="3">
         <v>148700</v>
       </c>
-      <c r="T59" s="3">
+      <c r="U59" s="3">
         <v>127800</v>
       </c>
-      <c r="U59" s="3">
+      <c r="V59" s="3">
         <v>148100</v>
       </c>
-      <c r="V59" s="3">
+      <c r="W59" s="3">
         <v>117600</v>
       </c>
-      <c r="W59" s="3">
+      <c r="X59" s="3">
         <v>80900</v>
       </c>
-      <c r="X59" s="3">
+      <c r="Y59" s="3">
         <v>80200</v>
       </c>
-      <c r="Y59" s="3">
+      <c r="Z59" s="3">
         <v>81400</v>
       </c>
-      <c r="Z59" s="3">
+      <c r="AA59" s="3">
         <v>95600</v>
       </c>
-      <c r="AA59" s="3">
+      <c r="AB59" s="3">
         <v>60700</v>
       </c>
-      <c r="AB59" s="3">
+      <c r="AC59" s="3">
         <v>69400</v>
       </c>
-      <c r="AC59" s="3">
+      <c r="AD59" s="3">
         <v>73700</v>
       </c>
-      <c r="AD59" s="3">
+      <c r="AE59" s="3">
         <v>74200</v>
       </c>
-      <c r="AE59" s="3">
+      <c r="AF59" s="3">
         <v>55200</v>
       </c>
     </row>
-    <row r="60" spans="3:31" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>593700</v>
+      </c>
+      <c r="E60" s="3">
         <v>633800</v>
       </c>
-      <c r="E60" s="3">
+      <c r="F60" s="3">
         <v>768900</v>
       </c>
-      <c r="F60" s="3">
+      <c r="G60" s="3">
         <v>814300</v>
       </c>
-      <c r="G60" s="3">
+      <c r="H60" s="3">
         <v>802800</v>
       </c>
-      <c r="H60" s="3">
+      <c r="I60" s="3">
         <v>716500</v>
       </c>
-      <c r="I60" s="3">
+      <c r="J60" s="3">
         <v>660700</v>
       </c>
-      <c r="J60" s="3">
+      <c r="K60" s="3">
         <v>656700</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>611700</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>664600</v>
       </c>
-      <c r="M60" s="3">
+      <c r="N60" s="3">
         <v>674200</v>
       </c>
-      <c r="N60" s="3">
+      <c r="O60" s="3">
         <v>647300</v>
       </c>
-      <c r="O60" s="3">
+      <c r="P60" s="3">
         <v>293400</v>
       </c>
-      <c r="P60" s="3">
+      <c r="Q60" s="3">
         <v>283000</v>
       </c>
-      <c r="Q60" s="3">
+      <c r="R60" s="3">
         <v>286700</v>
       </c>
-      <c r="R60" s="3">
+      <c r="S60" s="3">
         <v>304200</v>
       </c>
-      <c r="S60" s="3">
+      <c r="T60" s="3">
         <v>316800</v>
       </c>
-      <c r="T60" s="3">
+      <c r="U60" s="3">
         <v>294000</v>
       </c>
-      <c r="U60" s="3">
+      <c r="V60" s="3">
         <v>358000</v>
       </c>
-      <c r="V60" s="3">
+      <c r="W60" s="3">
         <v>325500</v>
       </c>
-      <c r="W60" s="3">
+      <c r="X60" s="3">
         <v>213900</v>
       </c>
-      <c r="X60" s="3">
+      <c r="Y60" s="3">
         <v>214000</v>
       </c>
-      <c r="Y60" s="3">
+      <c r="Z60" s="3">
         <v>191500</v>
       </c>
-      <c r="Z60" s="3">
+      <c r="AA60" s="3">
         <v>217700</v>
       </c>
-      <c r="AA60" s="3">
+      <c r="AB60" s="3">
         <v>177200</v>
       </c>
-      <c r="AB60" s="3">
+      <c r="AC60" s="3">
         <v>184200</v>
       </c>
-      <c r="AC60" s="3">
+      <c r="AD60" s="3">
         <v>192100</v>
       </c>
-      <c r="AD60" s="3">
+      <c r="AE60" s="3">
         <v>202000</v>
       </c>
-      <c r="AE60" s="3">
+      <c r="AF60" s="3">
         <v>163500</v>
       </c>
     </row>
-    <row r="61" spans="3:31" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
+        <v>2500900</v>
+      </c>
+      <c r="E61" s="3">
         <v>2500000</v>
       </c>
-      <c r="E61" s="3">
+      <c r="F61" s="3">
         <v>1900800</v>
       </c>
-      <c r="F61" s="3">
+      <c r="G61" s="3">
         <v>1900300</v>
       </c>
-      <c r="G61" s="3">
+      <c r="H61" s="3">
         <v>1899500</v>
       </c>
-      <c r="H61" s="3">
+      <c r="I61" s="3">
         <v>1466100</v>
       </c>
-      <c r="I61" s="3">
+      <c r="J61" s="3">
         <v>1447600</v>
       </c>
-      <c r="J61" s="3">
+      <c r="K61" s="3">
         <v>810300</v>
       </c>
-      <c r="K61" s="3">
+      <c r="L61" s="3">
         <v>800000</v>
       </c>
-      <c r="L61" s="3">
+      <c r="M61" s="3">
         <v>789800</v>
       </c>
-      <c r="M61" s="3">
+      <c r="N61" s="3">
         <v>778900</v>
       </c>
-      <c r="N61" s="3">
+      <c r="O61" s="3">
         <v>769100</v>
       </c>
-      <c r="O61" s="3">
+      <c r="P61" s="3">
         <v>1134700</v>
       </c>
-      <c r="P61" s="3">
+      <c r="Q61" s="3">
         <v>1120300</v>
       </c>
-      <c r="Q61" s="3">
+      <c r="R61" s="3">
         <v>1106100</v>
       </c>
-      <c r="R61" s="3">
+      <c r="S61" s="3">
         <v>1092200</v>
       </c>
-      <c r="S61" s="3">
+      <c r="T61" s="3">
         <v>840000</v>
       </c>
-      <c r="T61" s="3">
+      <c r="U61" s="3">
         <v>835900</v>
       </c>
-      <c r="U61" s="3">
+      <c r="V61" s="3">
         <v>832400</v>
       </c>
-      <c r="V61" s="3">
+      <c r="W61" s="3">
         <v>829200</v>
       </c>
-      <c r="W61" s="3">
+      <c r="X61" s="3">
         <v>338500</v>
       </c>
-      <c r="X61" s="3">
+      <c r="Y61" s="3">
         <v>334600</v>
       </c>
-      <c r="Y61" s="3">
+      <c r="Z61" s="3">
         <v>330700</v>
       </c>
-      <c r="Z61" s="3">
+      <c r="AA61" s="3">
         <v>328800</v>
       </c>
-      <c r="AA61" s="3">
+      <c r="AB61" s="3">
         <v>324000</v>
       </c>
-      <c r="AB61" s="3">
+      <c r="AC61" s="3">
         <v>317500</v>
       </c>
-      <c r="AC61" s="3">
+      <c r="AD61" s="3">
         <v>313400</v>
       </c>
-      <c r="AD61" s="3">
-        <v>0</v>
-      </c>
       <c r="AE61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
+        <v>139600</v>
+      </c>
+      <c r="E62" s="3">
         <v>142500</v>
       </c>
-      <c r="E62" s="3">
+      <c r="F62" s="3">
         <v>146300</v>
       </c>
-      <c r="F62" s="3">
+      <c r="G62" s="3">
         <v>159900</v>
       </c>
-      <c r="G62" s="3">
+      <c r="H62" s="3">
         <v>158700</v>
       </c>
-      <c r="H62" s="3">
+      <c r="I62" s="3">
         <v>104600</v>
       </c>
-      <c r="I62" s="3">
+      <c r="J62" s="3">
         <v>113100</v>
       </c>
-      <c r="J62" s="3">
+      <c r="K62" s="3">
         <v>126800</v>
       </c>
-      <c r="K62" s="3">
+      <c r="L62" s="3">
         <v>135900</v>
       </c>
-      <c r="L62" s="3">
+      <c r="M62" s="3">
         <v>124400</v>
       </c>
-      <c r="M62" s="3">
+      <c r="N62" s="3">
         <v>127800</v>
       </c>
-      <c r="N62" s="3">
+      <c r="O62" s="3">
         <v>129900</v>
       </c>
-      <c r="O62" s="3">
+      <c r="P62" s="3">
         <v>143200</v>
       </c>
-      <c r="P62" s="3">
+      <c r="Q62" s="3">
         <v>140100</v>
       </c>
-      <c r="Q62" s="3">
+      <c r="R62" s="3">
         <v>141700</v>
       </c>
-      <c r="R62" s="3">
+      <c r="S62" s="3">
         <v>143200</v>
       </c>
-      <c r="S62" s="3">
+      <c r="T62" s="3">
         <v>149700</v>
       </c>
-      <c r="T62" s="3">
+      <c r="U62" s="3">
         <v>89600</v>
       </c>
-      <c r="U62" s="3">
+      <c r="V62" s="3">
         <v>77100</v>
       </c>
-      <c r="V62" s="3">
+      <c r="W62" s="3">
         <v>82200</v>
       </c>
-      <c r="W62" s="3">
+      <c r="X62" s="3">
         <v>73300</v>
       </c>
-      <c r="X62" s="3">
+      <c r="Y62" s="3">
         <v>71000</v>
       </c>
-      <c r="Y62" s="3">
+      <c r="Z62" s="3">
         <v>83600</v>
       </c>
-      <c r="Z62" s="3">
+      <c r="AA62" s="3">
         <v>60800</v>
       </c>
-      <c r="AA62" s="3">
+      <c r="AB62" s="3">
         <v>70300</v>
       </c>
-      <c r="AB62" s="3">
+      <c r="AC62" s="3">
         <v>76600</v>
       </c>
-      <c r="AC62" s="3">
+      <c r="AD62" s="3">
         <v>234600</v>
-      </c>
-      <c r="AD62" s="3">
-        <v>42500</v>
       </c>
       <c r="AE62" s="3">
         <v>42500</v>
       </c>
-    </row>
-    <row r="63" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF62" s="3">
+        <v>42500</v>
+      </c>
+    </row>
+    <row r="63" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -5198,8 +5347,11 @@
       <c r="AE63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -5287,8 +5439,11 @@
       <c r="AE64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:31" x14ac:dyDescent="0.2">
+      <c r="AF64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -5376,97 +5531,103 @@
       <c r="AE65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:31" x14ac:dyDescent="0.2">
+      <c r="AF65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>3234200</v>
+      </c>
+      <c r="E66" s="3">
         <v>3276300</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>2816000</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>2874500</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>2861000</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>2287200</v>
       </c>
-      <c r="I66" s="3">
+      <c r="J66" s="3">
         <v>2221400</v>
       </c>
-      <c r="J66" s="3">
+      <c r="K66" s="3">
         <v>1593800</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>1547600</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>1578800</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>1580900</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>1546300</v>
       </c>
-      <c r="O66" s="3">
+      <c r="P66" s="3">
         <v>1571300</v>
       </c>
-      <c r="P66" s="3">
+      <c r="Q66" s="3">
         <v>1543400</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="R66" s="3">
         <v>1534500</v>
       </c>
-      <c r="R66" s="3">
+      <c r="S66" s="3">
         <v>1539600</v>
       </c>
-      <c r="S66" s="3">
+      <c r="T66" s="3">
         <v>1306500</v>
       </c>
-      <c r="T66" s="3">
+      <c r="U66" s="3">
         <v>1219500</v>
       </c>
-      <c r="U66" s="3">
+      <c r="V66" s="3">
         <v>1267500</v>
       </c>
-      <c r="V66" s="3">
+      <c r="W66" s="3">
         <v>1236900</v>
       </c>
-      <c r="W66" s="3">
+      <c r="X66" s="3">
         <v>661500</v>
       </c>
-      <c r="X66" s="3">
+      <c r="Y66" s="3">
         <v>655400</v>
       </c>
-      <c r="Y66" s="3">
+      <c r="Z66" s="3">
         <v>641600</v>
       </c>
-      <c r="Z66" s="3">
+      <c r="AA66" s="3">
         <v>643100</v>
       </c>
-      <c r="AA66" s="3">
+      <c r="AB66" s="3">
         <v>607300</v>
       </c>
-      <c r="AB66" s="3">
+      <c r="AC66" s="3">
         <v>614100</v>
       </c>
-      <c r="AC66" s="3">
+      <c r="AD66" s="3">
         <v>775900</v>
       </c>
-      <c r="AD66" s="3">
+      <c r="AE66" s="3">
         <v>280300</v>
       </c>
-      <c r="AE66" s="3">
+      <c r="AF66" s="3">
         <v>241800</v>
       </c>
     </row>
-    <row r="67" spans="2:31" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -5498,8 +5659,9 @@
       <c r="AC67" s="3"/>
       <c r="AD67" s="3"/>
       <c r="AE67" s="3"/>
-    </row>
-    <row r="68" spans="2:31" x14ac:dyDescent="0.2">
+      <c r="AF67" s="3"/>
+    </row>
+    <row r="68" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -5587,8 +5749,11 @@
       <c r="AE68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:31" x14ac:dyDescent="0.2">
+      <c r="AF68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -5676,8 +5841,11 @@
       <c r="AE69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:31" x14ac:dyDescent="0.2">
+      <c r="AF69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -5765,8 +5933,11 @@
       <c r="AE70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:31" x14ac:dyDescent="0.2">
+      <c r="AF70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -5854,97 +6025,103 @@
       <c r="AE71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:31" x14ac:dyDescent="0.2">
+      <c r="AF71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>-408500</v>
+      </c>
+      <c r="E72" s="3">
         <v>-340600</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>-140600</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>-101300</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>-69600</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>-129100</v>
       </c>
-      <c r="I72" s="3">
+      <c r="J72" s="3">
         <v>-60500</v>
       </c>
-      <c r="J72" s="3">
+      <c r="K72" s="3">
         <v>237500</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>210700</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>220900</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>440400</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>214900</v>
       </c>
-      <c r="O72" s="3">
+      <c r="P72" s="3">
         <v>131700</v>
       </c>
-      <c r="P72" s="3">
+      <c r="Q72" s="3">
         <v>64600</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="R72" s="3">
         <v>69200</v>
       </c>
-      <c r="R72" s="3">
+      <c r="S72" s="3">
         <v>25800</v>
       </c>
-      <c r="S72" s="3">
+      <c r="T72" s="3">
         <v>176700</v>
       </c>
-      <c r="T72" s="3">
+      <c r="U72" s="3">
         <v>129100</v>
       </c>
-      <c r="U72" s="3">
+      <c r="V72" s="3">
         <v>154900</v>
       </c>
-      <c r="V72" s="3">
+      <c r="W72" s="3">
         <v>229200</v>
       </c>
-      <c r="W72" s="3">
+      <c r="X72" s="3">
         <v>213000</v>
       </c>
-      <c r="X72" s="3">
+      <c r="Y72" s="3">
         <v>166400</v>
       </c>
-      <c r="Y72" s="3">
+      <c r="Z72" s="3">
         <v>133200</v>
       </c>
-      <c r="Z72" s="3">
+      <c r="AA72" s="3">
         <v>130700</v>
       </c>
-      <c r="AA72" s="3">
+      <c r="AB72" s="3">
         <v>-73900</v>
       </c>
-      <c r="AB72" s="3">
+      <c r="AC72" s="3">
         <v>-83200</v>
       </c>
-      <c r="AC72" s="3">
+      <c r="AD72" s="3">
         <v>-28000</v>
       </c>
-      <c r="AD72" s="3">
+      <c r="AE72" s="3">
         <v>28200</v>
       </c>
-      <c r="AE72" s="3">
+      <c r="AF72" s="3">
         <v>16600</v>
       </c>
     </row>
-    <row r="73" spans="2:31" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -6032,8 +6209,11 @@
       <c r="AE73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:31" x14ac:dyDescent="0.2">
+      <c r="AF73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -6121,8 +6301,11 @@
       <c r="AE74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:31" x14ac:dyDescent="0.2">
+      <c r="AF74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -6210,97 +6393,103 @@
       <c r="AE75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:31" x14ac:dyDescent="0.2">
+      <c r="AF75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>1310800</v>
+      </c>
+      <c r="E76" s="3">
         <v>1355800</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>1538000</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>1543600</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>1526400</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>1875000</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>1912100</v>
       </c>
-      <c r="J76" s="3">
+      <c r="K76" s="3">
         <v>2021900</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>1971400</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>1972800</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>2165000</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>1921900</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>1816100</v>
       </c>
-      <c r="P76" s="3">
+      <c r="Q76" s="3">
         <v>1749200</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="R76" s="3">
         <v>1734200</v>
       </c>
-      <c r="R76" s="3">
+      <c r="S76" s="3">
         <v>1681600</v>
       </c>
-      <c r="S76" s="3">
+      <c r="T76" s="3">
         <v>1561300</v>
       </c>
-      <c r="T76" s="3">
+      <c r="U76" s="3">
         <v>1497100</v>
       </c>
-      <c r="U76" s="3">
+      <c r="V76" s="3">
         <v>1503900</v>
       </c>
-      <c r="V76" s="3">
+      <c r="W76" s="3">
         <v>1559700</v>
       </c>
-      <c r="W76" s="3">
+      <c r="X76" s="3">
         <v>983500</v>
       </c>
-      <c r="X76" s="3">
+      <c r="Y76" s="3">
         <v>926100</v>
       </c>
-      <c r="Y76" s="3">
+      <c r="Z76" s="3">
         <v>876600</v>
       </c>
-      <c r="Z76" s="3">
+      <c r="AA76" s="3">
         <v>864300</v>
       </c>
-      <c r="AA76" s="3">
+      <c r="AB76" s="3">
         <v>641100</v>
       </c>
-      <c r="AB76" s="3">
+      <c r="AC76" s="3">
         <v>618800</v>
       </c>
-      <c r="AC76" s="3">
+      <c r="AD76" s="3">
         <v>468600</v>
       </c>
-      <c r="AD76" s="3">
+      <c r="AE76" s="3">
         <v>516400</v>
       </c>
-      <c r="AE76" s="3">
+      <c r="AF76" s="3">
         <v>495700</v>
       </c>
     </row>
-    <row r="77" spans="2:31" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -6388,191 +6577,200 @@
       <c r="AE77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:31" x14ac:dyDescent="0.2">
+      <c r="AF77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:32" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:31" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>45199</v>
+      </c>
+      <c r="E80" s="2">
         <v>45108</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>45017</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44926</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44835</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>44744</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>44653</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>44562</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>44471</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>44380</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>44289</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>44191</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>44100</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>44009</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>43918</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>43827</v>
       </c>
-      <c r="S80" s="2">
+      <c r="T80" s="2">
         <v>43736</v>
       </c>
-      <c r="T80" s="2">
+      <c r="U80" s="2">
         <v>43645</v>
       </c>
-      <c r="U80" s="2">
+      <c r="V80" s="2">
         <v>43554</v>
       </c>
-      <c r="V80" s="2">
+      <c r="W80" s="2">
         <v>43463</v>
       </c>
-      <c r="W80" s="2">
+      <c r="X80" s="2">
         <v>43372</v>
       </c>
-      <c r="X80" s="2">
+      <c r="Y80" s="2">
         <v>43281</v>
       </c>
-      <c r="Y80" s="2">
+      <c r="Z80" s="2">
         <v>43190</v>
       </c>
-      <c r="Z80" s="2">
+      <c r="AA80" s="2">
         <v>43099</v>
       </c>
-      <c r="AA80" s="2">
+      <c r="AB80" s="2">
         <v>43008</v>
       </c>
-      <c r="AB80" s="2">
+      <c r="AC80" s="2">
         <v>42917</v>
       </c>
-      <c r="AC80" s="2">
+      <c r="AD80" s="2">
         <v>42826</v>
       </c>
-      <c r="AD80" s="2">
+      <c r="AE80" s="2">
         <v>42735</v>
       </c>
-      <c r="AE80" s="2">
+      <c r="AF80" s="2">
         <v>42644</v>
       </c>
     </row>
-    <row r="81" spans="3:31" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>-67900</v>
+      </c>
+      <c r="E81" s="3">
         <v>-60200</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="3">
         <v>-39300</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>-31700</v>
       </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
         <v>-400</v>
       </c>
-      <c r="H81" s="3">
+      <c r="I81" s="3">
         <v>34700</v>
       </c>
-      <c r="I81" s="3">
+      <c r="J81" s="3">
         <v>26000</v>
       </c>
-      <c r="J81" s="3">
+      <c r="K81" s="3">
         <v>56700</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>81500</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>21500</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>225500</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>83200</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>67100</v>
       </c>
-      <c r="P81" s="3">
+      <c r="Q81" s="3">
         <v>-4600</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="R81" s="3">
         <v>43400</v>
       </c>
-      <c r="R81" s="3">
+      <c r="S81" s="3">
         <v>49100</v>
       </c>
-      <c r="S81" s="3">
+      <c r="T81" s="3">
         <v>47600</v>
       </c>
-      <c r="T81" s="3">
+      <c r="U81" s="3">
         <v>-25800</v>
       </c>
-      <c r="U81" s="3">
+      <c r="V81" s="3">
         <v>-74300</v>
       </c>
-      <c r="V81" s="3">
+      <c r="W81" s="3">
         <v>16200</v>
       </c>
-      <c r="W81" s="3">
+      <c r="X81" s="3">
         <v>46100</v>
       </c>
-      <c r="X81" s="3">
+      <c r="Y81" s="3">
         <v>32500</v>
       </c>
-      <c r="Y81" s="3">
+      <c r="Z81" s="3">
         <v>2400</v>
       </c>
-      <c r="Z81" s="3">
+      <c r="AA81" s="3">
         <v>116800</v>
       </c>
-      <c r="AA81" s="3">
+      <c r="AB81" s="3">
         <v>6900</v>
       </c>
-      <c r="AB81" s="3">
+      <c r="AC81" s="3">
         <v>-55200</v>
       </c>
-      <c r="AC81" s="3">
+      <c r="AD81" s="3">
         <v>-56200</v>
       </c>
-      <c r="AD81" s="3">
+      <c r="AE81" s="3">
         <v>11600</v>
       </c>
-      <c r="AE81" s="3">
+      <c r="AF81" s="3">
         <v>-3600</v>
       </c>
     </row>
-    <row r="82" spans="3:31" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -6604,97 +6802,101 @@
       <c r="AC82" s="3"/>
       <c r="AD82" s="3"/>
       <c r="AE82" s="3"/>
-    </row>
-    <row r="83" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF82" s="3"/>
+    </row>
+    <row r="83" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
+        <v>57200</v>
+      </c>
+      <c r="E83" s="3">
         <v>78700</v>
       </c>
-      <c r="E83" s="3">
+      <c r="F83" s="3">
         <v>57700</v>
       </c>
-      <c r="F83" s="3">
+      <c r="G83" s="3">
         <v>62500</v>
       </c>
-      <c r="G83" s="3">
+      <c r="H83" s="3">
         <v>56700</v>
-      </c>
-      <c r="H83" s="3">
-        <v>41600</v>
       </c>
       <c r="I83" s="3">
         <v>41600</v>
       </c>
       <c r="J83" s="3">
+        <v>41600</v>
+      </c>
+      <c r="K83" s="3">
         <v>42100</v>
       </c>
-      <c r="K83" s="3">
+      <c r="L83" s="3">
         <v>41800</v>
       </c>
-      <c r="L83" s="3">
+      <c r="M83" s="3">
         <v>43100</v>
       </c>
-      <c r="M83" s="3">
+      <c r="N83" s="3">
         <v>44800</v>
       </c>
-      <c r="N83" s="3">
+      <c r="O83" s="3">
         <v>44700</v>
       </c>
-      <c r="O83" s="3">
+      <c r="P83" s="3">
         <v>44500</v>
       </c>
-      <c r="P83" s="3">
+      <c r="Q83" s="3">
         <v>46700</v>
       </c>
-      <c r="Q83" s="3">
+      <c r="R83" s="3">
         <v>47500</v>
       </c>
-      <c r="R83" s="3">
+      <c r="S83" s="3">
         <v>47300</v>
       </c>
-      <c r="S83" s="3">
+      <c r="T83" s="3">
         <v>50400</v>
       </c>
-      <c r="T83" s="3">
+      <c r="U83" s="3">
         <v>45100</v>
       </c>
-      <c r="U83" s="3">
+      <c r="V83" s="3">
         <v>60700</v>
       </c>
-      <c r="V83" s="3">
+      <c r="W83" s="3">
         <v>31200</v>
       </c>
-      <c r="W83" s="3">
+      <c r="X83" s="3">
         <v>20500</v>
       </c>
-      <c r="X83" s="3">
+      <c r="Y83" s="3">
         <v>21500</v>
       </c>
-      <c r="Y83" s="3">
+      <c r="Z83" s="3">
         <v>19200</v>
       </c>
-      <c r="Z83" s="3">
+      <c r="AA83" s="3">
         <v>19000</v>
       </c>
-      <c r="AA83" s="3">
+      <c r="AB83" s="3">
         <v>17500</v>
       </c>
-      <c r="AB83" s="3">
+      <c r="AC83" s="3">
         <v>16500</v>
       </c>
-      <c r="AC83" s="3">
+      <c r="AD83" s="3">
         <v>15900</v>
       </c>
-      <c r="AD83" s="3">
+      <c r="AE83" s="3">
         <v>14900</v>
       </c>
-      <c r="AE83" s="3">
+      <c r="AF83" s="3">
         <v>13700</v>
       </c>
     </row>
-    <row r="84" spans="3:31" x14ac:dyDescent="0.2">
+    <row r="84" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -6782,8 +6984,11 @@
       <c r="AE84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -6871,8 +7076,11 @@
       <c r="AE85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -6960,8 +7168,11 @@
       <c r="AE86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -7049,8 +7260,11 @@
       <c r="AE87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -7138,97 +7352,103 @@
       <c r="AE88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>-2300</v>
+      </c>
+      <c r="E89" s="3">
         <v>49200</v>
       </c>
-      <c r="E89" s="3">
+      <c r="F89" s="3">
         <v>14900</v>
       </c>
-      <c r="F89" s="3">
+      <c r="G89" s="3">
         <v>94900</v>
       </c>
-      <c r="G89" s="3">
+      <c r="H89" s="3">
         <v>20800</v>
       </c>
-      <c r="H89" s="3">
+      <c r="I89" s="3">
         <v>114300</v>
       </c>
-      <c r="I89" s="3">
+      <c r="J89" s="3">
         <v>76600</v>
       </c>
-      <c r="J89" s="3">
+      <c r="K89" s="3">
         <v>206500</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>61900</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>124200</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>381300</v>
       </c>
-      <c r="N89" s="3">
+      <c r="O89" s="3">
         <v>128500</v>
       </c>
-      <c r="O89" s="3">
+      <c r="P89" s="3">
         <v>104700</v>
       </c>
-      <c r="P89" s="3">
+      <c r="Q89" s="3">
         <v>122700</v>
       </c>
-      <c r="Q89" s="3">
+      <c r="R89" s="3">
         <v>151800</v>
       </c>
-      <c r="R89" s="3">
+      <c r="S89" s="3">
         <v>162300</v>
       </c>
-      <c r="S89" s="3">
+      <c r="T89" s="3">
         <v>87500</v>
       </c>
-      <c r="T89" s="3">
+      <c r="U89" s="3">
         <v>127700</v>
       </c>
-      <c r="U89" s="3">
+      <c r="V89" s="3">
         <v>42800</v>
       </c>
-      <c r="V89" s="3">
+      <c r="W89" s="3">
         <v>102400</v>
       </c>
-      <c r="W89" s="3">
+      <c r="X89" s="3">
         <v>57200</v>
       </c>
-      <c r="X89" s="3">
+      <c r="Y89" s="3">
         <v>37600</v>
       </c>
-      <c r="Y89" s="3">
+      <c r="Z89" s="3">
         <v>95100</v>
       </c>
-      <c r="Z89" s="3">
+      <c r="AA89" s="3">
         <v>105100</v>
       </c>
-      <c r="AA89" s="3">
+      <c r="AB89" s="3">
         <v>9700</v>
       </c>
-      <c r="AB89" s="3">
+      <c r="AC89" s="3">
         <v>13100</v>
       </c>
-      <c r="AC89" s="3">
+      <c r="AD89" s="3">
         <v>16400</v>
       </c>
-      <c r="AD89" s="3">
+      <c r="AE89" s="3">
         <v>19200</v>
       </c>
-      <c r="AE89" s="3">
+      <c r="AF89" s="3">
         <v>36300</v>
       </c>
     </row>
-    <row r="90" spans="3:31" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -7260,97 +7480,101 @@
       <c r="AC90" s="3"/>
       <c r="AD90" s="3"/>
       <c r="AE90" s="3"/>
-    </row>
-    <row r="91" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF90" s="3"/>
+    </row>
+    <row r="91" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
+        <v>-60800</v>
+      </c>
+      <c r="E91" s="3">
         <v>-36300</v>
       </c>
-      <c r="E91" s="3">
+      <c r="F91" s="3">
         <v>-29400</v>
       </c>
-      <c r="F91" s="3">
+      <c r="G91" s="3">
         <v>-39900</v>
       </c>
-      <c r="G91" s="3">
+      <c r="H91" s="3">
         <v>-22900</v>
       </c>
-      <c r="H91" s="3">
+      <c r="I91" s="3">
         <v>-28600</v>
       </c>
-      <c r="I91" s="3">
+      <c r="J91" s="3">
         <v>-18600</v>
       </c>
-      <c r="J91" s="3">
+      <c r="K91" s="3">
         <v>-26100</v>
       </c>
-      <c r="K91" s="3">
+      <c r="L91" s="3">
         <v>-17900</v>
       </c>
-      <c r="L91" s="3">
-        <v>0</v>
-      </c>
       <c r="M91" s="3">
         <v>0</v>
       </c>
       <c r="N91" s="3">
+        <v>0</v>
+      </c>
+      <c r="O91" s="3">
         <v>16300</v>
       </c>
-      <c r="O91" s="3">
+      <c r="P91" s="3">
         <v>-26300</v>
       </c>
-      <c r="P91" s="3">
-        <v>0</v>
-      </c>
       <c r="Q91" s="3">
+        <v>0</v>
+      </c>
+      <c r="R91" s="3">
         <v>-1000</v>
       </c>
-      <c r="R91" s="3">
+      <c r="S91" s="3">
         <v>-2000</v>
       </c>
-      <c r="S91" s="3">
+      <c r="T91" s="3">
         <v>-1000</v>
       </c>
-      <c r="T91" s="3">
-        <v>0</v>
-      </c>
       <c r="U91" s="3">
+        <v>0</v>
+      </c>
+      <c r="V91" s="3">
         <v>-600</v>
       </c>
-      <c r="V91" s="3">
-        <v>0</v>
-      </c>
       <c r="W91" s="3">
+        <v>0</v>
+      </c>
+      <c r="X91" s="3">
         <v>-700</v>
       </c>
-      <c r="X91" s="3">
+      <c r="Y91" s="3">
         <v>-20300</v>
       </c>
-      <c r="Y91" s="3">
+      <c r="Z91" s="3">
         <v>-22700</v>
       </c>
-      <c r="Z91" s="3">
+      <c r="AA91" s="3">
         <v>-17200</v>
       </c>
-      <c r="AA91" s="3">
+      <c r="AB91" s="3">
         <v>-33000</v>
       </c>
-      <c r="AB91" s="3">
+      <c r="AC91" s="3">
         <v>-38100</v>
       </c>
-      <c r="AC91" s="3">
+      <c r="AD91" s="3">
         <v>-35700</v>
       </c>
-      <c r="AD91" s="3">
+      <c r="AE91" s="3">
         <v>-35400</v>
       </c>
-      <c r="AE91" s="3">
+      <c r="AF91" s="3">
         <v>-28900</v>
       </c>
     </row>
-    <row r="92" spans="3:31" x14ac:dyDescent="0.2">
+    <row r="92" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -7438,8 +7662,11 @@
       <c r="AE92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -7527,97 +7754,103 @@
       <c r="AE93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
+        <v>17800</v>
+      </c>
+      <c r="E94" s="3">
         <v>-70900</v>
       </c>
-      <c r="E94" s="3">
+      <c r="F94" s="3">
         <v>-52000</v>
       </c>
-      <c r="F94" s="3">
+      <c r="G94" s="3">
         <v>-104500</v>
       </c>
-      <c r="G94" s="3">
+      <c r="H94" s="3">
         <v>-646600</v>
       </c>
-      <c r="H94" s="3">
+      <c r="I94" s="3">
         <v>142700</v>
       </c>
-      <c r="I94" s="3">
+      <c r="J94" s="3">
         <v>-23200</v>
       </c>
-      <c r="J94" s="3">
+      <c r="K94" s="3">
         <v>-228900</v>
       </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3">
         <v>-116900</v>
       </c>
-      <c r="L94" s="3">
+      <c r="M94" s="3">
         <v>197300</v>
       </c>
-      <c r="M94" s="3">
+      <c r="N94" s="3">
         <v>-7300</v>
       </c>
-      <c r="N94" s="3">
+      <c r="O94" s="3">
         <v>-75000</v>
       </c>
-      <c r="O94" s="3">
+      <c r="P94" s="3">
         <v>-114000</v>
       </c>
-      <c r="P94" s="3">
+      <c r="Q94" s="3">
         <v>-509800</v>
       </c>
-      <c r="Q94" s="3">
+      <c r="R94" s="3">
         <v>-535700</v>
       </c>
-      <c r="R94" s="3">
+      <c r="S94" s="3">
         <v>36100</v>
       </c>
-      <c r="S94" s="3">
+      <c r="T94" s="3">
         <v>21700</v>
       </c>
-      <c r="T94" s="3">
+      <c r="U94" s="3">
         <v>-54400</v>
       </c>
-      <c r="U94" s="3">
+      <c r="V94" s="3">
         <v>-52900</v>
       </c>
-      <c r="V94" s="3">
+      <c r="W94" s="3">
         <v>-681900</v>
       </c>
-      <c r="W94" s="3">
+      <c r="X94" s="3">
         <v>9500</v>
       </c>
-      <c r="X94" s="3">
+      <c r="Y94" s="3">
         <v>181700</v>
       </c>
-      <c r="Y94" s="3">
+      <c r="Z94" s="3">
         <v>-117600</v>
       </c>
-      <c r="Z94" s="3">
+      <c r="AA94" s="3">
         <v>-58600</v>
       </c>
-      <c r="AA94" s="3">
+      <c r="AB94" s="3">
         <v>-132500</v>
       </c>
-      <c r="AB94" s="3">
+      <c r="AC94" s="3">
         <v>-320600</v>
       </c>
-      <c r="AC94" s="3">
+      <c r="AD94" s="3">
         <v>-40800</v>
       </c>
-      <c r="AD94" s="3">
+      <c r="AE94" s="3">
         <v>-35400</v>
       </c>
-      <c r="AE94" s="3">
+      <c r="AF94" s="3">
         <v>-28900</v>
       </c>
     </row>
-    <row r="95" spans="3:31" x14ac:dyDescent="0.2">
+    <row r="95" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -7649,8 +7882,9 @@
       <c r="AC95" s="3"/>
       <c r="AD95" s="3"/>
       <c r="AE95" s="3"/>
-    </row>
-    <row r="96" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF95" s="3"/>
+    </row>
+    <row r="96" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -7738,8 +7972,11 @@
       <c r="AE96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -7827,8 +8064,11 @@
       <c r="AE97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -7916,8 +8156,11 @@
       <c r="AE98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -8005,97 +8248,103 @@
       <c r="AE99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>-12900</v>
+      </c>
+      <c r="E100" s="3">
         <v>331500</v>
       </c>
-      <c r="E100" s="3">
+      <c r="F100" s="3">
         <v>-5800</v>
       </c>
-      <c r="F100" s="3">
+      <c r="G100" s="3">
         <v>-3600</v>
       </c>
-      <c r="G100" s="3">
+      <c r="H100" s="3">
         <v>-59100</v>
       </c>
-      <c r="H100" s="3">
+      <c r="I100" s="3">
         <v>-97100</v>
       </c>
-      <c r="I100" s="3">
+      <c r="J100" s="3">
         <v>524900</v>
       </c>
-      <c r="J100" s="3">
+      <c r="K100" s="3">
         <v>-36600</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>-108300</v>
       </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
         <v>-234900</v>
       </c>
-      <c r="M100" s="3">
+      <c r="N100" s="3">
         <v>-7600</v>
       </c>
-      <c r="N100" s="3">
+      <c r="O100" s="3">
         <v>-1700</v>
       </c>
-      <c r="O100" s="3">
+      <c r="P100" s="3">
         <v>-19200</v>
       </c>
-      <c r="P100" s="3">
+      <c r="Q100" s="3">
         <v>-3700</v>
       </c>
-      <c r="Q100" s="3">
+      <c r="R100" s="3">
         <v>-12300</v>
       </c>
-      <c r="R100" s="3">
+      <c r="S100" s="3">
         <v>347600</v>
       </c>
-      <c r="S100" s="3">
+      <c r="T100" s="3">
         <v>-2800</v>
       </c>
-      <c r="T100" s="3">
+      <c r="U100" s="3">
         <v>1000</v>
       </c>
-      <c r="U100" s="3">
+      <c r="V100" s="3">
         <v>-2900</v>
       </c>
-      <c r="V100" s="3">
+      <c r="W100" s="3">
         <v>491600</v>
       </c>
-      <c r="W100" s="3">
+      <c r="X100" s="3">
         <v>-4600</v>
       </c>
-      <c r="X100" s="3">
+      <c r="Y100" s="3">
         <v>1900</v>
       </c>
-      <c r="Y100" s="3">
+      <c r="Z100" s="3">
         <v>-2800</v>
       </c>
-      <c r="Z100" s="3">
+      <c r="AA100" s="3">
         <v>4400</v>
       </c>
-      <c r="AA100" s="3">
+      <c r="AB100" s="3">
         <v>300</v>
       </c>
-      <c r="AB100" s="3">
+      <c r="AC100" s="3">
         <v>2000</v>
       </c>
-      <c r="AC100" s="3">
+      <c r="AD100" s="3">
         <v>445700</v>
       </c>
-      <c r="AD100" s="3">
+      <c r="AE100" s="3">
         <v>6700</v>
       </c>
-      <c r="AE100" s="3">
+      <c r="AF100" s="3">
         <v>2300</v>
       </c>
     </row>
-    <row r="101" spans="3:31" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -8154,122 +8403,128 @@
         <v>0</v>
       </c>
       <c r="V101" s="3">
+        <v>0</v>
+      </c>
+      <c r="W101" s="3">
         <v>-200</v>
       </c>
-      <c r="W101" s="3">
-        <v>0</v>
-      </c>
       <c r="X101" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y101" s="3">
         <v>-700</v>
       </c>
-      <c r="Y101" s="3">
-        <v>0</v>
-      </c>
       <c r="Z101" s="3">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="AA101" s="3">
         <v>400</v>
       </c>
       <c r="AB101" s="3">
+        <v>400</v>
+      </c>
+      <c r="AC101" s="3">
         <v>500</v>
       </c>
-      <c r="AC101" s="3">
+      <c r="AD101" s="3">
         <v>700</v>
       </c>
-      <c r="AD101" s="3">
+      <c r="AE101" s="3">
         <v>-1400</v>
       </c>
-      <c r="AE101" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="102" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>2600</v>
+      </c>
+      <c r="E102" s="3">
         <v>309800</v>
       </c>
-      <c r="E102" s="3">
+      <c r="F102" s="3">
         <v>-42900</v>
       </c>
-      <c r="F102" s="3">
+      <c r="G102" s="3">
         <v>-13200</v>
       </c>
-      <c r="G102" s="3">
+      <c r="H102" s="3">
         <v>-684900</v>
       </c>
-      <c r="H102" s="3">
+      <c r="I102" s="3">
         <v>159900</v>
       </c>
-      <c r="I102" s="3">
+      <c r="J102" s="3">
         <v>578300</v>
       </c>
-      <c r="J102" s="3">
+      <c r="K102" s="3">
         <v>-59000</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>-163300</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>86600</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>366400</v>
       </c>
-      <c r="N102" s="3">
+      <c r="O102" s="3">
         <v>51800</v>
       </c>
-      <c r="O102" s="3">
+      <c r="P102" s="3">
         <v>-28500</v>
       </c>
-      <c r="P102" s="3">
+      <c r="Q102" s="3">
         <v>-390800</v>
       </c>
-      <c r="Q102" s="3">
+      <c r="R102" s="3">
         <v>-396200</v>
       </c>
-      <c r="R102" s="3">
+      <c r="S102" s="3">
         <v>546000</v>
       </c>
-      <c r="S102" s="3">
+      <c r="T102" s="3">
         <v>106400</v>
       </c>
-      <c r="T102" s="3">
+      <c r="U102" s="3">
         <v>74300</v>
       </c>
-      <c r="U102" s="3">
+      <c r="V102" s="3">
         <v>-13000</v>
       </c>
-      <c r="V102" s="3">
+      <c r="W102" s="3">
         <v>-88100</v>
       </c>
-      <c r="W102" s="3">
+      <c r="X102" s="3">
         <v>62100</v>
       </c>
-      <c r="X102" s="3">
+      <c r="Y102" s="3">
         <v>220500</v>
       </c>
-      <c r="Y102" s="3">
+      <c r="Z102" s="3">
         <v>-25300</v>
       </c>
-      <c r="Z102" s="3">
+      <c r="AA102" s="3">
         <v>51300</v>
       </c>
-      <c r="AA102" s="3">
+      <c r="AB102" s="3">
         <v>-122100</v>
       </c>
-      <c r="AB102" s="3">
+      <c r="AC102" s="3">
         <v>-305000</v>
       </c>
-      <c r="AC102" s="3">
+      <c r="AD102" s="3">
         <v>422000</v>
       </c>
-      <c r="AD102" s="3">
+      <c r="AE102" s="3">
         <v>-10900</v>
       </c>
-      <c r="AE102" s="3">
+      <c r="AF102" s="3">
         <v>9700</v>
       </c>
     </row>
